--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1332AC-DDC8-4623-AF0A-96744A8406D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CED5AE-431F-4903-827F-40A6D0D89C9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PostEvent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分支</t>
   </si>
   <si>
@@ -3771,6 +3767,10 @@
   </si>
   <si>
     <t>$id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>postEvent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4368,10 +4368,10 @@
   <dimension ref="A1:N367"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.4140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4393,46 +4393,46 @@
   <sheetData>
     <row r="1" spans="1:14" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>962</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>953</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>955</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>956</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>958</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>960</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>953</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>954</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>955</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>956</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>957</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>958</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>959</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>961</v>
-      </c>
       <c r="M1" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N1" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -4446,7 +4446,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>2</v>
@@ -4464,7 +4464,7 @@
         <v>15</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>6</v>
@@ -4473,10 +4473,10 @@
         <v>7</v>
       </c>
       <c r="M2" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4484,7 +4484,10 @@
         <v>10000</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="I3" s="5">
+        <v>-1</v>
       </c>
       <c r="J3" s="5">
         <v>1</v>
@@ -4498,7 +4501,7 @@
         <v>10</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4509,7 +4512,7 @@
         <v>11</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4529,13 +4532,13 @@
         <v>-1</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4543,7 +4546,7 @@
         <v>10004</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J7" s="5">
         <v>1</v>
@@ -4560,13 +4563,13 @@
         <v>13</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4574,7 +4577,7 @@
         <v>10006</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="5">
         <v>1</v>
@@ -4585,16 +4588,16 @@
         <v>10007</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="L10" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4602,13 +4605,13 @@
         <v>10008</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H11" s="5">
         <v>1</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4616,10 +4619,10 @@
         <v>10009</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4627,10 +4630,10 @@
         <v>10010</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4638,13 +4641,13 @@
         <v>10011</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4652,19 +4655,19 @@
         <v>10012</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G15" s="5">
         <v>-1</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4672,13 +4675,13 @@
         <v>10013</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J16" s="5">
         <v>1</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4686,19 +4689,19 @@
         <v>10014</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17" s="5">
         <v>-1</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4706,7 +4709,7 @@
         <v>10015</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="5">
         <v>-1</v>
@@ -4715,7 +4718,7 @@
         <v>-1</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4723,10 +4726,10 @@
         <v>10016</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="5">
         <v>-1</v>
@@ -4735,13 +4738,13 @@
         <v>-1</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4749,10 +4752,10 @@
         <v>10017</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G20" s="5">
         <v>-2</v>
@@ -4761,13 +4764,13 @@
         <v>-1</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4775,10 +4778,10 @@
         <v>10018</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G21" s="5">
         <v>2</v>
@@ -4787,10 +4790,10 @@
         <v>1</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4798,7 +4801,7 @@
         <v>10019</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F22" s="5">
         <v>1</v>
@@ -4807,7 +4810,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4815,16 +4818,16 @@
         <v>10020</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E23" s="5">
         <v>-1</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4832,16 +4835,16 @@
         <v>10021</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="5">
-        <v>1</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="L24" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4849,19 +4852,19 @@
         <v>10022</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H25" s="5">
         <v>-1</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4869,19 +4872,19 @@
         <v>10023</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>61</v>
       </c>
       <c r="H26" s="5">
         <v>-1</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4889,22 +4892,22 @@
         <v>10024</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H27" s="5">
         <v>-1</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4912,7 +4915,7 @@
         <v>10025</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H28" s="5">
         <v>1</v>
@@ -4926,13 +4929,13 @@
         <v>10026</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="K29" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="L29" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4940,10 +4943,10 @@
         <v>10027</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" s="5">
         <v>2</v>
@@ -4952,10 +4955,10 @@
         <v>1</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4963,7 +4966,7 @@
         <v>10028</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F31" s="5">
         <v>1</v>
@@ -4972,10 +4975,10 @@
         <v>1</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4983,13 +4986,13 @@
         <v>10029</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -4997,10 +5000,10 @@
         <v>10030</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D33" s="5">
         <v>-3</v>
@@ -5009,13 +5012,13 @@
         <v>-2</v>
       </c>
       <c r="K33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L33" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="L33" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="N33" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5023,25 +5026,25 @@
         <v>10031</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H34" s="5">
         <v>-1</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="N34" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5049,10 +5052,10 @@
         <v>10032</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G35" s="5">
         <v>-2</v>
@@ -5066,10 +5069,10 @@
         <v>10033</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H36" s="5">
         <v>-2</v>
@@ -5078,7 +5081,7 @@
         <v>1</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5086,13 +5089,13 @@
         <v>10034</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="L37" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L37" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5100,16 +5103,16 @@
         <v>10035</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G38" s="5">
         <v>1</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5117,16 +5120,16 @@
         <v>10036</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H39" s="5">
+        <v>1</v>
+      </c>
+      <c r="K39" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="H39" s="5">
-        <v>1</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="L39" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5134,16 +5137,16 @@
         <v>10037</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H40" s="5">
         <v>1</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5151,10 +5154,10 @@
         <v>10038</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G41" s="5">
         <v>-1</v>
@@ -5163,16 +5166,16 @@
         <v>-1</v>
       </c>
       <c r="K41" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="N41" s="8" t="s">
         <v>122</v>
-      </c>
-      <c r="L41" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="M41" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="N41" s="8" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5180,13 +5183,13 @@
         <v>10039</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K42" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="K42" s="6" t="s">
-        <v>121</v>
-      </c>
       <c r="L42" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5194,10 +5197,10 @@
         <v>10040</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>125</v>
       </c>
       <c r="G43" s="5">
         <v>1</v>
@@ -5211,25 +5214,25 @@
         <v>10041</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N44" s="8" t="s">
         <v>127</v>
-      </c>
-      <c r="F44" s="5">
-        <v>1</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L44" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="M44" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="N44" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5237,10 +5240,10 @@
         <v>10042</v>
       </c>
       <c r="B45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="G45" s="5">
         <v>-2</v>
@@ -5252,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5260,13 +5263,13 @@
         <v>10043</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K46" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="K46" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="L46" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5274,13 +5277,13 @@
         <v>10044</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5288,22 +5291,22 @@
         <v>10045</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="M48" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="N48" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="M48" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="N48" s="8" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5311,7 +5314,7 @@
         <v>10046</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J49" s="5">
         <v>1</v>
@@ -5322,16 +5325,16 @@
         <v>10047</v>
       </c>
       <c r="B50" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H50" s="5">
+        <v>1</v>
+      </c>
+      <c r="K50" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L50" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="H50" s="5">
-        <v>1</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L50" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5339,10 +5342,10 @@
         <v>10048</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5350,10 +5353,10 @@
         <v>10049</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5361,13 +5364,13 @@
         <v>10050</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K53" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5375,13 +5378,13 @@
         <v>10051</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K54" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5389,13 +5392,13 @@
         <v>10052</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K55" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5403,13 +5406,13 @@
         <v>10053</v>
       </c>
       <c r="B56" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K56" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="K56" s="6" t="s">
+      <c r="L56" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="L56" s="6" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5417,19 +5420,19 @@
         <v>10054</v>
       </c>
       <c r="B57" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E57" s="5">
+        <v>1</v>
+      </c>
+      <c r="K57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L57" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="E57" s="5">
-        <v>1</v>
-      </c>
-      <c r="K57" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L57" s="6" t="s">
-        <v>161</v>
-      </c>
       <c r="N57" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5437,13 +5440,13 @@
         <v>10055</v>
       </c>
       <c r="B58" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J58" s="5">
+        <v>1</v>
+      </c>
+      <c r="N58" s="8" t="s">
         <v>162</v>
-      </c>
-      <c r="J58" s="5">
-        <v>1</v>
-      </c>
-      <c r="N58" s="8" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5451,7 +5454,7 @@
         <v>10056</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F59" s="5">
         <v>1</v>
@@ -5465,13 +5468,13 @@
         <v>10057</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" s="6" t="s">
         <v>166</v>
-      </c>
-      <c r="K60" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L60" s="6" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5479,25 +5482,25 @@
         <v>10058</v>
       </c>
       <c r="B61" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="G61" s="5">
         <v>-1</v>
       </c>
       <c r="K61" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N61" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5505,19 +5508,19 @@
         <v>10059</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G62" s="5">
         <v>-1</v>
       </c>
       <c r="K62" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="N62" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5525,19 +5528,19 @@
         <v>10060</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G63" s="5">
         <v>-1</v>
       </c>
       <c r="K63" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N63" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5545,19 +5548,19 @@
         <v>10061</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H64" s="5">
         <v>-1</v>
       </c>
       <c r="K64" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N64" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5565,16 +5568,16 @@
         <v>10062</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J65" s="5">
         <v>1</v>
       </c>
       <c r="N65" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5582,16 +5585,16 @@
         <v>10063</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K66" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="L66" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="N66" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="L66" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="N66" s="8" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5599,16 +5602,16 @@
         <v>10064</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="L67" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="K67" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="L67" s="6" t="s">
-        <v>188</v>
-      </c>
       <c r="N67" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5616,16 +5619,16 @@
         <v>10065</v>
       </c>
       <c r="B68" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F68" s="5">
+        <v>1</v>
+      </c>
+      <c r="K68" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L68" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="F68" s="5">
-        <v>1</v>
-      </c>
-      <c r="K68" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L68" s="6" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5633,16 +5636,16 @@
         <v>10066</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H69" s="5">
         <v>1</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5650,19 +5653,19 @@
         <v>10067</v>
       </c>
       <c r="B70" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="K70" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="N70" s="8" t="s">
         <v>193</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K70" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L70" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="N70" s="8" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5670,7 +5673,7 @@
         <v>10068</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J71" s="5">
         <v>1</v>
@@ -5681,7 +5684,7 @@
         <v>10069</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5689,13 +5692,13 @@
         <v>10070</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H73" s="5">
         <v>-1</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5703,7 +5706,7 @@
         <v>10071</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H74" s="5">
         <v>1</v>
@@ -5714,13 +5717,13 @@
         <v>10072</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="K75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L75" s="6" t="s">
         <v>200</v>
-      </c>
-      <c r="K75" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L75" s="6" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5728,19 +5731,19 @@
         <v>10073</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C76" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="K76" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L76" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="K76" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L76" s="6" t="s">
+      <c r="N76" s="8" t="s">
         <v>203</v>
-      </c>
-      <c r="N76" s="8" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5748,10 +5751,10 @@
         <v>10074</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>206</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>207</v>
       </c>
       <c r="G77" s="5">
         <v>2</v>
@@ -5768,13 +5771,13 @@
         <v>10075</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K78" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5782,13 +5785,13 @@
         <v>10076</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K79" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="L79" s="6" t="s">
         <v>210</v>
-      </c>
-      <c r="K79" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="L79" s="6" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5796,13 +5799,13 @@
         <v>10077</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="K80" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="K80" s="6" t="s">
-        <v>214</v>
-      </c>
       <c r="L80" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5810,13 +5813,13 @@
         <v>10078</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K81" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="K81" s="6" t="s">
-        <v>216</v>
-      </c>
       <c r="L81" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5824,13 +5827,13 @@
         <v>10079</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5838,16 +5841,16 @@
         <v>10080</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C83" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="K83" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="K83" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="L83" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5855,19 +5858,19 @@
         <v>10081</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="K84" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="K84" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="L84" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="N84" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5875,10 +5878,10 @@
         <v>10082</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="G85" s="5">
         <v>2</v>
@@ -5895,19 +5898,19 @@
         <v>10083</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="K86" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="K86" s="6" t="s">
-        <v>231</v>
-      </c>
       <c r="L86" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="N86" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5915,10 +5918,10 @@
         <v>10084</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="F87" s="5">
         <v>-1</v>
@@ -5935,7 +5938,7 @@
         <v>10085</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F88" s="5">
         <v>-3</v>
@@ -5944,13 +5947,13 @@
         <v>-2</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="N88" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5958,7 +5961,7 @@
         <v>10086</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F89" s="5">
         <v>-3</v>
@@ -5967,10 +5970,10 @@
         <v>-1</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="N89" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5978,16 +5981,16 @@
         <v>10087</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G90" s="5">
         <v>2</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -5995,16 +5998,16 @@
         <v>10088</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H91" s="5">
         <v>2</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6012,16 +6015,16 @@
         <v>10089</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G92" s="5">
+        <v>1</v>
+      </c>
+      <c r="H92" s="5">
+        <v>1</v>
+      </c>
+      <c r="K92" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="G92" s="5">
-        <v>1</v>
-      </c>
-      <c r="H92" s="5">
-        <v>1</v>
-      </c>
-      <c r="K92" s="6" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6029,10 +6032,10 @@
         <v>10090</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C93" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="E93" s="5">
         <v>-1</v>
@@ -6044,13 +6047,13 @@
         <v>-1</v>
       </c>
       <c r="K93" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="N93" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6058,16 +6061,16 @@
         <v>10091</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E94" s="5">
+        <v>1</v>
+      </c>
+      <c r="K94" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="E94" s="5">
-        <v>1</v>
-      </c>
-      <c r="K94" s="6" t="s">
-        <v>257</v>
-      </c>
       <c r="L94" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6075,19 +6078,19 @@
         <v>10092</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C95" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>259</v>
-      </c>
       <c r="K95" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N95" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6095,13 +6098,13 @@
         <v>10093</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H96" s="5">
         <v>-1</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6109,16 +6112,16 @@
         <v>10094</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="H97" s="5">
+        <v>1</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L97" s="6" t="s">
         <v>262</v>
-      </c>
-      <c r="H97" s="5">
-        <v>1</v>
-      </c>
-      <c r="K97" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L97" s="6" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6126,16 +6129,16 @@
         <v>10095</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="H98" s="5">
+        <v>1</v>
+      </c>
+      <c r="K98" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L98" s="6" t="s">
         <v>264</v>
-      </c>
-      <c r="H98" s="5">
-        <v>1</v>
-      </c>
-      <c r="K98" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L98" s="6" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6143,16 +6146,16 @@
         <v>10096</v>
       </c>
       <c r="B99" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="K99" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6160,16 +6163,16 @@
         <v>10097</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="K100" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L100" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="K100" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L100" s="6" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6177,16 +6180,16 @@
         <v>10098</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="K101" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="K101" s="6" t="s">
-        <v>275</v>
-      </c>
       <c r="L101" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6194,16 +6197,16 @@
         <v>10099</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="H102" s="5">
+        <v>1</v>
+      </c>
+      <c r="K102" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="H102" s="5">
-        <v>1</v>
-      </c>
-      <c r="K102" s="6" t="s">
-        <v>279</v>
-      </c>
       <c r="L102" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6211,13 +6214,13 @@
         <v>10100</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="K103" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L103" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="K103" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L103" s="6" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6225,13 +6228,13 @@
         <v>10101</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K104" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6239,13 +6242,13 @@
         <v>10102</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="K105" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="K105" s="6" t="s">
-        <v>285</v>
-      </c>
       <c r="L105" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6253,13 +6256,13 @@
         <v>10103</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K106" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L106" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6267,16 +6270,16 @@
         <v>10104</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E107" s="5">
         <v>1</v>
       </c>
       <c r="K107" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L107" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6284,16 +6287,16 @@
         <v>10105</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E108" s="5">
         <v>-1</v>
       </c>
       <c r="K108" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L108" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6301,13 +6304,13 @@
         <v>10106</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="K109" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="K109" s="6" t="s">
+      <c r="L109" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="L109" s="6" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6315,19 +6318,19 @@
         <v>10107</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C110" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="C110" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="H110" s="5">
         <v>-1</v>
       </c>
       <c r="K110" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6335,13 +6338,13 @@
         <v>10108</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="K111" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="K111" s="6" t="s">
-        <v>305</v>
-      </c>
       <c r="L111" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="112" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6349,16 +6352,16 @@
         <v>10109</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H112" s="5">
+        <v>1</v>
+      </c>
+      <c r="K112" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="H112" s="5">
-        <v>1</v>
-      </c>
-      <c r="K112" s="6" t="s">
-        <v>307</v>
-      </c>
       <c r="L112" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6366,10 +6369,10 @@
         <v>10110</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6377,10 +6380,10 @@
         <v>10111</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6388,19 +6391,19 @@
         <v>10112</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H115" s="5">
         <v>-2</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L115" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6408,19 +6411,19 @@
         <v>10113</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H116" s="5">
         <v>-2</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L116" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6428,19 +6431,19 @@
         <v>10114</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H117" s="5">
         <v>-2</v>
       </c>
       <c r="K117" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L117" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6448,16 +6451,16 @@
         <v>10115</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="H118" s="5">
+        <v>1</v>
+      </c>
+      <c r="K118" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="H118" s="5">
-        <v>1</v>
-      </c>
-      <c r="K118" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="L118" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="119" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6465,16 +6468,16 @@
         <v>10116</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="H119" s="5">
         <v>1</v>
       </c>
       <c r="K119" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="L119" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="L119" s="6" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="120" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6482,16 +6485,16 @@
         <v>10117</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H120" s="5">
         <v>1</v>
       </c>
       <c r="K120" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="L120" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6499,13 +6502,13 @@
         <v>10118</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="K121" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="K121" s="6" t="s">
-        <v>336</v>
-      </c>
       <c r="L121" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6513,13 +6516,13 @@
         <v>10119</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="K122" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="K122" s="6" t="s">
-        <v>338</v>
-      </c>
       <c r="L122" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6527,13 +6530,13 @@
         <v>10120</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K123" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L123" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6541,13 +6544,13 @@
         <v>10121</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="K124" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="L124" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="K124" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="L124" s="6" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6555,13 +6558,13 @@
         <v>10122</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L125" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="126" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6569,16 +6572,16 @@
         <v>10123</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>346</v>
-      </c>
       <c r="K126" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L126" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="127" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6586,16 +6589,16 @@
         <v>10124</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C127" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>348</v>
-      </c>
       <c r="K127" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L127" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="128" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6603,7 +6606,7 @@
         <v>10125</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G128" s="5">
         <v>-2</v>
@@ -6612,10 +6615,10 @@
         <v>-2</v>
       </c>
       <c r="K128" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L128" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="129" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6623,7 +6626,7 @@
         <v>10126</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G129" s="5">
         <v>-1</v>
@@ -6632,10 +6635,10 @@
         <v>-2</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L129" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="130" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6643,16 +6646,16 @@
         <v>10127</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H130" s="5">
         <v>-1</v>
       </c>
       <c r="K130" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L130" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="131" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6660,16 +6663,16 @@
         <v>10128</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H131" s="5">
         <v>-1</v>
       </c>
       <c r="K131" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L131" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="132" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6677,16 +6680,16 @@
         <v>10129</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H132" s="5">
         <v>-1</v>
       </c>
       <c r="K132" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L132" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="133" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6694,7 +6697,7 @@
         <v>10130</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G133" s="5">
         <v>1</v>
@@ -6703,10 +6706,10 @@
         <v>1</v>
       </c>
       <c r="K133" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L133" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="134" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6714,16 +6717,16 @@
         <v>10131</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H134" s="5">
+        <v>1</v>
+      </c>
+      <c r="K134" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="H134" s="5">
-        <v>1</v>
-      </c>
-      <c r="K134" s="6" t="s">
-        <v>365</v>
-      </c>
       <c r="L134" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="135" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6731,13 +6734,13 @@
         <v>10132</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H135" s="5">
         <v>1</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="136" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6745,13 +6748,13 @@
         <v>10133</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H136" s="5">
         <v>2</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="137" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6759,13 +6762,13 @@
         <v>10134</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L137" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="138" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6773,13 +6776,13 @@
         <v>10135</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L138" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="139" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6787,16 +6790,16 @@
         <v>10136</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>374</v>
-      </c>
       <c r="K139" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L139" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="140" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6804,16 +6807,16 @@
         <v>10137</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="L140" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="141" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6821,16 +6824,16 @@
         <v>10138</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="E141" s="5">
+        <v>1</v>
+      </c>
+      <c r="K141" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="E141" s="5">
-        <v>1</v>
-      </c>
-      <c r="K141" s="6" t="s">
-        <v>377</v>
-      </c>
       <c r="L141" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="142" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6838,16 +6841,16 @@
         <v>10139</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E142" s="5">
         <v>-1</v>
       </c>
       <c r="K142" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="L142" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="143" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6855,16 +6858,16 @@
         <v>10140</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H143" s="5">
         <v>-1</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L143" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="144" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6872,16 +6875,16 @@
         <v>10141</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H144" s="5">
         <v>-1</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L144" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="145" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6889,13 +6892,13 @@
         <v>10142</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L145" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="146" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6903,13 +6906,13 @@
         <v>10143</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K146" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L146" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="147" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6917,16 +6920,16 @@
         <v>10144</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H147" s="5">
         <v>-2</v>
       </c>
       <c r="K147" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L147" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="148" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6934,13 +6937,13 @@
         <v>10145</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="K148" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="K148" s="6" t="s">
-        <v>395</v>
-      </c>
       <c r="L148" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6948,13 +6951,13 @@
         <v>10146</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K149" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L149" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6962,13 +6965,13 @@
         <v>10147</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K150" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L150" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6976,13 +6979,13 @@
         <v>10148</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="K151" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="K151" s="6" t="s">
+      <c r="L151" s="6" t="s">
         <v>403</v>
-      </c>
-      <c r="L151" s="6" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -6990,16 +6993,16 @@
         <v>10149</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="K152" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="L152" s="6" t="s">
         <v>406</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="K152" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="L152" s="6" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="153" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7007,13 +7010,13 @@
         <v>10150</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K153" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L153" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7021,13 +7024,13 @@
         <v>10151</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K154" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L154" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7035,16 +7038,16 @@
         <v>10152</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F155" s="5">
         <v>-1</v>
       </c>
       <c r="K155" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L155" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7052,7 +7055,7 @@
         <v>10153</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F156" s="5">
         <v>-2</v>
@@ -7064,13 +7067,13 @@
         <v>-1</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L156" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N156" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="157" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7078,19 +7081,19 @@
         <v>10154</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H157" s="5">
         <v>-2</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="N157" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7098,13 +7101,13 @@
         <v>10155</v>
       </c>
       <c r="B158" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="K158" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="K158" s="6" t="s">
-        <v>423</v>
-      </c>
       <c r="L158" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="159" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7112,13 +7115,13 @@
         <v>10156</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="K159" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="L159" s="6" t="s">
         <v>424</v>
-      </c>
-      <c r="L159" s="6" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7126,13 +7129,13 @@
         <v>10157</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="K160" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="K160" s="6" t="s">
-        <v>428</v>
-      </c>
       <c r="L160" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="161" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7140,19 +7143,19 @@
         <v>10158</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="H161" s="5">
+        <v>1</v>
+      </c>
+      <c r="K161" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="H161" s="5">
-        <v>1</v>
-      </c>
-      <c r="K161" s="6" t="s">
-        <v>431</v>
-      </c>
       <c r="L161" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="162" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7160,7 +7163,7 @@
         <v>10159</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G162" s="5">
         <v>2</v>
@@ -7169,10 +7172,10 @@
         <v>2</v>
       </c>
       <c r="K162" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="L162" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="163" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7180,13 +7183,13 @@
         <v>10160</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="K163" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="L163" s="6" t="s">
         <v>433</v>
-      </c>
-      <c r="K163" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="L163" s="6" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="164" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7194,13 +7197,13 @@
         <v>10161</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H164" s="5">
         <v>-1</v>
       </c>
       <c r="K164" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="165" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7208,13 +7211,13 @@
         <v>10162</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H165" s="5">
         <v>-2</v>
       </c>
       <c r="K165" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="166" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7222,13 +7225,13 @@
         <v>10163</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K166" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L166" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="167" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7236,13 +7239,13 @@
         <v>10164</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="L167" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="168" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7250,13 +7253,13 @@
         <v>10165</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="L168" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="169" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7264,13 +7267,13 @@
         <v>10166</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="L169" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="170" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7278,19 +7281,19 @@
         <v>10167</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C170" s="4" t="s">
         <v>450</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>451</v>
       </c>
       <c r="H170" s="5">
         <v>-1</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L170" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="171" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7298,13 +7301,13 @@
         <v>10168</v>
       </c>
       <c r="B171" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="K171" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L171" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="K171" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L171" s="6" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="172" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7312,13 +7315,13 @@
         <v>10169</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K172" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L172" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="173" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7326,16 +7329,16 @@
         <v>10170</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H173" s="5">
         <v>-1</v>
       </c>
       <c r="K173" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="L173" s="6" t="s">
         <v>458</v>
-      </c>
-      <c r="L173" s="6" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="174" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7343,13 +7346,13 @@
         <v>10171</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K174" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L174" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="175" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7357,13 +7360,13 @@
         <v>10172</v>
       </c>
       <c r="B175" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="K175" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L175" s="6" t="s">
         <v>468</v>
-      </c>
-      <c r="K175" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L175" s="6" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="176" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7371,16 +7374,16 @@
         <v>10173</v>
       </c>
       <c r="B176" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C176" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="C176" s="4" t="s">
-        <v>471</v>
-      </c>
       <c r="K176" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="L176" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="177" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7388,16 +7391,16 @@
         <v>10174</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K177" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="L177" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="178" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7405,16 +7408,16 @@
         <v>10175</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C178" s="4" t="s">
         <v>472</v>
       </c>
-      <c r="C178" s="4" t="s">
-        <v>473</v>
-      </c>
       <c r="K178" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="L178" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="179" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7422,13 +7425,13 @@
         <v>10176</v>
       </c>
       <c r="B179" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="K179" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="K179" s="6" t="s">
-        <v>498</v>
-      </c>
       <c r="L179" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="180" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7436,13 +7439,13 @@
         <v>10177</v>
       </c>
       <c r="B180" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="K180" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L180" s="6" t="s">
         <v>499</v>
-      </c>
-      <c r="K180" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L180" s="6" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="181" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7450,13 +7453,13 @@
         <v>10178</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="K181" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L181" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="182" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7464,13 +7467,13 @@
         <v>10179</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K182" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L182" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="183" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7478,13 +7481,13 @@
         <v>10180</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L183" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="184" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7492,13 +7495,13 @@
         <v>10181</v>
       </c>
       <c r="B184" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="K184" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L184" s="6" t="s">
         <v>508</v>
-      </c>
-      <c r="K184" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L184" s="6" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="185" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7506,13 +7509,13 @@
         <v>10182</v>
       </c>
       <c r="B185" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K185" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="K185" s="6" t="s">
-        <v>511</v>
-      </c>
       <c r="L185" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="186" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7520,16 +7523,16 @@
         <v>10183</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="H186" s="5">
         <v>-1</v>
       </c>
       <c r="K186" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="L186" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="187" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7537,13 +7540,13 @@
         <v>10184</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="K187" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="L187" s="6" t="s">
         <v>515</v>
-      </c>
-      <c r="K187" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="L187" s="6" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="188" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7551,13 +7554,13 @@
         <v>10185</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="K188" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="L188" s="6" t="s">
         <v>519</v>
-      </c>
-      <c r="K188" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="L188" s="6" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="189" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7565,13 +7568,13 @@
         <v>10186</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="K189" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L189" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="190" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7579,16 +7582,16 @@
         <v>10187</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="H190" s="5">
+        <v>1</v>
+      </c>
+      <c r="K190" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="L190" s="6" t="s">
         <v>522</v>
-      </c>
-      <c r="H190" s="5">
-        <v>1</v>
-      </c>
-      <c r="K190" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="L190" s="6" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="191" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7596,16 +7599,16 @@
         <v>10188</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H191" s="5">
         <v>1</v>
       </c>
       <c r="K191" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L191" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="192" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7613,16 +7616,16 @@
         <v>10189</v>
       </c>
       <c r="B192" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="H192" s="5">
+        <v>1</v>
+      </c>
+      <c r="K192" s="6" t="s">
         <v>525</v>
       </c>
-      <c r="H192" s="5">
-        <v>1</v>
-      </c>
-      <c r="K192" s="6" t="s">
-        <v>526</v>
-      </c>
       <c r="L192" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="193" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7630,19 +7633,19 @@
         <v>10190</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="C193" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="C193" s="4" t="s">
-        <v>528</v>
-      </c>
       <c r="H193" s="5">
         <v>1</v>
       </c>
       <c r="K193" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L193" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="194" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7650,16 +7653,16 @@
         <v>10191</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C194" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="C194" s="4" t="s">
+      <c r="K194" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="K194" s="6" t="s">
-        <v>531</v>
-      </c>
       <c r="L194" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="195" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7667,10 +7670,10 @@
         <v>10192</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F195" s="5">
         <v>-1</v>
@@ -7679,16 +7682,16 @@
         <v>-1</v>
       </c>
       <c r="K195" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="L195" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="M195" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="N195" s="8" t="s">
         <v>533</v>
-      </c>
-      <c r="L195" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="M195" s="7" t="s">
-        <v>535</v>
-      </c>
-      <c r="N195" s="8" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="196" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7696,7 +7699,7 @@
         <v>10193</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="F196" s="5">
         <v>-2</v>
@@ -7716,13 +7719,13 @@
         <v>10194</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K197" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L197" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="198" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7730,16 +7733,16 @@
         <v>10195</v>
       </c>
       <c r="B198" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="C198" s="4" t="s">
         <v>542</v>
       </c>
-      <c r="C198" s="4" t="s">
-        <v>543</v>
-      </c>
       <c r="K198" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="L198" s="6" t="s">
         <v>547</v>
-      </c>
-      <c r="L198" s="6" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="199" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7747,16 +7750,16 @@
         <v>10196</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F199" s="5">
         <v>-1</v>
       </c>
       <c r="K199" s="6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="L199" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="200" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7764,16 +7767,16 @@
         <v>10197</v>
       </c>
       <c r="B200" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C200" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="K200" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="C200" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="K200" s="6" t="s">
-        <v>546</v>
-      </c>
       <c r="L200" s="6" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="201" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7781,13 +7784,13 @@
         <v>10198</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L201" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="202" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7795,13 +7798,13 @@
         <v>10199</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="K202" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L202" s="6" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="203" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7809,13 +7812,13 @@
         <v>10200</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K203" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="L203" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="204" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7823,13 +7826,13 @@
         <v>10201</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="K204" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="K204" s="6" t="s">
+      <c r="L204" s="6" t="s">
         <v>559</v>
-      </c>
-      <c r="L204" s="6" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="205" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7837,13 +7840,13 @@
         <v>10202</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K205" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L205" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="206" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7851,19 +7854,19 @@
         <v>10203</v>
       </c>
       <c r="B206" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>565</v>
+      </c>
+      <c r="K206" s="6" t="s">
         <v>562</v>
       </c>
-      <c r="C206" s="4" t="s">
-        <v>566</v>
-      </c>
-      <c r="K206" s="6" t="s">
+      <c r="L206" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="N206" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="L206" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="N206" s="8" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="207" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7871,7 +7874,7 @@
         <v>10204</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H207" s="5">
         <v>1</v>
@@ -7885,19 +7888,19 @@
         <v>10205</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F208" s="5">
         <v>1</v>
       </c>
       <c r="K208" s="6" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L208" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N208" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="209" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7905,13 +7908,13 @@
         <v>10206</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K209" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L209" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="210" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7919,22 +7922,22 @@
         <v>10207</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="C210" s="4" t="s">
         <v>571</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="G210" s="5">
+        <v>1</v>
+      </c>
+      <c r="H210" s="5">
+        <v>1</v>
+      </c>
+      <c r="K210" s="6" t="s">
         <v>572</v>
       </c>
-      <c r="G210" s="5">
-        <v>1</v>
-      </c>
-      <c r="H210" s="5">
-        <v>1</v>
-      </c>
-      <c r="K210" s="6" t="s">
-        <v>573</v>
-      </c>
       <c r="N210" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="211" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7942,7 +7945,7 @@
         <v>10208</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H211" s="5">
         <v>1</v>
@@ -7951,7 +7954,7 @@
         <v>1</v>
       </c>
       <c r="N211" s="8" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="212" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7959,7 +7962,7 @@
         <v>10209</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H212" s="5">
         <v>1</v>
@@ -7973,16 +7976,16 @@
         <v>10210</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C213" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="K213" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="K213" s="6" t="s">
-        <v>579</v>
-      </c>
       <c r="L213" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="214" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -7990,16 +7993,16 @@
         <v>10211</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H214" s="5">
         <v>1</v>
       </c>
       <c r="K214" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L214" s="6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="215" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8007,16 +8010,16 @@
         <v>10212</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H215" s="5">
         <v>1</v>
       </c>
       <c r="K215" s="6" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="L215" s="6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="216" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8024,13 +8027,13 @@
         <v>10213</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K216" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L216" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="217" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8038,13 +8041,13 @@
         <v>10214</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K217" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L217" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="218" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8052,13 +8055,13 @@
         <v>10215</v>
       </c>
       <c r="B218" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="K218" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L218" s="6" t="s">
         <v>588</v>
-      </c>
-      <c r="K218" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L218" s="6" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="219" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8066,13 +8069,13 @@
         <v>10216</v>
       </c>
       <c r="B219" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="K219" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L219" s="6" t="s">
         <v>590</v>
-      </c>
-      <c r="K219" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="L219" s="6" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="220" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8080,7 +8083,7 @@
         <v>10217</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F220" s="5">
         <v>-2</v>
@@ -8092,13 +8095,13 @@
         <v>1</v>
       </c>
       <c r="K220" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L220" s="6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="N220" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="221" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8106,7 +8109,7 @@
         <v>10218</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G221" s="5">
         <v>-2</v>
@@ -8115,10 +8118,10 @@
         <v>-1</v>
       </c>
       <c r="K221" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="L221" s="6" t="s">
         <v>594</v>
-      </c>
-      <c r="L221" s="6" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="222" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8126,13 +8129,13 @@
         <v>10219</v>
       </c>
       <c r="B222" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="H222" s="5">
+        <v>1</v>
+      </c>
+      <c r="K222" s="6" t="s">
         <v>597</v>
-      </c>
-      <c r="H222" s="5">
-        <v>1</v>
-      </c>
-      <c r="K222" s="6" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="223" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8140,10 +8143,10 @@
         <v>10220</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F223" s="5">
         <v>-1</v>
@@ -8155,16 +8158,16 @@
         <v>-1</v>
       </c>
       <c r="K223" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L223" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M223" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N223" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="224" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8172,7 +8175,7 @@
         <v>10221</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F224" s="5">
         <v>-1</v>
@@ -8181,13 +8184,13 @@
         <v>-1</v>
       </c>
       <c r="K224" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M224" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N224" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="225" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8195,19 +8198,19 @@
         <v>10222</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H225" s="5">
         <v>-1</v>
       </c>
       <c r="K225" s="6" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="L225" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N225" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="226" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8215,7 +8218,7 @@
         <v>10223</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G226" s="5">
         <v>-2</v>
@@ -8224,16 +8227,16 @@
         <v>-2</v>
       </c>
       <c r="K226" s="6" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="L226" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M226" s="7" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="N226" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="227" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8241,16 +8244,16 @@
         <v>10224</v>
       </c>
       <c r="B227" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C227" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="C227" s="4" t="s">
+      <c r="K227" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="K227" s="6" t="s">
-        <v>612</v>
-      </c>
       <c r="L227" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="228" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8258,13 +8261,13 @@
         <v>10225</v>
       </c>
       <c r="B228" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="K228" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="K228" s="6" t="s">
-        <v>614</v>
-      </c>
       <c r="L228" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="229" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8272,13 +8275,13 @@
         <v>10226</v>
       </c>
       <c r="B229" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="K229" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="K229" s="6" t="s">
-        <v>616</v>
-      </c>
       <c r="L229" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="230" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8286,13 +8289,13 @@
         <v>10227</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K230" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L230" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="231" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8300,13 +8303,13 @@
         <v>10228</v>
       </c>
       <c r="B231" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="K231" s="6" t="s">
         <v>618</v>
       </c>
-      <c r="K231" s="6" t="s">
-        <v>619</v>
-      </c>
       <c r="L231" s="6" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="232" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8314,16 +8317,16 @@
         <v>10229</v>
       </c>
       <c r="B232" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="H232" s="5">
+        <v>1</v>
+      </c>
+      <c r="K232" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="H232" s="5">
-        <v>1</v>
-      </c>
-      <c r="K232" s="6" t="s">
-        <v>662</v>
-      </c>
       <c r="L232" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="233" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8331,22 +8334,22 @@
         <v>10230</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="H233" s="5">
         <v>-2</v>
       </c>
       <c r="K233" s="6" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L233" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="M233" s="7" t="s">
         <v>664</v>
       </c>
-      <c r="M233" s="7" t="s">
-        <v>665</v>
-      </c>
       <c r="N233" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="234" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8354,16 +8357,16 @@
         <v>10231</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H234" s="5">
         <v>2</v>
       </c>
       <c r="K234" s="21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L234" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="235" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8371,13 +8374,13 @@
         <v>10232</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="J235" s="5">
         <v>1</v>
       </c>
       <c r="M235" s="7" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="236" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8385,16 +8388,16 @@
         <v>10233</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="H236" s="5">
         <v>2</v>
       </c>
       <c r="K236" s="21" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L236" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="237" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8402,16 +8405,16 @@
         <v>10234</v>
       </c>
       <c r="B237" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="H237" s="5">
+        <v>1</v>
+      </c>
+      <c r="K237" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="H237" s="5">
-        <v>1</v>
-      </c>
-      <c r="K237" s="6" t="s">
+      <c r="L237" s="6" t="s">
         <v>674</v>
-      </c>
-      <c r="L237" s="6" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="238" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8419,16 +8422,16 @@
         <v>10235</v>
       </c>
       <c r="B238" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="H238" s="5">
+        <v>1</v>
+      </c>
+      <c r="K238" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="L238" s="6" t="s">
         <v>676</v>
-      </c>
-      <c r="H238" s="5">
-        <v>1</v>
-      </c>
-      <c r="K238" s="6" t="s">
-        <v>678</v>
-      </c>
-      <c r="L238" s="6" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="239" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8436,13 +8439,13 @@
         <v>10236</v>
       </c>
       <c r="B239" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="K239" s="6" t="s">
         <v>679</v>
       </c>
-      <c r="K239" s="6" t="s">
-        <v>680</v>
-      </c>
       <c r="L239" s="21" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="240" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8450,13 +8453,13 @@
         <v>10237</v>
       </c>
       <c r="B240" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="K240" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="K240" s="6" t="s">
-        <v>682</v>
-      </c>
       <c r="L240" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="241" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8464,13 +8467,13 @@
         <v>10238</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K241" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L241" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="242" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8478,16 +8481,16 @@
         <v>10239</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H242" s="5">
         <v>1</v>
       </c>
       <c r="K242" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="L242" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="243" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8495,13 +8498,13 @@
         <v>10240</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="K243" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L243" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="244" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8509,13 +8512,13 @@
         <v>10241</v>
       </c>
       <c r="B244" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="K244" s="6" t="s">
         <v>690</v>
       </c>
-      <c r="K244" s="6" t="s">
-        <v>691</v>
-      </c>
       <c r="L244" s="6" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="245" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8523,13 +8526,13 @@
         <v>10242</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="K245" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L245" s="6" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="246" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8537,16 +8540,16 @@
         <v>10243</v>
       </c>
       <c r="B246" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="C246" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="C246" s="4" t="s">
-        <v>694</v>
-      </c>
       <c r="K246" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L246" s="6" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="247" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8554,13 +8557,13 @@
         <v>10244</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K247" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L247" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="248" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8568,16 +8571,16 @@
         <v>10245</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="H248" s="5">
         <v>1</v>
       </c>
       <c r="K248" s="21" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L248" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="249" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8585,16 +8588,16 @@
         <v>10246</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H249" s="5">
         <v>1</v>
       </c>
       <c r="K249" s="21" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L249" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="250" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8602,22 +8605,22 @@
         <v>10247</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="H250" s="5">
         <v>-2</v>
       </c>
       <c r="K250" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="L250" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="M250" s="7" t="s">
         <v>705</v>
-      </c>
-      <c r="L250" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="M250" s="7" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="251" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8625,10 +8628,10 @@
         <v>10248</v>
       </c>
       <c r="B251" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C251" s="4" t="s">
         <v>708</v>
-      </c>
-      <c r="C251" s="4" t="s">
-        <v>709</v>
       </c>
       <c r="H251" s="5">
         <v>1</v>
@@ -8642,19 +8645,19 @@
         <v>10249</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H252" s="5">
         <v>-2</v>
       </c>
       <c r="K252" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="L252" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="M252" s="7" t="s">
         <v>711</v>
-      </c>
-      <c r="L252" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="M252" s="7" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="253" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8662,16 +8665,16 @@
         <v>10250</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H253" s="5">
         <v>1</v>
       </c>
       <c r="K253" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="L253" s="6" t="s">
         <v>714</v>
-      </c>
-      <c r="L253" s="6" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="254" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8679,13 +8682,13 @@
         <v>10251</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K254" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L254" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="255" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8693,13 +8696,13 @@
         <v>10252</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H255" s="5">
         <v>-1</v>
       </c>
       <c r="K255" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="256" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8707,16 +8710,16 @@
         <v>10253</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K256" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L256" s="22" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="257" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8724,13 +8727,13 @@
         <v>10254</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K257" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L257" s="6" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="258" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8738,13 +8741,13 @@
         <v>10255</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K258" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L258" s="6" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="259" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8752,13 +8755,13 @@
         <v>10256</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K259" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L259" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="260" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8766,13 +8769,13 @@
         <v>10257</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="K260" s="6" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L260" s="6" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="261" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8780,13 +8783,13 @@
         <v>10258</v>
       </c>
       <c r="B261" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="K261" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="K261" s="6" t="s">
+      <c r="L261" s="6" t="s">
         <v>733</v>
-      </c>
-      <c r="L261" s="6" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="262" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8794,13 +8797,13 @@
         <v>10259</v>
       </c>
       <c r="B262" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="K262" s="6" t="s">
         <v>735</v>
       </c>
-      <c r="K262" s="6" t="s">
-        <v>736</v>
-      </c>
       <c r="L262" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="263" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8808,10 +8811,10 @@
         <v>10260</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K263" s="6" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="264" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8819,16 +8822,16 @@
         <v>10261</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H264" s="5">
         <v>1</v>
       </c>
       <c r="K264" s="6" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="L264" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8836,16 +8839,16 @@
         <v>10262</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="H265" s="5">
+        <v>1</v>
+      </c>
+      <c r="K265" s="6" t="s">
         <v>740</v>
       </c>
-      <c r="H265" s="5">
-        <v>1</v>
-      </c>
-      <c r="K265" s="6" t="s">
-        <v>741</v>
-      </c>
       <c r="L265" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="266" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8853,13 +8856,13 @@
         <v>10263</v>
       </c>
       <c r="B266" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="K266" s="6" t="s">
         <v>742</v>
       </c>
-      <c r="K266" s="6" t="s">
-        <v>743</v>
-      </c>
       <c r="L266" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="267" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8867,22 +8870,22 @@
         <v>10264</v>
       </c>
       <c r="B267" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="C267" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="C267" s="4" t="s">
+      <c r="G267" s="5">
+        <v>1</v>
+      </c>
+      <c r="K267" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="L267" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="M267" s="7" t="s">
         <v>745</v>
-      </c>
-      <c r="G267" s="5">
-        <v>1</v>
-      </c>
-      <c r="K267" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="L267" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="M267" s="7" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="268" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8890,7 +8893,7 @@
         <v>10265</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G268" s="5">
         <v>2</v>
@@ -8904,13 +8907,13 @@
         <v>10266</v>
       </c>
       <c r="B269" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="K269" s="6" t="s">
         <v>748</v>
       </c>
-      <c r="K269" s="6" t="s">
+      <c r="L269" s="6" t="s">
         <v>749</v>
-      </c>
-      <c r="L269" s="6" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="270" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8918,19 +8921,19 @@
         <v>10267</v>
       </c>
       <c r="B270" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="C270" s="4" t="s">
+        <v>752</v>
+      </c>
+      <c r="K270" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="L270" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="M270" s="7" t="s">
         <v>751</v>
-      </c>
-      <c r="C270" s="4" t="s">
-        <v>753</v>
-      </c>
-      <c r="K270" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="L270" s="6" t="s">
-        <v>630</v>
-      </c>
-      <c r="M270" s="7" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="271" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8938,16 +8941,16 @@
         <v>10268</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H271" s="5">
         <v>1</v>
       </c>
       <c r="K271" s="23" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L271" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="272" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8955,16 +8958,16 @@
         <v>10269</v>
       </c>
       <c r="B272" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="H272" s="5">
+        <v>1</v>
+      </c>
+      <c r="K272" s="23" t="s">
         <v>755</v>
       </c>
-      <c r="H272" s="5">
-        <v>1</v>
-      </c>
-      <c r="K272" s="23" t="s">
-        <v>756</v>
-      </c>
       <c r="L272" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="273" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8972,13 +8975,13 @@
         <v>10270</v>
       </c>
       <c r="B273" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="K273" s="24" t="s">
         <v>757</v>
       </c>
-      <c r="K273" s="24" t="s">
-        <v>758</v>
-      </c>
       <c r="L273" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="274" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -8986,16 +8989,16 @@
         <v>10271</v>
       </c>
       <c r="B274" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="C274" s="4" t="s">
         <v>760</v>
       </c>
-      <c r="C274" s="4" t="s">
-        <v>761</v>
-      </c>
       <c r="K274" s="24" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="L274" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="275" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9003,16 +9006,16 @@
         <v>10272</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="H275" s="5">
+        <v>1</v>
+      </c>
+      <c r="K275" s="24" t="s">
         <v>762</v>
       </c>
-      <c r="H275" s="5">
-        <v>1</v>
-      </c>
-      <c r="K275" s="24" t="s">
-        <v>763</v>
-      </c>
       <c r="L275" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="276" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9020,16 +9023,16 @@
         <v>10273</v>
       </c>
       <c r="B276" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="C276" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="C276" s="4" t="s">
-        <v>765</v>
-      </c>
       <c r="K276" s="23" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L276" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="277" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9037,13 +9040,13 @@
         <v>10274</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H277" s="5">
         <v>-1</v>
       </c>
       <c r="K277" s="23" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="278" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9051,16 +9054,16 @@
         <v>10275</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H278" s="5">
         <v>-1</v>
       </c>
       <c r="K278" s="23" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L278" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="279" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9068,13 +9071,13 @@
         <v>10276</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="K279" s="25" t="s">
         <v>768</v>
       </c>
-      <c r="K279" s="25" t="s">
-        <v>769</v>
-      </c>
       <c r="L279" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="280" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9082,19 +9085,19 @@
         <v>10277</v>
       </c>
       <c r="B280" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="C280" s="4" t="s">
         <v>770</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>771</v>
       </c>
       <c r="F280" s="5">
         <v>-1</v>
       </c>
       <c r="K280" s="25" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="L280" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="281" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9102,13 +9105,13 @@
         <v>10278</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D281" s="5">
         <v>-1</v>
       </c>
       <c r="K281" s="25" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="282" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9116,7 +9119,7 @@
         <v>10279</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G282" s="5">
         <v>-1</v>
@@ -9125,10 +9128,10 @@
         <v>-1</v>
       </c>
       <c r="K282" s="23" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L282" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="283" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9136,16 +9139,16 @@
         <v>10280</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H283" s="5">
         <v>-1</v>
       </c>
       <c r="K283" s="6" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="L283" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="284" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9153,16 +9156,16 @@
         <v>10281</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H284" s="5">
         <v>-1</v>
       </c>
       <c r="K284" s="6" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="L284" s="6" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="285" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9170,16 +9173,16 @@
         <v>10282</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H285" s="5">
         <v>-2</v>
       </c>
       <c r="K285" s="23" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L285" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="286" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9187,13 +9190,13 @@
         <v>10283</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H286" s="5">
         <v>-1</v>
       </c>
       <c r="K286" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="287" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9201,13 +9204,13 @@
         <v>10284</v>
       </c>
       <c r="B287" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="H287" s="5">
+        <v>1</v>
+      </c>
+      <c r="K287" s="6" t="s">
         <v>790</v>
-      </c>
-      <c r="H287" s="5">
-        <v>1</v>
-      </c>
-      <c r="K287" s="6" t="s">
-        <v>791</v>
       </c>
     </row>
     <row r="288" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9215,16 +9218,16 @@
         <v>10285</v>
       </c>
       <c r="B288" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="H288" s="5">
+        <v>1</v>
+      </c>
+      <c r="K288" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="H288" s="5">
-        <v>1</v>
-      </c>
-      <c r="K288" s="6" t="s">
-        <v>793</v>
-      </c>
       <c r="L288" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="289" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9232,16 +9235,16 @@
         <v>10286</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H289" s="5">
         <v>1</v>
       </c>
       <c r="K289" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L289" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="290" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9249,16 +9252,16 @@
         <v>10287</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H290" s="5">
         <v>1</v>
       </c>
       <c r="K290" s="6" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="L290" s="6" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9266,13 +9269,13 @@
         <v>10288</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H291" s="5">
         <v>1</v>
       </c>
       <c r="K291" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="292" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9280,16 +9283,16 @@
         <v>10289</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K292" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L292" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="M292" s="7" t="s">
         <v>797</v>
-      </c>
-      <c r="M292" s="7" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="293" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9297,16 +9300,16 @@
         <v>10290</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="K293" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L293" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="M293" s="7" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="294" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9314,13 +9317,13 @@
         <v>10291</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K294" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L294" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="295" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9328,16 +9331,16 @@
         <v>10292</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F295" s="5">
         <v>-1</v>
       </c>
       <c r="K295" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L295" s="6" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="296" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9345,16 +9348,16 @@
         <v>10293</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H296" s="5">
         <v>1</v>
       </c>
       <c r="K296" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L296" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="297" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9362,16 +9365,16 @@
         <v>10294</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H297" s="5">
         <v>1</v>
       </c>
       <c r="K297" s="6" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="L297" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="298" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9379,16 +9382,16 @@
         <v>10295</v>
       </c>
       <c r="B298" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="C298" s="4" t="s">
         <v>805</v>
       </c>
-      <c r="C298" s="4" t="s">
-        <v>806</v>
-      </c>
       <c r="K298" s="23" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L298" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="299" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9396,16 +9399,16 @@
         <v>10296</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G299" s="5">
         <v>1</v>
       </c>
       <c r="K299" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="L299" s="6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="300" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9413,16 +9416,16 @@
         <v>10297</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H300" s="5">
         <v>1</v>
       </c>
       <c r="K300" s="6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="L300" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="301" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9430,16 +9433,16 @@
         <v>10298</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H301" s="5">
         <v>1</v>
       </c>
       <c r="K301" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L301" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="302" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9447,16 +9450,16 @@
         <v>10299</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H302" s="5">
         <v>1</v>
       </c>
       <c r="K302" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L302" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="303" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9464,16 +9467,16 @@
         <v>10300</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H303" s="5">
         <v>1</v>
       </c>
       <c r="K303" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L303" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="304" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9481,16 +9484,16 @@
         <v>10301</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H304" s="5">
         <v>1</v>
       </c>
       <c r="K304" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L304" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="305" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9498,16 +9501,16 @@
         <v>10302</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H305" s="5">
         <v>1</v>
       </c>
       <c r="K305" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L305" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="306" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9515,16 +9518,16 @@
         <v>10303</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H306" s="5">
         <v>1</v>
       </c>
       <c r="K306" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L306" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="307" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9532,16 +9535,16 @@
         <v>10304</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H307" s="5">
         <v>1</v>
       </c>
       <c r="K307" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L307" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="308" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9549,16 +9552,16 @@
         <v>10305</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H308" s="5">
         <v>1</v>
       </c>
       <c r="K308" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L308" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="309" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9566,16 +9569,16 @@
         <v>10306</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H309" s="5">
         <v>1</v>
       </c>
       <c r="K309" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L309" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="310" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9583,13 +9586,13 @@
         <v>10307</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K310" s="25" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="L310" s="6" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="311" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9597,13 +9600,13 @@
         <v>10308</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="K311" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L311" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="312" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9611,13 +9614,13 @@
         <v>10309</v>
       </c>
       <c r="B312" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="K312" s="6" t="s">
         <v>831</v>
       </c>
-      <c r="K312" s="6" t="s">
-        <v>832</v>
-      </c>
       <c r="L312" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="313" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9625,13 +9628,13 @@
         <v>10310</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="K313" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L313" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="314" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9639,13 +9642,13 @@
         <v>10311</v>
       </c>
       <c r="B314" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="K314" s="6" t="s">
         <v>834</v>
       </c>
-      <c r="K314" s="6" t="s">
-        <v>835</v>
-      </c>
       <c r="L314" s="6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="315" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9653,13 +9656,13 @@
         <v>10312</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K315" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="L315" s="6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="316" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9667,13 +9670,13 @@
         <v>10313</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="K316" s="6" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="L316" s="6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="317" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9681,7 +9684,7 @@
         <v>10314</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E317" s="5">
         <v>-3</v>
@@ -9690,10 +9693,10 @@
         <v>1</v>
       </c>
       <c r="K317" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="L317" s="6" t="s">
         <v>840</v>
-      </c>
-      <c r="L317" s="6" t="s">
-        <v>841</v>
       </c>
     </row>
     <row r="318" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9701,13 +9704,13 @@
         <v>10315</v>
       </c>
       <c r="B318" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="K318" s="6" t="s">
         <v>842</v>
       </c>
-      <c r="K318" s="6" t="s">
-        <v>843</v>
-      </c>
       <c r="L318" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="319" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9715,13 +9718,13 @@
         <v>10316</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K319" s="6" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="L319" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="320" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9729,13 +9732,13 @@
         <v>10317</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K320" s="23" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="L320" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="321" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9743,13 +9746,13 @@
         <v>10318</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K321" s="6" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="L321" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="322" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9757,13 +9760,13 @@
         <v>10319</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K322" s="6" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="L322" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="323" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9771,13 +9774,13 @@
         <v>10320</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="K323" s="6" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="L323" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="324" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9785,13 +9788,13 @@
         <v>10321</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K324" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L324" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="325" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9799,22 +9802,22 @@
         <v>10322</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="H325" s="5">
         <v>-2</v>
       </c>
       <c r="K325" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="L325" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="L325" s="6" t="s">
-        <v>886</v>
-      </c>
       <c r="M325" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="326" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9822,10 +9825,10 @@
         <v>10323</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D326" s="5">
         <v>3</v>
@@ -9840,10 +9843,10 @@
         <v>3</v>
       </c>
       <c r="K326" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="L326" s="6" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="327" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9851,16 +9854,16 @@
         <v>10324</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F327" s="5">
         <v>1</v>
       </c>
       <c r="K327" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="328" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9868,16 +9871,16 @@
         <v>10325</v>
       </c>
       <c r="B328" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="F328" s="5">
+        <v>1</v>
+      </c>
+      <c r="K328" s="6" t="s">
         <v>893</v>
       </c>
-      <c r="F328" s="5">
-        <v>1</v>
-      </c>
-      <c r="K328" s="6" t="s">
-        <v>894</v>
-      </c>
       <c r="L328" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="329" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9885,16 +9888,16 @@
         <v>10326</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F329" s="5">
         <v>1</v>
       </c>
       <c r="K329" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L329" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="330" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9902,16 +9905,16 @@
         <v>10327</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F330" s="5">
         <v>1</v>
       </c>
       <c r="K330" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="L330" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="331" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9919,16 +9922,16 @@
         <v>10328</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F331" s="5">
         <v>1</v>
       </c>
       <c r="K331" s="6" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="L331" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="332" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9936,16 +9939,16 @@
         <v>10329</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F332" s="5">
         <v>1</v>
       </c>
       <c r="K332" s="6" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="L332" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="333" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9953,16 +9956,16 @@
         <v>10330</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F333" s="5">
         <v>1</v>
       </c>
       <c r="K333" s="6" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="L333" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="334" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9970,16 +9973,16 @@
         <v>10331</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F334" s="5">
         <v>1</v>
       </c>
       <c r="K334" s="6" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="L334" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="335" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9987,16 +9990,16 @@
         <v>10332</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="F335" s="5">
         <v>1</v>
       </c>
       <c r="K335" s="6" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="L335" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="336" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10004,10 +10007,10 @@
         <v>10333</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E336" s="5">
         <v>1</v>
@@ -10019,10 +10022,10 @@
         <v>1</v>
       </c>
       <c r="K336" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L336" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="337" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10030,13 +10033,13 @@
         <v>10334</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F337" s="5">
         <v>10</v>
       </c>
       <c r="K337" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="338" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10044,13 +10047,13 @@
         <v>10335</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="F338" s="5">
         <v>20</v>
       </c>
       <c r="K338" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="339" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10058,16 +10061,16 @@
         <v>10336</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F339" s="5">
         <v>2</v>
       </c>
       <c r="K339" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="340" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10075,16 +10078,16 @@
         <v>10337</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F340" s="5">
         <v>2</v>
       </c>
       <c r="K340" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L340" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="341" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10092,16 +10095,16 @@
         <v>10338</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F341" s="5">
         <v>2</v>
       </c>
       <c r="K341" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L341" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="342" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10109,16 +10112,16 @@
         <v>10339</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F342" s="5">
         <v>2</v>
       </c>
       <c r="K342" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L342" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10126,16 +10129,16 @@
         <v>10340</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="F343" s="5">
         <v>2</v>
       </c>
       <c r="K343" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L343" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="344" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10143,16 +10146,16 @@
         <v>10341</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="F344" s="5">
         <v>2</v>
       </c>
       <c r="K344" s="6" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="L344" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="345" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10160,16 +10163,16 @@
         <v>10342</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="F345" s="5">
         <v>2</v>
       </c>
       <c r="K345" s="6" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="L345" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="346" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10177,16 +10180,16 @@
         <v>10343</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="F346" s="5">
         <v>2</v>
       </c>
       <c r="K346" s="6" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="L346" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="347" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10194,16 +10197,16 @@
         <v>10344</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F347" s="5">
         <v>2</v>
       </c>
       <c r="K347" s="6" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="L347" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="348" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10211,10 +10214,10 @@
         <v>10345</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F348" s="5">
         <v>20</v>
@@ -10223,10 +10226,10 @@
         <v>1</v>
       </c>
       <c r="K348" s="6" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="L348" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="349" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10234,16 +10237,16 @@
         <v>10346</v>
       </c>
       <c r="B349" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="K349" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="L349" s="6" t="s">
+        <v>940</v>
+      </c>
+      <c r="M349" s="7" t="s">
         <v>939</v>
-      </c>
-      <c r="K349" s="6" t="s">
-        <v>915</v>
-      </c>
-      <c r="L349" s="6" t="s">
-        <v>941</v>
-      </c>
-      <c r="M349" s="7" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="350" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10251,16 +10254,16 @@
         <v>10347</v>
       </c>
       <c r="B350" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="K350" s="6" t="s">
+        <v>914</v>
+      </c>
+      <c r="L350" s="6" t="s">
+        <v>941</v>
+      </c>
+      <c r="M350" s="7" t="s">
         <v>939</v>
-      </c>
-      <c r="K350" s="6" t="s">
-        <v>915</v>
-      </c>
-      <c r="L350" s="6" t="s">
-        <v>942</v>
-      </c>
-      <c r="M350" s="7" t="s">
-        <v>940</v>
       </c>
     </row>
     <row r="351" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10268,16 +10271,16 @@
         <v>10348</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F351" s="5">
         <v>3</v>
       </c>
       <c r="K351" s="6" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="L351" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="352" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10285,19 +10288,19 @@
         <v>10349</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F352" s="5">
         <v>100</v>
       </c>
       <c r="K352" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="L352" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="353" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10305,16 +10308,16 @@
         <v>10350</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F353" s="5">
         <v>50</v>
       </c>
       <c r="K353" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="354" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10322,13 +10325,13 @@
         <v>10351</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F354" s="5">
         <v>5</v>
       </c>
       <c r="K354" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="355" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10336,10 +10339,10 @@
         <v>10352</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="L355" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="356" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10347,10 +10350,10 @@
         <v>10353</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L356" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="357" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10358,7 +10361,7 @@
         <v>10354</v>
       </c>
       <c r="L357" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="358" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10366,7 +10369,7 @@
         <v>10355</v>
       </c>
       <c r="L358" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="359" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10374,7 +10377,7 @@
         <v>10356</v>
       </c>
       <c r="L359" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="360" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10382,7 +10385,7 @@
         <v>10357</v>
       </c>
       <c r="L360" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="361" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10390,7 +10393,7 @@
         <v>10358</v>
       </c>
       <c r="L361" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="362" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10398,7 +10401,7 @@
         <v>10359</v>
       </c>
       <c r="L362" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="363" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10406,7 +10409,7 @@
         <v>10360</v>
       </c>
       <c r="L363" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="364" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10414,7 +10417,7 @@
         <v>10361</v>
       </c>
       <c r="L364" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="365" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10422,7 +10425,7 @@
         <v>10362</v>
       </c>
       <c r="L365" s="6" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="366" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E87A439-1DDA-41EB-A884-0FD2121A512B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12541D30-CF97-41CB-8AF4-FEC61624B1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="2380" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="events" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="1244">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2887,10 +2887,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你决定参军。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(STR&gt;5)&amp;(EVT?[10009])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4750,6 +4746,62 @@
   </si>
   <si>
     <t>美国宣布进入社会主义社会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你想要参军。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(INT&lt;6)&amp;(SPR&lt;2):10062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10468]</t>
+  </si>
+  <si>
+    <t>EVT?[10469]</t>
+  </si>
+  <si>
+    <t>EVT?[10470]</t>
+  </si>
+  <si>
+    <t>奥运会在安徽省会南京成功举办。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被门夹伤了手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不小心摔了一跤，磕掉了一颗牙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在购物时中了个四等奖：一包纸巾。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在购物时中了个三等奖：一个电饭锅。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在购物时中了个二等奖：一个电冰箱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在购物时中了个一等奖：三亚七日游。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你快乐地游玩了一个冬天。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10464,10465,10466,10467]</t>
+  </si>
+  <si>
+    <t>EVT?[10464,10465,10466,10467]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5354,10 +5406,10 @@
   <dimension ref="A1:N473"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C445" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C457" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F450" sqref="F450"/>
+      <selection pane="bottomRight" activeCell="A474" sqref="A474:XFD475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.4140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5379,40 +5431,40 @@
   <sheetData>
     <row r="1" spans="1:14" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>1229</v>
+        <v>1243</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>945</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>946</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>947</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>948</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>949</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>950</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>951</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>17</v>
@@ -6684,7 +6736,7 @@
         <v>-1</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>180</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9456,7 +9508,7 @@
         <v>686</v>
       </c>
       <c r="K241" s="6" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="L241" s="6" t="s">
         <v>684</v>
@@ -9473,7 +9525,7 @@
         <v>1</v>
       </c>
       <c r="K242" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="L242" s="6" t="s">
         <v>685</v>
@@ -9769,13 +9821,13 @@
         <v>10258</v>
       </c>
       <c r="B261" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="K261" s="6" t="s">
         <v>731</v>
       </c>
-      <c r="K261" s="6" t="s">
+      <c r="L261" s="6" t="s">
         <v>732</v>
-      </c>
-      <c r="L261" s="6" t="s">
-        <v>733</v>
       </c>
     </row>
     <row r="262" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9783,10 +9835,10 @@
         <v>10259</v>
       </c>
       <c r="B262" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="K262" s="6" t="s">
         <v>734</v>
-      </c>
-      <c r="K262" s="6" t="s">
-        <v>735</v>
       </c>
       <c r="L262" s="6" t="s">
         <v>725</v>
@@ -9797,7 +9849,7 @@
         <v>10260</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="K263" s="6" t="s">
         <v>725</v>
@@ -9808,13 +9860,13 @@
         <v>10261</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H264" s="5">
         <v>1</v>
       </c>
       <c r="K264" s="6" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="L264" s="6" t="s">
         <v>625</v>
@@ -9825,13 +9877,13 @@
         <v>10262</v>
       </c>
       <c r="B265" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="H265" s="5">
+        <v>1</v>
+      </c>
+      <c r="K265" s="6" t="s">
         <v>739</v>
-      </c>
-      <c r="H265" s="5">
-        <v>1</v>
-      </c>
-      <c r="K265" s="6" t="s">
-        <v>740</v>
       </c>
       <c r="L265" s="6" t="s">
         <v>626</v>
@@ -9842,10 +9894,10 @@
         <v>10263</v>
       </c>
       <c r="B266" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="K266" s="6" t="s">
         <v>741</v>
-      </c>
-      <c r="K266" s="6" t="s">
-        <v>742</v>
       </c>
       <c r="L266" s="6" t="s">
         <v>627</v>
@@ -9856,10 +9908,10 @@
         <v>10264</v>
       </c>
       <c r="B267" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="C267" s="4" t="s">
         <v>743</v>
-      </c>
-      <c r="C267" s="4" t="s">
-        <v>744</v>
       </c>
       <c r="G267" s="5">
         <v>1</v>
@@ -9871,7 +9923,7 @@
         <v>628</v>
       </c>
       <c r="M267" s="7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="268" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9879,7 +9931,7 @@
         <v>10265</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G268" s="5">
         <v>2</v>
@@ -9893,13 +9945,13 @@
         <v>10266</v>
       </c>
       <c r="B269" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="K269" s="6" t="s">
         <v>747</v>
       </c>
-      <c r="K269" s="6" t="s">
+      <c r="L269" s="6" t="s">
         <v>748</v>
-      </c>
-      <c r="L269" s="6" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="270" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9907,10 +9959,10 @@
         <v>10267</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="K270" s="6" t="s">
         <v>725</v>
@@ -9919,7 +9971,7 @@
         <v>629</v>
       </c>
       <c r="M270" s="7" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="271" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9927,16 +9979,16 @@
         <v>10268</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H271" s="5">
         <v>1</v>
       </c>
       <c r="K271" s="23" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L271" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="272" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9944,16 +9996,16 @@
         <v>10269</v>
       </c>
       <c r="B272" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="H272" s="5">
+        <v>1</v>
+      </c>
+      <c r="K272" s="23" t="s">
         <v>754</v>
       </c>
-      <c r="H272" s="5">
-        <v>1</v>
-      </c>
-      <c r="K272" s="23" t="s">
-        <v>755</v>
-      </c>
       <c r="L272" s="6" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="273" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9961,13 +10013,13 @@
         <v>10270</v>
       </c>
       <c r="B273" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="K273" s="24" t="s">
         <v>756</v>
       </c>
-      <c r="K273" s="24" t="s">
-        <v>757</v>
-      </c>
       <c r="L273" s="6" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="274" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9975,16 +10027,16 @@
         <v>10271</v>
       </c>
       <c r="B274" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C274" s="4" t="s">
         <v>759</v>
       </c>
-      <c r="C274" s="4" t="s">
-        <v>760</v>
-      </c>
       <c r="K274" s="24" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="L274" s="6" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="275" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -9992,16 +10044,16 @@
         <v>10272</v>
       </c>
       <c r="B275" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="H275" s="5">
+        <v>1</v>
+      </c>
+      <c r="K275" s="24" t="s">
         <v>761</v>
       </c>
-      <c r="H275" s="5">
-        <v>1</v>
-      </c>
-      <c r="K275" s="24" t="s">
-        <v>762</v>
-      </c>
       <c r="L275" s="6" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="276" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10009,16 +10061,16 @@
         <v>10273</v>
       </c>
       <c r="B276" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C276" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="C276" s="4" t="s">
-        <v>764</v>
-      </c>
       <c r="K276" s="23" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L276" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="277" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10026,13 +10078,10 @@
         <v>10274</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>765</v>
-      </c>
-      <c r="H277" s="5">
-        <v>-1</v>
+        <v>764</v>
       </c>
       <c r="K277" s="23" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="278" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10040,16 +10089,16 @@
         <v>10275</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H278" s="5">
         <v>-1</v>
       </c>
       <c r="K278" s="23" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L278" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="279" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10057,13 +10106,13 @@
         <v>10276</v>
       </c>
       <c r="B279" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="K279" s="25" t="s">
         <v>767</v>
       </c>
-      <c r="K279" s="25" t="s">
-        <v>768</v>
-      </c>
       <c r="L279" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="280" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10071,16 +10120,16 @@
         <v>10277</v>
       </c>
       <c r="B280" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C280" s="4" t="s">
         <v>769</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>770</v>
       </c>
       <c r="F280" s="5">
         <v>-1</v>
       </c>
       <c r="K280" s="25" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="L280" s="6" t="s">
         <v>630</v>
@@ -10091,13 +10140,13 @@
         <v>10278</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D281" s="5">
         <v>-1</v>
       </c>
       <c r="K281" s="25" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="282" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10105,7 +10154,7 @@
         <v>10279</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G282" s="5">
         <v>-1</v>
@@ -10114,10 +10163,10 @@
         <v>-1</v>
       </c>
       <c r="K282" s="23" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L282" s="6" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="283" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10125,13 +10174,13 @@
         <v>10280</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H283" s="5">
         <v>-1</v>
       </c>
       <c r="K283" s="6" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="L283" s="6" t="s">
         <v>631</v>
@@ -10142,13 +10191,13 @@
         <v>10281</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H284" s="5">
         <v>-1</v>
       </c>
       <c r="K284" s="6" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="L284" s="6" t="s">
         <v>632</v>
@@ -10159,16 +10208,16 @@
         <v>10282</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H285" s="5">
         <v>-2</v>
       </c>
       <c r="K285" s="23" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L285" s="6" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="286" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10176,13 +10225,13 @@
         <v>10283</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H286" s="5">
         <v>-1</v>
       </c>
       <c r="K286" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="287" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10190,13 +10239,13 @@
         <v>10284</v>
       </c>
       <c r="B287" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="H287" s="5">
+        <v>1</v>
+      </c>
+      <c r="K287" s="6" t="s">
         <v>789</v>
-      </c>
-      <c r="H287" s="5">
-        <v>1</v>
-      </c>
-      <c r="K287" s="6" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="288" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10204,13 +10253,13 @@
         <v>10285</v>
       </c>
       <c r="B288" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="H288" s="5">
+        <v>1</v>
+      </c>
+      <c r="K288" s="6" t="s">
         <v>791</v>
-      </c>
-      <c r="H288" s="5">
-        <v>1</v>
-      </c>
-      <c r="K288" s="6" t="s">
-        <v>792</v>
       </c>
       <c r="L288" s="6" t="s">
         <v>633</v>
@@ -10221,13 +10270,13 @@
         <v>10286</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H289" s="5">
         <v>1</v>
       </c>
       <c r="K289" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L289" s="6" t="s">
         <v>634</v>
@@ -10238,13 +10287,13 @@
         <v>10287</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H290" s="5">
         <v>1</v>
       </c>
       <c r="K290" s="6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="L290" s="6" t="s">
         <v>635</v>
@@ -10255,13 +10304,13 @@
         <v>10288</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H291" s="5">
         <v>1</v>
       </c>
       <c r="K291" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="292" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10269,16 +10318,16 @@
         <v>10289</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="K292" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L292" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="M292" s="7" t="s">
         <v>796</v>
-      </c>
-      <c r="M292" s="7" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="293" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10286,7 +10335,7 @@
         <v>10290</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="K293" s="6" t="s">
         <v>413</v>
@@ -10295,7 +10344,7 @@
         <v>636</v>
       </c>
       <c r="M293" s="7" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="294" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10303,7 +10352,7 @@
         <v>10291</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="K294" s="6" t="s">
         <v>413</v>
@@ -10317,7 +10366,7 @@
         <v>10292</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F295" s="5">
         <v>-1</v>
@@ -10334,13 +10383,13 @@
         <v>10293</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H296" s="5">
         <v>1</v>
       </c>
       <c r="K296" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L296" s="6" t="s">
         <v>639</v>
@@ -10351,16 +10400,19 @@
         <v>10294</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H297" s="5">
         <v>1</v>
       </c>
       <c r="K297" s="6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="L297" s="6" t="s">
-        <v>885</v>
+        <v>884</v>
+      </c>
+      <c r="M297" s="7" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="298" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10368,13 +10420,13 @@
         <v>10295</v>
       </c>
       <c r="B298" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="C298" s="4" t="s">
         <v>804</v>
       </c>
-      <c r="C298" s="4" t="s">
-        <v>805</v>
-      </c>
       <c r="K298" s="23" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L298" s="6" t="s">
         <v>640</v>
@@ -10385,13 +10437,13 @@
         <v>10296</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G299" s="5">
         <v>1</v>
       </c>
       <c r="K299" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L299" s="6" t="s">
         <v>641</v>
@@ -10402,13 +10454,13 @@
         <v>10297</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H300" s="5">
         <v>1</v>
       </c>
       <c r="K300" s="6" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="L300" s="6" t="s">
         <v>642</v>
@@ -10419,13 +10471,13 @@
         <v>10298</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H301" s="5">
         <v>1</v>
       </c>
       <c r="K301" s="6" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="L301" s="6" t="s">
         <v>643</v>
@@ -10436,13 +10488,13 @@
         <v>10299</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H302" s="5">
         <v>1</v>
       </c>
       <c r="K302" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L302" s="6" t="s">
         <v>644</v>
@@ -10453,13 +10505,13 @@
         <v>10300</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H303" s="5">
         <v>1</v>
       </c>
       <c r="K303" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L303" s="6" t="s">
         <v>645</v>
@@ -10470,13 +10522,13 @@
         <v>10301</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H304" s="5">
         <v>1</v>
       </c>
       <c r="K304" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L304" s="6" t="s">
         <v>646</v>
@@ -10487,13 +10539,13 @@
         <v>10302</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H305" s="5">
         <v>1</v>
       </c>
       <c r="K305" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L305" s="6" t="s">
         <v>647</v>
@@ -10504,13 +10556,13 @@
         <v>10303</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H306" s="5">
         <v>1</v>
       </c>
       <c r="K306" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L306" s="6" t="s">
         <v>648</v>
@@ -10521,13 +10573,13 @@
         <v>10304</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H307" s="5">
         <v>1</v>
       </c>
       <c r="K307" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L307" s="6" t="s">
         <v>649</v>
@@ -10538,13 +10590,13 @@
         <v>10305</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H308" s="5">
         <v>1</v>
       </c>
       <c r="K308" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L308" s="6" t="s">
         <v>650</v>
@@ -10555,13 +10607,13 @@
         <v>10306</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H309" s="5">
         <v>1</v>
       </c>
       <c r="K309" s="6" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L309" s="6" t="s">
         <v>651</v>
@@ -10572,10 +10624,10 @@
         <v>10307</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="K310" s="25" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="L310" s="6" t="s">
         <v>652</v>
@@ -10586,7 +10638,7 @@
         <v>10308</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="K311" s="6" t="s">
         <v>411</v>
@@ -10600,10 +10652,10 @@
         <v>10309</v>
       </c>
       <c r="B312" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="K312" s="6" t="s">
         <v>830</v>
-      </c>
-      <c r="K312" s="6" t="s">
-        <v>831</v>
       </c>
       <c r="L312" s="6" t="s">
         <v>654</v>
@@ -10614,7 +10666,7 @@
         <v>10310</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="K313" s="6" t="s">
         <v>411</v>
@@ -10628,10 +10680,10 @@
         <v>10311</v>
       </c>
       <c r="B314" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="K314" s="6" t="s">
         <v>833</v>
-      </c>
-      <c r="K314" s="6" t="s">
-        <v>834</v>
       </c>
       <c r="L314" s="6" t="s">
         <v>656</v>
@@ -10642,10 +10694,10 @@
         <v>10312</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K315" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L315" s="6" t="s">
         <v>657</v>
@@ -10656,10 +10708,10 @@
         <v>10313</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K316" s="6" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="L316" s="6" t="s">
         <v>658</v>
@@ -10670,7 +10722,7 @@
         <v>10314</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E317" s="5">
         <v>-3</v>
@@ -10679,10 +10731,10 @@
         <v>1</v>
       </c>
       <c r="K317" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="L317" s="6" t="s">
         <v>839</v>
-      </c>
-      <c r="L317" s="6" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="318" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10690,13 +10742,13 @@
         <v>10315</v>
       </c>
       <c r="B318" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="K318" s="6" t="s">
         <v>841</v>
       </c>
-      <c r="K318" s="6" t="s">
-        <v>842</v>
-      </c>
       <c r="L318" s="6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="319" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10704,13 +10756,13 @@
         <v>10316</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K319" s="6" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="L319" s="6" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="320" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10718,13 +10770,13 @@
         <v>10317</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="K320" s="23" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L320" s="6" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="321" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10732,13 +10784,13 @@
         <v>10318</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K321" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="L321" s="6" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="322" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10746,13 +10798,13 @@
         <v>10319</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="K322" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="L322" s="6" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="323" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10760,13 +10812,13 @@
         <v>10320</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K323" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="L323" s="6" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="324" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10774,13 +10826,13 @@
         <v>10321</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="K324" s="6" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="L324" s="6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="325" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10788,19 +10840,19 @@
         <v>10322</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="H325" s="5">
         <v>-2</v>
       </c>
       <c r="K325" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="L325" s="6" t="s">
         <v>880</v>
-      </c>
-      <c r="L325" s="6" t="s">
-        <v>881</v>
       </c>
       <c r="M325" s="7" t="s">
         <v>180</v>
@@ -10811,10 +10863,10 @@
         <v>10323</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D326" s="5">
         <v>3</v>
@@ -10829,10 +10881,10 @@
         <v>2</v>
       </c>
       <c r="K326" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="L326" s="6" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="327" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10840,16 +10892,16 @@
         <v>10324</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F327" s="5">
         <v>1</v>
       </c>
       <c r="K327" s="6" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="328" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10857,16 +10909,16 @@
         <v>10325</v>
       </c>
       <c r="B328" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="F328" s="5">
+        <v>1</v>
+      </c>
+      <c r="K328" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="F328" s="5">
-        <v>1</v>
-      </c>
-      <c r="K328" s="6" t="s">
-        <v>889</v>
-      </c>
       <c r="L328" s="6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="329" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10874,16 +10926,16 @@
         <v>10326</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="F329" s="5">
         <v>1</v>
       </c>
       <c r="K329" s="6" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="L329" s="6" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="330" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10891,16 +10943,16 @@
         <v>10327</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="F330" s="5">
         <v>1</v>
       </c>
       <c r="K330" s="6" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="L330" s="6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="331" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10908,16 +10960,16 @@
         <v>10328</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="F331" s="5">
         <v>1</v>
       </c>
       <c r="K331" s="6" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="L331" s="6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="332" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10925,16 +10977,16 @@
         <v>10329</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="F332" s="5">
         <v>1</v>
       </c>
       <c r="K332" s="6" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="L332" s="6" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="333" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10942,16 +10994,16 @@
         <v>10330</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F333" s="5">
         <v>1</v>
       </c>
       <c r="K333" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="L333" s="6" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="334" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10959,16 +11011,16 @@
         <v>10331</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="F334" s="5">
         <v>1</v>
       </c>
       <c r="K334" s="6" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="L334" s="6" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="335" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10976,16 +11028,16 @@
         <v>10332</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F335" s="5">
         <v>1</v>
       </c>
       <c r="K335" s="6" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="L335" s="6" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="336" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -10993,10 +11045,10 @@
         <v>10333</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E336" s="5">
         <v>1</v>
@@ -11005,10 +11057,10 @@
         <v>10</v>
       </c>
       <c r="K336" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L336" s="6" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="337" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11016,13 +11068,13 @@
         <v>10334</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F337" s="5">
         <v>10</v>
       </c>
       <c r="K337" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="338" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11030,13 +11082,13 @@
         <v>10335</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F338" s="5">
         <v>20</v>
       </c>
       <c r="K338" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="339" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11044,16 +11096,16 @@
         <v>10336</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F339" s="5">
         <v>2</v>
       </c>
       <c r="K339" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="340" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11061,16 +11113,16 @@
         <v>10337</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F340" s="5">
         <v>2</v>
       </c>
       <c r="K340" s="6" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="L340" s="6" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="341" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11078,16 +11130,16 @@
         <v>10338</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="F341" s="5">
         <v>2</v>
       </c>
       <c r="K341" s="6" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="L341" s="6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="342" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11095,16 +11147,16 @@
         <v>10339</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F342" s="5">
         <v>2</v>
       </c>
       <c r="K342" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="L342" s="6" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11112,16 +11164,16 @@
         <v>10340</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F343" s="5">
         <v>2</v>
       </c>
       <c r="K343" s="6" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="L343" s="6" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="344" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11129,16 +11181,16 @@
         <v>10341</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F344" s="5">
         <v>2</v>
       </c>
       <c r="K344" s="6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="L344" s="6" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="345" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11146,16 +11198,16 @@
         <v>10342</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F345" s="5">
         <v>2</v>
       </c>
       <c r="K345" s="6" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="L345" s="6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="346" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11163,16 +11215,16 @@
         <v>10343</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="F346" s="5">
         <v>2</v>
       </c>
       <c r="K346" s="6" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="L346" s="6" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="347" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11180,16 +11232,16 @@
         <v>10344</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F347" s="5">
         <v>2</v>
       </c>
       <c r="K347" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="L347" s="6" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="348" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11197,10 +11249,10 @@
         <v>10345</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E348" s="5">
         <v>2</v>
@@ -11209,10 +11261,10 @@
         <v>20</v>
       </c>
       <c r="K348" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L348" s="6" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="349" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11220,16 +11272,16 @@
         <v>10346</v>
       </c>
       <c r="B349" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="K349" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="L349" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="M349" s="7" t="s">
         <v>934</v>
-      </c>
-      <c r="K349" s="6" t="s">
-        <v>910</v>
-      </c>
-      <c r="L349" s="6" t="s">
-        <v>936</v>
-      </c>
-      <c r="M349" s="7" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="350" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11237,16 +11289,16 @@
         <v>10347</v>
       </c>
       <c r="B350" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="K350" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="L350" s="6" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M350" s="7" t="s">
         <v>934</v>
-      </c>
-      <c r="K350" s="6" t="s">
-        <v>910</v>
-      </c>
-      <c r="L350" s="6" t="s">
-        <v>1050</v>
-      </c>
-      <c r="M350" s="7" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="351" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11254,7 +11306,7 @@
         <v>10348</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E351" s="5">
         <v>1</v>
@@ -11263,10 +11315,10 @@
         <v>3</v>
       </c>
       <c r="K351" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L351" s="6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="352" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11274,19 +11326,19 @@
         <v>10349</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F352" s="5">
         <v>100</v>
       </c>
       <c r="K352" s="6" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="L352" s="6" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="353" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11294,16 +11346,16 @@
         <v>10350</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F353" s="5">
         <v>50</v>
       </c>
       <c r="K353" s="6" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="354" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11311,13 +11363,13 @@
         <v>10351</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F354" s="5">
         <v>5</v>
       </c>
       <c r="K354" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="355" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11325,7 +11377,7 @@
         <v>10352</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E355" s="5">
         <v>1</v>
@@ -11334,10 +11386,10 @@
         <v>3</v>
       </c>
       <c r="K355" s="6" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="L355" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="356" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11345,7 +11397,7 @@
         <v>10353</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E356" s="5">
         <v>1</v>
@@ -11354,10 +11406,10 @@
         <v>3</v>
       </c>
       <c r="K356" s="6" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="L356" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="357" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11365,7 +11417,7 @@
         <v>10354</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E357" s="5">
         <v>1</v>
@@ -11374,10 +11426,10 @@
         <v>3</v>
       </c>
       <c r="K357" s="6" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="L357" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="358" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11385,7 +11437,7 @@
         <v>10355</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E358" s="5">
         <v>1</v>
@@ -11394,10 +11446,10 @@
         <v>3</v>
       </c>
       <c r="K358" s="6" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="L358" s="6" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="359" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11405,7 +11457,7 @@
         <v>10356</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="E359" s="5">
         <v>1</v>
@@ -11414,10 +11466,10 @@
         <v>3</v>
       </c>
       <c r="K359" s="6" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="L359" s="6" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="360" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11425,7 +11477,7 @@
         <v>10357</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E360" s="5">
         <v>1</v>
@@ -11434,10 +11486,10 @@
         <v>3</v>
       </c>
       <c r="K360" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="L360" s="6" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="361" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11445,7 +11497,7 @@
         <v>10358</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E361" s="5">
         <v>1</v>
@@ -11454,16 +11506,16 @@
         <v>3</v>
       </c>
       <c r="K361" s="6" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="L361" s="6" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="M361" s="7" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="N361" s="8" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="362" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11471,13 +11523,13 @@
         <v>10359</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="K362" s="6" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="L362" s="6" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="363" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11485,10 +11537,10 @@
         <v>10360</v>
       </c>
       <c r="B363" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C363" s="4" t="s">
         <v>1062</v>
-      </c>
-      <c r="C363" s="4" t="s">
-        <v>1063</v>
       </c>
       <c r="E363" s="5">
         <v>50</v>
@@ -11508,10 +11560,10 @@
         <v>10361</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="E364" s="5">
         <v>50</v>
@@ -11523,10 +11575,10 @@
         <v>1</v>
       </c>
       <c r="K364" s="6" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="L364" s="6" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="365" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11534,10 +11586,10 @@
         <v>10362</v>
       </c>
       <c r="B365" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C365" s="4" t="s">
         <v>1044</v>
-      </c>
-      <c r="C365" s="4" t="s">
-        <v>1045</v>
       </c>
       <c r="E365" s="5">
         <v>1</v>
@@ -11546,10 +11598,10 @@
         <v>3</v>
       </c>
       <c r="K365" s="6" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="L365" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="366" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11557,10 +11609,10 @@
         <v>10363</v>
       </c>
       <c r="B366" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C366" s="4" t="s">
         <v>1064</v>
-      </c>
-      <c r="C366" s="4" t="s">
-        <v>1065</v>
       </c>
       <c r="E366" s="5">
         <v>10</v>
@@ -11569,10 +11621,10 @@
         <v>100</v>
       </c>
       <c r="K366" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="L366" s="6" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="367" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11580,13 +11632,13 @@
         <v>10364</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F367" s="5">
         <v>10</v>
       </c>
       <c r="K367" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="368" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11594,19 +11646,19 @@
         <v>10365</v>
       </c>
       <c r="B368" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C368" s="4" t="s">
         <v>1067</v>
-      </c>
-      <c r="C368" s="4" t="s">
-        <v>1068</v>
       </c>
       <c r="E368" s="5">
         <v>30</v>
       </c>
       <c r="K368" s="6" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="L368" s="6" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11614,7 +11666,7 @@
         <v>10366</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E369" s="5">
         <v>10</v>
@@ -11623,7 +11675,7 @@
         <v>100</v>
       </c>
       <c r="K369" s="6" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="370" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11631,16 +11683,16 @@
         <v>10367</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E370" s="5">
         <v>2</v>
       </c>
       <c r="K370" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="L370" s="6" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="371" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11648,16 +11700,16 @@
         <v>10368</v>
       </c>
       <c r="B371" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="K371" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="L371" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="M371" s="7" t="s">
         <v>934</v>
-      </c>
-      <c r="K371" s="6" t="s">
-        <v>910</v>
-      </c>
-      <c r="L371" s="6" t="s">
-        <v>1089</v>
-      </c>
-      <c r="M371" s="7" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="372" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11665,16 +11717,16 @@
         <v>10369</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E372" s="5">
         <v>2</v>
       </c>
       <c r="K372" s="6" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="L372" s="6" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="373" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11682,16 +11734,16 @@
         <v>10370</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="E373" s="5">
         <v>2</v>
       </c>
       <c r="K373" s="6" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="L373" s="6" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="374" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11699,16 +11751,16 @@
         <v>10371</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E374" s="5">
         <v>2</v>
       </c>
       <c r="K374" s="6" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="L374" s="6" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="375" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11716,16 +11768,16 @@
         <v>10372</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="E375" s="5">
         <v>2</v>
       </c>
       <c r="K375" s="6" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="L375" s="6" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="376" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11733,16 +11785,16 @@
         <v>10373</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="E376" s="5">
         <v>2</v>
       </c>
       <c r="K376" s="6" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="L376" s="6" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="377" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11750,16 +11802,16 @@
         <v>10374</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E377" s="5">
         <v>2</v>
       </c>
       <c r="K377" s="6" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="L377" s="6" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="378" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11767,16 +11819,16 @@
         <v>10375</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="E378" s="5">
         <v>2</v>
       </c>
       <c r="K378" s="6" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="L378" s="6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="379" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11784,16 +11836,16 @@
         <v>10376</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E379" s="5">
         <v>2</v>
       </c>
       <c r="K379" s="6" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="L379" s="6" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="380" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11801,7 +11853,7 @@
         <v>10377</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="E380" s="5">
         <v>10</v>
@@ -11810,10 +11862,10 @@
         <v>10</v>
       </c>
       <c r="K380" s="6" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="L380" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="381" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11821,7 +11873,7 @@
         <v>10378</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="E381" s="5">
         <v>1</v>
@@ -11830,10 +11882,10 @@
         <v>10</v>
       </c>
       <c r="K381" s="6" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="L381" s="6" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="382" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11841,16 +11893,16 @@
         <v>10379</v>
       </c>
       <c r="B382" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="K382" s="6" t="s">
+        <v>909</v>
+      </c>
+      <c r="L382" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="M382" s="7" t="s">
         <v>934</v>
-      </c>
-      <c r="K382" s="6" t="s">
-        <v>910</v>
-      </c>
-      <c r="L382" s="6" t="s">
-        <v>1101</v>
-      </c>
-      <c r="M382" s="7" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="383" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11858,16 +11910,19 @@
         <v>10380</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E383" s="5">
         <v>20</v>
       </c>
+      <c r="F383" s="5">
+        <v>20</v>
+      </c>
       <c r="K383" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="L383" s="6" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="384" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11875,16 +11930,19 @@
         <v>10381</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="E384" s="5">
         <v>20</v>
       </c>
+      <c r="F384" s="5">
+        <v>20</v>
+      </c>
       <c r="K384" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="L384" s="6" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="385" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11892,16 +11950,19 @@
         <v>10382</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E385" s="5">
         <v>20</v>
       </c>
+      <c r="F385" s="5">
+        <v>20</v>
+      </c>
       <c r="K385" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="L385" s="6" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="386" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11909,16 +11970,19 @@
         <v>10383</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="E386" s="5">
         <v>20</v>
       </c>
+      <c r="F386" s="5">
+        <v>20</v>
+      </c>
       <c r="K386" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="L386" s="6" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="387" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11926,16 +11990,19 @@
         <v>10384</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E387" s="5">
         <v>20</v>
       </c>
+      <c r="F387" s="5">
+        <v>20</v>
+      </c>
       <c r="K387" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="L387" s="6" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="388" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11943,13 +12010,13 @@
         <v>10385</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E388" s="5">
         <v>20</v>
       </c>
       <c r="K388" s="6" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="389" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11957,16 +12024,19 @@
         <v>10386</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="E389" s="5">
         <v>50</v>
       </c>
+      <c r="F389" s="5">
+        <v>50</v>
+      </c>
       <c r="K389" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="L389" s="6" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="390" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11974,16 +12044,19 @@
         <v>10387</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="E390" s="5">
         <v>50</v>
       </c>
+      <c r="F390" s="5">
+        <v>50</v>
+      </c>
       <c r="K390" s="6" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="L390" s="6" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="391" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -11991,16 +12064,19 @@
         <v>10388</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E391" s="5">
         <v>50</v>
       </c>
+      <c r="F391" s="5">
+        <v>50</v>
+      </c>
       <c r="K391" s="6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="L391" s="6" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="392" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12008,16 +12084,19 @@
         <v>10389</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E392" s="5">
         <v>50</v>
       </c>
+      <c r="F392" s="5">
+        <v>50</v>
+      </c>
       <c r="K392" s="6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="L392" s="6" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="393" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12025,16 +12104,19 @@
         <v>10390</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="E393" s="5">
         <v>50</v>
       </c>
+      <c r="F393" s="5">
+        <v>50</v>
+      </c>
       <c r="K393" s="6" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="L393" s="6" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="394" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12042,16 +12124,16 @@
         <v>10391</v>
       </c>
       <c r="B394" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K394" s="6" t="s">
+        <v>1100</v>
+      </c>
+      <c r="L394" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="M394" s="7" t="s">
         <v>1115</v>
-      </c>
-      <c r="K394" s="6" t="s">
-        <v>1101</v>
-      </c>
-      <c r="L394" s="6" t="s">
-        <v>978</v>
-      </c>
-      <c r="M394" s="7" t="s">
-        <v>1116</v>
       </c>
     </row>
     <row r="395" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12059,19 +12141,19 @@
         <v>10392</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="J395" s="5">
         <v>1</v>
       </c>
       <c r="L395" s="6" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="M395" s="7" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="N395" s="8" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="396" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12079,19 +12161,19 @@
         <v>10393</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="J396" s="5">
         <v>1</v>
       </c>
       <c r="L396" s="6" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="M396" s="7" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="N396" s="8" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="397" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12099,19 +12181,19 @@
         <v>10394</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="J397" s="5">
         <v>1</v>
       </c>
       <c r="L397" s="6" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="M397" s="7" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="N397" s="8" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="398" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12119,19 +12201,19 @@
         <v>10395</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="J398" s="5">
         <v>1</v>
       </c>
       <c r="L398" s="6" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="M398" s="7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="N398" s="8" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="399" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12139,19 +12221,19 @@
         <v>10396</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="J399" s="5">
         <v>1</v>
       </c>
       <c r="L399" s="6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="M399" s="7" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="N399" s="8" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="400" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12159,19 +12241,19 @@
         <v>10397</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="J400" s="5">
         <v>1</v>
       </c>
       <c r="L400" s="6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="M400" s="7" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="N400" s="8" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="401" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12179,19 +12261,19 @@
         <v>10398</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="J401" s="5">
         <v>1</v>
       </c>
       <c r="L401" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="M401" s="7" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="N401" s="8" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="402" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12199,19 +12281,19 @@
         <v>10399</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="J402" s="5">
         <v>1</v>
       </c>
       <c r="L402" s="6" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="M402" s="7" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="N402" s="8" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="403" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12219,19 +12301,19 @@
         <v>10400</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="J403" s="5">
         <v>1</v>
       </c>
       <c r="L403" s="6" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M403" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="N403" s="8" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="404" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12239,16 +12321,16 @@
         <v>10401</v>
       </c>
       <c r="B404" s="3" t="s">
+        <v>1144</v>
+      </c>
+      <c r="J404" s="5">
+        <v>1</v>
+      </c>
+      <c r="L404" s="6" t="s">
+        <v>986</v>
+      </c>
+      <c r="M404" s="7" t="s">
         <v>1145</v>
-      </c>
-      <c r="J404" s="5">
-        <v>1</v>
-      </c>
-      <c r="L404" s="6" t="s">
-        <v>987</v>
-      </c>
-      <c r="M404" s="7" t="s">
-        <v>1146</v>
       </c>
     </row>
     <row r="405" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12256,19 +12338,19 @@
         <v>10402</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="J405" s="5">
         <v>1</v>
       </c>
       <c r="L405" s="6" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="M405" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="N405" s="8" t="s">
         <v>1149</v>
-      </c>
-      <c r="N405" s="8" t="s">
-        <v>1150</v>
       </c>
     </row>
     <row r="406" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12276,19 +12358,19 @@
         <v>10403</v>
       </c>
       <c r="B406" s="3" t="s">
+        <v>1150</v>
+      </c>
+      <c r="J406" s="5">
+        <v>1</v>
+      </c>
+      <c r="L406" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="M406" s="7" t="s">
         <v>1151</v>
       </c>
-      <c r="J406" s="5">
-        <v>1</v>
-      </c>
-      <c r="L406" s="6" t="s">
-        <v>989</v>
-      </c>
-      <c r="M406" s="7" t="s">
-        <v>1152</v>
-      </c>
       <c r="N406" s="8" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="407" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12296,19 +12378,19 @@
         <v>10404</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="J407" s="5">
         <v>1</v>
       </c>
       <c r="L407" s="6" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="M407" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="N407" s="8" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="408" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12316,19 +12398,19 @@
         <v>10405</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="J408" s="5">
         <v>1</v>
       </c>
       <c r="L408" s="6" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="M408" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="N408" s="8" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="409" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12336,19 +12418,19 @@
         <v>10406</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="J409" s="5">
         <v>1</v>
       </c>
       <c r="L409" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M409" s="7" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="N409" s="8" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="410" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12356,19 +12438,19 @@
         <v>10407</v>
       </c>
       <c r="B410" s="3" t="s">
+        <v>1158</v>
+      </c>
+      <c r="J410" s="5">
+        <v>1</v>
+      </c>
+      <c r="L410" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="M410" s="26" t="s">
         <v>1159</v>
       </c>
-      <c r="J410" s="5">
-        <v>1</v>
-      </c>
-      <c r="L410" s="6" t="s">
-        <v>993</v>
-      </c>
-      <c r="M410" s="26" t="s">
-        <v>1160</v>
-      </c>
       <c r="N410" s="8" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="411" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12376,19 +12458,19 @@
         <v>10408</v>
       </c>
       <c r="B411" s="3" t="s">
+        <v>1160</v>
+      </c>
+      <c r="J411" s="5">
+        <v>1</v>
+      </c>
+      <c r="L411" s="6" t="s">
+        <v>993</v>
+      </c>
+      <c r="M411" s="7" t="s">
         <v>1161</v>
       </c>
-      <c r="J411" s="5">
-        <v>1</v>
-      </c>
-      <c r="L411" s="6" t="s">
-        <v>994</v>
-      </c>
-      <c r="M411" s="7" t="s">
-        <v>1162</v>
-      </c>
       <c r="N411" s="8" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="412" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12396,10 +12478,10 @@
         <v>10409</v>
       </c>
       <c r="B412" s="3" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C412" s="4" t="s">
         <v>1163</v>
-      </c>
-      <c r="C412" s="4" t="s">
-        <v>1164</v>
       </c>
       <c r="I412" s="5">
         <v>-1</v>
@@ -12408,7 +12490,7 @@
         <v>1</v>
       </c>
       <c r="L412" s="6" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="413" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12416,13 +12498,13 @@
         <v>10410</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="K413" s="6" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="L413" s="6" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="414" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12430,13 +12512,13 @@
         <v>10411</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="K414" s="6" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="L414" s="6" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="415" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12444,13 +12526,13 @@
         <v>10412</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="K415" s="6" t="s">
         <v>444</v>
       </c>
       <c r="L415" s="6" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="416" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12458,13 +12540,13 @@
         <v>10413</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="K416" s="6" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="L416" s="6" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="417" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12472,13 +12554,13 @@
         <v>10414</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="K417" s="6" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="L417" s="6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="418" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12486,13 +12568,13 @@
         <v>10415</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="K418" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L418" s="6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="419" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12500,13 +12582,13 @@
         <v>10416</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="K419" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L419" s="6" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="420" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12514,13 +12596,13 @@
         <v>10417</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="K420" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L420" s="6" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="421" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12528,13 +12610,13 @@
         <v>10418</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="K421" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L421" s="6" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="422" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12542,13 +12624,13 @@
         <v>10419</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="K422" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L422" s="6" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="423" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12556,13 +12638,13 @@
         <v>10420</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="K423" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L423" s="6" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="424" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12570,13 +12652,13 @@
         <v>10421</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="K424" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L424" s="6" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="425" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12584,16 +12666,16 @@
         <v>10422</v>
       </c>
       <c r="B425" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C425" s="4" t="s">
         <v>1182</v>
       </c>
-      <c r="C425" s="4" t="s">
-        <v>1183</v>
-      </c>
       <c r="K425" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L425" s="6" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="426" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12601,13 +12683,13 @@
         <v>10423</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="K426" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L426" s="6" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="427" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12615,13 +12697,13 @@
         <v>10424</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="K427" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L427" s="6" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="428" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12629,13 +12711,13 @@
         <v>10425</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="K428" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L428" s="6" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="429" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12643,13 +12725,13 @@
         <v>10426</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="K429" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L429" s="6" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="430" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12657,13 +12739,13 @@
         <v>10427</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="K430" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L430" s="6" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="431" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12671,13 +12753,13 @@
         <v>10428</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="K431" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L431" s="6" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="432" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12685,13 +12767,13 @@
         <v>10429</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="K432" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L432" s="6" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="433" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12699,16 +12781,16 @@
         <v>10430</v>
       </c>
       <c r="B433" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C433" s="4" t="s">
         <v>1195</v>
       </c>
-      <c r="C433" s="4" t="s">
-        <v>1196</v>
-      </c>
       <c r="K433" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L433" s="6" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="434" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12716,13 +12798,13 @@
         <v>10431</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="K434" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L434" s="6" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="435" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12730,13 +12812,13 @@
         <v>10432</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="K435" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L435" s="6" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="436" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12744,13 +12826,13 @@
         <v>10433</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="K436" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L436" s="6" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="437" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12758,13 +12840,13 @@
         <v>10434</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="K437" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L437" s="6" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="438" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12772,13 +12854,13 @@
         <v>10435</v>
       </c>
       <c r="B438" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K438" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L438" s="6" t="s">
         <v>1201</v>
-      </c>
-      <c r="K438" s="6" t="s">
-        <v>1168</v>
-      </c>
-      <c r="L438" s="6" t="s">
-        <v>1202</v>
       </c>
     </row>
     <row r="439" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12786,13 +12868,13 @@
         <v>10436</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="K439" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L439" s="6" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="440" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12800,13 +12882,13 @@
         <v>10437</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="K440" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L440" s="6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="441" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12814,13 +12896,13 @@
         <v>10438</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="K441" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L441" s="6" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="442" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12828,13 +12910,13 @@
         <v>10439</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="K442" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L442" s="6" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="443" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12842,16 +12924,16 @@
         <v>10440</v>
       </c>
       <c r="B443" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C443" s="4" t="s">
         <v>1206</v>
       </c>
-      <c r="C443" s="4" t="s">
-        <v>1207</v>
-      </c>
       <c r="K443" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L443" s="6" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="444" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12859,13 +12941,13 @@
         <v>10441</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="K444" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L444" s="6" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="445" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12873,13 +12955,13 @@
         <v>10442</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="K445" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L445" s="6" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="446" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12887,13 +12969,13 @@
         <v>10443</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K446" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L446" s="6" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="447" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12901,13 +12983,13 @@
         <v>10444</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="K447" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L447" s="6" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="448" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12915,13 +12997,13 @@
         <v>10445</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="K448" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L448" s="6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="449" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12929,13 +13011,13 @@
         <v>10446</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="K449" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L449" s="6" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="450" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12943,13 +13025,13 @@
         <v>10447</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="K450" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L450" s="6" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="451" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12957,13 +13039,13 @@
         <v>10448</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="K451" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L451" s="6" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="452" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12971,13 +13053,13 @@
         <v>10449</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="K452" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L452" s="6" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="453" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12985,13 +13067,13 @@
         <v>10450</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="K453" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L453" s="6" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="454" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12999,13 +13081,13 @@
         <v>10451</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="K454" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L454" s="6" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="455" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -13013,13 +13095,13 @@
         <v>10452</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="K455" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L455" s="6" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="456" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -13027,13 +13109,13 @@
         <v>10453</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="K456" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L456" s="6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="457" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -13041,13 +13123,13 @@
         <v>10454</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="K457" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L457" s="6" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="458" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -13055,13 +13137,13 @@
         <v>10455</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="K458" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L458" s="6" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="459" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -13069,13 +13151,13 @@
         <v>10456</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="K459" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L459" s="6" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="460" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -13083,13 +13165,13 @@
         <v>10457</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="K460" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L460" s="6" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="461" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -13097,13 +13179,13 @@
         <v>10458</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="K461" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L461" s="6" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="462" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -13111,13 +13193,13 @@
         <v>10459</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="K462" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L462" s="6" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="463" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -13125,69 +13207,144 @@
         <v>10460</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="K463" s="6" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="L463" s="6" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="464" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="3">
         <v>10461</v>
       </c>
+      <c r="B464" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="K464" s="6" t="s">
+        <v>1167</v>
+      </c>
       <c r="L464" s="6" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="465" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="3">
         <v>10462</v>
       </c>
+      <c r="B465" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K465" s="6" t="s">
+        <v>1167</v>
+      </c>
       <c r="L465" s="6" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="466" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="3">
         <v>10463</v>
       </c>
+      <c r="B466" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K466" s="6" t="s">
+        <v>1167</v>
+      </c>
     </row>
     <row r="467" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="3">
         <v>10464</v>
       </c>
+      <c r="B467" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K467" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L467" s="6" t="s">
+        <v>1242</v>
+      </c>
     </row>
     <row r="468" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="3">
         <v>10465</v>
       </c>
+      <c r="B468" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="K468" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L468" s="6" t="s">
+        <v>1242</v>
+      </c>
     </row>
     <row r="469" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="3">
         <v>10466</v>
       </c>
+      <c r="B469" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="K469" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L469" s="6" t="s">
+        <v>1241</v>
+      </c>
     </row>
     <row r="470" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="3">
         <v>10467</v>
       </c>
+      <c r="B470" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C470" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="K470" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L470" s="6" t="s">
+        <v>1241</v>
+      </c>
     </row>
     <row r="471" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="3">
         <v>10468</v>
       </c>
+      <c r="K471" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L471" s="6" t="s">
+        <v>1230</v>
+      </c>
     </row>
     <row r="472" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="3">
         <v>10469</v>
       </c>
+      <c r="K472" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L472" s="6" t="s">
+        <v>1231</v>
+      </c>
     </row>
     <row r="473" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="3">
         <v>10470</v>
+      </c>
+      <c r="K473" s="6" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L473" s="6" t="s">
+        <v>1232</v>
       </c>
     </row>
   </sheetData>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12541D30-CF97-41CB-8AF4-FEC61624B1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DDDD96-DE36-46CE-B463-20C18CB5EA96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="events" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1511" uniqueCount="1242">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2215,10 +2215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(INT&lt;4)|(EVT?[10188,10187,10186,10189])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(MNY&gt;2)&amp;(INT&gt;5)&amp;(EVT?[10101])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2331,14 +2327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(EVT?[10002,10110,10111])|(TLT?[1026])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(EVT?[10001,10110,10111])|(TLT?[1026])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(EVT?[10211,10198,10025,10156,10155])|(TLT?[1027])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2600,10 +2588,6 @@
     <t>EVT?[10313]</t>
   </si>
   <si>
-    <t>EVT?[10228]|(TLT?[1027])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你结婚了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2823,10 +2807,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(EVT?[10251,10250,10245,10246])|(TLT?[1027])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你和大学对象步入了婚姻的殿堂。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4757,15 +4737,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EVT?[10468]</t>
-  </si>
-  <si>
-    <t>EVT?[10469]</t>
-  </si>
-  <si>
-    <t>EVT?[10470]</t>
-  </si>
-  <si>
     <t>奥运会在安徽省会南京成功举办。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4806,6 +4777,30 @@
   </si>
   <si>
     <t>postEvent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10009])&amp;((EVT?[10002,10110,10111])|(TLT?[1026]))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10009])&amp;((EVT?[10001,10110,10111])|(TLT?[1026]))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10009])&amp;(INT&lt;4)&amp;(EVT?[10188,10187,10186,10189])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10009]:10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10251,10236,10229,10250,10245,10246])|(TLT?[1027])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10228,10229]|(TLT?[1027])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5403,68 +5398,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N473"/>
+  <dimension ref="A1:N470"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C457" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K462" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A474" sqref="A474:XFD475"/>
+      <selection pane="bottomRight" activeCell="B476" sqref="B476"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.4140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="17.77734375" style="3" customWidth="1"/>
     <col min="2" max="2" width="76" style="3" customWidth="1"/>
-    <col min="3" max="3" width="54.08203125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="15.9140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="17.4140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.75" style="5" customWidth="1"/>
-    <col min="9" max="10" width="16.9140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="54.109375" style="4" customWidth="1"/>
+    <col min="4" max="5" width="15.88671875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" style="5" customWidth="1"/>
+    <col min="9" max="10" width="16.88671875" style="5" customWidth="1"/>
     <col min="11" max="11" width="83" style="6" customWidth="1"/>
     <col min="12" max="12" width="84.6640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="59.75" style="7" customWidth="1"/>
-    <col min="14" max="14" width="53.08203125" style="8" customWidth="1"/>
-    <col min="15" max="16384" width="25.4140625" style="3"/>
+    <col min="13" max="13" width="59.77734375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="53.109375" style="8" customWidth="1"/>
+    <col min="15" max="16384" width="25.44140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>1243</v>
+        <v>1235</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>940</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>941</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>942</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>943</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>945</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>946</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>947</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>948</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>949</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>950</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>17</v>
@@ -5473,7 +5468,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="56.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5517,7 +5512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>10000</v>
       </c>
@@ -5531,7 +5526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>10001</v>
       </c>
@@ -5542,7 +5537,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>10002</v>
       </c>
@@ -5553,7 +5548,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>10003</v>
       </c>
@@ -5579,7 +5574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>10004</v>
       </c>
@@ -5590,7 +5585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>10005</v>
       </c>
@@ -5610,7 +5605,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>10006</v>
       </c>
@@ -5621,7 +5616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>10007</v>
       </c>
@@ -5638,7 +5633,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10008</v>
       </c>
@@ -5652,7 +5647,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10009</v>
       </c>
@@ -5663,7 +5658,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>10010</v>
       </c>
@@ -5674,7 +5669,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>10011</v>
       </c>
@@ -5688,7 +5683,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10012</v>
       </c>
@@ -5708,7 +5703,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>10013</v>
       </c>
@@ -5722,7 +5717,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>10014</v>
       </c>
@@ -5742,7 +5737,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>10015</v>
       </c>
@@ -5759,7 +5754,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>10016</v>
       </c>
@@ -5785,7 +5780,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>10017</v>
       </c>
@@ -5811,7 +5806,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>10018</v>
       </c>
@@ -5834,7 +5829,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>10019</v>
       </c>
@@ -5851,7 +5846,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>10020</v>
       </c>
@@ -5868,7 +5863,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>10021</v>
       </c>
@@ -5885,7 +5880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>10022</v>
       </c>
@@ -5905,7 +5900,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>10023</v>
       </c>
@@ -5925,7 +5920,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>10024</v>
       </c>
@@ -5948,7 +5943,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>10025</v>
       </c>
@@ -5962,7 +5957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>10026</v>
       </c>
@@ -5976,7 +5971,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>10027</v>
       </c>
@@ -5999,7 +5994,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>10028</v>
       </c>
@@ -6019,7 +6014,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>10029</v>
       </c>
@@ -6033,7 +6028,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>10030</v>
       </c>
@@ -6059,7 +6054,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>10031</v>
       </c>
@@ -6085,7 +6080,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>10032</v>
       </c>
@@ -6102,7 +6097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>10033</v>
       </c>
@@ -6122,7 +6117,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>10034</v>
       </c>
@@ -6136,7 +6131,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>10035</v>
       </c>
@@ -6153,7 +6148,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>10036</v>
       </c>
@@ -6170,7 +6165,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>10037</v>
       </c>
@@ -6187,7 +6182,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>10038</v>
       </c>
@@ -6216,7 +6211,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>10039</v>
       </c>
@@ -6230,7 +6225,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>10040</v>
       </c>
@@ -6247,7 +6242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>10041</v>
       </c>
@@ -6273,7 +6268,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>10042</v>
       </c>
@@ -6296,7 +6291,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>10043</v>
       </c>
@@ -6310,7 +6305,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>10044</v>
       </c>
@@ -6324,7 +6319,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>10045</v>
       </c>
@@ -6347,7 +6342,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="49" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>10046</v>
       </c>
@@ -6358,7 +6353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>10047</v>
       </c>
@@ -6375,7 +6370,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>10048</v>
       </c>
@@ -6386,7 +6381,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>10049</v>
       </c>
@@ -6397,7 +6392,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>10050</v>
       </c>
@@ -6411,7 +6406,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>10051</v>
       </c>
@@ -6425,7 +6420,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>10052</v>
       </c>
@@ -6439,7 +6434,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>10053</v>
       </c>
@@ -6453,7 +6448,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>10054</v>
       </c>
@@ -6473,7 +6468,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>10055</v>
       </c>
@@ -6487,7 +6482,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>10056</v>
       </c>
@@ -6501,7 +6496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>10057</v>
       </c>
@@ -6515,7 +6510,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>10058</v>
       </c>
@@ -6541,7 +6536,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>10059</v>
       </c>
@@ -6561,7 +6556,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>10060</v>
       </c>
@@ -6581,7 +6576,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="64" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>10061</v>
       </c>
@@ -6601,7 +6596,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>10062</v>
       </c>
@@ -6618,7 +6613,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>10063</v>
       </c>
@@ -6635,7 +6630,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>10064</v>
       </c>
@@ -6652,7 +6647,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>10065</v>
       </c>
@@ -6669,7 +6664,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>10066</v>
       </c>
@@ -6686,7 +6681,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>10067</v>
       </c>
@@ -6706,7 +6701,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>10068</v>
       </c>
@@ -6717,7 +6712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>10069</v>
       </c>
@@ -6725,7 +6720,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="73" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>10070</v>
       </c>
@@ -6736,10 +6731,10 @@
         <v>-1</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>10071</v>
       </c>
@@ -6750,7 +6745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>10072</v>
       </c>
@@ -6764,7 +6759,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>10073</v>
       </c>
@@ -6784,7 +6779,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="77" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>10074</v>
       </c>
@@ -6804,7 +6799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>10075</v>
       </c>
@@ -6818,7 +6813,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>10076</v>
       </c>
@@ -6832,7 +6827,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>10077</v>
       </c>
@@ -6846,7 +6841,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="81" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>10078</v>
       </c>
@@ -6860,7 +6855,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>10079</v>
       </c>
@@ -6874,7 +6869,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>10080</v>
       </c>
@@ -6891,7 +6886,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>10081</v>
       </c>
@@ -6911,7 +6906,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>10082</v>
       </c>
@@ -6931,7 +6926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>10083</v>
       </c>
@@ -6951,7 +6946,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>10084</v>
       </c>
@@ -6971,7 +6966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>10085</v>
       </c>
@@ -6985,7 +6980,7 @@
         <v>-2</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L88" s="6" t="s">
         <v>275</v>
@@ -6994,7 +6989,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>10086</v>
       </c>
@@ -7014,7 +7009,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>10087</v>
       </c>
@@ -7031,7 +7026,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>10088</v>
       </c>
@@ -7048,7 +7043,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>10089</v>
       </c>
@@ -7065,7 +7060,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>10090</v>
       </c>
@@ -7094,7 +7089,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>10091</v>
       </c>
@@ -7111,7 +7106,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>10092</v>
       </c>
@@ -7131,7 +7126,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>10093</v>
       </c>
@@ -7145,7 +7140,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>10094</v>
       </c>
@@ -7162,7 +7157,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>10095</v>
       </c>
@@ -7179,7 +7174,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>10096</v>
       </c>
@@ -7196,7 +7191,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>10097</v>
       </c>
@@ -7213,7 +7208,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>10098</v>
       </c>
@@ -7230,7 +7225,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>10099</v>
       </c>
@@ -7247,7 +7242,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>10100</v>
       </c>
@@ -7261,7 +7256,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>10101</v>
       </c>
@@ -7275,7 +7270,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>10102</v>
       </c>
@@ -7289,7 +7284,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>10103</v>
       </c>
@@ -7303,7 +7298,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>10104</v>
       </c>
@@ -7320,7 +7315,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>10105</v>
       </c>
@@ -7337,7 +7332,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>10106</v>
       </c>
@@ -7351,7 +7346,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>10107</v>
       </c>
@@ -7371,7 +7366,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>10108</v>
       </c>
@@ -7385,7 +7380,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>10109</v>
       </c>
@@ -7402,7 +7397,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>10110</v>
       </c>
@@ -7413,7 +7408,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>10111</v>
       </c>
@@ -7424,7 +7419,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>10112</v>
       </c>
@@ -7444,7 +7439,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>10113</v>
       </c>
@@ -7464,7 +7459,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>10114</v>
       </c>
@@ -7484,7 +7479,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>10115</v>
       </c>
@@ -7501,12 +7496,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>10116</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="H119" s="5">
         <v>1</v>
@@ -7518,7 +7513,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>10117</v>
       </c>
@@ -7535,7 +7530,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>10118</v>
       </c>
@@ -7549,7 +7544,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>10119</v>
       </c>
@@ -7563,7 +7558,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>10120</v>
       </c>
@@ -7577,7 +7572,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>10121</v>
       </c>
@@ -7591,7 +7586,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>10122</v>
       </c>
@@ -7605,7 +7600,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>10123</v>
       </c>
@@ -7622,7 +7617,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>10124</v>
       </c>
@@ -7639,7 +7634,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>10125</v>
       </c>
@@ -7659,7 +7654,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>10126</v>
       </c>
@@ -7679,7 +7674,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>10127</v>
       </c>
@@ -7696,7 +7691,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>10128</v>
       </c>
@@ -7713,7 +7708,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>10129</v>
       </c>
@@ -7730,7 +7725,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>10130</v>
       </c>
@@ -7750,7 +7745,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>10131</v>
       </c>
@@ -7767,7 +7762,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>10132</v>
       </c>
@@ -7781,7 +7776,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>10133</v>
       </c>
@@ -7795,7 +7790,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>10134</v>
       </c>
@@ -7809,7 +7804,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>10135</v>
       </c>
@@ -7823,7 +7818,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>10136</v>
       </c>
@@ -7840,7 +7835,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>10137</v>
       </c>
@@ -7857,7 +7852,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>10138</v>
       </c>
@@ -7874,7 +7869,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>10139</v>
       </c>
@@ -7891,7 +7886,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>10140</v>
       </c>
@@ -7908,7 +7903,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>10141</v>
       </c>
@@ -7925,7 +7920,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>10142</v>
       </c>
@@ -7939,7 +7934,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>10143</v>
       </c>
@@ -7953,7 +7948,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>10144</v>
       </c>
@@ -7970,7 +7965,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>10145</v>
       </c>
@@ -7984,7 +7979,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>10146</v>
       </c>
@@ -7998,7 +7993,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="150" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>10147</v>
       </c>
@@ -8012,7 +8007,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>10148</v>
       </c>
@@ -8026,7 +8021,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>10149</v>
       </c>
@@ -8043,7 +8038,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>10150</v>
       </c>
@@ -8057,7 +8052,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>10151</v>
       </c>
@@ -8071,7 +8066,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>10152</v>
       </c>
@@ -8088,7 +8083,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>10153</v>
       </c>
@@ -8114,7 +8109,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>10154</v>
       </c>
@@ -8134,7 +8129,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>10155</v>
       </c>
@@ -8148,7 +8143,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="159" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>10156</v>
       </c>
@@ -8162,7 +8157,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>10157</v>
       </c>
@@ -8176,7 +8171,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>10158</v>
       </c>
@@ -8196,7 +8191,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>10159</v>
       </c>
@@ -8216,7 +8211,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>10160</v>
       </c>
@@ -8230,7 +8225,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>10161</v>
       </c>
@@ -8244,7 +8239,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>10162</v>
       </c>
@@ -8258,7 +8253,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>10163</v>
       </c>
@@ -8272,7 +8267,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>10164</v>
       </c>
@@ -8286,7 +8281,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>10165</v>
       </c>
@@ -8300,7 +8295,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>10166</v>
       </c>
@@ -8314,7 +8309,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>10167</v>
       </c>
@@ -8334,7 +8329,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>10168</v>
       </c>
@@ -8348,7 +8343,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>10169</v>
       </c>
@@ -8362,7 +8357,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>10170</v>
       </c>
@@ -8379,7 +8374,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>10171</v>
       </c>
@@ -8393,7 +8388,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>10172</v>
       </c>
@@ -8407,7 +8402,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>10173</v>
       </c>
@@ -8424,7 +8419,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>10174</v>
       </c>
@@ -8441,7 +8436,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>10175</v>
       </c>
@@ -8458,7 +8453,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>10176</v>
       </c>
@@ -8472,7 +8467,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>10177</v>
       </c>
@@ -8486,7 +8481,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>10178</v>
       </c>
@@ -8500,7 +8495,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>10179</v>
       </c>
@@ -8514,7 +8509,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>10180</v>
       </c>
@@ -8528,7 +8523,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>10181</v>
       </c>
@@ -8542,7 +8537,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>10182</v>
       </c>
@@ -8556,7 +8551,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>10183</v>
       </c>
@@ -8573,7 +8568,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>10184</v>
       </c>
@@ -8587,7 +8582,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>10185</v>
       </c>
@@ -8601,7 +8596,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>10186</v>
       </c>
@@ -8615,7 +8610,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>10187</v>
       </c>
@@ -8632,7 +8627,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>10188</v>
       </c>
@@ -8649,7 +8644,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>10189</v>
       </c>
@@ -8666,7 +8661,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="193" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>10190</v>
       </c>
@@ -8686,7 +8681,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="194" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>10191</v>
       </c>
@@ -8703,7 +8698,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="195" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>10192</v>
       </c>
@@ -8732,7 +8727,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="196" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>10193</v>
       </c>
@@ -8752,7 +8747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>10194</v>
       </c>
@@ -8766,7 +8761,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>10195</v>
       </c>
@@ -8783,7 +8778,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="199" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>10196</v>
       </c>
@@ -8800,7 +8795,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="200" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>10197</v>
       </c>
@@ -8817,7 +8812,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="201" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>10198</v>
       </c>
@@ -8825,13 +8820,13 @@
         <v>549</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>552</v>
+        <v>1238</v>
       </c>
       <c r="L201" s="6" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>10199</v>
       </c>
@@ -8842,10 +8837,10 @@
         <v>282</v>
       </c>
       <c r="L202" s="6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>10200</v>
       </c>
@@ -8853,66 +8848,66 @@
         <v>551</v>
       </c>
       <c r="K203" s="6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="L203" s="6" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>10201</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="K204" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="K204" s="6" t="s">
+      <c r="L204" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="L204" s="6" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>10202</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="K205" s="6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L205" s="6" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="206" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>10203</v>
       </c>
       <c r="B206" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="K206" s="6" t="s">
         <v>561</v>
       </c>
-      <c r="C206" s="4" t="s">
-        <v>565</v>
-      </c>
-      <c r="K206" s="6" t="s">
+      <c r="L206" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="N206" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="L206" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="N206" s="8" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>10204</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H207" s="5">
         <v>1</v>
@@ -8921,69 +8916,69 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>10205</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F208" s="5">
         <v>1</v>
       </c>
       <c r="K208" s="6" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L208" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="N208" s="8" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>10206</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K209" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="L209" s="6" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="210" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>10207</v>
       </c>
       <c r="B210" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C210" s="4" t="s">
         <v>570</v>
       </c>
-      <c r="C210" s="4" t="s">
+      <c r="G210" s="5">
+        <v>1</v>
+      </c>
+      <c r="H210" s="5">
+        <v>1</v>
+      </c>
+      <c r="K210" s="6" t="s">
         <v>571</v>
       </c>
-      <c r="G210" s="5">
-        <v>1</v>
-      </c>
-      <c r="H210" s="5">
-        <v>1</v>
-      </c>
-      <c r="K210" s="6" t="s">
-        <v>572</v>
-      </c>
       <c r="N210" s="8" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="211" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>10208</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H211" s="5">
         <v>1</v>
@@ -8992,15 +8987,15 @@
         <v>1</v>
       </c>
       <c r="N211" s="8" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>10209</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H212" s="5">
         <v>1</v>
@@ -9009,7 +9004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>10210</v>
       </c>
@@ -9017,55 +9012,55 @@
         <v>544</v>
       </c>
       <c r="C213" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="K213" s="6" t="s">
         <v>577</v>
-      </c>
-      <c r="K213" s="6" t="s">
-        <v>578</v>
       </c>
       <c r="L213" s="6" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="214" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>10211</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H214" s="5">
         <v>1</v>
       </c>
       <c r="K214" s="6" t="s">
-        <v>581</v>
+        <v>1236</v>
       </c>
       <c r="L214" s="6" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>10212</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H215" s="5">
         <v>1</v>
       </c>
       <c r="K215" s="6" t="s">
-        <v>582</v>
+        <v>1237</v>
       </c>
       <c r="L215" s="6" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="216" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>10213</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="K216" s="6" t="s">
         <v>282</v>
@@ -9074,12 +9069,12 @@
         <v>485</v>
       </c>
     </row>
-    <row r="217" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>10214</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="K217" s="6" t="s">
         <v>36</v>
@@ -9088,40 +9083,40 @@
         <v>486</v>
       </c>
     </row>
-    <row r="218" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>10215</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="K218" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L218" s="6" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="219" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>10216</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="K219" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L219" s="6" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="220" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>10217</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F220" s="5">
         <v>-2</v>
@@ -9133,21 +9128,21 @@
         <v>1</v>
       </c>
       <c r="K220" s="6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L220" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="N220" s="8" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>10218</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="G221" s="5">
         <v>-2</v>
@@ -9156,35 +9151,35 @@
         <v>-1</v>
       </c>
       <c r="K221" s="6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="L221" s="6" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>10219</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="H222" s="5">
         <v>1</v>
       </c>
       <c r="K222" s="6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="223" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>10220</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F223" s="5">
         <v>-1</v>
@@ -9196,24 +9191,24 @@
         <v>-1</v>
       </c>
       <c r="K223" s="6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="L223" s="6" t="s">
         <v>487</v>
       </c>
       <c r="M223" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="N223" s="8" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="224" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>10221</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F224" s="5">
         <v>-1</v>
@@ -9222,41 +9217,41 @@
         <v>-1</v>
       </c>
       <c r="K224" s="6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="M224" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="N224" s="8" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>10222</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="H225" s="5">
         <v>-1</v>
       </c>
       <c r="K225" s="6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="L225" s="6" t="s">
         <v>488</v>
       </c>
       <c r="N225" s="8" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="226" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>10223</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="G226" s="5">
         <v>-2</v>
@@ -9265,69 +9260,69 @@
         <v>-2</v>
       </c>
       <c r="K226" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="L226" s="6" t="s">
         <v>489</v>
       </c>
       <c r="M226" s="7" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="N226" s="8" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>10224</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="K227" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="L227" s="6" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="228" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>10225</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="K228" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="L228" s="6" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="229" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>10226</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="K229" s="6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="L229" s="6" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="230" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>10227</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="K230" s="6" t="s">
         <v>282</v>
@@ -9336,340 +9331,340 @@
         <v>493</v>
       </c>
     </row>
-    <row r="231" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>10228</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K231" s="6" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="L231" s="6" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="232" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>10229</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="H232" s="5">
         <v>1</v>
       </c>
       <c r="K232" s="6" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="L232" s="6" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="233" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>10230</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="H233" s="5">
         <v>-2</v>
       </c>
       <c r="K233" s="6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="L233" s="6" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="M233" s="7" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="N233" s="8" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="234" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>10231</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="H234" s="5">
         <v>2</v>
       </c>
       <c r="K234" s="21" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L234" s="6" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="235" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>10232</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="J235" s="5">
         <v>1</v>
       </c>
       <c r="M235" s="7" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="236" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>10233</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="H236" s="5">
         <v>2</v>
       </c>
       <c r="K236" s="21" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="L236" s="6" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="237" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>10234</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="H237" s="5">
         <v>1</v>
       </c>
       <c r="K237" s="6" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="L237" s="6" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="238" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>10235</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="H238" s="5">
         <v>1</v>
       </c>
       <c r="K238" s="6" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="L238" s="6" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="239" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>10236</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="K239" s="6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="L239" s="21" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="240" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>10237</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="K240" s="6" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="L240" s="6" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="241" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>10238</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="K241" s="6" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="L241" s="6" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="242" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>10239</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="H242" s="5">
         <v>1</v>
       </c>
       <c r="K242" s="6" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="L242" s="6" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="243" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>10240</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="K243" s="6" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="L243" s="6" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="244" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>10241</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="K244" s="6" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="L244" s="6" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="245" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>10242</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="K245" s="6" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="L245" s="6" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="246" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>10243</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="K246" s="6" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="L246" s="6" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="247" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>10244</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="K247" s="6" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="L247" s="6" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="248" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>10245</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H248" s="5">
         <v>1</v>
       </c>
       <c r="K248" s="21" t="s">
+        <v>693</v>
+      </c>
+      <c r="L248" s="6" t="s">
         <v>697</v>
       </c>
-      <c r="L248" s="6" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="249" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>10246</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H249" s="5">
         <v>1</v>
       </c>
       <c r="K249" s="21" t="s">
+        <v>694</v>
+      </c>
+      <c r="L249" s="6" t="s">
         <v>698</v>
       </c>
-      <c r="L249" s="6" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="250" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>10247</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="H250" s="5">
         <v>-2</v>
       </c>
       <c r="K250" s="6" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="L250" s="6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="M250" s="7" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="251" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>10248</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="H251" s="5">
         <v>1</v>
@@ -9678,72 +9673,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>10249</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="H252" s="5">
         <v>-2</v>
       </c>
       <c r="K252" s="6" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="L252" s="6" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="M252" s="7" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="253" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>10250</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="H253" s="5">
         <v>1</v>
       </c>
       <c r="K253" s="6" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="L253" s="6" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="254" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>10251</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="K254" s="6" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="L254" s="6" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="255" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="255" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>10252</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="H255" s="5">
         <v>-1</v>
       </c>
       <c r="K255" s="6" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="256" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="256" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>10253</v>
       </c>
@@ -9751,187 +9746,187 @@
         <v>42</v>
       </c>
       <c r="C256" s="4" t="s">
+        <v>714</v>
+      </c>
+      <c r="K256" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="L256" s="22" t="s">
         <v>719</v>
       </c>
-      <c r="K256" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="L256" s="22" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="257" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>10254</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="K257" s="6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="L257" s="6" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="258" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="258" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>10255</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="K258" s="6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="L258" s="6" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="259" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="259" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>10256</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="K259" s="6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="L259" s="6" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="260" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="260" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>10257</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="K260" s="6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="L260" s="6" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="261" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="261" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>10258</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="K261" s="6" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="L261" s="6" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="262" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="262" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>10259</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="K262" s="6" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="L262" s="6" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="263" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="263" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>10260</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="K263" s="6" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="264" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="264" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>10261</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="H264" s="5">
         <v>1</v>
       </c>
       <c r="K264" s="6" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="L264" s="6" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="265" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="265" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>10262</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="H265" s="5">
         <v>1</v>
       </c>
       <c r="K265" s="6" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="L265" s="6" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="266" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="266" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>10263</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="K266" s="6" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="L266" s="6" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="267" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="267" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>10264</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="G267" s="5">
         <v>1</v>
       </c>
       <c r="K267" s="6" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="L267" s="6" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="M267" s="7" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="268" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="268" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>10265</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="G268" s="5">
         <v>2</v>
@@ -9940,221 +9935,221 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>10266</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="K269" s="6" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="L269" s="6" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="270" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="270" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>10267</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="K270" s="6" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="L270" s="6" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="M270" s="7" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="271" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="271" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>10268</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="H271" s="5">
         <v>1</v>
       </c>
       <c r="K271" s="23" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="L271" s="6" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="272" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="272" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>10269</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="H272" s="5">
         <v>1</v>
       </c>
       <c r="K272" s="23" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="L272" s="6" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="273" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>10270</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="K273" s="24" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="L273" s="6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>10271</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="K274" s="24" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="L274" s="6" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="275" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>10272</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="H275" s="5">
         <v>1</v>
       </c>
       <c r="K275" s="24" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="L275" s="6" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>10273</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="K276" s="23" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="L276" s="6" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>10274</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="K277" s="23" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="278" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>10275</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="H278" s="5">
         <v>-1</v>
       </c>
       <c r="K278" s="23" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="L278" s="6" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="279" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>10276</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="K279" s="25" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="L279" s="6" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="280" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>10277</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="C280" s="4" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="F280" s="5">
         <v>-1</v>
       </c>
       <c r="K280" s="25" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="L280" s="6" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="281" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>10278</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D281" s="5">
         <v>-1</v>
       </c>
       <c r="K281" s="25" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="282" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>10279</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="G282" s="5">
         <v>-1</v>
@@ -10163,210 +10158,213 @@
         <v>-1</v>
       </c>
       <c r="K282" s="23" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="L282" s="6" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>10280</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="H283" s="5">
         <v>-1</v>
       </c>
       <c r="K283" s="6" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="L283" s="6" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>10281</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H284" s="5">
         <v>-1</v>
       </c>
       <c r="K284" s="6" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="L284" s="6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="285" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>10282</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="H285" s="5">
         <v>-2</v>
       </c>
       <c r="K285" s="23" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="L285" s="6" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="286" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>10283</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="H286" s="5">
         <v>-1</v>
       </c>
       <c r="K286" s="6" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="287" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>10284</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="H287" s="5">
         <v>1</v>
       </c>
       <c r="K287" s="6" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="288" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>10285</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="H288" s="5">
         <v>1</v>
       </c>
       <c r="K288" s="6" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="L288" s="6" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="289" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>10286</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="H289" s="5">
         <v>1</v>
       </c>
       <c r="K289" s="6" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="L289" s="6" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="290" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>10287</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="H290" s="5">
         <v>1</v>
       </c>
       <c r="K290" s="6" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="L290" s="6" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="291" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>10288</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="H291" s="5">
         <v>1</v>
       </c>
       <c r="K291" s="6" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="292" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>10289</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="K292" s="6" t="s">
         <v>36</v>
       </c>
       <c r="L292" s="6" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="M292" s="7" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="293" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>10290</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="K293" s="6" t="s">
         <v>413</v>
       </c>
       <c r="L293" s="6" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="M293" s="7" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="294" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>10291</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="K294" s="6" t="s">
         <v>413</v>
       </c>
       <c r="L294" s="6" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="295" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+      <c r="M294" s="7" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>10292</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F295" s="5">
         <v>-1</v>
@@ -10375,354 +10373,354 @@
         <v>413</v>
       </c>
       <c r="L295" s="6" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="296" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>10293</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="H296" s="5">
         <v>1</v>
       </c>
       <c r="K296" s="6" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="L296" s="6" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="297" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>10294</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="H297" s="5">
         <v>1</v>
       </c>
       <c r="K297" s="6" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="L297" s="6" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="M297" s="7" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="298" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>10295</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="C298" s="4" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="K298" s="23" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="L298" s="6" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="299" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>10296</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="G299" s="5">
         <v>1</v>
       </c>
       <c r="K299" s="6" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="L299" s="6" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="300" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>10297</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="H300" s="5">
         <v>1</v>
       </c>
       <c r="K300" s="6" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
       <c r="L300" s="6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="301" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>10298</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="H301" s="5">
         <v>1</v>
       </c>
       <c r="K301" s="6" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="L301" s="6" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="302" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>10299</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="H302" s="5">
         <v>1</v>
       </c>
       <c r="K302" s="6" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="L302" s="6" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="303" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>10300</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="H303" s="5">
         <v>1</v>
       </c>
       <c r="K303" s="6" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="L303" s="6" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="304" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>10301</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="H304" s="5">
         <v>1</v>
       </c>
       <c r="K304" s="6" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="L304" s="6" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="305" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="305" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>10302</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="H305" s="5">
         <v>1</v>
       </c>
       <c r="K305" s="6" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="L305" s="6" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="306" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>10303</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="H306" s="5">
         <v>1</v>
       </c>
       <c r="K306" s="6" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="L306" s="6" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="307" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="307" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>10304</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="H307" s="5">
         <v>1</v>
       </c>
       <c r="K307" s="6" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="L307" s="6" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="308" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="308" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>10305</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="H308" s="5">
         <v>1</v>
       </c>
       <c r="K308" s="6" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="L308" s="6" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="309" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="309" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>10306</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="H309" s="5">
         <v>1</v>
       </c>
       <c r="K309" s="6" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
       <c r="L309" s="6" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="310" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>10307</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="K310" s="25" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="L310" s="6" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="311" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>10308</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="K311" s="6" t="s">
         <v>411</v>
       </c>
       <c r="L311" s="6" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="312" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="312" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>10309</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
       <c r="K312" s="6" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="L312" s="6" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="313" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="313" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>10310</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="K313" s="6" t="s">
         <v>411</v>
       </c>
       <c r="L313" s="6" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="314" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>10311</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="K314" s="6" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="L314" s="6" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="315" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="315" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>10312</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="K315" s="6" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="L315" s="6" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="316" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>10313</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="K316" s="6" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="L316" s="6" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="317" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>10314</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="E317" s="5">
         <v>-3</v>
@@ -10731,142 +10729,142 @@
         <v>1</v>
       </c>
       <c r="K317" s="6" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="L317" s="6" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="318" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="318" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>10315</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="K318" s="6" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="L318" s="6" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="319" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>10316</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="K319" s="6" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="L319" s="6" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="320" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>10317</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="K320" s="23" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="L320" s="6" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="321" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="321" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>10318</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="K321" s="6" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="L321" s="6" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="322" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="322" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>10319</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="K322" s="6" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="L322" s="6" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="323" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="323" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>10320</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="K323" s="6" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="L323" s="6" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="324" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="324" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>10321</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="K324" s="6" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="L324" s="6" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="325" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>10322</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="H325" s="5">
         <v>-2</v>
       </c>
       <c r="K325" s="6" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="L325" s="6" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="M325" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>10323</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="D326" s="5">
         <v>3</v>
@@ -10881,174 +10879,174 @@
         <v>2</v>
       </c>
       <c r="K326" s="6" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="L326" s="6" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>10324</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="F327" s="5">
         <v>1</v>
       </c>
       <c r="K327" s="6" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="328" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="328" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>10325</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="F328" s="5">
         <v>1</v>
       </c>
       <c r="K328" s="6" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="L328" s="6" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>10326</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="F329" s="5">
         <v>1</v>
       </c>
       <c r="K329" s="6" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="L329" s="6" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="330" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>10327</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="F330" s="5">
         <v>1</v>
       </c>
       <c r="K330" s="6" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="L330" s="6" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="331" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="331" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>10328</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="F331" s="5">
         <v>1</v>
       </c>
       <c r="K331" s="6" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="L331" s="6" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="332" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="332" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>10329</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="F332" s="5">
         <v>1</v>
       </c>
       <c r="K332" s="6" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="L332" s="6" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="333" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="333" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>10330</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="F333" s="5">
         <v>1</v>
       </c>
       <c r="K333" s="6" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="L333" s="6" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="334" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="334" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>10331</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="F334" s="5">
         <v>1</v>
       </c>
       <c r="K334" s="6" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="L334" s="6" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="335" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="335" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>10332</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="F335" s="5">
         <v>1</v>
       </c>
       <c r="K335" s="6" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="L335" s="6" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="336" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="336" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>10333</v>
       </c>
       <c r="B336" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="C336" s="4" t="s">
         <v>903</v>
-      </c>
-      <c r="C336" s="4" t="s">
-        <v>908</v>
       </c>
       <c r="E336" s="5">
         <v>1</v>
@@ -11057,202 +11055,202 @@
         <v>10</v>
       </c>
       <c r="K336" s="6" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="L336" s="6" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="337" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="337" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>10334</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="F337" s="5">
         <v>10</v>
       </c>
       <c r="K337" s="6" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="338" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="338" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>10335</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="F338" s="5">
         <v>20</v>
       </c>
       <c r="K338" s="6" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>10336</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="F339" s="5">
         <v>2</v>
       </c>
       <c r="K339" s="6" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="340" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="340" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>10337</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="F340" s="5">
         <v>2</v>
       </c>
       <c r="K340" s="6" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="L340" s="6" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="341" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="341" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>10338</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="F341" s="5">
         <v>2</v>
       </c>
       <c r="K341" s="6" t="s">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="L341" s="6" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="342" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="342" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>10339</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="F342" s="5">
         <v>2</v>
       </c>
       <c r="K342" s="6" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="L342" s="6" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="343" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="343" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>10340</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="F343" s="5">
         <v>2</v>
       </c>
       <c r="K343" s="6" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="L343" s="6" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="344" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="344" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>10341</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="F344" s="5">
         <v>2</v>
       </c>
       <c r="K344" s="6" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="L344" s="6" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="345" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="345" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>10342</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="F345" s="5">
         <v>2</v>
       </c>
       <c r="K345" s="6" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="L345" s="6" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="346" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="346" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>10343</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="F346" s="5">
         <v>2</v>
       </c>
       <c r="K346" s="6" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="L346" s="6" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="347" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="347" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>10344</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="F347" s="5">
         <v>2</v>
       </c>
       <c r="K347" s="6" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="L347" s="6" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="348" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="348" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>10345</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="E348" s="5">
         <v>2</v>
@@ -11261,52 +11259,52 @@
         <v>20</v>
       </c>
       <c r="K348" s="6" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="L348" s="6" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="349" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="349" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>10346</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="K349" s="6" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="L349" s="6" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="M349" s="7" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="350" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="350" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>10347</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="K350" s="6" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="L350" s="6" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="M350" s="7" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="351" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="351" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>10348</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="E351" s="5">
         <v>1</v>
@@ -11315,69 +11313,69 @@
         <v>3</v>
       </c>
       <c r="K351" s="6" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="L351" s="6" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="352" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="352" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>10349</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="F352" s="5">
         <v>100</v>
       </c>
       <c r="K352" s="6" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="L352" s="6" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="353" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>10350</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="F353" s="5">
         <v>50</v>
       </c>
       <c r="K353" s="6" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="354" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>10351</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="F354" s="5">
         <v>5</v>
       </c>
       <c r="K354" s="6" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="355" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>10352</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="E355" s="5">
         <v>1</v>
@@ -11386,18 +11384,18 @@
         <v>3</v>
       </c>
       <c r="K355" s="6" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="L355" s="6" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="356" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>10353</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="E356" s="5">
         <v>1</v>
@@ -11406,18 +11404,18 @@
         <v>3</v>
       </c>
       <c r="K356" s="6" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="L356" s="6" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="357" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
         <v>10354</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="E357" s="5">
         <v>1</v>
@@ -11426,18 +11424,18 @@
         <v>3</v>
       </c>
       <c r="K357" s="6" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="L357" s="6" t="s">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="358" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>10355</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="E358" s="5">
         <v>1</v>
@@ -11446,18 +11444,18 @@
         <v>3</v>
       </c>
       <c r="K358" s="6" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="L358" s="6" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="359" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>10356</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="E359" s="5">
         <v>1</v>
@@ -11466,18 +11464,18 @@
         <v>3</v>
       </c>
       <c r="K359" s="6" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="L359" s="6" t="s">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="360" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>10357</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="E360" s="5">
         <v>1</v>
@@ -11486,18 +11484,18 @@
         <v>3</v>
       </c>
       <c r="K360" s="6" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="L360" s="6" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="361" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>10358</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="E361" s="5">
         <v>1</v>
@@ -11506,41 +11504,41 @@
         <v>3</v>
       </c>
       <c r="K361" s="6" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="L361" s="6" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="M361" s="7" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="N361" s="8" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="362" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>10359</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="K362" s="6" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="L362" s="6" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="363" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>10360</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="E363" s="5">
         <v>50</v>
@@ -11555,15 +11553,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>10361</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="E364" s="5">
         <v>50</v>
@@ -11575,21 +11573,21 @@
         <v>1</v>
       </c>
       <c r="K364" s="6" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="L364" s="6" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="365" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>10362</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="E365" s="5">
         <v>1</v>
@@ -11598,21 +11596,21 @@
         <v>3</v>
       </c>
       <c r="K365" s="6" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="L365" s="6" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="366" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>10363</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="E366" s="5">
         <v>10</v>
@@ -11621,52 +11619,52 @@
         <v>100</v>
       </c>
       <c r="K366" s="6" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="L366" s="6" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="367" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>10364</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="F367" s="5">
         <v>10</v>
       </c>
       <c r="K367" s="6" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="368" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>10365</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="E368" s="5">
         <v>30</v>
       </c>
       <c r="K368" s="6" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="L368" s="6" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="369" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="369" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
         <v>10366</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="E369" s="5">
         <v>10</v>
@@ -11675,185 +11673,185 @@
         <v>100</v>
       </c>
       <c r="K369" s="6" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="370" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="370" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>10367</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="E370" s="5">
         <v>2</v>
       </c>
       <c r="K370" s="6" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="L370" s="6" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="371" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="371" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>10368</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="K371" s="6" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="L371" s="6" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="M371" s="7" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="372" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>10369</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="E372" s="5">
         <v>2</v>
       </c>
       <c r="K372" s="6" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="L372" s="6" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="373" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="373" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>10370</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="E373" s="5">
         <v>2</v>
       </c>
       <c r="K373" s="6" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="L373" s="6" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="374" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
         <v>10371</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="E374" s="5">
         <v>2</v>
       </c>
       <c r="K374" s="6" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="L374" s="6" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="375" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="375" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>10372</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="E375" s="5">
         <v>2</v>
       </c>
       <c r="K375" s="6" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="L375" s="6" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="376" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
         <v>10373</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="E376" s="5">
         <v>2</v>
       </c>
       <c r="K376" s="6" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="L376" s="6" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="377" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="377" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
         <v>10374</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="E377" s="5">
         <v>2</v>
       </c>
       <c r="K377" s="6" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="L377" s="6" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="378" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="378" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
         <v>10375</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="E378" s="5">
         <v>2</v>
       </c>
       <c r="K378" s="6" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="L378" s="6" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="379" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
         <v>10376</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="E379" s="5">
         <v>2</v>
       </c>
       <c r="K379" s="6" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="L379" s="6" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="380" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="380" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
         <v>10377</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="E380" s="5">
         <v>10</v>
@@ -11862,18 +11860,18 @@
         <v>10</v>
       </c>
       <c r="K380" s="6" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="L380" s="6" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="381" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="381" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>10378</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="E381" s="5">
         <v>1</v>
@@ -11882,35 +11880,35 @@
         <v>10</v>
       </c>
       <c r="K381" s="6" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="L381" s="6" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="382" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="382" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>10379</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="K382" s="6" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="L382" s="6" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="M382" s="7" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="383" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="383" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>10380</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="E383" s="5">
         <v>20</v>
@@ -11919,18 +11917,18 @@
         <v>20</v>
       </c>
       <c r="K383" s="6" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="L383" s="6" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="384" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="384" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>10381</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="E384" s="5">
         <v>20</v>
@@ -11939,18 +11937,18 @@
         <v>20</v>
       </c>
       <c r="K384" s="6" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="L384" s="6" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="385" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>10382</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="E385" s="5">
         <v>20</v>
@@ -11959,18 +11957,18 @@
         <v>20</v>
       </c>
       <c r="K385" s="6" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="L385" s="6" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="386" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>10383</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="E386" s="5">
         <v>20</v>
@@ -11979,18 +11977,18 @@
         <v>20</v>
       </c>
       <c r="K386" s="6" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="L386" s="6" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="387" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>10384</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="E387" s="5">
         <v>20</v>
@@ -11999,32 +11997,32 @@
         <v>20</v>
       </c>
       <c r="K387" s="6" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="L387" s="6" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="388" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>10385</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="E388" s="5">
         <v>20</v>
       </c>
       <c r="K388" s="6" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="389" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>10386</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="E389" s="5">
         <v>50</v>
@@ -12033,18 +12031,18 @@
         <v>50</v>
       </c>
       <c r="K389" s="6" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="L389" s="6" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="390" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>10387</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="E390" s="5">
         <v>50</v>
@@ -12053,18 +12051,18 @@
         <v>50</v>
       </c>
       <c r="K390" s="6" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="L390" s="6" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="391" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
         <v>10388</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="E391" s="5">
         <v>50</v>
@@ -12073,18 +12071,18 @@
         <v>50</v>
       </c>
       <c r="K391" s="6" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="L391" s="6" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="392" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>10389</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="E392" s="5">
         <v>50</v>
@@ -12093,18 +12091,18 @@
         <v>50</v>
       </c>
       <c r="K392" s="6" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="L392" s="6" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="393" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
         <v>10390</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
       <c r="E393" s="5">
         <v>50</v>
@@ -12113,375 +12111,375 @@
         <v>50</v>
       </c>
       <c r="K393" s="6" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="L393" s="6" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="394" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
         <v>10391</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="K394" s="6" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="L394" s="6" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="M394" s="7" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="395" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
         <v>10392</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="J395" s="5">
         <v>1</v>
       </c>
       <c r="L395" s="6" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="M395" s="7" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="N395" s="8" t="s">
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="396" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>10393</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="J396" s="5">
         <v>1</v>
       </c>
       <c r="L396" s="6" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="M396" s="7" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="N396" s="8" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="397" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
         <v>10394</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="J397" s="5">
         <v>1</v>
       </c>
       <c r="L397" s="6" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="M397" s="7" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="N397" s="8" t="s">
-        <v>1137</v>
-      </c>
-    </row>
-    <row r="398" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
         <v>10395</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="J398" s="5">
         <v>1</v>
       </c>
       <c r="L398" s="6" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="M398" s="7" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="N398" s="8" t="s">
-        <v>1138</v>
-      </c>
-    </row>
-    <row r="399" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
         <v>10396</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="J399" s="5">
         <v>1</v>
       </c>
       <c r="L399" s="6" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="M399" s="7" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="N399" s="8" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="400" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>10397</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="J400" s="5">
         <v>1</v>
       </c>
       <c r="L400" s="6" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="M400" s="7" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="N400" s="8" t="s">
-        <v>1140</v>
-      </c>
-    </row>
-    <row r="401" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="401" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>10398</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="J401" s="5">
         <v>1</v>
       </c>
       <c r="L401" s="6" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="M401" s="7" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="N401" s="8" t="s">
-        <v>1141</v>
-      </c>
-    </row>
-    <row r="402" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="402" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
         <v>10399</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="J402" s="5">
         <v>1</v>
       </c>
       <c r="L402" s="6" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="M402" s="7" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="N402" s="8" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="403" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="403" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
         <v>10400</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="J403" s="5">
         <v>1</v>
       </c>
       <c r="L403" s="6" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="M403" s="7" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="N403" s="8" t="s">
-        <v>1143</v>
-      </c>
-    </row>
-    <row r="404" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="404" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>10401</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="J404" s="5">
         <v>1</v>
       </c>
       <c r="L404" s="6" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="M404" s="7" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="405" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="405" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
         <v>10402</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="J405" s="5">
         <v>1</v>
       </c>
       <c r="L405" s="6" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="M405" s="7" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="N405" s="8" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="406" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="406" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>10403</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="J406" s="5">
         <v>1</v>
       </c>
       <c r="L406" s="6" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="M406" s="7" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="N406" s="8" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="407" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="407" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
         <v>10404</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="J407" s="5">
         <v>1</v>
       </c>
       <c r="L407" s="6" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="M407" s="7" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="N407" s="8" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="408" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>10405</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="J408" s="5">
         <v>1</v>
       </c>
       <c r="L408" s="6" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="M408" s="7" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="N408" s="8" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="409" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>10406</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="J409" s="5">
         <v>1</v>
       </c>
       <c r="L409" s="6" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="M409" s="7" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="N409" s="8" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="410" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>10407</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="J410" s="5">
         <v>1</v>
       </c>
       <c r="L410" s="6" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="M410" s="26" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="N410" s="8" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="411" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
         <v>10408</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="J411" s="5">
         <v>1</v>
       </c>
       <c r="L411" s="6" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="M411" s="7" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="N411" s="8" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="412" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
         <v>10409</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="I412" s="5">
         <v>-1</v>
@@ -12490,861 +12488,828 @@
         <v>1</v>
       </c>
       <c r="L412" s="6" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="413" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
         <v>10410</v>
       </c>
       <c r="B413" s="3" t="s">
+        <v>1159</v>
+      </c>
+      <c r="K413" s="6" t="s">
         <v>1164</v>
       </c>
-      <c r="K413" s="6" t="s">
-        <v>1169</v>
-      </c>
       <c r="L413" s="6" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="414" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
         <v>10411</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="K414" s="6" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="L414" s="6" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="415" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
         <v>10412</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="K415" s="6" t="s">
         <v>444</v>
       </c>
       <c r="L415" s="6" t="s">
-        <v>1171</v>
-      </c>
-    </row>
-    <row r="416" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
         <v>10413</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="K416" s="6" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="L416" s="6" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="417" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
         <v>10414</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="K417" s="6" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="L417" s="6" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="418" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="3">
         <v>10415</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="K418" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L418" s="6" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="419" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="3">
         <v>10416</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="K419" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L419" s="6" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="420" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="3">
         <v>10417</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="K420" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L420" s="6" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="421" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="3">
         <v>10418</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="K421" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L421" s="6" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="422" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="3">
         <v>10419</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="K422" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L422" s="6" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="423" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="3">
         <v>10420</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="K423" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L423" s="6" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="424" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="3">
         <v>10421</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="K424" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L424" s="6" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="425" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="3">
         <v>10422</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
       <c r="K425" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L425" s="6" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="426" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
         <v>10423</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="K426" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L426" s="6" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="427" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="3">
         <v>10424</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="K427" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L427" s="6" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="428" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
         <v>10425</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="K428" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L428" s="6" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="429" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="3">
         <v>10426</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="K429" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L429" s="6" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="430" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="3">
         <v>10427</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="K430" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L430" s="6" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="431" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="3">
         <v>10428</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="K431" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L431" s="6" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="432" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
         <v>10429</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="K432" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L432" s="6" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="433" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="3">
         <v>10430</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="K433" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L433" s="6" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="434" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
         <v>10431</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="K434" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L434" s="6" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="435" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="3">
         <v>10432</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
       <c r="K435" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L435" s="6" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="436" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="3">
         <v>10433</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="K436" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L436" s="6" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="437" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
         <v>10434</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="K437" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L437" s="6" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="438" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>10435</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="K438" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L438" s="6" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="439" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
         <v>10436</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="K439" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L439" s="6" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="440" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
         <v>10437</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="K440" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L440" s="6" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="441" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
         <v>10438</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="K441" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L441" s="6" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="442" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>10439</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="K442" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L442" s="6" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="443" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
         <v>10440</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="K443" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L443" s="6" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="444" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="3">
         <v>10441</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="K444" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L444" s="6" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="445" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
         <v>10442</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="K445" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L445" s="6" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="446" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>10443</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="K446" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L446" s="6" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="447" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>10444</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="K447" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L447" s="6" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="448" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
         <v>10445</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="K448" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L448" s="6" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="449" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="3">
         <v>10446</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="K449" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L449" s="6" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="450" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
         <v>10447</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="K450" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L450" s="6" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="451" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="3">
         <v>10448</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="K451" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L451" s="6" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="452" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="3">
         <v>10449</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="K452" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L452" s="6" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="453" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="3">
         <v>10450</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="K453" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L453" s="6" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="454" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="3">
         <v>10451</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="K454" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L454" s="6" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="455" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="3">
         <v>10452</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="K455" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L455" s="6" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="456" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="3">
         <v>10453</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="K456" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L456" s="6" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="457" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="3">
         <v>10454</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="K457" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L457" s="6" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="458" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="3">
         <v>10455</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="K458" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L458" s="6" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="459" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="3">
         <v>10456</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="K459" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L459" s="6" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="460" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>10457</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="K460" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L460" s="6" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="461" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
         <v>10458</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="K461" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L461" s="6" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="462" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>10459</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="K462" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L462" s="6" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="463" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
         <v>10460</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="K463" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L463" s="6" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="464" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
         <v>10461</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="K464" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L464" s="6" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="465" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="3">
         <v>10462</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="K465" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L465" s="6" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="466" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
         <v>10463</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="K466" s="6" t="s">
-        <v>1167</v>
-      </c>
-    </row>
-    <row r="467" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
         <v>10464</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="K467" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L467" s="6" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="468" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
         <v>10465</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="K468" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L468" s="6" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="469" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="3">
         <v>10466</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="K469" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L469" s="6" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="470" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="3">
         <v>10467</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>1240</v>
+        <v>1232</v>
       </c>
       <c r="K470" s="6" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="L470" s="6" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="471" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A471" s="3">
-        <v>10468</v>
-      </c>
-      <c r="K471" s="6" t="s">
-        <v>1167</v>
-      </c>
-      <c r="L471" s="6" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="472" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A472" s="3">
-        <v>10469</v>
-      </c>
-      <c r="K472" s="6" t="s">
-        <v>1167</v>
-      </c>
-      <c r="L472" s="6" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="473" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A473" s="3">
-        <v>10470</v>
-      </c>
-      <c r="K473" s="6" t="s">
-        <v>1167</v>
-      </c>
-      <c r="L473" s="6" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
     </row>
   </sheetData>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA4E98B-A3C5-45BF-AD0F-77B1EB7FA1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1EFBB7-3DB9-408F-94AD-DA53DA56C4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="1417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="1415">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3388,9 +3388,6 @@
     <t>EVT?[10358]</t>
   </si>
   <si>
-    <t>EVT?[10362]</t>
-  </si>
-  <si>
     <t>时代在进步,新一代VR设备你仍然了如指掌。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3720,9 +3717,6 @@
     <t>EVT?[10365]</t>
   </si>
   <si>
-    <t>EVT?[10367]</t>
-  </si>
-  <si>
     <t>EVT?[10369]</t>
   </si>
   <si>
@@ -4621,10 +4615,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日本武力攻占钓鱼岛。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>朝鲜计划向美国和韩国投下两颗原子弹。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5379,6 +5369,10 @@
   </si>
   <si>
     <t>EVT?[10492,10002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本武力攻占珍珠港。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5979,10 +5973,10 @@
   <dimension ref="A1:N610"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H479" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C346" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L495" sqref="L495"/>
+      <selection pane="bottomRight" activeCell="A362" sqref="A362:XFD362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6004,40 +5998,40 @@
   <sheetData>
     <row r="1" spans="1:14" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="D1" s="11" t="s">
+        <v>936</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>937</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>938</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>939</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>940</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>941</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>942</v>
       </c>
       <c r="J1" s="11" t="s">
         <v>21</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>17</v>
@@ -7309,7 +7303,7 @@
         <v>-1</v>
       </c>
       <c r="N73" s="8" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -9398,7 +9392,7 @@
         <v>549</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="L201" s="6" t="s">
         <v>553</v>
@@ -9610,7 +9604,7 @@
         <v>1</v>
       </c>
       <c r="K214" s="6" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="L214" s="6" t="s">
         <v>580</v>
@@ -9627,7 +9621,7 @@
         <v>1</v>
       </c>
       <c r="K215" s="6" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="L215" s="6" t="s">
         <v>581</v>
@@ -9920,7 +9914,7 @@
         <v>615</v>
       </c>
       <c r="L231" s="6" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="232" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10070,7 +10064,7 @@
         <v>677</v>
       </c>
       <c r="L240" s="6" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="241" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10081,10 +10075,10 @@
         <v>679</v>
       </c>
       <c r="K241" s="6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="L241" s="6" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="242" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10098,10 +10092,10 @@
         <v>1</v>
       </c>
       <c r="K242" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="L242" s="6" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="243" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10299,7 +10293,7 @@
         <v>678</v>
       </c>
       <c r="L254" s="6" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="255" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10394,7 +10388,7 @@
         <v>10258</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="K261" s="6" t="s">
         <v>723</v>
@@ -10414,7 +10408,7 @@
         <v>726</v>
       </c>
       <c r="L262" s="6" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="263" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10934,7 +10928,7 @@
         <v>634</v>
       </c>
       <c r="M294" s="7" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="295" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -10985,7 +10979,7 @@
         <v>723</v>
       </c>
       <c r="L297" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="M297" s="7" t="s">
         <v>788</v>
@@ -11053,7 +11047,7 @@
         <v>1</v>
       </c>
       <c r="K301" s="6" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="L301" s="6" t="s">
         <v>640</v>
@@ -11377,7 +11371,7 @@
         <v>837</v>
       </c>
       <c r="K322" s="6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="L322" s="6" t="s">
         <v>812</v>
@@ -11391,7 +11385,7 @@
         <v>838</v>
       </c>
       <c r="K323" s="6" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="L323" s="6" t="s">
         <v>813</v>
@@ -11402,10 +11396,10 @@
         <v>10321</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="K324" s="6" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="L324" s="6" t="s">
         <v>814</v>
@@ -11416,19 +11410,19 @@
         <v>10322</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C325" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="H325" s="5">
         <v>-2</v>
       </c>
       <c r="K325" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="L325" s="6" t="s">
         <v>871</v>
-      </c>
-      <c r="L325" s="6" t="s">
-        <v>872</v>
       </c>
       <c r="M325" s="7" t="s">
         <v>180</v>
@@ -11439,10 +11433,10 @@
         <v>10323</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C326" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D326" s="5">
         <v>3</v>
@@ -11457,7 +11451,7 @@
         <v>2</v>
       </c>
       <c r="K326" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="L326" s="6" t="s">
         <v>815</v>
@@ -11468,16 +11462,16 @@
         <v>10324</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C327" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F327" s="5">
         <v>1</v>
       </c>
       <c r="K327" s="6" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="328" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11485,13 +11479,13 @@
         <v>10325</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="F328" s="5">
         <v>1</v>
       </c>
       <c r="K328" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="L328" s="6" t="s">
         <v>839</v>
@@ -11502,13 +11496,13 @@
         <v>10326</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="F329" s="5">
         <v>1</v>
       </c>
       <c r="K329" s="6" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="L329" s="6" t="s">
         <v>840</v>
@@ -11519,13 +11513,13 @@
         <v>10327</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F330" s="5">
         <v>1</v>
       </c>
       <c r="K330" s="6" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="L330" s="6" t="s">
         <v>841</v>
@@ -11536,13 +11530,13 @@
         <v>10328</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="F331" s="5">
         <v>1</v>
       </c>
       <c r="K331" s="6" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="L331" s="6" t="s">
         <v>842</v>
@@ -11553,13 +11547,13 @@
         <v>10329</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="F332" s="5">
         <v>1</v>
       </c>
       <c r="K332" s="6" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="L332" s="6" t="s">
         <v>843</v>
@@ -11570,13 +11564,13 @@
         <v>10330</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="F333" s="5">
         <v>1</v>
       </c>
       <c r="K333" s="6" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="L333" s="6" t="s">
         <v>844</v>
@@ -11587,13 +11581,13 @@
         <v>10331</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="F334" s="5">
         <v>1</v>
       </c>
       <c r="K334" s="6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="L334" s="6" t="s">
         <v>845</v>
@@ -11604,13 +11598,13 @@
         <v>10332</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="F335" s="5">
         <v>1</v>
       </c>
       <c r="K335" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="L335" s="6" t="s">
         <v>846</v>
@@ -11621,10 +11615,10 @@
         <v>10333</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C336" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E336" s="5">
         <v>1</v>
@@ -11633,7 +11627,7 @@
         <v>10</v>
       </c>
       <c r="K336" s="6" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="L336" s="6" t="s">
         <v>847</v>
@@ -11644,13 +11638,13 @@
         <v>10334</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F337" s="5">
         <v>10</v>
       </c>
       <c r="K337" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="338" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11658,13 +11652,13 @@
         <v>10335</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="F338" s="5">
         <v>20</v>
       </c>
       <c r="K338" s="6" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="339" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11672,16 +11666,16 @@
         <v>10336</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="C339" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="F339" s="5">
         <v>2</v>
       </c>
       <c r="K339" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="340" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11689,13 +11683,13 @@
         <v>10337</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="F340" s="5">
         <v>2</v>
       </c>
       <c r="K340" s="6" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="L340" s="6" t="s">
         <v>848</v>
@@ -11706,13 +11700,13 @@
         <v>10338</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="F341" s="5">
         <v>2</v>
       </c>
       <c r="K341" s="6" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="L341" s="6" t="s">
         <v>849</v>
@@ -11723,13 +11717,13 @@
         <v>10339</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="F342" s="5">
         <v>2</v>
       </c>
       <c r="K342" s="6" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L342" s="6" t="s">
         <v>850</v>
@@ -11740,13 +11734,13 @@
         <v>10340</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="F343" s="5">
         <v>2</v>
       </c>
       <c r="K343" s="6" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="L343" s="6" t="s">
         <v>851</v>
@@ -11757,13 +11751,13 @@
         <v>10341</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="F344" s="5">
         <v>2</v>
       </c>
       <c r="K344" s="6" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="L344" s="6" t="s">
         <v>852</v>
@@ -11774,13 +11768,13 @@
         <v>10342</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F345" s="5">
         <v>2</v>
       </c>
       <c r="K345" s="6" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="L345" s="6" t="s">
         <v>853</v>
@@ -11791,13 +11785,13 @@
         <v>10343</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F346" s="5">
         <v>2</v>
       </c>
       <c r="K346" s="6" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="L346" s="6" t="s">
         <v>854</v>
@@ -11808,13 +11802,13 @@
         <v>10344</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="F347" s="5">
         <v>2</v>
       </c>
       <c r="K347" s="6" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="L347" s="6" t="s">
         <v>855</v>
@@ -11825,10 +11819,10 @@
         <v>10345</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C348" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E348" s="5">
         <v>2</v>
@@ -11837,10 +11831,10 @@
         <v>20</v>
       </c>
       <c r="K348" s="6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="L348" s="6" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="349" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11848,16 +11842,16 @@
         <v>10346</v>
       </c>
       <c r="B349" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="K349" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="L349" s="6" t="s">
+        <v>926</v>
+      </c>
+      <c r="M349" s="7" t="s">
         <v>925</v>
-      </c>
-      <c r="K349" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="L349" s="6" t="s">
-        <v>927</v>
-      </c>
-      <c r="M349" s="7" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="350" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11865,16 +11859,16 @@
         <v>10347</v>
       </c>
       <c r="B350" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="K350" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="L350" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="M350" s="7" t="s">
         <v>925</v>
-      </c>
-      <c r="K350" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="L350" s="6" t="s">
-        <v>1041</v>
-      </c>
-      <c r="M350" s="7" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="351" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11882,7 +11876,7 @@
         <v>10348</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="E351" s="5">
         <v>1</v>
@@ -11891,7 +11885,7 @@
         <v>3</v>
       </c>
       <c r="K351" s="6" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="L351" s="6" t="s">
         <v>856</v>
@@ -11902,16 +11896,16 @@
         <v>10349</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C352" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F352" s="5">
         <v>100</v>
       </c>
       <c r="K352" s="6" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="L352" s="6" t="s">
         <v>857</v>
@@ -11922,16 +11916,16 @@
         <v>10350</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C353" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F353" s="5">
         <v>50</v>
       </c>
       <c r="K353" s="6" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="354" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11939,13 +11933,13 @@
         <v>10351</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F354" s="5">
         <v>5</v>
       </c>
       <c r="K354" s="6" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="355" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11953,7 +11947,7 @@
         <v>10352</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E355" s="5">
         <v>1</v>
@@ -11962,7 +11956,7 @@
         <v>3</v>
       </c>
       <c r="K355" s="6" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="L355" s="6" t="s">
         <v>858</v>
@@ -11973,7 +11967,7 @@
         <v>10353</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E356" s="5">
         <v>1</v>
@@ -11982,7 +11976,7 @@
         <v>3</v>
       </c>
       <c r="K356" s="6" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="L356" s="6" t="s">
         <v>859</v>
@@ -11993,7 +11987,7 @@
         <v>10354</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="E357" s="5">
         <v>1</v>
@@ -12002,7 +11996,7 @@
         <v>3</v>
       </c>
       <c r="K357" s="6" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="L357" s="6" t="s">
         <v>860</v>
@@ -12013,7 +12007,7 @@
         <v>10355</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="E358" s="5">
         <v>1</v>
@@ -12022,7 +12016,7 @@
         <v>3</v>
       </c>
       <c r="K358" s="6" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="L358" s="6" t="s">
         <v>861</v>
@@ -12033,7 +12027,7 @@
         <v>10356</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="E359" s="5">
         <v>1</v>
@@ -12042,7 +12036,7 @@
         <v>3</v>
       </c>
       <c r="K359" s="6" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="L359" s="6" t="s">
         <v>862</v>
@@ -12053,7 +12047,7 @@
         <v>10357</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E360" s="5">
         <v>1</v>
@@ -12062,7 +12056,7 @@
         <v>3</v>
       </c>
       <c r="K360" s="6" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="L360" s="6" t="s">
         <v>863</v>
@@ -12073,7 +12067,7 @@
         <v>10358</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="E361" s="5">
         <v>1</v>
@@ -12082,16 +12076,10 @@
         <v>3</v>
       </c>
       <c r="K361" s="6" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="L361" s="6" t="s">
         <v>864</v>
-      </c>
-      <c r="M361" s="7" t="s">
-        <v>1052</v>
-      </c>
-      <c r="N361" s="8" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="362" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12099,13 +12087,19 @@
         <v>10359</v>
       </c>
       <c r="B362" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="K362" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="L362" s="6" t="s">
+        <v>1058</v>
+      </c>
+      <c r="M362" s="7" t="s">
         <v>1050</v>
       </c>
-      <c r="K362" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="L362" s="6" t="s">
-        <v>1060</v>
+      <c r="N362" s="8" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="363" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12113,10 +12107,10 @@
         <v>10360</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="C363" s="4" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="E363" s="5">
         <v>50</v>
@@ -12136,10 +12130,10 @@
         <v>10361</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C364" s="4" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E364" s="5">
         <v>50</v>
@@ -12151,10 +12145,10 @@
         <v>1</v>
       </c>
       <c r="K364" s="6" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="L364" s="6" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="365" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12162,10 +12156,10 @@
         <v>10362</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="C365" s="4" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="E365" s="5">
         <v>1</v>
@@ -12174,10 +12168,7 @@
         <v>3</v>
       </c>
       <c r="K365" s="6" t="s">
-        <v>1039</v>
-      </c>
-      <c r="L365" s="6" t="s">
-        <v>865</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="366" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12185,10 +12176,10 @@
         <v>10363</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="C366" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E366" s="5">
         <v>10</v>
@@ -12197,10 +12188,10 @@
         <v>100</v>
       </c>
       <c r="K366" s="6" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="L366" s="6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="367" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12208,13 +12199,13 @@
         <v>10364</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="F367" s="5">
         <v>10</v>
       </c>
       <c r="K367" s="6" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="368" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12222,19 +12213,19 @@
         <v>10365</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="C368" s="4" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="E368" s="5">
         <v>30</v>
       </c>
       <c r="K368" s="6" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="L368" s="6" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12242,7 +12233,7 @@
         <v>10366</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="E369" s="5">
         <v>10</v>
@@ -12251,7 +12242,7 @@
         <v>100</v>
       </c>
       <c r="K369" s="6" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="370" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12259,16 +12250,13 @@
         <v>10367</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="E370" s="5">
         <v>2</v>
       </c>
       <c r="K370" s="6" t="s">
-        <v>1070</v>
-      </c>
-      <c r="L370" s="6" t="s">
-        <v>949</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="371" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12276,16 +12264,16 @@
         <v>10368</v>
       </c>
       <c r="B371" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="K371" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="L371" s="6" t="s">
+        <v>1078</v>
+      </c>
+      <c r="M371" s="7" t="s">
         <v>925</v>
-      </c>
-      <c r="K371" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="L371" s="6" t="s">
-        <v>1080</v>
-      </c>
-      <c r="M371" s="7" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="372" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12293,16 +12281,16 @@
         <v>10369</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="E372" s="5">
         <v>2</v>
       </c>
       <c r="K372" s="6" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="L372" s="6" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="373" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12310,16 +12298,16 @@
         <v>10370</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E373" s="5">
         <v>2</v>
       </c>
       <c r="K373" s="6" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="L373" s="6" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="374" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12327,16 +12315,16 @@
         <v>10371</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="E374" s="5">
         <v>2</v>
       </c>
       <c r="K374" s="6" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="L374" s="6" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="375" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12344,16 +12332,16 @@
         <v>10372</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E375" s="5">
         <v>2</v>
       </c>
       <c r="K375" s="6" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="L375" s="6" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="376" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12361,16 +12349,16 @@
         <v>10373</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E376" s="5">
         <v>2</v>
       </c>
       <c r="K376" s="6" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="L376" s="6" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="377" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12378,16 +12366,16 @@
         <v>10374</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="E377" s="5">
         <v>2</v>
       </c>
       <c r="K377" s="6" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="L377" s="6" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="378" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12395,16 +12383,16 @@
         <v>10375</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="E378" s="5">
         <v>2</v>
       </c>
       <c r="K378" s="6" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="L378" s="6" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="379" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12412,16 +12400,16 @@
         <v>10376</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E379" s="5">
         <v>2</v>
       </c>
       <c r="K379" s="6" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="L379" s="6" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="380" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12429,7 +12417,7 @@
         <v>10377</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="E380" s="5">
         <v>10</v>
@@ -12438,10 +12426,10 @@
         <v>10</v>
       </c>
       <c r="K380" s="6" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="L380" s="6" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="381" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12449,7 +12437,7 @@
         <v>10378</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="E381" s="5">
         <v>1</v>
@@ -12458,10 +12446,10 @@
         <v>10</v>
       </c>
       <c r="K381" s="6" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="L381" s="6" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="382" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12469,16 +12457,16 @@
         <v>10379</v>
       </c>
       <c r="B382" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="K382" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="L382" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="M382" s="7" t="s">
         <v>925</v>
-      </c>
-      <c r="K382" s="6" t="s">
-        <v>901</v>
-      </c>
-      <c r="L382" s="6" t="s">
-        <v>1092</v>
-      </c>
-      <c r="M382" s="7" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="383" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12486,7 +12474,7 @@
         <v>10380</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="E383" s="5">
         <v>20</v>
@@ -12495,10 +12483,10 @@
         <v>20</v>
       </c>
       <c r="K383" s="6" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="L383" s="6" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="384" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12506,7 +12494,7 @@
         <v>10381</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="E384" s="5">
         <v>20</v>
@@ -12515,10 +12503,10 @@
         <v>20</v>
       </c>
       <c r="K384" s="6" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="L384" s="6" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="385" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12526,7 +12514,7 @@
         <v>10382</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="E385" s="5">
         <v>20</v>
@@ -12535,10 +12523,10 @@
         <v>20</v>
       </c>
       <c r="K385" s="6" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="L385" s="6" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="386" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12546,7 +12534,7 @@
         <v>10383</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="E386" s="5">
         <v>20</v>
@@ -12555,10 +12543,10 @@
         <v>20</v>
       </c>
       <c r="K386" s="6" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="L386" s="6" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="387" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12566,7 +12554,7 @@
         <v>10384</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="E387" s="5">
         <v>20</v>
@@ -12575,10 +12563,10 @@
         <v>20</v>
       </c>
       <c r="K387" s="6" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="L387" s="6" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="388" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12586,13 +12574,13 @@
         <v>10385</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="E388" s="5">
         <v>20</v>
       </c>
       <c r="K388" s="6" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="389" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12600,7 +12588,7 @@
         <v>10386</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="E389" s="5">
         <v>50</v>
@@ -12609,10 +12597,10 @@
         <v>50</v>
       </c>
       <c r="K389" s="6" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="L389" s="6" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="390" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12620,7 +12608,7 @@
         <v>10387</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E390" s="5">
         <v>50</v>
@@ -12629,10 +12617,10 @@
         <v>50</v>
       </c>
       <c r="K390" s="6" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="L390" s="6" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="391" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12640,7 +12628,7 @@
         <v>10388</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="E391" s="5">
         <v>50</v>
@@ -12649,10 +12637,10 @@
         <v>50</v>
       </c>
       <c r="K391" s="6" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="L391" s="6" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="392" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12660,7 +12648,7 @@
         <v>10389</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E392" s="5">
         <v>50</v>
@@ -12669,10 +12657,10 @@
         <v>50</v>
       </c>
       <c r="K392" s="6" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="L392" s="6" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="393" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12680,7 +12668,7 @@
         <v>10390</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="E393" s="5">
         <v>50</v>
@@ -12689,10 +12677,10 @@
         <v>50</v>
       </c>
       <c r="K393" s="6" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="L393" s="6" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="394" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12700,16 +12688,16 @@
         <v>10391</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="K394" s="6" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="L394" s="6" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="M394" s="7" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="395" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12717,19 +12705,19 @@
         <v>10392</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="J395" s="5">
         <v>1</v>
       </c>
       <c r="L395" s="6" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M395" s="7" t="s">
         <v>1117</v>
       </c>
-      <c r="M395" s="7" t="s">
-        <v>1119</v>
-      </c>
       <c r="N395" s="8" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="396" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12737,19 +12725,19 @@
         <v>10393</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="J396" s="5">
         <v>1</v>
       </c>
       <c r="L396" s="6" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="M396" s="7" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="N396" s="8" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="397" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12757,19 +12745,19 @@
         <v>10394</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="J397" s="5">
         <v>1</v>
       </c>
       <c r="L397" s="6" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="M397" s="7" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="N397" s="8" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="398" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12777,19 +12765,19 @@
         <v>10395</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="J398" s="5">
         <v>1</v>
       </c>
       <c r="L398" s="6" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="M398" s="7" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="N398" s="8" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="399" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12797,19 +12785,19 @@
         <v>10396</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="J399" s="5">
         <v>1</v>
       </c>
       <c r="L399" s="6" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="M399" s="7" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="N399" s="8" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="400" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12817,19 +12805,19 @@
         <v>10397</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="J400" s="5">
         <v>1</v>
       </c>
       <c r="L400" s="6" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="M400" s="7" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="N400" s="8" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="401" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12837,19 +12825,19 @@
         <v>10398</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="J401" s="5">
         <v>1</v>
       </c>
       <c r="L401" s="6" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="M401" s="7" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="N401" s="8" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="402" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12857,19 +12845,19 @@
         <v>10399</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="J402" s="5">
         <v>1</v>
       </c>
       <c r="L402" s="6" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="M402" s="7" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="N402" s="8" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="403" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12877,19 +12865,19 @@
         <v>10400</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="J403" s="5">
         <v>1</v>
       </c>
       <c r="L403" s="6" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="M403" s="7" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="N403" s="8" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="404" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12897,16 +12885,16 @@
         <v>10401</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="J404" s="5">
         <v>1</v>
       </c>
       <c r="L404" s="6" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M404" s="7" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="405" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12914,19 +12902,19 @@
         <v>10402</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="J405" s="5">
         <v>1</v>
       </c>
       <c r="L405" s="6" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="M405" s="7" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="N405" s="8" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="406" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12934,19 +12922,19 @@
         <v>10403</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="J406" s="5">
         <v>1</v>
       </c>
       <c r="L406" s="6" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="M406" s="7" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="N406" s="8" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="407" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12954,19 +12942,19 @@
         <v>10404</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="J407" s="5">
         <v>1</v>
       </c>
       <c r="L407" s="6" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="M407" s="7" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="N407" s="8" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="408" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12974,19 +12962,19 @@
         <v>10405</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="J408" s="5">
         <v>1</v>
       </c>
       <c r="L408" s="6" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="M408" s="7" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="N408" s="8" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="409" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12994,19 +12982,19 @@
         <v>10406</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="J409" s="5">
         <v>1</v>
       </c>
       <c r="L409" s="6" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M409" s="7" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="N409" s="8" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="410" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13014,19 +13002,19 @@
         <v>10407</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="J410" s="5">
         <v>1</v>
       </c>
       <c r="L410" s="6" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="M410" s="26" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="N410" s="8" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="411" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13034,19 +13022,19 @@
         <v>10408</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="J411" s="5">
         <v>1</v>
       </c>
       <c r="L411" s="6" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="M411" s="7" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="N411" s="8" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="412" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13054,10 +13042,10 @@
         <v>10409</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="C412" s="4" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="I412" s="5">
         <v>-1</v>
@@ -13066,7 +13054,7 @@
         <v>1</v>
       </c>
       <c r="L412" s="6" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="413" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13074,13 +13062,13 @@
         <v>10410</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="K413" s="6" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="L413" s="6" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="414" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13088,13 +13076,13 @@
         <v>10411</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="K414" s="6" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="L414" s="6" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="415" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13102,13 +13090,13 @@
         <v>10412</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="K415" s="6" t="s">
         <v>444</v>
       </c>
       <c r="L415" s="6" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="416" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13116,13 +13104,13 @@
         <v>10413</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="K416" s="6" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="L416" s="6" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="417" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13130,13 +13118,13 @@
         <v>10414</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="K417" s="6" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="L417" s="6" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="418" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13144,13 +13132,13 @@
         <v>10415</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="K418" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L418" s="6" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="419" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13158,13 +13146,13 @@
         <v>10416</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="K419" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L419" s="6" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="420" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13172,13 +13160,13 @@
         <v>10417</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="K420" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L420" s="6" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="421" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13186,13 +13174,13 @@
         <v>10418</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="K421" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L421" s="6" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="422" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13200,13 +13188,13 @@
         <v>10419</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="K422" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L422" s="6" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="423" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13214,13 +13202,13 @@
         <v>10420</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="K423" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L423" s="6" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="424" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13228,13 +13216,13 @@
         <v>10421</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="K424" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L424" s="6" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="425" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13242,16 +13230,16 @@
         <v>10422</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="C425" s="4" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="K425" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L425" s="6" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="426" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13259,13 +13247,13 @@
         <v>10423</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="K426" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L426" s="6" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="427" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13273,13 +13261,13 @@
         <v>10424</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="K427" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L427" s="6" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="428" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13287,13 +13275,13 @@
         <v>10425</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="K428" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L428" s="6" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="429" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13301,13 +13289,13 @@
         <v>10426</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="K429" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L429" s="6" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="430" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13315,13 +13303,13 @@
         <v>10427</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="K430" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L430" s="6" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="431" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13329,13 +13317,13 @@
         <v>10428</v>
       </c>
       <c r="B431" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K431" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L431" s="6" t="s">
         <v>1182</v>
-      </c>
-      <c r="K431" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="L431" s="6" t="s">
-        <v>1184</v>
       </c>
     </row>
     <row r="432" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13343,13 +13331,13 @@
         <v>10429</v>
       </c>
       <c r="B432" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="K432" s="6" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L432" s="6" t="s">
         <v>1183</v>
-      </c>
-      <c r="K432" s="6" t="s">
-        <v>1159</v>
-      </c>
-      <c r="L432" s="6" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="433" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13357,16 +13345,16 @@
         <v>10430</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="C433" s="4" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="K433" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L433" s="6" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="434" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13374,13 +13362,13 @@
         <v>10431</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="K434" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L434" s="6" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="435" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13388,13 +13376,13 @@
         <v>10432</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="K435" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L435" s="6" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="436" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13402,13 +13390,13 @@
         <v>10433</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="K436" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L436" s="6" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="437" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13416,13 +13404,13 @@
         <v>10434</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="K437" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L437" s="6" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="438" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13430,13 +13418,13 @@
         <v>10435</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="K438" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L438" s="6" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="439" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13444,13 +13432,13 @@
         <v>10436</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="K439" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L439" s="6" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="440" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13458,13 +13446,13 @@
         <v>10437</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="K440" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L440" s="6" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="441" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13472,13 +13460,13 @@
         <v>10438</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="K441" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L441" s="6" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="442" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13486,13 +13474,13 @@
         <v>10439</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>1196</v>
+        <v>1414</v>
       </c>
       <c r="K442" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L442" s="6" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="443" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13500,16 +13488,16 @@
         <v>10440</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="C443" s="4" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="K443" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L443" s="6" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="444" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13517,13 +13505,13 @@
         <v>10441</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="K444" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L444" s="6" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="445" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13531,13 +13519,13 @@
         <v>10442</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="K445" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L445" s="6" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="446" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13545,13 +13533,13 @@
         <v>10443</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="K446" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L446" s="6" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="447" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13559,13 +13547,13 @@
         <v>10444</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="K447" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L447" s="6" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="448" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13573,13 +13561,13 @@
         <v>10445</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="K448" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L448" s="6" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="449" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13587,13 +13575,13 @@
         <v>10446</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="K449" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L449" s="6" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="450" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13601,13 +13589,13 @@
         <v>10447</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>1206</v>
+        <v>1203</v>
       </c>
       <c r="K450" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L450" s="6" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="451" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13615,13 +13603,13 @@
         <v>10448</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>1207</v>
+        <v>1204</v>
       </c>
       <c r="K451" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L451" s="6" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="452" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13629,13 +13617,13 @@
         <v>10449</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1208</v>
+        <v>1205</v>
       </c>
       <c r="K452" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L452" s="6" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="453" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13643,13 +13631,13 @@
         <v>10450</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>1209</v>
+        <v>1206</v>
       </c>
       <c r="K453" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L453" s="6" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="454" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13657,13 +13645,13 @@
         <v>10451</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>1210</v>
+        <v>1207</v>
       </c>
       <c r="K454" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L454" s="6" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="455" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13671,13 +13659,13 @@
         <v>10452</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>1211</v>
+        <v>1208</v>
       </c>
       <c r="K455" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L455" s="6" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="456" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13685,13 +13673,13 @@
         <v>10453</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>1212</v>
+        <v>1209</v>
       </c>
       <c r="K456" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L456" s="6" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="457" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13699,13 +13687,13 @@
         <v>10454</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>1213</v>
+        <v>1210</v>
       </c>
       <c r="K457" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L457" s="6" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="458" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13713,13 +13701,13 @@
         <v>10455</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="K458" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L458" s="6" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="459" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13727,13 +13715,13 @@
         <v>10456</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1215</v>
+        <v>1212</v>
       </c>
       <c r="K459" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L459" s="6" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="460" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13741,13 +13729,13 @@
         <v>10457</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="K460" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L460" s="6" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="461" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13755,13 +13743,13 @@
         <v>10458</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="K461" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L461" s="6" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="462" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13769,13 +13757,13 @@
         <v>10459</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="K462" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L462" s="6" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="463" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13783,13 +13771,13 @@
         <v>10460</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="K463" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L463" s="6" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="464" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13797,13 +13785,13 @@
         <v>10461</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="K464" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L464" s="6" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="465" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13811,13 +13799,13 @@
         <v>10462</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="K465" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L465" s="6" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="466" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13825,10 +13813,10 @@
         <v>10463</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="K466" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="467" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13836,13 +13824,13 @@
         <v>10464</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="K467" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L467" s="6" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="468" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13850,13 +13838,13 @@
         <v>10465</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="K468" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L468" s="6" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="469" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13864,16 +13852,16 @@
         <v>10466</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
       <c r="H469" s="5">
         <v>1</v>
       </c>
       <c r="K469" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L469" s="6" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="470" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13881,19 +13869,19 @@
         <v>10467</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="C470" s="4" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="H470" s="5">
         <v>2</v>
       </c>
       <c r="K470" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L470" s="6" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="471" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13901,13 +13889,13 @@
         <v>10468</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="K471" s="6" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="L471" s="6" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="472" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13915,13 +13903,13 @@
         <v>10469</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="K472" s="6" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="L472" s="6" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="473" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13929,13 +13917,13 @@
         <v>10470</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="K473" s="6" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="L473" s="6" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="474" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13943,13 +13931,13 @@
         <v>10471</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="K474" s="6" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="L474" s="6" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="475" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13957,13 +13945,13 @@
         <v>10472</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="K475" s="6" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="L475" s="6" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="476" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13971,19 +13959,19 @@
         <v>10473</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="C476" s="4" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="H476" s="5">
         <v>-1</v>
       </c>
       <c r="K476" s="6" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="L476" s="6" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="477" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -13991,13 +13979,13 @@
         <v>10474</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="K477" s="6" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="L477" s="6" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="478" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14005,13 +13993,13 @@
         <v>10475</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="K478" s="6" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="L478" s="6" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="479" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14019,13 +14007,13 @@
         <v>10476</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="K479" s="6" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="L479" s="6" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="480" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14033,13 +14021,13 @@
         <v>10477</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="K480" s="6" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="L480" s="6" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="481" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14047,13 +14035,13 @@
         <v>10478</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="K481" s="6" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="L481" s="6" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="482" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14061,16 +14049,16 @@
         <v>10479</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="H482" s="5">
         <v>1</v>
       </c>
       <c r="K482" s="6" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="L482" s="6" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="483" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14078,13 +14066,13 @@
         <v>10480</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="K483" s="6" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="L483" s="6" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="484" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14092,13 +14080,13 @@
         <v>10481</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="K484" s="6" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="L484" s="6" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="485" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14106,13 +14094,13 @@
         <v>10482</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="K485" s="6" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="L485" s="6" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="486" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14120,13 +14108,13 @@
         <v>10483</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="K486" s="6" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="L486" s="6" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="487" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14134,13 +14122,13 @@
         <v>10484</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="K487" s="6" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="L487" s="6" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="488" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14148,13 +14136,13 @@
         <v>10485</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="K488" s="6" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="L488" s="6" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="489" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14162,13 +14150,13 @@
         <v>10486</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="K489" s="6" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="L489" s="6" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="490" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14176,10 +14164,10 @@
         <v>10487</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="K490" s="6" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="491" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14187,13 +14175,13 @@
         <v>10488</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="K491" s="6" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="L491" s="6" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="492" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14201,13 +14189,13 @@
         <v>10489</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="K492" s="6" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="L492" s="6" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="493" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14215,13 +14203,13 @@
         <v>10490</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="K493" s="6" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="L493" s="6" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="494" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14229,10 +14217,10 @@
         <v>10491</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="K494" s="6" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="495" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14240,13 +14228,13 @@
         <v>10492</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="K495" s="6" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="L495" s="6" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="496" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14254,13 +14242,13 @@
         <v>10493</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="K496" s="6" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="L496" s="6" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="497" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14268,10 +14256,10 @@
         <v>10494</v>
       </c>
       <c r="K497" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L497" s="6" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="498" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14279,10 +14267,10 @@
         <v>10495</v>
       </c>
       <c r="K498" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L498" s="6" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="499" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14290,10 +14278,10 @@
         <v>10496</v>
       </c>
       <c r="K499" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L499" s="6" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="500" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14301,10 +14289,10 @@
         <v>10497</v>
       </c>
       <c r="K500" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L500" s="6" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="501" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14312,10 +14300,10 @@
         <v>10498</v>
       </c>
       <c r="K501" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L501" s="6" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="502" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14323,10 +14311,10 @@
         <v>10499</v>
       </c>
       <c r="K502" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L502" s="6" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="503" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14334,10 +14322,10 @@
         <v>10500</v>
       </c>
       <c r="K503" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L503" s="6" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="504" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14345,10 +14333,10 @@
         <v>10501</v>
       </c>
       <c r="K504" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L504" s="6" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="505" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14356,10 +14344,10 @@
         <v>10502</v>
       </c>
       <c r="K505" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L505" s="6" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="506" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14367,10 +14355,10 @@
         <v>10503</v>
       </c>
       <c r="K506" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L506" s="6" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="507" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14378,10 +14366,10 @@
         <v>10504</v>
       </c>
       <c r="K507" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L507" s="6" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="508" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14389,10 +14377,10 @@
         <v>10505</v>
       </c>
       <c r="K508" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L508" s="6" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="509" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14400,10 +14388,10 @@
         <v>10506</v>
       </c>
       <c r="K509" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L509" s="6" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="510" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14411,10 +14399,10 @@
         <v>10507</v>
       </c>
       <c r="K510" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L510" s="6" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="511" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14422,10 +14410,10 @@
         <v>10508</v>
       </c>
       <c r="K511" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L511" s="6" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="512" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14433,10 +14421,10 @@
         <v>10509</v>
       </c>
       <c r="K512" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L512" s="6" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="513" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14444,10 +14432,10 @@
         <v>10510</v>
       </c>
       <c r="K513" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L513" s="6" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="514" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14455,10 +14443,10 @@
         <v>10511</v>
       </c>
       <c r="K514" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L514" s="6" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="515" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14466,10 +14454,10 @@
         <v>10512</v>
       </c>
       <c r="K515" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L515" s="6" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="516" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14477,10 +14465,10 @@
         <v>10513</v>
       </c>
       <c r="K516" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L516" s="6" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="517" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14488,10 +14476,10 @@
         <v>10514</v>
       </c>
       <c r="K517" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L517" s="6" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="518" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14499,10 +14487,10 @@
         <v>10515</v>
       </c>
       <c r="K518" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L518" s="6" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="519" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14510,10 +14498,10 @@
         <v>10516</v>
       </c>
       <c r="K519" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L519" s="6" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="520" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14521,10 +14509,10 @@
         <v>10517</v>
       </c>
       <c r="K520" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L520" s="6" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="521" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14532,10 +14520,10 @@
         <v>10518</v>
       </c>
       <c r="K521" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L521" s="6" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="522" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14543,10 +14531,10 @@
         <v>10519</v>
       </c>
       <c r="K522" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L522" s="6" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="523" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14554,10 +14542,10 @@
         <v>10520</v>
       </c>
       <c r="K523" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L523" s="6" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="524" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14565,10 +14553,10 @@
         <v>10521</v>
       </c>
       <c r="K524" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L524" s="6" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="525" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14576,10 +14564,10 @@
         <v>10522</v>
       </c>
       <c r="K525" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L525" s="6" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="526" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14587,10 +14575,10 @@
         <v>10523</v>
       </c>
       <c r="K526" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L526" s="6" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="527" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14598,10 +14586,10 @@
         <v>10524</v>
       </c>
       <c r="K527" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L527" s="6" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="528" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14609,10 +14597,10 @@
         <v>10525</v>
       </c>
       <c r="K528" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L528" s="6" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="529" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14620,10 +14608,10 @@
         <v>10526</v>
       </c>
       <c r="K529" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L529" s="6" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="530" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14631,10 +14619,10 @@
         <v>10527</v>
       </c>
       <c r="K530" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L530" s="6" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="531" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14642,10 +14630,10 @@
         <v>10528</v>
       </c>
       <c r="K531" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L531" s="6" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="532" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14653,10 +14641,10 @@
         <v>10529</v>
       </c>
       <c r="K532" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L532" s="6" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="533" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14664,10 +14652,10 @@
         <v>10530</v>
       </c>
       <c r="K533" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L533" s="6" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="534" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14675,10 +14663,10 @@
         <v>10531</v>
       </c>
       <c r="K534" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L534" s="6" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="535" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14686,10 +14674,10 @@
         <v>10532</v>
       </c>
       <c r="K535" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L535" s="6" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="536" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14697,10 +14685,10 @@
         <v>10533</v>
       </c>
       <c r="K536" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L536" s="6" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="537" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14708,10 +14696,10 @@
         <v>10534</v>
       </c>
       <c r="K537" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L537" s="6" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="538" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14719,10 +14707,10 @@
         <v>10535</v>
       </c>
       <c r="K538" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L538" s="6" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="539" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14730,10 +14718,10 @@
         <v>10536</v>
       </c>
       <c r="K539" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L539" s="6" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="540" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14741,10 +14729,10 @@
         <v>10537</v>
       </c>
       <c r="K540" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L540" s="6" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="541" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14752,10 +14740,10 @@
         <v>10538</v>
       </c>
       <c r="K541" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L541" s="6" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="542" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14763,10 +14751,10 @@
         <v>10539</v>
       </c>
       <c r="K542" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L542" s="6" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="543" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14774,10 +14762,10 @@
         <v>10540</v>
       </c>
       <c r="K543" s="6" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="L543" s="6" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="544" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14785,7 +14773,7 @@
         <v>10541</v>
       </c>
       <c r="L544" s="6" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="545" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14793,7 +14781,7 @@
         <v>10542</v>
       </c>
       <c r="L545" s="6" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="546" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14801,7 +14789,7 @@
         <v>10543</v>
       </c>
       <c r="L546" s="6" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="547" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14809,7 +14797,7 @@
         <v>10544</v>
       </c>
       <c r="L547" s="6" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="548" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14817,7 +14805,7 @@
         <v>10545</v>
       </c>
       <c r="L548" s="6" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="549" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14825,7 +14813,7 @@
         <v>10546</v>
       </c>
       <c r="L549" s="6" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="550" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14833,7 +14821,7 @@
         <v>10547</v>
       </c>
       <c r="L550" s="6" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="551" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14841,7 +14829,7 @@
         <v>10548</v>
       </c>
       <c r="L551" s="6" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="552" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14849,7 +14837,7 @@
         <v>10549</v>
       </c>
       <c r="L552" s="6" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="553" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14857,7 +14845,7 @@
         <v>10550</v>
       </c>
       <c r="L553" s="6" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="554" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14865,7 +14853,7 @@
         <v>10551</v>
       </c>
       <c r="L554" s="6" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="555" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14873,7 +14861,7 @@
         <v>10552</v>
       </c>
       <c r="L555" s="6" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="556" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14881,7 +14869,7 @@
         <v>10553</v>
       </c>
       <c r="L556" s="6" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="557" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14889,7 +14877,7 @@
         <v>10554</v>
       </c>
       <c r="L557" s="6" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="558" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14897,7 +14885,7 @@
         <v>10555</v>
       </c>
       <c r="L558" s="6" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="559" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14905,7 +14893,7 @@
         <v>10556</v>
       </c>
       <c r="L559" s="6" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="560" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14913,7 +14901,7 @@
         <v>10557</v>
       </c>
       <c r="L560" s="6" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="561" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14921,7 +14909,7 @@
         <v>10558</v>
       </c>
       <c r="L561" s="6" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="562" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14929,7 +14917,7 @@
         <v>10559</v>
       </c>
       <c r="L562" s="6" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="563" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14937,7 +14925,7 @@
         <v>10560</v>
       </c>
       <c r="L563" s="6" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="564" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14945,7 +14933,7 @@
         <v>10561</v>
       </c>
       <c r="L564" s="6" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="565" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14953,7 +14941,7 @@
         <v>10562</v>
       </c>
       <c r="L565" s="6" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="566" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14961,7 +14949,7 @@
         <v>10563</v>
       </c>
       <c r="L566" s="6" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="567" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14969,7 +14957,7 @@
         <v>10564</v>
       </c>
       <c r="L567" s="6" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="568" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14977,7 +14965,7 @@
         <v>10565</v>
       </c>
       <c r="L568" s="6" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="569" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14985,7 +14973,7 @@
         <v>10566</v>
       </c>
       <c r="L569" s="6" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="570" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14993,7 +14981,7 @@
         <v>10567</v>
       </c>
       <c r="L570" s="6" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="571" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15001,7 +14989,7 @@
         <v>10568</v>
       </c>
       <c r="L571" s="6" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="572" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15009,7 +14997,7 @@
         <v>10569</v>
       </c>
       <c r="L572" s="6" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="573" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15017,7 +15005,7 @@
         <v>10570</v>
       </c>
       <c r="L573" s="6" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="574" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15025,7 +15013,7 @@
         <v>10571</v>
       </c>
       <c r="L574" s="6" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="575" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15033,7 +15021,7 @@
         <v>10572</v>
       </c>
       <c r="L575" s="6" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="576" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15041,7 +15029,7 @@
         <v>10573</v>
       </c>
       <c r="L576" s="6" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="577" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15049,7 +15037,7 @@
         <v>10574</v>
       </c>
       <c r="L577" s="6" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="578" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15057,7 +15045,7 @@
         <v>10575</v>
       </c>
       <c r="L578" s="6" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="579" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15065,7 +15053,7 @@
         <v>10576</v>
       </c>
       <c r="L579" s="6" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="580" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15073,7 +15061,7 @@
         <v>10577</v>
       </c>
       <c r="L580" s="6" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="581" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15081,7 +15069,7 @@
         <v>10578</v>
       </c>
       <c r="L581" s="6" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="582" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15089,7 +15077,7 @@
         <v>10579</v>
       </c>
       <c r="L582" s="6" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="583" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15097,7 +15085,7 @@
         <v>10580</v>
       </c>
       <c r="L583" s="6" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="584" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15105,7 +15093,7 @@
         <v>10581</v>
       </c>
       <c r="L584" s="6" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="585" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15113,7 +15101,7 @@
         <v>10582</v>
       </c>
       <c r="L585" s="6" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="586" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15121,7 +15109,7 @@
         <v>10583</v>
       </c>
       <c r="L586" s="6" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="587" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15129,7 +15117,7 @@
         <v>10584</v>
       </c>
       <c r="L587" s="6" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="588" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15137,7 +15125,7 @@
         <v>10585</v>
       </c>
       <c r="L588" s="6" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="589" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15145,7 +15133,7 @@
         <v>10586</v>
       </c>
       <c r="L589" s="6" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="590" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15153,7 +15141,7 @@
         <v>10587</v>
       </c>
       <c r="L590" s="6" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="591" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15161,7 +15149,7 @@
         <v>10588</v>
       </c>
       <c r="L591" s="6" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="592" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15169,7 +15157,7 @@
         <v>10589</v>
       </c>
       <c r="L592" s="6" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="593" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15177,7 +15165,7 @@
         <v>10590</v>
       </c>
       <c r="L593" s="6" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="594" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15185,7 +15173,7 @@
         <v>10591</v>
       </c>
       <c r="L594" s="6" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="595" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15193,7 +15181,7 @@
         <v>10592</v>
       </c>
       <c r="L595" s="6" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="596" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15201,7 +15189,7 @@
         <v>10593</v>
       </c>
       <c r="L596" s="6" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="597" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15209,7 +15197,7 @@
         <v>10594</v>
       </c>
       <c r="L597" s="6" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="598" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15217,7 +15205,7 @@
         <v>10595</v>
       </c>
       <c r="L598" s="6" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="599" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15225,7 +15213,7 @@
         <v>10596</v>
       </c>
       <c r="L599" s="6" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="600" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15233,7 +15221,7 @@
         <v>10597</v>
       </c>
       <c r="L600" s="6" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="601" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15241,7 +15229,7 @@
         <v>10598</v>
       </c>
       <c r="L601" s="6" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="602" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15249,7 +15237,7 @@
         <v>10599</v>
       </c>
       <c r="L602" s="6" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="603" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15257,7 +15245,7 @@
         <v>10600</v>
       </c>
       <c r="L603" s="6" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="604" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15265,7 +15253,7 @@
         <v>10601</v>
       </c>
       <c r="L604" s="6" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="605" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15273,7 +15261,7 @@
         <v>10602</v>
       </c>
       <c r="L605" s="6" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="606" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15281,7 +15269,7 @@
         <v>10603</v>
       </c>
       <c r="L606" s="6" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="607" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15289,7 +15277,7 @@
         <v>10604</v>
       </c>
       <c r="L607" s="6" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="608" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15297,7 +15285,7 @@
         <v>10605</v>
       </c>
       <c r="L608" s="6" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="609" spans="1:1" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7BF1A9-329C-499B-8B4F-081593BDFA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4967598-2FC3-46D9-B1A3-34E4D0279C25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="1667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2314" uniqueCount="1857">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4809,9 +4809,6 @@
     <t>EVT?[10529]</t>
   </si>
   <si>
-    <t>EVT?[10530]</t>
-  </si>
-  <si>
     <t>EVT?[10532]</t>
   </si>
   <si>
@@ -4929,353 +4926,2011 @@
     <t>EVT?[10577]</t>
   </si>
   <si>
+    <t>EVT?[10581]</t>
+  </si>
+  <si>
+    <t>EVT?[10582]</t>
+  </si>
+  <si>
+    <t>EVT?[10583]</t>
+  </si>
+  <si>
+    <t>EVT?[10584]</t>
+  </si>
+  <si>
+    <t>EVT?[10585]</t>
+  </si>
+  <si>
+    <t>EVT?[10586]</t>
+  </si>
+  <si>
+    <t>EVT?[10587]</t>
+  </si>
+  <si>
+    <t>EVT?[10593]</t>
+  </si>
+  <si>
+    <t>EVT?[10594]</t>
+  </si>
+  <si>
+    <t>EVT?[10597]</t>
+  </si>
+  <si>
+    <t>EVT?[10598]</t>
+  </si>
+  <si>
+    <t>EVT?[10599]</t>
+  </si>
+  <si>
+    <t>EVT?[10600]</t>
+  </si>
+  <si>
+    <t>EVT?[10601]</t>
+  </si>
+  <si>
+    <t>EVT?[10602]</t>
+  </si>
+  <si>
+    <t>EVT?[10603]</t>
+  </si>
+  <si>
+    <t>EVT?[10604]</t>
+  </si>
+  <si>
+    <t>EVT?[10605]</t>
+  </si>
+  <si>
+    <t>你进入流水线工厂工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10237,10025,10156,10155,10198]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每天重复的加工十分无聊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工宿舍十几个人挤在一间。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你工作攒下了一点钱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你加工零件非常熟练了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂倒闭了，厂长带着小姨子跑了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你失业了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10259,10468]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10237,10238,10239,10468]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(INT&gt;7)|(EVT?[10238,10237,10239,10468])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10239,10238,10237,10468]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10469,10473,10226]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10470,10473,10226]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10471,10473,10226]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10472,10473,10226]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10473,10226]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你四处求职，但因为太丑而找不到工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(CHR&lt;3)&amp;(EVT?[10237,10238,10239,10198,10199,10200])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你大学毕业后回村当了医生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你大学毕业后回村当了护士。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你大学毕业后回村当了老师。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10475,10476,10477]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10226,10468,10202,10259,10191,10475,10476,10477]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10475,10476,10477,10226,10468]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10475,10476,10477,10468]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10476,10001,10475,10477,10468]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10477,10475,10476,10468]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10237,10238,10239]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在乡下工作的一个好处是，没有城市里那么繁忙。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的工资虽然不高，但这份工作你挺喜欢的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孩子们很难教，基础太差了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10475]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你现在很受村民们尊重。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10477]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(CHR&gt;6)&amp;(EVT?[10475,10477])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有的病人很迷信，不听你的话。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10476,10477]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有个村民被车撞了，你连夜为他做手术。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你遭到了村民的调戏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10476]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开家长会，但来的基本都是学生的祖辈，很少有父母来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你出了套试卷，全班学生没有一个及格。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作顺利的一年，没发生什么大事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像你一样返乡工作的大学生越来越少了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村里基本只有老人和孩子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10479,10490]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你对人生有些迷茫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10484,10481]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10481,10484]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作的闲暇时，你会看看动漫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10475,10476,10477])&amp;(EVT?[10007,10008])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你退休了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10492,10001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10492,10002]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本武力攻占珍珠港。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(INT&gt;7)|(EVT?[10314])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MNY&lt;8)|(TLT?[1012])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLT?[1010,1013,1014]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MNY&gt;1)|(TLT?[1013])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLT?[1012,1014]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体质过低，胎死腹中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&lt;0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&lt;0:10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLT?[1071]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意外发现古代宗派遗宝。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偶遇筑基期散修。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他无视了你。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLT?[1048]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHR&lt;5:10497</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他嫌你长得丑，把你杀了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHR&lt;5:10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢看画面人设好看的动漫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢看剧情棒的动漫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&gt;5:20008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHR&gt;5:20007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有次你不小心摔倒撞到了脑袋，智力略微受损。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&lt;5:20028</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看在你长得可爱的份上家人不和你计较。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHR&gt;7:20029</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHR&gt;7:20035</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你大姐偷偷告诉你，她一点也不喜欢男方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的大姐自杀了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[20035]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[20036]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你轻松打上了王者。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&gt;5:20038</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你打上了黄金段位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&gt;8:20037</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然你是男孩子，但并不抗拒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10045]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(CHR&gt;6)&amp;(EVT?[10001]):20053</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有亲戚笑你画的比长的好看多了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有亲戚遗憾地说你声音很好听，可惜长得太丑了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢上了女装。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[20053]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[20054]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你业余时间在家当女装主播。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[20055]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>并且有时还接单。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&lt;6:20056</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10084,10162,10219,20056]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10084,20056]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可惜智力低了些。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&lt;3:20075</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&lt;3:20092</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你发明了颜值提升机，大幅提高了颜值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你发明了许多有用的小东西，卖了不少钱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(INT&gt;9)&amp;(CHR&lt;3):20091</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们离婚了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&lt;3:20076</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10279,20076]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10276,10279,20076]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10279,20076])|(TLT?[1047])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10280,20076]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10281,20076]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10282,10279,20076])|(TLT?[1043,1047])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10286,20076]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10287,20076]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLT?[1044]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你花钱在周边转了转，但没余力走更远了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(STR&lt;5)&amp;(MNY&gt;5):20296</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为了能和年轻人有共同语言，你开始了解潮流。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&gt;5:20317</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&gt;5:20410</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还喜欢在萌战吧、S1和bangumi茶话会发钓鱼帖。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&lt;6:20411</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还喜欢在B站评论区和人撕逼然后截图挂QQ群。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&gt;6:20412</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你经常抽时间帮爱豆刷数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&lt;8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&lt;4:20413</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你追的爱豆塌房了，被全网封禁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某外籍知名明星因强奸罪被抓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10413,20413]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10411,10413]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&lt;4:20414</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该明星恰好是你家爱豆。你崩溃了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10415]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你家没有孩子，无所谓。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你无语，你当年怎么没这么好的事儿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10237,10238,10239])&amp;(INT&lt;8):20415</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&gt;9:20417</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你寻思这也不是很难啊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&lt;2:20418</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你压根儿不知道塔利班和华盛顿是啥东西。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你压根儿不知道本·拉登是啥东西。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&lt;2:20419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后被你斥巨资购买了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(INT&lt;4)&amp;(MNY&gt;8):20421</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&gt;8:20422</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直觉告诉你事情没这么简单。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说有人在深山里发现了古装的居民。官方通报是在拍电视剧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有知情人告诉你不是交通事故，好像是一个在天上飞的人……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(CHR&gt;8)|(MNY&gt;8):20423</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&gt;7:20425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&gt;9:20425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你意识到这场地震并不寻常……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但据你所知，并没有出动军队和武器，好像只派了少量的“人”？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(CHR&gt;8)&amp;(MNY&gt;8):20426</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VR技术突破，用户可以意识进入虚拟空间。目前该技术还未进入民用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你认为这是虚假消息。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&gt;9:10431</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&gt;6:20432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游哈米发布次时代手游大作《神原》。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你试着玩了玩并且充了点钱，啥好角色都抽不到。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&gt;7:20432</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还好你不玩网易游戏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笑死，一个都不生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT![10268,10269,10272]:20436</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT![10268,10269,10272]:20416</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你终于可以呼吸到新鲜空气了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&gt;2:20437</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说他们没有使用飞机、舰船和炮弹。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(CHR&gt;8)&amp;(STR&gt;8):20439</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但你家还是很穷。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MNY&lt;4)&amp;(SPR&lt;4):20443</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但你家还是很穷，而且也不算幸福。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&lt;3:20444</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MNY&lt;4)&amp;(TLT![1010]):20452</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可恶的天龙人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你感觉又有乐子了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(SPR&gt;6)&amp;(INT&gt;2):20453</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你感觉太离谱了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&lt;4:20448</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你预测那里还存在一种花，吃了可以发射火球。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10009]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10188,10194]:20454</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百合豚狂喜。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10007,10008])&amp;(TLT![1026]):20456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你觉得太荒谬了，简直像玄幻小说。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&lt;4:20459</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你有点失忆，忘掉了不少东西。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你突然感觉人生无憾了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPR&gt;6:20460</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10011]</t>
+  </si>
+  <si>
+    <t>EVT?[10011]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母经常带你去附近的公园和大学校园玩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你喜欢在图书馆的儿童区和别的小朋友一起玩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母同时教你英语和汉语。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母开始用照片和日记记录下你的点点滴滴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里很有钱，父母所有东西都为你准备最好的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MNY&gt;7)&amp;(EVT?[10011])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MNY&lt;4)&amp;(EVT?[10011])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里很穷，但父母尽力为你准备更好的生活。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你开始上幼儿园。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MNY&gt;3)&amp;(EVT?[10011])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你上不起幼儿园，父母开始教你学习。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每天和小朋友、老师们玩游戏、做手工、唱歌跳舞。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10504]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周一次的看动画片时间是你的最爱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母给你买了一书架的启蒙童书。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的父母请了家教来教你游泳。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的父母请了家教来教你弹钢琴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的父母请了家教来教你法语。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的父母请了家教来教你西班牙语。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10511,10512]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10507]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10505]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你平时很少出门，因为父母说外面很危险。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附近发生了一起枪击案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母说要好好学习，考上好大学离开这里。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你比同龄人学了更多的知识。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的父亲在地铁上被暴徒攻击，受了伤。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(INT&gt;5)&amp;(EVT?[10011])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你比其他同学更聪明，学得更快懂得更多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师很喜欢你。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然你是亚裔，但你没有感觉有什么不同。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有好几个小朋友向你表白。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(CHR&gt;6)&amp;(EVT?[10011])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班上的几个非裔同学经常欺负你。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在家中主要用中文交流，在学校都用英文。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的运动很棒，同学们都很崇拜你。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(STR&gt;7)&amp;(EVT?[10011])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(STR&lt;7)&amp;(CHR&lt;7)&amp;(EVT?[10505])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为你的成绩最好，老师允许你躺在班上的秋千椅上听课。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(INT&gt;6)&amp;(EVT?[10504])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课堂上经常做小实验。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有次整整一天，老师带你们出去观察昆虫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10009])&amp;(CHR&lt;3):20048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10009])&amp;(CHR&lt;3):20049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(INT&gt;6)&amp;(EVT?[10011])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师夸你的数学和科学知识已经不比中学生差了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校举办唱歌比赛。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10049]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你拿了第一名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10049]:20529</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在学校经常运动，身体越来越棒。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班上没有几个白人同学，而会说汉语的有好几个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班上有个男孩欺负一个女孩，你勇敢站出来制止了他。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(STR&gt;4)&amp;(EVT?[10504])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10522])|(TLT![1037])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们班里又转来一个中国学生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母的事业非常成功，家境变得更好了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父母的事业取得了一定成功，家境有所好转。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师教你们操作电脑，但你早就会了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有两个学生在班上抽烟，但老师不敢管。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老师有时会带来一大堆零食，分给所有同学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们把座位布置成了法庭，举行了一场模拟辩论。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你上了一个著名的贵族中学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你上了一个普通的中学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MNY&lt;8)&amp;(EVT?[10011])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的课业很重，学校里的活动也很多，生活非常充实。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10541]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课业很轻松，几乎没有作业，每天下午放学就有各种活动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10542]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你很喜欢放学或周末在学校玩滑雪和曲棍球。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(STR&gt;2)&amp;(EVT?[10541])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在学校学会了骑马和高尔夫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(INT&gt;2)&amp;(STR&gt;2)&amp;(EVT?[10541])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你中午经常在图书馆和另外两个华裔同学一起学习。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的同班同学中有著名球星的儿子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的同班同学中有著名明星的女儿、著名银行家的小儿子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的同班同学中有著名政客的女儿和某小国皇室的王子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10548,10549,10550]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10546]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然课余活动很丰富，不过同学们学习都很认真。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校组织了一场去欧洲的旅行。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你参演了一场戏剧演出。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同学们大多自信幽默大方，平易近人。你和他们相处融洽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回到家父母会给你额外的学习任务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你家的扫地机器人坏了，你自己制作了一个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&gt;7:20557</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你父母在家给你买了一台天文望远镜。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你经常晚上去学校天文台用望远镜看星星。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你参加了学校的舞会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHR&gt;7:20558</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你过人的颜值和舞技让你成为万众瞩目。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多同学找你求交往。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[20558]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不少同学找你求交往。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(TLT?[1028])&amp;(EVT?[10011])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你谈了一个女朋友。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你谈了一个男朋友。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10011])&amp;((EVT?[10001,10110,10111])|(TLT?[1026]))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10011])&amp;((EVT?[10002,10110,10111])|(TLT?[1026]))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10561])|(TLT?[1027])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校生活很快乐，每天大多数时间都在玩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MNY&gt;2)&amp;(INT&gt;7)&amp;(EVT?[10011])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个从中国转学来的同学说，这里的考试比中国简单多了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校举办为期一学期的模拟创业活动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的创业最成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MNY&gt;7)&amp;(INT&gt;7):20565</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国总统来你们学校演讲。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们学校新开设了保龄球选修课。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你考得很差。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但你还是考了第一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这次期末考试很难。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你考得一般。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&lt;3:20568</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&gt;8:20569</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在学校选修了日语。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10011])&amp;(EVT?[10007,10008])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教室里有个浴缸，经常有同学躺在浴缸里听课。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美术和音乐教室里的地毯非常好看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学校要求每个同学自带平板电脑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你父母忍痛给你买了一个。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MNY&lt;3:20572</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教室里有很多金鱼，每人都认养了一只。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你感觉非常难。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虽然比平时做的难，但还是都做出来了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你父母拿了份中国中考数学卷给你做。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&gt;8:20575</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&lt;7:20574</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你觉得有些难。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>据说附近发生了一起枪击案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在上学路上遭遇了枪击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10505]:10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在上学路上看到很多流浪汉和瘾君子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLT?[1072]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你身手敏捷，侥幸逃得一命。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&gt;9:20576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(INT&lt;7)&amp;(EVT?[10542])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你跟随父母回中国了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你考上了世界名校。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你考上了哈佛大学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你考上了耶鲁大学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你考上了麻省理工大学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你考上了加州伯克利。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你考上了斯坦福大学。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(INT&gt;8)&amp;(EVT?[10011])</t>
+  </si>
+  <si>
+    <t>(INT&gt;8)&amp;(EVT?[10011])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10579,10578]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10580]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的一个熟悉的同学因为压力太大退学了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10579,10580,10581,10582,10583,10584]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你以留学生身份被北京大学录取。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你以留学生身份被清华大学录取。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EVT?[10578]</t>
-  </si>
-  <si>
-    <t>EVT?[10581]</t>
-  </si>
-  <si>
-    <t>EVT?[10582]</t>
-  </si>
-  <si>
-    <t>EVT?[10583]</t>
-  </si>
-  <si>
-    <t>EVT?[10584]</t>
-  </si>
-  <si>
-    <t>EVT?[10585]</t>
-  </si>
-  <si>
-    <t>EVT?[10586]</t>
-  </si>
-  <si>
-    <t>EVT?[10587]</t>
-  </si>
-  <si>
-    <t>EVT?[10588]</t>
-  </si>
-  <si>
-    <t>EVT?[10589]</t>
-  </si>
-  <si>
-    <t>EVT?[10590]</t>
-  </si>
-  <si>
-    <t>EVT?[10591]</t>
-  </si>
-  <si>
-    <t>EVT?[10592]</t>
-  </si>
-  <si>
-    <t>EVT?[10593]</t>
-  </si>
-  <si>
-    <t>EVT?[10594]</t>
-  </si>
-  <si>
-    <t>EVT?[10595]</t>
-  </si>
-  <si>
-    <t>EVT?[10596]</t>
-  </si>
-  <si>
-    <t>EVT?[10597]</t>
-  </si>
-  <si>
-    <t>EVT?[10598]</t>
-  </si>
-  <si>
-    <t>EVT?[10599]</t>
-  </si>
-  <si>
-    <t>EVT?[10600]</t>
-  </si>
-  <si>
-    <t>EVT?[10601]</t>
-  </si>
-  <si>
-    <t>EVT?[10602]</t>
-  </si>
-  <si>
-    <t>EVT?[10603]</t>
-  </si>
-  <si>
-    <t>EVT?[10604]</t>
-  </si>
-  <si>
-    <t>EVT?[10605]</t>
-  </si>
-  <si>
-    <t>你进入流水线工厂工作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10237,10025,10156,10155,10198]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每天重复的加工十分无聊。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>员工宿舍十几个人挤在一间。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你工作攒下了一点钱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你加工零件非常熟练了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工厂倒闭了，厂长带着小姨子跑了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你失业了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10259,10468]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10237,10238,10239,10468]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(INT&gt;7)|(EVT?[10238,10237,10239,10468])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10239,10238,10237,10468]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10469,10473,10226]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10470,10473,10226]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10471,10473,10226]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10472,10473,10226]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10473,10226]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你四处求职，但因为太丑而找不到工作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(CHR&lt;3)&amp;(EVT?[10237,10238,10239,10198,10199,10200])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你大学毕业后回村当了医生。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你大学毕业后回村当了护士。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你大学毕业后回村当了老师。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10475,10476,10477]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10226,10468,10202,10259,10191,10475,10476,10477]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10475,10476,10477,10226,10468]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10475,10476,10477,10468]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10476,10001,10475,10477,10468]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10477,10475,10476,10468]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10237,10238,10239]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在乡下工作的一个好处是，没有城市里那么繁忙。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的工资虽然不高，但这份工作你挺喜欢的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孩子们很难教，基础太差了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10475]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你现在很受村民们尊重。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10477]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(CHR&gt;6)&amp;(EVT?[10475,10477])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有的病人很迷信，不听你的话。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10476,10477]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有个村民被车撞了，你连夜为他做手术。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你遭到了村民的调戏。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10476]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开家长会，但来的基本都是学生的祖辈，很少有父母来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你出了套试卷，全班学生没有一个及格。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作顺利的一年，没发生什么大事。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>像你一样返乡工作的大学生越来越少了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>村里基本只有老人和孩子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10479,10490]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你对人生有些迷茫。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10484,10481]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10481,10484]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作的闲暇时，你会看看动漫。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(EVT?[10475,10476,10477])&amp;(EVT?[10007,10008])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你退休了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10492,10001]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10492,10002]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日本武力攻占珍珠港。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(INT&gt;7)|(EVT?[10314])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(MNY&lt;8)|(TLT?[1012])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLT?[1010,1013,1014]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(MNY&gt;1)|(TLT?[1013])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLT?[1012,1014]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体质过低，胎死腹中。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR&lt;0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR&lt;0:10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLT?[1071]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>意外发现古代宗派遗宝。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偶遇筑基期散修。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他无视了你。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLT?[1073]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(TLT?[1073])&amp;(INT&gt;5)&amp;(EVT?[10011])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无事发生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLT?[1103]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLT?[1105]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLT?[1104]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间跳跃。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你第一次吃肯德基。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MNY&lt;6)&amp;(EVT?[10011])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你家比较穷，经常只能吃麦当劳等垃圾食品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(TLT?[1106])|(MNY&lt;2)|(EVT?[10591])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(TLT?[1106])|(EVT?[10592])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你几乎每天都在图书馆学习到半夜。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣诞节，有学生制造出了无人机雪橇派送礼物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在舞会上结识了一个漂亮的女生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在舞会上结识了一个帅气的男生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10579,10580,10581,10582,10583,10584]</t>
+  </si>
+  <si>
+    <t>(EVT?[10579,10580,10581,10582,10583,10584])&amp;((EVT?[10001,10110,10111])|(TLT?[1026]))</t>
+  </si>
+  <si>
+    <t>(EVT?[10579,10580,10581,10582,10583,10584])&amp;((EVT?[10002,10110,10111])|(TLT?[1026]))</t>
+  </si>
+  <si>
+    <t>(EVT?[10595,10596])|(TLT?[1027])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10596,10595])|(TLT?[1027])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们谈了一阵子恋爱后分手了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很快你们便确定了关系。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHR&gt;7:20596</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你去友校做了一年交换生。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习压力很大，你向学校心理咨询处咨询。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验项目繁多，论文你总是卡着时间才写完。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你总会抽时间去健身房，保证身体健康。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个从中国来的同学比你还忙，因为他还要抽时间打工。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你拿到了奖学金。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的生日派对有很多朋友来参加。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(CHR&gt;3)&amp;(EVT?[10579,10580,10581,10582,10583,10584])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在一个角落的墙上看到非常艺术感的涂鸦。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你阅读了很多中外的文学作品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你对金融和计算机都十分擅长。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你前往硅谷创业。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你前往华尔街工作，年收入约几十万刀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在导师的实验室搞科研。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10606]</t>
+  </si>
+  <si>
+    <t>EVT?[10608]</t>
+  </si>
+  <si>
+    <t>EVT?[10609]</t>
+  </si>
+  <si>
+    <t>EVT?[10610]</t>
+  </si>
+  <si>
+    <t>EVT?[10613]</t>
+  </si>
+  <si>
+    <t>EVT?[10614]</t>
+  </si>
+  <si>
+    <t>EVT?[10615]</t>
+  </si>
+  <si>
+    <t>EVT?[10616]</t>
+  </si>
+  <si>
+    <t>EVT?[10617]</t>
+  </si>
+  <si>
+    <t>EVT?[10618]</t>
+  </si>
+  <si>
+    <t>EVT?[10619]</t>
+  </si>
+  <si>
+    <t>EVT?[10620]</t>
+  </si>
+  <si>
+    <t>EVT?[10622]</t>
+  </si>
+  <si>
+    <t>EVT?[10623]</t>
+  </si>
+  <si>
+    <t>EVT?[10624]</t>
+  </si>
+  <si>
+    <t>EVT?[10625]</t>
+  </si>
+  <si>
+    <t>EVT?[10626]</t>
+  </si>
+  <si>
+    <t>EVT?[10627]</t>
+  </si>
+  <si>
+    <t>EVT?[10628]</t>
+  </si>
+  <si>
+    <t>EVT?[10629]</t>
+  </si>
+  <si>
+    <t>EVT?[10630]</t>
+  </si>
+  <si>
+    <t>EVT?[10631]</t>
+  </si>
+  <si>
+    <t>EVT?[10632]</t>
+  </si>
+  <si>
+    <t>EVT?[10633]</t>
+  </si>
+  <si>
+    <t>EVT?[10634]</t>
+  </si>
+  <si>
+    <t>EVT?[10635]</t>
+  </si>
+  <si>
+    <t>EVT?[10636]</t>
+  </si>
+  <si>
+    <t>EVT?[10637]</t>
+  </si>
+  <si>
+    <t>EVT?[10638]</t>
+  </si>
+  <si>
+    <t>EVT?[10639]</t>
+  </si>
+  <si>
+    <t>EVT?[10640]</t>
+  </si>
+  <si>
+    <t>EVT?[10641]</t>
+  </si>
+  <si>
+    <t>EVT?[10642]</t>
+  </si>
+  <si>
+    <t>EVT?[10643]</t>
+  </si>
+  <si>
+    <t>EVT?[10644]</t>
+  </si>
+  <si>
+    <t>EVT?[10607,10608,10609]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10606]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(MNY&gt;8)&amp;(EVT?[10606])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[20596]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你和一个同事结婚了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你和一个你很满意的对象结婚了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10612])|(TLT?[1027])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10611,20596])|(TLT?[1027])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有家里的资金和人脉支持，你的创业非常成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10608]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你结识了许多同学和父母介绍的商业伙伴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你非常努力，在社交之中成长很快。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的公司越做越大，完成了多轮融资，用户数也突破了千万。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的公司产品用户数破百万。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你请了几位中学大学时的朋友加入你的公司。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的公司产品用户数破亿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的公司上市了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的孩子出生了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10621])|(TLT?[1041,1046])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10610,10611,10612]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的爱人也来你的公司工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你买了几辆数百万、上千万的豪车。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在几座大城市都购入了豪宅，还买了海边别墅。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你创立了好几家公司。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不再直接参与公司决策，退居幕后。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被福布斯评为美国最年轻的百亿富豪排名第一。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你收购了好几家创业公司。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你开始投资房地产。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你开始投资AI、VR和游戏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你开始投资动漫产业。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你开始投资体育、影视产业。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10608])&amp;(EVT?[10007,10008])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你像你父母一样给了孩子最丰厚的条件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10621]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你希望孩子未来和你一样努力成为精英。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被评为本世代十大科技人物。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的工作现在很轻松，大多数时间都在家带娃。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们一家搬家到了瑞士。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟现实技术已经非常成熟，你玩的兴趣不大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们家每年光保险开销就比普通美国人一辈子的收入还多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10645]</t>
+  </si>
+  <si>
+    <t>EVT?[10646]</t>
+  </si>
+  <si>
+    <t>EVT?[10647]</t>
+  </si>
+  <si>
+    <t>EVT?[10648]</t>
+  </si>
+  <si>
+    <t>EVT?[10653]</t>
+  </si>
+  <si>
+    <t>EVT?[10654]</t>
+  </si>
+  <si>
+    <t>EVT?[10655]</t>
+  </si>
+  <si>
+    <t>EVT?[10658]</t>
+  </si>
+  <si>
+    <t>EVT?[10659]</t>
+  </si>
+  <si>
+    <t>EVT?[10660]</t>
+  </si>
+  <si>
+    <t>EVT?[10661]</t>
+  </si>
+  <si>
+    <t>EVT?[10662]</t>
+  </si>
+  <si>
+    <t>EVT?[10663]</t>
+  </si>
+  <si>
+    <t>EVT?[10664]</t>
+  </si>
+  <si>
+    <t>(EVT?[10608])&amp;(EVT?[10621])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们一家去了欧洲各国旅游。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们一家去了澳大利亚和新西兰旅游。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们一家去了东南亚旅游。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们一家去了埃及和阿联酋旅游。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们一家去了夏威夷旅游。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你们一家去了中国旅游。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你成为了世界首富。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的孩子也考上了世界名校。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你到东京大学、清华大学、香港大学等学府演讲《我的努力》。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的父亲去世。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的母亲去世。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10011]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的父亲因心脏病去世。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的母亲因心血管疾病去世。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10649,10651]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10650,10652]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10651,10649])|(TLT?[1044])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10652,10650])|(TLT?[1044])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的爱人因病去世。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的孙儿出生了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你住在庄园里，围绕着最新科技，过着养老生活。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10646,10655]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你因病医治无效去世。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在睡梦中安然离世。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10011]:10000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5283,1129 +6938,150 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CHR&lt;5:10497</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他嫌你长得丑，把你杀了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHR&lt;5:10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你喜欢看画面人设好看的动漫。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你喜欢看剧情棒的动漫。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&gt;5:20008</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHR&gt;5:20007</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有次你不小心摔倒撞到了脑袋，智力略微受损。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR&lt;5:20028</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看在你长得可爱的份上家人不和你计较。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHR&gt;7:20029</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHR&gt;7:20035</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你大姐偷偷告诉你，她一点也不喜欢男方。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的大姐自杀了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[20035]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[20036]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你轻松打上了王者。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&gt;5:20038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你打上了黄金段位。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&gt;8:20037</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虽然你是男孩子，但并不抗拒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10045]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(CHR&gt;6)&amp;(EVT?[10001]):20053</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有亲戚笑你画的比长的好看多了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有亲戚遗憾地说你声音很好听，可惜长得太丑了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你喜欢上了女装。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[20053]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[20054]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你业余时间在家当女装主播。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[20055]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>并且有时还接单。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNY&lt;6:20056</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10084,10162,10219,20056]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10084,20056]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可惜智力低了些。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&lt;3:20075</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNY&lt;3:20092</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你发明了颜值提升机，大幅提高了颜值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你发明了许多有用的小东西，卖了不少钱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(INT&gt;9)&amp;(CHR&lt;3):20091</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你们离婚了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPR&lt;3:20076</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10279,20076]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10276,10279,20076]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(EVT?[10279,20076])|(TLT?[1047])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10280,20076]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10281,20076]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(EVT?[10282,10279,20076])|(TLT?[1043,1047])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10286,20076]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10287,20076]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLT?[1044]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你花钱在周边转了转，但没余力走更远了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(STR&lt;5)&amp;(MNY&gt;5):20296</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为了能和年轻人有共同语言，你开始了解潮流。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&gt;5:20317</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR&gt;5:20410</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你还喜欢在萌战吧、S1和bangumi茶话会发钓鱼帖。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&lt;6:20411</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你还喜欢在B站评论区和人撕逼然后截图挂QQ群。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR&gt;6:20412</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你经常抽时间帮爱豆刷数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNY&lt;8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&lt;4:20413</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你追的爱豆塌房了，被全网封禁。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>某外籍知名明星因强奸罪被抓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10413,20413]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10411,10413]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&lt;4:20414</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该明星恰好是你家爱豆。你崩溃了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10415]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你家没有孩子，无所谓。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你无语，你当年怎么没这么好的事儿。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(EVT?[10237,10238,10239])&amp;(INT&lt;8):20415</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR&gt;9:20417</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你寻思这也不是很难啊。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&lt;2:20418</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你压根儿不知道塔利班和华盛顿是啥东西。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你压根儿不知道本·拉登是啥东西。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&lt;2:20419</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后被你斥巨资购买了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(INT&lt;4)&amp;(MNY&gt;8):20421</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&gt;8:20422</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>直觉告诉你事情没这么简单。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>据说有人在深山里发现了古装的居民。官方通报是在拍电视剧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有知情人告诉你不是交通事故，好像是一个在天上飞的人……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(CHR&gt;8)|(MNY&gt;8):20423</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPR&gt;7:20425</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPR&gt;9:20425</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你意识到这场地震并不寻常……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但据你所知，并没有出动军队和武器，好像只派了少量的“人”？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(CHR&gt;8)&amp;(MNY&gt;8):20426</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VR技术突破，用户可以意识进入虚拟空间。目前该技术还未进入民用。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你认为这是虚假消息。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&gt;9:10431</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNY&gt;6:20432</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游哈米发布次时代手游大作《神原》。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你试着玩了玩并且充了点钱，啥好角色都抽不到。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPR&gt;7:20432</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还好你不玩网易游戏。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>笑死，一个都不生。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT![10268,10269,10272]:20436</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT![10268,10269,10272]:20416</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你终于可以呼吸到新鲜空气了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR&gt;2:20437</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>据说他们没有使用飞机、舰船和炮弹。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(CHR&gt;8)&amp;(STR&gt;8):20439</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但你家还是很穷。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(MNY&lt;4)&amp;(SPR&lt;4):20443</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但你家还是很穷，而且也不算幸福。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNY&lt;3:20444</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(MNY&lt;4)&amp;(TLT![1010]):20452</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可恶的天龙人。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你感觉又有乐子了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(SPR&gt;6)&amp;(INT&gt;2):20453</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你感觉太离谱了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNY&lt;4:20448</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你预测那里还存在一种花，吃了可以发射火球。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10009]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10188,10194]:20454</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百合豚狂喜。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(EVT?[10007,10008])&amp;(TLT![1026]):20456</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你觉得太荒谬了，简直像玄幻小说。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&lt;4:20459</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你有点失忆，忘掉了不少东西。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你突然感觉人生无憾了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPR&gt;6:20460</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10011]</t>
-  </si>
-  <si>
-    <t>EVT?[10011]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父母经常带你去附近的公园和大学校园玩。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你喜欢在图书馆的儿童区和别的小朋友一起玩。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父母同时教你英语和汉语。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父母开始用照片和日记记录下你的点点滴滴。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家里很有钱，父母所有东西都为你准备最好的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(MNY&gt;7)&amp;(EVT?[10011])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(MNY&lt;4)&amp;(EVT?[10011])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>家里很穷，但父母尽力为你准备更好的生活。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你开始上幼儿园。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(MNY&gt;3)&amp;(EVT?[10011])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你上不起幼儿园，父母开始教你学习。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你每天和小朋友、老师们玩游戏、做手工、唱歌跳舞。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10504]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每周一次的看动画片时间是你的最爱。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父母给你买了一书架的启蒙童书。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的父母请了家教来教你游泳。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的父母请了家教来教你弹钢琴。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的父母请了家教来教你法语。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的父母请了家教来教你西班牙语。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10511,10512]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10507]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10505]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你平时很少出门，因为父母说外面很危险。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>附近发生了一起枪击案。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父母说要好好学习，考上好大学离开这里。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你比同龄人学了更多的知识。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的父亲在地铁上被暴徒攻击，受了伤。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(INT&gt;5)&amp;(EVT?[10011])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你比其他同学更聪明，学得更快懂得更多。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师很喜欢你。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虽然你是亚裔，但你没有感觉有什么不同。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有好几个小朋友向你表白。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(CHR&gt;6)&amp;(EVT?[10011])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班上的几个非裔同学经常欺负你。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你在家中主要用中文交流，在学校都用英文。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的运动很棒，同学们都很崇拜你。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(STR&gt;7)&amp;(EVT?[10011])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(STR&lt;7)&amp;(CHR&lt;7)&amp;(EVT?[10505])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为你的成绩最好，老师允许你躺在班上的秋千椅上听课。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(INT&gt;6)&amp;(EVT?[10504])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课堂上经常做小实验。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有次整整一天，老师带你们出去观察昆虫。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(EVT?[10009])&amp;(CHR&lt;3):20048</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(EVT?[10009])&amp;(CHR&lt;3):20049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(INT&gt;6)&amp;(EVT?[10011])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师夸你的数学和科学知识已经不比中学生差了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校举办唱歌比赛。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10049]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你拿了第一名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10049]:20529</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在学校经常运动，身体越来越棒。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班上没有几个白人同学，而会说汉语的有好几个。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班上有个男孩欺负一个女孩，你勇敢站出来制止了他。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(STR&gt;4)&amp;(EVT?[10504])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(EVT?[10522])|(TLT![1037])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你们班里又转来一个中国学生。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父母的事业非常成功，家境变得更好了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父母的事业取得了一定成功，家境有所好转。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师教你们操作电脑，但你早就会了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有两个学生在班上抽烟，但老师不敢管。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>老师有时会带来一大堆零食，分给所有同学。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你们把座位布置成了法庭，举行了一场模拟辩论。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你上了一个著名的贵族中学。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你上了一个普通的中学。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(MNY&lt;8)&amp;(EVT?[10011])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的课业很重，学校里的活动也很多，生活非常充实。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10541]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>课业很轻松，几乎没有作业，每天下午放学就有各种活动。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10542]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你很喜欢放学或周末在学校玩滑雪和曲棍球。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(STR&gt;2)&amp;(EVT?[10541])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你在学校学会了骑马和高尔夫。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(INT&gt;2)&amp;(STR&gt;2)&amp;(EVT?[10541])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你中午经常在图书馆和另外两个华裔同学一起学习。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的同班同学中有著名球星的儿子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的同班同学中有著名明星的女儿、著名银行家的小儿子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的同班同学中有著名政客的女儿和某小国皇室的王子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10548,10549,10550]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10546]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虽然课余活动很丰富，不过同学们学习都很认真。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校组织了一场去欧洲的旅行。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你参演了一场戏剧演出。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同学们大多自信幽默大方，平易近人。你和他们相处融洽。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回到家父母会给你额外的学习任务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你家的扫地机器人坏了，你自己制作了一个。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNY&gt;7:20557</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你父母在家给你买了一台天文望远镜。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你经常晚上去学校天文台用望远镜看星星。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你参加了学校的舞会。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CHR&gt;7:20558</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你过人的颜值和舞技让你成为万众瞩目。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>很多同学找你求交往。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[20558]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不少同学找你求交往。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(TLT?[1028])&amp;(EVT?[10011])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你谈了一个女朋友。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你谈了一个男朋友。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(EVT?[10011])&amp;((EVT?[10001,10110,10111])|(TLT?[1026]))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(EVT?[10011])&amp;((EVT?[10002,10110,10111])|(TLT?[1026]))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(EVT?[10561])|(TLT?[1027])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校生活很快乐，每天大多数时间都在玩。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(MNY&gt;2)&amp;(INT&gt;7)&amp;(EVT?[10011])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个从中国转学来的同学说，这里的考试比中国简单多了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校举办为期一学期的模拟创业活动。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的创业最成功。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(MNY&gt;7)&amp;(INT&gt;7):20565</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美国总统来你们学校演讲。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你们学校新开设了保龄球选修课。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你考得很差。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但你还是考了第一。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这次期末考试很难。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你考得一般。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&lt;3:20568</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&gt;8:20569</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你在学校选修了日语。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(EVT?[10011])&amp;(EVT?[10007,10008])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教室里有个浴缸，经常有同学躺在浴缸里听课。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美术和音乐教室里的地毯非常好看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学校要求每个同学自带平板电脑。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你父母忍痛给你买了一个。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MNY&lt;3:20572</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教室里有很多金鱼，每人都认养了一只。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你感觉非常难。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虽然比平时做的难，但还是都做出来了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你父母拿了份中国中考数学卷给你做。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&gt;8:20575</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT&lt;7:20574</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你觉得有些难。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>据说附近发生了一起枪击案。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你在上学路上遭遇了枪击。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10505]:10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你在上学路上看到很多流浪汉和瘾君子。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLT?[1072]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你身手敏捷，侥幸逃得一命。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>STR&gt;9:20576</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(INT&lt;7)&amp;(EVT?[10542])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你跟随父母回中国了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你考上了世界名校。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你考上了哈佛大学。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你考上了耶鲁大学。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你考上了麻省理工大学。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你考上了加州伯克利。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你考上了斯坦福大学。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(INT&gt;8)&amp;(EVT?[10011])</t>
-  </si>
-  <si>
-    <t>(INT&gt;8)&amp;(EVT?[10011])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10579,10578]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10580]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的一个熟悉的同学因为压力太大退学了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10579,10580,10581,10582,10583,10584]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你以留学生身份被北京大学录取。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你以留学生身份被清华大学录取。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[10578]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TLT?[1073]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(TLT?[1073])&amp;(INT&gt;5)&amp;(EVT?[10011])</t>
+    <t>EVT?[10608,10607]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你财务自由，购买了名车和豪宅。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10607]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你申请了死后冷冻尸体的服务，希望有朝一日能复活。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10609]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10665]</t>
+  </si>
+  <si>
+    <t>EVT?[10666]</t>
+  </si>
+  <si>
+    <t>EVT?[10667]</t>
+  </si>
+  <si>
+    <t>EVT?[10668]</t>
+  </si>
+  <si>
+    <t>EVT?[10669]</t>
+  </si>
+  <si>
+    <t>EVT?[10670]</t>
+  </si>
+  <si>
+    <t>EVT?[10671]</t>
+  </si>
+  <si>
+    <t>EVT?[10672]</t>
+  </si>
+  <si>
+    <t>EVT?[10673]</t>
+  </si>
+  <si>
+    <t>EVT?[10674]</t>
+  </si>
+  <si>
+    <t>EVT?[10675]</t>
+  </si>
+  <si>
+    <t>EVT?[10676]</t>
+  </si>
+  <si>
+    <t>EVT?[10677]</t>
+  </si>
+  <si>
+    <t>EVT?[10678]</t>
+  </si>
+  <si>
+    <t>EVT?[10679]</t>
+  </si>
+  <si>
+    <t>EVT?[10680]</t>
+  </si>
+  <si>
+    <t>EVT?[10681]</t>
+  </si>
+  <si>
+    <t>EVT?[10682]</t>
+  </si>
+  <si>
+    <t>EVT?[10683]</t>
+  </si>
+  <si>
+    <t>EVT?[10684]</t>
+  </si>
+  <si>
+    <t>EVT?[10685]</t>
+  </si>
+  <si>
+    <t>EVT?[10686]</t>
+  </si>
+  <si>
+    <t>EVT?[10687]</t>
+  </si>
+  <si>
+    <t>EVT?[10688]</t>
+  </si>
+  <si>
+    <t>EVT?[10689]</t>
+  </si>
+  <si>
+    <t>EVT?[10690]</t>
+  </si>
+  <si>
+    <t>EVT?[10691]</t>
+  </si>
+  <si>
+    <t>EVT?[10692]</t>
+  </si>
+  <si>
+    <t>EVT?[10693]</t>
+  </si>
+  <si>
+    <t>EVT?[10694]</t>
+  </si>
+  <si>
+    <t>EVT?[10695]</t>
+  </si>
+  <si>
+    <t>EVT?[10696]</t>
+  </si>
+  <si>
+    <t>EVT?[10697]</t>
+  </si>
+  <si>
+    <t>EVT?[10698]</t>
+  </si>
+  <si>
+    <t>EVT?[10699]</t>
+  </si>
+  <si>
+    <t>EVT?[10700]</t>
+  </si>
+  <si>
+    <t>EVT?[10701]</t>
+  </si>
+  <si>
+    <t>EVT?[10702]</t>
+  </si>
+  <si>
+    <t>EVT?[10703]</t>
+  </si>
+  <si>
+    <t>EVT?[10704]</t>
+  </si>
+  <si>
+    <t>EVT?[10705]</t>
+  </si>
+  <si>
+    <t>EVT?[10530,10531]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7003,13 +7679,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N670"/>
+  <dimension ref="A1:N772"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K631" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="D581" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L642" sqref="L642"/>
+      <selection pane="bottomRight" activeCell="B584" sqref="B584:B585"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7238,10 +7914,10 @@
         <v>107</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>1391</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7258,10 +7934,10 @@
         <v>107</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>1390</v>
+        <v>1381</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>1391</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7269,7 +7945,7 @@
         <v>20007</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1388</v>
+        <v>1379</v>
       </c>
       <c r="J12" s="5">
         <v>1</v>
@@ -7280,7 +7956,7 @@
         <v>20008</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1389</v>
+        <v>1380</v>
       </c>
       <c r="J13" s="5">
         <v>1</v>
@@ -7294,10 +7970,10 @@
         <v>26</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>1373</v>
+        <v>1364</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>1374</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7308,10 +7984,10 @@
         <v>27</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>1375</v>
+        <v>1366</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>1376</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7659,10 +8335,10 @@
         <v>151</v>
       </c>
       <c r="M33" s="7" t="s">
-        <v>1395</v>
+        <v>1386</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>1393</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7670,7 +8346,7 @@
         <v>20028</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>1392</v>
+        <v>1383</v>
       </c>
       <c r="E34" s="5">
         <v>-1</v>
@@ -7684,7 +8360,7 @@
         <v>20029</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>1394</v>
+        <v>1385</v>
       </c>
       <c r="J35" s="5">
         <v>1</v>
@@ -7827,7 +8503,7 @@
         <v>106</v>
       </c>
       <c r="M42" s="7" t="s">
-        <v>1396</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7835,7 +8511,7 @@
         <v>20035</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1397</v>
+        <v>1388</v>
       </c>
       <c r="J43" s="5">
         <v>1</v>
@@ -7846,16 +8522,16 @@
         <v>20036</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>1398</v>
+        <v>1389</v>
       </c>
       <c r="H44" s="5">
         <v>-1</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>1399</v>
+        <v>1390</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>1400</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7875,10 +8551,10 @@
         <v>112</v>
       </c>
       <c r="M45" s="7" t="s">
-        <v>1404</v>
+        <v>1395</v>
       </c>
       <c r="N45" s="8" t="s">
-        <v>1402</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -7886,7 +8562,7 @@
         <v>20037</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>1401</v>
+        <v>1392</v>
       </c>
       <c r="H46" s="5">
         <v>1</v>
@@ -7900,7 +8576,7 @@
         <v>20038</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>1403</v>
+        <v>1394</v>
       </c>
       <c r="J47" s="5">
         <v>1</v>
@@ -8074,7 +8750,7 @@
         <v>499</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>1406</v>
+        <v>1397</v>
       </c>
       <c r="M56" s="7" t="s">
         <v>133</v>
@@ -8122,7 +8798,7 @@
         <v>104</v>
       </c>
       <c r="M59" s="7" t="s">
-        <v>1555</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8130,7 +8806,7 @@
         <v>20048</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>1408</v>
+        <v>1399</v>
       </c>
       <c r="J60" s="5">
         <v>1</v>
@@ -8144,10 +8820,10 @@
         <v>137</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>1560</v>
+        <v>1551</v>
       </c>
       <c r="M61" s="7" t="s">
-        <v>1556</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8155,7 +8831,7 @@
         <v>20049</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>1409</v>
+        <v>1400</v>
       </c>
       <c r="J62" s="5">
         <v>1</v>
@@ -8217,7 +8893,7 @@
         <v>154</v>
       </c>
       <c r="M66" s="7" t="s">
-        <v>1407</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8225,7 +8901,7 @@
         <v>20053</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1405</v>
+        <v>1396</v>
       </c>
       <c r="J67" s="5">
         <v>1</v>
@@ -8236,7 +8912,7 @@
         <v>20054</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>1410</v>
+        <v>1401</v>
       </c>
       <c r="D68" s="5">
         <v>1</v>
@@ -8245,10 +8921,10 @@
         <v>1</v>
       </c>
       <c r="K68" s="6" t="s">
-        <v>1411</v>
+        <v>1402</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>1412</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8256,19 +8932,19 @@
         <v>20055</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>1413</v>
+        <v>1404</v>
       </c>
       <c r="G69" s="5">
         <v>1</v>
       </c>
       <c r="K69" s="6" t="s">
-        <v>1412</v>
+        <v>1403</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>1414</v>
+        <v>1405</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>1416</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8276,7 +8952,7 @@
         <v>20056</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="G70" s="5">
         <v>2</v>
@@ -8567,6 +9243,9 @@
       <c r="H87" s="5">
         <v>-1</v>
       </c>
+      <c r="L87" s="6" t="s">
+        <v>1805</v>
+      </c>
       <c r="N87" s="8" t="s">
         <v>1191</v>
       </c>
@@ -8650,7 +9329,7 @@
         <v>143</v>
       </c>
       <c r="M92" s="7" t="s">
-        <v>1420</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8658,7 +9337,7 @@
         <v>20075</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>1419</v>
+        <v>1410</v>
       </c>
       <c r="J93" s="5">
         <v>1</v>
@@ -8831,7 +9510,7 @@
         <v>-2</v>
       </c>
       <c r="K103" s="6" t="s">
-        <v>1417</v>
+        <v>1408</v>
       </c>
       <c r="L103" s="6" t="s">
         <v>270</v>
@@ -8871,7 +9550,7 @@
         <v>2</v>
       </c>
       <c r="K105" s="6" t="s">
-        <v>1418</v>
+        <v>1409</v>
       </c>
       <c r="L105" s="6" t="s">
         <v>242</v>
@@ -8957,10 +9636,10 @@
         <v>231</v>
       </c>
       <c r="M109" s="7" t="s">
-        <v>1424</v>
+        <v>1415</v>
       </c>
       <c r="N109" s="8" t="s">
-        <v>1421</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -8968,7 +9647,7 @@
         <v>20091</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>1422</v>
+        <v>1413</v>
       </c>
       <c r="D110" s="5">
         <v>5</v>
@@ -8982,7 +9661,7 @@
         <v>20092</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>1423</v>
+        <v>1414</v>
       </c>
       <c r="G111" s="5">
         <v>2</v>
@@ -11374,7 +12053,7 @@
         <v>665</v>
       </c>
       <c r="L257" s="6" t="s">
-        <v>1325</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="258" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11388,7 +12067,7 @@
         <v>856</v>
       </c>
       <c r="L258" s="6" t="s">
-        <v>1326</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="259" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11405,7 +12084,7 @@
         <v>855</v>
       </c>
       <c r="L259" s="6" t="s">
-        <v>1327</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="260" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11718,7 +12397,7 @@
         <v>714</v>
       </c>
       <c r="L279" s="6" t="s">
-        <v>1324</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="280" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11975,10 +12654,10 @@
         <v>734</v>
       </c>
       <c r="L295" s="6" t="s">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="M295" s="7" t="s">
-        <v>1426</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="296" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -11992,10 +12671,10 @@
         <v>800</v>
       </c>
       <c r="L296" s="6" t="s">
-        <v>1428</v>
+        <v>1419</v>
       </c>
       <c r="M296" s="7" t="s">
-        <v>1426</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="297" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12003,7 +12682,7 @@
         <v>20076</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>1425</v>
+        <v>1416</v>
       </c>
       <c r="J297" s="5">
         <v>1</v>
@@ -12061,7 +12740,7 @@
         <v>734</v>
       </c>
       <c r="L300" s="6" t="s">
-        <v>1429</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="301" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12078,7 +12757,7 @@
         <v>758</v>
       </c>
       <c r="L301" s="6" t="s">
-        <v>1430</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="302" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12095,7 +12774,7 @@
         <v>761</v>
       </c>
       <c r="L302" s="6" t="s">
-        <v>1431</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="303" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12112,7 +12791,7 @@
         <v>734</v>
       </c>
       <c r="L303" s="6" t="s">
-        <v>1432</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="304" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12174,7 +12853,7 @@
         <v>763</v>
       </c>
       <c r="L307" s="6" t="s">
-        <v>1433</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="308" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12191,7 +12870,7 @@
         <v>763</v>
       </c>
       <c r="L308" s="6" t="s">
-        <v>1434</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="309" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12253,7 +12932,7 @@
         <v>407</v>
       </c>
       <c r="L312" s="6" t="s">
-        <v>1435</v>
+        <v>1426</v>
       </c>
       <c r="M312" s="7" t="s">
         <v>1206</v>
@@ -12330,7 +13009,7 @@
         <v>625</v>
       </c>
       <c r="M316" s="7" t="s">
-        <v>1437</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12338,7 +13017,7 @@
         <v>20296</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>1436</v>
+        <v>1427</v>
       </c>
       <c r="G317" s="5">
         <v>-1</v>
@@ -12635,7 +13314,7 @@
         <v>10314</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>1508</v>
+        <v>1499</v>
       </c>
       <c r="E336" s="5">
         <v>-3</v>
@@ -12647,7 +13326,7 @@
         <v>813</v>
       </c>
       <c r="L336" s="6" t="s">
-        <v>1372</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="337" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12692,7 +13371,7 @@
         <v>794</v>
       </c>
       <c r="M339" s="7" t="s">
-        <v>1439</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="340" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -12700,7 +13379,7 @@
         <v>20317</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>1438</v>
+        <v>1429</v>
       </c>
       <c r="J340" s="5">
         <v>1</v>
@@ -14429,10 +15108,10 @@
         <v>967</v>
       </c>
       <c r="M433" s="7" t="s">
-        <v>1440</v>
+        <v>1431</v>
       </c>
       <c r="N433" s="8" t="s">
-        <v>1442</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="434" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14440,7 +15119,7 @@
         <v>20410</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>1441</v>
+        <v>1432</v>
       </c>
       <c r="H434" s="5">
         <v>2</v>
@@ -14454,7 +15133,7 @@
         <v>20411</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="J435" s="5">
         <v>1</v>
@@ -14468,16 +15147,16 @@
         <v>1134</v>
       </c>
       <c r="K436" s="6" t="s">
-        <v>1446</v>
+        <v>1437</v>
       </c>
       <c r="L436" s="6" t="s">
-        <v>1451</v>
+        <v>1442</v>
       </c>
       <c r="M436" s="7" t="s">
-        <v>1444</v>
+        <v>1435</v>
       </c>
       <c r="N436" s="8" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="437" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14485,7 +15164,7 @@
         <v>20412</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>1445</v>
+        <v>1436</v>
       </c>
       <c r="J437" s="5">
         <v>1</v>
@@ -14496,7 +15175,7 @@
         <v>20413</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>1448</v>
+        <v>1439</v>
       </c>
       <c r="H438" s="5">
         <v>-1</v>
@@ -14524,16 +15203,16 @@
         <v>10413</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>1449</v>
+        <v>1440</v>
       </c>
       <c r="K440" s="6" t="s">
         <v>1137</v>
       </c>
       <c r="L440" s="6" t="s">
-        <v>1450</v>
+        <v>1441</v>
       </c>
       <c r="M440" s="7" t="s">
-        <v>1452</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="441" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14541,7 +15220,7 @@
         <v>20414</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>1453</v>
+        <v>1444</v>
       </c>
       <c r="H441" s="5">
         <v>-1</v>
@@ -14575,10 +15254,10 @@
         <v>1136</v>
       </c>
       <c r="L443" s="6" t="s">
-        <v>1454</v>
+        <v>1445</v>
       </c>
       <c r="M443" s="7" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="444" spans="1:14" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -14586,7 +15265,7 @@
         <v>20415</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>1456</v>
+        <v>1447</v>
       </c>
       <c r="J444" s="5">
         <v>1</v>
@@ -14606,7 +15285,7 @@
         <v>969</v>
       </c>
       <c r="M445" s="7" t="s">
-        <v>1486</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="446" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14614,7 +15293,7 @@
         <v>20416</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>1455</v>
+        <v>1446</v>
       </c>
       <c r="J446" s="5">
         <v>1</v>
@@ -14634,7 +15313,7 @@
         <v>970</v>
       </c>
       <c r="M447" s="7" t="s">
-        <v>1458</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="448" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14642,7 +15321,7 @@
         <v>20417</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="J448" s="5">
         <v>1</v>
@@ -14662,7 +15341,7 @@
         <v>971</v>
       </c>
       <c r="M449" s="7" t="s">
-        <v>1460</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="450" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14670,7 +15349,7 @@
         <v>20418</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>1461</v>
+        <v>1452</v>
       </c>
       <c r="J450" s="5">
         <v>1</v>
@@ -14690,7 +15369,7 @@
         <v>972</v>
       </c>
       <c r="M451" s="7" t="s">
-        <v>1463</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="452" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14698,7 +15377,7 @@
         <v>20419</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>1462</v>
+        <v>1453</v>
       </c>
       <c r="J452" s="5">
         <v>1</v>
@@ -14732,7 +15411,7 @@
         <v>974</v>
       </c>
       <c r="M454" s="7" t="s">
-        <v>1465</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="455" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14740,7 +15419,7 @@
         <v>20421</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>1464</v>
+        <v>1455</v>
       </c>
       <c r="G455" s="5">
         <v>-2</v>
@@ -14754,7 +15433,7 @@
         <v>10422</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>1468</v>
+        <v>1459</v>
       </c>
       <c r="K456" s="6" t="s">
         <v>1136</v>
@@ -14763,7 +15442,7 @@
         <v>975</v>
       </c>
       <c r="M456" s="7" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="457" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -14771,7 +15450,7 @@
         <v>20422</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>1467</v>
+        <v>1458</v>
       </c>
       <c r="J457" s="5">
         <v>1</v>
@@ -14791,7 +15470,7 @@
         <v>976</v>
       </c>
       <c r="M458" s="7" t="s">
-        <v>1470</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="459" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14799,7 +15478,7 @@
         <v>20423</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>1469</v>
+        <v>1460</v>
       </c>
       <c r="J459" s="5">
         <v>1</v>
@@ -14819,7 +15498,7 @@
         <v>1154</v>
       </c>
       <c r="M460" s="7" t="s">
-        <v>1472</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="461" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14836,7 +15515,7 @@
         <v>1155</v>
       </c>
       <c r="M461" s="7" t="s">
-        <v>1471</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="462" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14844,7 +15523,7 @@
         <v>20425</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>1473</v>
+        <v>1464</v>
       </c>
       <c r="J462" s="5">
         <v>1</v>
@@ -14864,7 +15543,7 @@
         <v>977</v>
       </c>
       <c r="M463" s="7" t="s">
-        <v>1475</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="464" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14872,7 +15551,7 @@
         <v>20426</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>1474</v>
+        <v>1465</v>
       </c>
       <c r="J464" s="5">
         <v>1</v>
@@ -14925,7 +15604,7 @@
         <v>10430</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>1476</v>
+        <v>1467</v>
       </c>
       <c r="K468" s="6" t="s">
         <v>1136</v>
@@ -14934,7 +15613,7 @@
         <v>979</v>
       </c>
       <c r="M468" s="7" t="s">
-        <v>1478</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="469" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14942,7 +15621,7 @@
         <v>10431</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>1477</v>
+        <v>1468</v>
       </c>
       <c r="J469" s="5">
         <v>1</v>
@@ -14953,7 +15632,7 @@
         <v>10431</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>1480</v>
+        <v>1471</v>
       </c>
       <c r="K470" s="6" t="s">
         <v>1136</v>
@@ -14962,7 +15641,7 @@
         <v>980</v>
       </c>
       <c r="M470" s="7" t="s">
-        <v>1479</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="471" spans="1:13" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -14970,7 +15649,7 @@
         <v>20432</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>1481</v>
+        <v>1472</v>
       </c>
       <c r="J471" s="5">
         <v>1</v>
@@ -14990,7 +15669,7 @@
         <v>981</v>
       </c>
       <c r="M472" s="7" t="s">
-        <v>1482</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="473" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -14998,7 +15677,7 @@
         <v>20432</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>1483</v>
+        <v>1474</v>
       </c>
       <c r="J473" s="5">
         <v>1</v>
@@ -15060,7 +15739,7 @@
         <v>984</v>
       </c>
       <c r="M477" s="7" t="s">
-        <v>1485</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="478" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15068,7 +15747,7 @@
         <v>20436</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>1484</v>
+        <v>1475</v>
       </c>
       <c r="J478" s="5">
         <v>1</v>
@@ -15088,7 +15767,7 @@
         <v>985</v>
       </c>
       <c r="M479" s="7" t="s">
-        <v>1488</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="480" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15096,7 +15775,7 @@
         <v>20437</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>1487</v>
+        <v>1478</v>
       </c>
       <c r="J480" s="5">
         <v>1</v>
@@ -15121,7 +15800,7 @@
         <v>10439</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>1371</v>
+        <v>1362</v>
       </c>
       <c r="K482" s="6" t="s">
         <v>1136</v>
@@ -15135,13 +15814,13 @@
         <v>20439</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>1489</v>
+        <v>1480</v>
       </c>
       <c r="J483" s="5">
         <v>1</v>
       </c>
       <c r="M483" s="7" t="s">
-        <v>1490</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="484" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15203,7 +15882,7 @@
         <v>991</v>
       </c>
       <c r="M487" s="7" t="s">
-        <v>1492</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="488" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15211,7 +15890,7 @@
         <v>20443</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>1493</v>
+        <v>1484</v>
       </c>
       <c r="J488" s="5">
         <v>1</v>
@@ -15222,7 +15901,7 @@
         <v>20444</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>1491</v>
+        <v>1482</v>
       </c>
       <c r="J489" s="5">
         <v>1</v>
@@ -15242,7 +15921,7 @@
         <v>992</v>
       </c>
       <c r="M490" s="7" t="s">
-        <v>1494</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="491" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15301,7 +15980,7 @@
         <v>996</v>
       </c>
       <c r="M494" s="7" t="s">
-        <v>1500</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="495" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15309,7 +15988,7 @@
         <v>20448</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>1499</v>
+        <v>1490</v>
       </c>
       <c r="J495" s="5">
         <v>1</v>
@@ -15357,7 +16036,7 @@
         <v>999</v>
       </c>
       <c r="M498" s="7" t="s">
-        <v>1495</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="499" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15365,7 +16044,7 @@
         <v>20452</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>1496</v>
+        <v>1487</v>
       </c>
       <c r="J499" s="5">
         <v>1</v>
@@ -15385,7 +16064,7 @@
         <v>1000</v>
       </c>
       <c r="M500" s="7" t="s">
-        <v>1498</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="501" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15393,7 +16072,7 @@
         <v>20453</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>1497</v>
+        <v>1488</v>
       </c>
       <c r="H501" s="5">
         <v>1</v>
@@ -15424,13 +16103,13 @@
         <v>1183</v>
       </c>
       <c r="K503" s="6" t="s">
-        <v>1502</v>
+        <v>1493</v>
       </c>
       <c r="L503" s="6" t="s">
         <v>1002</v>
       </c>
       <c r="M503" s="7" t="s">
-        <v>1503</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="504" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15438,7 +16117,7 @@
         <v>20454</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>1501</v>
+        <v>1492</v>
       </c>
       <c r="J504" s="5">
         <v>1</v>
@@ -15472,7 +16151,7 @@
         <v>1004</v>
       </c>
       <c r="M506" s="7" t="s">
-        <v>1505</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="507" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15480,7 +16159,7 @@
         <v>20456</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>1504</v>
+        <v>1495</v>
       </c>
       <c r="J507" s="5">
         <v>1</v>
@@ -15528,7 +16207,7 @@
         <v>1007</v>
       </c>
       <c r="M510" s="7" t="s">
-        <v>1507</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="511" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15536,7 +16215,7 @@
         <v>20459</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>1506</v>
+        <v>1497</v>
       </c>
       <c r="J511" s="5">
         <v>1</v>
@@ -15556,7 +16235,7 @@
         <v>1008</v>
       </c>
       <c r="M512" s="7" t="s">
-        <v>1510</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="513" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15564,7 +16243,7 @@
         <v>20460</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>1509</v>
+        <v>1500</v>
       </c>
       <c r="J513" s="5">
         <v>1</v>
@@ -15679,13 +16358,13 @@
         <v>10468</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1316</v>
+        <v>1307</v>
       </c>
       <c r="K521" s="6" t="s">
-        <v>1317</v>
+        <v>1308</v>
       </c>
       <c r="L521" s="6" t="s">
-        <v>1340</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="522" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15693,13 +16372,13 @@
         <v>10469</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1318</v>
+        <v>1309</v>
       </c>
       <c r="K522" s="6" t="s">
         <v>1210</v>
       </c>
       <c r="L522" s="6" t="s">
-        <v>1328</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="523" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15707,13 +16386,13 @@
         <v>10470</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1319</v>
+        <v>1310</v>
       </c>
       <c r="K523" s="6" t="s">
         <v>1210</v>
       </c>
       <c r="L523" s="6" t="s">
-        <v>1329</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="524" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15721,13 +16400,13 @@
         <v>10471</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1320</v>
+        <v>1311</v>
       </c>
       <c r="K524" s="6" t="s">
         <v>1209</v>
       </c>
       <c r="L524" s="6" t="s">
-        <v>1330</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="525" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15735,13 +16414,13 @@
         <v>10472</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>1321</v>
+        <v>1312</v>
       </c>
       <c r="K525" s="6" t="s">
         <v>1209</v>
       </c>
       <c r="L525" s="6" t="s">
-        <v>1331</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="526" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15749,10 +16428,10 @@
         <v>10473</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1322</v>
+        <v>1313</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="H526" s="5">
         <v>-1</v>
@@ -15761,7 +16440,7 @@
         <v>1209</v>
       </c>
       <c r="L526" s="6" t="s">
-        <v>1332</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="527" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15769,13 +16448,13 @@
         <v>10474</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1333</v>
+        <v>1324</v>
       </c>
       <c r="K527" s="6" t="s">
-        <v>1334</v>
+        <v>1325</v>
       </c>
       <c r="L527" s="6" t="s">
-        <v>1339</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="528" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15783,13 +16462,13 @@
         <v>10475</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1337</v>
+        <v>1328</v>
       </c>
       <c r="K528" s="6" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
       <c r="L528" s="6" t="s">
-        <v>1341</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="529" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15797,13 +16476,13 @@
         <v>10476</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1336</v>
+        <v>1327</v>
       </c>
       <c r="K529" s="6" t="s">
-        <v>1344</v>
+        <v>1335</v>
       </c>
       <c r="L529" s="6" t="s">
-        <v>1342</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="530" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15811,13 +16490,13 @@
         <v>10477</v>
       </c>
       <c r="B530" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="K530" s="6" t="s">
         <v>1335</v>
       </c>
-      <c r="K530" s="6" t="s">
-        <v>1344</v>
-      </c>
       <c r="L530" s="6" t="s">
-        <v>1343</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="531" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15825,10 +16504,10 @@
         <v>10478</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1345</v>
+        <v>1336</v>
       </c>
       <c r="K531" s="6" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="L531" s="6" t="s">
         <v>1211</v>
@@ -15839,16 +16518,16 @@
         <v>10479</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1346</v>
+        <v>1337</v>
       </c>
       <c r="H532" s="5">
         <v>1</v>
       </c>
       <c r="K532" s="6" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="L532" s="6" t="s">
-        <v>1362</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="533" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15856,10 +16535,10 @@
         <v>10480</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1347</v>
+        <v>1338</v>
       </c>
       <c r="K533" s="6" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
       <c r="L533" s="6" t="s">
         <v>1212</v>
@@ -15870,13 +16549,13 @@
         <v>10481</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1349</v>
+        <v>1340</v>
       </c>
       <c r="K534" s="6" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="L534" s="6" t="s">
-        <v>1365</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="535" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15884,10 +16563,10 @@
         <v>10482</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1352</v>
+        <v>1343</v>
       </c>
       <c r="K535" s="6" t="s">
-        <v>1353</v>
+        <v>1344</v>
       </c>
       <c r="L535" s="6" t="s">
         <v>1213</v>
@@ -15898,10 +16577,10 @@
         <v>10483</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1354</v>
+        <v>1345</v>
       </c>
       <c r="K536" s="6" t="s">
-        <v>1350</v>
+        <v>1341</v>
       </c>
       <c r="L536" s="6" t="s">
         <v>1214</v>
@@ -15912,13 +16591,13 @@
         <v>10484</v>
       </c>
       <c r="B537" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="K537" s="6" t="s">
+        <v>1347</v>
+      </c>
+      <c r="L537" s="6" t="s">
         <v>1355</v>
-      </c>
-      <c r="K537" s="6" t="s">
-        <v>1356</v>
-      </c>
-      <c r="L537" s="6" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="538" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15926,10 +16605,10 @@
         <v>10485</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1357</v>
+        <v>1348</v>
       </c>
       <c r="K538" s="6" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
       <c r="L538" s="6" t="s">
         <v>1215</v>
@@ -15940,10 +16619,10 @@
         <v>10486</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1358</v>
+        <v>1349</v>
       </c>
       <c r="K539" s="6" t="s">
-        <v>1348</v>
+        <v>1339</v>
       </c>
       <c r="L539" s="6" t="s">
         <v>1216</v>
@@ -15954,10 +16633,10 @@
         <v>10487</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1359</v>
+        <v>1350</v>
       </c>
       <c r="K540" s="6" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="541" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -15965,10 +16644,10 @@
         <v>10488</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1360</v>
+        <v>1351</v>
       </c>
       <c r="K541" s="6" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="L541" s="6" t="s">
         <v>1217</v>
@@ -15979,10 +16658,10 @@
         <v>10489</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1361</v>
+        <v>1352</v>
       </c>
       <c r="K542" s="6" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="L542" s="6" t="s">
         <v>1218</v>
@@ -15993,10 +16672,10 @@
         <v>10490</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1363</v>
+        <v>1354</v>
       </c>
       <c r="K543" s="6" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="L543" s="6" t="s">
         <v>1219</v>
@@ -16007,10 +16686,10 @@
         <v>10491</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1366</v>
+        <v>1357</v>
       </c>
       <c r="K544" s="6" t="s">
-        <v>1367</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="545" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16018,13 +16697,13 @@
         <v>10492</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
       <c r="K545" s="6" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="L545" s="6" t="s">
-        <v>1369</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="546" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16032,13 +16711,13 @@
         <v>10493</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1368</v>
+        <v>1359</v>
       </c>
       <c r="K546" s="6" t="s">
-        <v>1338</v>
+        <v>1329</v>
       </c>
       <c r="L546" s="6" t="s">
-        <v>1370</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="547" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16046,16 +16725,16 @@
         <v>10494</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1377</v>
+        <v>1368</v>
       </c>
       <c r="K547" s="6" t="s">
-        <v>1378</v>
+        <v>1369</v>
       </c>
       <c r="L547" s="6" t="s">
-        <v>1380</v>
+        <v>1371</v>
       </c>
       <c r="M547" s="7" t="s">
-        <v>1379</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="548" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16063,7 +16742,7 @@
         <v>10495</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1381</v>
+        <v>1372</v>
       </c>
       <c r="E548" s="5">
         <v>1</v>
@@ -16075,7 +16754,7 @@
         <v>1</v>
       </c>
       <c r="K548" s="6" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
       <c r="L548" s="6" t="s">
         <v>1220</v>
@@ -16086,19 +16765,19 @@
         <v>10496</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1382</v>
+        <v>1373</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>1383</v>
+        <v>1374</v>
       </c>
       <c r="K549" s="6" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
       <c r="L549" s="6" t="s">
         <v>1221</v>
       </c>
       <c r="M549" s="7" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="550" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16106,13 +16785,13 @@
         <v>10497</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1386</v>
+        <v>1377</v>
       </c>
       <c r="J550" s="5">
         <v>1</v>
       </c>
       <c r="M550" s="7" t="s">
-        <v>1387</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="551" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16120,10 +16799,10 @@
         <v>10498</v>
       </c>
       <c r="B551" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="K551" s="6" t="s">
         <v>1513</v>
-      </c>
-      <c r="K551" s="6" t="s">
-        <v>1522</v>
       </c>
       <c r="L551" s="6" t="s">
         <v>1222</v>
@@ -16134,10 +16813,10 @@
         <v>10499</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>1514</v>
+        <v>1505</v>
       </c>
       <c r="K552" s="6" t="s">
-        <v>1522</v>
+        <v>1513</v>
       </c>
       <c r="L552" s="6" t="s">
         <v>1223</v>
@@ -16148,10 +16827,10 @@
         <v>10500</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1515</v>
+        <v>1506</v>
       </c>
       <c r="K553" s="6" t="s">
-        <v>1512</v>
+        <v>1503</v>
       </c>
       <c r="L553" s="6" t="s">
         <v>1224</v>
@@ -16162,10 +16841,10 @@
         <v>10501</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1516</v>
+        <v>1507</v>
       </c>
       <c r="K554" s="6" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="L554" s="6" t="s">
         <v>1225</v>
@@ -16176,10 +16855,10 @@
         <v>10502</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1517</v>
+        <v>1508</v>
       </c>
       <c r="K555" s="6" t="s">
-        <v>1518</v>
+        <v>1509</v>
       </c>
       <c r="L555" s="6" t="s">
         <v>1226</v>
@@ -16190,10 +16869,10 @@
         <v>10503</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1520</v>
+        <v>1511</v>
       </c>
       <c r="K556" s="6" t="s">
-        <v>1519</v>
+        <v>1510</v>
       </c>
       <c r="L556" s="6" t="s">
         <v>1227</v>
@@ -16204,10 +16883,10 @@
         <v>10504</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1521</v>
+        <v>1512</v>
       </c>
       <c r="K557" s="6" t="s">
-        <v>1522</v>
+        <v>1513</v>
       </c>
       <c r="L557" s="6" t="s">
         <v>1228</v>
@@ -16218,10 +16897,10 @@
         <v>10505</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1523</v>
+        <v>1514</v>
       </c>
       <c r="K558" s="6" t="s">
-        <v>1519</v>
+        <v>1510</v>
       </c>
       <c r="L558" s="6" t="s">
         <v>1229</v>
@@ -16232,10 +16911,10 @@
         <v>10506</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1524</v>
+        <v>1515</v>
       </c>
       <c r="K559" s="6" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="L559" s="6" t="s">
         <v>1230</v>
@@ -16246,13 +16925,13 @@
         <v>10507</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>1527</v>
+        <v>1518</v>
       </c>
       <c r="K560" s="6" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="L560" s="6" t="s">
-        <v>1533</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="561" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16260,10 +16939,10 @@
         <v>10508</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1526</v>
+        <v>1517</v>
       </c>
       <c r="K561" s="6" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="L561" s="6" t="s">
         <v>1231</v>
@@ -16274,10 +16953,10 @@
         <v>10509</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>1528</v>
+        <v>1519</v>
       </c>
       <c r="K562" s="6" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="L562" s="6" t="s">
         <v>1232</v>
@@ -16288,10 +16967,10 @@
         <v>10510</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1529</v>
+        <v>1520</v>
       </c>
       <c r="K563" s="6" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="L563" s="6" t="s">
         <v>1233</v>
@@ -16302,13 +16981,13 @@
         <v>10511</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>1530</v>
+        <v>1521</v>
       </c>
       <c r="K564" s="6" t="s">
         <v>1228</v>
       </c>
       <c r="L564" s="6" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="565" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16316,13 +16995,13 @@
         <v>10512</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1531</v>
+        <v>1522</v>
       </c>
       <c r="K565" s="6" t="s">
         <v>1228</v>
       </c>
       <c r="L565" s="6" t="s">
-        <v>1532</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="566" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16330,10 +17009,10 @@
         <v>10513</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>1535</v>
+        <v>1526</v>
       </c>
       <c r="K566" s="6" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
       <c r="L566" s="6" t="s">
         <v>1234</v>
@@ -16344,10 +17023,10 @@
         <v>10514</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="K567" s="6" t="s">
-        <v>1534</v>
+        <v>1525</v>
       </c>
       <c r="L567" s="6" t="s">
         <v>1235</v>
@@ -16358,7 +17037,7 @@
         <v>10515</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>1537</v>
+        <v>1528</v>
       </c>
       <c r="K568" s="6" t="s">
         <v>1229</v>
@@ -16372,7 +17051,7 @@
         <v>10516</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>1538</v>
+        <v>1529</v>
       </c>
       <c r="E569" s="5">
         <v>1</v>
@@ -16389,7 +17068,7 @@
         <v>10517</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>1539</v>
+        <v>1530</v>
       </c>
       <c r="H570" s="5">
         <v>-1</v>
@@ -16409,7 +17088,7 @@
         <v>276</v>
       </c>
       <c r="K571" s="6" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="L571" s="6" t="s">
         <v>1239</v>
@@ -16420,13 +17099,13 @@
         <v>10519</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>1541</v>
+        <v>1532</v>
       </c>
       <c r="C572" s="4" t="s">
-        <v>1542</v>
+        <v>1533</v>
       </c>
       <c r="K572" s="6" t="s">
-        <v>1540</v>
+        <v>1531</v>
       </c>
       <c r="L572" s="6" t="s">
         <v>1240</v>
@@ -16437,10 +17116,10 @@
         <v>10520</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>1543</v>
+        <v>1534</v>
       </c>
       <c r="K573" s="6" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="L573" s="6" t="s">
         <v>1241</v>
@@ -16451,13 +17130,13 @@
         <v>10521</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>1544</v>
+        <v>1535</v>
       </c>
       <c r="H574" s="5">
         <v>1</v>
       </c>
       <c r="K574" s="6" t="s">
-        <v>1545</v>
+        <v>1536</v>
       </c>
       <c r="L574" s="6" t="s">
         <v>1242</v>
@@ -16468,16 +17147,16 @@
         <v>10522</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>1546</v>
+        <v>1537</v>
       </c>
       <c r="H575" s="5">
         <v>-1</v>
       </c>
       <c r="K575" s="6" t="s">
-        <v>1550</v>
+        <v>1541</v>
       </c>
       <c r="L575" s="6" t="s">
-        <v>1567</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="576" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16485,10 +17164,10 @@
         <v>10523</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>1547</v>
+        <v>1538</v>
       </c>
       <c r="K576" s="6" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="L576" s="6" t="s">
         <v>1243</v>
@@ -16499,13 +17178,13 @@
         <v>10524</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1548</v>
+        <v>1539</v>
       </c>
       <c r="H577" s="5">
         <v>1</v>
       </c>
       <c r="K577" s="6" t="s">
-        <v>1549</v>
+        <v>1540</v>
       </c>
       <c r="L577" s="6" t="s">
         <v>1244</v>
@@ -16516,13 +17195,13 @@
         <v>10525</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>1551</v>
+        <v>1542</v>
       </c>
       <c r="H578" s="5">
         <v>1</v>
       </c>
       <c r="K578" s="6" t="s">
-        <v>1552</v>
+        <v>1543</v>
       </c>
       <c r="L578" s="6" t="s">
         <v>1245</v>
@@ -16533,10 +17212,10 @@
         <v>10526</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1553</v>
+        <v>1544</v>
       </c>
       <c r="K579" s="6" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="L579" s="6" t="s">
         <v>1246</v>
@@ -16547,10 +17226,10 @@
         <v>10527</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>1554</v>
+        <v>1545</v>
       </c>
       <c r="K580" s="6" t="s">
-        <v>1525</v>
+        <v>1516</v>
       </c>
       <c r="L580" s="6" t="s">
         <v>1247</v>
@@ -16561,13 +17240,13 @@
         <v>10528</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>1558</v>
+        <v>1549</v>
       </c>
       <c r="H581" s="5">
         <v>1</v>
       </c>
       <c r="K581" s="6" t="s">
-        <v>1557</v>
+        <v>1548</v>
       </c>
       <c r="L581" s="6" t="s">
         <v>1248</v>
@@ -16578,16 +17257,16 @@
         <v>10529</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>1559</v>
+        <v>1550</v>
       </c>
       <c r="K582" s="6" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="L582" s="6" t="s">
         <v>1249</v>
       </c>
       <c r="M582" s="7" t="s">
-        <v>1562</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="583" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -16595,7 +17274,7 @@
         <v>20529</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1561</v>
+        <v>1552</v>
       </c>
       <c r="H583" s="5">
         <v>1</v>
@@ -16609,649 +17288,655 @@
         <v>10530</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1563</v>
+        <v>1554</v>
       </c>
       <c r="F584" s="5">
         <v>1</v>
       </c>
       <c r="K584" s="6" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="L584" s="6" t="s">
-        <v>1250</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="585" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="3">
-        <v>10532</v>
+        <v>10531</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1564</v>
+        <v>1554</v>
+      </c>
+      <c r="F585" s="5">
+        <v>1</v>
       </c>
       <c r="K585" s="6" t="s">
-        <v>1534</v>
+        <v>1502</v>
       </c>
       <c r="L585" s="6" t="s">
-        <v>1251</v>
+        <v>1856</v>
       </c>
     </row>
     <row r="586" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="3">
-        <v>10533</v>
+        <v>10532</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1565</v>
+        <v>1555</v>
       </c>
       <c r="K586" s="6" t="s">
-        <v>1566</v>
+        <v>1525</v>
       </c>
       <c r="L586" s="6" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="587" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="3">
-        <v>10534</v>
+        <v>10533</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1572</v>
-      </c>
-      <c r="H587" s="5">
-        <v>-1</v>
+        <v>1556</v>
       </c>
       <c r="K587" s="6" t="s">
-        <v>1534</v>
+        <v>1557</v>
       </c>
       <c r="L587" s="6" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="588" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="3">
-        <v>10535</v>
+        <v>10534</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1568</v>
+        <v>1563</v>
+      </c>
+      <c r="H588" s="5">
+        <v>-1</v>
       </c>
       <c r="K588" s="6" t="s">
-        <v>1511</v>
+        <v>1525</v>
       </c>
       <c r="L588" s="6" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="589" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="3">
-        <v>10536</v>
+        <v>10535</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1569</v>
-      </c>
-      <c r="G589" s="5">
-        <v>1</v>
+        <v>1559</v>
       </c>
       <c r="K589" s="6" t="s">
-        <v>1525</v>
+        <v>1502</v>
       </c>
       <c r="L589" s="6" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="590" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="3">
-        <v>10537</v>
+        <v>10536</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1570</v>
+        <v>1560</v>
       </c>
       <c r="G590" s="5">
         <v>1</v>
       </c>
       <c r="K590" s="6" t="s">
-        <v>1534</v>
+        <v>1516</v>
       </c>
       <c r="L590" s="6" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="591" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="3">
-        <v>10538</v>
+        <v>10537</v>
       </c>
       <c r="B591" s="3" t="s">
-        <v>1571</v>
+        <v>1561</v>
+      </c>
+      <c r="G591" s="5">
+        <v>1</v>
       </c>
       <c r="K591" s="6" t="s">
         <v>1525</v>
       </c>
       <c r="L591" s="6" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="592" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="3">
-        <v>10539</v>
+        <v>10538</v>
       </c>
       <c r="B592" s="3" t="s">
-        <v>1573</v>
-      </c>
-      <c r="H592" s="5">
-        <v>1</v>
+        <v>1562</v>
       </c>
       <c r="K592" s="6" t="s">
-        <v>1511</v>
+        <v>1516</v>
       </c>
       <c r="L592" s="6" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="593" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="3">
-        <v>10540</v>
+        <v>10539</v>
       </c>
       <c r="B593" s="3" t="s">
-        <v>1574</v>
+        <v>1564</v>
+      </c>
+      <c r="H593" s="5">
+        <v>1</v>
       </c>
       <c r="K593" s="6" t="s">
-        <v>1511</v>
+        <v>1502</v>
       </c>
       <c r="L593" s="6" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="594" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="3">
-        <v>10541</v>
+        <v>10540</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1575</v>
+        <v>1565</v>
       </c>
       <c r="K594" s="6" t="s">
-        <v>1518</v>
+        <v>1502</v>
       </c>
       <c r="L594" s="6" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="595" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="3">
-        <v>10542</v>
+        <v>10541</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1576</v>
+        <v>1566</v>
       </c>
       <c r="K595" s="6" t="s">
-        <v>1577</v>
+        <v>1509</v>
       </c>
       <c r="L595" s="6" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="596" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="3">
-        <v>10543</v>
+        <v>10542</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1578</v>
+        <v>1567</v>
       </c>
       <c r="K596" s="6" t="s">
-        <v>1579</v>
+        <v>1568</v>
       </c>
       <c r="L596" s="6" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="597" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="3">
-        <v>10544</v>
+        <v>10543</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1580</v>
+        <v>1569</v>
       </c>
       <c r="K597" s="6" t="s">
-        <v>1581</v>
+        <v>1570</v>
       </c>
       <c r="L597" s="6" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="598" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="3">
-        <v>10545</v>
+        <v>10544</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1582</v>
-      </c>
-      <c r="F598" s="5">
-        <v>1</v>
+        <v>1571</v>
       </c>
       <c r="K598" s="6" t="s">
-        <v>1583</v>
+        <v>1572</v>
       </c>
       <c r="L598" s="6" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="599" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="3">
-        <v>10546</v>
+        <v>10545</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1584</v>
+        <v>1573</v>
       </c>
       <c r="F599" s="5">
         <v>1</v>
       </c>
       <c r="K599" s="6" t="s">
-        <v>1585</v>
+        <v>1574</v>
       </c>
       <c r="L599" s="6" t="s">
-        <v>1591</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="600" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="3">
-        <v>10547</v>
+        <v>10546</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1586</v>
+        <v>1575</v>
+      </c>
+      <c r="F600" s="5">
+        <v>1</v>
       </c>
       <c r="K600" s="6" t="s">
-        <v>1579</v>
+        <v>1576</v>
       </c>
       <c r="L600" s="6" t="s">
-        <v>1265</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="601" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="3">
-        <v>10548</v>
+        <v>10547</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1588</v>
+        <v>1577</v>
       </c>
       <c r="K601" s="6" t="s">
-        <v>1579</v>
+        <v>1570</v>
       </c>
       <c r="L601" s="6" t="s">
-        <v>1590</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="602" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="3">
-        <v>10549</v>
+        <v>10548</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>1587</v>
+        <v>1579</v>
       </c>
       <c r="K602" s="6" t="s">
-        <v>1260</v>
+        <v>1570</v>
       </c>
       <c r="L602" s="6" t="s">
-        <v>1590</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="603" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="3">
-        <v>10550</v>
+        <v>10549</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1589</v>
+        <v>1578</v>
       </c>
       <c r="K603" s="6" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L603" s="6" t="s">
-        <v>1590</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="604" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="3">
-        <v>10551</v>
+        <v>10550</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>1592</v>
+        <v>1580</v>
       </c>
       <c r="K604" s="6" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="L604" s="6" t="s">
-        <v>1266</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="605" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="3">
-        <v>10552</v>
+        <v>10551</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1593</v>
-      </c>
-      <c r="H605" s="5">
-        <v>1</v>
+        <v>1583</v>
       </c>
       <c r="K605" s="6" t="s">
-        <v>1579</v>
+        <v>1259</v>
       </c>
       <c r="L605" s="6" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="606" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="3">
-        <v>10553</v>
+        <v>10552</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>1594</v>
+        <v>1584</v>
+      </c>
+      <c r="H606" s="5">
+        <v>1</v>
       </c>
       <c r="K606" s="6" t="s">
-        <v>1511</v>
+        <v>1570</v>
       </c>
       <c r="L606" s="6" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="607" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="3">
-        <v>10554</v>
+        <v>10553</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1595</v>
-      </c>
-      <c r="H607" s="5">
-        <v>1</v>
+        <v>1585</v>
       </c>
       <c r="K607" s="6" t="s">
-        <v>1579</v>
+        <v>1502</v>
       </c>
       <c r="L607" s="6" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="608" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="3">
+        <v>10554</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H608" s="5">
+        <v>1</v>
+      </c>
+      <c r="K608" s="6" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L608" s="6" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="609" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A609" s="3">
         <v>10555</v>
       </c>
-      <c r="B608" s="3" t="s">
+      <c r="B609" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E609" s="5">
+        <v>1</v>
+      </c>
+      <c r="H609" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K609" s="6" t="s">
+        <v>1503</v>
+      </c>
+      <c r="L609" s="6" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="610" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A610" s="3">
+        <v>10556</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="K610" s="6" t="s">
+        <v>1605</v>
+      </c>
+      <c r="L610" s="6" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="611" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A611" s="3">
+        <v>10557</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="K611" s="6" t="s">
+        <v>1502</v>
+      </c>
+      <c r="L611" s="6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="M611" s="7" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="612" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A612" s="3">
+        <v>20557</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="J612" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A613" s="3">
+        <v>10558</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="K613" s="6" t="s">
+        <v>1502</v>
+      </c>
+      <c r="L613" s="6" t="s">
+        <v>1272</v>
+      </c>
+      <c r="M613" s="7" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="614" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A614" s="3">
+        <v>20558</v>
+      </c>
+      <c r="B614" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="H614" s="5">
+        <v>1</v>
+      </c>
+      <c r="J614" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A615" s="3">
+        <v>10559</v>
+      </c>
+      <c r="B615" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="K615" s="6" t="s">
         <v>1596</v>
       </c>
-      <c r="E608" s="5">
-        <v>1</v>
-      </c>
-      <c r="H608" s="5">
-        <v>-1</v>
-      </c>
-      <c r="K608" s="6" t="s">
-        <v>1512</v>
-      </c>
-      <c r="L608" s="6" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="609" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A609" s="3">
-        <v>10556</v>
-      </c>
-      <c r="B609" s="3" t="s">
+      <c r="L615" s="6" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="616" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A616" s="3">
+        <v>10560</v>
+      </c>
+      <c r="B616" s="3" t="s">
         <v>1597</v>
       </c>
-      <c r="K609" s="6" t="s">
-        <v>1614</v>
-      </c>
-      <c r="L609" s="6" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="610" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A610" s="3">
-        <v>10557</v>
-      </c>
-      <c r="B610" s="3" t="s">
+      <c r="K616" s="6" t="s">
+        <v>1598</v>
+      </c>
+      <c r="L616" s="6" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="617" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A617" s="3">
+        <v>10561</v>
+      </c>
+      <c r="B617" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H617" s="5">
+        <v>1</v>
+      </c>
+      <c r="K617" s="21" t="s">
+        <v>1601</v>
+      </c>
+      <c r="L617" s="6" t="s">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="618" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A618" s="3">
+        <v>10562</v>
+      </c>
+      <c r="B618" s="3" t="s">
         <v>1600</v>
       </c>
-      <c r="K610" s="6" t="s">
-        <v>1511</v>
-      </c>
-      <c r="L610" s="6" t="s">
-        <v>1272</v>
-      </c>
-      <c r="M610" s="7" t="s">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="611" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A611" s="3">
-        <v>20557</v>
-      </c>
-      <c r="B611" s="3" t="s">
-        <v>1599</v>
-      </c>
-      <c r="J611" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="612" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A612" s="3">
-        <v>10558</v>
-      </c>
-      <c r="B612" s="3" t="s">
-        <v>1601</v>
-      </c>
-      <c r="K612" s="6" t="s">
-        <v>1511</v>
-      </c>
-      <c r="L612" s="6" t="s">
-        <v>1273</v>
-      </c>
-      <c r="M612" s="7" t="s">
+      <c r="H618" s="5">
+        <v>1</v>
+      </c>
+      <c r="K618" s="21" t="s">
         <v>1602</v>
       </c>
-    </row>
-    <row r="613" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A613" s="3">
-        <v>20558</v>
-      </c>
-      <c r="B613" s="3" t="s">
+      <c r="L618" s="6" t="s">
         <v>1603</v>
       </c>
-      <c r="H613" s="5">
-        <v>1</v>
-      </c>
-      <c r="J613" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="614" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A614" s="3">
-        <v>10559</v>
-      </c>
-      <c r="B614" s="3" t="s">
+    </row>
+    <row r="619" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A619" s="3">
+        <v>10563</v>
+      </c>
+      <c r="B619" s="3" t="s">
         <v>1604</v>
       </c>
-      <c r="K614" s="6" t="s">
-        <v>1605</v>
-      </c>
-      <c r="L614" s="6" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="615" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A615" s="3">
-        <v>10560</v>
-      </c>
-      <c r="B615" s="3" t="s">
+      <c r="H619" s="5">
+        <v>1</v>
+      </c>
+      <c r="K619" s="6" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L619" s="6" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="620" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A620" s="3">
+        <v>10564</v>
+      </c>
+      <c r="B620" s="3" t="s">
         <v>1606</v>
       </c>
-      <c r="K615" s="6" t="s">
+      <c r="K620" s="6" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L620" s="6" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="621" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A621" s="3">
+        <v>10565</v>
+      </c>
+      <c r="B621" s="3" t="s">
         <v>1607</v>
       </c>
-      <c r="L615" s="6" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="616" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A616" s="3">
-        <v>10561</v>
-      </c>
-      <c r="B616" s="3" t="s">
+      <c r="K621" s="6" t="s">
+        <v>1502</v>
+      </c>
+      <c r="L621" s="6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="M621" s="7" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="622" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A622" s="3">
+        <v>20565</v>
+      </c>
+      <c r="B622" s="3" t="s">
         <v>1608</v>
       </c>
-      <c r="H616" s="5">
-        <v>1</v>
-      </c>
-      <c r="K616" s="21" t="s">
+      <c r="H622" s="5">
+        <v>1</v>
+      </c>
+      <c r="J622" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="623" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A623" s="3">
+        <v>10566</v>
+      </c>
+      <c r="B623" s="3" t="s">
         <v>1610</v>
       </c>
-      <c r="L616" s="6" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="617" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A617" s="3">
-        <v>10562</v>
-      </c>
-      <c r="B617" s="3" t="s">
-        <v>1609</v>
-      </c>
-      <c r="H617" s="5">
-        <v>1</v>
-      </c>
-      <c r="K617" s="21" t="s">
+      <c r="K623" s="6" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L623" s="6" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="624" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A624" s="3">
+        <v>10567</v>
+      </c>
+      <c r="B624" s="3" t="s">
         <v>1611</v>
       </c>
-      <c r="L617" s="6" t="s">
-        <v>1612</v>
-      </c>
-    </row>
-    <row r="618" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A618" s="3">
-        <v>10563</v>
-      </c>
-      <c r="B618" s="3" t="s">
-        <v>1613</v>
-      </c>
-      <c r="H618" s="5">
-        <v>1</v>
-      </c>
-      <c r="K618" s="6" t="s">
-        <v>1581</v>
-      </c>
-      <c r="L618" s="6" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="619" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A619" s="3">
-        <v>10564</v>
-      </c>
-      <c r="B619" s="3" t="s">
-        <v>1615</v>
-      </c>
-      <c r="K619" s="6" t="s">
-        <v>1581</v>
-      </c>
-      <c r="L619" s="6" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="620" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A620" s="3">
-        <v>10565</v>
-      </c>
-      <c r="B620" s="3" t="s">
-        <v>1616</v>
-      </c>
-      <c r="K620" s="6" t="s">
-        <v>1511</v>
-      </c>
-      <c r="L620" s="6" t="s">
-        <v>1278</v>
-      </c>
-      <c r="M620" s="7" t="s">
-        <v>1618</v>
-      </c>
-    </row>
-    <row r="621" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A621" s="3">
-        <v>20565</v>
-      </c>
-      <c r="B621" s="3" t="s">
-        <v>1617</v>
-      </c>
-      <c r="H621" s="5">
-        <v>1</v>
-      </c>
-      <c r="J621" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="622" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A622" s="3">
-        <v>10566</v>
-      </c>
-      <c r="B622" s="3" t="s">
-        <v>1619</v>
-      </c>
-      <c r="K622" s="6" t="s">
-        <v>1579</v>
-      </c>
-      <c r="L622" s="6" t="s">
+      <c r="K624" s="6" t="s">
+        <v>1503</v>
+      </c>
+      <c r="L624" s="6" t="s">
         <v>1279</v>
-      </c>
-    </row>
-    <row r="623" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A623" s="3">
-        <v>10567</v>
-      </c>
-      <c r="B623" s="3" t="s">
-        <v>1620</v>
-      </c>
-      <c r="K623" s="6" t="s">
-        <v>1512</v>
-      </c>
-      <c r="L623" s="6" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="624" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A624" s="3">
-        <v>10568</v>
-      </c>
-      <c r="B624" s="3" t="s">
-        <v>1623</v>
-      </c>
-      <c r="C624" s="4" t="s">
-        <v>1624</v>
-      </c>
-      <c r="K624" s="6" t="s">
-        <v>1579</v>
-      </c>
-      <c r="L624" s="6" t="s">
-        <v>1281</v>
-      </c>
-      <c r="M624" s="7" t="s">
-        <v>1625</v>
-      </c>
-      <c r="N624" s="8" t="s">
-        <v>1626</v>
       </c>
     </row>
     <row r="625" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="3">
-        <v>20568</v>
+        <v>10568</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>1621</v>
-      </c>
-      <c r="J625" s="5">
-        <v>1</v>
+        <v>1614</v>
+      </c>
+      <c r="C625" s="4" t="s">
+        <v>1615</v>
+      </c>
+      <c r="K625" s="6" t="s">
+        <v>1570</v>
+      </c>
+      <c r="L625" s="6" t="s">
+        <v>1280</v>
+      </c>
+      <c r="M625" s="7" t="s">
+        <v>1616</v>
+      </c>
+      <c r="N625" s="8" t="s">
+        <v>1617</v>
       </c>
     </row>
     <row r="626" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="3">
-        <v>20569</v>
+        <v>20568</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>1622</v>
+        <v>1612</v>
       </c>
       <c r="J626" s="5">
         <v>1</v>
@@ -17259,128 +17944,128 @@
     </row>
     <row r="627" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="3">
-        <v>10569</v>
+        <v>20569</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1627</v>
-      </c>
-      <c r="K627" s="6" t="s">
-        <v>1628</v>
-      </c>
-      <c r="L627" s="6" t="s">
-        <v>1282</v>
+        <v>1613</v>
+      </c>
+      <c r="J627" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="3">
-        <v>10570</v>
+        <v>10569</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>1629</v>
+        <v>1618</v>
       </c>
       <c r="K628" s="6" t="s">
-        <v>1581</v>
+        <v>1619</v>
       </c>
       <c r="L628" s="6" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="629" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="3">
-        <v>10571</v>
+        <v>10570</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>1630</v>
+        <v>1620</v>
       </c>
       <c r="K629" s="6" t="s">
-        <v>1581</v>
+        <v>1572</v>
       </c>
       <c r="L629" s="6" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="630" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="3">
-        <v>10572</v>
+        <v>10571</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>1631</v>
+        <v>1621</v>
       </c>
       <c r="K630" s="6" t="s">
-        <v>1581</v>
+        <v>1572</v>
       </c>
       <c r="L630" s="6" t="s">
-        <v>1285</v>
-      </c>
-      <c r="M630" s="7" t="s">
-        <v>1633</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="631" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="3">
-        <v>20572</v>
+        <v>10572</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>1632</v>
-      </c>
-      <c r="J631" s="5">
-        <v>1</v>
+        <v>1622</v>
+      </c>
+      <c r="K631" s="6" t="s">
+        <v>1572</v>
+      </c>
+      <c r="L631" s="6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="M631" s="7" t="s">
+        <v>1624</v>
       </c>
     </row>
     <row r="632" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="3">
-        <v>10573</v>
+        <v>20572</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>1634</v>
-      </c>
-      <c r="K632" s="6" t="s">
-        <v>1581</v>
-      </c>
-      <c r="L632" s="6" t="s">
-        <v>1286</v>
+        <v>1623</v>
+      </c>
+      <c r="J632" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="3">
-        <v>10574</v>
+        <v>10573</v>
       </c>
       <c r="B633" s="3" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C633" s="4" t="s">
-        <v>1640</v>
+        <v>1625</v>
       </c>
       <c r="K633" s="6" t="s">
-        <v>1511</v>
+        <v>1572</v>
       </c>
       <c r="L633" s="6" t="s">
-        <v>1287</v>
-      </c>
-      <c r="M633" s="7" t="s">
-        <v>1639</v>
-      </c>
-      <c r="N633" s="8" t="s">
-        <v>1638</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="634" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="3">
-        <v>20574</v>
+        <v>10574</v>
       </c>
       <c r="B634" s="3" t="s">
-        <v>1635</v>
-      </c>
-      <c r="J634" s="5">
-        <v>1</v>
+        <v>1628</v>
+      </c>
+      <c r="C634" s="4" t="s">
+        <v>1631</v>
+      </c>
+      <c r="K634" s="6" t="s">
+        <v>1502</v>
+      </c>
+      <c r="L634" s="6" t="s">
+        <v>1286</v>
+      </c>
+      <c r="M634" s="7" t="s">
+        <v>1630</v>
+      </c>
+      <c r="N634" s="8" t="s">
+        <v>1629</v>
       </c>
     </row>
     <row r="635" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="3">
-        <v>20575</v>
+        <v>20574</v>
       </c>
       <c r="B635" s="3" t="s">
-        <v>1636</v>
+        <v>1626</v>
       </c>
       <c r="J635" s="5">
         <v>1</v>
@@ -17388,414 +18073,1813 @@
     </row>
     <row r="636" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="3">
-        <v>10575</v>
+        <v>20575</v>
       </c>
       <c r="B636" s="3" t="s">
-        <v>1641</v>
-      </c>
-      <c r="K636" s="6" t="s">
-        <v>1581</v>
-      </c>
-      <c r="L636" s="6" t="s">
-        <v>1288</v>
+        <v>1627</v>
+      </c>
+      <c r="J636" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="3">
-        <v>10576</v>
+        <v>10575</v>
       </c>
       <c r="B637" s="3" t="s">
-        <v>1642</v>
-      </c>
-      <c r="H637" s="5">
-        <v>-1</v>
+        <v>1632</v>
       </c>
       <c r="K637" s="6" t="s">
-        <v>1534</v>
+        <v>1572</v>
       </c>
       <c r="L637" s="6" t="s">
-        <v>1645</v>
-      </c>
-      <c r="M637" s="7" t="s">
-        <v>1647</v>
-      </c>
-      <c r="N637" s="8" t="s">
-        <v>1643</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="638" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="3">
-        <v>20576</v>
+        <v>10576</v>
       </c>
       <c r="B638" s="3" t="s">
-        <v>1646</v>
-      </c>
-      <c r="J638" s="5">
-        <v>1</v>
+        <v>1633</v>
+      </c>
+      <c r="H638" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K638" s="6" t="s">
+        <v>1525</v>
+      </c>
+      <c r="L638" s="6" t="s">
+        <v>1636</v>
+      </c>
+      <c r="M638" s="7" t="s">
+        <v>1638</v>
+      </c>
+      <c r="N638" s="8" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="639" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="3">
-        <v>10577</v>
+        <v>20576</v>
       </c>
       <c r="B639" s="3" t="s">
-        <v>1644</v>
-      </c>
-      <c r="K639" s="6" t="s">
-        <v>1534</v>
-      </c>
-      <c r="L639" s="6" t="s">
-        <v>1289</v>
+        <v>1637</v>
+      </c>
+      <c r="J639" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="3">
-        <v>10578</v>
+        <v>10577</v>
       </c>
       <c r="B640" s="3" t="s">
-        <v>1649</v>
+        <v>1635</v>
       </c>
       <c r="K640" s="6" t="s">
-        <v>1648</v>
+        <v>1525</v>
       </c>
       <c r="L640" s="6" t="s">
-        <v>1665</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="641" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="3">
-        <v>10579</v>
+        <v>10578</v>
       </c>
       <c r="B641" s="3" t="s">
-        <v>1650</v>
+        <v>1640</v>
       </c>
       <c r="K641" s="6" t="s">
-        <v>1511</v>
+        <v>1639</v>
       </c>
       <c r="L641" s="6" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="642" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="3">
-        <v>10580</v>
+        <v>10579</v>
       </c>
       <c r="B642" s="3" t="s">
-        <v>1651</v>
+        <v>1641</v>
       </c>
       <c r="K642" s="6" t="s">
-        <v>1657</v>
+        <v>1502</v>
       </c>
       <c r="L642" s="6" t="s">
-        <v>1659</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="643" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="3">
-        <v>20580</v>
+        <v>10580</v>
       </c>
       <c r="B643" s="3" t="s">
-        <v>1651</v>
+        <v>1642</v>
       </c>
       <c r="K643" s="6" t="s">
-        <v>1666</v>
+        <v>1648</v>
+      </c>
+      <c r="L643" s="6" t="s">
+        <v>1650</v>
       </c>
     </row>
     <row r="644" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="3">
-        <v>10581</v>
+        <v>20580</v>
       </c>
       <c r="B644" s="3" t="s">
-        <v>1652</v>
+        <v>1642</v>
       </c>
       <c r="K644" s="6" t="s">
         <v>1657</v>
       </c>
-      <c r="L644" s="6" t="s">
-        <v>1291</v>
-      </c>
     </row>
     <row r="645" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="3">
-        <v>10582</v>
+        <v>10581</v>
       </c>
       <c r="B645" s="3" t="s">
-        <v>1653</v>
+        <v>1643</v>
       </c>
       <c r="K645" s="6" t="s">
-        <v>1656</v>
+        <v>1648</v>
       </c>
       <c r="L645" s="6" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="646" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="3">
-        <v>10583</v>
+        <v>10582</v>
       </c>
       <c r="B646" s="3" t="s">
-        <v>1654</v>
+        <v>1644</v>
       </c>
       <c r="K646" s="6" t="s">
-        <v>1656</v>
+        <v>1647</v>
       </c>
       <c r="L646" s="6" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="647" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="3">
-        <v>10584</v>
+        <v>10583</v>
       </c>
       <c r="B647" s="3" t="s">
-        <v>1655</v>
+        <v>1645</v>
       </c>
       <c r="K647" s="6" t="s">
-        <v>1656</v>
+        <v>1647</v>
       </c>
       <c r="L647" s="6" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="648" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="3">
-        <v>10585</v>
+        <v>10584</v>
       </c>
       <c r="B648" s="3" t="s">
-        <v>1660</v>
+        <v>1646</v>
       </c>
       <c r="K648" s="6" t="s">
-        <v>1661</v>
+        <v>1647</v>
       </c>
       <c r="L648" s="6" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="649" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="3">
-        <v>10586</v>
+        <v>10585</v>
       </c>
       <c r="B649" s="3" t="s">
-        <v>1663</v>
+        <v>1651</v>
       </c>
       <c r="K649" s="6" t="s">
-        <v>1664</v>
+        <v>1652</v>
       </c>
       <c r="L649" s="6" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="650" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="3">
-        <v>10587</v>
+        <v>10586</v>
       </c>
       <c r="B650" s="3" t="s">
-        <v>1662</v>
+        <v>1654</v>
       </c>
       <c r="K650" s="6" t="s">
-        <v>1664</v>
+        <v>1655</v>
       </c>
       <c r="L650" s="6" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="651" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="3">
-        <v>10588</v>
+        <v>10587</v>
+      </c>
+      <c r="B651" s="3" t="s">
+        <v>1653</v>
       </c>
       <c r="K651" s="6" t="s">
-        <v>1290</v>
+        <v>1655</v>
       </c>
       <c r="L651" s="6" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="652" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="3">
-        <v>10589</v>
+        <v>10588</v>
+      </c>
+      <c r="B652" s="3" t="s">
+        <v>1658</v>
       </c>
       <c r="K652" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L652" s="6" t="s">
-        <v>1299</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="653" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="3">
-        <v>10590</v>
+        <v>10589</v>
+      </c>
+      <c r="B653" s="3" t="s">
+        <v>1658</v>
       </c>
       <c r="K653" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L653" s="6" t="s">
-        <v>1300</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="654" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="3">
-        <v>10591</v>
+        <v>10590</v>
+      </c>
+      <c r="B654" s="3" t="s">
+        <v>1662</v>
       </c>
       <c r="K654" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L654" s="6" t="s">
-        <v>1301</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="655" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="3">
-        <v>10592</v>
+        <v>10591</v>
+      </c>
+      <c r="B655" s="3" t="s">
+        <v>1663</v>
       </c>
       <c r="K655" s="6" t="s">
-        <v>1290</v>
+        <v>153</v>
       </c>
       <c r="L655" s="6" t="s">
-        <v>1302</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="656" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="3">
+        <v>10592</v>
+      </c>
+      <c r="B656" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F656" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K656" s="6" t="s">
+        <v>1664</v>
+      </c>
+      <c r="L656" s="6" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="657" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A657" s="3">
         <v>10593</v>
       </c>
-      <c r="K656" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L656" s="6" t="s">
+      <c r="B657" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="K657" s="6" t="s">
+        <v>1652</v>
+      </c>
+      <c r="L657" s="6" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="658" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A658" s="3">
+        <v>10594</v>
+      </c>
+      <c r="B658" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="K658" s="6" t="s">
+        <v>1652</v>
+      </c>
+      <c r="L658" s="6" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="659" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A659" s="3">
+        <v>10595</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C659" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="K659" s="21" t="s">
+        <v>1673</v>
+      </c>
+      <c r="L659" s="6" t="s">
+        <v>1675</v>
+      </c>
+      <c r="M659" s="7" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="660" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A660" s="3">
+        <v>10596</v>
+      </c>
+      <c r="B660" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C660" s="4" t="s">
+        <v>1677</v>
+      </c>
+      <c r="K660" s="21" t="s">
+        <v>1674</v>
+      </c>
+      <c r="L660" s="6" t="s">
+        <v>1676</v>
+      </c>
+      <c r="M660" s="7" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="661" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A661" s="3">
+        <v>20596</v>
+      </c>
+      <c r="B661" s="3" t="s">
+        <v>1678</v>
+      </c>
+      <c r="J661" s="5">
+        <v>1</v>
+      </c>
+      <c r="K661" s="21"/>
+    </row>
+    <row r="662" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A662" s="3">
+        <v>10597</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>1680</v>
+      </c>
+      <c r="K662" s="6" t="s">
+        <v>1652</v>
+      </c>
+      <c r="L662" s="6" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="663" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A663" s="3">
+        <v>10598</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>1681</v>
+      </c>
+      <c r="H663" s="5">
+        <v>-1</v>
+      </c>
+      <c r="K663" s="6" t="s">
+        <v>1652</v>
+      </c>
+      <c r="L663" s="6" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="664" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A664" s="3">
+        <v>10599</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>1682</v>
+      </c>
+      <c r="K664" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="L664" s="6" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="665" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A665" s="3">
+        <v>10600</v>
+      </c>
+      <c r="B665" s="3" t="s">
+        <v>1683</v>
+      </c>
+      <c r="K665" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="L665" s="6" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="666" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A666" s="3">
+        <v>10601</v>
+      </c>
+      <c r="B666" s="3" t="s">
+        <v>1684</v>
+      </c>
+      <c r="K666" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="L666" s="6" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="667" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A667" s="3">
+        <v>10602</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>1685</v>
+      </c>
+      <c r="K667" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="L667" s="6" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="657" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A657" s="3">
-        <v>10594</v>
-      </c>
-      <c r="K657" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L657" s="6" t="s">
+    <row r="668" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A668" s="3">
+        <v>10603</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>1686</v>
+      </c>
+      <c r="K668" s="6" t="s">
+        <v>1687</v>
+      </c>
+      <c r="L668" s="6" t="s">
         <v>1304</v>
       </c>
     </row>
-    <row r="658" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A658" s="3">
-        <v>10595</v>
-      </c>
-      <c r="K658" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L658" s="6" t="s">
+    <row r="669" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A669" s="3">
+        <v>10604</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="K669" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="L669" s="6" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="659" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A659" s="3">
-        <v>10596</v>
-      </c>
-      <c r="K659" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L659" s="6" t="s">
+    <row r="670" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A670" s="3">
+        <v>10605</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="K670" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="L670" s="6" t="s">
         <v>1306</v>
       </c>
     </row>
-    <row r="660" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A660" s="3">
-        <v>10597</v>
-      </c>
-      <c r="K660" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L660" s="6" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="661" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A661" s="3">
-        <v>10598</v>
-      </c>
-      <c r="K661" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L661" s="6" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="662" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A662" s="3">
-        <v>10599</v>
-      </c>
-      <c r="K662" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L662" s="6" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="663" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A663" s="3">
-        <v>10600</v>
-      </c>
-      <c r="K663" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L663" s="6" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="664" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A664" s="3">
-        <v>10601</v>
-      </c>
-      <c r="K664" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L664" s="6" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="665" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A665" s="3">
-        <v>10602</v>
-      </c>
-      <c r="K665" s="6" t="s">
-        <v>1290</v>
-      </c>
-      <c r="L665" s="6" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="666" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A666" s="3">
-        <v>10603</v>
-      </c>
-      <c r="L666" s="6" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="667" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A667" s="3">
-        <v>10604</v>
-      </c>
-      <c r="L667" s="6" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="668" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A668" s="3">
-        <v>10605</v>
-      </c>
-      <c r="L668" s="6" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="669" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A669" s="3">
+    <row r="671" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A671" s="3">
         <v>10606</v>
       </c>
-    </row>
-    <row r="670" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A670" s="3">
+      <c r="B671" s="3" t="s">
+        <v>1690</v>
+      </c>
+      <c r="K671" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="L671" s="6" t="s">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="672" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A672" s="3">
         <v>10607</v>
+      </c>
+      <c r="B672" s="3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G672" s="5">
+        <v>1</v>
+      </c>
+      <c r="K672" s="6" t="s">
+        <v>1730</v>
+      </c>
+      <c r="L672" s="6" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="673" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A673" s="3">
+        <v>10608</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>1691</v>
+      </c>
+      <c r="K673" s="6" t="s">
+        <v>1731</v>
+      </c>
+      <c r="L673" s="6" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="674" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A674" s="3">
+        <v>10609</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>1693</v>
+      </c>
+      <c r="K674" s="6" t="s">
+        <v>1672</v>
+      </c>
+      <c r="L674" s="6" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="675" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A675" s="3">
+        <v>10610</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="H675" s="5">
+        <v>1</v>
+      </c>
+      <c r="K675" s="6" t="s">
+        <v>1732</v>
+      </c>
+      <c r="L675" s="6" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="676" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A676" s="3">
+        <v>10611</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>1733</v>
+      </c>
+      <c r="H676" s="5">
+        <v>1</v>
+      </c>
+      <c r="K676" s="6" t="s">
+        <v>1730</v>
+      </c>
+      <c r="L676" s="6" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="677" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A677" s="3">
+        <v>10612</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>1734</v>
+      </c>
+      <c r="H677" s="5">
+        <v>1</v>
+      </c>
+      <c r="K677" s="6" t="s">
+        <v>1652</v>
+      </c>
+      <c r="L677" s="6" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="678" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A678" s="3">
+        <v>10613</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>1737</v>
+      </c>
+      <c r="K678" s="6" t="s">
+        <v>1738</v>
+      </c>
+      <c r="L678" s="6" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="679" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A679" s="3">
+        <v>10614</v>
+      </c>
+      <c r="B679" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="K679" s="6" t="s">
+        <v>1810</v>
+      </c>
+      <c r="L679" s="6" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="680" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A680" s="3">
+        <v>10615</v>
+      </c>
+      <c r="B680" s="3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="K680" s="6" t="s">
+        <v>1810</v>
+      </c>
+      <c r="L680" s="6" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="681" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A681" s="3">
+        <v>10616</v>
+      </c>
+      <c r="B681" s="3" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G681" s="5">
+        <v>1</v>
+      </c>
+      <c r="K681" s="6" t="s">
+        <v>1738</v>
+      </c>
+      <c r="L681" s="6" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="682" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A682" s="3">
+        <v>10617</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>1742</v>
+      </c>
+      <c r="K682" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L682" s="6" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="683" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A683" s="3">
+        <v>10618</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>1743</v>
+      </c>
+      <c r="K683" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L683" s="6" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="684" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A684" s="3">
+        <v>10619</v>
+      </c>
+      <c r="B684" s="3" t="s">
+        <v>1744</v>
+      </c>
+      <c r="K684" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L684" s="6" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="685" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A685" s="3">
+        <v>10620</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G685" s="5">
+        <v>1</v>
+      </c>
+      <c r="K685" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L685" s="6" t="s">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="686" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A686" s="3">
+        <v>10621</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>1746</v>
+      </c>
+      <c r="K686" s="6" t="s">
+        <v>1748</v>
+      </c>
+      <c r="L686" s="6" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="687" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A687" s="3">
+        <v>10622</v>
+      </c>
+      <c r="B687" s="3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="K687" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L687" s="6" t="s">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="688" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A688" s="3">
+        <v>10623</v>
+      </c>
+      <c r="B688" s="3" t="s">
+        <v>1750</v>
+      </c>
+      <c r="K688" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L688" s="6" t="s">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="689" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A689" s="3">
+        <v>10624</v>
+      </c>
+      <c r="B689" s="3" t="s">
+        <v>1751</v>
+      </c>
+      <c r="K689" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L689" s="6" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="690" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A690" s="3">
+        <v>10625</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="K690" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L690" s="6" t="s">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="691" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A691" s="3">
+        <v>10626</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="K691" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L691" s="6" t="s">
+        <v>1710</v>
+      </c>
+    </row>
+    <row r="692" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A692" s="3">
+        <v>10627</v>
+      </c>
+      <c r="B692" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="K692" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L692" s="6" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="693" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A693" s="3">
+        <v>10628</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="K693" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L693" s="6" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="694" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A694" s="3">
+        <v>10629</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>1756</v>
+      </c>
+      <c r="K694" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L694" s="6" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="695" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A695" s="3">
+        <v>10630</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="K695" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L695" s="6" t="s">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="696" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A696" s="3">
+        <v>10631</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="K696" s="6" t="s">
+        <v>1760</v>
+      </c>
+      <c r="L696" s="6" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="697" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A697" s="3">
+        <v>10632</v>
+      </c>
+      <c r="B697" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="K697" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L697" s="6" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="698" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A698" s="3">
+        <v>10633</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="K698" s="6" t="s">
+        <v>1762</v>
+      </c>
+      <c r="L698" s="6" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="699" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A699" s="3">
+        <v>10634</v>
+      </c>
+      <c r="B699" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="K699" s="6" t="s">
+        <v>1762</v>
+      </c>
+      <c r="L699" s="6" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="700" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A700" s="3">
+        <v>10635</v>
+      </c>
+      <c r="B700" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="K700" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L700" s="6" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="701" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A701" s="3">
+        <v>10636</v>
+      </c>
+      <c r="B701" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="K701" s="6" t="s">
+        <v>1783</v>
+      </c>
+      <c r="L701" s="6" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="702" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A702" s="3">
+        <v>10637</v>
+      </c>
+      <c r="B702" s="3" t="s">
+        <v>1766</v>
+      </c>
+      <c r="K702" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L702" s="6" t="s">
+        <v>1721</v>
+      </c>
+    </row>
+    <row r="703" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A703" s="3">
+        <v>10638</v>
+      </c>
+      <c r="B703" s="3" t="s">
+        <v>1767</v>
+      </c>
+      <c r="K703" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L703" s="6" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="704" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A704" s="3">
+        <v>10639</v>
+      </c>
+      <c r="B704" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="K704" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L704" s="6" t="s">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="705" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A705" s="3">
+        <v>10640</v>
+      </c>
+      <c r="B705" s="3" t="s">
+        <v>1784</v>
+      </c>
+      <c r="H705" s="5">
+        <v>1</v>
+      </c>
+      <c r="K705" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L705" s="6" t="s">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="706" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A706" s="3">
+        <v>10641</v>
+      </c>
+      <c r="B706" s="3" t="s">
+        <v>1785</v>
+      </c>
+      <c r="H706" s="5">
+        <v>1</v>
+      </c>
+      <c r="K706" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L706" s="6" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="707" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A707" s="3">
+        <v>10642</v>
+      </c>
+      <c r="B707" s="3" t="s">
+        <v>1786</v>
+      </c>
+      <c r="H707" s="5">
+        <v>1</v>
+      </c>
+      <c r="K707" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L707" s="6" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="708" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A708" s="3">
+        <v>10643</v>
+      </c>
+      <c r="B708" s="3" t="s">
+        <v>1787</v>
+      </c>
+      <c r="H708" s="5">
+        <v>1</v>
+      </c>
+      <c r="K708" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L708" s="6" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="709" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A709" s="3">
+        <v>10644</v>
+      </c>
+      <c r="B709" s="3" t="s">
+        <v>1788</v>
+      </c>
+      <c r="H709" s="5">
+        <v>1</v>
+      </c>
+      <c r="K709" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L709" s="6" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="710" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A710" s="3">
+        <v>10645</v>
+      </c>
+      <c r="B710" s="3" t="s">
+        <v>1789</v>
+      </c>
+      <c r="H710" s="5">
+        <v>1</v>
+      </c>
+      <c r="K710" s="6" t="s">
+        <v>1810</v>
+      </c>
+      <c r="L710" s="6" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="711" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A711" s="3">
+        <v>10646</v>
+      </c>
+      <c r="B711" s="3" t="s">
+        <v>1790</v>
+      </c>
+      <c r="H711" s="5">
+        <v>1</v>
+      </c>
+      <c r="K711" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L711" s="6" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="712" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A712" s="3">
+        <v>10647</v>
+      </c>
+      <c r="B712" s="3" t="s">
+        <v>1791</v>
+      </c>
+      <c r="K712" s="6" t="s">
+        <v>1762</v>
+      </c>
+      <c r="L712" s="6" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="713" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A713" s="3">
+        <v>10648</v>
+      </c>
+      <c r="B713" s="3" t="s">
+        <v>1792</v>
+      </c>
+      <c r="K713" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L713" s="6" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="714" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A714" s="3">
+        <v>10649</v>
+      </c>
+      <c r="B714" s="3" t="s">
+        <v>1793</v>
+      </c>
+      <c r="K714" s="6" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L714" s="6" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="715" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A715" s="3">
+        <v>10650</v>
+      </c>
+      <c r="B715" s="3" t="s">
+        <v>1794</v>
+      </c>
+      <c r="K715" s="6" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L715" s="6" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="716" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A716" s="3">
+        <v>10651</v>
+      </c>
+      <c r="B716" s="3" t="s">
+        <v>1796</v>
+      </c>
+      <c r="K716" s="6" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L716" s="6" t="s">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="717" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A717" s="3">
+        <v>10652</v>
+      </c>
+      <c r="B717" s="3" t="s">
+        <v>1797</v>
+      </c>
+      <c r="K717" s="6" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L717" s="6" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="718" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A718" s="3">
+        <v>10653</v>
+      </c>
+      <c r="B718" s="3" t="s">
+        <v>1802</v>
+      </c>
+      <c r="K718" s="6" t="s">
+        <v>1748</v>
+      </c>
+      <c r="L718" s="6" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="719" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A719" s="3">
+        <v>10654</v>
+      </c>
+      <c r="B719" s="3" t="s">
+        <v>1803</v>
+      </c>
+      <c r="K719" s="6" t="s">
+        <v>1762</v>
+      </c>
+      <c r="L719" s="6" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="720" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A720" s="3">
+        <v>10655</v>
+      </c>
+      <c r="B720" s="3" t="s">
+        <v>1804</v>
+      </c>
+      <c r="K720" s="6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="L720" s="6" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="721" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A721" s="3">
+        <v>10656</v>
+      </c>
+      <c r="B721" s="3" t="s">
+        <v>1806</v>
+      </c>
+      <c r="K721" s="6" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L721" s="6" t="s">
+        <v>1809</v>
+      </c>
+      <c r="M721" s="7" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="722" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A722" s="3">
+        <v>10657</v>
+      </c>
+      <c r="B722" s="3" t="s">
+        <v>1807</v>
+      </c>
+      <c r="K722" s="6" t="s">
+        <v>1795</v>
+      </c>
+      <c r="L722" s="6" t="s">
+        <v>1809</v>
+      </c>
+      <c r="M722" s="7" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="723" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A723" s="3">
+        <v>10658</v>
+      </c>
+      <c r="B723" s="3" t="s">
+        <v>1811</v>
+      </c>
+      <c r="K723" s="6" t="s">
+        <v>1812</v>
+      </c>
+      <c r="L723" s="6" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="724" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A724" s="3">
+        <v>10659</v>
+      </c>
+      <c r="B724" s="3" t="s">
+        <v>1813</v>
+      </c>
+      <c r="K724" s="6" t="s">
+        <v>1810</v>
+      </c>
+      <c r="L724" s="6" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="725" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A725" s="3">
+        <v>10660</v>
+      </c>
+      <c r="K725" s="6" t="s">
+        <v>1814</v>
+      </c>
+      <c r="L725" s="6" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="726" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A726" s="3">
+        <v>10661</v>
+      </c>
+      <c r="K726" s="6" t="s">
+        <v>1814</v>
+      </c>
+      <c r="L726" s="6" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="727" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A727" s="3">
+        <v>10662</v>
+      </c>
+      <c r="K727" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L727" s="6" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="728" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A728" s="3">
+        <v>10663</v>
+      </c>
+      <c r="K728" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L728" s="6" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="729" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A729" s="3">
+        <v>10664</v>
+      </c>
+      <c r="K729" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L729" s="6" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="730" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A730" s="3">
+        <v>10665</v>
+      </c>
+      <c r="K730" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L730" s="6" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="731" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A731" s="3">
+        <v>10666</v>
+      </c>
+      <c r="K731" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L731" s="6" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="732" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A732" s="3">
+        <v>10667</v>
+      </c>
+      <c r="K732" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L732" s="6" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="733" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A733" s="3">
+        <v>10668</v>
+      </c>
+      <c r="K733" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L733" s="6" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="734" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A734" s="3">
+        <v>10669</v>
+      </c>
+      <c r="K734" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L734" s="6" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="735" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A735" s="3">
+        <v>10670</v>
+      </c>
+      <c r="K735" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L735" s="6" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="736" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A736" s="3">
+        <v>10671</v>
+      </c>
+      <c r="K736" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L736" s="6" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="737" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A737" s="3">
+        <v>10672</v>
+      </c>
+      <c r="K737" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L737" s="6" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="738" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A738" s="3">
+        <v>10673</v>
+      </c>
+      <c r="K738" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L738" s="6" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="739" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A739" s="3">
+        <v>10674</v>
+      </c>
+      <c r="K739" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L739" s="6" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="740" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A740" s="3">
+        <v>10675</v>
+      </c>
+      <c r="K740" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L740" s="6" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="741" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A741" s="3">
+        <v>10676</v>
+      </c>
+      <c r="K741" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L741" s="6" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="742" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A742" s="3">
+        <v>10677</v>
+      </c>
+      <c r="K742" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L742" s="6" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="743" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A743" s="3">
+        <v>10678</v>
+      </c>
+      <c r="K743" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L743" s="6" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="744" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A744" s="3">
+        <v>10679</v>
+      </c>
+      <c r="K744" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L744" s="6" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="745" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A745" s="3">
+        <v>10680</v>
+      </c>
+      <c r="K745" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L745" s="6" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="746" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A746" s="3">
+        <v>10681</v>
+      </c>
+      <c r="K746" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L746" s="6" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="747" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A747" s="3">
+        <v>10682</v>
+      </c>
+      <c r="K747" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L747" s="6" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="748" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A748" s="3">
+        <v>10683</v>
+      </c>
+      <c r="K748" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L748" s="6" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="749" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A749" s="3">
+        <v>10684</v>
+      </c>
+      <c r="K749" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L749" s="6" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="750" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A750" s="3">
+        <v>10685</v>
+      </c>
+      <c r="K750" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L750" s="6" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="751" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A751" s="3">
+        <v>10686</v>
+      </c>
+      <c r="K751" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L751" s="6" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="752" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A752" s="3">
+        <v>10687</v>
+      </c>
+      <c r="K752" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L752" s="6" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="753" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A753" s="3">
+        <v>10688</v>
+      </c>
+      <c r="K753" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L753" s="6" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="754" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A754" s="3">
+        <v>10689</v>
+      </c>
+      <c r="K754" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L754" s="6" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="755" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A755" s="3">
+        <v>10690</v>
+      </c>
+      <c r="K755" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L755" s="6" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="756" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A756" s="3">
+        <v>10691</v>
+      </c>
+      <c r="K756" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L756" s="6" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="757" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A757" s="3">
+        <v>10692</v>
+      </c>
+      <c r="K757" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L757" s="6" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="758" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A758" s="3">
+        <v>10693</v>
+      </c>
+      <c r="K758" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L758" s="6" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="759" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A759" s="3">
+        <v>10694</v>
+      </c>
+      <c r="K759" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L759" s="6" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="760" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A760" s="3">
+        <v>10695</v>
+      </c>
+      <c r="K760" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L760" s="6" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="761" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A761" s="3">
+        <v>10696</v>
+      </c>
+      <c r="K761" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L761" s="6" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="762" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A762" s="3">
+        <v>10697</v>
+      </c>
+      <c r="K762" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L762" s="6" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="763" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A763" s="3">
+        <v>10698</v>
+      </c>
+      <c r="K763" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L763" s="6" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="764" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A764" s="3">
+        <v>10699</v>
+      </c>
+      <c r="K764" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L764" s="6" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="765" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A765" s="3">
+        <v>10700</v>
+      </c>
+      <c r="K765" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L765" s="6" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="766" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A766" s="3">
+        <v>10701</v>
+      </c>
+      <c r="K766" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L766" s="6" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="767" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A767" s="3">
+        <v>10702</v>
+      </c>
+      <c r="K767" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L767" s="6" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="768" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A768" s="3">
+        <v>10703</v>
+      </c>
+      <c r="K768" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L768" s="6" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="769" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A769" s="3">
+        <v>10704</v>
+      </c>
+      <c r="K769" s="6" t="s">
+        <v>1696</v>
+      </c>
+      <c r="L769" s="6" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="770" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A770" s="3">
+        <v>10705</v>
+      </c>
+      <c r="L770" s="6" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="771" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A771" s="3">
+        <v>10706</v>
+      </c>
+    </row>
+    <row r="772" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A772" s="3">
+        <v>10707</v>
       </c>
     </row>
   </sheetData>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9E4B41-ABD4-4080-A0F6-6828AB4B0664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D913977-9173-4EDF-9F0C-F0122D0E06DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4686" uniqueCount="3665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4748" uniqueCount="3713">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -10743,10 +10743,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(EVT?[11093])|(TLT?[1027])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你没抢到想选修的课。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -11309,10 +11305,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(EVT?[11171])|(TLT?[1027])</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>(EVT?[11128,11171])|(TLT?[1027])</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -13814,6 +13806,197 @@
   </si>
   <si>
     <t>(EVT?[11295,11294,11362,11363,11357,10270,10271,11294,20076])|(TLT?[1123])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[11093,10612,10610,10611])|(TLT?[1027])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[11171,10612,10610,10611])|(TLT?[1027])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你使用魔法棒，变身成了魔法少女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(TLT?[1131])&amp;(EVT?[10002])&amp;(EVT?[10007,10008])</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你变强了，但从此你要履行身为魔法少女的使命……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你和人类看不见的怪物战斗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[11451]</t>
+  </si>
+  <si>
+    <t>EVT?[11451]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你守护着这个星球。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不再是少女，魔法棒离开了你寻找下一个主人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的魔法少女生涯结束了，魔力也都消散了，你变回了普通人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但你还是赢了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&lt;88:10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个外星人来地球宣称要统治地球，被你秒杀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[11456]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你和侵入地球的银河帝王战斗。它十分强大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&lt;5:21457</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你意志力不足，被诱导恶堕了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你遭到了触手女王的攻击。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你消灭了触手女王。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你变成了触手魔女，从此为女王效力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[21457]</t>
+  </si>
+  <si>
+    <t>EVT?[21457]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[11456,21457]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[11455,21457]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[21457,11454]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[11457,21457]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在地球上肆意破坏。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你引诱其他魔法少女恶堕。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法国臣服在你裙下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你摧毁了美国。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你摧毁了英国。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你摧毁了俄罗斯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你消灭了日本所有的男性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你遭遇了一个强大的魔法少女。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你拼尽全力杀死了对方,并吸取了她的魔力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[11460]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[11461]</t>
+  </si>
+  <si>
+    <t>EVT?[11462]</t>
+  </si>
+  <si>
+    <t>EVT?[11463]</t>
+  </si>
+  <si>
+    <t>EVT?[11464]</t>
+  </si>
+  <si>
+    <t>EVT?[11465]</t>
+  </si>
+  <si>
+    <t>EVT?[11466]</t>
+  </si>
+  <si>
+    <t>EVT?[11467]</t>
+  </si>
+  <si>
+    <t>苦战后你杀死了对方。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&lt;100:10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个会飞的人对你出手，他称自己是筑基期修士。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&lt;2000:10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你还没看清对方怎么出手就失去了意识。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个会飞的人对你出手，他称自己是渡劫期修士。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14411,13 +14594,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1547"/>
+  <dimension ref="A1:N1565"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F283" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I1548" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B293" sqref="B293"/>
+      <selection pane="bottomRight" activeCell="I1565" sqref="I1565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18801,7 +18984,7 @@
         <v>1</v>
       </c>
       <c r="K258" s="6" t="s">
-        <v>3657</v>
+        <v>3655</v>
       </c>
       <c r="L258" s="6" t="s">
         <v>656</v>
@@ -19354,7 +19537,7 @@
         <v>731</v>
       </c>
       <c r="L293" s="6" t="s">
-        <v>3660</v>
+        <v>3658</v>
       </c>
     </row>
     <row r="294" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19371,7 +19554,7 @@
         <v>732</v>
       </c>
       <c r="L294" s="6" t="s">
-        <v>3661</v>
+        <v>3659</v>
       </c>
     </row>
     <row r="295" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19433,10 +19616,10 @@
         <v>729</v>
       </c>
       <c r="L298" s="6" t="s">
-        <v>3662</v>
+        <v>3660</v>
       </c>
       <c r="M298" s="7" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="299" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -19450,10 +19633,10 @@
         <v>793</v>
       </c>
       <c r="L299" s="6" t="s">
-        <v>3663</v>
+        <v>3661</v>
       </c>
       <c r="M299" s="7" t="s">
-        <v>3296</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="300" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -20068,7 +20251,7 @@
         <v>802</v>
       </c>
       <c r="K337" s="6" t="s">
-        <v>3578</v>
+        <v>3576</v>
       </c>
       <c r="L337" s="6" t="s">
         <v>638</v>
@@ -20082,7 +20265,7 @@
         <v>803</v>
       </c>
       <c r="K338" s="6" t="s">
-        <v>3578</v>
+        <v>3576</v>
       </c>
       <c r="L338" s="6" t="s">
         <v>639</v>
@@ -20102,7 +20285,7 @@
         <v>1</v>
       </c>
       <c r="K339" s="6" t="s">
-        <v>3579</v>
+        <v>3577</v>
       </c>
       <c r="L339" s="6" t="s">
         <v>1350</v>
@@ -20130,7 +20313,7 @@
         <v>807</v>
       </c>
       <c r="K341" s="6" t="s">
-        <v>3580</v>
+        <v>3578</v>
       </c>
       <c r="L341" s="6" t="s">
         <v>786</v>
@@ -20201,7 +20384,7 @@
         <v>811</v>
       </c>
       <c r="K346" s="6" t="s">
-        <v>3581</v>
+        <v>3579</v>
       </c>
       <c r="L346" s="6" t="s">
         <v>790</v>
@@ -21893,7 +22076,7 @@
         <v>1127</v>
       </c>
       <c r="L436" s="6" t="s">
-        <v>3658</v>
+        <v>3656</v>
       </c>
       <c r="M436" s="7" t="s">
         <v>1415</v>
@@ -22067,7 +22250,7 @@
         <v>1132</v>
       </c>
       <c r="K448" s="6" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="L448" s="6" t="s">
         <v>958</v>
@@ -22224,7 +22407,7 @@
         <v>1443</v>
       </c>
       <c r="K459" s="6" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="L459" s="6" t="s">
         <v>964</v>
@@ -22252,7 +22435,7 @@
         <v>1138</v>
       </c>
       <c r="K461" s="6" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="L461" s="6" t="s">
         <v>965</v>
@@ -22280,7 +22463,7 @@
         <v>1139</v>
       </c>
       <c r="K463" s="6" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="L463" s="6" t="s">
         <v>1143</v>
@@ -22325,7 +22508,7 @@
         <v>1141</v>
       </c>
       <c r="K466" s="6" t="s">
-        <v>3583</v>
+        <v>3581</v>
       </c>
       <c r="L466" s="6" t="s">
         <v>966</v>
@@ -22457,7 +22640,7 @@
         <v>970</v>
       </c>
       <c r="M475" s="7" t="s">
-        <v>3659</v>
+        <v>3657</v>
       </c>
     </row>
     <row r="476" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -22577,7 +22760,7 @@
         <v>1155</v>
       </c>
       <c r="K484" s="6" t="s">
-        <v>3583</v>
+        <v>3581</v>
       </c>
       <c r="L484" s="6" t="s">
         <v>975</v>
@@ -22664,7 +22847,7 @@
         <v>1160</v>
       </c>
       <c r="K490" s="6" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="L490" s="6" t="s">
         <v>980</v>
@@ -22703,7 +22886,7 @@
         <v>1162</v>
       </c>
       <c r="K493" s="6" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="L493" s="6" t="s">
         <v>981</v>
@@ -22748,7 +22931,7 @@
         <v>1165</v>
       </c>
       <c r="K496" s="6" t="s">
-        <v>3583</v>
+        <v>3581</v>
       </c>
       <c r="L496" s="6" t="s">
         <v>984</v>
@@ -22762,7 +22945,7 @@
         <v>1166</v>
       </c>
       <c r="K497" s="6" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="L497" s="6" t="s">
         <v>985</v>
@@ -22818,7 +23001,7 @@
         <v>1169</v>
       </c>
       <c r="K501" s="6" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="L501" s="6" t="s">
         <v>988</v>
@@ -22947,7 +23130,7 @@
         <v>20456</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>3584</v>
+        <v>3582</v>
       </c>
       <c r="H510" s="5">
         <v>1</v>
@@ -22964,7 +23147,7 @@
         <v>1175</v>
       </c>
       <c r="K511" s="6" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="L511" s="6" t="s">
         <v>994</v>
@@ -22992,7 +23175,7 @@
         <v>1177</v>
       </c>
       <c r="K513" s="6" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="L513" s="6" t="s">
         <v>996</v>
@@ -23006,7 +23189,7 @@
         <v>20459</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
       <c r="J514" s="5">
         <v>1</v>
@@ -26802,7 +26985,7 @@
         <v>1882</v>
       </c>
       <c r="K772" s="6" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="L772" s="6" t="s">
         <v>1814</v>
@@ -26844,7 +27027,7 @@
         <v>1885</v>
       </c>
       <c r="K775" s="6" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="L775" s="6" t="s">
         <v>1817</v>
@@ -26970,10 +27153,10 @@
         <v>10710</v>
       </c>
       <c r="B784" s="3" t="s">
-        <v>3360</v>
+        <v>3358</v>
       </c>
       <c r="K784" s="6" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="L784" s="6" t="s">
         <v>1874</v>
@@ -26984,7 +27167,7 @@
         <v>10711</v>
       </c>
       <c r="B785" s="3" t="s">
-        <v>3361</v>
+        <v>3359</v>
       </c>
       <c r="K785" s="6" t="s">
         <v>1483</v>
@@ -27015,7 +27198,7 @@
         <v>1913</v>
       </c>
       <c r="K787" s="6" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="L787" s="6" t="s">
         <v>1877</v>
@@ -27029,7 +27212,7 @@
         <v>1914</v>
       </c>
       <c r="K788" s="6" t="s">
-        <v>3359</v>
+        <v>3357</v>
       </c>
       <c r="L788" s="6" t="s">
         <v>1878</v>
@@ -28200,7 +28383,7 @@
         <v>-1</v>
       </c>
       <c r="K865" s="6" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="L865" s="6" t="s">
         <v>2094</v>
@@ -28214,7 +28397,7 @@
         <v>2143</v>
       </c>
       <c r="K866" s="6" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="L866" s="6" t="s">
         <v>2095</v>
@@ -28259,7 +28442,7 @@
         <v>-2</v>
       </c>
       <c r="K869" s="6" t="s">
-        <v>3358</v>
+        <v>3356</v>
       </c>
       <c r="L869" s="6" t="s">
         <v>2098</v>
@@ -28273,7 +28456,7 @@
         <v>2160</v>
       </c>
       <c r="K870" s="6" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="L870" s="6" t="s">
         <v>2099</v>
@@ -28315,7 +28498,7 @@
         <v>2163</v>
       </c>
       <c r="K873" s="6" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="L873" s="6" t="s">
         <v>2102</v>
@@ -28427,7 +28610,7 @@
         <v>2172</v>
       </c>
       <c r="K881" s="6" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="L881" s="6" t="s">
         <v>2109</v>
@@ -28483,7 +28666,7 @@
         <v>2177</v>
       </c>
       <c r="K885" s="6" t="s">
-        <v>3357</v>
+        <v>3355</v>
       </c>
       <c r="L885" s="6" t="s">
         <v>2113</v>
@@ -28511,7 +28694,7 @@
         <v>2179</v>
       </c>
       <c r="K887" s="6" t="s">
-        <v>3359</v>
+        <v>3357</v>
       </c>
       <c r="L887" s="6" t="s">
         <v>2115</v>
@@ -32759,7 +32942,7 @@
         <v>2819</v>
       </c>
       <c r="L1175" s="6" t="s">
-        <v>2847</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="1176" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -32868,10 +33051,10 @@
         <v>2838</v>
       </c>
       <c r="K1183" s="6" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="L1183" s="6" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
     </row>
     <row r="1184" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -32907,7 +33090,7 @@
         <v>11104</v>
       </c>
       <c r="B1186" s="3" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="K1186" s="6" t="s">
         <v>2840</v>
@@ -32921,7 +33104,7 @@
         <v>11105</v>
       </c>
       <c r="B1187" s="3" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="K1187" s="6" t="s">
         <v>2836</v>
@@ -32935,7 +33118,7 @@
         <v>11106</v>
       </c>
       <c r="B1188" s="3" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="F1188" s="5">
         <v>-1</v>
@@ -32944,7 +33127,7 @@
         <v>2836</v>
       </c>
       <c r="L1188" s="6" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
     </row>
     <row r="1189" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -32952,7 +33135,7 @@
         <v>11107</v>
       </c>
       <c r="B1189" s="3" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="K1189" s="6" t="s">
         <v>2836</v>
@@ -32966,7 +33149,7 @@
         <v>11108</v>
       </c>
       <c r="B1190" s="3" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="K1190" s="6" t="s">
         <v>2840</v>
@@ -32980,10 +33163,10 @@
         <v>11109</v>
       </c>
       <c r="B1191" s="3" t="s">
+        <v>2853</v>
+      </c>
+      <c r="K1191" s="6" t="s">
         <v>2854</v>
-      </c>
-      <c r="K1191" s="6" t="s">
-        <v>2855</v>
       </c>
       <c r="L1191" s="6" t="s">
         <v>2799</v>
@@ -32994,13 +33177,13 @@
         <v>11110</v>
       </c>
       <c r="B1192" s="3" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="K1192" s="6" t="s">
         <v>2840</v>
       </c>
       <c r="L1192" s="6" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
     </row>
     <row r="1193" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33008,16 +33191,16 @@
         <v>11111</v>
       </c>
       <c r="B1193" s="3" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="D1193" s="5">
         <v>1</v>
       </c>
       <c r="K1193" s="6" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="L1193" s="6" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="1194" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33025,13 +33208,13 @@
         <v>11112</v>
       </c>
       <c r="B1194" s="3" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="K1194" s="6" t="s">
         <v>2828</v>
       </c>
       <c r="L1194" s="6" t="s">
-        <v>2862</v>
+        <v>2861</v>
       </c>
     </row>
     <row r="1195" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33039,13 +33222,13 @@
         <v>11113</v>
       </c>
       <c r="B1195" s="3" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="K1195" s="6" t="s">
         <v>2828</v>
       </c>
       <c r="L1195" s="6" t="s">
-        <v>2863</v>
+        <v>2862</v>
       </c>
     </row>
     <row r="1196" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33053,7 +33236,7 @@
         <v>11114</v>
       </c>
       <c r="B1196" s="3" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="H1196" s="5">
         <v>-1</v>
@@ -33070,10 +33253,10 @@
         <v>11115</v>
       </c>
       <c r="B1197" s="3" t="s">
+        <v>2865</v>
+      </c>
+      <c r="K1197" s="6" t="s">
         <v>2866</v>
-      </c>
-      <c r="K1197" s="6" t="s">
-        <v>2867</v>
       </c>
       <c r="L1197" s="6" t="s">
         <v>2801</v>
@@ -33084,7 +33267,7 @@
         <v>11116</v>
       </c>
       <c r="B1198" s="3" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="E1198" s="5">
         <v>1</v>
@@ -33101,7 +33284,7 @@
         <v>11117</v>
       </c>
       <c r="B1199" s="3" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="K1199" s="6" t="s">
         <v>2830</v>
@@ -33115,10 +33298,10 @@
         <v>11118</v>
       </c>
       <c r="B1200" s="3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="K1200" s="6" t="s">
         <v>2870</v>
-      </c>
-      <c r="K1200" s="6" t="s">
-        <v>2871</v>
       </c>
       <c r="L1200" s="6" t="s">
         <v>2804</v>
@@ -33129,10 +33312,10 @@
         <v>11119</v>
       </c>
       <c r="B1201" s="3" t="s">
-        <v>2872</v>
+        <v>2871</v>
       </c>
       <c r="K1201" s="6" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="L1201" s="6" t="s">
         <v>2805</v>
@@ -33143,13 +33326,13 @@
         <v>11120</v>
       </c>
       <c r="B1202" s="3" t="s">
+        <v>2872</v>
+      </c>
+      <c r="K1202" s="6" t="s">
         <v>2873</v>
       </c>
-      <c r="K1202" s="6" t="s">
-        <v>2874</v>
-      </c>
       <c r="L1202" s="6" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="1203" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33157,13 +33340,13 @@
         <v>11121</v>
       </c>
       <c r="B1203" s="3" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="K1203" s="6" t="s">
-        <v>2871</v>
+        <v>2870</v>
       </c>
       <c r="L1203" s="6" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
     </row>
     <row r="1204" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33171,13 +33354,13 @@
         <v>11122</v>
       </c>
       <c r="B1204" s="3" t="s">
+        <v>2875</v>
+      </c>
+      <c r="K1204" s="6" t="s">
         <v>2876</v>
       </c>
-      <c r="K1204" s="6" t="s">
-        <v>2877</v>
-      </c>
       <c r="L1204" s="6" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="1205" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33185,13 +33368,13 @@
         <v>11123</v>
       </c>
       <c r="B1205" s="3" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="K1205" s="6" t="s">
         <v>2840</v>
       </c>
       <c r="L1205" s="6" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="1206" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33199,13 +33382,13 @@
         <v>11124</v>
       </c>
       <c r="B1206" s="3" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="K1206" s="6" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="L1206" s="6" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="1207" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33213,13 +33396,13 @@
         <v>11125</v>
       </c>
       <c r="B1207" s="3" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="K1207" s="6" t="s">
         <v>2840</v>
       </c>
       <c r="L1207" s="6" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="1208" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33227,16 +33410,16 @@
         <v>11126</v>
       </c>
       <c r="B1208" s="3" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="C1208" s="4" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="K1208" s="6" t="s">
+        <v>2899</v>
+      </c>
+      <c r="L1208" s="6" t="s">
         <v>2900</v>
-      </c>
-      <c r="L1208" s="6" t="s">
-        <v>2901</v>
       </c>
     </row>
     <row r="1209" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33244,13 +33427,13 @@
         <v>11127</v>
       </c>
       <c r="B1209" s="3" t="s">
+        <v>2898</v>
+      </c>
+      <c r="K1209" s="6" t="s">
         <v>2899</v>
       </c>
-      <c r="K1209" s="6" t="s">
-        <v>2900</v>
-      </c>
       <c r="L1209" s="6" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
     </row>
     <row r="1210" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33258,13 +33441,13 @@
         <v>11128</v>
       </c>
       <c r="B1210" s="3" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="K1210" s="6" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="L1210" s="6" t="s">
-        <v>3002</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1211" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33272,13 +33455,13 @@
         <v>11129</v>
       </c>
       <c r="B1211" s="3" t="s">
+        <v>2903</v>
+      </c>
+      <c r="K1211" s="6" t="s">
         <v>2904</v>
       </c>
-      <c r="K1211" s="6" t="s">
-        <v>2905</v>
-      </c>
       <c r="L1211" s="6" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1212" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33286,13 +33469,13 @@
         <v>11130</v>
       </c>
       <c r="B1212" s="3" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="K1212" s="6" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="L1212" s="6" t="s">
-        <v>3004</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="1213" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33300,13 +33483,13 @@
         <v>11131</v>
       </c>
       <c r="B1213" s="3" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="K1213" s="6" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="L1213" s="6" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="1214" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33314,13 +33497,13 @@
         <v>11132</v>
       </c>
       <c r="B1214" s="3" t="s">
+        <v>2907</v>
+      </c>
+      <c r="K1214" s="6" t="s">
         <v>2908</v>
       </c>
-      <c r="K1214" s="6" t="s">
-        <v>2909</v>
-      </c>
       <c r="L1214" s="6" t="s">
-        <v>3003</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="1215" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33328,16 +33511,16 @@
         <v>11133</v>
       </c>
       <c r="B1215" s="3" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="F1215" s="5">
         <v>-1</v>
       </c>
       <c r="K1215" s="6" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="L1215" s="6" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
     </row>
     <row r="1216" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33345,19 +33528,19 @@
         <v>11134</v>
       </c>
       <c r="B1216" s="3" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="C1216" s="4" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="H1216" s="5">
         <v>-1</v>
       </c>
       <c r="K1216" s="6" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="L1216" s="6" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
     </row>
     <row r="1217" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33365,13 +33548,13 @@
         <v>11135</v>
       </c>
       <c r="B1217" s="3" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="K1217" s="6" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="L1217" s="6" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
     </row>
     <row r="1218" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33379,13 +33562,13 @@
         <v>11136</v>
       </c>
       <c r="B1218" s="3" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="K1218" s="6" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="L1218" s="6" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="1219" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33393,13 +33576,13 @@
         <v>11137</v>
       </c>
       <c r="B1219" s="3" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="K1219" s="6" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="L1219" s="6" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
     </row>
     <row r="1220" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33407,13 +33590,13 @@
         <v>11138</v>
       </c>
       <c r="B1220" s="3" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="K1220" s="6" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="L1220" s="6" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
     </row>
     <row r="1221" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33421,13 +33604,13 @@
         <v>11139</v>
       </c>
       <c r="B1221" s="3" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="K1221" s="6" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="L1221" s="6" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
     </row>
     <row r="1222" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33435,10 +33618,10 @@
         <v>11140</v>
       </c>
       <c r="B1222" s="3" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="K1222" s="6" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="1223" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33446,13 +33629,13 @@
         <v>11141</v>
       </c>
       <c r="B1223" s="3" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="K1223" s="6" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="L1223" s="6" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
     </row>
     <row r="1224" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33460,13 +33643,13 @@
         <v>11142</v>
       </c>
       <c r="B1224" s="3" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="K1224" s="6" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="L1224" s="6" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
     </row>
     <row r="1225" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33474,13 +33657,13 @@
         <v>11143</v>
       </c>
       <c r="B1225" s="3" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="K1225" s="6" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="L1225" s="6" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="1226" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33488,13 +33671,13 @@
         <v>11144</v>
       </c>
       <c r="B1226" s="3" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="K1226" s="6" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="L1226" s="6" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
     </row>
     <row r="1227" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33502,13 +33685,13 @@
         <v>11145</v>
       </c>
       <c r="B1227" s="3" t="s">
+        <v>2925</v>
+      </c>
+      <c r="K1227" s="6" t="s">
+        <v>2987</v>
+      </c>
+      <c r="L1227" s="6" t="s">
         <v>2926</v>
-      </c>
-      <c r="K1227" s="6" t="s">
-        <v>2988</v>
-      </c>
-      <c r="L1227" s="6" t="s">
-        <v>2927</v>
       </c>
     </row>
     <row r="1228" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33516,16 +33699,16 @@
         <v>11146</v>
       </c>
       <c r="B1228" s="3" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="H1228" s="5">
         <v>-1</v>
       </c>
       <c r="K1228" s="6" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="L1228" s="6" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
     </row>
     <row r="1229" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33533,10 +33716,10 @@
         <v>11147</v>
       </c>
       <c r="B1229" s="3" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="K1229" s="6" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="1230" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33544,13 +33727,13 @@
         <v>11148</v>
       </c>
       <c r="B1230" s="3" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="K1230" s="6" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="L1230" s="6" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="1231" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33558,13 +33741,13 @@
         <v>11149</v>
       </c>
       <c r="B1231" s="3" t="s">
+        <v>2964</v>
+      </c>
+      <c r="K1231" s="6" t="s">
+        <v>2987</v>
+      </c>
+      <c r="L1231" s="6" t="s">
         <v>2965</v>
-      </c>
-      <c r="K1231" s="6" t="s">
-        <v>2988</v>
-      </c>
-      <c r="L1231" s="6" t="s">
-        <v>2966</v>
       </c>
     </row>
     <row r="1232" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33572,19 +33755,19 @@
         <v>11150</v>
       </c>
       <c r="B1232" s="3" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="C1232" s="4" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="G1232" s="5">
         <v>-1</v>
       </c>
       <c r="K1232" s="6" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="L1232" s="6" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="1233" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33592,13 +33775,13 @@
         <v>11151</v>
       </c>
       <c r="B1233" s="3" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="K1233" s="6" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="L1233" s="6" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="1234" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33606,10 +33789,10 @@
         <v>11152</v>
       </c>
       <c r="B1234" s="3" t="s">
+        <v>2969</v>
+      </c>
+      <c r="K1234" s="6" t="s">
         <v>2970</v>
-      </c>
-      <c r="K1234" s="6" t="s">
-        <v>2971</v>
       </c>
     </row>
     <row r="1235" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33617,10 +33800,10 @@
         <v>11153</v>
       </c>
       <c r="B1235" s="3" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="K1235" s="6" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="1236" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33628,13 +33811,13 @@
         <v>11154</v>
       </c>
       <c r="B1236" s="3" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="K1236" s="6" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="L1236" s="6" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="1237" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33642,13 +33825,13 @@
         <v>11155</v>
       </c>
       <c r="B1237" s="3" t="s">
+        <v>2975</v>
+      </c>
+      <c r="K1237" s="6" t="s">
         <v>2976</v>
       </c>
-      <c r="K1237" s="6" t="s">
-        <v>2977</v>
-      </c>
       <c r="L1237" s="6" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="1238" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33656,10 +33839,10 @@
         <v>11156</v>
       </c>
       <c r="B1238" s="3" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="K1238" s="6" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="1239" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33667,10 +33850,10 @@
         <v>11157</v>
       </c>
       <c r="B1239" s="3" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="K1239" s="6" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="1240" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33678,13 +33861,13 @@
         <v>11158</v>
       </c>
       <c r="B1240" s="3" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="K1240" s="6" t="s">
+        <v>2928</v>
+      </c>
+      <c r="L1240" s="6" t="s">
         <v>2929</v>
-      </c>
-      <c r="L1240" s="6" t="s">
-        <v>2930</v>
       </c>
     </row>
     <row r="1241" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33692,13 +33875,13 @@
         <v>11159</v>
       </c>
       <c r="B1241" s="3" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="K1241" s="6" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="L1241" s="6" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="1242" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33706,10 +33889,10 @@
         <v>11160</v>
       </c>
       <c r="B1242" s="3" t="s">
-        <v>2981</v>
+        <v>2980</v>
       </c>
       <c r="K1242" s="6" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="1243" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33717,13 +33900,13 @@
         <v>11161</v>
       </c>
       <c r="B1243" s="3" t="s">
-        <v>2982</v>
+        <v>2981</v>
       </c>
       <c r="K1243" s="6" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="L1243" s="6" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="1244" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33731,13 +33914,13 @@
         <v>11162</v>
       </c>
       <c r="B1244" s="3" t="s">
-        <v>2983</v>
+        <v>2982</v>
       </c>
       <c r="K1244" s="6" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="L1244" s="6" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="1245" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33745,13 +33928,13 @@
         <v>11163</v>
       </c>
       <c r="B1245" s="3" t="s">
-        <v>2984</v>
+        <v>2983</v>
       </c>
       <c r="K1245" s="6" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="L1245" s="6" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
     </row>
     <row r="1246" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33759,10 +33942,10 @@
         <v>11164</v>
       </c>
       <c r="B1246" s="3" t="s">
+        <v>2985</v>
+      </c>
+      <c r="K1246" s="6" t="s">
         <v>2986</v>
-      </c>
-      <c r="K1246" s="6" t="s">
-        <v>2987</v>
       </c>
     </row>
     <row r="1247" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33770,16 +33953,16 @@
         <v>11165</v>
       </c>
       <c r="B1247" s="3" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="H1247" s="5">
         <v>1</v>
       </c>
       <c r="K1247" s="6" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="L1247" s="6" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="1248" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33787,13 +33970,13 @@
         <v>11166</v>
       </c>
       <c r="B1248" s="3" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="K1248" s="6" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="L1248" s="6" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="1249" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33801,13 +33984,13 @@
         <v>11167</v>
       </c>
       <c r="B1249" s="3" t="s">
+        <v>2992</v>
+      </c>
+      <c r="K1249" s="6" t="s">
         <v>2993</v>
       </c>
-      <c r="K1249" s="6" t="s">
+      <c r="L1249" s="6" t="s">
         <v>2994</v>
-      </c>
-      <c r="L1249" s="6" t="s">
-        <v>2995</v>
       </c>
     </row>
     <row r="1250" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33815,13 +33998,13 @@
         <v>11168</v>
       </c>
       <c r="B1250" s="3" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="K1250" s="6" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="L1250" s="6" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="1251" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33829,13 +34012,13 @@
         <v>11169</v>
       </c>
       <c r="B1251" s="3" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="K1251" s="6" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="L1251" s="6" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="1252" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33843,13 +34026,13 @@
         <v>11170</v>
       </c>
       <c r="B1252" s="3" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="K1252" s="6" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="L1252" s="6" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="1253" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33857,13 +34040,13 @@
         <v>11171</v>
       </c>
       <c r="B1253" s="3" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="K1253" s="6" t="s">
         <v>2192</v>
       </c>
       <c r="L1253" s="6" t="s">
-        <v>3001</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="1254" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33871,16 +34054,16 @@
         <v>11172</v>
       </c>
       <c r="B1254" s="3" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="C1254" s="4" t="s">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="K1254" s="6" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="L1254" s="6" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="1255" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33888,13 +34071,13 @@
         <v>11173</v>
       </c>
       <c r="B1255" s="3" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="K1255" s="6" t="s">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="L1255" s="6" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="1256" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33902,13 +34085,13 @@
         <v>11174</v>
       </c>
       <c r="B1256" s="3" t="s">
-        <v>3010</v>
+        <v>3008</v>
       </c>
       <c r="K1256" s="6" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="L1256" s="6" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="1257" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33916,13 +34099,13 @@
         <v>11175</v>
       </c>
       <c r="B1257" s="3" t="s">
-        <v>3011</v>
+        <v>3009</v>
       </c>
       <c r="K1257" s="6" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="L1257" s="6" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="1258" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33930,13 +34113,13 @@
         <v>11176</v>
       </c>
       <c r="B1258" s="3" t="s">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="K1258" s="6" t="s">
-        <v>3013</v>
+        <v>3011</v>
       </c>
       <c r="L1258" s="6" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="1259" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33944,13 +34127,13 @@
         <v>11177</v>
       </c>
       <c r="B1259" s="3" t="s">
+        <v>3012</v>
+      </c>
+      <c r="K1259" s="6" t="s">
+        <v>3003</v>
+      </c>
+      <c r="L1259" s="6" t="s">
         <v>3014</v>
-      </c>
-      <c r="K1259" s="6" t="s">
-        <v>3005</v>
-      </c>
-      <c r="L1259" s="6" t="s">
-        <v>3016</v>
       </c>
     </row>
     <row r="1260" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33958,13 +34141,13 @@
         <v>11178</v>
       </c>
       <c r="B1260" s="3" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="K1260" s="6" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="L1260" s="6" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="1261" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33972,13 +34155,13 @@
         <v>11179</v>
       </c>
       <c r="B1261" s="3" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="K1261" s="6" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="L1261" s="6" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="1262" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -33986,13 +34169,13 @@
         <v>11180</v>
       </c>
       <c r="B1262" s="3" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
       <c r="K1262" s="6" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="L1262" s="6" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="1263" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34000,13 +34183,13 @@
         <v>11181</v>
       </c>
       <c r="B1263" s="3" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="K1263" s="6" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="L1263" s="6" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="1264" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34014,13 +34197,13 @@
         <v>11182</v>
       </c>
       <c r="B1264" s="3" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="K1264" s="6" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="L1264" s="6" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="1265" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34028,10 +34211,10 @@
         <v>11183</v>
       </c>
       <c r="B1265" s="3" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
       <c r="K1265" s="6" t="s">
-        <v>3005</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="1266" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34039,13 +34222,13 @@
         <v>11184</v>
       </c>
       <c r="B1266" s="3" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
       <c r="K1266" s="6" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="L1266" s="6" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="1267" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34053,13 +34236,13 @@
         <v>11185</v>
       </c>
       <c r="B1267" s="3" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="K1267" s="6" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="L1267" s="6" t="s">
-        <v>3207</v>
+        <v>3205</v>
       </c>
     </row>
     <row r="1268" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34067,13 +34250,13 @@
         <v>11186</v>
       </c>
       <c r="B1268" s="3" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
       <c r="K1268" s="6" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="L1268" s="6" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="1269" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34081,13 +34264,13 @@
         <v>11187</v>
       </c>
       <c r="B1269" s="3" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
       <c r="K1269" s="6" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="L1269" s="6" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="1270" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34095,13 +34278,13 @@
         <v>11188</v>
       </c>
       <c r="B1270" s="3" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
       <c r="K1270" s="6" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="L1270" s="6" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="1271" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34109,13 +34292,13 @@
         <v>11189</v>
       </c>
       <c r="B1271" s="3" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
       <c r="K1271" s="6" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="L1271" s="6" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1272" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34123,13 +34306,13 @@
         <v>11190</v>
       </c>
       <c r="B1272" s="3" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
       <c r="K1272" s="6" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="L1272" s="6" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="1273" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34137,13 +34320,13 @@
         <v>11191</v>
       </c>
       <c r="B1273" s="3" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="K1273" s="6" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="L1273" s="6" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="1274" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34151,13 +34334,13 @@
         <v>11192</v>
       </c>
       <c r="B1274" s="3" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
       <c r="K1274" s="6" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="L1274" s="6" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="1275" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34165,13 +34348,13 @@
         <v>11193</v>
       </c>
       <c r="B1275" s="3" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
       <c r="K1275" s="6" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="L1275" s="6" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="1276" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34179,13 +34362,13 @@
         <v>11194</v>
       </c>
       <c r="B1276" s="3" t="s">
+        <v>3032</v>
+      </c>
+      <c r="K1276" s="6" t="s">
+        <v>3021</v>
+      </c>
+      <c r="L1276" s="6" t="s">
         <v>3034</v>
-      </c>
-      <c r="K1276" s="6" t="s">
-        <v>3023</v>
-      </c>
-      <c r="L1276" s="6" t="s">
-        <v>3036</v>
       </c>
     </row>
     <row r="1277" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34193,13 +34376,13 @@
         <v>11195</v>
       </c>
       <c r="B1277" s="3" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="K1277" s="6" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="L1277" s="6" t="s">
-        <v>3036</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="1278" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34207,13 +34390,13 @@
         <v>11196</v>
       </c>
       <c r="B1278" s="3" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="K1278" s="6" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="L1278" s="6" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="1279" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34221,13 +34404,13 @@
         <v>11197</v>
       </c>
       <c r="B1279" s="3" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="K1279" s="6" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="L1279" s="6" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="1280" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34235,13 +34418,13 @@
         <v>11198</v>
       </c>
       <c r="B1280" s="3" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="K1280" s="6" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="L1280" s="6" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="1281" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34249,13 +34432,13 @@
         <v>11199</v>
       </c>
       <c r="B1281" s="3" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="K1281" s="6" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="L1281" s="6" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="1282" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34263,13 +34446,13 @@
         <v>11200</v>
       </c>
       <c r="B1282" s="3" t="s">
-        <v>3041</v>
+        <v>3039</v>
       </c>
       <c r="K1282" s="6" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="L1282" s="6" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="1283" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34277,13 +34460,13 @@
         <v>11201</v>
       </c>
       <c r="B1283" s="3" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="K1283" s="6" t="s">
         <v>2504</v>
       </c>
       <c r="L1283" s="6" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="1284" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34291,13 +34474,13 @@
         <v>11202</v>
       </c>
       <c r="B1284" s="3" t="s">
-        <v>3045</v>
+        <v>3043</v>
       </c>
       <c r="K1284" s="6" t="s">
         <v>2504</v>
       </c>
       <c r="L1284" s="6" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="1285" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34305,13 +34488,13 @@
         <v>11203</v>
       </c>
       <c r="B1285" s="3" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="K1285" s="6" t="s">
         <v>2504</v>
       </c>
       <c r="L1285" s="6" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="1286" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34319,16 +34502,16 @@
         <v>11204</v>
       </c>
       <c r="B1286" s="3" t="s">
+        <v>3046</v>
+      </c>
+      <c r="K1286" s="6" t="s">
+        <v>3047</v>
+      </c>
+      <c r="L1286" s="6" t="s">
+        <v>2954</v>
+      </c>
+      <c r="M1286" s="7" t="s">
         <v>3048</v>
-      </c>
-      <c r="K1286" s="6" t="s">
-        <v>3049</v>
-      </c>
-      <c r="L1286" s="6" t="s">
-        <v>2955</v>
-      </c>
-      <c r="M1286" s="7" t="s">
-        <v>3050</v>
       </c>
     </row>
     <row r="1287" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34336,13 +34519,13 @@
         <v>11205</v>
       </c>
       <c r="B1287" s="3" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="K1287" s="6" t="s">
         <v>2504</v>
       </c>
       <c r="L1287" s="6" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="1288" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34350,13 +34533,13 @@
         <v>11206</v>
       </c>
       <c r="B1288" s="3" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="K1288" s="6" t="s">
         <v>2504</v>
       </c>
       <c r="L1288" s="6" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="1289" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34364,7 +34547,7 @@
         <v>11207</v>
       </c>
       <c r="B1289" s="3" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
       <c r="K1289" s="6" t="s">
         <v>2504</v>
@@ -34375,13 +34558,13 @@
         <v>11208</v>
       </c>
       <c r="B1290" s="3" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="K1290" s="6" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="L1290" s="6" t="s">
-        <v>3097</v>
+        <v>3095</v>
       </c>
     </row>
     <row r="1291" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34389,13 +34572,13 @@
         <v>11209</v>
       </c>
       <c r="B1291" s="3" t="s">
-        <v>3092</v>
+        <v>3090</v>
       </c>
       <c r="K1291" s="6" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="L1291" s="6" t="s">
-        <v>3098</v>
+        <v>3096</v>
       </c>
     </row>
     <row r="1292" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34403,13 +34586,13 @@
         <v>11210</v>
       </c>
       <c r="B1292" s="3" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
       <c r="K1292" s="6" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="L1292" s="6" t="s">
-        <v>3099</v>
+        <v>3097</v>
       </c>
     </row>
     <row r="1293" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34417,13 +34600,13 @@
         <v>11211</v>
       </c>
       <c r="B1293" s="3" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
       <c r="K1293" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1293" s="6" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
     </row>
     <row r="1294" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34431,13 +34614,13 @@
         <v>11212</v>
       </c>
       <c r="B1294" s="3" t="s">
-        <v>3096</v>
+        <v>3094</v>
       </c>
       <c r="K1294" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1294" s="6" t="s">
-        <v>3101</v>
+        <v>3099</v>
       </c>
     </row>
     <row r="1295" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34445,13 +34628,13 @@
         <v>11213</v>
       </c>
       <c r="B1295" s="3" t="s">
-        <v>3102</v>
+        <v>3100</v>
       </c>
       <c r="K1295" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1295" s="6" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="1296" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34459,13 +34642,13 @@
         <v>11214</v>
       </c>
       <c r="B1296" s="3" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
       <c r="K1296" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1296" s="6" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="1297" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34473,13 +34656,13 @@
         <v>11215</v>
       </c>
       <c r="B1297" s="3" t="s">
-        <v>3104</v>
+        <v>3102</v>
       </c>
       <c r="K1297" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1297" s="6" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="1298" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34487,13 +34670,13 @@
         <v>11216</v>
       </c>
       <c r="B1298" s="3" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
       <c r="K1298" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1298" s="6" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="1299" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34501,7 +34684,7 @@
         <v>11217</v>
       </c>
       <c r="B1299" s="3" t="s">
-        <v>3106</v>
+        <v>3104</v>
       </c>
       <c r="G1299" s="5">
         <v>-2</v>
@@ -34513,7 +34696,7 @@
         <v>2191</v>
       </c>
       <c r="L1299" s="6" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="1300" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34521,7 +34704,7 @@
         <v>11218</v>
       </c>
       <c r="B1300" s="3" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
       <c r="G1300" s="5">
         <v>-1</v>
@@ -34533,7 +34716,7 @@
         <v>2191</v>
       </c>
       <c r="L1300" s="6" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
     </row>
     <row r="1301" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34541,16 +34724,16 @@
         <v>11219</v>
       </c>
       <c r="B1301" s="3" t="s">
+        <v>3106</v>
+      </c>
+      <c r="K1301" s="6" t="s">
+        <v>3091</v>
+      </c>
+      <c r="L1301" s="6" t="s">
         <v>3108</v>
       </c>
-      <c r="K1301" s="6" t="s">
-        <v>3093</v>
-      </c>
-      <c r="L1301" s="6" t="s">
-        <v>3110</v>
-      </c>
       <c r="M1301" s="7" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1302" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34558,16 +34741,16 @@
         <v>11220</v>
       </c>
       <c r="B1302" s="3" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
       <c r="K1302" s="6" t="s">
         <v>2225</v>
       </c>
       <c r="L1302" s="6" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="M1302" s="7" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1303" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34575,13 +34758,13 @@
         <v>11221</v>
       </c>
       <c r="B1303" s="3" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="K1303" s="6" t="s">
         <v>2504</v>
       </c>
       <c r="L1303" s="6" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
     </row>
     <row r="1304" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34589,13 +34772,13 @@
         <v>11222</v>
       </c>
       <c r="B1304" s="3" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="K1304" s="6" t="s">
         <v>2504</v>
       </c>
       <c r="L1304" s="6" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="1305" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34603,13 +34786,13 @@
         <v>11223</v>
       </c>
       <c r="B1305" s="3" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="K1305" s="6" t="s">
         <v>2504</v>
       </c>
       <c r="L1305" s="6" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
     </row>
     <row r="1306" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34617,7 +34800,7 @@
         <v>11224</v>
       </c>
       <c r="B1306" s="3" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="G1306" s="5">
         <v>1</v>
@@ -34626,7 +34809,7 @@
         <v>2504</v>
       </c>
       <c r="L1306" s="6" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="1307" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34634,13 +34817,13 @@
         <v>11225</v>
       </c>
       <c r="B1307" s="3" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="K1307" s="6" t="s">
         <v>2504</v>
       </c>
       <c r="L1307" s="6" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
     </row>
     <row r="1308" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34654,7 +34837,7 @@
         <v>2504</v>
       </c>
       <c r="L1308" s="6" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="1309" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34662,13 +34845,13 @@
         <v>11227</v>
       </c>
       <c r="B1309" s="3" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="K1309" s="6" t="s">
         <v>2504</v>
       </c>
       <c r="L1309" s="6" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="1310" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34676,13 +34859,13 @@
         <v>11228</v>
       </c>
       <c r="B1310" s="3" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="K1310" s="6" t="s">
         <v>2504</v>
       </c>
       <c r="L1310" s="6" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="1311" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34690,13 +34873,13 @@
         <v>11229</v>
       </c>
       <c r="B1311" s="3" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="K1311" s="6" t="s">
         <v>2504</v>
       </c>
       <c r="L1311" s="6" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="1312" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34704,16 +34887,16 @@
         <v>11230</v>
       </c>
       <c r="B1312" s="3" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="G1312" s="5">
         <v>-5</v>
       </c>
       <c r="K1312" s="6" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="L1312" s="6" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="1313" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34721,7 +34904,7 @@
         <v>11231</v>
       </c>
       <c r="B1313" s="3" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="D1313" s="5">
         <v>-2</v>
@@ -34733,10 +34916,10 @@
         <v>-5</v>
       </c>
       <c r="K1313" s="6" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="L1313" s="6" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="1314" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34744,13 +34927,13 @@
         <v>11232</v>
       </c>
       <c r="B1314" s="3" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="K1314" s="6" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="L1314" s="6" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="1315" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34758,16 +34941,16 @@
         <v>11233</v>
       </c>
       <c r="B1315" s="3" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="C1315" s="4" t="s">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="K1315" s="6" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="L1315" s="6" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="1316" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34775,16 +34958,16 @@
         <v>11234</v>
       </c>
       <c r="B1316" s="3" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="C1316" s="4" t="s">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="K1316" s="6" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="L1316" s="6" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="1317" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34792,16 +34975,16 @@
         <v>11235</v>
       </c>
       <c r="B1317" s="3" t="s">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="E1317" s="5">
         <v>-1</v>
       </c>
       <c r="K1317" s="6" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="L1317" s="6" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
     </row>
     <row r="1318" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34809,7 +34992,7 @@
         <v>11236</v>
       </c>
       <c r="B1318" s="3" t="s">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="F1318" s="5">
         <v>-1</v>
@@ -34818,10 +35001,10 @@
         <v>-1</v>
       </c>
       <c r="K1318" s="6" t="s">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="L1318" s="6" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="1319" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34829,16 +35012,16 @@
         <v>11237</v>
       </c>
       <c r="B1319" s="3" t="s">
-        <v>3135</v>
+        <v>3133</v>
       </c>
       <c r="G1319" s="5">
         <v>-1</v>
       </c>
       <c r="K1319" s="6" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="L1319" s="6" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
     </row>
     <row r="1320" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34846,13 +35029,13 @@
         <v>11238</v>
       </c>
       <c r="B1320" s="3" t="s">
-        <v>3137</v>
+        <v>3135</v>
       </c>
       <c r="K1320" s="6" t="s">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="L1320" s="6" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
     </row>
     <row r="1321" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34860,7 +35043,7 @@
         <v>11239</v>
       </c>
       <c r="B1321" s="3" t="s">
-        <v>3138</v>
+        <v>3136</v>
       </c>
       <c r="G1321" s="5">
         <v>-1</v>
@@ -34869,10 +35052,10 @@
         <v>-1</v>
       </c>
       <c r="K1321" s="6" t="s">
-        <v>3139</v>
+        <v>3137</v>
       </c>
       <c r="L1321" s="6" t="s">
-        <v>3140</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="1322" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34880,13 +35063,13 @@
         <v>11240</v>
       </c>
       <c r="B1322" s="3" t="s">
-        <v>3143</v>
+        <v>3141</v>
       </c>
       <c r="K1322" s="6" t="s">
-        <v>3142</v>
+        <v>3140</v>
       </c>
       <c r="L1322" s="6" t="s">
-        <v>3141</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="1323" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34894,13 +35077,13 @@
         <v>11241</v>
       </c>
       <c r="B1323" s="3" t="s">
+        <v>3142</v>
+      </c>
+      <c r="K1323" s="6" t="s">
         <v>3144</v>
       </c>
-      <c r="K1323" s="6" t="s">
-        <v>3146</v>
-      </c>
       <c r="L1323" s="6" t="s">
-        <v>3145</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="1324" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34908,13 +35091,13 @@
         <v>11242</v>
       </c>
       <c r="B1324" s="3" t="s">
-        <v>3144</v>
+        <v>3142</v>
       </c>
       <c r="K1324" s="6" t="s">
-        <v>3147</v>
+        <v>3145</v>
       </c>
       <c r="L1324" s="6" t="s">
-        <v>3145</v>
+        <v>3143</v>
       </c>
     </row>
     <row r="1325" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34922,13 +35105,13 @@
         <v>11243</v>
       </c>
       <c r="B1325" s="3" t="s">
+        <v>3146</v>
+      </c>
+      <c r="K1325" s="6" t="s">
         <v>3148</v>
       </c>
-      <c r="K1325" s="6" t="s">
-        <v>3150</v>
-      </c>
       <c r="L1325" s="6" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="1326" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34936,13 +35119,13 @@
         <v>11244</v>
       </c>
       <c r="B1326" s="3" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="K1326" s="6" t="s">
-        <v>3151</v>
+        <v>3149</v>
       </c>
       <c r="L1326" s="6" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
     </row>
     <row r="1327" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34950,13 +35133,13 @@
         <v>11245</v>
       </c>
       <c r="B1327" s="3" t="s">
-        <v>3152</v>
+        <v>3150</v>
       </c>
       <c r="K1327" s="6" t="s">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="L1327" s="6" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
     </row>
     <row r="1328" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34964,13 +35147,13 @@
         <v>11246</v>
       </c>
       <c r="B1328" s="3" t="s">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="K1328" s="6" t="s">
-        <v>3146</v>
+        <v>3144</v>
       </c>
       <c r="L1328" s="6" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="1329" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34978,13 +35161,13 @@
         <v>11247</v>
       </c>
       <c r="B1329" s="3" t="s">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="K1329" s="6" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="L1329" s="6" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
     </row>
     <row r="1330" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -34992,13 +35175,13 @@
         <v>11248</v>
       </c>
       <c r="B1330" s="3" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="K1330" s="6" t="s">
+        <v>3153</v>
+      </c>
+      <c r="L1330" s="6" t="s">
         <v>3155</v>
-      </c>
-      <c r="L1330" s="6" t="s">
-        <v>3157</v>
       </c>
     </row>
     <row r="1331" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35006,13 +35189,13 @@
         <v>11249</v>
       </c>
       <c r="B1331" s="3" t="s">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="K1331" s="6" t="s">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="L1331" s="6" t="s">
-        <v>3074</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="1332" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35020,13 +35203,13 @@
         <v>11250</v>
       </c>
       <c r="B1332" s="3" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="K1332" s="6" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="L1332" s="6" t="s">
-        <v>3075</v>
+        <v>3073</v>
       </c>
     </row>
     <row r="1333" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35034,13 +35217,13 @@
         <v>11251</v>
       </c>
       <c r="B1333" s="3" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="K1333" s="6" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="L1333" s="6" t="s">
-        <v>3076</v>
+        <v>3074</v>
       </c>
     </row>
     <row r="1334" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35048,13 +35231,13 @@
         <v>11252</v>
       </c>
       <c r="B1334" s="3" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="K1334" s="6" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="L1334" s="6" t="s">
-        <v>3077</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="1335" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35065,10 +35248,10 @@
         <v>1736</v>
       </c>
       <c r="K1335" s="6" t="s">
-        <v>3163</v>
+        <v>3161</v>
       </c>
       <c r="L1335" s="6" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
     </row>
     <row r="1336" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35076,13 +35259,13 @@
         <v>11254</v>
       </c>
       <c r="B1336" s="3" t="s">
-        <v>3164</v>
+        <v>3162</v>
       </c>
       <c r="K1336" s="6" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="L1336" s="6" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="1337" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35090,13 +35273,13 @@
         <v>11255</v>
       </c>
       <c r="B1337" s="3" t="s">
-        <v>3166</v>
+        <v>3164</v>
       </c>
       <c r="K1337" s="6" t="s">
-        <v>3165</v>
+        <v>3163</v>
       </c>
       <c r="L1337" s="6" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
     </row>
     <row r="1338" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35104,16 +35287,16 @@
         <v>11256</v>
       </c>
       <c r="B1338" s="3" t="s">
-        <v>3167</v>
+        <v>3165</v>
       </c>
       <c r="G1338" s="5">
         <v>1</v>
       </c>
       <c r="K1338" s="6" t="s">
-        <v>3168</v>
+        <v>3166</v>
       </c>
       <c r="L1338" s="6" t="s">
-        <v>3081</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="1339" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35127,7 +35310,7 @@
         <v>2191</v>
       </c>
       <c r="L1339" s="6" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
     </row>
     <row r="1340" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35135,13 +35318,13 @@
         <v>11258</v>
       </c>
       <c r="B1340" s="3" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="K1340" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1340" s="6" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="1341" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35149,13 +35332,13 @@
         <v>11259</v>
       </c>
       <c r="B1341" s="3" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="K1341" s="6" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="L1341" s="6" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="1342" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35163,13 +35346,13 @@
         <v>11260</v>
       </c>
       <c r="B1342" s="3" t="s">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="K1342" s="6" t="s">
-        <v>3177</v>
+        <v>3175</v>
       </c>
       <c r="L1342" s="6" t="s">
-        <v>3083</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="1343" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35177,16 +35360,16 @@
         <v>11261</v>
       </c>
       <c r="B1343" s="3" t="s">
-        <v>3203</v>
+        <v>3201</v>
       </c>
       <c r="H1343" s="5">
         <v>-1</v>
       </c>
       <c r="K1343" s="6" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="L1343" s="6" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
     </row>
     <row r="1344" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35194,16 +35377,16 @@
         <v>11262</v>
       </c>
       <c r="B1344" s="3" t="s">
-        <v>3204</v>
+        <v>3202</v>
       </c>
       <c r="H1344" s="5">
         <v>-1</v>
       </c>
       <c r="K1344" s="6" t="s">
-        <v>3205</v>
+        <v>3203</v>
       </c>
       <c r="M1344" s="7" t="s">
-        <v>3206</v>
+        <v>3204</v>
       </c>
     </row>
     <row r="1345" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35211,13 +35394,13 @@
         <v>11263</v>
       </c>
       <c r="B1345" s="3" t="s">
-        <v>3219</v>
+        <v>3217</v>
       </c>
       <c r="K1345" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1345" s="6" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="1346" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35225,13 +35408,13 @@
         <v>11264</v>
       </c>
       <c r="B1346" s="3" t="s">
-        <v>3208</v>
+        <v>3206</v>
       </c>
       <c r="K1346" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1346" s="6" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="1347" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35239,13 +35422,13 @@
         <v>11265</v>
       </c>
       <c r="B1347" s="3" t="s">
-        <v>3209</v>
+        <v>3207</v>
       </c>
       <c r="K1347" s="6" t="s">
-        <v>3210</v>
+        <v>3208</v>
       </c>
       <c r="L1347" s="6" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="1348" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35253,13 +35436,13 @@
         <v>11266</v>
       </c>
       <c r="B1348" s="3" t="s">
-        <v>3211</v>
+        <v>3209</v>
       </c>
       <c r="K1348" s="6" t="s">
-        <v>3212</v>
+        <v>3210</v>
       </c>
       <c r="L1348" s="6" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
     </row>
     <row r="1349" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35267,13 +35450,13 @@
         <v>11267</v>
       </c>
       <c r="B1349" s="3" t="s">
-        <v>3213</v>
+        <v>3211</v>
       </c>
       <c r="K1349" s="6" t="s">
-        <v>3214</v>
+        <v>3212</v>
       </c>
       <c r="L1349" s="6" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
     </row>
     <row r="1350" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35281,16 +35464,16 @@
         <v>11268</v>
       </c>
       <c r="B1350" s="3" t="s">
-        <v>3215</v>
+        <v>3213</v>
       </c>
       <c r="K1350" s="6" t="s">
-        <v>3216</v>
+        <v>3214</v>
       </c>
       <c r="L1350" s="6" t="s">
-        <v>3178</v>
+        <v>3176</v>
       </c>
       <c r="M1350" s="7" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1351" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35298,13 +35481,13 @@
         <v>11269</v>
       </c>
       <c r="B1351" s="3" t="s">
-        <v>3217</v>
+        <v>3215</v>
       </c>
       <c r="K1351" s="6" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="L1351" s="6" t="s">
-        <v>3179</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="1352" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35312,13 +35495,13 @@
         <v>11270</v>
       </c>
       <c r="B1352" s="3" t="s">
+        <v>3216</v>
+      </c>
+      <c r="K1352" s="6" t="s">
         <v>3218</v>
       </c>
-      <c r="K1352" s="6" t="s">
-        <v>3220</v>
-      </c>
       <c r="L1352" s="6" t="s">
-        <v>3180</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="1353" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35326,13 +35509,13 @@
         <v>11271</v>
       </c>
       <c r="B1353" s="3" t="s">
-        <v>3221</v>
+        <v>3219</v>
       </c>
       <c r="K1353" s="6" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="L1353" s="6" t="s">
-        <v>3181</v>
+        <v>3179</v>
       </c>
     </row>
     <row r="1354" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35340,16 +35523,16 @@
         <v>11272</v>
       </c>
       <c r="B1354" s="3" t="s">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="C1354" s="4" t="s">
-        <v>3223</v>
+        <v>3221</v>
       </c>
       <c r="K1354" s="6" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="L1354" s="6" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
     </row>
     <row r="1355" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35357,13 +35540,13 @@
         <v>11273</v>
       </c>
       <c r="B1355" s="3" t="s">
-        <v>3225</v>
+        <v>3223</v>
       </c>
       <c r="K1355" s="6" t="s">
-        <v>3224</v>
+        <v>3222</v>
       </c>
       <c r="L1355" s="6" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
     </row>
     <row r="1356" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35371,19 +35554,19 @@
         <v>11274</v>
       </c>
       <c r="B1356" s="3" t="s">
-        <v>3226</v>
+        <v>3224</v>
       </c>
       <c r="C1356" s="4" t="s">
-        <v>3227</v>
+        <v>3225</v>
       </c>
       <c r="E1356" s="5">
         <v>2</v>
       </c>
       <c r="K1356" s="6" t="s">
-        <v>3228</v>
+        <v>3226</v>
       </c>
       <c r="L1356" s="6" t="s">
-        <v>3184</v>
+        <v>3182</v>
       </c>
     </row>
     <row r="1357" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35391,16 +35574,16 @@
         <v>11275</v>
       </c>
       <c r="B1357" s="3" t="s">
-        <v>3229</v>
+        <v>3227</v>
       </c>
       <c r="G1357" s="5">
         <v>1</v>
       </c>
       <c r="K1357" s="6" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="L1357" s="6" t="s">
-        <v>3185</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="1358" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35408,16 +35591,16 @@
         <v>11276</v>
       </c>
       <c r="B1358" s="3" t="s">
-        <v>3230</v>
+        <v>3228</v>
       </c>
       <c r="K1358" s="6" t="s">
+        <v>3229</v>
+      </c>
+      <c r="L1358" s="6" t="s">
+        <v>3184</v>
+      </c>
+      <c r="M1358" s="7" t="s">
         <v>3231</v>
-      </c>
-      <c r="L1358" s="6" t="s">
-        <v>3186</v>
-      </c>
-      <c r="M1358" s="7" t="s">
-        <v>3233</v>
       </c>
     </row>
     <row r="1359" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35425,13 +35608,13 @@
         <v>21276</v>
       </c>
       <c r="B1359" s="3" t="s">
-        <v>3234</v>
+        <v>3232</v>
       </c>
       <c r="J1359" s="5">
         <v>1</v>
       </c>
       <c r="M1359" s="7" t="s">
-        <v>3232</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="1360" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35439,16 +35622,16 @@
         <v>11277</v>
       </c>
       <c r="B1360" s="3" t="s">
-        <v>3236</v>
+        <v>3234</v>
       </c>
       <c r="C1360" s="4" t="s">
+        <v>3233</v>
+      </c>
+      <c r="K1360" s="6" t="s">
         <v>3235</v>
       </c>
-      <c r="K1360" s="6" t="s">
-        <v>3237</v>
-      </c>
       <c r="L1360" s="6" t="s">
-        <v>3187</v>
+        <v>3185</v>
       </c>
     </row>
     <row r="1361" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35456,7 +35639,7 @@
         <v>11278</v>
       </c>
       <c r="B1361" s="3" t="s">
-        <v>3238</v>
+        <v>3236</v>
       </c>
       <c r="G1361" s="5">
         <v>-5</v>
@@ -35465,10 +35648,10 @@
         <v>-5</v>
       </c>
       <c r="K1361" s="6" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
       <c r="L1361" s="6" t="s">
-        <v>3371</v>
+        <v>3369</v>
       </c>
     </row>
     <row r="1362" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35476,13 +35659,13 @@
         <v>11279</v>
       </c>
       <c r="B1362" s="3" t="s">
-        <v>3240</v>
+        <v>3238</v>
       </c>
       <c r="K1362" s="6" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
       <c r="L1362" s="6" t="s">
-        <v>3188</v>
+        <v>3186</v>
       </c>
     </row>
     <row r="1363" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35490,13 +35673,13 @@
         <v>11280</v>
       </c>
       <c r="B1363" s="3" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
       <c r="K1363" s="6" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
       <c r="L1363" s="6" t="s">
-        <v>3189</v>
+        <v>3187</v>
       </c>
     </row>
     <row r="1364" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35504,13 +35687,13 @@
         <v>11281</v>
       </c>
       <c r="B1364" s="3" t="s">
-        <v>3244</v>
+        <v>3242</v>
       </c>
       <c r="K1364" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1364" s="6" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="1365" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35518,13 +35701,13 @@
         <v>11282</v>
       </c>
       <c r="B1365" s="3" t="s">
-        <v>3245</v>
+        <v>3243</v>
       </c>
       <c r="K1365" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1365" s="6" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
     </row>
     <row r="1366" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35532,13 +35715,13 @@
         <v>11283</v>
       </c>
       <c r="B1366" s="3" t="s">
-        <v>3246</v>
+        <v>3244</v>
       </c>
       <c r="K1366" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1366" s="6" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
     </row>
     <row r="1367" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35546,13 +35729,13 @@
         <v>11284</v>
       </c>
       <c r="B1367" s="3" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
       <c r="K1367" s="6" t="s">
-        <v>3248</v>
+        <v>3246</v>
       </c>
       <c r="L1367" s="6" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
     </row>
     <row r="1368" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35560,16 +35743,16 @@
         <v>11285</v>
       </c>
       <c r="B1368" s="3" t="s">
-        <v>3249</v>
+        <v>3247</v>
       </c>
       <c r="C1368" s="4" t="s">
-        <v>3250</v>
+        <v>3248</v>
       </c>
       <c r="K1368" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1368" s="6" t="s">
-        <v>3194</v>
+        <v>3192</v>
       </c>
     </row>
     <row r="1369" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35577,10 +35760,10 @@
         <v>11286</v>
       </c>
       <c r="B1369" s="3" t="s">
-        <v>3251</v>
+        <v>3249</v>
       </c>
       <c r="K1369" s="6" t="s">
-        <v>3252</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="1370" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35588,13 +35771,13 @@
         <v>11287</v>
       </c>
       <c r="B1370" s="3" t="s">
-        <v>3273</v>
+        <v>3271</v>
       </c>
       <c r="K1370" s="6" t="s">
-        <v>3279</v>
+        <v>3277</v>
       </c>
       <c r="L1370" s="6" t="s">
-        <v>3195</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="1371" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35602,16 +35785,16 @@
         <v>11288</v>
       </c>
       <c r="B1371" s="3" t="s">
+        <v>3272</v>
+      </c>
+      <c r="C1371" s="4" t="s">
+        <v>3273</v>
+      </c>
+      <c r="K1371" s="6" t="s">
         <v>3274</v>
       </c>
-      <c r="C1371" s="4" t="s">
-        <v>3275</v>
-      </c>
-      <c r="K1371" s="6" t="s">
-        <v>3276</v>
-      </c>
       <c r="L1371" s="6" t="s">
-        <v>3196</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="1372" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35619,16 +35802,16 @@
         <v>11289</v>
       </c>
       <c r="B1372" s="3" t="s">
-        <v>3277</v>
+        <v>3275</v>
       </c>
       <c r="C1372" s="4" t="s">
-        <v>3278</v>
+        <v>3276</v>
       </c>
       <c r="K1372" s="6" t="s">
-        <v>3286</v>
+        <v>3284</v>
       </c>
       <c r="L1372" s="6" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
     </row>
     <row r="1373" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35636,10 +35819,10 @@
         <v>11290</v>
       </c>
       <c r="B1373" s="3" t="s">
-        <v>3280</v>
+        <v>3278</v>
       </c>
       <c r="C1373" s="4" t="s">
-        <v>3281</v>
+        <v>3279</v>
       </c>
       <c r="D1373" s="5">
         <v>-1</v>
@@ -35654,10 +35837,10 @@
         <v>1</v>
       </c>
       <c r="K1373" s="6" t="s">
-        <v>3282</v>
+        <v>3280</v>
       </c>
       <c r="L1373" s="6" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
     </row>
     <row r="1374" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35665,10 +35848,10 @@
         <v>11291</v>
       </c>
       <c r="B1374" s="3" t="s">
-        <v>3283</v>
+        <v>3281</v>
       </c>
       <c r="C1374" s="4" t="s">
-        <v>3284</v>
+        <v>3282</v>
       </c>
       <c r="E1374" s="5">
         <v>-1</v>
@@ -35680,10 +35863,10 @@
         <v>1</v>
       </c>
       <c r="K1374" s="6" t="s">
-        <v>3198</v>
+        <v>3196</v>
       </c>
       <c r="M1374" s="7" t="s">
-        <v>3285</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="1375" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35691,13 +35874,13 @@
         <v>11292</v>
       </c>
       <c r="B1375" s="3" t="s">
-        <v>3288</v>
+        <v>3286</v>
       </c>
       <c r="K1375" s="6" t="s">
-        <v>3287</v>
+        <v>3285</v>
       </c>
       <c r="L1375" s="6" t="s">
-        <v>3199</v>
+        <v>3197</v>
       </c>
     </row>
     <row r="1376" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35705,16 +35888,16 @@
         <v>11293</v>
       </c>
       <c r="B1376" s="3" t="s">
+        <v>3287</v>
+      </c>
+      <c r="C1376" s="4" t="s">
+        <v>3288</v>
+      </c>
+      <c r="K1376" s="6" t="s">
         <v>3289</v>
       </c>
-      <c r="C1376" s="4" t="s">
-        <v>3290</v>
-      </c>
-      <c r="K1376" s="6" t="s">
-        <v>3291</v>
-      </c>
       <c r="L1376" s="6" t="s">
-        <v>3200</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="1377" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35722,13 +35905,13 @@
         <v>11294</v>
       </c>
       <c r="B1377" s="3" t="s">
-        <v>3292</v>
+        <v>3290</v>
       </c>
       <c r="K1377" s="6" t="s">
-        <v>3293</v>
+        <v>3291</v>
       </c>
       <c r="L1377" s="6" t="s">
-        <v>3664</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="1378" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35736,13 +35919,13 @@
         <v>11295</v>
       </c>
       <c r="B1378" s="3" t="s">
-        <v>3294</v>
+        <v>3292</v>
       </c>
       <c r="K1378" s="6" t="s">
+        <v>3291</v>
+      </c>
+      <c r="L1378" s="6" t="s">
         <v>3293</v>
-      </c>
-      <c r="L1378" s="6" t="s">
-        <v>3295</v>
       </c>
     </row>
     <row r="1379" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35750,16 +35933,16 @@
         <v>11296</v>
       </c>
       <c r="B1379" s="3" t="s">
-        <v>3326</v>
+        <v>3324</v>
       </c>
       <c r="K1379" s="6" t="s">
-        <v>3297</v>
+        <v>3295</v>
       </c>
       <c r="L1379" s="6" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="M1379" s="7" t="s">
-        <v>3298</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="1380" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35767,13 +35950,13 @@
         <v>21296</v>
       </c>
       <c r="B1380" s="3" t="s">
-        <v>3299</v>
+        <v>3297</v>
       </c>
       <c r="J1380" s="5">
         <v>1</v>
       </c>
       <c r="M1380" s="7" t="s">
-        <v>3300</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="1381" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35781,13 +35964,13 @@
         <v>21297</v>
       </c>
       <c r="B1381" s="3" t="s">
-        <v>3301</v>
+        <v>3299</v>
       </c>
       <c r="J1381" s="5">
         <v>1</v>
       </c>
       <c r="M1381" s="7" t="s">
-        <v>3302</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="1382" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35795,13 +35978,13 @@
         <v>21298</v>
       </c>
       <c r="B1382" s="3" t="s">
-        <v>3309</v>
+        <v>3307</v>
       </c>
       <c r="J1382" s="5">
         <v>1</v>
       </c>
       <c r="M1382" s="7" t="s">
-        <v>3303</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="1383" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35809,13 +35992,13 @@
         <v>21299</v>
       </c>
       <c r="B1383" s="3" t="s">
-        <v>3312</v>
+        <v>3310</v>
       </c>
       <c r="J1383" s="5">
         <v>1</v>
       </c>
       <c r="M1383" s="7" t="s">
-        <v>3304</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="1384" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35823,13 +36006,13 @@
         <v>21300</v>
       </c>
       <c r="B1384" s="3" t="s">
-        <v>3313</v>
+        <v>3311</v>
       </c>
       <c r="J1384" s="5">
         <v>1</v>
       </c>
       <c r="M1384" s="7" t="s">
-        <v>3305</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="1385" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35837,13 +36020,13 @@
         <v>21301</v>
       </c>
       <c r="B1385" s="3" t="s">
-        <v>3310</v>
+        <v>3308</v>
       </c>
       <c r="J1385" s="5">
         <v>1</v>
       </c>
       <c r="M1385" s="7" t="s">
-        <v>3306</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="1386" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35851,13 +36034,13 @@
         <v>21302</v>
       </c>
       <c r="B1386" s="3" t="s">
-        <v>3311</v>
+        <v>3309</v>
       </c>
       <c r="J1386" s="5">
         <v>1</v>
       </c>
       <c r="M1386" s="7" t="s">
-        <v>3307</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="1387" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35865,13 +36048,13 @@
         <v>21303</v>
       </c>
       <c r="B1387" s="3" t="s">
-        <v>3314</v>
+        <v>3312</v>
       </c>
       <c r="J1387" s="5">
         <v>1</v>
       </c>
       <c r="M1387" s="7" t="s">
-        <v>3308</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="1388" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35879,7 +36062,7 @@
         <v>21304</v>
       </c>
       <c r="B1388" s="3" t="s">
-        <v>3315</v>
+        <v>3313</v>
       </c>
       <c r="J1388" s="5">
         <v>1</v>
@@ -35890,16 +36073,16 @@
         <v>21305</v>
       </c>
       <c r="B1389" s="3" t="s">
-        <v>3317</v>
+        <v>3315</v>
       </c>
       <c r="K1389" s="6" t="s">
-        <v>3324</v>
+        <v>3322</v>
       </c>
       <c r="L1389" s="6" t="s">
-        <v>3325</v>
+        <v>3323</v>
       </c>
       <c r="M1389" s="7" t="s">
-        <v>3316</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="1390" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35907,16 +36090,16 @@
         <v>21306</v>
       </c>
       <c r="B1390" s="3" t="s">
-        <v>3318</v>
+        <v>3316</v>
       </c>
       <c r="J1390" s="5">
         <v>1</v>
       </c>
       <c r="M1390" s="7" t="s">
-        <v>3319</v>
+        <v>3317</v>
       </c>
       <c r="N1390" s="8" t="s">
-        <v>3320</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1391" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35924,7 +36107,7 @@
         <v>21307</v>
       </c>
       <c r="B1391" s="3" t="s">
-        <v>3321</v>
+        <v>3319</v>
       </c>
       <c r="J1391" s="5">
         <v>1</v>
@@ -35935,13 +36118,13 @@
         <v>21308</v>
       </c>
       <c r="B1392" s="3" t="s">
-        <v>3322</v>
+        <v>3320</v>
       </c>
       <c r="J1392" s="5">
         <v>1</v>
       </c>
       <c r="M1392" s="7" t="s">
-        <v>3323</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="1393" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35949,13 +36132,13 @@
         <v>11297</v>
       </c>
       <c r="B1393" s="3" t="s">
-        <v>3329</v>
+        <v>3327</v>
       </c>
       <c r="K1393" s="6" t="s">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="L1393" s="6" t="s">
-        <v>3328</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1394" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35963,13 +36146,13 @@
         <v>11298</v>
       </c>
       <c r="B1394" s="3" t="s">
-        <v>3331</v>
+        <v>3329</v>
       </c>
       <c r="K1394" s="6" t="s">
-        <v>3330</v>
+        <v>3328</v>
       </c>
       <c r="L1394" s="6" t="s">
-        <v>3202</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="1395" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35977,16 +36160,16 @@
         <v>11299</v>
       </c>
       <c r="B1395" s="3" t="s">
-        <v>3333</v>
+        <v>3331</v>
       </c>
       <c r="K1395" s="6" t="s">
-        <v>3332</v>
+        <v>3330</v>
       </c>
       <c r="L1395" s="6" t="s">
-        <v>3253</v>
+        <v>3251</v>
       </c>
       <c r="M1395" s="7" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1396" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -35994,13 +36177,13 @@
         <v>11300</v>
       </c>
       <c r="B1396" s="3" t="s">
-        <v>3335</v>
+        <v>3333</v>
       </c>
       <c r="K1396" s="6" t="s">
-        <v>3334</v>
+        <v>3332</v>
       </c>
       <c r="L1396" s="6" t="s">
-        <v>3254</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="1397" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36008,13 +36191,13 @@
         <v>11301</v>
       </c>
       <c r="B1397" s="3" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="K1397" s="6" t="s">
-        <v>3337</v>
+        <v>3335</v>
       </c>
       <c r="L1397" s="6" t="s">
-        <v>3255</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="1398" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36022,13 +36205,13 @@
         <v>11302</v>
       </c>
       <c r="B1398" s="3" t="s">
-        <v>3338</v>
+        <v>3336</v>
       </c>
       <c r="K1398" s="6" t="s">
-        <v>3337</v>
+        <v>3335</v>
       </c>
       <c r="L1398" s="6" t="s">
-        <v>3256</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="1399" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36036,13 +36219,13 @@
         <v>11303</v>
       </c>
       <c r="B1399" s="3" t="s">
-        <v>3339</v>
+        <v>3337</v>
       </c>
       <c r="K1399" s="6" t="s">
-        <v>3254</v>
+        <v>3252</v>
       </c>
       <c r="L1399" s="6" t="s">
-        <v>3257</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="1400" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36050,16 +36233,16 @@
         <v>11304</v>
       </c>
       <c r="B1400" s="3" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="C1400" s="4" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="K1400" s="6" t="s">
-        <v>3254</v>
+        <v>3252</v>
       </c>
       <c r="L1400" s="6" t="s">
-        <v>3258</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="1401" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36067,13 +36250,13 @@
         <v>11305</v>
       </c>
       <c r="B1401" s="3" t="s">
-        <v>3342</v>
+        <v>3340</v>
       </c>
       <c r="K1401" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1401" s="6" t="s">
-        <v>3259</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="1402" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36081,16 +36264,16 @@
         <v>11306</v>
       </c>
       <c r="B1402" s="3" t="s">
-        <v>3343</v>
+        <v>3341</v>
       </c>
       <c r="K1402" s="6" t="s">
-        <v>3330</v>
+        <v>3328</v>
       </c>
       <c r="L1402" s="6" t="s">
-        <v>3344</v>
+        <v>3342</v>
       </c>
       <c r="M1402" s="7" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1403" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36098,13 +36281,13 @@
         <v>11307</v>
       </c>
       <c r="B1403" s="3" t="s">
-        <v>3345</v>
+        <v>3343</v>
       </c>
       <c r="F1403" s="5">
         <v>-1</v>
       </c>
       <c r="K1403" s="6" t="s">
-        <v>3330</v>
+        <v>3328</v>
       </c>
       <c r="M1403" s="7" t="s">
         <v>248</v>
@@ -36115,7 +36298,7 @@
         <v>11308</v>
       </c>
       <c r="B1404" s="3" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
       <c r="F1404" s="5">
         <v>-1</v>
@@ -36129,16 +36312,16 @@
         <v>11309</v>
       </c>
       <c r="B1405" s="3" t="s">
-        <v>3347</v>
+        <v>3345</v>
       </c>
       <c r="K1405" s="6" t="s">
-        <v>3348</v>
+        <v>3346</v>
       </c>
       <c r="L1405" s="6" t="s">
-        <v>3260</v>
+        <v>3258</v>
       </c>
       <c r="M1405" s="7" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1406" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36152,10 +36335,10 @@
         <v>2191</v>
       </c>
       <c r="L1406" s="6" t="s">
-        <v>3349</v>
+        <v>3347</v>
       </c>
       <c r="M1406" s="7" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1407" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36163,16 +36346,16 @@
         <v>11311</v>
       </c>
       <c r="B1407" s="3" t="s">
-        <v>3350</v>
+        <v>3348</v>
       </c>
       <c r="H1407" s="5">
         <v>-1</v>
       </c>
       <c r="K1407" s="6" t="s">
-        <v>3351</v>
+        <v>3349</v>
       </c>
       <c r="L1407" s="6" t="s">
-        <v>3261</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="1408" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36180,16 +36363,16 @@
         <v>11312</v>
       </c>
       <c r="B1408" s="3" t="s">
-        <v>3352</v>
+        <v>3350</v>
       </c>
       <c r="K1408" s="6" t="s">
-        <v>3353</v>
+        <v>3351</v>
       </c>
       <c r="L1408" s="6" t="s">
-        <v>3262</v>
+        <v>3260</v>
       </c>
       <c r="M1408" s="7" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1409" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36197,16 +36380,16 @@
         <v>11313</v>
       </c>
       <c r="B1409" s="3" t="s">
-        <v>3354</v>
+        <v>3352</v>
       </c>
       <c r="K1409" s="6" t="s">
-        <v>3355</v>
+        <v>3353</v>
       </c>
       <c r="L1409" s="6" t="s">
-        <v>3263</v>
+        <v>3261</v>
       </c>
       <c r="M1409" s="7" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1410" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36214,16 +36397,16 @@
         <v>11314</v>
       </c>
       <c r="B1410" s="3" t="s">
-        <v>3356</v>
+        <v>3354</v>
       </c>
       <c r="K1410" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1410" s="6" t="s">
-        <v>3370</v>
+        <v>3368</v>
       </c>
       <c r="M1410" s="7" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1411" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36231,13 +36414,13 @@
         <v>11315</v>
       </c>
       <c r="B1411" s="3" t="s">
-        <v>3362</v>
+        <v>3360</v>
       </c>
       <c r="K1411" s="6" t="s">
-        <v>3363</v>
+        <v>3361</v>
       </c>
       <c r="L1411" s="6" t="s">
-        <v>3264</v>
+        <v>3262</v>
       </c>
     </row>
     <row r="1412" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36245,10 +36428,10 @@
         <v>11316</v>
       </c>
       <c r="B1412" s="3" t="s">
-        <v>3364</v>
+        <v>3362</v>
       </c>
       <c r="K1412" s="6" t="s">
-        <v>3252</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="1413" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36256,13 +36439,13 @@
         <v>11317</v>
       </c>
       <c r="B1413" s="3" t="s">
-        <v>3365</v>
+        <v>3363</v>
       </c>
       <c r="K1413" s="6" t="s">
-        <v>3330</v>
+        <v>3328</v>
       </c>
       <c r="L1413" s="6" t="s">
-        <v>3265</v>
+        <v>3263</v>
       </c>
     </row>
     <row r="1414" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36270,13 +36453,13 @@
         <v>11318</v>
       </c>
       <c r="B1414" s="3" t="s">
-        <v>3366</v>
+        <v>3364</v>
       </c>
       <c r="K1414" s="6" t="s">
-        <v>3367</v>
+        <v>3365</v>
       </c>
       <c r="L1414" s="6" t="s">
-        <v>3266</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="1415" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36284,7 +36467,7 @@
         <v>11319</v>
       </c>
       <c r="B1415" s="3" t="s">
-        <v>3369</v>
+        <v>3367</v>
       </c>
       <c r="G1415" s="5">
         <v>-5</v>
@@ -36293,10 +36476,10 @@
         <v>-5</v>
       </c>
       <c r="K1415" s="6" t="s">
-        <v>3368</v>
+        <v>3366</v>
       </c>
       <c r="L1415" s="6" t="s">
-        <v>3267</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="1416" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36304,13 +36487,13 @@
         <v>11320</v>
       </c>
       <c r="B1416" s="3" t="s">
-        <v>3373</v>
+        <v>3371</v>
       </c>
       <c r="K1416" s="6" t="s">
-        <v>3372</v>
+        <v>3370</v>
       </c>
       <c r="L1416" s="6" t="s">
-        <v>3377</v>
+        <v>3375</v>
       </c>
     </row>
     <row r="1417" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36318,13 +36501,13 @@
         <v>11321</v>
       </c>
       <c r="B1417" s="3" t="s">
+        <v>3373</v>
+      </c>
+      <c r="K1417" s="6" t="s">
+        <v>3372</v>
+      </c>
+      <c r="L1417" s="6" t="s">
         <v>3375</v>
-      </c>
-      <c r="K1417" s="6" t="s">
-        <v>3374</v>
-      </c>
-      <c r="L1417" s="6" t="s">
-        <v>3377</v>
       </c>
     </row>
     <row r="1418" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36332,13 +36515,13 @@
         <v>11322</v>
       </c>
       <c r="B1418" s="3" t="s">
+        <v>3373</v>
+      </c>
+      <c r="K1418" s="6" t="s">
+        <v>3374</v>
+      </c>
+      <c r="L1418" s="6" t="s">
         <v>3375</v>
-      </c>
-      <c r="K1418" s="6" t="s">
-        <v>3376</v>
-      </c>
-      <c r="L1418" s="6" t="s">
-        <v>3377</v>
       </c>
     </row>
     <row r="1419" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36346,16 +36529,16 @@
         <v>11323</v>
       </c>
       <c r="B1419" s="3" t="s">
-        <v>3378</v>
+        <v>3376</v>
       </c>
       <c r="K1419" s="6" t="s">
-        <v>3379</v>
+        <v>3377</v>
       </c>
       <c r="L1419" s="6" t="s">
-        <v>3377</v>
+        <v>3375</v>
       </c>
       <c r="M1419" s="7" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1420" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36363,16 +36546,16 @@
         <v>11324</v>
       </c>
       <c r="B1420" s="3" t="s">
-        <v>3380</v>
+        <v>3378</v>
       </c>
       <c r="K1420" s="6" t="s">
-        <v>3374</v>
+        <v>3372</v>
       </c>
       <c r="L1420" s="6" t="s">
-        <v>3377</v>
+        <v>3375</v>
       </c>
       <c r="M1420" s="7" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="1421" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36380,19 +36563,19 @@
         <v>11325</v>
       </c>
       <c r="B1421" s="3" t="s">
+        <v>3379</v>
+      </c>
+      <c r="C1421" s="4" t="s">
+        <v>3380</v>
+      </c>
+      <c r="K1421" s="6" t="s">
+        <v>3328</v>
+      </c>
+      <c r="L1421" s="6" t="s">
+        <v>3266</v>
+      </c>
+      <c r="M1421" s="7" t="s">
         <v>3381</v>
-      </c>
-      <c r="C1421" s="4" t="s">
-        <v>3382</v>
-      </c>
-      <c r="K1421" s="6" t="s">
-        <v>3330</v>
-      </c>
-      <c r="L1421" s="6" t="s">
-        <v>3268</v>
-      </c>
-      <c r="M1421" s="7" t="s">
-        <v>3383</v>
       </c>
     </row>
     <row r="1422" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36400,7 +36583,7 @@
         <v>21315</v>
       </c>
       <c r="B1422" s="3" t="s">
-        <v>3384</v>
+        <v>3382</v>
       </c>
       <c r="G1422" s="5">
         <v>3</v>
@@ -36414,16 +36597,16 @@
         <v>11326</v>
       </c>
       <c r="B1423" s="3" t="s">
-        <v>3385</v>
+        <v>3383</v>
       </c>
       <c r="C1423" s="4" t="s">
-        <v>3386</v>
+        <v>3384</v>
       </c>
       <c r="K1423" s="6" t="s">
-        <v>3389</v>
+        <v>3387</v>
       </c>
       <c r="L1423" s="6" t="s">
-        <v>3269</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="1424" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36431,13 +36614,13 @@
         <v>11327</v>
       </c>
       <c r="B1424" s="3" t="s">
+        <v>3385</v>
+      </c>
+      <c r="K1424" s="6" t="s">
         <v>3387</v>
       </c>
-      <c r="K1424" s="6" t="s">
-        <v>3389</v>
-      </c>
       <c r="L1424" s="6" t="s">
-        <v>3270</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="1425" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36445,13 +36628,13 @@
         <v>11328</v>
       </c>
       <c r="B1425" s="3" t="s">
+        <v>3386</v>
+      </c>
+      <c r="K1425" s="6" t="s">
         <v>3388</v>
       </c>
-      <c r="K1425" s="6" t="s">
-        <v>3390</v>
-      </c>
       <c r="L1425" s="6" t="s">
-        <v>3271</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="1426" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36459,13 +36642,13 @@
         <v>11329</v>
       </c>
       <c r="B1426" s="3" t="s">
-        <v>3391</v>
+        <v>3389</v>
       </c>
       <c r="K1426" s="6" t="s">
+        <v>3388</v>
+      </c>
+      <c r="L1426" s="6" t="s">
         <v>3390</v>
-      </c>
-      <c r="L1426" s="6" t="s">
-        <v>3392</v>
       </c>
     </row>
     <row r="1427" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36473,13 +36656,13 @@
         <v>11330</v>
       </c>
       <c r="B1427" s="3" t="s">
-        <v>3393</v>
+        <v>3391</v>
       </c>
       <c r="K1427" s="6" t="s">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="L1427" s="6" t="s">
-        <v>3272</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="1428" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36487,13 +36670,13 @@
         <v>11331</v>
       </c>
       <c r="B1428" s="3" t="s">
-        <v>3395</v>
+        <v>3393</v>
       </c>
       <c r="K1428" s="6" t="s">
-        <v>3394</v>
+        <v>3392</v>
       </c>
       <c r="L1428" s="6" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="1429" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36501,13 +36684,13 @@
         <v>11332</v>
       </c>
       <c r="B1429" s="3" t="s">
-        <v>3397</v>
+        <v>3395</v>
       </c>
       <c r="K1429" s="6" t="s">
-        <v>3396</v>
+        <v>3394</v>
       </c>
       <c r="L1429" s="6" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="1430" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36515,13 +36698,13 @@
         <v>11333</v>
       </c>
       <c r="B1430" s="3" t="s">
+        <v>3396</v>
+      </c>
+      <c r="K1430" s="6" t="s">
+        <v>3086</v>
+      </c>
+      <c r="L1430" s="6" t="s">
         <v>3398</v>
-      </c>
-      <c r="K1430" s="6" t="s">
-        <v>3088</v>
-      </c>
-      <c r="L1430" s="6" t="s">
-        <v>3400</v>
       </c>
     </row>
     <row r="1431" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36529,13 +36712,13 @@
         <v>11334</v>
       </c>
       <c r="B1431" s="3" t="s">
-        <v>3399</v>
+        <v>3397</v>
       </c>
       <c r="K1431" s="6" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
       <c r="L1431" s="6" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
     </row>
     <row r="1432" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36543,7 +36726,7 @@
         <v>11335</v>
       </c>
       <c r="B1432" s="3" t="s">
-        <v>3404</v>
+        <v>3402</v>
       </c>
       <c r="E1432" s="5">
         <v>-1</v>
@@ -36552,7 +36735,7 @@
         <v>1</v>
       </c>
       <c r="K1432" s="6" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1433" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36560,7 +36743,7 @@
         <v>11336</v>
       </c>
       <c r="B1433" s="3" t="s">
-        <v>3405</v>
+        <v>3403</v>
       </c>
       <c r="E1433" s="5">
         <v>-1</v>
@@ -36569,7 +36752,7 @@
         <v>1</v>
       </c>
       <c r="K1433" s="6" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1434" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36577,7 +36760,7 @@
         <v>11337</v>
       </c>
       <c r="B1434" s="3" t="s">
-        <v>3406</v>
+        <v>3404</v>
       </c>
       <c r="E1434" s="5">
         <v>-1</v>
@@ -36586,7 +36769,7 @@
         <v>1</v>
       </c>
       <c r="K1434" s="6" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1435" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36594,7 +36777,7 @@
         <v>11338</v>
       </c>
       <c r="B1435" s="3" t="s">
-        <v>3407</v>
+        <v>3405</v>
       </c>
       <c r="D1435" s="5">
         <v>1</v>
@@ -36603,7 +36786,7 @@
         <v>-1</v>
       </c>
       <c r="K1435" s="6" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1436" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36611,7 +36794,7 @@
         <v>11339</v>
       </c>
       <c r="B1436" s="3" t="s">
-        <v>3408</v>
+        <v>3406</v>
       </c>
       <c r="D1436" s="5">
         <v>2</v>
@@ -36620,7 +36803,7 @@
         <v>-1</v>
       </c>
       <c r="K1436" s="6" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1437" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36628,7 +36811,7 @@
         <v>11340</v>
       </c>
       <c r="B1437" s="3" t="s">
-        <v>3409</v>
+        <v>3407</v>
       </c>
       <c r="E1437" s="5">
         <v>-1</v>
@@ -36637,7 +36820,7 @@
         <v>2</v>
       </c>
       <c r="K1437" s="6" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1438" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36645,7 +36828,7 @@
         <v>11341</v>
       </c>
       <c r="B1438" s="3" t="s">
-        <v>3410</v>
+        <v>3408</v>
       </c>
       <c r="E1438" s="5">
         <v>-1</v>
@@ -36654,7 +36837,7 @@
         <v>2</v>
       </c>
       <c r="K1438" s="6" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1439" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36662,7 +36845,7 @@
         <v>11342</v>
       </c>
       <c r="B1439" s="3" t="s">
-        <v>3411</v>
+        <v>3409</v>
       </c>
       <c r="E1439" s="5">
         <v>-1</v>
@@ -36671,7 +36854,7 @@
         <v>2</v>
       </c>
       <c r="K1439" s="6" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1440" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36679,7 +36862,7 @@
         <v>11343</v>
       </c>
       <c r="B1440" s="3" t="s">
-        <v>3412</v>
+        <v>3410</v>
       </c>
       <c r="E1440" s="5">
         <v>-1</v>
@@ -36688,7 +36871,7 @@
         <v>3</v>
       </c>
       <c r="K1440" s="6" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1441" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36696,7 +36879,7 @@
         <v>11344</v>
       </c>
       <c r="B1441" s="3" t="s">
-        <v>3413</v>
+        <v>3411</v>
       </c>
       <c r="D1441" s="5">
         <v>3</v>
@@ -36705,7 +36888,7 @@
         <v>-1</v>
       </c>
       <c r="K1441" s="6" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1442" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36713,7 +36896,7 @@
         <v>11345</v>
       </c>
       <c r="B1442" s="3" t="s">
-        <v>3414</v>
+        <v>3412</v>
       </c>
       <c r="E1442" s="5">
         <v>-1</v>
@@ -36722,7 +36905,7 @@
         <v>3</v>
       </c>
       <c r="K1442" s="6" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1443" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36730,7 +36913,7 @@
         <v>11346</v>
       </c>
       <c r="B1443" s="3" t="s">
-        <v>3415</v>
+        <v>3413</v>
       </c>
       <c r="E1443" s="5">
         <v>-1</v>
@@ -36739,7 +36922,7 @@
         <v>3</v>
       </c>
       <c r="K1443" s="6" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="1444" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36747,16 +36930,16 @@
         <v>11347</v>
       </c>
       <c r="B1444" s="3" t="s">
-        <v>3403</v>
+        <v>3401</v>
       </c>
       <c r="E1444" s="5">
         <v>-1</v>
       </c>
       <c r="K1444" s="6" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
       <c r="M1444" s="7" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="1445" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36764,16 +36947,16 @@
         <v>11348</v>
       </c>
       <c r="B1445" s="3" t="s">
-        <v>3416</v>
+        <v>3414</v>
       </c>
       <c r="E1445" s="5">
         <v>-1</v>
       </c>
       <c r="K1445" s="6" t="s">
-        <v>3402</v>
+        <v>3400</v>
       </c>
       <c r="M1445" s="7" t="s">
-        <v>3417</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="1446" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36781,10 +36964,10 @@
         <v>11349</v>
       </c>
       <c r="B1446" s="3" t="s">
-        <v>3419</v>
+        <v>3417</v>
       </c>
       <c r="K1446" s="6" t="s">
-        <v>3418</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="1447" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36792,13 +36975,13 @@
         <v>11350</v>
       </c>
       <c r="B1447" s="3" t="s">
-        <v>3422</v>
+        <v>3420</v>
       </c>
       <c r="K1447" s="6" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
       <c r="L1447" s="6" t="s">
-        <v>3453</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="1448" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36806,13 +36989,13 @@
         <v>11351</v>
       </c>
       <c r="B1448" s="3" t="s">
-        <v>3423</v>
+        <v>3421</v>
       </c>
       <c r="K1448" s="6" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
       <c r="L1448" s="6" t="s">
-        <v>3454</v>
+        <v>3452</v>
       </c>
     </row>
     <row r="1449" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36820,13 +37003,13 @@
         <v>11352</v>
       </c>
       <c r="B1449" s="3" t="s">
-        <v>3424</v>
+        <v>3422</v>
       </c>
       <c r="K1449" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1449" s="6" t="s">
-        <v>3455</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="1450" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36834,13 +37017,13 @@
         <v>11353</v>
       </c>
       <c r="B1450" s="3" t="s">
-        <v>3425</v>
+        <v>3423</v>
       </c>
       <c r="K1450" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1450" s="6" t="s">
-        <v>3456</v>
+        <v>3454</v>
       </c>
     </row>
     <row r="1451" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36848,16 +37031,16 @@
         <v>11354</v>
       </c>
       <c r="B1451" s="3" t="s">
-        <v>3426</v>
+        <v>3424</v>
       </c>
       <c r="H1451" s="5">
         <v>-1</v>
       </c>
       <c r="K1451" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1451" s="6" t="s">
-        <v>3457</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="1452" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36865,16 +37048,16 @@
         <v>11355</v>
       </c>
       <c r="B1452" s="3" t="s">
-        <v>3427</v>
+        <v>3425</v>
       </c>
       <c r="H1452" s="5">
         <v>-1</v>
       </c>
       <c r="K1452" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1452" s="6" t="s">
-        <v>3458</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="1453" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36882,13 +37065,13 @@
         <v>11356</v>
       </c>
       <c r="B1453" s="3" t="s">
-        <v>3428</v>
+        <v>3426</v>
       </c>
       <c r="K1453" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1453" s="6" t="s">
-        <v>3459</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="1454" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36896,13 +37079,13 @@
         <v>11357</v>
       </c>
       <c r="B1454" s="3" t="s">
-        <v>3429</v>
+        <v>3427</v>
       </c>
       <c r="K1454" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1454" s="6" t="s">
-        <v>3460</v>
+        <v>3458</v>
       </c>
     </row>
     <row r="1455" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36910,13 +37093,13 @@
         <v>11358</v>
       </c>
       <c r="B1455" s="3" t="s">
-        <v>3430</v>
+        <v>3428</v>
       </c>
       <c r="K1455" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1455" s="6" t="s">
-        <v>3461</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="1456" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36924,13 +37107,13 @@
         <v>11359</v>
       </c>
       <c r="B1456" s="3" t="s">
-        <v>3431</v>
+        <v>3429</v>
       </c>
       <c r="K1456" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1456" s="6" t="s">
-        <v>3462</v>
+        <v>3460</v>
       </c>
     </row>
     <row r="1457" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36938,13 +37121,13 @@
         <v>11360</v>
       </c>
       <c r="B1457" s="3" t="s">
-        <v>3432</v>
+        <v>3430</v>
       </c>
       <c r="K1457" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1457" s="6" t="s">
-        <v>3463</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="1458" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36952,16 +37135,16 @@
         <v>11361</v>
       </c>
       <c r="B1458" s="3" t="s">
-        <v>3433</v>
+        <v>3431</v>
       </c>
       <c r="H1458" s="5">
         <v>1</v>
       </c>
       <c r="K1458" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1458" s="6" t="s">
-        <v>3464</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="1459" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36969,13 +37152,13 @@
         <v>11362</v>
       </c>
       <c r="B1459" s="3" t="s">
-        <v>3434</v>
+        <v>3432</v>
       </c>
       <c r="K1459" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1459" s="6" t="s">
-        <v>3465</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="1460" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -36983,16 +37166,16 @@
         <v>11363</v>
       </c>
       <c r="B1460" s="3" t="s">
-        <v>3435</v>
+        <v>3433</v>
       </c>
       <c r="H1460" s="5">
         <v>1</v>
       </c>
       <c r="K1460" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1460" s="6" t="s">
-        <v>3466</v>
+        <v>3464</v>
       </c>
     </row>
     <row r="1461" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37000,13 +37183,13 @@
         <v>11364</v>
       </c>
       <c r="B1461" s="3" t="s">
-        <v>3436</v>
+        <v>3434</v>
       </c>
       <c r="K1461" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1461" s="6" t="s">
-        <v>3467</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="1462" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37014,13 +37197,13 @@
         <v>11365</v>
       </c>
       <c r="B1462" s="3" t="s">
-        <v>3445</v>
+        <v>3443</v>
       </c>
       <c r="K1462" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1462" s="6" t="s">
-        <v>3468</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="1463" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37028,13 +37211,13 @@
         <v>11366</v>
       </c>
       <c r="B1463" s="3" t="s">
-        <v>3437</v>
+        <v>3435</v>
       </c>
       <c r="K1463" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1463" s="6" t="s">
-        <v>3469</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="1464" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37042,13 +37225,13 @@
         <v>11367</v>
       </c>
       <c r="B1464" s="3" t="s">
-        <v>3438</v>
+        <v>3436</v>
       </c>
       <c r="K1464" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1464" s="6" t="s">
-        <v>3469</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="1465" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37056,13 +37239,13 @@
         <v>11368</v>
       </c>
       <c r="B1465" s="3" t="s">
-        <v>3439</v>
+        <v>3437</v>
       </c>
       <c r="K1465" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1465" s="6" t="s">
-        <v>3470</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="1466" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37070,13 +37253,13 @@
         <v>11369</v>
       </c>
       <c r="B1466" s="3" t="s">
-        <v>3440</v>
+        <v>3438</v>
       </c>
       <c r="K1466" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1466" s="6" t="s">
-        <v>3471</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="1467" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37084,13 +37267,13 @@
         <v>11370</v>
       </c>
       <c r="B1467" s="3" t="s">
-        <v>3441</v>
+        <v>3439</v>
       </c>
       <c r="K1467" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1467" s="6" t="s">
-        <v>3472</v>
+        <v>3470</v>
       </c>
     </row>
     <row r="1468" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37098,13 +37281,13 @@
         <v>11371</v>
       </c>
       <c r="B1468" s="3" t="s">
-        <v>3442</v>
+        <v>3440</v>
       </c>
       <c r="K1468" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1468" s="6" t="s">
-        <v>3473</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="1469" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37112,16 +37295,16 @@
         <v>11372</v>
       </c>
       <c r="B1469" s="3" t="s">
-        <v>3443</v>
+        <v>3441</v>
       </c>
       <c r="G1469" s="5">
         <v>1</v>
       </c>
       <c r="K1469" s="6" t="s">
-        <v>3444</v>
+        <v>3442</v>
       </c>
       <c r="L1469" s="6" t="s">
-        <v>3474</v>
+        <v>3472</v>
       </c>
     </row>
     <row r="1470" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37129,13 +37312,13 @@
         <v>11373</v>
       </c>
       <c r="B1470" s="3" t="s">
-        <v>3446</v>
+        <v>3444</v>
       </c>
       <c r="K1470" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1470" s="6" t="s">
-        <v>3475</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="1471" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37143,13 +37326,13 @@
         <v>11374</v>
       </c>
       <c r="B1471" s="3" t="s">
-        <v>3447</v>
+        <v>3445</v>
       </c>
       <c r="K1471" s="6" t="s">
-        <v>3421</v>
+        <v>3419</v>
       </c>
       <c r="L1471" s="6" t="s">
-        <v>3476</v>
+        <v>3474</v>
       </c>
     </row>
     <row r="1472" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37157,13 +37340,13 @@
         <v>11375</v>
       </c>
       <c r="B1472" s="3" t="s">
-        <v>3449</v>
+        <v>3447</v>
       </c>
       <c r="K1472" s="6" t="s">
-        <v>3448</v>
+        <v>3446</v>
       </c>
       <c r="L1472" s="6" t="s">
-        <v>3477</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="1473" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37171,13 +37354,13 @@
         <v>11376</v>
       </c>
       <c r="B1473" s="3" t="s">
-        <v>3450</v>
+        <v>3448</v>
       </c>
       <c r="K1473" s="6" t="s">
-        <v>3420</v>
+        <v>3418</v>
       </c>
       <c r="L1473" s="6" t="s">
-        <v>3478</v>
+        <v>3476</v>
       </c>
     </row>
     <row r="1474" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37185,13 +37368,13 @@
         <v>11377</v>
       </c>
       <c r="B1474" s="3" t="s">
-        <v>3452</v>
+        <v>3450</v>
       </c>
       <c r="K1474" s="6" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
       <c r="L1474" s="6" t="s">
-        <v>3479</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="1475" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37199,13 +37382,13 @@
         <v>11378</v>
       </c>
       <c r="B1475" s="3" t="s">
-        <v>3482</v>
+        <v>3480</v>
       </c>
       <c r="K1475" s="6" t="s">
-        <v>3481</v>
+        <v>3479</v>
       </c>
       <c r="L1475" s="6" t="s">
-        <v>3504</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="1476" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37213,13 +37396,13 @@
         <v>11379</v>
       </c>
       <c r="B1476" s="3" t="s">
+        <v>3481</v>
+      </c>
+      <c r="K1476" s="6" t="s">
         <v>3483</v>
       </c>
-      <c r="K1476" s="6" t="s">
-        <v>3485</v>
-      </c>
       <c r="L1476" s="6" t="s">
-        <v>3505</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="1477" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37227,13 +37410,13 @@
         <v>11380</v>
       </c>
       <c r="B1477" s="3" t="s">
+        <v>3482</v>
+      </c>
+      <c r="K1477" s="6" t="s">
         <v>3484</v>
       </c>
-      <c r="K1477" s="6" t="s">
-        <v>3486</v>
-      </c>
       <c r="L1477" s="6" t="s">
-        <v>3506</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="1478" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37241,13 +37424,13 @@
         <v>11381</v>
       </c>
       <c r="B1478" s="3" t="s">
-        <v>3487</v>
+        <v>3485</v>
       </c>
       <c r="K1478" s="6" t="s">
-        <v>3525</v>
+        <v>3523</v>
       </c>
       <c r="L1478" s="6" t="s">
-        <v>3503</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="1479" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37255,13 +37438,13 @@
         <v>11382</v>
       </c>
       <c r="B1479" s="3" t="s">
-        <v>3488</v>
+        <v>3486</v>
       </c>
       <c r="K1479" s="6" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
       <c r="L1479" s="6" t="s">
-        <v>3502</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="1480" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37269,16 +37452,16 @@
         <v>11383</v>
       </c>
       <c r="B1480" s="3" t="s">
-        <v>3489</v>
+        <v>3487</v>
       </c>
       <c r="G1480" s="5">
         <v>-1</v>
       </c>
       <c r="K1480" s="6" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
       <c r="L1480" s="6" t="s">
-        <v>3501</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="1481" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37286,13 +37469,13 @@
         <v>11384</v>
       </c>
       <c r="B1481" s="3" t="s">
-        <v>3490</v>
+        <v>3488</v>
       </c>
       <c r="K1481" s="6" t="s">
-        <v>3451</v>
+        <v>3449</v>
       </c>
       <c r="L1481" s="6" t="s">
-        <v>3500</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="1482" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37300,16 +37483,16 @@
         <v>11385</v>
       </c>
       <c r="B1482" s="3" t="s">
-        <v>3491</v>
+        <v>3489</v>
       </c>
       <c r="H1482" s="5">
         <v>1</v>
       </c>
       <c r="K1482" s="6" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="L1482" s="6" t="s">
-        <v>3480</v>
+        <v>3478</v>
       </c>
     </row>
     <row r="1483" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37317,13 +37500,13 @@
         <v>11386</v>
       </c>
       <c r="B1483" s="3" t="s">
-        <v>3492</v>
+        <v>3490</v>
       </c>
       <c r="K1483" s="6" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="L1483" s="6" t="s">
-        <v>3499</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="1484" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37331,13 +37514,13 @@
         <v>11387</v>
       </c>
       <c r="B1484" s="3" t="s">
-        <v>3493</v>
+        <v>3491</v>
       </c>
       <c r="K1484" s="6" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="L1484" s="6" t="s">
-        <v>3509</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="1485" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37345,13 +37528,13 @@
         <v>11388</v>
       </c>
       <c r="B1485" s="3" t="s">
-        <v>3494</v>
+        <v>3492</v>
       </c>
       <c r="K1485" s="6" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="L1485" s="6" t="s">
-        <v>3510</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="1486" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37359,13 +37542,13 @@
         <v>11389</v>
       </c>
       <c r="B1486" s="3" t="s">
-        <v>3495</v>
+        <v>3493</v>
       </c>
       <c r="K1486" s="6" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="L1486" s="6" t="s">
-        <v>3511</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="1487" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37373,13 +37556,13 @@
         <v>11390</v>
       </c>
       <c r="B1487" s="3" t="s">
-        <v>3496</v>
+        <v>3494</v>
       </c>
       <c r="K1487" s="6" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="L1487" s="6" t="s">
-        <v>3507</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="1488" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37387,13 +37570,13 @@
         <v>11391</v>
       </c>
       <c r="B1488" s="3" t="s">
-        <v>3497</v>
+        <v>3495</v>
       </c>
       <c r="K1488" s="6" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="L1488" s="6" t="s">
-        <v>3508</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="1489" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37401,16 +37584,16 @@
         <v>11392</v>
       </c>
       <c r="B1489" s="3" t="s">
-        <v>3512</v>
+        <v>3510</v>
       </c>
       <c r="H1489" s="5">
         <v>-1</v>
       </c>
       <c r="K1489" s="6" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="L1489" s="6" t="s">
-        <v>3517</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="1490" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37418,13 +37601,13 @@
         <v>11393</v>
       </c>
       <c r="B1490" s="3" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
       <c r="K1490" s="6" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="L1490" s="6" t="s">
-        <v>3518</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="1491" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37432,13 +37615,13 @@
         <v>11394</v>
       </c>
       <c r="B1491" s="3" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="K1491" s="6" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="L1491" s="6" t="s">
-        <v>3519</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="1492" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37446,13 +37629,13 @@
         <v>11395</v>
       </c>
       <c r="B1492" s="3" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
       <c r="K1492" s="6" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="L1492" s="6" t="s">
-        <v>3520</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="1493" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37460,13 +37643,13 @@
         <v>11396</v>
       </c>
       <c r="B1493" s="3" t="s">
-        <v>3516</v>
+        <v>3514</v>
       </c>
       <c r="K1493" s="6" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="L1493" s="6" t="s">
-        <v>3498</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="1494" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37474,13 +37657,13 @@
         <v>11397</v>
       </c>
       <c r="B1494" s="3" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
       <c r="K1494" s="6" t="s">
-        <v>3524</v>
+        <v>3522</v>
       </c>
       <c r="L1494" s="6" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="1495" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37488,13 +37671,13 @@
         <v>11398</v>
       </c>
       <c r="B1495" s="3" t="s">
-        <v>3527</v>
+        <v>3525</v>
       </c>
       <c r="K1495" s="6" t="s">
-        <v>3528</v>
+        <v>3526</v>
       </c>
       <c r="L1495" s="6" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="1496" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37502,13 +37685,13 @@
         <v>11399</v>
       </c>
       <c r="B1496" s="3" t="s">
-        <v>3530</v>
+        <v>3528</v>
       </c>
       <c r="K1496" s="6" t="s">
-        <v>3529</v>
+        <v>3527</v>
       </c>
       <c r="L1496" s="6" t="s">
-        <v>3522</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="1497" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37516,13 +37699,13 @@
         <v>11400</v>
       </c>
       <c r="B1497" s="3" t="s">
-        <v>3549</v>
+        <v>3547</v>
       </c>
       <c r="K1497" s="6" t="s">
+        <v>3548</v>
+      </c>
+      <c r="L1497" s="6" t="s">
         <v>3550</v>
-      </c>
-      <c r="L1497" s="6" t="s">
-        <v>3552</v>
       </c>
     </row>
     <row r="1498" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37530,16 +37713,16 @@
         <v>11401</v>
       </c>
       <c r="B1498" s="3" t="s">
-        <v>3551</v>
+        <v>3549</v>
       </c>
       <c r="G1498" s="5">
         <v>1</v>
       </c>
       <c r="K1498" s="6" t="s">
-        <v>3550</v>
+        <v>3548</v>
       </c>
       <c r="L1498" s="6" t="s">
-        <v>3523</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="1499" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37547,13 +37730,13 @@
         <v>11402</v>
       </c>
       <c r="B1499" s="3" t="s">
-        <v>3555</v>
+        <v>3553</v>
       </c>
       <c r="K1499" s="6" t="s">
-        <v>3553</v>
+        <v>3551</v>
       </c>
       <c r="L1499" s="6" t="s">
-        <v>3532</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="1500" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37561,13 +37744,13 @@
         <v>11403</v>
       </c>
       <c r="B1500" s="3" t="s">
+        <v>3552</v>
+      </c>
+      <c r="K1500" s="6" t="s">
         <v>3554</v>
       </c>
-      <c r="K1500" s="6" t="s">
-        <v>3556</v>
-      </c>
       <c r="L1500" s="6" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="1501" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37575,13 +37758,13 @@
         <v>11404</v>
       </c>
       <c r="B1501" s="3" t="s">
-        <v>3557</v>
+        <v>3555</v>
       </c>
       <c r="K1501" s="6" t="s">
-        <v>3548</v>
+        <v>3546</v>
       </c>
       <c r="L1501" s="6" t="s">
-        <v>3534</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="1502" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37589,13 +37772,13 @@
         <v>11405</v>
       </c>
       <c r="B1502" s="3" t="s">
-        <v>3558</v>
+        <v>3556</v>
       </c>
       <c r="K1502" s="6" t="s">
-        <v>3559</v>
+        <v>3557</v>
       </c>
       <c r="L1502" s="6" t="s">
-        <v>3535</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="1503" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37603,13 +37786,13 @@
         <v>11406</v>
       </c>
       <c r="B1503" s="3" t="s">
-        <v>3560</v>
+        <v>3558</v>
       </c>
       <c r="K1503" s="6" t="s">
-        <v>3561</v>
+        <v>3559</v>
       </c>
       <c r="L1503" s="6" t="s">
-        <v>3536</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="1504" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37617,13 +37800,13 @@
         <v>11407</v>
       </c>
       <c r="B1504" s="3" t="s">
-        <v>3563</v>
+        <v>3561</v>
       </c>
       <c r="K1504" s="6" t="s">
-        <v>3562</v>
+        <v>3560</v>
       </c>
       <c r="L1504" s="6" t="s">
-        <v>3537</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="1505" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37631,13 +37814,13 @@
         <v>11408</v>
       </c>
       <c r="B1505" s="3" t="s">
-        <v>3564</v>
+        <v>3562</v>
       </c>
       <c r="K1505" s="6" t="s">
-        <v>3565</v>
+        <v>3563</v>
       </c>
       <c r="L1505" s="6" t="s">
-        <v>3538</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="1506" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37645,13 +37828,13 @@
         <v>11409</v>
       </c>
       <c r="B1506" s="3" t="s">
-        <v>3566</v>
+        <v>3564</v>
       </c>
       <c r="K1506" s="6" t="s">
-        <v>3567</v>
+        <v>3565</v>
       </c>
       <c r="L1506" s="6" t="s">
-        <v>3539</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="1507" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37659,13 +37842,13 @@
         <v>11410</v>
       </c>
       <c r="B1507" s="3" t="s">
-        <v>3568</v>
+        <v>3566</v>
       </c>
       <c r="K1507" s="6" t="s">
-        <v>3553</v>
+        <v>3551</v>
       </c>
       <c r="L1507" s="6" t="s">
-        <v>3540</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="1508" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37673,13 +37856,13 @@
         <v>11411</v>
       </c>
       <c r="B1508" s="3" t="s">
-        <v>3569</v>
+        <v>3567</v>
       </c>
       <c r="K1508" s="6" t="s">
-        <v>3556</v>
+        <v>3554</v>
       </c>
       <c r="L1508" s="6" t="s">
-        <v>3541</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="1509" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37687,13 +37870,13 @@
         <v>11412</v>
       </c>
       <c r="B1509" s="3" t="s">
-        <v>3570</v>
+        <v>3568</v>
       </c>
       <c r="K1509" s="6" t="s">
-        <v>3571</v>
+        <v>3569</v>
       </c>
       <c r="L1509" s="6" t="s">
-        <v>3542</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="1510" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37701,13 +37884,13 @@
         <v>11413</v>
       </c>
       <c r="B1510" s="3" t="s">
-        <v>3572</v>
+        <v>3570</v>
       </c>
       <c r="K1510" s="6" t="s">
-        <v>3573</v>
+        <v>3571</v>
       </c>
       <c r="L1510" s="6" t="s">
-        <v>3543</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="1511" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37715,13 +37898,13 @@
         <v>11414</v>
       </c>
       <c r="B1511" s="3" t="s">
-        <v>3587</v>
+        <v>3585</v>
       </c>
       <c r="K1511" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1511" s="6" t="s">
-        <v>3544</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="1512" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37729,13 +37912,13 @@
         <v>11415</v>
       </c>
       <c r="B1512" s="3" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="K1512" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1512" s="6" t="s">
-        <v>3545</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="1513" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37743,13 +37926,13 @@
         <v>11416</v>
       </c>
       <c r="B1513" s="3" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
       <c r="K1513" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1513" s="6" t="s">
-        <v>3656</v>
+        <v>3654</v>
       </c>
     </row>
     <row r="1514" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37757,13 +37940,13 @@
         <v>11417</v>
       </c>
       <c r="B1514" s="3" t="s">
-        <v>3613</v>
+        <v>3611</v>
       </c>
       <c r="K1514" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1514" s="6" t="s">
-        <v>3655</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="1515" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37771,13 +37954,13 @@
         <v>11418</v>
       </c>
       <c r="B1515" s="3" t="s">
-        <v>3590</v>
+        <v>3588</v>
       </c>
       <c r="K1515" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1515" s="6" t="s">
-        <v>3546</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="1516" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37785,13 +37968,13 @@
         <v>11419</v>
       </c>
       <c r="B1516" s="3" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
       <c r="K1516" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1516" s="6" t="s">
-        <v>3547</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1517" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37799,13 +37982,13 @@
         <v>11420</v>
       </c>
       <c r="B1517" s="3" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="K1517" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1517" s="6" t="s">
-        <v>3574</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="1518" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37813,13 +37996,13 @@
         <v>11421</v>
       </c>
       <c r="B1518" s="3" t="s">
-        <v>3593</v>
+        <v>3591</v>
       </c>
       <c r="K1518" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1518" s="6" t="s">
-        <v>3575</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1519" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37827,13 +38010,13 @@
         <v>11422</v>
       </c>
       <c r="B1519" s="3" t="s">
-        <v>3594</v>
+        <v>3592</v>
       </c>
       <c r="K1519" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1519" s="6" t="s">
-        <v>3576</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="1520" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37841,16 +38024,16 @@
         <v>11423</v>
       </c>
       <c r="B1520" s="3" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
       <c r="C1520" s="4" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
       <c r="K1520" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1520" s="6" t="s">
-        <v>3577</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1521" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37858,13 +38041,13 @@
         <v>11424</v>
       </c>
       <c r="B1521" s="3" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="K1521" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1521" s="6" t="s">
-        <v>3653</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1522" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37872,13 +38055,13 @@
         <v>11425</v>
       </c>
       <c r="B1522" s="3" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
       <c r="K1522" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1522" s="6" t="s">
-        <v>3653</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1523" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37886,16 +38069,16 @@
         <v>11426</v>
       </c>
       <c r="B1523" s="3" t="s">
+        <v>3603</v>
+      </c>
+      <c r="C1523" s="4" t="s">
         <v>3605</v>
-      </c>
-      <c r="C1523" s="4" t="s">
-        <v>3607</v>
       </c>
       <c r="K1523" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1523" s="6" t="s">
-        <v>3653</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="1524" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37903,16 +38086,16 @@
         <v>11427</v>
       </c>
       <c r="B1524" s="3" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
       <c r="C1524" s="4" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
       <c r="K1524" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1524" s="6" t="s">
-        <v>3654</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="1525" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37920,13 +38103,13 @@
         <v>11428</v>
       </c>
       <c r="B1525" s="3" t="s">
-        <v>3612</v>
+        <v>3610</v>
       </c>
       <c r="K1525" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1525" s="6" t="s">
-        <v>3596</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="1526" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37934,13 +38117,13 @@
         <v>11429</v>
       </c>
       <c r="B1526" s="3" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="K1526" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1526" s="6" t="s">
-        <v>3597</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="1527" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37948,13 +38131,13 @@
         <v>11430</v>
       </c>
       <c r="B1527" s="3" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
       <c r="K1527" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1527" s="6" t="s">
-        <v>3598</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="1528" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37962,13 +38145,13 @@
         <v>11431</v>
       </c>
       <c r="B1528" s="3" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
       <c r="K1528" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1528" s="6" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="1529" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37976,13 +38159,13 @@
         <v>11432</v>
       </c>
       <c r="B1529" s="3" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
       <c r="K1529" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1529" s="6" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="1530" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -37990,13 +38173,13 @@
         <v>11433</v>
       </c>
       <c r="B1530" s="3" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
       <c r="K1530" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1530" s="6" t="s">
-        <v>3600</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="1531" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -38004,13 +38187,13 @@
         <v>11434</v>
       </c>
       <c r="B1531" s="3" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
       <c r="K1531" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1531" s="6" t="s">
-        <v>3601</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="1532" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -38018,13 +38201,13 @@
         <v>11435</v>
       </c>
       <c r="B1532" s="3" t="s">
-        <v>3619</v>
+        <v>3617</v>
       </c>
       <c r="K1532" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1532" s="6" t="s">
-        <v>3652</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="1533" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -38032,13 +38215,13 @@
         <v>11436</v>
       </c>
       <c r="B1533" s="3" t="s">
-        <v>3620</v>
+        <v>3618</v>
       </c>
       <c r="K1533" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1533" s="6" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="1534" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -38046,13 +38229,13 @@
         <v>11437</v>
       </c>
       <c r="B1534" s="3" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
       <c r="K1534" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1534" s="6" t="s">
-        <v>3603</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="1535" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -38060,13 +38243,13 @@
         <v>11438</v>
       </c>
       <c r="B1535" s="3" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="K1535" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1535" s="6" t="s">
-        <v>3651</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="1536" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -38074,176 +38257,461 @@
         <v>11439</v>
       </c>
       <c r="B1536" s="3" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="C1536" s="4" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
       <c r="K1536" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1536" s="6" t="s">
-        <v>3649</v>
-      </c>
-    </row>
-    <row r="1537" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="1537" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1537" s="3">
         <v>11440</v>
       </c>
       <c r="B1537" s="3" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
       <c r="K1537" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1537" s="6" t="s">
-        <v>3621</v>
-      </c>
-    </row>
-    <row r="1538" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="1538" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1538" s="3">
         <v>11441</v>
       </c>
       <c r="B1538" s="3" t="s">
-        <v>3637</v>
+        <v>3635</v>
       </c>
       <c r="K1538" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1538" s="6" t="s">
-        <v>3622</v>
-      </c>
-    </row>
-    <row r="1539" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="1539" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1539" s="3">
         <v>11442</v>
       </c>
       <c r="B1539" s="3" t="s">
-        <v>3638</v>
+        <v>3636</v>
       </c>
       <c r="K1539" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1539" s="6" t="s">
-        <v>3623</v>
-      </c>
-    </row>
-    <row r="1540" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="1540" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1540" s="3">
         <v>11443</v>
       </c>
       <c r="B1540" s="3" t="s">
-        <v>3639</v>
+        <v>3637</v>
       </c>
       <c r="K1540" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1540" s="6" t="s">
-        <v>3624</v>
-      </c>
-    </row>
-    <row r="1541" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="1541" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1541" s="3">
         <v>11444</v>
       </c>
       <c r="B1541" s="3" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
       <c r="K1541" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1541" s="6" t="s">
-        <v>3625</v>
-      </c>
-    </row>
-    <row r="1542" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="1542" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1542" s="3">
         <v>11445</v>
       </c>
       <c r="B1542" s="3" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="K1542" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1542" s="6" t="s">
-        <v>3650</v>
-      </c>
-    </row>
-    <row r="1543" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="1543" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1543" s="3">
         <v>11446</v>
       </c>
       <c r="B1543" s="3" t="s">
-        <v>3642</v>
+        <v>3640</v>
       </c>
       <c r="C1543" s="4" t="s">
-        <v>3643</v>
+        <v>3641</v>
       </c>
       <c r="K1543" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1543" s="6" t="s">
-        <v>3626</v>
-      </c>
-    </row>
-    <row r="1544" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="1544" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1544" s="3">
         <v>11447</v>
       </c>
       <c r="B1544" s="3" t="s">
-        <v>3644</v>
+        <v>3642</v>
       </c>
       <c r="K1544" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1544" s="6" t="s">
-        <v>3627</v>
-      </c>
-    </row>
-    <row r="1545" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="1545" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1545" s="3">
         <v>11448</v>
       </c>
       <c r="B1545" s="3" t="s">
-        <v>3645</v>
+        <v>3643</v>
       </c>
       <c r="K1545" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1545" s="6" t="s">
-        <v>3628</v>
-      </c>
-    </row>
-    <row r="1546" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="1546" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1546" s="3">
         <v>11449</v>
       </c>
       <c r="B1546" s="3" t="s">
-        <v>3646</v>
+        <v>3644</v>
       </c>
       <c r="K1546" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1546" s="6" t="s">
-        <v>3629</v>
-      </c>
-    </row>
-    <row r="1547" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="1547" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1547" s="3">
         <v>11450</v>
       </c>
       <c r="B1547" s="3" t="s">
-        <v>3647</v>
+        <v>3645</v>
       </c>
       <c r="C1547" s="4" t="s">
-        <v>3648</v>
+        <v>3646</v>
       </c>
       <c r="K1547" s="6" t="s">
         <v>2191</v>
       </c>
       <c r="L1547" s="6" t="s">
-        <v>3630</v>
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="1548" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1548" s="3">
+        <v>11451</v>
+      </c>
+      <c r="B1548" s="3" t="s">
+        <v>3665</v>
+      </c>
+      <c r="C1548" s="4" t="s">
+        <v>3667</v>
+      </c>
+      <c r="F1548" s="5">
+        <v>80</v>
+      </c>
+      <c r="K1548" s="6" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="1549" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1549" s="3">
+        <v>11452</v>
+      </c>
+      <c r="B1549" s="3" t="s">
+        <v>3668</v>
+      </c>
+      <c r="K1549" s="6" t="s">
+        <v>3670</v>
+      </c>
+      <c r="L1549" s="6" t="s">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="1550" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1550" s="3">
+        <v>11453</v>
+      </c>
+      <c r="B1550" s="3" t="s">
+        <v>3671</v>
+      </c>
+      <c r="K1550" s="6" t="s">
+        <v>3670</v>
+      </c>
+      <c r="L1550" s="6" t="s">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="1551" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1551" s="3">
+        <v>11454</v>
+      </c>
+      <c r="B1551" s="3" t="s">
+        <v>3672</v>
+      </c>
+      <c r="C1551" s="4" t="s">
+        <v>3673</v>
+      </c>
+      <c r="K1551" s="6" t="s">
+        <v>3670</v>
+      </c>
+      <c r="L1551" s="6" t="s">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="1552" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1552" s="3">
+        <v>11455</v>
+      </c>
+      <c r="B1552" s="3" t="s">
+        <v>3678</v>
+      </c>
+      <c r="C1552" s="4" t="s">
+        <v>3674</v>
+      </c>
+      <c r="K1552" s="6" t="s">
+        <v>3677</v>
+      </c>
+      <c r="L1552" s="6" t="s">
+        <v>3687</v>
+      </c>
+      <c r="M1552" s="7" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="1553" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1553" s="3">
+        <v>11456</v>
+      </c>
+      <c r="B1553" s="3" t="s">
+        <v>3676</v>
+      </c>
+      <c r="K1553" s="6" t="s">
+        <v>3669</v>
+      </c>
+      <c r="L1553" s="6" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="1554" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1554" s="3">
+        <v>11457</v>
+      </c>
+      <c r="B1554" s="3" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C1554" s="4" t="s">
+        <v>3682</v>
+      </c>
+      <c r="K1554" s="6" t="s">
+        <v>3669</v>
+      </c>
+      <c r="L1554" s="6" t="s">
+        <v>3689</v>
+      </c>
+      <c r="M1554" s="7" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="1555" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1555" s="3">
+        <v>21457</v>
+      </c>
+      <c r="B1555" s="3" t="s">
+        <v>3680</v>
+      </c>
+      <c r="C1555" s="4" t="s">
+        <v>3683</v>
+      </c>
+      <c r="J1555" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1556" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1556" s="3">
+        <v>11458</v>
+      </c>
+      <c r="B1556" s="3" t="s">
+        <v>3690</v>
+      </c>
+      <c r="K1556" s="6" t="s">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="1557" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1557" s="3">
+        <v>11459</v>
+      </c>
+      <c r="B1557" s="3" t="s">
+        <v>3691</v>
+      </c>
+      <c r="K1557" s="6" t="s">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="1558" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1558" s="3">
+        <v>11460</v>
+      </c>
+      <c r="B1558" s="3" t="s">
+        <v>3693</v>
+      </c>
+      <c r="K1558" s="6" t="s">
+        <v>3684</v>
+      </c>
+      <c r="L1558" s="6" t="s">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="1559" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1559" s="3">
+        <v>11461</v>
+      </c>
+      <c r="B1559" s="3" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K1559" s="6" t="s">
+        <v>3684</v>
+      </c>
+      <c r="L1559" s="6" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="1560" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1560" s="3">
+        <v>11462</v>
+      </c>
+      <c r="B1560" s="3" t="s">
+        <v>3692</v>
+      </c>
+      <c r="K1560" s="6" t="s">
+        <v>3684</v>
+      </c>
+      <c r="L1560" s="6" t="s">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="1561" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1561" s="3">
+        <v>11463</v>
+      </c>
+      <c r="B1561" s="3" t="s">
+        <v>3696</v>
+      </c>
+      <c r="K1561" s="6" t="s">
+        <v>3684</v>
+      </c>
+      <c r="L1561" s="6" t="s">
+        <v>3702</v>
+      </c>
+    </row>
+    <row r="1562" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1562" s="3">
+        <v>11464</v>
+      </c>
+      <c r="B1562" s="3" t="s">
+        <v>3695</v>
+      </c>
+      <c r="K1562" s="6" t="s">
+        <v>3684</v>
+      </c>
+      <c r="L1562" s="6" t="s">
+        <v>3703</v>
+      </c>
+    </row>
+    <row r="1563" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1563" s="3">
+        <v>11465</v>
+      </c>
+      <c r="B1563" s="3" t="s">
+        <v>3697</v>
+      </c>
+      <c r="C1563" s="4" t="s">
+        <v>3698</v>
+      </c>
+      <c r="F1563" s="5">
+        <v>88</v>
+      </c>
+      <c r="K1563" s="6" t="s">
+        <v>3684</v>
+      </c>
+      <c r="L1563" s="6" t="s">
+        <v>3704</v>
+      </c>
+      <c r="M1563" s="7" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="1564" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1564" s="3">
+        <v>11466</v>
+      </c>
+      <c r="B1564" s="3" t="s">
+        <v>3709</v>
+      </c>
+      <c r="C1564" s="4" t="s">
+        <v>3707</v>
+      </c>
+      <c r="K1564" s="6" t="s">
+        <v>3685</v>
+      </c>
+      <c r="L1564" s="6" t="s">
+        <v>3705</v>
+      </c>
+      <c r="M1564" s="7" t="s">
+        <v>3708</v>
+      </c>
+    </row>
+    <row r="1565" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1565" s="3">
+        <v>11467</v>
+      </c>
+      <c r="B1565" s="3" t="s">
+        <v>3712</v>
+      </c>
+      <c r="C1565" s="4" t="s">
+        <v>3711</v>
+      </c>
+      <c r="K1565" s="6" t="s">
+        <v>3685</v>
+      </c>
+      <c r="L1565" s="6" t="s">
+        <v>3706</v>
+      </c>
+      <c r="M1565" s="7" t="s">
+        <v>3710</v>
       </c>
     </row>
   </sheetData>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BC833D-6CEB-48B0-A6C0-8BB184CE73A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A371A8-A438-4C2E-8373-A63882730C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4746" uniqueCount="3711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4747" uniqueCount="3712">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -13990,6 +13990,10 @@
   </si>
   <si>
     <t>EVT?[11234]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&lt;100:10000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14590,10 +14594,10 @@
   <dimension ref="A1:N1564"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F1303" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="J1349" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L1315" sqref="L1315"/>
+      <selection pane="bottomRight" activeCell="M1361" sqref="M1361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35612,6 +35616,9 @@
       <c r="L1359" s="6" t="s">
         <v>3176</v>
       </c>
+      <c r="M1359" s="7" t="s">
+        <v>3711</v>
+      </c>
     </row>
     <row r="1360" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1360" s="3">

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -1,33 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\25009\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/KhaosGao/Desktop/Workspace/lifeRestart/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D93E544-9517-49DA-8A6D-9BD7D88904F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D87BBE-F4C0-F04B-845D-541F9C7B2E2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{88228A28-3683-481C-9077-803A8A3AB19B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14180" xr2:uid="{88228A28-3683-481C-9077-803A8A3AB19B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -12901,10 +12892,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>你无微不至地照顾照顾妻子。</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>EVT?[10002,11294,11295,11369]</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -13758,6 +13745,10 @@
   </si>
   <si>
     <t>STR&lt;2000:10000</t>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>你无微不至地照顾妻子。</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
 </sst>
@@ -13765,11 +13756,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -13844,6 +13835,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="20">
@@ -14385,24 +14383,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67815079-F8B8-45AD-AFCF-E20C572A7CE9}">
   <dimension ref="A1:N1564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A418" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="L437" sqref="L437"/>
+    <sheetView tabSelected="1" topLeftCell="A1446" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B1466" sqref="B1466"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.42578125" defaultRowHeight="22.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.5" defaultRowHeight="23"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="88.5703125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="54.140625" style="16" customWidth="1"/>
-    <col min="4" max="5" width="15.85546875" style="17" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="17.42578125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="17" customWidth="1"/>
-    <col min="9" max="10" width="16.85546875" style="17" customWidth="1"/>
-    <col min="11" max="12" width="75.7109375" style="18" customWidth="1"/>
-    <col min="13" max="13" width="59.7109375" style="19" customWidth="1"/>
-    <col min="14" max="14" width="53.140625" style="20" customWidth="1"/>
-    <col min="15" max="16384" width="25.42578125" style="15"/>
+    <col min="1" max="1" width="17.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="88.5" style="15" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" style="16" customWidth="1"/>
+    <col min="4" max="5" width="15.83203125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="17" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" style="17" customWidth="1"/>
+    <col min="9" max="10" width="16.83203125" style="17" customWidth="1"/>
+    <col min="11" max="12" width="75.6640625" style="18" customWidth="1"/>
+    <col min="13" max="13" width="59.6640625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="53.1640625" style="20" customWidth="1"/>
+    <col min="15" max="16384" width="25.5" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="8" customFormat="1" ht="30" customHeight="1">
@@ -14449,7 +14447,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="56.45" customHeight="1">
+    <row r="2" spans="1:14" ht="56.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
@@ -19652,7 +19650,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="28.9" customHeight="1">
+    <row r="314" spans="1:13" ht="29" customHeight="1">
       <c r="A314" s="15">
         <v>10290</v>
       </c>
@@ -22017,7 +22015,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="447" spans="1:14" ht="28.9" customHeight="1">
+    <row r="447" spans="1:14" ht="29" customHeight="1">
       <c r="A447" s="15">
         <v>20415</v>
       </c>
@@ -22188,7 +22186,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="459" spans="1:13" ht="28.9" customHeight="1">
+    <row r="459" spans="1:13" ht="29" customHeight="1">
       <c r="A459" s="15">
         <v>20422</v>
       </c>
@@ -22370,7 +22368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:13" ht="28.9" customHeight="1">
+    <row r="472" spans="1:13" ht="29" customHeight="1">
       <c r="A472" s="15">
         <v>10431</v>
       </c>
@@ -22387,7 +22385,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="473" spans="1:13" ht="28.9" customHeight="1">
+    <row r="473" spans="1:13" ht="29" customHeight="1">
       <c r="A473" s="15">
         <v>20432</v>
       </c>
@@ -37028,13 +37026,13 @@
         <v>11369</v>
       </c>
       <c r="B1465" s="15" t="s">
-        <v>3421</v>
+        <v>3650</v>
       </c>
       <c r="K1465" s="18" t="s">
         <v>3388</v>
       </c>
       <c r="L1465" s="18" t="s">
-        <v>3422</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="1466" spans="1:12" ht="30" customHeight="1">
@@ -37042,13 +37040,13 @@
         <v>11370</v>
       </c>
       <c r="B1466" s="15" t="s">
-        <v>3423</v>
+        <v>3422</v>
       </c>
       <c r="K1466" s="18" t="s">
         <v>3388</v>
       </c>
       <c r="L1466" s="18" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="1467" spans="1:12" ht="30" customHeight="1">
@@ -37056,13 +37054,13 @@
         <v>11371</v>
       </c>
       <c r="B1467" s="15" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
       <c r="K1467" s="18" t="s">
         <v>3388</v>
       </c>
       <c r="L1467" s="18" t="s">
-        <v>3426</v>
+        <v>3425</v>
       </c>
     </row>
     <row r="1468" spans="1:12" ht="30" customHeight="1">
@@ -37070,16 +37068,16 @@
         <v>11372</v>
       </c>
       <c r="B1468" s="15" t="s">
-        <v>3427</v>
+        <v>3426</v>
       </c>
       <c r="G1468" s="17">
         <v>1</v>
       </c>
       <c r="K1468" s="18" t="s">
+        <v>3427</v>
+      </c>
+      <c r="L1468" s="18" t="s">
         <v>3428</v>
-      </c>
-      <c r="L1468" s="18" t="s">
-        <v>3429</v>
       </c>
     </row>
     <row r="1469" spans="1:12" ht="30" customHeight="1">
@@ -37087,13 +37085,13 @@
         <v>11373</v>
       </c>
       <c r="B1469" s="15" t="s">
-        <v>3430</v>
+        <v>3429</v>
       </c>
       <c r="K1469" s="18" t="s">
         <v>3388</v>
       </c>
       <c r="L1469" s="18" t="s">
-        <v>3431</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="1470" spans="1:12" ht="30" customHeight="1">
@@ -37101,13 +37099,13 @@
         <v>11374</v>
       </c>
       <c r="B1470" s="15" t="s">
-        <v>3432</v>
+        <v>3431</v>
       </c>
       <c r="K1470" s="18" t="s">
         <v>3248</v>
       </c>
       <c r="L1470" s="18" t="s">
-        <v>3433</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="1471" spans="1:12" ht="30" customHeight="1">
@@ -37115,13 +37113,13 @@
         <v>11375</v>
       </c>
       <c r="B1471" s="15" t="s">
+        <v>3433</v>
+      </c>
+      <c r="K1471" s="18" t="s">
         <v>3434</v>
       </c>
-      <c r="K1471" s="18" t="s">
+      <c r="L1471" s="18" t="s">
         <v>3435</v>
-      </c>
-      <c r="L1471" s="18" t="s">
-        <v>3436</v>
       </c>
     </row>
     <row r="1472" spans="1:12" ht="30" customHeight="1">
@@ -37129,13 +37127,13 @@
         <v>11376</v>
       </c>
       <c r="B1472" s="15" t="s">
-        <v>3437</v>
+        <v>3436</v>
       </c>
       <c r="K1472" s="18" t="s">
         <v>3388</v>
       </c>
       <c r="L1472" s="18" t="s">
-        <v>3438</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="1473" spans="1:12" ht="30" customHeight="1">
@@ -37143,13 +37141,13 @@
         <v>11377</v>
       </c>
       <c r="B1473" s="15" t="s">
-        <v>3439</v>
+        <v>3438</v>
       </c>
       <c r="K1473" s="18" t="s">
         <v>3108</v>
       </c>
       <c r="L1473" s="18" t="s">
-        <v>3440</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="1474" spans="1:12" ht="30" customHeight="1">
@@ -37157,13 +37155,13 @@
         <v>11378</v>
       </c>
       <c r="B1474" s="15" t="s">
+        <v>3440</v>
+      </c>
+      <c r="K1474" s="18" t="s">
         <v>3441</v>
       </c>
-      <c r="K1474" s="18" t="s">
+      <c r="L1474" s="18" t="s">
         <v>3442</v>
-      </c>
-      <c r="L1474" s="18" t="s">
-        <v>3443</v>
       </c>
     </row>
     <row r="1475" spans="1:12" ht="30" customHeight="1">
@@ -37171,13 +37169,13 @@
         <v>11379</v>
       </c>
       <c r="B1475" s="15" t="s">
+        <v>3443</v>
+      </c>
+      <c r="K1475" s="18" t="s">
         <v>3444</v>
       </c>
-      <c r="K1475" s="18" t="s">
+      <c r="L1475" s="18" t="s">
         <v>3445</v>
-      </c>
-      <c r="L1475" s="18" t="s">
-        <v>3446</v>
       </c>
     </row>
     <row r="1476" spans="1:12" ht="30" customHeight="1">
@@ -37185,13 +37183,13 @@
         <v>11380</v>
       </c>
       <c r="B1476" s="15" t="s">
+        <v>3446</v>
+      </c>
+      <c r="K1476" s="18" t="s">
         <v>3447</v>
       </c>
-      <c r="K1476" s="18" t="s">
+      <c r="L1476" s="18" t="s">
         <v>3448</v>
-      </c>
-      <c r="L1476" s="18" t="s">
-        <v>3449</v>
       </c>
     </row>
     <row r="1477" spans="1:12" ht="30" customHeight="1">
@@ -37199,13 +37197,13 @@
         <v>11381</v>
       </c>
       <c r="B1477" s="15" t="s">
+        <v>3449</v>
+      </c>
+      <c r="K1477" s="18" t="s">
         <v>3450</v>
       </c>
-      <c r="K1477" s="18" t="s">
+      <c r="L1477" s="18" t="s">
         <v>3451</v>
-      </c>
-      <c r="L1477" s="18" t="s">
-        <v>3452</v>
       </c>
     </row>
     <row r="1478" spans="1:12" ht="30" customHeight="1">
@@ -37213,13 +37211,13 @@
         <v>11382</v>
       </c>
       <c r="B1478" s="15" t="s">
-        <v>3453</v>
+        <v>3452</v>
       </c>
       <c r="K1478" s="18" t="s">
         <v>3108</v>
       </c>
       <c r="L1478" s="18" t="s">
-        <v>3454</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="1479" spans="1:12" ht="30" customHeight="1">
@@ -37227,7 +37225,7 @@
         <v>11383</v>
       </c>
       <c r="B1479" s="15" t="s">
-        <v>3455</v>
+        <v>3454</v>
       </c>
       <c r="G1479" s="17">
         <v>-1</v>
@@ -37236,7 +37234,7 @@
         <v>3108</v>
       </c>
       <c r="L1479" s="18" t="s">
-        <v>3456</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="1480" spans="1:12" ht="30" customHeight="1">
@@ -37244,13 +37242,13 @@
         <v>11384</v>
       </c>
       <c r="B1480" s="15" t="s">
-        <v>3457</v>
+        <v>3456</v>
       </c>
       <c r="K1480" s="18" t="s">
         <v>3108</v>
       </c>
       <c r="L1480" s="18" t="s">
-        <v>3458</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="1481" spans="1:12" ht="30" customHeight="1">
@@ -37258,7 +37256,7 @@
         <v>11385</v>
       </c>
       <c r="B1481" s="15" t="s">
-        <v>3459</v>
+        <v>3458</v>
       </c>
       <c r="H1481" s="17">
         <v>1</v>
@@ -37267,7 +37265,7 @@
         <v>3119</v>
       </c>
       <c r="L1481" s="18" t="s">
-        <v>3460</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="1482" spans="1:12" ht="30" customHeight="1">
@@ -37275,13 +37273,13 @@
         <v>11386</v>
       </c>
       <c r="B1482" s="15" t="s">
-        <v>3461</v>
+        <v>3460</v>
       </c>
       <c r="K1482" s="18" t="s">
         <v>3119</v>
       </c>
       <c r="L1482" s="18" t="s">
-        <v>3462</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="1483" spans="1:12" ht="30" customHeight="1">
@@ -37289,13 +37287,13 @@
         <v>11387</v>
       </c>
       <c r="B1483" s="15" t="s">
-        <v>3463</v>
+        <v>3462</v>
       </c>
       <c r="K1483" s="18" t="s">
         <v>3119</v>
       </c>
       <c r="L1483" s="18" t="s">
-        <v>3464</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="1484" spans="1:12" ht="30" customHeight="1">
@@ -37303,13 +37301,13 @@
         <v>11388</v>
       </c>
       <c r="B1484" s="15" t="s">
-        <v>3465</v>
+        <v>3464</v>
       </c>
       <c r="K1484" s="18" t="s">
         <v>3119</v>
       </c>
       <c r="L1484" s="18" t="s">
-        <v>3466</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="1485" spans="1:12" ht="30" customHeight="1">
@@ -37317,13 +37315,13 @@
         <v>11389</v>
       </c>
       <c r="B1485" s="15" t="s">
-        <v>3467</v>
+        <v>3466</v>
       </c>
       <c r="K1485" s="18" t="s">
         <v>3119</v>
       </c>
       <c r="L1485" s="18" t="s">
-        <v>3468</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="1486" spans="1:12" ht="30" customHeight="1">
@@ -37331,13 +37329,13 @@
         <v>11390</v>
       </c>
       <c r="B1486" s="15" t="s">
-        <v>3469</v>
+        <v>3468</v>
       </c>
       <c r="K1486" s="18" t="s">
         <v>3119</v>
       </c>
       <c r="L1486" s="18" t="s">
-        <v>3470</v>
+        <v>3469</v>
       </c>
     </row>
     <row r="1487" spans="1:12" ht="30" customHeight="1">
@@ -37345,13 +37343,13 @@
         <v>11391</v>
       </c>
       <c r="B1487" s="15" t="s">
-        <v>3471</v>
+        <v>3470</v>
       </c>
       <c r="K1487" s="18" t="s">
         <v>3119</v>
       </c>
       <c r="L1487" s="18" t="s">
-        <v>3472</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="1488" spans="1:12" ht="30" customHeight="1">
@@ -37359,7 +37357,7 @@
         <v>11392</v>
       </c>
       <c r="B1488" s="15" t="s">
-        <v>3473</v>
+        <v>3472</v>
       </c>
       <c r="H1488" s="17">
         <v>-1</v>
@@ -37368,7 +37366,7 @@
         <v>3119</v>
       </c>
       <c r="L1488" s="18" t="s">
-        <v>3474</v>
+        <v>3473</v>
       </c>
     </row>
     <row r="1489" spans="1:12" ht="30" customHeight="1">
@@ -37376,13 +37374,13 @@
         <v>11393</v>
       </c>
       <c r="B1489" s="15" t="s">
-        <v>3475</v>
+        <v>3474</v>
       </c>
       <c r="K1489" s="18" t="s">
         <v>3119</v>
       </c>
       <c r="L1489" s="18" t="s">
-        <v>3476</v>
+        <v>3475</v>
       </c>
     </row>
     <row r="1490" spans="1:12" ht="30" customHeight="1">
@@ -37390,13 +37388,13 @@
         <v>11394</v>
       </c>
       <c r="B1490" s="15" t="s">
-        <v>3477</v>
+        <v>3476</v>
       </c>
       <c r="K1490" s="18" t="s">
         <v>3119</v>
       </c>
       <c r="L1490" s="18" t="s">
-        <v>3478</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="1491" spans="1:12" ht="30" customHeight="1">
@@ -37404,13 +37402,13 @@
         <v>11395</v>
       </c>
       <c r="B1491" s="15" t="s">
-        <v>3479</v>
+        <v>3478</v>
       </c>
       <c r="K1491" s="18" t="s">
         <v>3119</v>
       </c>
       <c r="L1491" s="18" t="s">
-        <v>3480</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="1492" spans="1:12" ht="30" customHeight="1">
@@ -37418,13 +37416,13 @@
         <v>11396</v>
       </c>
       <c r="B1492" s="15" t="s">
-        <v>3481</v>
+        <v>3480</v>
       </c>
       <c r="K1492" s="18" t="s">
         <v>3119</v>
       </c>
       <c r="L1492" s="18" t="s">
-        <v>3482</v>
+        <v>3481</v>
       </c>
     </row>
     <row r="1493" spans="1:12" ht="30" customHeight="1">
@@ -37432,13 +37430,13 @@
         <v>11397</v>
       </c>
       <c r="B1493" s="15" t="s">
+        <v>3482</v>
+      </c>
+      <c r="K1493" s="18" t="s">
         <v>3483</v>
       </c>
-      <c r="K1493" s="18" t="s">
+      <c r="L1493" s="18" t="s">
         <v>3484</v>
-      </c>
-      <c r="L1493" s="18" t="s">
-        <v>3485</v>
       </c>
     </row>
     <row r="1494" spans="1:12" ht="30" customHeight="1">
@@ -37446,13 +37444,13 @@
         <v>11398</v>
       </c>
       <c r="B1494" s="15" t="s">
+        <v>3485</v>
+      </c>
+      <c r="K1494" s="18" t="s">
+        <v>3444</v>
+      </c>
+      <c r="L1494" s="18" t="s">
         <v>3486</v>
-      </c>
-      <c r="K1494" s="18" t="s">
-        <v>3445</v>
-      </c>
-      <c r="L1494" s="18" t="s">
-        <v>3487</v>
       </c>
     </row>
     <row r="1495" spans="1:12" ht="30" customHeight="1">
@@ -37460,13 +37458,13 @@
         <v>11399</v>
       </c>
       <c r="B1495" s="15" t="s">
+        <v>3487</v>
+      </c>
+      <c r="K1495" s="18" t="s">
+        <v>3441</v>
+      </c>
+      <c r="L1495" s="18" t="s">
         <v>3488</v>
-      </c>
-      <c r="K1495" s="18" t="s">
-        <v>3442</v>
-      </c>
-      <c r="L1495" s="18" t="s">
-        <v>3489</v>
       </c>
     </row>
     <row r="1496" spans="1:12" ht="30" customHeight="1">
@@ -37474,13 +37472,13 @@
         <v>11400</v>
       </c>
       <c r="B1496" s="15" t="s">
+        <v>3489</v>
+      </c>
+      <c r="K1496" s="18" t="s">
         <v>3490</v>
       </c>
-      <c r="K1496" s="18" t="s">
+      <c r="L1496" s="18" t="s">
         <v>3491</v>
-      </c>
-      <c r="L1496" s="18" t="s">
-        <v>3492</v>
       </c>
     </row>
     <row r="1497" spans="1:12" ht="30" customHeight="1">
@@ -37488,16 +37486,16 @@
         <v>11401</v>
       </c>
       <c r="B1497" s="15" t="s">
-        <v>3493</v>
+        <v>3492</v>
       </c>
       <c r="G1497" s="17">
         <v>1</v>
       </c>
       <c r="K1497" s="18" t="s">
-        <v>3491</v>
+        <v>3490</v>
       </c>
       <c r="L1497" s="18" t="s">
-        <v>3494</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="1498" spans="1:12" ht="30" customHeight="1">
@@ -37505,13 +37503,13 @@
         <v>11402</v>
       </c>
       <c r="B1498" s="15" t="s">
-        <v>3495</v>
+        <v>3494</v>
       </c>
       <c r="K1498" s="18" t="s">
         <v>2169</v>
       </c>
       <c r="L1498" s="18" t="s">
-        <v>3496</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="1499" spans="1:12" ht="30" customHeight="1">
@@ -37519,13 +37517,13 @@
         <v>11403</v>
       </c>
       <c r="B1499" s="15" t="s">
+        <v>3496</v>
+      </c>
+      <c r="K1499" s="18" t="s">
         <v>3497</v>
       </c>
-      <c r="K1499" s="18" t="s">
+      <c r="L1499" s="18" t="s">
         <v>3498</v>
-      </c>
-      <c r="L1499" s="18" t="s">
-        <v>3499</v>
       </c>
     </row>
     <row r="1500" spans="1:12" ht="30" customHeight="1">
@@ -37533,13 +37531,13 @@
         <v>11404</v>
       </c>
       <c r="B1500" s="15" t="s">
+        <v>3499</v>
+      </c>
+      <c r="K1500" s="18" t="s">
         <v>3500</v>
       </c>
-      <c r="K1500" s="18" t="s">
+      <c r="L1500" s="18" t="s">
         <v>3501</v>
-      </c>
-      <c r="L1500" s="18" t="s">
-        <v>3502</v>
       </c>
     </row>
     <row r="1501" spans="1:12" ht="30" customHeight="1">
@@ -37547,13 +37545,13 @@
         <v>11405</v>
       </c>
       <c r="B1501" s="15" t="s">
+        <v>3502</v>
+      </c>
+      <c r="K1501" s="18" t="s">
         <v>3503</v>
       </c>
-      <c r="K1501" s="18" t="s">
+      <c r="L1501" s="18" t="s">
         <v>3504</v>
-      </c>
-      <c r="L1501" s="18" t="s">
-        <v>3505</v>
       </c>
     </row>
     <row r="1502" spans="1:12" ht="30" customHeight="1">
@@ -37561,13 +37559,13 @@
         <v>11406</v>
       </c>
       <c r="B1502" s="15" t="s">
-        <v>3506</v>
+        <v>3505</v>
       </c>
       <c r="K1502" s="18" t="s">
         <v>3308</v>
       </c>
       <c r="L1502" s="18" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="1503" spans="1:12" ht="30" customHeight="1">
@@ -37575,13 +37573,13 @@
         <v>11407</v>
       </c>
       <c r="B1503" s="15" t="s">
+        <v>3507</v>
+      </c>
+      <c r="K1503" s="18" t="s">
         <v>3508</v>
       </c>
-      <c r="K1503" s="18" t="s">
+      <c r="L1503" s="18" t="s">
         <v>3509</v>
-      </c>
-      <c r="L1503" s="18" t="s">
-        <v>3510</v>
       </c>
     </row>
     <row r="1504" spans="1:12" ht="30" customHeight="1">
@@ -37589,13 +37587,13 @@
         <v>11408</v>
       </c>
       <c r="B1504" s="15" t="s">
+        <v>3510</v>
+      </c>
+      <c r="K1504" s="18" t="s">
         <v>3511</v>
       </c>
-      <c r="K1504" s="18" t="s">
+      <c r="L1504" s="18" t="s">
         <v>3512</v>
-      </c>
-      <c r="L1504" s="18" t="s">
-        <v>3513</v>
       </c>
     </row>
     <row r="1505" spans="1:12" ht="30" customHeight="1">
@@ -37603,13 +37601,13 @@
         <v>11409</v>
       </c>
       <c r="B1505" s="15" t="s">
+        <v>3513</v>
+      </c>
+      <c r="K1505" s="18" t="s">
         <v>3514</v>
       </c>
-      <c r="K1505" s="18" t="s">
+      <c r="L1505" s="18" t="s">
         <v>3515</v>
-      </c>
-      <c r="L1505" s="18" t="s">
-        <v>3516</v>
       </c>
     </row>
     <row r="1506" spans="1:12" ht="30" customHeight="1">
@@ -37617,13 +37615,13 @@
         <v>11410</v>
       </c>
       <c r="B1506" s="15" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
       <c r="K1506" s="18" t="s">
         <v>2169</v>
       </c>
       <c r="L1506" s="18" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="1507" spans="1:12" ht="30" customHeight="1">
@@ -37631,13 +37629,13 @@
         <v>11411</v>
       </c>
       <c r="B1507" s="15" t="s">
+        <v>3518</v>
+      </c>
+      <c r="K1507" s="18" t="s">
+        <v>3497</v>
+      </c>
+      <c r="L1507" s="18" t="s">
         <v>3519</v>
-      </c>
-      <c r="K1507" s="18" t="s">
-        <v>3498</v>
-      </c>
-      <c r="L1507" s="18" t="s">
-        <v>3520</v>
       </c>
     </row>
     <row r="1508" spans="1:12" ht="30" customHeight="1">
@@ -37645,13 +37643,13 @@
         <v>11412</v>
       </c>
       <c r="B1508" s="15" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
       <c r="K1508" s="18" t="s">
         <v>2341</v>
       </c>
       <c r="L1508" s="18" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="1509" spans="1:12" ht="30" customHeight="1">
@@ -37659,13 +37657,13 @@
         <v>11413</v>
       </c>
       <c r="B1509" s="15" t="s">
+        <v>3522</v>
+      </c>
+      <c r="K1509" s="18" t="s">
         <v>3523</v>
       </c>
-      <c r="K1509" s="18" t="s">
+      <c r="L1509" s="18" t="s">
         <v>3524</v>
-      </c>
-      <c r="L1509" s="18" t="s">
-        <v>3525</v>
       </c>
     </row>
     <row r="1510" spans="1:12" ht="30" customHeight="1">
@@ -37673,13 +37671,13 @@
         <v>11414</v>
       </c>
       <c r="B1510" s="15" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
       <c r="K1510" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1510" s="18" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="1511" spans="1:12" ht="30" customHeight="1">
@@ -37687,13 +37685,13 @@
         <v>11415</v>
       </c>
       <c r="B1511" s="15" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
       <c r="K1511" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1511" s="18" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="1512" spans="1:12" ht="30" customHeight="1">
@@ -37701,13 +37699,13 @@
         <v>11416</v>
       </c>
       <c r="B1512" s="15" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
       <c r="K1512" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1512" s="18" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="1513" spans="1:12" ht="30" customHeight="1">
@@ -37715,13 +37713,13 @@
         <v>11417</v>
       </c>
       <c r="B1513" s="15" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
       <c r="K1513" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1513" s="18" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="1514" spans="1:12" ht="30" customHeight="1">
@@ -37729,13 +37727,13 @@
         <v>11418</v>
       </c>
       <c r="B1514" s="15" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
       <c r="K1514" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1514" s="18" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="1515" spans="1:12" ht="30" customHeight="1">
@@ -37743,13 +37741,13 @@
         <v>11419</v>
       </c>
       <c r="B1515" s="15" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
       <c r="K1515" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1515" s="18" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="1516" spans="1:12" ht="30" customHeight="1">
@@ -37757,13 +37755,13 @@
         <v>11420</v>
       </c>
       <c r="B1516" s="15" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="K1516" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1516" s="18" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="1517" spans="1:12" ht="30" customHeight="1">
@@ -37771,13 +37769,13 @@
         <v>11421</v>
       </c>
       <c r="B1517" s="15" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
       <c r="K1517" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1517" s="18" t="s">
-        <v>3541</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="1518" spans="1:12" ht="30" customHeight="1">
@@ -37785,13 +37783,13 @@
         <v>11422</v>
       </c>
       <c r="B1518" s="15" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
       <c r="K1518" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1518" s="18" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="1519" spans="1:12" ht="30" customHeight="1">
@@ -37799,16 +37797,16 @@
         <v>11423</v>
       </c>
       <c r="B1519" s="15" t="s">
+        <v>3543</v>
+      </c>
+      <c r="C1519" s="16" t="s">
         <v>3544</v>
-      </c>
-      <c r="C1519" s="16" t="s">
-        <v>3545</v>
       </c>
       <c r="K1519" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1519" s="18" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="1520" spans="1:12" ht="30" customHeight="1">
@@ -37816,13 +37814,13 @@
         <v>11424</v>
       </c>
       <c r="B1520" s="15" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
       <c r="K1520" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1520" s="18" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="1521" spans="1:12" ht="30" customHeight="1">
@@ -37830,13 +37828,13 @@
         <v>11425</v>
       </c>
       <c r="B1521" s="15" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
       <c r="K1521" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1521" s="18" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="1522" spans="1:12" ht="30" customHeight="1">
@@ -37844,16 +37842,16 @@
         <v>11426</v>
       </c>
       <c r="B1522" s="15" t="s">
+        <v>3549</v>
+      </c>
+      <c r="C1522" s="16" t="s">
         <v>3550</v>
-      </c>
-      <c r="C1522" s="16" t="s">
-        <v>3551</v>
       </c>
       <c r="K1522" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1522" s="18" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="1523" spans="1:12" ht="30" customHeight="1">
@@ -37861,16 +37859,16 @@
         <v>11427</v>
       </c>
       <c r="B1523" s="15" t="s">
+        <v>3551</v>
+      </c>
+      <c r="C1523" s="16" t="s">
         <v>3552</v>
-      </c>
-      <c r="C1523" s="16" t="s">
-        <v>3553</v>
       </c>
       <c r="K1523" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1523" s="18" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="1524" spans="1:12" ht="30" customHeight="1">
@@ -37878,13 +37876,13 @@
         <v>11428</v>
       </c>
       <c r="B1524" s="15" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
       <c r="K1524" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1524" s="18" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="1525" spans="1:12" ht="30" customHeight="1">
@@ -37892,13 +37890,13 @@
         <v>11429</v>
       </c>
       <c r="B1525" s="15" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
       <c r="K1525" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1525" s="18" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="1526" spans="1:12" ht="30" customHeight="1">
@@ -37906,13 +37904,13 @@
         <v>11430</v>
       </c>
       <c r="B1526" s="15" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
       <c r="K1526" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1526" s="18" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="1527" spans="1:12" ht="30" customHeight="1">
@@ -37920,13 +37918,13 @@
         <v>11431</v>
       </c>
       <c r="B1527" s="15" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
       <c r="K1527" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1527" s="18" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="1528" spans="1:12" ht="30" customHeight="1">
@@ -37934,13 +37932,13 @@
         <v>11432</v>
       </c>
       <c r="B1528" s="15" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
       <c r="K1528" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1528" s="18" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="1529" spans="1:12" ht="30" customHeight="1">
@@ -37948,13 +37946,13 @@
         <v>11433</v>
       </c>
       <c r="B1529" s="15" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
       <c r="K1529" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1529" s="18" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="1530" spans="1:12" ht="30" customHeight="1">
@@ -37962,13 +37960,13 @@
         <v>11434</v>
       </c>
       <c r="B1530" s="15" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
       <c r="K1530" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1530" s="18" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="1531" spans="1:12" ht="30" customHeight="1">
@@ -37976,13 +37974,13 @@
         <v>11435</v>
       </c>
       <c r="B1531" s="15" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
       <c r="K1531" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1531" s="18" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="1532" spans="1:12" ht="30" customHeight="1">
@@ -37990,13 +37988,13 @@
         <v>11436</v>
       </c>
       <c r="B1532" s="15" t="s">
-        <v>3571</v>
+        <v>3570</v>
       </c>
       <c r="K1532" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1532" s="18" t="s">
-        <v>3572</v>
+        <v>3571</v>
       </c>
     </row>
     <row r="1533" spans="1:12" ht="30" customHeight="1">
@@ -38004,13 +38002,13 @@
         <v>11437</v>
       </c>
       <c r="B1533" s="15" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
       <c r="K1533" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1533" s="18" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="1534" spans="1:12" ht="30" customHeight="1">
@@ -38018,13 +38016,13 @@
         <v>11438</v>
       </c>
       <c r="B1534" s="15" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
       <c r="K1534" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1534" s="18" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="1535" spans="1:12" ht="30" customHeight="1">
@@ -38032,16 +38030,16 @@
         <v>11439</v>
       </c>
       <c r="B1535" s="15" t="s">
+        <v>3576</v>
+      </c>
+      <c r="C1535" s="16" t="s">
         <v>3577</v>
-      </c>
-      <c r="C1535" s="16" t="s">
-        <v>3578</v>
       </c>
       <c r="K1535" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1535" s="18" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="1536" spans="1:12" ht="30" customHeight="1">
@@ -38049,13 +38047,13 @@
         <v>11440</v>
       </c>
       <c r="B1536" s="15" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
       <c r="K1536" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1536" s="18" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
     </row>
     <row r="1537" spans="1:13" ht="30" customHeight="1">
@@ -38063,13 +38061,13 @@
         <v>11441</v>
       </c>
       <c r="B1537" s="15" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="K1537" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1537" s="18" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="1538" spans="1:13" ht="30" customHeight="1">
@@ -38077,13 +38075,13 @@
         <v>11442</v>
       </c>
       <c r="B1538" s="15" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
       <c r="K1538" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1538" s="18" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="1539" spans="1:13" ht="30" customHeight="1">
@@ -38091,13 +38089,13 @@
         <v>11443</v>
       </c>
       <c r="B1539" s="15" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
       <c r="K1539" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1539" s="18" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="1540" spans="1:13" ht="30" customHeight="1">
@@ -38105,13 +38103,13 @@
         <v>11444</v>
       </c>
       <c r="B1540" s="15" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="K1540" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1540" s="18" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="1541" spans="1:13" ht="30" customHeight="1">
@@ -38119,13 +38117,13 @@
         <v>11445</v>
       </c>
       <c r="B1541" s="15" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
       <c r="K1541" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1541" s="18" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="1542" spans="1:13" ht="30" customHeight="1">
@@ -38133,16 +38131,16 @@
         <v>11446</v>
       </c>
       <c r="B1542" s="15" t="s">
+        <v>3591</v>
+      </c>
+      <c r="C1542" s="16" t="s">
         <v>3592</v>
-      </c>
-      <c r="C1542" s="16" t="s">
-        <v>3593</v>
       </c>
       <c r="K1542" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1542" s="18" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="1543" spans="1:13" ht="30" customHeight="1">
@@ -38150,13 +38148,13 @@
         <v>11447</v>
       </c>
       <c r="B1543" s="15" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
       <c r="K1543" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1543" s="18" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="1544" spans="1:13" ht="30" customHeight="1">
@@ -38164,13 +38162,13 @@
         <v>11448</v>
       </c>
       <c r="B1544" s="15" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
       <c r="K1544" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1544" s="18" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="1545" spans="1:13" ht="30" customHeight="1">
@@ -38178,13 +38176,13 @@
         <v>11449</v>
       </c>
       <c r="B1545" s="15" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
       <c r="K1545" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1545" s="18" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="1546" spans="1:13" ht="30" customHeight="1">
@@ -38192,16 +38190,16 @@
         <v>11450</v>
       </c>
       <c r="B1546" s="15" t="s">
+        <v>3600</v>
+      </c>
+      <c r="C1546" s="16" t="s">
         <v>3601</v>
-      </c>
-      <c r="C1546" s="16" t="s">
-        <v>3602</v>
       </c>
       <c r="K1546" s="18" t="s">
         <v>2175</v>
       </c>
       <c r="L1546" s="18" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="1547" spans="1:13" ht="30" customHeight="1">
@@ -38209,16 +38207,16 @@
         <v>11451</v>
       </c>
       <c r="B1547" s="15" t="s">
+        <v>3603</v>
+      </c>
+      <c r="C1547" s="16" t="s">
         <v>3604</v>
-      </c>
-      <c r="C1547" s="16" t="s">
-        <v>3605</v>
       </c>
       <c r="F1547" s="17">
         <v>80</v>
       </c>
       <c r="K1547" s="18" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1548" spans="1:13" ht="30" customHeight="1">
@@ -38226,13 +38224,13 @@
         <v>11452</v>
       </c>
       <c r="B1548" s="15" t="s">
+        <v>3606</v>
+      </c>
+      <c r="K1548" s="18" t="s">
         <v>3607</v>
       </c>
-      <c r="K1548" s="18" t="s">
+      <c r="L1548" s="18" t="s">
         <v>3608</v>
-      </c>
-      <c r="L1548" s="18" t="s">
-        <v>3609</v>
       </c>
     </row>
     <row r="1549" spans="1:13" ht="30" customHeight="1">
@@ -38240,13 +38238,13 @@
         <v>11453</v>
       </c>
       <c r="B1549" s="15" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
       <c r="K1549" s="18" t="s">
+        <v>3607</v>
+      </c>
+      <c r="L1549" s="18" t="s">
         <v>3608</v>
-      </c>
-      <c r="L1549" s="18" t="s">
-        <v>3609</v>
       </c>
     </row>
     <row r="1550" spans="1:13" ht="30" customHeight="1">
@@ -38254,16 +38252,16 @@
         <v>11454</v>
       </c>
       <c r="B1550" s="15" t="s">
+        <v>3610</v>
+      </c>
+      <c r="C1550" s="16" t="s">
         <v>3611</v>
       </c>
-      <c r="C1550" s="16" t="s">
+      <c r="K1550" s="18" t="s">
+        <v>3607</v>
+      </c>
+      <c r="L1550" s="18" t="s">
         <v>3612</v>
-      </c>
-      <c r="K1550" s="18" t="s">
-        <v>3608</v>
-      </c>
-      <c r="L1550" s="18" t="s">
-        <v>3613</v>
       </c>
     </row>
     <row r="1551" spans="1:13" ht="30" customHeight="1">
@@ -38271,19 +38269,19 @@
         <v>11455</v>
       </c>
       <c r="B1551" s="15" t="s">
+        <v>3613</v>
+      </c>
+      <c r="C1551" s="16" t="s">
         <v>3614</v>
       </c>
-      <c r="C1551" s="16" t="s">
+      <c r="K1551" s="18" t="s">
         <v>3615</v>
       </c>
-      <c r="K1551" s="18" t="s">
+      <c r="L1551" s="18" t="s">
         <v>3616</v>
       </c>
-      <c r="L1551" s="18" t="s">
+      <c r="M1551" s="19" t="s">
         <v>3617</v>
-      </c>
-      <c r="M1551" s="19" t="s">
-        <v>3618</v>
       </c>
     </row>
     <row r="1552" spans="1:13" ht="30" customHeight="1">
@@ -38291,13 +38289,13 @@
         <v>11456</v>
       </c>
       <c r="B1552" s="15" t="s">
+        <v>3618</v>
+      </c>
+      <c r="K1552" s="18" t="s">
         <v>3619</v>
       </c>
-      <c r="K1552" s="18" t="s">
+      <c r="L1552" s="18" t="s">
         <v>3620</v>
-      </c>
-      <c r="L1552" s="18" t="s">
-        <v>3621</v>
       </c>
     </row>
     <row r="1553" spans="1:13" ht="30" customHeight="1">
@@ -38305,19 +38303,19 @@
         <v>11457</v>
       </c>
       <c r="B1553" s="15" t="s">
+        <v>3621</v>
+      </c>
+      <c r="C1553" s="16" t="s">
         <v>3622</v>
       </c>
-      <c r="C1553" s="16" t="s">
+      <c r="K1553" s="18" t="s">
+        <v>3619</v>
+      </c>
+      <c r="L1553" s="18" t="s">
         <v>3623</v>
       </c>
-      <c r="K1553" s="18" t="s">
-        <v>3620</v>
-      </c>
-      <c r="L1553" s="18" t="s">
+      <c r="M1553" s="19" t="s">
         <v>3624</v>
-      </c>
-      <c r="M1553" s="19" t="s">
-        <v>3625</v>
       </c>
     </row>
     <row r="1554" spans="1:13" ht="30" customHeight="1">
@@ -38325,10 +38323,10 @@
         <v>21457</v>
       </c>
       <c r="B1554" s="15" t="s">
+        <v>3625</v>
+      </c>
+      <c r="C1554" s="16" t="s">
         <v>3626</v>
-      </c>
-      <c r="C1554" s="16" t="s">
-        <v>3627</v>
       </c>
       <c r="J1554" s="17">
         <v>1</v>
@@ -38339,10 +38337,10 @@
         <v>11458</v>
       </c>
       <c r="B1555" s="15" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="K1555" s="18" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="1556" spans="1:13" ht="30" customHeight="1">
@@ -38350,10 +38348,10 @@
         <v>11459</v>
       </c>
       <c r="B1556" s="15" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="K1556" s="18" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="1557" spans="1:13" ht="30" customHeight="1">
@@ -38361,13 +38359,13 @@
         <v>11460</v>
       </c>
       <c r="B1557" s="15" t="s">
+        <v>3629</v>
+      </c>
+      <c r="K1557" s="18" t="s">
         <v>3630</v>
       </c>
-      <c r="K1557" s="18" t="s">
+      <c r="L1557" s="18" t="s">
         <v>3631</v>
-      </c>
-      <c r="L1557" s="18" t="s">
-        <v>3632</v>
       </c>
     </row>
     <row r="1558" spans="1:13" ht="30" customHeight="1">
@@ -38375,13 +38373,13 @@
         <v>11461</v>
       </c>
       <c r="B1558" s="15" t="s">
+        <v>3632</v>
+      </c>
+      <c r="K1558" s="18" t="s">
+        <v>3630</v>
+      </c>
+      <c r="L1558" s="18" t="s">
         <v>3633</v>
-      </c>
-      <c r="K1558" s="18" t="s">
-        <v>3631</v>
-      </c>
-      <c r="L1558" s="18" t="s">
-        <v>3634</v>
       </c>
     </row>
     <row r="1559" spans="1:13" ht="30" customHeight="1">
@@ -38389,13 +38387,13 @@
         <v>11462</v>
       </c>
       <c r="B1559" s="15" t="s">
+        <v>3634</v>
+      </c>
+      <c r="K1559" s="18" t="s">
+        <v>3630</v>
+      </c>
+      <c r="L1559" s="18" t="s">
         <v>3635</v>
-      </c>
-      <c r="K1559" s="18" t="s">
-        <v>3631</v>
-      </c>
-      <c r="L1559" s="18" t="s">
-        <v>3636</v>
       </c>
     </row>
     <row r="1560" spans="1:13" ht="30" customHeight="1">
@@ -38403,13 +38401,13 @@
         <v>11463</v>
       </c>
       <c r="B1560" s="15" t="s">
+        <v>3636</v>
+      </c>
+      <c r="K1560" s="18" t="s">
+        <v>3630</v>
+      </c>
+      <c r="L1560" s="18" t="s">
         <v>3637</v>
-      </c>
-      <c r="K1560" s="18" t="s">
-        <v>3631</v>
-      </c>
-      <c r="L1560" s="18" t="s">
-        <v>3638</v>
       </c>
     </row>
     <row r="1561" spans="1:13" ht="30" customHeight="1">
@@ -38417,13 +38415,13 @@
         <v>11464</v>
       </c>
       <c r="B1561" s="15" t="s">
+        <v>3638</v>
+      </c>
+      <c r="K1561" s="18" t="s">
+        <v>3630</v>
+      </c>
+      <c r="L1561" s="18" t="s">
         <v>3639</v>
-      </c>
-      <c r="K1561" s="18" t="s">
-        <v>3631</v>
-      </c>
-      <c r="L1561" s="18" t="s">
-        <v>3640</v>
       </c>
     </row>
     <row r="1562" spans="1:13" ht="30" customHeight="1">
@@ -38431,22 +38429,22 @@
         <v>11465</v>
       </c>
       <c r="B1562" s="15" t="s">
+        <v>3640</v>
+      </c>
+      <c r="C1562" s="16" t="s">
         <v>3641</v>
-      </c>
-      <c r="C1562" s="16" t="s">
-        <v>3642</v>
       </c>
       <c r="F1562" s="17">
         <v>88</v>
       </c>
       <c r="K1562" s="18" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="L1562" s="18" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="M1562" s="19" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="1563" spans="1:13" ht="30" customHeight="1">
@@ -38454,16 +38452,16 @@
         <v>11466</v>
       </c>
       <c r="B1563" s="15" t="s">
+        <v>3643</v>
+      </c>
+      <c r="C1563" s="16" t="s">
         <v>3644</v>
       </c>
-      <c r="C1563" s="16" t="s">
+      <c r="K1563" s="18" t="s">
+        <v>3608</v>
+      </c>
+      <c r="L1563" s="18" t="s">
         <v>3645</v>
-      </c>
-      <c r="K1563" s="18" t="s">
-        <v>3609</v>
-      </c>
-      <c r="L1563" s="18" t="s">
-        <v>3646</v>
       </c>
       <c r="M1563" s="19" t="s">
         <v>3199</v>
@@ -38474,22 +38472,23 @@
         <v>11467</v>
       </c>
       <c r="B1564" s="15" t="s">
+        <v>3646</v>
+      </c>
+      <c r="C1564" s="16" t="s">
         <v>3647</v>
       </c>
-      <c r="C1564" s="16" t="s">
+      <c r="K1564" s="18" t="s">
+        <v>3608</v>
+      </c>
+      <c r="L1564" s="18" t="s">
         <v>3648</v>
       </c>
-      <c r="K1564" s="18" t="s">
-        <v>3609</v>
-      </c>
-      <c r="L1564" s="18" t="s">
+      <c r="M1564" s="19" t="s">
         <v>3649</v>
       </c>
-      <c r="M1564" s="19" t="s">
-        <v>3650</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A9E631E-98BB-454F-A667-515FD0599146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8305C94A-7DE9-4B9D-AA87-4265CA060DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4850" uniqueCount="3642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4851" uniqueCount="3644">
   <si>
     <t>$id</t>
   </si>
@@ -11162,6 +11162,14 @@
   </si>
   <si>
     <t>(EVT?[10534])|(TLT?[1072])</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[20335]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[20338]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -11761,10 +11769,10 @@
   <dimension ref="A1:P1600"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="M611" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I356" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M621" sqref="M621"/>
+      <selection pane="bottomRight" activeCell="L364" sqref="L364"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -21979,9 +21987,11 @@
       <c r="J366" s="17"/>
       <c r="K366" s="17"/>
       <c r="L366" s="18" t="s">
-        <v>3482</v>
-      </c>
-      <c r="M366" s="18"/>
+        <v>3642</v>
+      </c>
+      <c r="M366" s="18" t="s">
+        <v>3643</v>
+      </c>
       <c r="N366" s="19"/>
       <c r="O366" s="19"/>
       <c r="P366" s="20"/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A914DC-B08B-4768-B799-5C9400441A4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89B37A8-4773-4B24-A599-F75E56DD8508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4866" uniqueCount="3656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4872" uniqueCount="3662">
   <si>
     <t>$id</t>
   </si>
@@ -11207,6 +11207,21 @@
     <t>EVT?[11476]</t>
   </si>
   <si>
+    <t>EVT?[11477]</t>
+  </si>
+  <si>
+    <t>EVT?[11478]</t>
+  </si>
+  <si>
+    <t>EVT?[11479]</t>
+  </si>
+  <si>
+    <t>EVT?[11480]</t>
+  </si>
+  <si>
+    <t>EVT?[11481]</t>
+  </si>
+  <si>
     <t>据一位资深游戏制作者透露：某游戏的第六代作品正在紧密制作当中，他们已经建好了文件夹，确定消息可靠。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -11220,6 +11235,10 @@
   </si>
   <si>
     <t>EVT?[10448,11297]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TLT?[1108]:10000</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -11816,13 +11835,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1667"/>
+  <dimension ref="A1:P1677"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C1594" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C713" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L1614" sqref="L1614"/>
+      <selection pane="bottomRight" activeCell="B743" sqref="B743"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -26440,7 +26459,7 @@
         <v>874</v>
       </c>
       <c r="M523" s="18" t="s">
-        <v>3655</v>
+        <v>3660</v>
       </c>
       <c r="N523" s="19" t="s">
         <v>1234</v>
@@ -28962,7 +28981,9 @@
       </c>
       <c r="L618" s="18"/>
       <c r="M618" s="18"/>
-      <c r="N618" s="19"/>
+      <c r="N618" s="19" t="s">
+        <v>3661</v>
+      </c>
       <c r="O618" s="19"/>
       <c r="P618" s="20"/>
     </row>
@@ -50198,7 +50219,7 @@
         <v>3012</v>
       </c>
       <c r="M1420" s="18" t="s">
-        <v>3654</v>
+        <v>3659</v>
       </c>
       <c r="N1420" s="19"/>
       <c r="O1420" s="19"/>
@@ -54977,7 +54998,7 @@
         <v>11473</v>
       </c>
       <c r="B1600" s="15" t="s">
-        <v>3652</v>
+        <v>3657</v>
       </c>
       <c r="C1600" s="16"/>
       <c r="D1600" s="17"/>
@@ -55003,7 +55024,7 @@
         <v>11474</v>
       </c>
       <c r="B1601" s="15" t="s">
-        <v>3653</v>
+        <v>3658</v>
       </c>
       <c r="C1601" s="16"/>
       <c r="D1601" s="17"/>
@@ -55079,7 +55100,9 @@
       <c r="J1604" s="17"/>
       <c r="K1604" s="17"/>
       <c r="L1604" s="18"/>
-      <c r="M1604" s="18"/>
+      <c r="M1604" s="18" t="s">
+        <v>3652</v>
+      </c>
       <c r="N1604" s="19"/>
       <c r="O1604" s="19"/>
       <c r="P1604" s="20"/>
@@ -55097,7 +55120,9 @@
       <c r="J1605" s="17"/>
       <c r="K1605" s="17"/>
       <c r="L1605" s="18"/>
-      <c r="M1605" s="18"/>
+      <c r="M1605" s="18" t="s">
+        <v>3653</v>
+      </c>
       <c r="N1605" s="19"/>
       <c r="O1605" s="19"/>
       <c r="P1605" s="20"/>
@@ -55115,7 +55140,9 @@
       <c r="J1606" s="17"/>
       <c r="K1606" s="17"/>
       <c r="L1606" s="18"/>
-      <c r="M1606" s="18"/>
+      <c r="M1606" s="18" t="s">
+        <v>3654</v>
+      </c>
       <c r="N1606" s="19"/>
       <c r="O1606" s="19"/>
       <c r="P1606" s="20"/>
@@ -55133,7 +55160,9 @@
       <c r="J1607" s="17"/>
       <c r="K1607" s="17"/>
       <c r="L1607" s="18"/>
-      <c r="M1607" s="18"/>
+      <c r="M1607" s="18" t="s">
+        <v>3655</v>
+      </c>
       <c r="N1607" s="19"/>
       <c r="O1607" s="19"/>
       <c r="P1607" s="20"/>
@@ -55151,7 +55180,9 @@
       <c r="J1608" s="17"/>
       <c r="K1608" s="17"/>
       <c r="L1608" s="18"/>
-      <c r="M1608" s="18"/>
+      <c r="M1608" s="18" t="s">
+        <v>3656</v>
+      </c>
       <c r="N1608" s="19"/>
       <c r="O1608" s="19"/>
       <c r="P1608" s="20"/>
@@ -56218,6 +56249,186 @@
       <c r="O1667" s="19"/>
       <c r="P1667" s="20"/>
     </row>
+    <row r="1668" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1668" s="15"/>
+      <c r="B1668" s="15"/>
+      <c r="C1668" s="16"/>
+      <c r="D1668" s="17"/>
+      <c r="E1668" s="17"/>
+      <c r="F1668" s="17"/>
+      <c r="G1668" s="17"/>
+      <c r="H1668" s="17"/>
+      <c r="I1668" s="17"/>
+      <c r="J1668" s="17"/>
+      <c r="K1668" s="17"/>
+      <c r="L1668" s="18"/>
+      <c r="M1668" s="18"/>
+      <c r="N1668" s="19"/>
+      <c r="O1668" s="19"/>
+      <c r="P1668" s="20"/>
+    </row>
+    <row r="1669" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1669" s="15"/>
+      <c r="B1669" s="15"/>
+      <c r="C1669" s="16"/>
+      <c r="D1669" s="17"/>
+      <c r="E1669" s="17"/>
+      <c r="F1669" s="17"/>
+      <c r="G1669" s="17"/>
+      <c r="H1669" s="17"/>
+      <c r="I1669" s="17"/>
+      <c r="J1669" s="17"/>
+      <c r="K1669" s="17"/>
+      <c r="L1669" s="18"/>
+      <c r="M1669" s="18"/>
+      <c r="N1669" s="19"/>
+      <c r="O1669" s="19"/>
+      <c r="P1669" s="20"/>
+    </row>
+    <row r="1670" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1670" s="15"/>
+      <c r="B1670" s="15"/>
+      <c r="C1670" s="16"/>
+      <c r="D1670" s="17"/>
+      <c r="E1670" s="17"/>
+      <c r="F1670" s="17"/>
+      <c r="G1670" s="17"/>
+      <c r="H1670" s="17"/>
+      <c r="I1670" s="17"/>
+      <c r="J1670" s="17"/>
+      <c r="K1670" s="17"/>
+      <c r="L1670" s="18"/>
+      <c r="M1670" s="18"/>
+      <c r="N1670" s="19"/>
+      <c r="O1670" s="19"/>
+      <c r="P1670" s="20"/>
+    </row>
+    <row r="1671" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1671" s="15"/>
+      <c r="B1671" s="15"/>
+      <c r="C1671" s="16"/>
+      <c r="D1671" s="17"/>
+      <c r="E1671" s="17"/>
+      <c r="F1671" s="17"/>
+      <c r="G1671" s="17"/>
+      <c r="H1671" s="17"/>
+      <c r="I1671" s="17"/>
+      <c r="J1671" s="17"/>
+      <c r="K1671" s="17"/>
+      <c r="L1671" s="18"/>
+      <c r="M1671" s="18"/>
+      <c r="N1671" s="19"/>
+      <c r="O1671" s="19"/>
+      <c r="P1671" s="20"/>
+    </row>
+    <row r="1672" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1672" s="15"/>
+      <c r="B1672" s="15"/>
+      <c r="C1672" s="16"/>
+      <c r="D1672" s="17"/>
+      <c r="E1672" s="17"/>
+      <c r="F1672" s="17"/>
+      <c r="G1672" s="17"/>
+      <c r="H1672" s="17"/>
+      <c r="I1672" s="17"/>
+      <c r="J1672" s="17"/>
+      <c r="K1672" s="17"/>
+      <c r="L1672" s="18"/>
+      <c r="M1672" s="18"/>
+      <c r="N1672" s="19"/>
+      <c r="O1672" s="19"/>
+      <c r="P1672" s="20"/>
+    </row>
+    <row r="1673" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1673" s="15"/>
+      <c r="B1673" s="15"/>
+      <c r="C1673" s="16"/>
+      <c r="D1673" s="17"/>
+      <c r="E1673" s="17"/>
+      <c r="F1673" s="17"/>
+      <c r="G1673" s="17"/>
+      <c r="H1673" s="17"/>
+      <c r="I1673" s="17"/>
+      <c r="J1673" s="17"/>
+      <c r="K1673" s="17"/>
+      <c r="L1673" s="18"/>
+      <c r="M1673" s="18"/>
+      <c r="N1673" s="19"/>
+      <c r="O1673" s="19"/>
+      <c r="P1673" s="20"/>
+    </row>
+    <row r="1674" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1674" s="15"/>
+      <c r="B1674" s="15"/>
+      <c r="C1674" s="16"/>
+      <c r="D1674" s="17"/>
+      <c r="E1674" s="17"/>
+      <c r="F1674" s="17"/>
+      <c r="G1674" s="17"/>
+      <c r="H1674" s="17"/>
+      <c r="I1674" s="17"/>
+      <c r="J1674" s="17"/>
+      <c r="K1674" s="17"/>
+      <c r="L1674" s="18"/>
+      <c r="M1674" s="18"/>
+      <c r="N1674" s="19"/>
+      <c r="O1674" s="19"/>
+      <c r="P1674" s="20"/>
+    </row>
+    <row r="1675" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1675" s="15"/>
+      <c r="B1675" s="15"/>
+      <c r="C1675" s="16"/>
+      <c r="D1675" s="17"/>
+      <c r="E1675" s="17"/>
+      <c r="F1675" s="17"/>
+      <c r="G1675" s="17"/>
+      <c r="H1675" s="17"/>
+      <c r="I1675" s="17"/>
+      <c r="J1675" s="17"/>
+      <c r="K1675" s="17"/>
+      <c r="L1675" s="18"/>
+      <c r="M1675" s="18"/>
+      <c r="N1675" s="19"/>
+      <c r="O1675" s="19"/>
+      <c r="P1675" s="20"/>
+    </row>
+    <row r="1676" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1676" s="15"/>
+      <c r="B1676" s="15"/>
+      <c r="C1676" s="16"/>
+      <c r="D1676" s="17"/>
+      <c r="E1676" s="17"/>
+      <c r="F1676" s="17"/>
+      <c r="G1676" s="17"/>
+      <c r="H1676" s="17"/>
+      <c r="I1676" s="17"/>
+      <c r="J1676" s="17"/>
+      <c r="K1676" s="17"/>
+      <c r="L1676" s="18"/>
+      <c r="M1676" s="18"/>
+      <c r="N1676" s="19"/>
+      <c r="O1676" s="19"/>
+      <c r="P1676" s="20"/>
+    </row>
+    <row r="1677" spans="1:16" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1677" s="15"/>
+      <c r="B1677" s="15"/>
+      <c r="C1677" s="16"/>
+      <c r="D1677" s="17"/>
+      <c r="E1677" s="17"/>
+      <c r="F1677" s="17"/>
+      <c r="G1677" s="17"/>
+      <c r="H1677" s="17"/>
+      <c r="I1677" s="17"/>
+      <c r="J1677" s="17"/>
+      <c r="K1677" s="17"/>
+      <c r="L1677" s="18"/>
+      <c r="M1677" s="18"/>
+      <c r="N1677" s="19"/>
+      <c r="O1677" s="19"/>
+      <c r="P1677" s="20"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2DA0BC-6A85-4FD7-84D6-E301DA9EF487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFBC348-F7AC-4DE1-9F07-6C1177A97DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11498,10 +11498,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>INT&gt;9:20461</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>(TLT?[1048])|(EVT?[10294])</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -11879,6 +11875,10 @@
   </si>
   <si>
     <t>EVT?[20367]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT&gt;10:20461</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -12478,10 +12478,10 @@
   <dimension ref="A1:P1731"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C426" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="E556" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B454" sqref="B454"/>
+      <selection pane="bottomRight" activeCell="I563" sqref="I563"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -21359,7 +21359,7 @@
         <v>819</v>
       </c>
       <c r="M318" s="18" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="N318" s="19" t="s">
         <v>628</v>
@@ -22838,7 +22838,7 @@
       <c r="L371" s="18"/>
       <c r="M371" s="18"/>
       <c r="N371" s="19" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="O371" s="19"/>
       <c r="P371" s="20"/>
@@ -22848,7 +22848,7 @@
         <v>20349</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="C372" s="16"/>
       <c r="D372" s="17"/>
@@ -23396,10 +23396,10 @@
         <v>40001</v>
       </c>
       <c r="B391" s="15" t="s">
+        <v>3729</v>
+      </c>
+      <c r="C391" s="16" t="s">
         <v>3730</v>
-      </c>
-      <c r="C391" s="16" t="s">
-        <v>3731</v>
       </c>
       <c r="D391" s="17">
         <v>5</v>
@@ -23418,10 +23418,10 @@
       <c r="J391" s="17"/>
       <c r="K391" s="17"/>
       <c r="L391" s="18" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="M391" s="18" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="N391" s="19"/>
       <c r="O391" s="19"/>
@@ -23432,7 +23432,7 @@
         <v>40002</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="C392" s="16"/>
       <c r="D392" s="17"/>
@@ -23446,10 +23446,10 @@
       <c r="J392" s="17"/>
       <c r="K392" s="17"/>
       <c r="L392" s="18" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="M392" s="18" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="N392" s="19"/>
       <c r="O392" s="19"/>
@@ -23460,7 +23460,7 @@
         <v>40003</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>3739</v>
+        <v>3738</v>
       </c>
       <c r="C393" s="16"/>
       <c r="D393" s="17"/>
@@ -23474,10 +23474,10 @@
       <c r="J393" s="17"/>
       <c r="K393" s="17"/>
       <c r="L393" s="18" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="M393" s="18" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="N393" s="19"/>
       <c r="O393" s="19"/>
@@ -23488,7 +23488,7 @@
         <v>40004</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="C394" s="16"/>
       <c r="D394" s="17"/>
@@ -23502,10 +23502,10 @@
       <c r="J394" s="17"/>
       <c r="K394" s="17"/>
       <c r="L394" s="18" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="M394" s="18" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="N394" s="19"/>
       <c r="O394" s="19"/>
@@ -23516,7 +23516,7 @@
         <v>40005</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="C395" s="16"/>
       <c r="D395" s="17"/>
@@ -23530,10 +23530,10 @@
       <c r="J395" s="17"/>
       <c r="K395" s="17"/>
       <c r="L395" s="18" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="M395" s="18" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="N395" s="19"/>
       <c r="O395" s="19"/>
@@ -23544,7 +23544,7 @@
         <v>40006</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="C396" s="16"/>
       <c r="D396" s="17"/>
@@ -23558,10 +23558,10 @@
       <c r="J396" s="17"/>
       <c r="K396" s="17"/>
       <c r="L396" s="18" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="M396" s="18" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="N396" s="19"/>
       <c r="O396" s="19"/>
@@ -23572,7 +23572,7 @@
         <v>40007</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="C397" s="16"/>
       <c r="D397" s="17">
@@ -23586,10 +23586,10 @@
       <c r="J397" s="17"/>
       <c r="K397" s="17"/>
       <c r="L397" s="18" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="M397" s="18" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="N397" s="19"/>
       <c r="O397" s="19"/>
@@ -23600,7 +23600,7 @@
         <v>40008</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="C398" s="16"/>
       <c r="D398" s="17"/>
@@ -23616,10 +23616,10 @@
       <c r="J398" s="17"/>
       <c r="K398" s="17"/>
       <c r="L398" s="18" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="M398" s="18" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="N398" s="19"/>
       <c r="O398" s="19"/>
@@ -23630,7 +23630,7 @@
         <v>40009</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="C399" s="16"/>
       <c r="D399" s="17"/>
@@ -23646,10 +23646,10 @@
       <c r="J399" s="17"/>
       <c r="K399" s="17"/>
       <c r="L399" s="18" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="M399" s="18" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="N399" s="19"/>
       <c r="O399" s="19"/>
@@ -23660,10 +23660,10 @@
         <v>40010</v>
       </c>
       <c r="B400" s="15" t="s">
+        <v>3751</v>
+      </c>
+      <c r="C400" s="16" t="s">
         <v>3752</v>
-      </c>
-      <c r="C400" s="16" t="s">
-        <v>3753</v>
       </c>
       <c r="D400" s="17"/>
       <c r="E400" s="17"/>
@@ -23676,10 +23676,10 @@
       <c r="J400" s="17"/>
       <c r="K400" s="17"/>
       <c r="L400" s="18" t="s">
+        <v>3753</v>
+      </c>
+      <c r="M400" s="18" t="s">
         <v>3754</v>
-      </c>
-      <c r="M400" s="18" t="s">
-        <v>3755</v>
       </c>
       <c r="N400" s="19"/>
       <c r="O400" s="19"/>
@@ -23690,7 +23690,7 @@
         <v>40011</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="C401" s="16"/>
       <c r="D401" s="17"/>
@@ -23704,10 +23704,10 @@
       <c r="J401" s="17"/>
       <c r="K401" s="17"/>
       <c r="L401" s="18" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="M401" s="18" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="N401" s="19"/>
       <c r="O401" s="19"/>
@@ -23718,7 +23718,7 @@
         <v>40012</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="C402" s="16"/>
       <c r="D402" s="17"/>
@@ -23732,10 +23732,10 @@
       <c r="J402" s="17"/>
       <c r="K402" s="17"/>
       <c r="L402" s="18" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="M402" s="18" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="N402" s="19"/>
       <c r="O402" s="19"/>
@@ -23746,7 +23746,7 @@
         <v>40013</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="C403" s="16"/>
       <c r="D403" s="17"/>
@@ -23760,10 +23760,10 @@
       <c r="J403" s="17"/>
       <c r="K403" s="17"/>
       <c r="L403" s="18" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="M403" s="18" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="N403" s="19"/>
       <c r="O403" s="19"/>
@@ -23774,7 +23774,7 @@
         <v>40014</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="C404" s="16"/>
       <c r="D404" s="17"/>
@@ -23788,10 +23788,10 @@
       <c r="J404" s="17"/>
       <c r="K404" s="17"/>
       <c r="L404" s="18" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="M404" s="18" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="N404" s="19"/>
       <c r="O404" s="19"/>
@@ -23802,10 +23802,10 @@
         <v>40015</v>
       </c>
       <c r="B405" s="15" t="s">
+        <v>3765</v>
+      </c>
+      <c r="C405" s="16" t="s">
         <v>3766</v>
-      </c>
-      <c r="C405" s="16" t="s">
-        <v>3767</v>
       </c>
       <c r="D405" s="17"/>
       <c r="E405" s="17">
@@ -23820,10 +23820,10 @@
       <c r="J405" s="17"/>
       <c r="K405" s="17"/>
       <c r="L405" s="18" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="M405" s="18" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="N405" s="19"/>
       <c r="O405" s="19"/>
@@ -23834,7 +23834,7 @@
         <v>40016</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="C406" s="16"/>
       <c r="D406" s="17"/>
@@ -23846,10 +23846,10 @@
       <c r="J406" s="17"/>
       <c r="K406" s="17"/>
       <c r="L406" s="18" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="M406" s="18" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="N406" s="19"/>
       <c r="O406" s="19"/>
@@ -23860,7 +23860,7 @@
         <v>40017</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="C407" s="16"/>
       <c r="D407" s="17"/>
@@ -23876,10 +23876,10 @@
       <c r="J407" s="17"/>
       <c r="K407" s="17"/>
       <c r="L407" s="18" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="M407" s="18" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="N407" s="19"/>
       <c r="O407" s="19"/>
@@ -23890,7 +23890,7 @@
         <v>40018</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="C408" s="16"/>
       <c r="D408" s="17"/>
@@ -23906,10 +23906,10 @@
       <c r="J408" s="17"/>
       <c r="K408" s="17"/>
       <c r="L408" s="18" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="M408" s="18" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="N408" s="19"/>
       <c r="O408" s="19"/>
@@ -23920,7 +23920,7 @@
         <v>40019</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="C409" s="16"/>
       <c r="D409" s="17"/>
@@ -23936,10 +23936,10 @@
       <c r="J409" s="17"/>
       <c r="K409" s="17"/>
       <c r="L409" s="18" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="M409" s="18" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="N409" s="19"/>
       <c r="O409" s="19"/>
@@ -23950,7 +23950,7 @@
         <v>40020</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="C410" s="16"/>
       <c r="D410" s="17"/>
@@ -23966,10 +23966,10 @@
       <c r="J410" s="17"/>
       <c r="K410" s="17"/>
       <c r="L410" s="18" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="M410" s="18" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="N410" s="19"/>
       <c r="O410" s="19"/>
@@ -23980,7 +23980,7 @@
         <v>40021</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="C411" s="16"/>
       <c r="D411" s="17"/>
@@ -23996,10 +23996,10 @@
       <c r="J411" s="17"/>
       <c r="K411" s="17"/>
       <c r="L411" s="18" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="M411" s="18" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="N411" s="19"/>
       <c r="O411" s="19"/>
@@ -24010,7 +24010,7 @@
         <v>40022</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="C412" s="16"/>
       <c r="D412" s="17"/>
@@ -24024,10 +24024,10 @@
       <c r="J412" s="17"/>
       <c r="K412" s="17"/>
       <c r="L412" s="18" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="M412" s="18" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="N412" s="19"/>
       <c r="O412" s="19"/>
@@ -24038,10 +24038,10 @@
         <v>40023</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="C413" s="16" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="D413" s="17"/>
       <c r="E413" s="17">
@@ -24056,10 +24056,10 @@
       <c r="J413" s="17"/>
       <c r="K413" s="17"/>
       <c r="L413" s="18" t="s">
+        <v>3784</v>
+      </c>
+      <c r="M413" s="18" t="s">
         <v>3785</v>
-      </c>
-      <c r="M413" s="18" t="s">
-        <v>3786</v>
       </c>
       <c r="N413" s="19"/>
       <c r="O413" s="19"/>
@@ -24070,7 +24070,7 @@
         <v>40024</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="C414" s="16"/>
       <c r="D414" s="17"/>
@@ -24086,7 +24086,7 @@
       <c r="J414" s="17"/>
       <c r="K414" s="17"/>
       <c r="L414" s="18" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="M414" s="18"/>
       <c r="N414" s="19"/>
@@ -24098,7 +24098,7 @@
         <v>40025</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="C415" s="16"/>
       <c r="D415" s="17"/>
@@ -24112,7 +24112,7 @@
       <c r="J415" s="17"/>
       <c r="K415" s="17"/>
       <c r="L415" s="18" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="M415" s="18"/>
       <c r="N415" s="19"/>
@@ -24124,10 +24124,10 @@
         <v>40026</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="C416" s="16" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="D416" s="17"/>
       <c r="E416" s="17">
@@ -24142,10 +24142,10 @@
       <c r="J416" s="17"/>
       <c r="K416" s="17"/>
       <c r="L416" s="18" t="s">
-        <v>3795</v>
+        <v>3794</v>
       </c>
       <c r="M416" s="18" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="N416" s="19"/>
       <c r="O416" s="19"/>
@@ -24156,10 +24156,10 @@
         <v>40027</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="C417" s="16" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="D417" s="17"/>
       <c r="E417" s="17">
@@ -24174,10 +24174,10 @@
       <c r="J417" s="17"/>
       <c r="K417" s="17"/>
       <c r="L417" s="18" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="M417" s="18" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="N417" s="19"/>
       <c r="O417" s="19"/>
@@ -24188,10 +24188,10 @@
         <v>40028</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="C418" s="16" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="D418" s="17"/>
       <c r="E418" s="17">
@@ -24206,10 +24206,10 @@
       <c r="J418" s="17"/>
       <c r="K418" s="17"/>
       <c r="L418" s="18" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="M418" s="18" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="N418" s="19"/>
       <c r="O418" s="19"/>
@@ -24220,7 +24220,7 @@
         <v>40029</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="C419" s="16"/>
       <c r="D419" s="17"/>
@@ -24236,7 +24236,7 @@
       <c r="J419" s="17"/>
       <c r="K419" s="17"/>
       <c r="L419" s="18" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="M419" s="18"/>
       <c r="N419" s="19"/>
@@ -24248,7 +24248,7 @@
         <v>40030</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="C420" s="16"/>
       <c r="D420" s="17"/>
@@ -24264,7 +24264,7 @@
       <c r="J420" s="17"/>
       <c r="K420" s="17"/>
       <c r="L420" s="18" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="M420" s="18"/>
       <c r="N420" s="19"/>
@@ -24276,7 +24276,7 @@
         <v>40031</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="C421" s="16"/>
       <c r="D421" s="17"/>
@@ -24292,7 +24292,7 @@
       <c r="J421" s="17"/>
       <c r="K421" s="17"/>
       <c r="L421" s="18" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="M421" s="18"/>
       <c r="N421" s="19"/>
@@ -24304,7 +24304,7 @@
         <v>40032</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="C422" s="16"/>
       <c r="D422" s="17"/>
@@ -24318,10 +24318,10 @@
       <c r="J422" s="17"/>
       <c r="K422" s="17"/>
       <c r="L422" s="18" t="s">
-        <v>3796</v>
+        <v>3795</v>
       </c>
       <c r="M422" s="18" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="N422" s="19"/>
       <c r="O422" s="19"/>
@@ -24332,7 +24332,7 @@
         <v>40033</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="C423" s="16"/>
       <c r="D423" s="17"/>
@@ -24344,13 +24344,13 @@
       <c r="J423" s="17"/>
       <c r="K423" s="17"/>
       <c r="L423" s="18" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="M423" s="18" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="N423" s="19" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="O423" s="19"/>
       <c r="P423" s="20"/>
@@ -24376,10 +24376,10 @@
       <c r="J424" s="17"/>
       <c r="K424" s="17"/>
       <c r="L424" s="18" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="M424" s="18" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="N424" s="19"/>
       <c r="O424" s="19"/>
@@ -24406,10 +24406,10 @@
       <c r="J425" s="17"/>
       <c r="K425" s="17"/>
       <c r="L425" s="18" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="M425" s="18" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="N425" s="19"/>
       <c r="O425" s="19"/>
@@ -24436,10 +24436,10 @@
       <c r="J426" s="17"/>
       <c r="K426" s="17"/>
       <c r="L426" s="18" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="M426" s="18" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="N426" s="19"/>
       <c r="O426" s="19"/>
@@ -24466,10 +24466,10 @@
       <c r="J427" s="17"/>
       <c r="K427" s="17"/>
       <c r="L427" s="18" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="M427" s="18" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="N427" s="19"/>
       <c r="O427" s="19"/>
@@ -24496,10 +24496,10 @@
       <c r="J428" s="17"/>
       <c r="K428" s="17"/>
       <c r="L428" s="18" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="M428" s="18" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="N428" s="19"/>
       <c r="O428" s="19"/>
@@ -24510,10 +24510,10 @@
         <v>40039</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="C429" s="16" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="D429" s="17"/>
       <c r="E429" s="17">
@@ -24528,13 +24528,13 @@
       <c r="J429" s="17"/>
       <c r="K429" s="17"/>
       <c r="L429" s="18" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="M429" s="18" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="N429" s="19" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="O429" s="19"/>
       <c r="P429" s="20"/>
@@ -24544,10 +24544,10 @@
         <v>40040</v>
       </c>
       <c r="B430" s="15" t="s">
+        <v>3820</v>
+      </c>
+      <c r="C430" s="16" t="s">
         <v>3821</v>
-      </c>
-      <c r="C430" s="16" t="s">
-        <v>3822</v>
       </c>
       <c r="D430" s="17"/>
       <c r="E430" s="17"/>
@@ -24572,7 +24572,7 @@
         <v>40041</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="C431" s="16"/>
       <c r="D431" s="17"/>
@@ -24584,11 +24584,11 @@
       <c r="J431" s="17"/>
       <c r="K431" s="17"/>
       <c r="L431" s="18" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="M431" s="18"/>
       <c r="N431" s="19" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="O431" s="19"/>
       <c r="P431" s="20"/>
@@ -24832,7 +24832,7 @@
       <c r="J443" s="17"/>
       <c r="K443" s="17"/>
       <c r="L443" s="18" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="M443" s="18" t="s">
         <v>964</v>
@@ -24862,7 +24862,7 @@
       <c r="J444" s="17"/>
       <c r="K444" s="17"/>
       <c r="L444" s="18" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="M444" s="18" t="s">
         <v>967</v>
@@ -25435,7 +25435,7 @@
         <v>3707</v>
       </c>
       <c r="M463" s="18" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="N463" s="19"/>
       <c r="O463" s="19"/>
@@ -25461,7 +25461,7 @@
         <v>3573</v>
       </c>
       <c r="M464" s="18" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="N464" s="19" t="s">
         <v>961</v>
@@ -26132,7 +26132,7 @@
       <c r="J487" s="17"/>
       <c r="K487" s="17"/>
       <c r="L487" s="18" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="M487" s="18"/>
       <c r="N487" s="19"/>
@@ -28892,7 +28892,7 @@
         <v>1255</v>
       </c>
       <c r="N589" s="19" t="s">
-        <v>3724</v>
+        <v>3824</v>
       </c>
       <c r="O589" s="19"/>
       <c r="P589" s="20"/>
@@ -53767,7 +53767,7 @@
         <v>3198</v>
       </c>
       <c r="M1527" s="18" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="N1527" s="19"/>
       <c r="O1527" s="19"/>
@@ -53790,7 +53790,7 @@
       <c r="J1528" s="17"/>
       <c r="K1528" s="17"/>
       <c r="L1528" s="18" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="M1528" s="18" t="s">
         <v>3545</v>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFBC348-F7AC-4DE1-9F07-6C1177A97DAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D07833D3-886A-4E0D-B6CB-15AE161E2B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="490" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5077" uniqueCount="3825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5076" uniqueCount="3824">
   <si>
     <t>$id</t>
   </si>
@@ -11835,18 +11835,10 @@
     <t>EVT?[40038]</t>
   </si>
   <si>
-    <t>你突破到化神期。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>(EVT?[40028])&amp;(EVT?[40036])</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>你本应该感应古天劫之力修炼，随时引动天劫渡劫，但古仙界已经覆灭，没有古天劫了。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>(EVT?[40023])&amp;(STR&gt;2000)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -11879,6 +11871,10 @@
   </si>
   <si>
     <t>INT&gt;10:20461</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>你突破到化神期。你本应该感应古天劫之力修炼，随时引动天劫渡劫，但古仙界已经覆灭，没有古天劫了。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -12478,10 +12474,10 @@
   <dimension ref="A1:P1731"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="E556" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C405" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I563" sqref="I563"/>
+      <selection pane="bottomRight" activeCell="F420" sqref="F420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -24236,7 +24232,7 @@
       <c r="J419" s="17"/>
       <c r="K419" s="17"/>
       <c r="L419" s="18" t="s">
-        <v>3816</v>
+        <v>3814</v>
       </c>
       <c r="M419" s="18"/>
       <c r="N419" s="19"/>
@@ -24264,7 +24260,7 @@
       <c r="J420" s="17"/>
       <c r="K420" s="17"/>
       <c r="L420" s="18" t="s">
-        <v>3817</v>
+        <v>3815</v>
       </c>
       <c r="M420" s="18"/>
       <c r="N420" s="19"/>
@@ -24292,7 +24288,7 @@
       <c r="J421" s="17"/>
       <c r="K421" s="17"/>
       <c r="L421" s="18" t="s">
-        <v>3816</v>
+        <v>3814</v>
       </c>
       <c r="M421" s="18"/>
       <c r="N421" s="19"/>
@@ -24510,11 +24506,9 @@
         <v>40039</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>3813</v>
-      </c>
-      <c r="C429" s="16" t="s">
-        <v>3815</v>
-      </c>
+        <v>3823</v>
+      </c>
+      <c r="C429" s="16"/>
       <c r="D429" s="17"/>
       <c r="E429" s="17">
         <v>200</v>
@@ -24528,13 +24522,13 @@
       <c r="J429" s="17"/>
       <c r="K429" s="17"/>
       <c r="L429" s="18" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="M429" s="18" t="s">
-        <v>3819</v>
+        <v>3817</v>
       </c>
       <c r="N429" s="19" t="s">
-        <v>3818</v>
+        <v>3816</v>
       </c>
       <c r="O429" s="19"/>
       <c r="P429" s="20"/>
@@ -24544,10 +24538,10 @@
         <v>40040</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>3820</v>
+        <v>3818</v>
       </c>
       <c r="C430" s="16" t="s">
-        <v>3821</v>
+        <v>3819</v>
       </c>
       <c r="D430" s="17"/>
       <c r="E430" s="17"/>
@@ -24572,7 +24566,7 @@
         <v>40041</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>3822</v>
+        <v>3820</v>
       </c>
       <c r="C431" s="16"/>
       <c r="D431" s="17"/>
@@ -25435,7 +25429,7 @@
         <v>3707</v>
       </c>
       <c r="M463" s="18" t="s">
-        <v>3823</v>
+        <v>3821</v>
       </c>
       <c r="N463" s="19"/>
       <c r="O463" s="19"/>
@@ -28892,7 +28886,7 @@
         <v>1255</v>
       </c>
       <c r="N589" s="19" t="s">
-        <v>3824</v>
+        <v>3822</v>
       </c>
       <c r="O589" s="19"/>
       <c r="P589" s="20"/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71043043-3DE9-4B6B-B952-66D1ECC6BEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB48ED74-662C-4CB5-86E1-C1AB41D45CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12708,10 +12708,10 @@
   <dimension ref="A1:P1742"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C445" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C419" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M453" sqref="M453"/>
+      <selection pane="bottomRight" activeCell="B426" sqref="B426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AAAA35-CC05-49A3-B08D-6096E5CF14BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C569FE3-BB62-4C86-8E30-A90C0101530E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5150" uniqueCount="3884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5150" uniqueCount="3885">
   <si>
     <t>$id</t>
   </si>
@@ -12116,6 +12116,10 @@
   </si>
   <si>
     <t>(EVT?[10017,10125,10126])|(TLT?[1029])</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>STR&gt;1:10000</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -12715,10 +12719,10 @@
   <dimension ref="A1:P1742"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C468" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="K415" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I479" sqref="I479"/>
+      <selection pane="bottomRight" activeCell="N426" sqref="N426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -24597,7 +24601,7 @@
         <v>3833</v>
       </c>
       <c r="N423" s="19" t="s">
-        <v>3796</v>
+        <v>3884</v>
       </c>
       <c r="O423" s="19"/>
       <c r="P423" s="20"/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C569FE3-BB62-4C86-8E30-A90C0101530E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B1A0B8-F720-43E6-9B14-D2522926A44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5150" uniqueCount="3885">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5150" uniqueCount="3884">
   <si>
     <t>$id</t>
   </si>
@@ -11775,10 +11775,6 @@
   </si>
   <si>
     <t>你遇到一位神游境魂修大能，你被夺舍了。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>EVT?[40001]:10000</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -12719,10 +12715,10 @@
   <dimension ref="A1:P1742"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K415" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I464" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N426" sqref="N426"/>
+      <selection pane="bottomRight" activeCell="A475" sqref="A475:XFD475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13238,7 +13234,7 @@
         <v>60</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -13294,7 +13290,7 @@
         <v>60</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -13356,7 +13352,7 @@
         <v>69</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="N21" s="19" t="s">
         <v>70</v>
@@ -13390,7 +13386,7 @@
         <v>69</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="N22" s="19" t="s">
         <v>72</v>
@@ -17645,7 +17641,7 @@
         <v>10155</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="C175" s="16"/>
       <c r="D175" s="17"/>
@@ -23673,7 +23669,7 @@
         <v>40002</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="C392" s="16"/>
       <c r="D392" s="17"/>
@@ -23687,7 +23683,7 @@
       <c r="J392" s="17"/>
       <c r="K392" s="17"/>
       <c r="L392" s="18" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="M392" s="18" t="s">
         <v>3745</v>
@@ -23715,7 +23711,7 @@
       <c r="J393" s="17"/>
       <c r="K393" s="17"/>
       <c r="L393" s="18" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="M393" s="18" t="s">
         <v>3735</v>
@@ -23799,7 +23795,7 @@
       <c r="J396" s="17"/>
       <c r="K396" s="17"/>
       <c r="L396" s="18" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="M396" s="18" t="s">
         <v>3746</v>
@@ -23827,7 +23823,7 @@
       <c r="J397" s="17"/>
       <c r="K397" s="17"/>
       <c r="L397" s="18" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="M397" s="18" t="s">
         <v>3746</v>
@@ -23857,7 +23853,7 @@
       <c r="J398" s="17"/>
       <c r="K398" s="17"/>
       <c r="L398" s="18" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="M398" s="18" t="s">
         <v>3745</v>
@@ -23887,7 +23883,7 @@
       <c r="J399" s="17"/>
       <c r="K399" s="17"/>
       <c r="L399" s="18" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="M399" s="18" t="s">
         <v>3745</v>
@@ -24330,7 +24326,7 @@
         <v>3776</v>
       </c>
       <c r="M414" s="18" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="N414" s="19"/>
       <c r="O414" s="19"/>
@@ -24358,7 +24354,7 @@
         <v>3776</v>
       </c>
       <c r="M415" s="18" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="N415" s="19"/>
       <c r="O415" s="19"/>
@@ -24481,10 +24477,10 @@
       <c r="J419" s="17"/>
       <c r="K419" s="17"/>
       <c r="L419" s="18" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="M419" s="18" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="N419" s="19"/>
       <c r="O419" s="19"/>
@@ -24511,10 +24507,10 @@
       <c r="J420" s="17"/>
       <c r="K420" s="17"/>
       <c r="L420" s="18" t="s">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="M420" s="18" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="N420" s="19"/>
       <c r="O420" s="19"/>
@@ -24541,10 +24537,10 @@
       <c r="J421" s="17"/>
       <c r="K421" s="17"/>
       <c r="L421" s="18" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="M421" s="18" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="N421" s="19"/>
       <c r="O421" s="19"/>
@@ -24572,7 +24568,7 @@
         <v>3786</v>
       </c>
       <c r="M422" s="18" t="s">
-        <v>3832</v>
+        <v>3831</v>
       </c>
       <c r="N422" s="19"/>
       <c r="O422" s="19"/>
@@ -24595,13 +24591,13 @@
       <c r="J423" s="17"/>
       <c r="K423" s="17"/>
       <c r="L423" s="18" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="M423" s="18" t="s">
-        <v>3833</v>
+        <v>3832</v>
       </c>
       <c r="N423" s="19" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="O423" s="19"/>
       <c r="P423" s="20"/>
@@ -24630,7 +24626,7 @@
         <v>3746</v>
       </c>
       <c r="M424" s="18" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="N424" s="19"/>
       <c r="O424" s="19"/>
@@ -24660,7 +24656,7 @@
         <v>3746</v>
       </c>
       <c r="M425" s="18" t="s">
-        <v>3799</v>
+        <v>3798</v>
       </c>
       <c r="N425" s="19"/>
       <c r="O425" s="19"/>
@@ -24690,7 +24686,7 @@
         <v>3746</v>
       </c>
       <c r="M426" s="18" t="s">
-        <v>3800</v>
+        <v>3799</v>
       </c>
       <c r="N426" s="19"/>
       <c r="O426" s="19"/>
@@ -24720,7 +24716,7 @@
         <v>3746</v>
       </c>
       <c r="M427" s="18" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="N427" s="19"/>
       <c r="O427" s="19"/>
@@ -24750,7 +24746,7 @@
         <v>3746</v>
       </c>
       <c r="M428" s="18" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="N428" s="19"/>
       <c r="O428" s="19"/>
@@ -24761,7 +24757,7 @@
         <v>40039</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="C429" s="16"/>
       <c r="D429" s="17"/>
@@ -24777,13 +24773,13 @@
       <c r="J429" s="17"/>
       <c r="K429" s="17"/>
       <c r="L429" s="18" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="M429" s="18" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="N429" s="19" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="O429" s="19"/>
       <c r="P429" s="20"/>
@@ -24793,7 +24789,7 @@
         <v>40040</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="C430" s="16"/>
       <c r="D430" s="17"/>
@@ -24817,7 +24813,7 @@
         <v>40041</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="C431" s="16"/>
       <c r="D431" s="17"/>
@@ -24829,13 +24825,13 @@
       <c r="J431" s="17"/>
       <c r="K431" s="17"/>
       <c r="L431" s="18" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="M431" s="18" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="N431" s="19" t="s">
-        <v>3796</v>
+        <v>3883</v>
       </c>
       <c r="O431" s="19"/>
       <c r="P431" s="20"/>
@@ -24845,7 +24841,7 @@
         <v>40042</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="C432" s="16"/>
       <c r="D432" s="17"/>
@@ -24857,10 +24853,10 @@
       <c r="J432" s="17"/>
       <c r="K432" s="17"/>
       <c r="L432" s="18" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="M432" s="18" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="N432" s="19"/>
       <c r="O432" s="19"/>
@@ -24871,7 +24867,7 @@
         <v>40043</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="C433" s="16"/>
       <c r="D433" s="17"/>
@@ -24883,10 +24879,10 @@
       <c r="J433" s="17"/>
       <c r="K433" s="17"/>
       <c r="L433" s="18" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="M433" s="18" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="N433" s="19"/>
       <c r="O433" s="19"/>
@@ -24897,7 +24893,7 @@
         <v>40044</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="C434" s="16"/>
       <c r="D434" s="17"/>
@@ -24909,10 +24905,10 @@
       <c r="J434" s="17"/>
       <c r="K434" s="17"/>
       <c r="L434" s="18" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="M434" s="18" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="N434" s="19"/>
       <c r="O434" s="19"/>
@@ -24923,7 +24919,7 @@
         <v>40045</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="C435" s="16"/>
       <c r="D435" s="17"/>
@@ -24935,10 +24931,10 @@
       <c r="J435" s="17"/>
       <c r="K435" s="17"/>
       <c r="L435" s="18" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="M435" s="18" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="N435" s="19"/>
       <c r="O435" s="19"/>
@@ -24949,10 +24945,10 @@
         <v>40046</v>
       </c>
       <c r="B436" s="15" t="s">
+        <v>3824</v>
+      </c>
+      <c r="C436" s="16" t="s">
         <v>3825</v>
-      </c>
-      <c r="C436" s="16" t="s">
-        <v>3826</v>
       </c>
       <c r="D436" s="17"/>
       <c r="E436" s="17"/>
@@ -24963,10 +24959,10 @@
       <c r="J436" s="17"/>
       <c r="K436" s="17"/>
       <c r="L436" s="18" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="M436" s="18" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="N436" s="19"/>
       <c r="O436" s="19"/>
@@ -24977,10 +24973,10 @@
         <v>40047</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="C437" s="16" t="s">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="D437" s="17"/>
       <c r="E437" s="17"/>
@@ -24991,10 +24987,10 @@
       <c r="J437" s="17"/>
       <c r="K437" s="17"/>
       <c r="L437" s="18" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="M437" s="18" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="N437" s="19"/>
       <c r="O437" s="19"/>
@@ -25005,10 +25001,10 @@
         <v>40048</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="C438" s="16" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="D438" s="17"/>
       <c r="E438" s="17"/>
@@ -25019,10 +25015,10 @@
       <c r="J438" s="17"/>
       <c r="K438" s="17"/>
       <c r="L438" s="18" t="s">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="M438" s="18" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="N438" s="19"/>
       <c r="O438" s="19"/>
@@ -25033,10 +25029,10 @@
         <v>40049</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="C439" s="16" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="D439" s="17"/>
       <c r="E439" s="17"/>
@@ -25047,10 +25043,10 @@
       <c r="J439" s="17"/>
       <c r="K439" s="17"/>
       <c r="L439" s="18" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="M439" s="18" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="N439" s="19"/>
       <c r="O439" s="19"/>
@@ -25061,10 +25057,10 @@
         <v>40050</v>
       </c>
       <c r="B440" s="15" t="s">
+        <v>3833</v>
+      </c>
+      <c r="C440" s="16" t="s">
         <v>3834</v>
-      </c>
-      <c r="C440" s="16" t="s">
-        <v>3835</v>
       </c>
       <c r="D440" s="17"/>
       <c r="E440" s="17"/>
@@ -25077,7 +25073,7 @@
       <c r="J440" s="17"/>
       <c r="K440" s="17"/>
       <c r="L440" s="18" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="M440" s="18"/>
       <c r="N440" s="19"/>
@@ -25089,10 +25085,10 @@
         <v>40051</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="C441" s="16" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="D441" s="17"/>
       <c r="E441" s="17"/>
@@ -25103,10 +25099,10 @@
       <c r="J441" s="17"/>
       <c r="K441" s="17"/>
       <c r="L441" s="18" t="s">
+        <v>3837</v>
+      </c>
+      <c r="M441" s="18" t="s">
         <v>3838</v>
-      </c>
-      <c r="M441" s="18" t="s">
-        <v>3839</v>
       </c>
       <c r="N441" s="19"/>
       <c r="O441" s="19"/>
@@ -25117,10 +25113,10 @@
         <v>40052</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="C442" s="16" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="D442" s="17"/>
       <c r="E442" s="17"/>
@@ -25131,10 +25127,10 @@
       <c r="J442" s="17"/>
       <c r="K442" s="17"/>
       <c r="L442" s="18" t="s">
+        <v>3843</v>
+      </c>
+      <c r="M442" s="18" t="s">
         <v>3844</v>
-      </c>
-      <c r="M442" s="18" t="s">
-        <v>3845</v>
       </c>
       <c r="N442" s="19"/>
       <c r="O442" s="19"/>
@@ -25145,7 +25141,7 @@
         <v>40053</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="C443" s="16"/>
       <c r="D443" s="17"/>
@@ -25159,10 +25155,10 @@
       <c r="J443" s="17"/>
       <c r="K443" s="17"/>
       <c r="L443" s="18" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="M443" s="18" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="N443" s="19"/>
       <c r="O443" s="19"/>
@@ -25173,7 +25169,7 @@
         <v>40054</v>
       </c>
       <c r="B444" s="15" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="C444" s="16"/>
       <c r="D444" s="17"/>
@@ -25185,17 +25181,17 @@
       <c r="J444" s="17"/>
       <c r="K444" s="17"/>
       <c r="L444" s="18" t="s">
+        <v>3847</v>
+      </c>
+      <c r="M444" s="18" t="s">
         <v>3848</v>
       </c>
-      <c r="M444" s="18" t="s">
-        <v>3849</v>
-      </c>
       <c r="N444" s="19" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
       <c r="O444" s="19"/>
       <c r="P444" s="20" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="445" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25203,7 +25199,7 @@
         <v>40055</v>
       </c>
       <c r="B445" s="15" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="C445" s="16"/>
       <c r="D445" s="17"/>
@@ -25219,11 +25215,11 @@
       <c r="L445" s="18"/>
       <c r="M445" s="18"/>
       <c r="N445" s="19" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
       <c r="O445" s="19"/>
       <c r="P445" s="20" t="s">
-        <v>3850</v>
+        <v>3849</v>
       </c>
     </row>
     <row r="446" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25231,7 +25227,7 @@
         <v>40056</v>
       </c>
       <c r="B446" s="15" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="C446" s="16"/>
       <c r="D446" s="17"/>
@@ -25247,11 +25243,11 @@
       <c r="L446" s="18"/>
       <c r="M446" s="18"/>
       <c r="N446" s="19" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
       <c r="O446" s="19"/>
       <c r="P446" s="20" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="447" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25259,7 +25255,7 @@
         <v>40057</v>
       </c>
       <c r="B447" s="15" t="s">
-        <v>3860</v>
+        <v>3859</v>
       </c>
       <c r="C447" s="16"/>
       <c r="D447" s="17"/>
@@ -25275,7 +25271,7 @@
       <c r="L447" s="18"/>
       <c r="M447" s="18"/>
       <c r="N447" s="19" t="s">
-        <v>3861</v>
+        <v>3860</v>
       </c>
       <c r="O447" s="19"/>
       <c r="P447" s="20"/>
@@ -25285,7 +25281,7 @@
         <v>40058</v>
       </c>
       <c r="B448" s="15" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="C448" s="16"/>
       <c r="D448" s="17">
@@ -25319,7 +25315,7 @@
         <v>40059</v>
       </c>
       <c r="B449" s="15" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="C449" s="16"/>
       <c r="D449" s="17"/>
@@ -25333,7 +25329,7 @@
       <c r="J449" s="17"/>
       <c r="K449" s="17"/>
       <c r="L449" s="18" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="M449" s="18"/>
       <c r="N449" s="19"/>
@@ -25345,10 +25341,10 @@
         <v>40060</v>
       </c>
       <c r="B450" s="15" t="s">
+        <v>3865</v>
+      </c>
+      <c r="C450" s="16" t="s">
         <v>3866</v>
-      </c>
-      <c r="C450" s="16" t="s">
-        <v>3867</v>
       </c>
       <c r="D450" s="17"/>
       <c r="E450" s="17"/>
@@ -25359,10 +25355,10 @@
       <c r="J450" s="17"/>
       <c r="K450" s="17"/>
       <c r="L450" s="18" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="M450" s="18" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="N450" s="19"/>
       <c r="O450" s="19"/>
@@ -25373,10 +25369,10 @@
         <v>40061</v>
       </c>
       <c r="B451" s="15" t="s">
+        <v>3870</v>
+      </c>
+      <c r="C451" s="16" t="s">
         <v>3871</v>
-      </c>
-      <c r="C451" s="16" t="s">
-        <v>3872</v>
       </c>
       <c r="D451" s="17">
         <v>2</v>
@@ -25393,10 +25389,10 @@
       <c r="J451" s="17"/>
       <c r="K451" s="17"/>
       <c r="L451" s="18" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="M451" s="18" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="N451" s="19"/>
       <c r="O451" s="19"/>
@@ -25424,7 +25420,7 @@
         <v>892</v>
       </c>
       <c r="M452" s="18" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="N452" s="19" t="s">
         <v>957</v>
@@ -25454,7 +25450,7 @@
         <v>892</v>
       </c>
       <c r="M453" s="18" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="N453" s="19" t="s">
         <v>957</v>
@@ -26086,7 +26082,7 @@
         <v>3701</v>
       </c>
       <c r="M474" s="18" t="s">
-        <v>3810</v>
+        <v>3809</v>
       </c>
       <c r="N474" s="19"/>
       <c r="O474" s="19"/>
@@ -26785,7 +26781,7 @@
       <c r="J498" s="17"/>
       <c r="K498" s="17"/>
       <c r="L498" s="18" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="M498" s="18"/>
       <c r="N498" s="19"/>
@@ -29545,7 +29541,7 @@
         <v>1251</v>
       </c>
       <c r="N600" s="19" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
       <c r="O600" s="19"/>
       <c r="P600" s="20"/>
@@ -36116,7 +36112,7 @@
         <v>1717</v>
       </c>
       <c r="M848" s="18" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="N848" s="19"/>
       <c r="O848" s="19"/>
@@ -36142,7 +36138,7 @@
         <v>1760</v>
       </c>
       <c r="M849" s="18" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
       <c r="N849" s="19"/>
       <c r="O849" s="19"/>
@@ -58507,7 +58503,7 @@
         <v>11502</v>
       </c>
       <c r="B1694" s="15" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="C1694" s="16"/>
       <c r="D1694" s="17"/>
@@ -58522,7 +58518,7 @@
         <v>3708</v>
       </c>
       <c r="M1694" s="18" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="N1694" s="19"/>
       <c r="O1694" s="19"/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B1A0B8-F720-43E6-9B14-D2522926A44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48112B6D-11C2-488F-80B2-84BC3A393B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10907,17 +10907,10 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>TLT?[1048]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>(EVT?[10365])&amp;(INT&gt;150)&amp;(TLT?[1048])</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>(EVT?[10365])&amp;(STR&lt;1100)&amp;(TLT?[1048])</t>
-  </si>
-  <si>
     <t>TLT?[1048]:10000</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -11524,10 +11517,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>EVT?[10365,10361,40001]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>你突破到净息中期。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -11635,9 +11624,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>EVT?[40015]</t>
-  </si>
-  <si>
     <t>你觉醒一般元婴期才有的神识。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -11662,9 +11648,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>EVT?[40016]</t>
-  </si>
-  <si>
     <t>EVT?[40017]</t>
   </si>
   <si>
@@ -12116,6 +12099,26 @@
   </si>
   <si>
     <t>STR&gt;1:10000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10365])&amp;(STR&lt;1100)&amp;(TLT?[1048])</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[10365,10361,40001,40061]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[40015,40023]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[40016,40023]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[40010]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -12715,10 +12718,10 @@
   <dimension ref="A1:P1742"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I464" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L416" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A475" sqref="A475:XFD475"/>
+      <selection pane="bottomRight" activeCell="M400" sqref="M400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13234,7 +13237,7 @@
         <v>60</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>3879</v>
+        <v>3874</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -13290,7 +13293,7 @@
         <v>60</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>3880</v>
+        <v>3875</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -13352,7 +13355,7 @@
         <v>69</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>3881</v>
+        <v>3876</v>
       </c>
       <c r="N21" s="19" t="s">
         <v>70</v>
@@ -13386,7 +13389,7 @@
         <v>69</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>3882</v>
+        <v>3877</v>
       </c>
       <c r="N22" s="19" t="s">
         <v>72</v>
@@ -17641,7 +17644,7 @@
         <v>10155</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>3814</v>
+        <v>3809</v>
       </c>
       <c r="C175" s="16"/>
       <c r="D175" s="17"/>
@@ -19305,7 +19308,7 @@
         <v>10214</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>3693</v>
+        <v>3691</v>
       </c>
       <c r="C236" s="16"/>
       <c r="D236" s="17"/>
@@ -19585,7 +19588,7 @@
       <c r="J245" s="17"/>
       <c r="K245" s="17"/>
       <c r="L245" s="18" t="s">
-        <v>3694</v>
+        <v>3692</v>
       </c>
       <c r="M245" s="18" t="s">
         <v>640</v>
@@ -19784,7 +19787,7 @@
         <v>658</v>
       </c>
       <c r="M252" s="18" t="s">
-        <v>3602</v>
+        <v>3600</v>
       </c>
       <c r="N252" s="19"/>
       <c r="O252" s="19"/>
@@ -19812,7 +19815,7 @@
         <v>660</v>
       </c>
       <c r="M253" s="18" t="s">
-        <v>3603</v>
+        <v>3601</v>
       </c>
       <c r="N253" s="19" t="s">
         <v>661</v>
@@ -19926,7 +19929,7 @@
         <v>670</v>
       </c>
       <c r="M257" s="18" t="s">
-        <v>3604</v>
+        <v>3602</v>
       </c>
       <c r="N257" s="19"/>
       <c r="O257" s="19"/>
@@ -19980,7 +19983,7 @@
         <v>60</v>
       </c>
       <c r="M259" s="21" t="s">
-        <v>3605</v>
+        <v>3603</v>
       </c>
       <c r="N259" s="19"/>
       <c r="O259" s="19"/>
@@ -21596,7 +21599,7 @@
         <v>815</v>
       </c>
       <c r="M318" s="18" t="s">
-        <v>3718</v>
+        <v>3716</v>
       </c>
       <c r="N318" s="19" t="s">
         <v>624</v>
@@ -22459,10 +22462,10 @@
         <v>20323</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>3571</v>
+        <v>3569</v>
       </c>
       <c r="C350" s="16" t="s">
-        <v>3572</v>
+        <v>3570</v>
       </c>
       <c r="D350" s="17"/>
       <c r="E350" s="17"/>
@@ -22478,7 +22481,7 @@
         <v>892</v>
       </c>
       <c r="M350" s="18" t="s">
-        <v>3573</v>
+        <v>3571</v>
       </c>
       <c r="N350" s="19"/>
       <c r="O350" s="19"/>
@@ -22825,7 +22828,7 @@
         <v>3442</v>
       </c>
       <c r="N362" s="19" t="s">
-        <v>3691</v>
+        <v>3689</v>
       </c>
       <c r="O362" s="19"/>
       <c r="P362" s="20"/>
@@ -22933,10 +22936,10 @@
       <c r="J366" s="17"/>
       <c r="K366" s="17"/>
       <c r="L366" s="18" t="s">
-        <v>3600</v>
+        <v>3598</v>
       </c>
       <c r="M366" s="18" t="s">
-        <v>3601</v>
+        <v>3599</v>
       </c>
       <c r="N366" s="19"/>
       <c r="O366" s="19"/>
@@ -23075,7 +23078,7 @@
       <c r="L371" s="18"/>
       <c r="M371" s="18"/>
       <c r="N371" s="19" t="s">
-        <v>3719</v>
+        <v>3717</v>
       </c>
       <c r="O371" s="19"/>
       <c r="P371" s="20"/>
@@ -23085,7 +23088,7 @@
         <v>20349</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>3720</v>
+        <v>3718</v>
       </c>
       <c r="C372" s="16"/>
       <c r="D372" s="17"/>
@@ -23633,10 +23636,10 @@
         <v>40001</v>
       </c>
       <c r="B391" s="15" t="s">
-        <v>3723</v>
+        <v>3721</v>
       </c>
       <c r="C391" s="16" t="s">
-        <v>3724</v>
+        <v>3722</v>
       </c>
       <c r="D391" s="17">
         <v>5</v>
@@ -23655,10 +23658,10 @@
       <c r="J391" s="17"/>
       <c r="K391" s="17"/>
       <c r="L391" s="18" t="s">
-        <v>3727</v>
+        <v>3725</v>
       </c>
       <c r="M391" s="18" t="s">
-        <v>3728</v>
+        <v>3726</v>
       </c>
       <c r="N391" s="19"/>
       <c r="O391" s="19"/>
@@ -23669,7 +23672,7 @@
         <v>40002</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>3874</v>
+        <v>3869</v>
       </c>
       <c r="C392" s="16"/>
       <c r="D392" s="17"/>
@@ -23683,10 +23686,10 @@
       <c r="J392" s="17"/>
       <c r="K392" s="17"/>
       <c r="L392" s="18" t="s">
-        <v>3872</v>
+        <v>3867</v>
       </c>
       <c r="M392" s="18" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
       <c r="N392" s="19"/>
       <c r="O392" s="19"/>
@@ -23697,7 +23700,7 @@
         <v>40003</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>3730</v>
+        <v>3727</v>
       </c>
       <c r="C393" s="16"/>
       <c r="D393" s="17"/>
@@ -23711,10 +23714,10 @@
       <c r="J393" s="17"/>
       <c r="K393" s="17"/>
       <c r="L393" s="18" t="s">
-        <v>3873</v>
+        <v>3868</v>
       </c>
       <c r="M393" s="18" t="s">
-        <v>3735</v>
+        <v>3732</v>
       </c>
       <c r="N393" s="19"/>
       <c r="O393" s="19"/>
@@ -23725,7 +23728,7 @@
         <v>40004</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>3731</v>
+        <v>3728</v>
       </c>
       <c r="C394" s="16"/>
       <c r="D394" s="17"/>
@@ -23739,10 +23742,10 @@
       <c r="J394" s="17"/>
       <c r="K394" s="17"/>
       <c r="L394" s="18" t="s">
-        <v>3740</v>
+        <v>3737</v>
       </c>
       <c r="M394" s="18" t="s">
-        <v>3736</v>
+        <v>3733</v>
       </c>
       <c r="N394" s="19"/>
       <c r="O394" s="19"/>
@@ -23753,7 +23756,7 @@
         <v>40005</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>3732</v>
+        <v>3729</v>
       </c>
       <c r="C395" s="16"/>
       <c r="D395" s="17"/>
@@ -23767,10 +23770,10 @@
       <c r="J395" s="17"/>
       <c r="K395" s="17"/>
       <c r="L395" s="18" t="s">
-        <v>3741</v>
+        <v>3738</v>
       </c>
       <c r="M395" s="18" t="s">
-        <v>3737</v>
+        <v>3734</v>
       </c>
       <c r="N395" s="19"/>
       <c r="O395" s="19"/>
@@ -23781,7 +23784,7 @@
         <v>40006</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>3733</v>
+        <v>3730</v>
       </c>
       <c r="C396" s="16"/>
       <c r="D396" s="17"/>
@@ -23795,10 +23798,10 @@
       <c r="J396" s="17"/>
       <c r="K396" s="17"/>
       <c r="L396" s="18" t="s">
-        <v>3872</v>
+        <v>3867</v>
       </c>
       <c r="M396" s="18" t="s">
-        <v>3746</v>
+        <v>3743</v>
       </c>
       <c r="N396" s="19"/>
       <c r="O396" s="19"/>
@@ -23809,7 +23812,7 @@
         <v>40007</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>3734</v>
+        <v>3731</v>
       </c>
       <c r="C397" s="16"/>
       <c r="D397" s="17">
@@ -23823,10 +23826,10 @@
       <c r="J397" s="17"/>
       <c r="K397" s="17"/>
       <c r="L397" s="18" t="s">
-        <v>3872</v>
+        <v>3867</v>
       </c>
       <c r="M397" s="18" t="s">
-        <v>3746</v>
+        <v>3743</v>
       </c>
       <c r="N397" s="19"/>
       <c r="O397" s="19"/>
@@ -23837,7 +23840,7 @@
         <v>40008</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>3738</v>
+        <v>3735</v>
       </c>
       <c r="C398" s="16"/>
       <c r="D398" s="17"/>
@@ -23853,10 +23856,10 @@
       <c r="J398" s="17"/>
       <c r="K398" s="17"/>
       <c r="L398" s="18" t="s">
-        <v>3876</v>
+        <v>3871</v>
       </c>
       <c r="M398" s="18" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
       <c r="N398" s="19"/>
       <c r="O398" s="19"/>
@@ -23867,7 +23870,7 @@
         <v>40009</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>3739</v>
+        <v>3736</v>
       </c>
       <c r="C399" s="16"/>
       <c r="D399" s="17"/>
@@ -23883,10 +23886,10 @@
       <c r="J399" s="17"/>
       <c r="K399" s="17"/>
       <c r="L399" s="18" t="s">
-        <v>3873</v>
+        <v>3868</v>
       </c>
       <c r="M399" s="18" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
       <c r="N399" s="19"/>
       <c r="O399" s="19"/>
@@ -23897,10 +23900,10 @@
         <v>40010</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>3742</v>
+        <v>3739</v>
       </c>
       <c r="C400" s="16" t="s">
-        <v>3743</v>
+        <v>3740</v>
       </c>
       <c r="D400" s="17"/>
       <c r="E400" s="17"/>
@@ -23913,10 +23916,10 @@
       <c r="J400" s="17"/>
       <c r="K400" s="17"/>
       <c r="L400" s="18" t="s">
-        <v>3744</v>
+        <v>3741</v>
       </c>
       <c r="M400" s="18" t="s">
-        <v>3745</v>
+        <v>3883</v>
       </c>
       <c r="N400" s="19"/>
       <c r="O400" s="19"/>
@@ -23927,7 +23930,7 @@
         <v>40011</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>3747</v>
+        <v>3744</v>
       </c>
       <c r="C401" s="16"/>
       <c r="D401" s="17"/>
@@ -23941,10 +23944,10 @@
       <c r="J401" s="17"/>
       <c r="K401" s="17"/>
       <c r="L401" s="18" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
       <c r="M401" s="18" t="s">
-        <v>3776</v>
+        <v>3771</v>
       </c>
       <c r="N401" s="19"/>
       <c r="O401" s="19"/>
@@ -23955,7 +23958,7 @@
         <v>40012</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>3748</v>
+        <v>3745</v>
       </c>
       <c r="C402" s="16"/>
       <c r="D402" s="17"/>
@@ -23969,10 +23972,10 @@
       <c r="J402" s="17"/>
       <c r="K402" s="17"/>
       <c r="L402" s="18" t="s">
-        <v>3751</v>
+        <v>3748</v>
       </c>
       <c r="M402" s="18" t="s">
-        <v>3753</v>
+        <v>3750</v>
       </c>
       <c r="N402" s="19"/>
       <c r="O402" s="19"/>
@@ -23983,7 +23986,7 @@
         <v>40013</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>3749</v>
+        <v>3746</v>
       </c>
       <c r="C403" s="16"/>
       <c r="D403" s="17"/>
@@ -23997,10 +24000,10 @@
       <c r="J403" s="17"/>
       <c r="K403" s="17"/>
       <c r="L403" s="18" t="s">
-        <v>3752</v>
+        <v>3749</v>
       </c>
       <c r="M403" s="18" t="s">
-        <v>3754</v>
+        <v>3751</v>
       </c>
       <c r="N403" s="19"/>
       <c r="O403" s="19"/>
@@ -24011,7 +24014,7 @@
         <v>40014</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>3750</v>
+        <v>3747</v>
       </c>
       <c r="C404" s="16"/>
       <c r="D404" s="17"/>
@@ -24025,10 +24028,10 @@
       <c r="J404" s="17"/>
       <c r="K404" s="17"/>
       <c r="L404" s="18" t="s">
-        <v>3774</v>
+        <v>3769</v>
       </c>
       <c r="M404" s="18" t="s">
-        <v>3755</v>
+        <v>3752</v>
       </c>
       <c r="N404" s="19"/>
       <c r="O404" s="19"/>
@@ -24039,10 +24042,10 @@
         <v>40015</v>
       </c>
       <c r="B405" s="15" t="s">
-        <v>3756</v>
+        <v>3753</v>
       </c>
       <c r="C405" s="16" t="s">
-        <v>3757</v>
+        <v>3754</v>
       </c>
       <c r="D405" s="17"/>
       <c r="E405" s="17">
@@ -24057,10 +24060,10 @@
       <c r="J405" s="17"/>
       <c r="K405" s="17"/>
       <c r="L405" s="18" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
       <c r="M405" s="18" t="s">
-        <v>3758</v>
+        <v>3881</v>
       </c>
       <c r="N405" s="19"/>
       <c r="O405" s="19"/>
@@ -24071,7 +24074,7 @@
         <v>40016</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>3759</v>
+        <v>3755</v>
       </c>
       <c r="C406" s="16"/>
       <c r="D406" s="17"/>
@@ -24083,10 +24086,10 @@
       <c r="J406" s="17"/>
       <c r="K406" s="17"/>
       <c r="L406" s="18" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
       <c r="M406" s="18" t="s">
-        <v>3765</v>
+        <v>3882</v>
       </c>
       <c r="N406" s="19"/>
       <c r="O406" s="19"/>
@@ -24097,7 +24100,7 @@
         <v>40017</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>3760</v>
+        <v>3756</v>
       </c>
       <c r="C407" s="16"/>
       <c r="D407" s="17"/>
@@ -24113,10 +24116,10 @@
       <c r="J407" s="17"/>
       <c r="K407" s="17"/>
       <c r="L407" s="18" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
       <c r="M407" s="18" t="s">
-        <v>3766</v>
+        <v>3761</v>
       </c>
       <c r="N407" s="19"/>
       <c r="O407" s="19"/>
@@ -24127,7 +24130,7 @@
         <v>40018</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>3761</v>
+        <v>3757</v>
       </c>
       <c r="C408" s="16"/>
       <c r="D408" s="17"/>
@@ -24143,10 +24146,10 @@
       <c r="J408" s="17"/>
       <c r="K408" s="17"/>
       <c r="L408" s="18" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
       <c r="M408" s="18" t="s">
-        <v>3767</v>
+        <v>3762</v>
       </c>
       <c r="N408" s="19"/>
       <c r="O408" s="19"/>
@@ -24157,7 +24160,7 @@
         <v>40019</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>3762</v>
+        <v>3758</v>
       </c>
       <c r="C409" s="16"/>
       <c r="D409" s="17"/>
@@ -24173,10 +24176,10 @@
       <c r="J409" s="17"/>
       <c r="K409" s="17"/>
       <c r="L409" s="18" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
       <c r="M409" s="18" t="s">
-        <v>3768</v>
+        <v>3763</v>
       </c>
       <c r="N409" s="19"/>
       <c r="O409" s="19"/>
@@ -24187,7 +24190,7 @@
         <v>40020</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>3763</v>
+        <v>3759</v>
       </c>
       <c r="C410" s="16"/>
       <c r="D410" s="17"/>
@@ -24203,10 +24206,10 @@
       <c r="J410" s="17"/>
       <c r="K410" s="17"/>
       <c r="L410" s="18" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
       <c r="M410" s="18" t="s">
-        <v>3769</v>
+        <v>3764</v>
       </c>
       <c r="N410" s="19"/>
       <c r="O410" s="19"/>
@@ -24217,7 +24220,7 @@
         <v>40021</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>3764</v>
+        <v>3760</v>
       </c>
       <c r="C411" s="16"/>
       <c r="D411" s="17"/>
@@ -24233,10 +24236,10 @@
       <c r="J411" s="17"/>
       <c r="K411" s="17"/>
       <c r="L411" s="18" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
       <c r="M411" s="18" t="s">
-        <v>3770</v>
+        <v>3765</v>
       </c>
       <c r="N411" s="19"/>
       <c r="O411" s="19"/>
@@ -24247,7 +24250,7 @@
         <v>40022</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>3771</v>
+        <v>3766</v>
       </c>
       <c r="C412" s="16"/>
       <c r="D412" s="17"/>
@@ -24261,10 +24264,10 @@
       <c r="J412" s="17"/>
       <c r="K412" s="17"/>
       <c r="L412" s="18" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
       <c r="M412" s="18" t="s">
-        <v>3776</v>
+        <v>3771</v>
       </c>
       <c r="N412" s="19"/>
       <c r="O412" s="19"/>
@@ -24275,10 +24278,10 @@
         <v>40023</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>3773</v>
+        <v>3768</v>
       </c>
       <c r="C413" s="16" t="s">
-        <v>3772</v>
+        <v>3767</v>
       </c>
       <c r="D413" s="17"/>
       <c r="E413" s="17">
@@ -24293,10 +24296,10 @@
       <c r="J413" s="17"/>
       <c r="K413" s="17"/>
       <c r="L413" s="18" t="s">
-        <v>3775</v>
+        <v>3770</v>
       </c>
       <c r="M413" s="18" t="s">
-        <v>3776</v>
+        <v>3771</v>
       </c>
       <c r="N413" s="19"/>
       <c r="O413" s="19"/>
@@ -24307,7 +24310,7 @@
         <v>40024</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>3777</v>
+        <v>3772</v>
       </c>
       <c r="C414" s="16"/>
       <c r="D414" s="17"/>
@@ -24323,10 +24326,10 @@
       <c r="J414" s="17"/>
       <c r="K414" s="17"/>
       <c r="L414" s="18" t="s">
-        <v>3776</v>
+        <v>3771</v>
       </c>
       <c r="M414" s="18" t="s">
-        <v>3806</v>
+        <v>3801</v>
       </c>
       <c r="N414" s="19"/>
       <c r="O414" s="19"/>
@@ -24337,7 +24340,7 @@
         <v>40025</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>3778</v>
+        <v>3773</v>
       </c>
       <c r="C415" s="16"/>
       <c r="D415" s="17"/>
@@ -24351,10 +24354,10 @@
       <c r="J415" s="17"/>
       <c r="K415" s="17"/>
       <c r="L415" s="18" t="s">
-        <v>3776</v>
+        <v>3771</v>
       </c>
       <c r="M415" s="18" t="s">
-        <v>3806</v>
+        <v>3801</v>
       </c>
       <c r="N415" s="19"/>
       <c r="O415" s="19"/>
@@ -24365,10 +24368,10 @@
         <v>40026</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>3782</v>
+        <v>3777</v>
       </c>
       <c r="C416" s="16" t="s">
-        <v>3779</v>
+        <v>3774</v>
       </c>
       <c r="D416" s="17"/>
       <c r="E416" s="17">
@@ -24383,10 +24386,10 @@
       <c r="J416" s="17"/>
       <c r="K416" s="17"/>
       <c r="L416" s="18" t="s">
-        <v>3785</v>
+        <v>3780</v>
       </c>
       <c r="M416" s="18" t="s">
-        <v>3788</v>
+        <v>3783</v>
       </c>
       <c r="N416" s="19"/>
       <c r="O416" s="19"/>
@@ -24397,10 +24400,10 @@
         <v>40027</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>3783</v>
+        <v>3778</v>
       </c>
       <c r="C417" s="16" t="s">
-        <v>3780</v>
+        <v>3775</v>
       </c>
       <c r="D417" s="17"/>
       <c r="E417" s="17">
@@ -24415,10 +24418,10 @@
       <c r="J417" s="17"/>
       <c r="K417" s="17"/>
       <c r="L417" s="18" t="s">
-        <v>3786</v>
+        <v>3781</v>
       </c>
       <c r="M417" s="18" t="s">
-        <v>3789</v>
+        <v>3784</v>
       </c>
       <c r="N417" s="19"/>
       <c r="O417" s="19"/>
@@ -24429,10 +24432,10 @@
         <v>40028</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>3784</v>
+        <v>3779</v>
       </c>
       <c r="C418" s="16" t="s">
-        <v>3781</v>
+        <v>3776</v>
       </c>
       <c r="D418" s="17"/>
       <c r="E418" s="17">
@@ -24447,10 +24450,10 @@
       <c r="J418" s="17"/>
       <c r="K418" s="17"/>
       <c r="L418" s="18" t="s">
-        <v>3787</v>
+        <v>3782</v>
       </c>
       <c r="M418" s="18" t="s">
-        <v>3790</v>
+        <v>3785</v>
       </c>
       <c r="N418" s="19"/>
       <c r="O418" s="19"/>
@@ -24461,7 +24464,7 @@
         <v>40029</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>3791</v>
+        <v>3786</v>
       </c>
       <c r="C419" s="16"/>
       <c r="D419" s="17"/>
@@ -24477,10 +24480,10 @@
       <c r="J419" s="17"/>
       <c r="K419" s="17"/>
       <c r="L419" s="18" t="s">
-        <v>3803</v>
+        <v>3798</v>
       </c>
       <c r="M419" s="18" t="s">
-        <v>3806</v>
+        <v>3801</v>
       </c>
       <c r="N419" s="19"/>
       <c r="O419" s="19"/>
@@ -24491,7 +24494,7 @@
         <v>40030</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>3792</v>
+        <v>3787</v>
       </c>
       <c r="C420" s="16"/>
       <c r="D420" s="17"/>
@@ -24507,10 +24510,10 @@
       <c r="J420" s="17"/>
       <c r="K420" s="17"/>
       <c r="L420" s="18" t="s">
-        <v>3804</v>
+        <v>3799</v>
       </c>
       <c r="M420" s="18" t="s">
-        <v>3806</v>
+        <v>3801</v>
       </c>
       <c r="N420" s="19"/>
       <c r="O420" s="19"/>
@@ -24521,7 +24524,7 @@
         <v>40031</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>3794</v>
+        <v>3789</v>
       </c>
       <c r="C421" s="16"/>
       <c r="D421" s="17"/>
@@ -24537,10 +24540,10 @@
       <c r="J421" s="17"/>
       <c r="K421" s="17"/>
       <c r="L421" s="18" t="s">
-        <v>3803</v>
+        <v>3798</v>
       </c>
       <c r="M421" s="18" t="s">
-        <v>3806</v>
+        <v>3801</v>
       </c>
       <c r="N421" s="19"/>
       <c r="O421" s="19"/>
@@ -24551,7 +24554,7 @@
         <v>40032</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>3793</v>
+        <v>3788</v>
       </c>
       <c r="C422" s="16"/>
       <c r="D422" s="17"/>
@@ -24565,10 +24568,10 @@
       <c r="J422" s="17"/>
       <c r="K422" s="17"/>
       <c r="L422" s="18" t="s">
-        <v>3786</v>
+        <v>3781</v>
       </c>
       <c r="M422" s="18" t="s">
-        <v>3831</v>
+        <v>3826</v>
       </c>
       <c r="N422" s="19"/>
       <c r="O422" s="19"/>
@@ -24579,7 +24582,7 @@
         <v>40033</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>3795</v>
+        <v>3790</v>
       </c>
       <c r="C423" s="16"/>
       <c r="D423" s="17"/>
@@ -24591,13 +24594,13 @@
       <c r="J423" s="17"/>
       <c r="K423" s="17"/>
       <c r="L423" s="18" t="s">
-        <v>3872</v>
+        <v>3867</v>
       </c>
       <c r="M423" s="18" t="s">
-        <v>3832</v>
+        <v>3827</v>
       </c>
       <c r="N423" s="19" t="s">
-        <v>3883</v>
+        <v>3878</v>
       </c>
       <c r="O423" s="19"/>
       <c r="P423" s="20"/>
@@ -24623,10 +24626,10 @@
       <c r="J424" s="17"/>
       <c r="K424" s="17"/>
       <c r="L424" s="18" t="s">
-        <v>3746</v>
+        <v>3743</v>
       </c>
       <c r="M424" s="18" t="s">
-        <v>3797</v>
+        <v>3792</v>
       </c>
       <c r="N424" s="19"/>
       <c r="O424" s="19"/>
@@ -24653,10 +24656,10 @@
       <c r="J425" s="17"/>
       <c r="K425" s="17"/>
       <c r="L425" s="18" t="s">
-        <v>3746</v>
+        <v>3743</v>
       </c>
       <c r="M425" s="18" t="s">
-        <v>3798</v>
+        <v>3793</v>
       </c>
       <c r="N425" s="19"/>
       <c r="O425" s="19"/>
@@ -24683,10 +24686,10 @@
       <c r="J426" s="17"/>
       <c r="K426" s="17"/>
       <c r="L426" s="18" t="s">
-        <v>3746</v>
+        <v>3743</v>
       </c>
       <c r="M426" s="18" t="s">
-        <v>3799</v>
+        <v>3794</v>
       </c>
       <c r="N426" s="19"/>
       <c r="O426" s="19"/>
@@ -24713,10 +24716,10 @@
       <c r="J427" s="17"/>
       <c r="K427" s="17"/>
       <c r="L427" s="18" t="s">
-        <v>3746</v>
+        <v>3743</v>
       </c>
       <c r="M427" s="18" t="s">
-        <v>3800</v>
+        <v>3795</v>
       </c>
       <c r="N427" s="19"/>
       <c r="O427" s="19"/>
@@ -24743,10 +24746,10 @@
       <c r="J428" s="17"/>
       <c r="K428" s="17"/>
       <c r="L428" s="18" t="s">
-        <v>3746</v>
+        <v>3743</v>
       </c>
       <c r="M428" s="18" t="s">
-        <v>3801</v>
+        <v>3796</v>
       </c>
       <c r="N428" s="19"/>
       <c r="O428" s="19"/>
@@ -24757,7 +24760,7 @@
         <v>40039</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>3811</v>
+        <v>3806</v>
       </c>
       <c r="C429" s="16"/>
       <c r="D429" s="17"/>
@@ -24773,13 +24776,13 @@
       <c r="J429" s="17"/>
       <c r="K429" s="17"/>
       <c r="L429" s="18" t="s">
-        <v>3802</v>
+        <v>3797</v>
       </c>
       <c r="M429" s="18" t="s">
-        <v>3806</v>
+        <v>3801</v>
       </c>
       <c r="N429" s="19" t="s">
-        <v>3805</v>
+        <v>3800</v>
       </c>
       <c r="O429" s="19"/>
       <c r="P429" s="20"/>
@@ -24789,7 +24792,7 @@
         <v>40040</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>3807</v>
+        <v>3802</v>
       </c>
       <c r="C430" s="16"/>
       <c r="D430" s="17"/>
@@ -24813,7 +24816,7 @@
         <v>40041</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>3808</v>
+        <v>3803</v>
       </c>
       <c r="C431" s="16"/>
       <c r="D431" s="17"/>
@@ -24825,13 +24828,13 @@
       <c r="J431" s="17"/>
       <c r="K431" s="17"/>
       <c r="L431" s="18" t="s">
-        <v>3872</v>
+        <v>3867</v>
       </c>
       <c r="M431" s="18" t="s">
-        <v>3864</v>
+        <v>3859</v>
       </c>
       <c r="N431" s="19" t="s">
-        <v>3883</v>
+        <v>3878</v>
       </c>
       <c r="O431" s="19"/>
       <c r="P431" s="20"/>
@@ -24841,7 +24844,7 @@
         <v>40042</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>3819</v>
+        <v>3814</v>
       </c>
       <c r="C432" s="16"/>
       <c r="D432" s="17"/>
@@ -24853,10 +24856,10 @@
       <c r="J432" s="17"/>
       <c r="K432" s="17"/>
       <c r="L432" s="18" t="s">
-        <v>3817</v>
+        <v>3812</v>
       </c>
       <c r="M432" s="18" t="s">
-        <v>3821</v>
+        <v>3816</v>
       </c>
       <c r="N432" s="19"/>
       <c r="O432" s="19"/>
@@ -24867,7 +24870,7 @@
         <v>40043</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>3818</v>
+        <v>3813</v>
       </c>
       <c r="C433" s="16"/>
       <c r="D433" s="17"/>
@@ -24879,10 +24882,10 @@
       <c r="J433" s="17"/>
       <c r="K433" s="17"/>
       <c r="L433" s="18" t="s">
-        <v>3821</v>
+        <v>3816</v>
       </c>
       <c r="M433" s="18" t="s">
-        <v>3841</v>
+        <v>3836</v>
       </c>
       <c r="N433" s="19"/>
       <c r="O433" s="19"/>
@@ -24893,7 +24896,7 @@
         <v>40044</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>3822</v>
+        <v>3817</v>
       </c>
       <c r="C434" s="16"/>
       <c r="D434" s="17"/>
@@ -24905,10 +24908,10 @@
       <c r="J434" s="17"/>
       <c r="K434" s="17"/>
       <c r="L434" s="18" t="s">
-        <v>3821</v>
+        <v>3816</v>
       </c>
       <c r="M434" s="18" t="s">
-        <v>3841</v>
+        <v>3836</v>
       </c>
       <c r="N434" s="19"/>
       <c r="O434" s="19"/>
@@ -24919,7 +24922,7 @@
         <v>40045</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>3823</v>
+        <v>3818</v>
       </c>
       <c r="C435" s="16"/>
       <c r="D435" s="17"/>
@@ -24931,10 +24934,10 @@
       <c r="J435" s="17"/>
       <c r="K435" s="17"/>
       <c r="L435" s="18" t="s">
-        <v>3820</v>
+        <v>3815</v>
       </c>
       <c r="M435" s="18" t="s">
-        <v>3841</v>
+        <v>3836</v>
       </c>
       <c r="N435" s="19"/>
       <c r="O435" s="19"/>
@@ -24945,10 +24948,10 @@
         <v>40046</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="C436" s="16" t="s">
-        <v>3825</v>
+        <v>3820</v>
       </c>
       <c r="D436" s="17"/>
       <c r="E436" s="17"/>
@@ -24959,10 +24962,10 @@
       <c r="J436" s="17"/>
       <c r="K436" s="17"/>
       <c r="L436" s="18" t="s">
-        <v>3820</v>
+        <v>3815</v>
       </c>
       <c r="M436" s="18" t="s">
-        <v>3841</v>
+        <v>3836</v>
       </c>
       <c r="N436" s="19"/>
       <c r="O436" s="19"/>
@@ -24973,10 +24976,10 @@
         <v>40047</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="C437" s="16" t="s">
-        <v>3826</v>
+        <v>3821</v>
       </c>
       <c r="D437" s="17"/>
       <c r="E437" s="17"/>
@@ -24987,10 +24990,10 @@
       <c r="J437" s="17"/>
       <c r="K437" s="17"/>
       <c r="L437" s="18" t="s">
-        <v>3820</v>
+        <v>3815</v>
       </c>
       <c r="M437" s="18" t="s">
-        <v>3840</v>
+        <v>3835</v>
       </c>
       <c r="N437" s="19"/>
       <c r="O437" s="19"/>
@@ -25001,10 +25004,10 @@
         <v>40048</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="C438" s="16" t="s">
-        <v>3828</v>
+        <v>3823</v>
       </c>
       <c r="D438" s="17"/>
       <c r="E438" s="17"/>
@@ -25015,10 +25018,10 @@
       <c r="J438" s="17"/>
       <c r="K438" s="17"/>
       <c r="L438" s="18" t="s">
-        <v>3827</v>
+        <v>3822</v>
       </c>
       <c r="M438" s="18" t="s">
-        <v>3839</v>
+        <v>3834</v>
       </c>
       <c r="N438" s="19"/>
       <c r="O438" s="19"/>
@@ -25029,10 +25032,10 @@
         <v>40049</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>3824</v>
+        <v>3819</v>
       </c>
       <c r="C439" s="16" t="s">
-        <v>3830</v>
+        <v>3825</v>
       </c>
       <c r="D439" s="17"/>
       <c r="E439" s="17"/>
@@ -25043,10 +25046,10 @@
       <c r="J439" s="17"/>
       <c r="K439" s="17"/>
       <c r="L439" s="18" t="s">
-        <v>3829</v>
+        <v>3824</v>
       </c>
       <c r="M439" s="18" t="s">
-        <v>3841</v>
+        <v>3836</v>
       </c>
       <c r="N439" s="19"/>
       <c r="O439" s="19"/>
@@ -25057,10 +25060,10 @@
         <v>40050</v>
       </c>
       <c r="B440" s="15" t="s">
-        <v>3833</v>
+        <v>3828</v>
       </c>
       <c r="C440" s="16" t="s">
-        <v>3834</v>
+        <v>3829</v>
       </c>
       <c r="D440" s="17"/>
       <c r="E440" s="17"/>
@@ -25073,7 +25076,7 @@
       <c r="J440" s="17"/>
       <c r="K440" s="17"/>
       <c r="L440" s="18" t="s">
-        <v>3835</v>
+        <v>3830</v>
       </c>
       <c r="M440" s="18"/>
       <c r="N440" s="19"/>
@@ -25085,10 +25088,10 @@
         <v>40051</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>3836</v>
+        <v>3831</v>
       </c>
       <c r="C441" s="16" t="s">
-        <v>3842</v>
+        <v>3837</v>
       </c>
       <c r="D441" s="17"/>
       <c r="E441" s="17"/>
@@ -25099,10 +25102,10 @@
       <c r="J441" s="17"/>
       <c r="K441" s="17"/>
       <c r="L441" s="18" t="s">
-        <v>3837</v>
+        <v>3832</v>
       </c>
       <c r="M441" s="18" t="s">
-        <v>3838</v>
+        <v>3833</v>
       </c>
       <c r="N441" s="19"/>
       <c r="O441" s="19"/>
@@ -25113,10 +25116,10 @@
         <v>40052</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>3857</v>
+        <v>3852</v>
       </c>
       <c r="C442" s="16" t="s">
-        <v>3845</v>
+        <v>3840</v>
       </c>
       <c r="D442" s="17"/>
       <c r="E442" s="17"/>
@@ -25127,10 +25130,10 @@
       <c r="J442" s="17"/>
       <c r="K442" s="17"/>
       <c r="L442" s="18" t="s">
-        <v>3843</v>
+        <v>3838</v>
       </c>
       <c r="M442" s="18" t="s">
-        <v>3844</v>
+        <v>3839</v>
       </c>
       <c r="N442" s="19"/>
       <c r="O442" s="19"/>
@@ -25141,7 +25144,7 @@
         <v>40053</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>3846</v>
+        <v>3841</v>
       </c>
       <c r="C443" s="16"/>
       <c r="D443" s="17"/>
@@ -25155,10 +25158,10 @@
       <c r="J443" s="17"/>
       <c r="K443" s="17"/>
       <c r="L443" s="18" t="s">
-        <v>3844</v>
+        <v>3839</v>
       </c>
       <c r="M443" s="18" t="s">
-        <v>3847</v>
+        <v>3842</v>
       </c>
       <c r="N443" s="19"/>
       <c r="O443" s="19"/>
@@ -25169,7 +25172,7 @@
         <v>40054</v>
       </c>
       <c r="B444" s="15" t="s">
-        <v>3850</v>
+        <v>3845</v>
       </c>
       <c r="C444" s="16"/>
       <c r="D444" s="17"/>
@@ -25181,17 +25184,17 @@
       <c r="J444" s="17"/>
       <c r="K444" s="17"/>
       <c r="L444" s="18" t="s">
+        <v>3842</v>
+      </c>
+      <c r="M444" s="18" t="s">
+        <v>3843</v>
+      </c>
+      <c r="N444" s="19" t="s">
         <v>3847</v>
-      </c>
-      <c r="M444" s="18" t="s">
-        <v>3848</v>
-      </c>
-      <c r="N444" s="19" t="s">
-        <v>3852</v>
       </c>
       <c r="O444" s="19"/>
       <c r="P444" s="20" t="s">
-        <v>3853</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="445" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25199,7 +25202,7 @@
         <v>40055</v>
       </c>
       <c r="B445" s="15" t="s">
-        <v>3851</v>
+        <v>3846</v>
       </c>
       <c r="C445" s="16"/>
       <c r="D445" s="17"/>
@@ -25215,11 +25218,11 @@
       <c r="L445" s="18"/>
       <c r="M445" s="18"/>
       <c r="N445" s="19" t="s">
-        <v>3854</v>
+        <v>3849</v>
       </c>
       <c r="O445" s="19"/>
       <c r="P445" s="20" t="s">
-        <v>3849</v>
+        <v>3844</v>
       </c>
     </row>
     <row r="446" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25227,7 +25230,7 @@
         <v>40056</v>
       </c>
       <c r="B446" s="15" t="s">
-        <v>3858</v>
+        <v>3853</v>
       </c>
       <c r="C446" s="16"/>
       <c r="D446" s="17"/>
@@ -25243,11 +25246,11 @@
       <c r="L446" s="18"/>
       <c r="M446" s="18"/>
       <c r="N446" s="19" t="s">
-        <v>3856</v>
+        <v>3851</v>
       </c>
       <c r="O446" s="19"/>
       <c r="P446" s="20" t="s">
-        <v>3855</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="447" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25255,7 +25258,7 @@
         <v>40057</v>
       </c>
       <c r="B447" s="15" t="s">
-        <v>3859</v>
+        <v>3854</v>
       </c>
       <c r="C447" s="16"/>
       <c r="D447" s="17"/>
@@ -25271,7 +25274,7 @@
       <c r="L447" s="18"/>
       <c r="M447" s="18"/>
       <c r="N447" s="19" t="s">
-        <v>3860</v>
+        <v>3855</v>
       </c>
       <c r="O447" s="19"/>
       <c r="P447" s="20"/>
@@ -25281,7 +25284,7 @@
         <v>40058</v>
       </c>
       <c r="B448" s="15" t="s">
-        <v>3862</v>
+        <v>3857</v>
       </c>
       <c r="C448" s="16"/>
       <c r="D448" s="17">
@@ -25315,7 +25318,7 @@
         <v>40059</v>
       </c>
       <c r="B449" s="15" t="s">
-        <v>3861</v>
+        <v>3856</v>
       </c>
       <c r="C449" s="16"/>
       <c r="D449" s="17"/>
@@ -25329,7 +25332,7 @@
       <c r="J449" s="17"/>
       <c r="K449" s="17"/>
       <c r="L449" s="18" t="s">
-        <v>3863</v>
+        <v>3858</v>
       </c>
       <c r="M449" s="18"/>
       <c r="N449" s="19"/>
@@ -25341,10 +25344,10 @@
         <v>40060</v>
       </c>
       <c r="B450" s="15" t="s">
-        <v>3865</v>
+        <v>3860</v>
       </c>
       <c r="C450" s="16" t="s">
-        <v>3866</v>
+        <v>3861</v>
       </c>
       <c r="D450" s="17"/>
       <c r="E450" s="17"/>
@@ -25355,10 +25358,10 @@
       <c r="J450" s="17"/>
       <c r="K450" s="17"/>
       <c r="L450" s="18" t="s">
-        <v>3867</v>
+        <v>3862</v>
       </c>
       <c r="M450" s="18" t="s">
-        <v>3869</v>
+        <v>3864</v>
       </c>
       <c r="N450" s="19"/>
       <c r="O450" s="19"/>
@@ -25369,10 +25372,10 @@
         <v>40061</v>
       </c>
       <c r="B451" s="15" t="s">
-        <v>3870</v>
+        <v>3865</v>
       </c>
       <c r="C451" s="16" t="s">
-        <v>3871</v>
+        <v>3866</v>
       </c>
       <c r="D451" s="17">
         <v>2</v>
@@ -25389,10 +25392,10 @@
       <c r="J451" s="17"/>
       <c r="K451" s="17"/>
       <c r="L451" s="18" t="s">
-        <v>3868</v>
+        <v>3863</v>
       </c>
       <c r="M451" s="18" t="s">
-        <v>3875</v>
+        <v>3870</v>
       </c>
       <c r="N451" s="19"/>
       <c r="O451" s="19"/>
@@ -25420,7 +25423,7 @@
         <v>892</v>
       </c>
       <c r="M452" s="18" t="s">
-        <v>3877</v>
+        <v>3872</v>
       </c>
       <c r="N452" s="19" t="s">
         <v>957</v>
@@ -25450,7 +25453,7 @@
         <v>892</v>
       </c>
       <c r="M453" s="18" t="s">
-        <v>3878</v>
+        <v>3873</v>
       </c>
       <c r="N453" s="19" t="s">
         <v>957</v>
@@ -25479,7 +25482,7 @@
       <c r="J454" s="17"/>
       <c r="K454" s="17"/>
       <c r="L454" s="18" t="s">
-        <v>3726</v>
+        <v>3724</v>
       </c>
       <c r="M454" s="18" t="s">
         <v>960</v>
@@ -25509,7 +25512,7 @@
       <c r="J455" s="17"/>
       <c r="K455" s="17"/>
       <c r="L455" s="18" t="s">
-        <v>3725</v>
+        <v>3723</v>
       </c>
       <c r="M455" s="18" t="s">
         <v>963</v>
@@ -25992,7 +25995,7 @@
         <v>1008</v>
       </c>
       <c r="M471" s="18" t="s">
-        <v>3700</v>
+        <v>3698</v>
       </c>
       <c r="N471" s="19"/>
       <c r="O471" s="19"/>
@@ -26047,7 +26050,7 @@
       <c r="J473" s="17"/>
       <c r="K473" s="17"/>
       <c r="L473" s="18" t="s">
-        <v>3591</v>
+        <v>3589</v>
       </c>
       <c r="M473" s="18"/>
       <c r="N473" s="19"/>
@@ -26079,10 +26082,10 @@
       <c r="J474" s="17"/>
       <c r="K474" s="17"/>
       <c r="L474" s="18" t="s">
-        <v>3701</v>
+        <v>3699</v>
       </c>
       <c r="M474" s="18" t="s">
-        <v>3809</v>
+        <v>3804</v>
       </c>
       <c r="N474" s="19"/>
       <c r="O474" s="19"/>
@@ -26107,10 +26110,10 @@
       <c r="J475" s="17"/>
       <c r="K475" s="17"/>
       <c r="L475" s="18" t="s">
-        <v>3567</v>
+        <v>3440</v>
       </c>
       <c r="M475" s="18" t="s">
-        <v>3729</v>
+        <v>3880</v>
       </c>
       <c r="N475" s="19" t="s">
         <v>957</v>
@@ -26135,11 +26138,11 @@
       <c r="J476" s="17"/>
       <c r="K476" s="17"/>
       <c r="L476" s="18" t="s">
-        <v>3569</v>
+        <v>3879</v>
       </c>
       <c r="M476" s="18"/>
       <c r="N476" s="19" t="s">
-        <v>3570</v>
+        <v>3568</v>
       </c>
       <c r="O476" s="19"/>
       <c r="P476" s="20"/>
@@ -26163,7 +26166,7 @@
       <c r="J477" s="17"/>
       <c r="K477" s="17"/>
       <c r="L477" s="18" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
       <c r="M477" s="18" t="s">
         <v>1013</v>
@@ -26441,7 +26444,9 @@
       <c r="F487" s="17"/>
       <c r="G487" s="17"/>
       <c r="H487" s="17"/>
-      <c r="I487" s="17"/>
+      <c r="I487" s="17">
+        <v>-1</v>
+      </c>
       <c r="J487" s="17"/>
       <c r="K487" s="17"/>
       <c r="L487" s="18" t="s">
@@ -26461,10 +26466,10 @@
         <v>20380</v>
       </c>
       <c r="B488" s="15" t="s">
-        <v>3574</v>
+        <v>3572</v>
       </c>
       <c r="C488" s="16" t="s">
-        <v>3577</v>
+        <v>3575</v>
       </c>
       <c r="D488" s="17"/>
       <c r="E488" s="17"/>
@@ -26480,7 +26485,7 @@
         <v>1011</v>
       </c>
       <c r="M488" s="18" t="s">
-        <v>3575</v>
+        <v>3573</v>
       </c>
       <c r="N488" s="19"/>
       <c r="O488" s="19"/>
@@ -26491,10 +26496,10 @@
         <v>20381</v>
       </c>
       <c r="B489" s="15" t="s">
+        <v>3574</v>
+      </c>
+      <c r="C489" s="16" t="s">
         <v>3576</v>
-      </c>
-      <c r="C489" s="16" t="s">
-        <v>3578</v>
       </c>
       <c r="D489" s="17"/>
       <c r="E489" s="17">
@@ -26512,7 +26517,7 @@
         <v>1011</v>
       </c>
       <c r="M489" s="18" t="s">
-        <v>3579</v>
+        <v>3577</v>
       </c>
       <c r="N489" s="19"/>
       <c r="O489" s="19"/>
@@ -26523,10 +26528,10 @@
         <v>20382</v>
       </c>
       <c r="B490" s="15" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="C490" s="16" t="s">
-        <v>3583</v>
+        <v>3581</v>
       </c>
       <c r="D490" s="17"/>
       <c r="E490" s="17">
@@ -26546,7 +26551,7 @@
         <v>1011</v>
       </c>
       <c r="M490" s="18" t="s">
-        <v>3584</v>
+        <v>3582</v>
       </c>
       <c r="N490" s="19"/>
       <c r="O490" s="19"/>
@@ -26557,10 +26562,10 @@
         <v>20383</v>
       </c>
       <c r="B491" s="15" t="s">
-        <v>3587</v>
+        <v>3585</v>
       </c>
       <c r="C491" s="16" t="s">
-        <v>3588</v>
+        <v>3586</v>
       </c>
       <c r="D491" s="17"/>
       <c r="E491" s="17">
@@ -26578,7 +26583,7 @@
         <v>1011</v>
       </c>
       <c r="M491" s="18" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
       <c r="N491" s="19"/>
       <c r="O491" s="19"/>
@@ -26589,10 +26594,10 @@
         <v>20384</v>
       </c>
       <c r="B492" s="15" t="s">
-        <v>3589</v>
+        <v>3587</v>
       </c>
       <c r="C492" s="16" t="s">
-        <v>3590</v>
+        <v>3588</v>
       </c>
       <c r="D492" s="17"/>
       <c r="E492" s="17"/>
@@ -26606,7 +26611,7 @@
         <v>1011</v>
       </c>
       <c r="M492" s="18" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="N492" s="19"/>
       <c r="O492" s="19"/>
@@ -26781,7 +26786,7 @@
       <c r="J498" s="17"/>
       <c r="K498" s="17"/>
       <c r="L498" s="18" t="s">
-        <v>3796</v>
+        <v>3791</v>
       </c>
       <c r="M498" s="18"/>
       <c r="N498" s="19"/>
@@ -27225,7 +27230,7 @@
       <c r="L513" s="18"/>
       <c r="M513" s="18"/>
       <c r="N513" s="19" t="s">
-        <v>3581</v>
+        <v>3579</v>
       </c>
       <c r="O513" s="19" t="s">
         <v>3514</v>
@@ -27255,7 +27260,7 @@
       <c r="L514" s="18"/>
       <c r="M514" s="18"/>
       <c r="N514" s="19" t="s">
-        <v>3580</v>
+        <v>3578</v>
       </c>
       <c r="O514" s="19"/>
       <c r="P514" s="20"/>
@@ -28256,7 +28261,7 @@
         <v>868</v>
       </c>
       <c r="M551" s="18" t="s">
-        <v>3630</v>
+        <v>3628</v>
       </c>
       <c r="N551" s="19" t="s">
         <v>1156</v>
@@ -28284,7 +28289,7 @@
         <v>60</v>
       </c>
       <c r="M552" s="18" t="s">
-        <v>3631</v>
+        <v>3629</v>
       </c>
       <c r="N552" s="19" t="s">
         <v>1158</v>
@@ -28830,7 +28835,7 @@
         <v>60</v>
       </c>
       <c r="M573" s="18" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="N573" s="19"/>
       <c r="O573" s="19"/>
@@ -29144,7 +29149,7 @@
         <v>868</v>
       </c>
       <c r="M585" s="18" t="s">
-        <v>3626</v>
+        <v>3624</v>
       </c>
       <c r="N585" s="19" t="s">
         <v>1223</v>
@@ -29523,10 +29528,10 @@
         <v>10458</v>
       </c>
       <c r="B600" s="15" t="s">
-        <v>3716</v>
+        <v>3714</v>
       </c>
       <c r="C600" s="16" t="s">
-        <v>3715</v>
+        <v>3713</v>
       </c>
       <c r="D600" s="17"/>
       <c r="E600" s="17"/>
@@ -29541,7 +29546,7 @@
         <v>1251</v>
       </c>
       <c r="N600" s="19" t="s">
-        <v>3810</v>
+        <v>3805</v>
       </c>
       <c r="O600" s="19"/>
       <c r="P600" s="20"/>
@@ -29551,7 +29556,7 @@
         <v>20461</v>
       </c>
       <c r="B601" s="15" t="s">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="C601" s="16"/>
       <c r="D601" s="17"/>
@@ -29625,7 +29630,7 @@
         <v>10460</v>
       </c>
       <c r="B604" s="15" t="s">
-        <v>3649</v>
+        <v>3647</v>
       </c>
       <c r="C604" s="16"/>
       <c r="D604" s="17"/>
@@ -30618,7 +30623,7 @@
         <v>892</v>
       </c>
       <c r="M641" s="18" t="s">
-        <v>3655</v>
+        <v>3653</v>
       </c>
       <c r="N641" s="19" t="s">
         <v>1338</v>
@@ -31662,10 +31667,10 @@
         <v>1360</v>
       </c>
       <c r="M680" s="18" t="s">
-        <v>3599</v>
+        <v>3597</v>
       </c>
       <c r="N680" s="19" t="s">
-        <v>3598</v>
+        <v>3596</v>
       </c>
       <c r="O680" s="19"/>
       <c r="P680" s="20"/>
@@ -31691,7 +31696,7 @@
       <c r="L681" s="18"/>
       <c r="M681" s="18"/>
       <c r="N681" s="19" t="s">
-        <v>3627</v>
+        <v>3625</v>
       </c>
       <c r="O681" s="19"/>
       <c r="P681" s="20"/>
@@ -32651,7 +32656,7 @@
       <c r="J717" s="17"/>
       <c r="K717" s="17"/>
       <c r="L717" s="18" t="s">
-        <v>3594</v>
+        <v>3592</v>
       </c>
       <c r="M717" s="18" t="s">
         <v>1500</v>
@@ -32723,7 +32728,7 @@
         <v>20567</v>
       </c>
       <c r="B720" s="15" t="s">
-        <v>3593</v>
+        <v>3591</v>
       </c>
       <c r="C720" s="16"/>
       <c r="D720" s="17"/>
@@ -32735,13 +32740,13 @@
       <c r="J720" s="17"/>
       <c r="K720" s="17"/>
       <c r="L720" s="18" t="s">
-        <v>3594</v>
+        <v>3592</v>
       </c>
       <c r="M720" s="18" t="s">
-        <v>3597</v>
+        <v>3595</v>
       </c>
       <c r="N720" s="19" t="s">
-        <v>3595</v>
+        <v>3593</v>
       </c>
       <c r="O720" s="19"/>
       <c r="P720" s="20"/>
@@ -33031,7 +33036,7 @@
         <v>1529</v>
       </c>
       <c r="N731" s="19" t="s">
-        <v>3592</v>
+        <v>3590</v>
       </c>
       <c r="O731" s="19"/>
       <c r="P731" s="20"/>
@@ -33082,7 +33087,7 @@
         <v>1360</v>
       </c>
       <c r="M733" s="18" t="s">
-        <v>3596</v>
+        <v>3594</v>
       </c>
       <c r="N733" s="19" t="s">
         <v>1532</v>
@@ -34108,7 +34113,7 @@
         <v>1605</v>
       </c>
       <c r="M772" s="18" t="s">
-        <v>3606</v>
+        <v>3604</v>
       </c>
       <c r="N772" s="19"/>
       <c r="O772" s="19"/>
@@ -34136,7 +34141,7 @@
         <v>1557</v>
       </c>
       <c r="M773" s="18" t="s">
-        <v>3607</v>
+        <v>3605</v>
       </c>
       <c r="N773" s="19"/>
       <c r="O773" s="19"/>
@@ -35145,7 +35150,7 @@
         <v>10649</v>
       </c>
       <c r="B812" s="15" t="s">
-        <v>3696</v>
+        <v>3694</v>
       </c>
       <c r="C812" s="16"/>
       <c r="D812" s="17"/>
@@ -35171,7 +35176,7 @@
         <v>10650</v>
       </c>
       <c r="B813" s="15" t="s">
-        <v>3695</v>
+        <v>3693</v>
       </c>
       <c r="C813" s="16"/>
       <c r="D813" s="17"/>
@@ -35197,7 +35202,7 @@
         <v>10651</v>
       </c>
       <c r="B814" s="15" t="s">
-        <v>3697</v>
+        <v>3695</v>
       </c>
       <c r="C814" s="16"/>
       <c r="D814" s="17"/>
@@ -35223,7 +35228,7 @@
         <v>10652</v>
       </c>
       <c r="B815" s="15" t="s">
-        <v>3698</v>
+        <v>3696</v>
       </c>
       <c r="C815" s="16"/>
       <c r="D815" s="17"/>
@@ -35249,7 +35254,7 @@
         <v>10653</v>
       </c>
       <c r="B816" s="15" t="s">
-        <v>3699</v>
+        <v>3697</v>
       </c>
       <c r="C816" s="16"/>
       <c r="D816" s="17"/>
@@ -36112,7 +36117,7 @@
         <v>1717</v>
       </c>
       <c r="M848" s="18" t="s">
-        <v>3815</v>
+        <v>3810</v>
       </c>
       <c r="N848" s="19"/>
       <c r="O848" s="19"/>
@@ -36138,7 +36143,7 @@
         <v>1760</v>
       </c>
       <c r="M849" s="18" t="s">
-        <v>3816</v>
+        <v>3811</v>
       </c>
       <c r="N849" s="19"/>
       <c r="O849" s="19"/>
@@ -36474,7 +36479,7 @@
         <v>1790</v>
       </c>
       <c r="M862" s="18" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
       <c r="N862" s="19"/>
       <c r="O862" s="19"/>
@@ -36500,7 +36505,7 @@
         <v>1347</v>
       </c>
       <c r="M863" s="18" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="N863" s="19"/>
       <c r="O863" s="19"/>
@@ -38387,7 +38392,7 @@
         <v>20770</v>
       </c>
       <c r="B935" s="15" t="s">
-        <v>3652</v>
+        <v>3650</v>
       </c>
       <c r="C935" s="16"/>
       <c r="D935" s="17"/>
@@ -38399,10 +38404,10 @@
       <c r="J935" s="17"/>
       <c r="K935" s="17"/>
       <c r="L935" s="18" t="s">
-        <v>3653</v>
+        <v>3651</v>
       </c>
       <c r="M935" s="18" t="s">
-        <v>3654</v>
+        <v>3652</v>
       </c>
       <c r="N935" s="19"/>
       <c r="O935" s="19"/>
@@ -38413,7 +38418,7 @@
         <v>10770</v>
       </c>
       <c r="B936" s="15" t="s">
-        <v>3651</v>
+        <v>3649</v>
       </c>
       <c r="C936" s="16"/>
       <c r="D936" s="17"/>
@@ -39558,7 +39563,7 @@
         <v>1347</v>
       </c>
       <c r="M978" s="18" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
       <c r="N978" s="19"/>
       <c r="O978" s="19"/>
@@ -40682,7 +40687,7 @@
         <v>2104</v>
       </c>
       <c r="M1020" s="18" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
       <c r="N1020" s="19"/>
       <c r="O1020" s="19"/>
@@ -41249,7 +41254,7 @@
         <v>10876</v>
       </c>
       <c r="B1042" s="15" t="s">
-        <v>3692</v>
+        <v>3690</v>
       </c>
       <c r="C1042" s="16"/>
       <c r="D1042" s="17"/>
@@ -45034,7 +45039,7 @@
         <v>2307</v>
       </c>
       <c r="M1184" s="18" t="s">
-        <v>3681</v>
+        <v>3679</v>
       </c>
       <c r="N1184" s="19"/>
       <c r="O1184" s="19"/>
@@ -45045,7 +45050,7 @@
         <v>21015</v>
       </c>
       <c r="B1185" s="15" t="s">
-        <v>3680</v>
+        <v>3678</v>
       </c>
       <c r="C1185" s="16"/>
       <c r="D1185" s="17"/>
@@ -45060,7 +45065,7 @@
         <v>2307</v>
       </c>
       <c r="M1185" s="18" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
       <c r="N1185" s="19"/>
       <c r="O1185" s="19"/>
@@ -45086,7 +45091,7 @@
         <v>2307</v>
       </c>
       <c r="M1186" s="18" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
       <c r="N1186" s="19"/>
       <c r="O1186" s="19"/>
@@ -45112,7 +45117,7 @@
         <v>2307</v>
       </c>
       <c r="M1187" s="18" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
       <c r="N1187" s="19"/>
       <c r="O1187" s="19"/>
@@ -45138,7 +45143,7 @@
         <v>2307</v>
       </c>
       <c r="M1188" s="18" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
       <c r="N1188" s="19"/>
       <c r="O1188" s="19"/>
@@ -45164,7 +45169,7 @@
         <v>2307</v>
       </c>
       <c r="M1189" s="18" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
       <c r="N1189" s="19"/>
       <c r="O1189" s="19"/>
@@ -45190,7 +45195,7 @@
         <v>2307</v>
       </c>
       <c r="M1190" s="18" t="s">
-        <v>3682</v>
+        <v>3680</v>
       </c>
       <c r="N1190" s="19"/>
       <c r="O1190" s="19"/>
@@ -47214,7 +47219,7 @@
         <v>2636</v>
       </c>
       <c r="M1267" s="18" t="s">
-        <v>3608</v>
+        <v>3606</v>
       </c>
       <c r="N1267" s="19"/>
       <c r="O1267" s="19"/>
@@ -49250,7 +49255,7 @@
         <v>2058</v>
       </c>
       <c r="M1345" s="18" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
       <c r="N1345" s="19"/>
       <c r="O1345" s="19"/>
@@ -52085,13 +52090,13 @@
       <c r="J1452" s="17"/>
       <c r="K1452" s="17"/>
       <c r="L1452" s="18" t="s">
-        <v>3702</v>
+        <v>3700</v>
       </c>
       <c r="M1452" s="18" t="s">
         <v>3022</v>
       </c>
       <c r="N1452" s="19" t="s">
-        <v>3703</v>
+        <v>3701</v>
       </c>
       <c r="O1452" s="19"/>
       <c r="P1452" s="20"/>
@@ -52978,7 +52983,7 @@
         <v>2986</v>
       </c>
       <c r="M1485" s="18" t="s">
-        <v>3625</v>
+        <v>3623</v>
       </c>
       <c r="N1485" s="19"/>
       <c r="O1485" s="19"/>
@@ -54416,7 +54421,7 @@
         <v>3192</v>
       </c>
       <c r="M1538" s="18" t="s">
-        <v>3722</v>
+        <v>3720</v>
       </c>
       <c r="N1538" s="19"/>
       <c r="O1538" s="19"/>
@@ -54439,7 +54444,7 @@
       <c r="J1539" s="17"/>
       <c r="K1539" s="17"/>
       <c r="L1539" s="18" t="s">
-        <v>3721</v>
+        <v>3719</v>
       </c>
       <c r="M1539" s="18" t="s">
         <v>3539</v>
@@ -56531,7 +56536,7 @@
         <v>11430</v>
       </c>
       <c r="B1619" s="15" t="s">
-        <v>3704</v>
+        <v>3702</v>
       </c>
       <c r="C1619" s="16"/>
       <c r="D1619" s="17"/>
@@ -57444,7 +57449,7 @@
         <v>3392</v>
       </c>
       <c r="M1653" s="18" t="s">
-        <v>3637</v>
+        <v>3635</v>
       </c>
       <c r="N1653" s="19"/>
       <c r="O1653" s="19"/>
@@ -57683,7 +57688,7 @@
         <v>11470</v>
       </c>
       <c r="B1662" s="15" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
       <c r="C1662" s="16"/>
       <c r="D1662" s="17"/>
@@ -57696,7 +57701,7 @@
       <c r="K1662" s="17"/>
       <c r="L1662" s="18"/>
       <c r="M1662" s="18" t="s">
-        <v>3638</v>
+        <v>3636</v>
       </c>
       <c r="N1662" s="19"/>
       <c r="O1662" s="19"/>
@@ -57707,7 +57712,7 @@
         <v>11471</v>
       </c>
       <c r="B1663" s="15" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="C1663" s="16"/>
       <c r="D1663" s="17"/>
@@ -57722,7 +57727,7 @@
         <v>2058</v>
       </c>
       <c r="M1663" s="18" t="s">
-        <v>3613</v>
+        <v>3611</v>
       </c>
       <c r="N1663" s="19"/>
       <c r="O1663" s="19"/>
@@ -57733,7 +57738,7 @@
         <v>11472</v>
       </c>
       <c r="B1664" s="15" t="s">
-        <v>3612</v>
+        <v>3610</v>
       </c>
       <c r="C1664" s="16"/>
       <c r="D1664" s="17"/>
@@ -57748,7 +57753,7 @@
         <v>2058</v>
       </c>
       <c r="M1664" s="18" t="s">
-        <v>3614</v>
+        <v>3612</v>
       </c>
       <c r="N1664" s="19"/>
       <c r="O1664" s="19"/>
@@ -57759,7 +57764,7 @@
         <v>11473</v>
       </c>
       <c r="B1665" s="15" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
       <c r="C1665" s="16"/>
       <c r="D1665" s="17"/>
@@ -57774,7 +57779,7 @@
         <v>2058</v>
       </c>
       <c r="M1665" s="18" t="s">
-        <v>3615</v>
+        <v>3613</v>
       </c>
       <c r="N1665" s="19"/>
       <c r="O1665" s="19"/>
@@ -57785,7 +57790,7 @@
         <v>11474</v>
       </c>
       <c r="B1666" s="15" t="s">
-        <v>3624</v>
+        <v>3622</v>
       </c>
       <c r="C1666" s="16"/>
       <c r="D1666" s="17"/>
@@ -57798,7 +57803,7 @@
       <c r="K1666" s="17"/>
       <c r="L1666" s="18"/>
       <c r="M1666" s="18" t="s">
-        <v>3616</v>
+        <v>3614</v>
       </c>
       <c r="N1666" s="19"/>
       <c r="O1666" s="19"/>
@@ -57809,7 +57814,7 @@
         <v>11475</v>
       </c>
       <c r="B1667" s="15" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
       <c r="C1667" s="16"/>
       <c r="D1667" s="17"/>
@@ -57823,10 +57828,10 @@
       <c r="J1667" s="17"/>
       <c r="K1667" s="17"/>
       <c r="L1667" s="18" t="s">
-        <v>3629</v>
+        <v>3627</v>
       </c>
       <c r="M1667" s="18" t="s">
-        <v>3617</v>
+        <v>3615</v>
       </c>
       <c r="N1667" s="19"/>
       <c r="O1667" s="19"/>
@@ -57837,7 +57842,7 @@
         <v>11476</v>
       </c>
       <c r="B1668" s="15" t="s">
-        <v>3639</v>
+        <v>3637</v>
       </c>
       <c r="C1668" s="16"/>
       <c r="D1668" s="17"/>
@@ -57850,7 +57855,7 @@
       <c r="K1668" s="17"/>
       <c r="L1668" s="18"/>
       <c r="M1668" s="18" t="s">
-        <v>3688</v>
+        <v>3686</v>
       </c>
       <c r="N1668" s="19"/>
       <c r="O1668" s="19"/>
@@ -57861,7 +57866,7 @@
         <v>11477</v>
       </c>
       <c r="B1669" s="15" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
       <c r="C1669" s="16"/>
       <c r="D1669" s="17"/>
@@ -57873,10 +57878,10 @@
       <c r="J1669" s="17"/>
       <c r="K1669" s="17"/>
       <c r="L1669" s="18" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="M1669" s="18" t="s">
-        <v>3618</v>
+        <v>3616</v>
       </c>
       <c r="N1669" s="19"/>
       <c r="O1669" s="19"/>
@@ -57887,7 +57892,7 @@
         <v>11478</v>
       </c>
       <c r="B1670" s="15" t="s">
-        <v>3642</v>
+        <v>3640</v>
       </c>
       <c r="C1670" s="16"/>
       <c r="D1670" s="17"/>
@@ -57899,10 +57904,10 @@
       <c r="J1670" s="17"/>
       <c r="K1670" s="17"/>
       <c r="L1670" s="18" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="M1670" s="18" t="s">
-        <v>3619</v>
+        <v>3617</v>
       </c>
       <c r="N1670" s="19"/>
       <c r="O1670" s="19"/>
@@ -57913,7 +57918,7 @@
         <v>11479</v>
       </c>
       <c r="B1671" s="15" t="s">
-        <v>3643</v>
+        <v>3641</v>
       </c>
       <c r="C1671" s="16"/>
       <c r="D1671" s="17"/>
@@ -57928,7 +57933,7 @@
         <v>2058</v>
       </c>
       <c r="M1671" s="18" t="s">
-        <v>3620</v>
+        <v>3618</v>
       </c>
       <c r="N1671" s="19"/>
       <c r="O1671" s="19"/>
@@ -57939,7 +57944,7 @@
         <v>11480</v>
       </c>
       <c r="B1672" s="15" t="s">
-        <v>3644</v>
+        <v>3642</v>
       </c>
       <c r="C1672" s="16"/>
       <c r="D1672" s="17"/>
@@ -57952,7 +57957,7 @@
       <c r="K1672" s="17"/>
       <c r="L1672" s="18"/>
       <c r="M1672" s="18" t="s">
-        <v>3621</v>
+        <v>3619</v>
       </c>
       <c r="N1672" s="19"/>
       <c r="O1672" s="19"/>
@@ -57963,7 +57968,7 @@
         <v>11481</v>
       </c>
       <c r="B1673" s="15" t="s">
-        <v>3645</v>
+        <v>3643</v>
       </c>
       <c r="C1673" s="16"/>
       <c r="D1673" s="17"/>
@@ -57978,7 +57983,7 @@
         <v>2058</v>
       </c>
       <c r="M1673" s="18" t="s">
-        <v>3622</v>
+        <v>3620</v>
       </c>
       <c r="N1673" s="19"/>
       <c r="O1673" s="19"/>
@@ -57989,7 +57994,7 @@
         <v>11482</v>
       </c>
       <c r="B1674" s="15" t="s">
-        <v>3646</v>
+        <v>3644</v>
       </c>
       <c r="C1674" s="16"/>
       <c r="D1674" s="17"/>
@@ -58001,10 +58006,10 @@
       <c r="J1674" s="17"/>
       <c r="K1674" s="17"/>
       <c r="L1674" s="18" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="M1674" s="18" t="s">
-        <v>3689</v>
+        <v>3687</v>
       </c>
       <c r="N1674" s="19"/>
       <c r="O1674" s="19"/>
@@ -58015,7 +58020,7 @@
         <v>11483</v>
       </c>
       <c r="B1675" s="15" t="s">
-        <v>3647</v>
+        <v>3645</v>
       </c>
       <c r="C1675" s="16"/>
       <c r="D1675" s="17"/>
@@ -58027,10 +58032,10 @@
       <c r="J1675" s="17"/>
       <c r="K1675" s="17"/>
       <c r="L1675" s="18" t="s">
+        <v>3646</v>
+      </c>
+      <c r="M1675" s="18" t="s">
         <v>3648</v>
-      </c>
-      <c r="M1675" s="18" t="s">
-        <v>3650</v>
       </c>
       <c r="N1675" s="19"/>
       <c r="O1675" s="19"/>
@@ -58041,7 +58046,7 @@
         <v>11484</v>
       </c>
       <c r="B1676" s="15" t="s">
-        <v>3656</v>
+        <v>3654</v>
       </c>
       <c r="C1676" s="16"/>
       <c r="D1676" s="17"/>
@@ -58054,7 +58059,7 @@
       <c r="K1676" s="17"/>
       <c r="L1676" s="18"/>
       <c r="M1676" s="18" t="s">
-        <v>3667</v>
+        <v>3665</v>
       </c>
       <c r="N1676" s="19"/>
       <c r="O1676" s="19"/>
@@ -58065,7 +58070,7 @@
         <v>11485</v>
       </c>
       <c r="B1677" s="15" t="s">
-        <v>3657</v>
+        <v>3655</v>
       </c>
       <c r="C1677" s="16"/>
       <c r="D1677" s="17"/>
@@ -58078,7 +58083,7 @@
       <c r="K1677" s="17"/>
       <c r="L1677" s="18"/>
       <c r="M1677" s="18" t="s">
-        <v>3668</v>
+        <v>3666</v>
       </c>
       <c r="N1677" s="19"/>
       <c r="O1677" s="19"/>
@@ -58089,7 +58094,7 @@
         <v>11486</v>
       </c>
       <c r="B1678" s="15" t="s">
-        <v>3714</v>
+        <v>3712</v>
       </c>
       <c r="C1678" s="16"/>
       <c r="D1678" s="17"/>
@@ -58104,7 +58109,7 @@
         <v>2058</v>
       </c>
       <c r="M1678" s="18" t="s">
-        <v>3669</v>
+        <v>3667</v>
       </c>
       <c r="N1678" s="19"/>
       <c r="O1678" s="19"/>
@@ -58115,7 +58120,7 @@
         <v>11487</v>
       </c>
       <c r="B1679" s="15" t="s">
-        <v>3658</v>
+        <v>3656</v>
       </c>
       <c r="C1679" s="16"/>
       <c r="D1679" s="17"/>
@@ -58128,7 +58133,7 @@
       <c r="K1679" s="17"/>
       <c r="L1679" s="18"/>
       <c r="M1679" s="18" t="s">
-        <v>3670</v>
+        <v>3668</v>
       </c>
       <c r="N1679" s="19"/>
       <c r="O1679" s="19"/>
@@ -58139,7 +58144,7 @@
         <v>11488</v>
       </c>
       <c r="B1680" s="15" t="s">
-        <v>3659</v>
+        <v>3657</v>
       </c>
       <c r="C1680" s="16"/>
       <c r="D1680" s="17"/>
@@ -58151,10 +58156,10 @@
       <c r="J1680" s="17"/>
       <c r="K1680" s="17"/>
       <c r="L1680" s="18" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="M1680" s="18" t="s">
-        <v>3671</v>
+        <v>3669</v>
       </c>
       <c r="N1680" s="19"/>
       <c r="O1680" s="19"/>
@@ -58165,7 +58170,7 @@
         <v>11489</v>
       </c>
       <c r="B1681" s="15" t="s">
-        <v>3660</v>
+        <v>3658</v>
       </c>
       <c r="C1681" s="16"/>
       <c r="D1681" s="17"/>
@@ -58178,7 +58183,7 @@
       <c r="K1681" s="17"/>
       <c r="L1681" s="18"/>
       <c r="M1681" s="18" t="s">
-        <v>3672</v>
+        <v>3670</v>
       </c>
       <c r="N1681" s="19"/>
       <c r="O1681" s="19"/>
@@ -58189,7 +58194,7 @@
         <v>11490</v>
       </c>
       <c r="B1682" s="15" t="s">
-        <v>3661</v>
+        <v>3659</v>
       </c>
       <c r="C1682" s="16"/>
       <c r="D1682" s="17"/>
@@ -58204,7 +58209,7 @@
         <v>2058</v>
       </c>
       <c r="M1682" s="18" t="s">
-        <v>3673</v>
+        <v>3671</v>
       </c>
       <c r="N1682" s="19"/>
       <c r="O1682" s="19"/>
@@ -58215,7 +58220,7 @@
         <v>11491</v>
       </c>
       <c r="B1683" s="15" t="s">
-        <v>3662</v>
+        <v>3660</v>
       </c>
       <c r="C1683" s="16"/>
       <c r="D1683" s="17"/>
@@ -58227,10 +58232,10 @@
       <c r="J1683" s="17"/>
       <c r="K1683" s="17"/>
       <c r="L1683" s="18" t="s">
-        <v>3679</v>
+        <v>3677</v>
       </c>
       <c r="M1683" s="18" t="s">
-        <v>3674</v>
+        <v>3672</v>
       </c>
       <c r="N1683" s="19"/>
       <c r="O1683" s="19"/>
@@ -58241,7 +58246,7 @@
         <v>11492</v>
       </c>
       <c r="B1684" s="15" t="s">
-        <v>3666</v>
+        <v>3664</v>
       </c>
       <c r="C1684" s="16"/>
       <c r="D1684" s="17"/>
@@ -58258,7 +58263,7 @@
         <v>2058</v>
       </c>
       <c r="M1684" s="18" t="s">
-        <v>3675</v>
+        <v>3673</v>
       </c>
       <c r="N1684" s="19"/>
       <c r="O1684" s="19"/>
@@ -58269,7 +58274,7 @@
         <v>11493</v>
       </c>
       <c r="B1685" s="15" t="s">
-        <v>3663</v>
+        <v>3661</v>
       </c>
       <c r="C1685" s="16"/>
       <c r="D1685" s="17"/>
@@ -58281,10 +58286,10 @@
       <c r="J1685" s="17"/>
       <c r="K1685" s="17"/>
       <c r="L1685" s="18" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="M1685" s="18" t="s">
-        <v>3676</v>
+        <v>3674</v>
       </c>
       <c r="N1685" s="19"/>
       <c r="O1685" s="19"/>
@@ -58295,7 +58300,7 @@
         <v>11494</v>
       </c>
       <c r="B1686" s="15" t="s">
-        <v>3664</v>
+        <v>3662</v>
       </c>
       <c r="C1686" s="16"/>
       <c r="D1686" s="17"/>
@@ -58307,10 +58312,10 @@
       <c r="J1686" s="17"/>
       <c r="K1686" s="17"/>
       <c r="L1686" s="18" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="M1686" s="18" t="s">
-        <v>3677</v>
+        <v>3675</v>
       </c>
       <c r="N1686" s="19"/>
       <c r="O1686" s="19"/>
@@ -58321,7 +58326,7 @@
         <v>11495</v>
       </c>
       <c r="B1687" s="15" t="s">
-        <v>3665</v>
+        <v>3663</v>
       </c>
       <c r="C1687" s="16"/>
       <c r="D1687" s="17"/>
@@ -58336,7 +58341,7 @@
         <v>2058</v>
       </c>
       <c r="M1687" s="18" t="s">
-        <v>3678</v>
+        <v>3676</v>
       </c>
       <c r="N1687" s="19"/>
       <c r="O1687" s="19"/>
@@ -58347,7 +58352,7 @@
         <v>11496</v>
       </c>
       <c r="B1688" s="15" t="s">
-        <v>3683</v>
+        <v>3681</v>
       </c>
       <c r="C1688" s="16"/>
       <c r="D1688" s="17"/>
@@ -58359,10 +58364,10 @@
       <c r="J1688" s="17"/>
       <c r="K1688" s="17"/>
       <c r="L1688" s="18" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="M1688" s="18" t="s">
-        <v>3684</v>
+        <v>3682</v>
       </c>
       <c r="N1688" s="19"/>
       <c r="O1688" s="19"/>
@@ -58373,7 +58378,7 @@
         <v>11497</v>
       </c>
       <c r="B1689" s="15" t="s">
-        <v>3685</v>
+        <v>3683</v>
       </c>
       <c r="C1689" s="16"/>
       <c r="D1689" s="17"/>
@@ -58386,7 +58391,7 @@
       <c r="K1689" s="17"/>
       <c r="L1689" s="18"/>
       <c r="M1689" s="18" t="s">
-        <v>3690</v>
+        <v>3688</v>
       </c>
       <c r="N1689" s="19"/>
       <c r="O1689" s="19"/>
@@ -58397,7 +58402,7 @@
         <v>11498</v>
       </c>
       <c r="B1690" s="15" t="s">
-        <v>3686</v>
+        <v>3684</v>
       </c>
       <c r="C1690" s="16"/>
       <c r="D1690" s="17"/>
@@ -58409,10 +58414,10 @@
       <c r="J1690" s="17"/>
       <c r="K1690" s="17"/>
       <c r="L1690" s="18" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="M1690" s="18" t="s">
-        <v>3687</v>
+        <v>3685</v>
       </c>
       <c r="N1690" s="19"/>
       <c r="O1690" s="19"/>
@@ -58423,7 +58428,7 @@
         <v>11499</v>
       </c>
       <c r="B1691" s="15" t="s">
-        <v>3706</v>
+        <v>3704</v>
       </c>
       <c r="C1691" s="16"/>
       <c r="D1691" s="17"/>
@@ -58435,10 +58440,10 @@
       <c r="J1691" s="17"/>
       <c r="K1691" s="17"/>
       <c r="L1691" s="18" t="s">
-        <v>3708</v>
+        <v>3706</v>
       </c>
       <c r="M1691" s="18" t="s">
-        <v>3705</v>
+        <v>3703</v>
       </c>
       <c r="N1691" s="19"/>
       <c r="O1691" s="19"/>
@@ -58449,7 +58454,7 @@
         <v>11500</v>
       </c>
       <c r="B1692" s="15" t="s">
-        <v>3707</v>
+        <v>3705</v>
       </c>
       <c r="C1692" s="16"/>
       <c r="D1692" s="17"/>
@@ -58463,10 +58468,10 @@
       <c r="J1692" s="17"/>
       <c r="K1692" s="17"/>
       <c r="L1692" s="18" t="s">
-        <v>3709</v>
+        <v>3707</v>
       </c>
       <c r="M1692" s="18" t="s">
-        <v>3710</v>
+        <v>3708</v>
       </c>
       <c r="N1692" s="19"/>
       <c r="O1692" s="19"/>
@@ -58477,7 +58482,7 @@
         <v>11501</v>
       </c>
       <c r="B1693" s="15" t="s">
-        <v>3711</v>
+        <v>3709</v>
       </c>
       <c r="C1693" s="16"/>
       <c r="D1693" s="17"/>
@@ -58489,10 +58494,10 @@
       <c r="J1693" s="17"/>
       <c r="K1693" s="17"/>
       <c r="L1693" s="18" t="s">
-        <v>3713</v>
+        <v>3711</v>
       </c>
       <c r="M1693" s="18" t="s">
-        <v>3712</v>
+        <v>3710</v>
       </c>
       <c r="N1693" s="19"/>
       <c r="O1693" s="19"/>
@@ -58503,7 +58508,7 @@
         <v>11502</v>
       </c>
       <c r="B1694" s="15" t="s">
-        <v>3812</v>
+        <v>3807</v>
       </c>
       <c r="C1694" s="16"/>
       <c r="D1694" s="17"/>
@@ -58515,10 +58520,10 @@
       <c r="J1694" s="17"/>
       <c r="K1694" s="17"/>
       <c r="L1694" s="18" t="s">
-        <v>3708</v>
+        <v>3706</v>
       </c>
       <c r="M1694" s="18" t="s">
-        <v>3813</v>
+        <v>3808</v>
       </c>
       <c r="N1694" s="19"/>
       <c r="O1694" s="19"/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1812C99F-1B1D-4310-B7A8-2FA5A6410837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A5400F-EE75-4394-8622-0CAD06D55A70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5233" uniqueCount="3931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5233" uniqueCount="3932">
   <si>
     <t>$id</t>
   </si>
@@ -12191,10 +12191,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>EVT?[40078]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>你尝试夺舍一位无垢筑基修士，被反杀。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12283,10 +12279,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>EVT?[40083]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>你尝试夺舍一位净息修士，成功了。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12324,6 +12316,18 @@
   </si>
   <si>
     <t>【绝密消息】你看了一本古代的玄幻小说，里面达到化神期需要悟透混沌大道。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[40075,40084]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[40078,40084]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[40083,40084]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -12923,10 +12927,10 @@
   <dimension ref="A1:P1766"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C958" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L461" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C966" sqref="C966"/>
+      <selection pane="bottomRight" activeCell="M473" sqref="M473"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -23880,7 +23884,7 @@
         <v>3701</v>
       </c>
       <c r="M391" s="18" t="s">
-        <v>3924</v>
+        <v>3922</v>
       </c>
       <c r="N391" s="19"/>
       <c r="O391" s="19"/>
@@ -23905,7 +23909,7 @@
       <c r="J392" s="17"/>
       <c r="K392" s="17"/>
       <c r="L392" s="18" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="M392" s="18" t="s">
         <v>3717</v>
@@ -24017,7 +24021,7 @@
       <c r="J396" s="17"/>
       <c r="K396" s="17"/>
       <c r="L396" s="18" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="M396" s="18" t="s">
         <v>3718</v>
@@ -24045,7 +24049,7 @@
       <c r="J397" s="17"/>
       <c r="K397" s="17"/>
       <c r="L397" s="18" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="M397" s="18" t="s">
         <v>3718</v>
@@ -24075,7 +24079,7 @@
       <c r="J398" s="17"/>
       <c r="K398" s="17"/>
       <c r="L398" s="18" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="M398" s="18" t="s">
         <v>3717</v>
@@ -24813,7 +24817,7 @@
       <c r="J423" s="17"/>
       <c r="K423" s="17"/>
       <c r="L423" s="18" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="M423" s="18" t="s">
         <v>3800</v>
@@ -25047,7 +25051,7 @@
       <c r="J431" s="17"/>
       <c r="K431" s="17"/>
       <c r="L431" s="18" t="s">
-        <v>3923</v>
+        <v>3921</v>
       </c>
       <c r="M431" s="18" t="s">
         <v>3832</v>
@@ -25928,7 +25932,7 @@
         <v>3884</v>
       </c>
       <c r="M463" s="18" t="s">
-        <v>3888</v>
+        <v>3929</v>
       </c>
       <c r="N463" s="19"/>
       <c r="O463" s="19"/>
@@ -25956,7 +25960,7 @@
         <v>3884</v>
       </c>
       <c r="M464" s="18" t="s">
-        <v>3888</v>
+        <v>3929</v>
       </c>
       <c r="N464" s="19"/>
       <c r="O464" s="19"/>
@@ -25982,7 +25986,7 @@
         <v>3886</v>
       </c>
       <c r="M465" s="18" t="s">
-        <v>3888</v>
+        <v>3929</v>
       </c>
       <c r="N465" s="19"/>
       <c r="O465" s="19"/>
@@ -26010,7 +26014,7 @@
         <v>3888</v>
       </c>
       <c r="M466" s="18" t="s">
-        <v>3896</v>
+        <v>3930</v>
       </c>
       <c r="N466" s="19"/>
       <c r="O466" s="19"/>
@@ -26040,7 +26044,7 @@
         <v>3888</v>
       </c>
       <c r="M467" s="18" t="s">
-        <v>3897</v>
+        <v>3930</v>
       </c>
       <c r="N467" s="19"/>
       <c r="O467" s="19"/>
@@ -26068,7 +26072,7 @@
         <v>3894</v>
       </c>
       <c r="M468" s="18" t="s">
-        <v>3897</v>
+        <v>3930</v>
       </c>
       <c r="N468" s="19"/>
       <c r="O468" s="19"/>
@@ -26091,10 +26095,10 @@
       <c r="J469" s="17"/>
       <c r="K469" s="17"/>
       <c r="L469" s="18" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="M469" s="18" t="s">
-        <v>3920</v>
+        <v>3931</v>
       </c>
       <c r="N469" s="19"/>
       <c r="O469" s="19"/>
@@ -26105,7 +26109,7 @@
         <v>40080</v>
       </c>
       <c r="B470" s="15" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="C470" s="16"/>
       <c r="D470" s="17"/>
@@ -26117,13 +26121,13 @@
       <c r="J470" s="17"/>
       <c r="K470" s="17"/>
       <c r="L470" s="18" t="s">
+        <v>3900</v>
+      </c>
+      <c r="M470" s="18" t="s">
+        <v>3931</v>
+      </c>
+      <c r="N470" s="19" t="s">
         <v>3901</v>
-      </c>
-      <c r="M470" s="18" t="s">
-        <v>3920</v>
-      </c>
-      <c r="N470" s="19" t="s">
-        <v>3902</v>
       </c>
       <c r="O470" s="19"/>
       <c r="P470" s="20"/>
@@ -26133,7 +26137,7 @@
         <v>40081</v>
       </c>
       <c r="B471" s="15" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="C471" s="16"/>
       <c r="D471" s="17"/>
@@ -26145,13 +26149,13 @@
       <c r="J471" s="17"/>
       <c r="K471" s="17"/>
       <c r="L471" s="18" t="s">
+        <v>3900</v>
+      </c>
+      <c r="M471" s="18" t="s">
+        <v>3931</v>
+      </c>
+      <c r="N471" s="19" t="s">
         <v>3901</v>
-      </c>
-      <c r="M471" s="18" t="s">
-        <v>3920</v>
-      </c>
-      <c r="N471" s="19" t="s">
-        <v>3902</v>
       </c>
       <c r="O471" s="19"/>
       <c r="P471" s="20"/>
@@ -26161,7 +26165,7 @@
         <v>40082</v>
       </c>
       <c r="B472" s="15" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="C472" s="16"/>
       <c r="D472" s="17"/>
@@ -26173,13 +26177,13 @@
       <c r="J472" s="17"/>
       <c r="K472" s="17"/>
       <c r="L472" s="18" t="s">
+        <v>3900</v>
+      </c>
+      <c r="M472" s="18" t="s">
+        <v>3931</v>
+      </c>
+      <c r="N472" s="19" t="s">
         <v>3901</v>
-      </c>
-      <c r="M472" s="18" t="s">
-        <v>3920</v>
-      </c>
-      <c r="N472" s="19" t="s">
-        <v>3902</v>
       </c>
       <c r="O472" s="19"/>
       <c r="P472" s="20"/>
@@ -26189,7 +26193,7 @@
         <v>40083</v>
       </c>
       <c r="B473" s="15" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="C473" s="16"/>
       <c r="D473" s="17"/>
@@ -26201,13 +26205,13 @@
       <c r="J473" s="17"/>
       <c r="K473" s="17"/>
       <c r="L473" s="18" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="M473" s="18" t="s">
-        <v>3920</v>
+        <v>3931</v>
       </c>
       <c r="N473" s="19" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="O473" s="19"/>
       <c r="P473" s="20"/>
@@ -26217,7 +26221,7 @@
         <v>40084</v>
       </c>
       <c r="B474" s="15" t="s">
-        <v>3921</v>
+        <v>3919</v>
       </c>
       <c r="C474" s="16"/>
       <c r="D474" s="17"/>
@@ -26232,10 +26236,10 @@
         <v>3888</v>
       </c>
       <c r="M474" s="18" t="s">
-        <v>3896</v>
+        <v>3930</v>
       </c>
       <c r="N474" s="19" t="s">
-        <v>3922</v>
+        <v>3920</v>
       </c>
       <c r="O474" s="19"/>
       <c r="P474" s="20"/>
@@ -26262,7 +26266,7 @@
         <v>889</v>
       </c>
       <c r="M475" s="18" t="s">
-        <v>3925</v>
+        <v>3923</v>
       </c>
       <c r="N475" s="19" t="s">
         <v>954</v>
@@ -26292,7 +26296,7 @@
         <v>889</v>
       </c>
       <c r="M476" s="18" t="s">
-        <v>3926</v>
+        <v>3924</v>
       </c>
       <c r="N476" s="19" t="s">
         <v>954</v>
@@ -26889,7 +26893,7 @@
       <c r="J496" s="17"/>
       <c r="K496" s="17"/>
       <c r="L496" s="18" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="M496" s="18"/>
       <c r="N496" s="19"/>
@@ -26921,7 +26925,7 @@
       <c r="J497" s="17"/>
       <c r="K497" s="17"/>
       <c r="L497" s="18" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
       <c r="M497" s="18" t="s">
         <v>3778</v>
@@ -26975,7 +26979,7 @@
       <c r="J499" s="17"/>
       <c r="K499" s="17"/>
       <c r="L499" s="18" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="M499" s="18"/>
       <c r="N499" s="19" t="s">
@@ -27003,7 +27007,7 @@
       <c r="J500" s="17"/>
       <c r="K500" s="17"/>
       <c r="L500" s="18" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="M500" s="18" t="s">
         <v>1009</v>
@@ -27031,7 +27035,7 @@
       <c r="J501" s="17"/>
       <c r="K501" s="17"/>
       <c r="L501" s="18" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="M501" s="18" t="s">
         <v>1011</v>
@@ -27059,7 +27063,7 @@
       <c r="J502" s="17"/>
       <c r="K502" s="17"/>
       <c r="L502" s="18" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="M502" s="18" t="s">
         <v>1013</v>
@@ -27087,7 +27091,7 @@
       <c r="J503" s="17"/>
       <c r="K503" s="17"/>
       <c r="L503" s="18" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="M503" s="18" t="s">
         <v>1015</v>
@@ -27115,7 +27119,7 @@
       <c r="J504" s="17"/>
       <c r="K504" s="17"/>
       <c r="L504" s="18" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="M504" s="18" t="s">
         <v>1017</v>
@@ -27143,7 +27147,7 @@
       <c r="J505" s="17"/>
       <c r="K505" s="17"/>
       <c r="L505" s="18" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="M505" s="18" t="s">
         <v>1019</v>
@@ -27171,7 +27175,7 @@
       <c r="J506" s="17"/>
       <c r="K506" s="17"/>
       <c r="L506" s="18" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="M506" s="18" t="s">
         <v>1021</v>
@@ -27199,7 +27203,7 @@
       <c r="J507" s="17"/>
       <c r="K507" s="17"/>
       <c r="L507" s="18" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="M507" s="18" t="s">
         <v>1023</v>
@@ -27229,7 +27233,7 @@
       <c r="J508" s="17"/>
       <c r="K508" s="17"/>
       <c r="L508" s="18" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="M508" s="18" t="s">
         <v>1025</v>
@@ -27259,7 +27263,7 @@
       <c r="J509" s="17"/>
       <c r="K509" s="17"/>
       <c r="L509" s="18" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="M509" s="18" t="s">
         <v>1027</v>
@@ -27317,7 +27321,7 @@
       <c r="J511" s="17"/>
       <c r="K511" s="17"/>
       <c r="L511" s="18" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="M511" s="18" t="s">
         <v>3553</v>
@@ -27349,7 +27353,7 @@
       <c r="J512" s="17"/>
       <c r="K512" s="17"/>
       <c r="L512" s="18" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="M512" s="18" t="s">
         <v>3557</v>
@@ -27383,7 +27387,7 @@
       <c r="J513" s="17"/>
       <c r="K513" s="17"/>
       <c r="L513" s="18" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="M513" s="18" t="s">
         <v>3562</v>
@@ -27415,7 +27419,7 @@
       <c r="J514" s="17"/>
       <c r="K514" s="17"/>
       <c r="L514" s="18" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="M514" s="18" t="s">
         <v>3563</v>
@@ -27443,7 +27447,7 @@
       <c r="J515" s="17"/>
       <c r="K515" s="17"/>
       <c r="L515" s="18" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="M515" s="18" t="s">
         <v>3564</v>
@@ -27473,7 +27477,7 @@
       <c r="J516" s="17"/>
       <c r="K516" s="17"/>
       <c r="L516" s="18" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="M516" s="18" t="s">
         <v>1029</v>
@@ -27503,7 +27507,7 @@
       <c r="J517" s="17"/>
       <c r="K517" s="17"/>
       <c r="L517" s="18" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="M517" s="18" t="s">
         <v>1031</v>
@@ -27533,7 +27537,7 @@
       <c r="J518" s="17"/>
       <c r="K518" s="17"/>
       <c r="L518" s="18" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="M518" s="18" t="s">
         <v>1033</v>
@@ -27563,7 +27567,7 @@
       <c r="J519" s="17"/>
       <c r="K519" s="17"/>
       <c r="L519" s="18" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="M519" s="18" t="s">
         <v>1035</v>
@@ -27593,7 +27597,7 @@
       <c r="J520" s="17"/>
       <c r="K520" s="17"/>
       <c r="L520" s="18" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="M520" s="18" t="s">
         <v>1037</v>
@@ -27621,7 +27625,7 @@
       <c r="J521" s="17"/>
       <c r="K521" s="17"/>
       <c r="L521" s="18" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="M521" s="18"/>
       <c r="N521" s="19"/>
@@ -27649,7 +27653,7 @@
       <c r="J522" s="17"/>
       <c r="K522" s="17"/>
       <c r="L522" s="18" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="M522" s="18" t="s">
         <v>1040</v>
@@ -27679,7 +27683,7 @@
       <c r="J523" s="17"/>
       <c r="K523" s="17"/>
       <c r="L523" s="18" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="M523" s="18" t="s">
         <v>1042</v>
@@ -27709,7 +27713,7 @@
       <c r="J524" s="17"/>
       <c r="K524" s="17"/>
       <c r="L524" s="18" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="M524" s="18" t="s">
         <v>1044</v>
@@ -27739,7 +27743,7 @@
       <c r="J525" s="17"/>
       <c r="K525" s="17"/>
       <c r="L525" s="18" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="M525" s="18" t="s">
         <v>1046</v>
@@ -27769,7 +27773,7 @@
       <c r="J526" s="17"/>
       <c r="K526" s="17"/>
       <c r="L526" s="18" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="M526" s="18" t="s">
         <v>1048</v>
@@ -39313,7 +39317,7 @@
         <v>10771</v>
       </c>
       <c r="B961" s="15" t="s">
-        <v>3927</v>
+        <v>3925</v>
       </c>
       <c r="C961" s="16"/>
       <c r="D961" s="17"/>
@@ -39339,7 +39343,7 @@
         <v>10772</v>
       </c>
       <c r="B962" s="15" t="s">
-        <v>3928</v>
+        <v>3926</v>
       </c>
       <c r="C962" s="16"/>
       <c r="D962" s="17"/>
@@ -39443,7 +39447,7 @@
         <v>10776</v>
       </c>
       <c r="B966" s="15" t="s">
-        <v>3930</v>
+        <v>3928</v>
       </c>
       <c r="C966" s="16"/>
       <c r="D966" s="17"/>
@@ -39599,7 +39603,7 @@
         <v>10782</v>
       </c>
       <c r="B972" s="15" t="s">
-        <v>3929</v>
+        <v>3927</v>
       </c>
       <c r="C972" s="16"/>
       <c r="D972" s="17"/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE4F68C-A64C-42C9-81A9-C50D353EBCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEEF638-A630-48F9-A2B1-F19E15A27A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12326,10 +12326,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>【绝密消息】你捡到一张纸条，上面写着“第12群群号：797307260”。纸背面还有备注“加过前11个群的就不要加了，顶不住了……”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>【绝密消息】某虚拟世界人口已经突破千万。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12351,6 +12347,10 @@
   </si>
   <si>
     <t>EVT?[11125]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>【绝密消息】你捡到一张纸条，上面写着“第13群群号：680584194”。纸背面还有备注“加过前12个群的就不要加了，顶不住了……”</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -12950,10 +12950,10 @@
   <dimension ref="A1:P1767"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="J1315" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C953" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L1327" sqref="L1327"/>
+      <selection pane="bottomRight" activeCell="D963" sqref="D963"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -27810,7 +27810,7 @@
         <v>20390</v>
       </c>
       <c r="B527" s="15" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="C527" s="16"/>
       <c r="D527" s="17"/>
@@ -27824,10 +27824,10 @@
       </c>
       <c r="K527" s="17"/>
       <c r="L527" s="18" t="s">
+        <v>3933</v>
+      </c>
+      <c r="M527" s="18" t="s">
         <v>3934</v>
-      </c>
-      <c r="M527" s="18" t="s">
-        <v>3935</v>
       </c>
       <c r="N527" s="19"/>
       <c r="O527" s="19"/>
@@ -39316,7 +39316,7 @@
         <v>20770</v>
       </c>
       <c r="B960" s="15" t="s">
-        <v>3931</v>
+        <v>3930</v>
       </c>
       <c r="C960" s="16"/>
       <c r="D960" s="17"/>
@@ -39394,7 +39394,7 @@
         <v>10772</v>
       </c>
       <c r="B963" s="15" t="s">
-        <v>3930</v>
+        <v>3936</v>
       </c>
       <c r="C963" s="16"/>
       <c r="D963" s="17"/>
@@ -39628,7 +39628,7 @@
         <v>10781</v>
       </c>
       <c r="B972" s="15" t="s">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="C972" s="16"/>
       <c r="D972" s="17"/>
@@ -49008,7 +49008,7 @@
       <c r="J1325" s="17"/>
       <c r="K1325" s="17"/>
       <c r="L1325" s="18" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="M1325" s="18" t="s">
         <v>2705</v>
@@ -49034,7 +49034,7 @@
       <c r="J1326" s="17"/>
       <c r="K1326" s="17"/>
       <c r="L1326" s="18" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="M1326" s="18" t="s">
         <v>3927</v>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBEEF638-A630-48F9-A2B1-F19E15A27A50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD31951F-52DE-44F2-B83B-BF1EFCC9B632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12350,7 +12350,7 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>【绝密消息】你捡到一张纸条，上面写着“第13群群号：680584194”。纸背面还有备注“加过前12个群的就不要加了，顶不住了……”</t>
+    <t>【绝密消息】你捡到一张纸条，上面写着“第14群群号：973647714”。纸背面还有备注“加过前13个群的就不要加了，顶不住了……”</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -12953,7 +12953,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C953" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D963" sqref="D963"/>
+      <selection pane="bottomRight" activeCell="I962" sqref="I962"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD31951F-52DE-44F2-B83B-BF1EFCC9B632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0C602B-6C38-4A50-88DD-0F82DD208737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5236" uniqueCount="3937">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5236" uniqueCount="3938">
   <si>
     <t>$id</t>
   </si>
@@ -12351,6 +12351,10 @@
   </si>
   <si>
     <t>【绝密消息】你捡到一张纸条，上面写着“第14群群号：973647714”。纸背面还有备注“加过前13个群的就不要加了，顶不住了……”</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>(EVT?[10871])&amp;(INT&gt;7)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -12950,10 +12954,10 @@
   <dimension ref="A1:P1767"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C953" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="L1111" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I962" sqref="I962"/>
+      <selection pane="bottomRight" activeCell="M1120" sqref="M1120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -43560,7 +43564,7 @@
       <c r="J1118" s="17"/>
       <c r="K1118" s="17"/>
       <c r="L1118" s="18" t="s">
-        <v>2140</v>
+        <v>3937</v>
       </c>
       <c r="M1118" s="18" t="s">
         <v>2260</v>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B420E58-7DFD-4E9A-B9FB-D30BDE3ACF91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABE102B-4876-422A-B9CF-0FA360387E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11134,10 +11134,6 @@
     <t>EVT?[11483]</t>
   </si>
   <si>
-    <t>【绝密消息】科学家认为大多数人的天赋都是来人间凑数的。</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>TLT?[1112]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12356,6 +12352,10 @@
   </si>
   <si>
     <t>STR&gt;0:10000</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>【绝密消息】你捡到一张纸条，上面写着“第15群群号：975916026”。纸背面还有备注“加过前14个群的就不要加了，顶不住了……”</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -12955,10 +12955,10 @@
   <dimension ref="A1:P1767"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="N582" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C959" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N513" sqref="N513"/>
+      <selection pane="bottomRight" activeCell="B966" sqref="B966"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -13474,7 +13474,7 @@
         <v>60</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="19"/>
@@ -13530,7 +13530,7 @@
         <v>60</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>3838</v>
+        <v>3837</v>
       </c>
       <c r="N19" s="19"/>
       <c r="O19" s="19"/>
@@ -13592,7 +13592,7 @@
         <v>69</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="N21" s="19" t="s">
         <v>70</v>
@@ -13626,7 +13626,7 @@
         <v>69</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="N22" s="19" t="s">
         <v>72</v>
@@ -15908,7 +15908,7 @@
       </c>
       <c r="N103" s="19"/>
       <c r="O103" s="19" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="P103" s="20" t="s">
         <v>288</v>
@@ -15940,7 +15940,7 @@
       <c r="M104" s="18"/>
       <c r="N104" s="19"/>
       <c r="O104" s="19" t="s">
-        <v>3848</v>
+        <v>3847</v>
       </c>
       <c r="P104" s="20" t="s">
         <v>288</v>
@@ -17885,7 +17885,7 @@
         <v>10155</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>3776</v>
+        <v>3775</v>
       </c>
       <c r="C175" s="16"/>
       <c r="D175" s="17"/>
@@ -19540,10 +19540,10 @@
       <c r="M235" s="18"/>
       <c r="N235" s="19"/>
       <c r="O235" s="19" t="s">
+        <v>3848</v>
+      </c>
+      <c r="P235" s="20" t="s">
         <v>3849</v>
-      </c>
-      <c r="P235" s="20" t="s">
-        <v>3850</v>
       </c>
     </row>
     <row r="236" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19551,7 +19551,7 @@
         <v>10214</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
       <c r="C236" s="16"/>
       <c r="D236" s="17"/>
@@ -19622,10 +19622,10 @@
       <c r="M238" s="18"/>
       <c r="N238" s="19"/>
       <c r="O238" s="19" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="P238" s="20" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
     </row>
     <row r="239" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -19833,7 +19833,7 @@
       <c r="J245" s="17"/>
       <c r="K245" s="17"/>
       <c r="L245" s="18" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
       <c r="M245" s="18" t="s">
         <v>639</v>
@@ -20588,10 +20588,10 @@
       </c>
       <c r="N272" s="19"/>
       <c r="O272" s="19" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="P272" s="20" t="s">
-        <v>3852</v>
+        <v>3851</v>
       </c>
     </row>
     <row r="273" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21074,10 +21074,10 @@
       </c>
       <c r="N290" s="19"/>
       <c r="O290" s="19" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="P290" s="20" t="s">
-        <v>3853</v>
+        <v>3852</v>
       </c>
     </row>
     <row r="291" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -21710,7 +21710,7 @@
         <v>3463</v>
       </c>
       <c r="O313" s="19" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="P313" s="20" t="s">
         <v>3462</v>
@@ -21850,10 +21850,10 @@
         <v>812</v>
       </c>
       <c r="M318" s="18" t="s">
-        <v>3686</v>
+        <v>3685</v>
       </c>
       <c r="N318" s="19" t="s">
-        <v>3851</v>
+        <v>3850</v>
       </c>
       <c r="O318" s="19"/>
       <c r="P318" s="20"/>
@@ -23079,7 +23079,7 @@
         <v>3421</v>
       </c>
       <c r="N362" s="19" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
       <c r="O362" s="19"/>
       <c r="P362" s="20"/>
@@ -23329,7 +23329,7 @@
       <c r="L371" s="18"/>
       <c r="M371" s="18"/>
       <c r="N371" s="19" t="s">
-        <v>3687</v>
+        <v>3686</v>
       </c>
       <c r="O371" s="19"/>
       <c r="P371" s="20"/>
@@ -23339,7 +23339,7 @@
         <v>20349</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>3688</v>
+        <v>3687</v>
       </c>
       <c r="C372" s="16"/>
       <c r="D372" s="17"/>
@@ -23887,10 +23887,10 @@
         <v>40001</v>
       </c>
       <c r="B391" s="15" t="s">
+        <v>3690</v>
+      </c>
+      <c r="C391" s="16" t="s">
         <v>3691</v>
-      </c>
-      <c r="C391" s="16" t="s">
-        <v>3692</v>
       </c>
       <c r="D391" s="17">
         <v>5</v>
@@ -23909,10 +23909,10 @@
       <c r="J391" s="17"/>
       <c r="K391" s="17"/>
       <c r="L391" s="18" t="s">
-        <v>3695</v>
+        <v>3694</v>
       </c>
       <c r="M391" s="18" t="s">
-        <v>3916</v>
+        <v>3915</v>
       </c>
       <c r="N391" s="19"/>
       <c r="O391" s="19"/>
@@ -23923,7 +23923,7 @@
         <v>40002</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="C392" s="16"/>
       <c r="D392" s="17"/>
@@ -23937,10 +23937,10 @@
       <c r="J392" s="17"/>
       <c r="K392" s="17"/>
       <c r="L392" s="18" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="M392" s="18" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="N392" s="19"/>
       <c r="O392" s="19"/>
@@ -23951,7 +23951,7 @@
         <v>40003</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>3696</v>
+        <v>3695</v>
       </c>
       <c r="C393" s="16"/>
       <c r="D393" s="17"/>
@@ -23965,10 +23965,10 @@
       <c r="J393" s="17"/>
       <c r="K393" s="17"/>
       <c r="L393" s="18" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="M393" s="18" t="s">
-        <v>3701</v>
+        <v>3700</v>
       </c>
       <c r="N393" s="19"/>
       <c r="O393" s="19"/>
@@ -23979,7 +23979,7 @@
         <v>40004</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="C394" s="16"/>
       <c r="D394" s="17"/>
@@ -23993,10 +23993,10 @@
       <c r="J394" s="17"/>
       <c r="K394" s="17"/>
       <c r="L394" s="18" t="s">
-        <v>3706</v>
+        <v>3705</v>
       </c>
       <c r="M394" s="18" t="s">
-        <v>3702</v>
+        <v>3701</v>
       </c>
       <c r="N394" s="19"/>
       <c r="O394" s="19"/>
@@ -24007,7 +24007,7 @@
         <v>40005</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>3698</v>
+        <v>3697</v>
       </c>
       <c r="C395" s="16"/>
       <c r="D395" s="17"/>
@@ -24021,10 +24021,10 @@
       <c r="J395" s="17"/>
       <c r="K395" s="17"/>
       <c r="L395" s="18" t="s">
-        <v>3707</v>
+        <v>3706</v>
       </c>
       <c r="M395" s="18" t="s">
-        <v>3703</v>
+        <v>3702</v>
       </c>
       <c r="N395" s="19"/>
       <c r="O395" s="19"/>
@@ -24035,7 +24035,7 @@
         <v>40006</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>3699</v>
+        <v>3698</v>
       </c>
       <c r="C396" s="16"/>
       <c r="D396" s="17"/>
@@ -24049,10 +24049,10 @@
       <c r="J396" s="17"/>
       <c r="K396" s="17"/>
       <c r="L396" s="18" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="M396" s="18" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="N396" s="19"/>
       <c r="O396" s="19"/>
@@ -24063,7 +24063,7 @@
         <v>40007</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>3700</v>
+        <v>3699</v>
       </c>
       <c r="C397" s="16"/>
       <c r="D397" s="17">
@@ -24077,10 +24077,10 @@
       <c r="J397" s="17"/>
       <c r="K397" s="17"/>
       <c r="L397" s="18" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="M397" s="18" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="N397" s="19"/>
       <c r="O397" s="19"/>
@@ -24091,7 +24091,7 @@
         <v>40008</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>3704</v>
+        <v>3703</v>
       </c>
       <c r="C398" s="16"/>
       <c r="D398" s="17"/>
@@ -24107,10 +24107,10 @@
       <c r="J398" s="17"/>
       <c r="K398" s="17"/>
       <c r="L398" s="18" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="M398" s="18" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="N398" s="19"/>
       <c r="O398" s="19"/>
@@ -24121,7 +24121,7 @@
         <v>40009</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>3705</v>
+        <v>3704</v>
       </c>
       <c r="C399" s="16"/>
       <c r="D399" s="17"/>
@@ -24137,10 +24137,10 @@
       <c r="J399" s="17"/>
       <c r="K399" s="17"/>
       <c r="L399" s="18" t="s">
-        <v>3834</v>
+        <v>3833</v>
       </c>
       <c r="M399" s="18" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="N399" s="19"/>
       <c r="O399" s="19"/>
@@ -24151,10 +24151,10 @@
         <v>40010</v>
       </c>
       <c r="B400" s="15" t="s">
+        <v>3707</v>
+      </c>
+      <c r="C400" s="16" t="s">
         <v>3708</v>
-      </c>
-      <c r="C400" s="16" t="s">
-        <v>3709</v>
       </c>
       <c r="D400" s="17"/>
       <c r="E400" s="17"/>
@@ -24167,10 +24167,10 @@
       <c r="J400" s="17"/>
       <c r="K400" s="17"/>
       <c r="L400" s="18" t="s">
-        <v>3710</v>
+        <v>3709</v>
       </c>
       <c r="M400" s="18" t="s">
-        <v>3845</v>
+        <v>3844</v>
       </c>
       <c r="N400" s="19"/>
       <c r="O400" s="19"/>
@@ -24181,7 +24181,7 @@
         <v>40011</v>
       </c>
       <c r="B401" s="15" t="s">
-        <v>3713</v>
+        <v>3712</v>
       </c>
       <c r="C401" s="16"/>
       <c r="D401" s="17"/>
@@ -24195,10 +24195,10 @@
       <c r="J401" s="17"/>
       <c r="K401" s="17"/>
       <c r="L401" s="18" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="M401" s="18" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="N401" s="19"/>
       <c r="O401" s="19"/>
@@ -24209,7 +24209,7 @@
         <v>40012</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>3714</v>
+        <v>3713</v>
       </c>
       <c r="C402" s="16"/>
       <c r="D402" s="17"/>
@@ -24223,10 +24223,10 @@
       <c r="J402" s="17"/>
       <c r="K402" s="17"/>
       <c r="L402" s="18" t="s">
-        <v>3717</v>
+        <v>3716</v>
       </c>
       <c r="M402" s="18" t="s">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="N402" s="19"/>
       <c r="O402" s="19"/>
@@ -24237,7 +24237,7 @@
         <v>40013</v>
       </c>
       <c r="B403" s="15" t="s">
-        <v>3715</v>
+        <v>3714</v>
       </c>
       <c r="C403" s="16"/>
       <c r="D403" s="17"/>
@@ -24251,10 +24251,10 @@
       <c r="J403" s="17"/>
       <c r="K403" s="17"/>
       <c r="L403" s="18" t="s">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="M403" s="18" t="s">
-        <v>3720</v>
+        <v>3719</v>
       </c>
       <c r="N403" s="19"/>
       <c r="O403" s="19"/>
@@ -24265,7 +24265,7 @@
         <v>40014</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>3716</v>
+        <v>3715</v>
       </c>
       <c r="C404" s="16"/>
       <c r="D404" s="17"/>
@@ -24279,10 +24279,10 @@
       <c r="J404" s="17"/>
       <c r="K404" s="17"/>
       <c r="L404" s="18" t="s">
-        <v>3738</v>
+        <v>3737</v>
       </c>
       <c r="M404" s="18" t="s">
-        <v>3721</v>
+        <v>3720</v>
       </c>
       <c r="N404" s="19"/>
       <c r="O404" s="19"/>
@@ -24293,10 +24293,10 @@
         <v>40015</v>
       </c>
       <c r="B405" s="15" t="s">
+        <v>3721</v>
+      </c>
+      <c r="C405" s="16" t="s">
         <v>3722</v>
-      </c>
-      <c r="C405" s="16" t="s">
-        <v>3723</v>
       </c>
       <c r="D405" s="17"/>
       <c r="E405" s="17">
@@ -24311,10 +24311,10 @@
       <c r="J405" s="17"/>
       <c r="K405" s="17"/>
       <c r="L405" s="18" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="M405" s="18" t="s">
-        <v>3843</v>
+        <v>3842</v>
       </c>
       <c r="N405" s="19"/>
       <c r="O405" s="19"/>
@@ -24325,7 +24325,7 @@
         <v>40016</v>
       </c>
       <c r="B406" s="15" t="s">
-        <v>3724</v>
+        <v>3723</v>
       </c>
       <c r="C406" s="16"/>
       <c r="D406" s="17"/>
@@ -24337,10 +24337,10 @@
       <c r="J406" s="17"/>
       <c r="K406" s="17"/>
       <c r="L406" s="18" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="M406" s="18" t="s">
-        <v>3844</v>
+        <v>3843</v>
       </c>
       <c r="N406" s="19"/>
       <c r="O406" s="19"/>
@@ -24351,7 +24351,7 @@
         <v>40017</v>
       </c>
       <c r="B407" s="15" t="s">
-        <v>3725</v>
+        <v>3724</v>
       </c>
       <c r="C407" s="16"/>
       <c r="D407" s="17"/>
@@ -24367,10 +24367,10 @@
       <c r="J407" s="17"/>
       <c r="K407" s="17"/>
       <c r="L407" s="18" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="M407" s="18" t="s">
-        <v>3730</v>
+        <v>3729</v>
       </c>
       <c r="N407" s="19"/>
       <c r="O407" s="19"/>
@@ -24381,7 +24381,7 @@
         <v>40018</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>3726</v>
+        <v>3725</v>
       </c>
       <c r="C408" s="16"/>
       <c r="D408" s="17"/>
@@ -24397,10 +24397,10 @@
       <c r="J408" s="17"/>
       <c r="K408" s="17"/>
       <c r="L408" s="18" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="M408" s="18" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="N408" s="19"/>
       <c r="O408" s="19"/>
@@ -24411,7 +24411,7 @@
         <v>40019</v>
       </c>
       <c r="B409" s="15" t="s">
-        <v>3727</v>
+        <v>3726</v>
       </c>
       <c r="C409" s="16"/>
       <c r="D409" s="17"/>
@@ -24427,10 +24427,10 @@
       <c r="J409" s="17"/>
       <c r="K409" s="17"/>
       <c r="L409" s="18" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="M409" s="18" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="N409" s="19"/>
       <c r="O409" s="19"/>
@@ -24441,7 +24441,7 @@
         <v>40020</v>
       </c>
       <c r="B410" s="15" t="s">
-        <v>3728</v>
+        <v>3727</v>
       </c>
       <c r="C410" s="16"/>
       <c r="D410" s="17"/>
@@ -24457,10 +24457,10 @@
       <c r="J410" s="17"/>
       <c r="K410" s="17"/>
       <c r="L410" s="18" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="M410" s="18" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="N410" s="19"/>
       <c r="O410" s="19"/>
@@ -24471,7 +24471,7 @@
         <v>40021</v>
       </c>
       <c r="B411" s="15" t="s">
-        <v>3729</v>
+        <v>3728</v>
       </c>
       <c r="C411" s="16"/>
       <c r="D411" s="17"/>
@@ -24487,10 +24487,10 @@
       <c r="J411" s="17"/>
       <c r="K411" s="17"/>
       <c r="L411" s="18" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="M411" s="18" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="N411" s="19"/>
       <c r="O411" s="19"/>
@@ -24501,7 +24501,7 @@
         <v>40022</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>3735</v>
+        <v>3734</v>
       </c>
       <c r="C412" s="16"/>
       <c r="D412" s="17"/>
@@ -24515,10 +24515,10 @@
       <c r="J412" s="17"/>
       <c r="K412" s="17"/>
       <c r="L412" s="18" t="s">
-        <v>3711</v>
+        <v>3710</v>
       </c>
       <c r="M412" s="18" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="N412" s="19"/>
       <c r="O412" s="19"/>
@@ -24529,10 +24529,10 @@
         <v>40023</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>3737</v>
+        <v>3736</v>
       </c>
       <c r="C413" s="16" t="s">
-        <v>3736</v>
+        <v>3735</v>
       </c>
       <c r="D413" s="17"/>
       <c r="E413" s="17">
@@ -24547,10 +24547,10 @@
       <c r="J413" s="17"/>
       <c r="K413" s="17"/>
       <c r="L413" s="18" t="s">
+        <v>3738</v>
+      </c>
+      <c r="M413" s="18" t="s">
         <v>3739</v>
-      </c>
-      <c r="M413" s="18" t="s">
-        <v>3740</v>
       </c>
       <c r="N413" s="19"/>
       <c r="O413" s="19"/>
@@ -24561,7 +24561,7 @@
         <v>40024</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>3741</v>
+        <v>3740</v>
       </c>
       <c r="C414" s="16"/>
       <c r="D414" s="17"/>
@@ -24577,10 +24577,10 @@
       <c r="J414" s="17"/>
       <c r="K414" s="17"/>
       <c r="L414" s="18" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="M414" s="18" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="N414" s="19"/>
       <c r="O414" s="19"/>
@@ -24591,7 +24591,7 @@
         <v>40025</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>3742</v>
+        <v>3741</v>
       </c>
       <c r="C415" s="16"/>
       <c r="D415" s="17"/>
@@ -24605,10 +24605,10 @@
       <c r="J415" s="17"/>
       <c r="K415" s="17"/>
       <c r="L415" s="18" t="s">
-        <v>3740</v>
+        <v>3739</v>
       </c>
       <c r="M415" s="18" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="N415" s="19"/>
       <c r="O415" s="19"/>
@@ -24619,10 +24619,10 @@
         <v>40026</v>
       </c>
       <c r="B416" s="15" t="s">
-        <v>3746</v>
+        <v>3745</v>
       </c>
       <c r="C416" s="16" t="s">
-        <v>3743</v>
+        <v>3742</v>
       </c>
       <c r="D416" s="17"/>
       <c r="E416" s="17">
@@ -24637,10 +24637,10 @@
       <c r="J416" s="17"/>
       <c r="K416" s="17"/>
       <c r="L416" s="18" t="s">
-        <v>3749</v>
+        <v>3748</v>
       </c>
       <c r="M416" s="18" t="s">
-        <v>3752</v>
+        <v>3751</v>
       </c>
       <c r="N416" s="19"/>
       <c r="O416" s="19"/>
@@ -24651,10 +24651,10 @@
         <v>40027</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>3747</v>
+        <v>3746</v>
       </c>
       <c r="C417" s="16" t="s">
-        <v>3744</v>
+        <v>3743</v>
       </c>
       <c r="D417" s="17"/>
       <c r="E417" s="17">
@@ -24669,10 +24669,10 @@
       <c r="J417" s="17"/>
       <c r="K417" s="17"/>
       <c r="L417" s="18" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="M417" s="18" t="s">
-        <v>3753</v>
+        <v>3752</v>
       </c>
       <c r="N417" s="19"/>
       <c r="O417" s="19"/>
@@ -24683,10 +24683,10 @@
         <v>40028</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>3748</v>
+        <v>3747</v>
       </c>
       <c r="C418" s="16" t="s">
-        <v>3745</v>
+        <v>3744</v>
       </c>
       <c r="D418" s="17"/>
       <c r="E418" s="17">
@@ -24701,10 +24701,10 @@
       <c r="J418" s="17"/>
       <c r="K418" s="17"/>
       <c r="L418" s="18" t="s">
-        <v>3751</v>
+        <v>3750</v>
       </c>
       <c r="M418" s="18" t="s">
-        <v>3754</v>
+        <v>3753</v>
       </c>
       <c r="N418" s="19"/>
       <c r="O418" s="19"/>
@@ -24715,7 +24715,7 @@
         <v>40029</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>3755</v>
+        <v>3754</v>
       </c>
       <c r="C419" s="16"/>
       <c r="D419" s="17"/>
@@ -24731,10 +24731,10 @@
       <c r="J419" s="17"/>
       <c r="K419" s="17"/>
       <c r="L419" s="18" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="M419" s="18" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="N419" s="19"/>
       <c r="O419" s="19"/>
@@ -24745,7 +24745,7 @@
         <v>40030</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>3756</v>
+        <v>3755</v>
       </c>
       <c r="C420" s="16"/>
       <c r="D420" s="17"/>
@@ -24761,10 +24761,10 @@
       <c r="J420" s="17"/>
       <c r="K420" s="17"/>
       <c r="L420" s="18" t="s">
-        <v>3767</v>
+        <v>3766</v>
       </c>
       <c r="M420" s="18" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="N420" s="19"/>
       <c r="O420" s="19"/>
@@ -24775,7 +24775,7 @@
         <v>40031</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>3758</v>
+        <v>3757</v>
       </c>
       <c r="C421" s="16"/>
       <c r="D421" s="17"/>
@@ -24791,10 +24791,10 @@
       <c r="J421" s="17"/>
       <c r="K421" s="17"/>
       <c r="L421" s="18" t="s">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="M421" s="18" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="N421" s="19"/>
       <c r="O421" s="19"/>
@@ -24805,7 +24805,7 @@
         <v>40032</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="C422" s="16"/>
       <c r="D422" s="17"/>
@@ -24819,10 +24819,10 @@
       <c r="J422" s="17"/>
       <c r="K422" s="17"/>
       <c r="L422" s="18" t="s">
-        <v>3750</v>
+        <v>3749</v>
       </c>
       <c r="M422" s="18" t="s">
-        <v>3793</v>
+        <v>3792</v>
       </c>
       <c r="N422" s="19"/>
       <c r="O422" s="19"/>
@@ -24833,7 +24833,7 @@
         <v>40033</v>
       </c>
       <c r="B423" s="15" t="s">
-        <v>3759</v>
+        <v>3758</v>
       </c>
       <c r="C423" s="16"/>
       <c r="D423" s="17"/>
@@ -24845,13 +24845,13 @@
       <c r="J423" s="17"/>
       <c r="K423" s="17"/>
       <c r="L423" s="18" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="M423" s="18" t="s">
-        <v>3794</v>
+        <v>3793</v>
       </c>
       <c r="N423" s="19" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="O423" s="19"/>
       <c r="P423" s="20"/>
@@ -24877,10 +24877,10 @@
       <c r="J424" s="17"/>
       <c r="K424" s="17"/>
       <c r="L424" s="18" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="M424" s="18" t="s">
-        <v>3760</v>
+        <v>3759</v>
       </c>
       <c r="N424" s="19"/>
       <c r="O424" s="19"/>
@@ -24907,10 +24907,10 @@
       <c r="J425" s="17"/>
       <c r="K425" s="17"/>
       <c r="L425" s="18" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="M425" s="18" t="s">
-        <v>3761</v>
+        <v>3760</v>
       </c>
       <c r="N425" s="19"/>
       <c r="O425" s="19"/>
@@ -24937,10 +24937,10 @@
       <c r="J426" s="17"/>
       <c r="K426" s="17"/>
       <c r="L426" s="18" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="M426" s="18" t="s">
-        <v>3762</v>
+        <v>3761</v>
       </c>
       <c r="N426" s="19"/>
       <c r="O426" s="19"/>
@@ -24967,10 +24967,10 @@
       <c r="J427" s="17"/>
       <c r="K427" s="17"/>
       <c r="L427" s="18" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="M427" s="18" t="s">
-        <v>3763</v>
+        <v>3762</v>
       </c>
       <c r="N427" s="19"/>
       <c r="O427" s="19"/>
@@ -24997,10 +24997,10 @@
       <c r="J428" s="17"/>
       <c r="K428" s="17"/>
       <c r="L428" s="18" t="s">
-        <v>3712</v>
+        <v>3711</v>
       </c>
       <c r="M428" s="18" t="s">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="N428" s="19"/>
       <c r="O428" s="19"/>
@@ -25011,7 +25011,7 @@
         <v>40039</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>3773</v>
+        <v>3772</v>
       </c>
       <c r="C429" s="16"/>
       <c r="D429" s="17"/>
@@ -25027,13 +25027,13 @@
       <c r="J429" s="17"/>
       <c r="K429" s="17"/>
       <c r="L429" s="18" t="s">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="M429" s="18" t="s">
-        <v>3769</v>
+        <v>3768</v>
       </c>
       <c r="N429" s="19" t="s">
-        <v>3768</v>
+        <v>3767</v>
       </c>
       <c r="O429" s="19"/>
       <c r="P429" s="20"/>
@@ -25043,7 +25043,7 @@
         <v>40040</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>3770</v>
+        <v>3769</v>
       </c>
       <c r="C430" s="16"/>
       <c r="D430" s="17"/>
@@ -25067,7 +25067,7 @@
         <v>40041</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>3771</v>
+        <v>3770</v>
       </c>
       <c r="C431" s="16"/>
       <c r="D431" s="17"/>
@@ -25079,13 +25079,13 @@
       <c r="J431" s="17"/>
       <c r="K431" s="17"/>
       <c r="L431" s="18" t="s">
-        <v>3915</v>
+        <v>3914</v>
       </c>
       <c r="M431" s="18" t="s">
-        <v>3826</v>
+        <v>3825</v>
       </c>
       <c r="N431" s="19" t="s">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="O431" s="19"/>
       <c r="P431" s="20"/>
@@ -25095,7 +25095,7 @@
         <v>40042</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>3781</v>
+        <v>3780</v>
       </c>
       <c r="C432" s="16"/>
       <c r="D432" s="17"/>
@@ -25107,10 +25107,10 @@
       <c r="J432" s="17"/>
       <c r="K432" s="17"/>
       <c r="L432" s="18" t="s">
-        <v>3779</v>
+        <v>3778</v>
       </c>
       <c r="M432" s="18" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="N432" s="19"/>
       <c r="O432" s="19"/>
@@ -25121,7 +25121,7 @@
         <v>40043</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>3780</v>
+        <v>3779</v>
       </c>
       <c r="C433" s="16"/>
       <c r="D433" s="17"/>
@@ -25133,10 +25133,10 @@
       <c r="J433" s="17"/>
       <c r="K433" s="17"/>
       <c r="L433" s="18" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="M433" s="18" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="N433" s="19"/>
       <c r="O433" s="19"/>
@@ -25147,7 +25147,7 @@
         <v>40044</v>
       </c>
       <c r="B434" s="15" t="s">
-        <v>3784</v>
+        <v>3783</v>
       </c>
       <c r="C434" s="16"/>
       <c r="D434" s="17"/>
@@ -25159,10 +25159,10 @@
       <c r="J434" s="17"/>
       <c r="K434" s="17"/>
       <c r="L434" s="18" t="s">
-        <v>3783</v>
+        <v>3782</v>
       </c>
       <c r="M434" s="18" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="N434" s="19"/>
       <c r="O434" s="19"/>
@@ -25173,7 +25173,7 @@
         <v>40045</v>
       </c>
       <c r="B435" s="15" t="s">
-        <v>3785</v>
+        <v>3784</v>
       </c>
       <c r="C435" s="16"/>
       <c r="D435" s="17"/>
@@ -25185,10 +25185,10 @@
       <c r="J435" s="17"/>
       <c r="K435" s="17"/>
       <c r="L435" s="18" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="M435" s="18" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="N435" s="19"/>
       <c r="O435" s="19"/>
@@ -25199,10 +25199,10 @@
         <v>40046</v>
       </c>
       <c r="B436" s="15" t="s">
+        <v>3785</v>
+      </c>
+      <c r="C436" s="16" t="s">
         <v>3786</v>
-      </c>
-      <c r="C436" s="16" t="s">
-        <v>3787</v>
       </c>
       <c r="D436" s="17"/>
       <c r="E436" s="17"/>
@@ -25213,10 +25213,10 @@
       <c r="J436" s="17"/>
       <c r="K436" s="17"/>
       <c r="L436" s="18" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="M436" s="18" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="N436" s="19"/>
       <c r="O436" s="19"/>
@@ -25227,10 +25227,10 @@
         <v>40047</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="C437" s="16" t="s">
-        <v>3788</v>
+        <v>3787</v>
       </c>
       <c r="D437" s="17"/>
       <c r="E437" s="17"/>
@@ -25241,10 +25241,10 @@
       <c r="J437" s="17"/>
       <c r="K437" s="17"/>
       <c r="L437" s="18" t="s">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="M437" s="18" t="s">
-        <v>3802</v>
+        <v>3801</v>
       </c>
       <c r="N437" s="19"/>
       <c r="O437" s="19"/>
@@ -25255,10 +25255,10 @@
         <v>40048</v>
       </c>
       <c r="B438" s="15" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="C438" s="16" t="s">
-        <v>3790</v>
+        <v>3789</v>
       </c>
       <c r="D438" s="17"/>
       <c r="E438" s="17"/>
@@ -25269,10 +25269,10 @@
       <c r="J438" s="17"/>
       <c r="K438" s="17"/>
       <c r="L438" s="18" t="s">
-        <v>3789</v>
+        <v>3788</v>
       </c>
       <c r="M438" s="18" t="s">
-        <v>3801</v>
+        <v>3800</v>
       </c>
       <c r="N438" s="19"/>
       <c r="O438" s="19"/>
@@ -25283,10 +25283,10 @@
         <v>40049</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>3786</v>
+        <v>3785</v>
       </c>
       <c r="C439" s="16" t="s">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="D439" s="17"/>
       <c r="E439" s="17"/>
@@ -25297,10 +25297,10 @@
       <c r="J439" s="17"/>
       <c r="K439" s="17"/>
       <c r="L439" s="18" t="s">
-        <v>3791</v>
+        <v>3790</v>
       </c>
       <c r="M439" s="18" t="s">
-        <v>3803</v>
+        <v>3802</v>
       </c>
       <c r="N439" s="19"/>
       <c r="O439" s="19"/>
@@ -25311,10 +25311,10 @@
         <v>40050</v>
       </c>
       <c r="B440" s="15" t="s">
+        <v>3794</v>
+      </c>
+      <c r="C440" s="16" t="s">
         <v>3795</v>
-      </c>
-      <c r="C440" s="16" t="s">
-        <v>3796</v>
       </c>
       <c r="D440" s="17"/>
       <c r="E440" s="17"/>
@@ -25327,7 +25327,7 @@
       <c r="J440" s="17"/>
       <c r="K440" s="17"/>
       <c r="L440" s="18" t="s">
-        <v>3797</v>
+        <v>3796</v>
       </c>
       <c r="M440" s="18"/>
       <c r="N440" s="19"/>
@@ -25339,10 +25339,10 @@
         <v>40051</v>
       </c>
       <c r="B441" s="15" t="s">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="C441" s="16" t="s">
-        <v>3804</v>
+        <v>3803</v>
       </c>
       <c r="D441" s="17"/>
       <c r="E441" s="17"/>
@@ -25353,10 +25353,10 @@
       <c r="J441" s="17"/>
       <c r="K441" s="17"/>
       <c r="L441" s="18" t="s">
+        <v>3798</v>
+      </c>
+      <c r="M441" s="18" t="s">
         <v>3799</v>
-      </c>
-      <c r="M441" s="18" t="s">
-        <v>3800</v>
       </c>
       <c r="N441" s="19"/>
       <c r="O441" s="19"/>
@@ -25367,10 +25367,10 @@
         <v>40052</v>
       </c>
       <c r="B442" s="15" t="s">
-        <v>3819</v>
+        <v>3818</v>
       </c>
       <c r="C442" s="16" t="s">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="D442" s="17"/>
       <c r="E442" s="17"/>
@@ -25381,10 +25381,10 @@
       <c r="J442" s="17"/>
       <c r="K442" s="17"/>
       <c r="L442" s="18" t="s">
+        <v>3804</v>
+      </c>
+      <c r="M442" s="18" t="s">
         <v>3805</v>
-      </c>
-      <c r="M442" s="18" t="s">
-        <v>3806</v>
       </c>
       <c r="N442" s="19"/>
       <c r="O442" s="19"/>
@@ -25395,7 +25395,7 @@
         <v>40053</v>
       </c>
       <c r="B443" s="15" t="s">
-        <v>3808</v>
+        <v>3807</v>
       </c>
       <c r="C443" s="16"/>
       <c r="D443" s="17"/>
@@ -25409,10 +25409,10 @@
       <c r="J443" s="17"/>
       <c r="K443" s="17"/>
       <c r="L443" s="18" t="s">
-        <v>3806</v>
+        <v>3805</v>
       </c>
       <c r="M443" s="18" t="s">
-        <v>3809</v>
+        <v>3808</v>
       </c>
       <c r="N443" s="19"/>
       <c r="O443" s="19"/>
@@ -25423,7 +25423,7 @@
         <v>40054</v>
       </c>
       <c r="B444" s="15" t="s">
-        <v>3812</v>
+        <v>3811</v>
       </c>
       <c r="C444" s="16"/>
       <c r="D444" s="17"/>
@@ -25435,17 +25435,17 @@
       <c r="J444" s="17"/>
       <c r="K444" s="17"/>
       <c r="L444" s="18" t="s">
+        <v>3808</v>
+      </c>
+      <c r="M444" s="18" t="s">
         <v>3809</v>
       </c>
-      <c r="M444" s="18" t="s">
-        <v>3810</v>
-      </c>
       <c r="N444" s="19" t="s">
-        <v>3814</v>
+        <v>3813</v>
       </c>
       <c r="O444" s="19"/>
       <c r="P444" s="20" t="s">
-        <v>3815</v>
+        <v>3814</v>
       </c>
     </row>
     <row r="445" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25453,7 +25453,7 @@
         <v>40055</v>
       </c>
       <c r="B445" s="15" t="s">
-        <v>3813</v>
+        <v>3812</v>
       </c>
       <c r="C445" s="16"/>
       <c r="D445" s="17"/>
@@ -25469,11 +25469,11 @@
       <c r="L445" s="18"/>
       <c r="M445" s="18"/>
       <c r="N445" s="19" t="s">
-        <v>3816</v>
+        <v>3815</v>
       </c>
       <c r="O445" s="19"/>
       <c r="P445" s="20" t="s">
-        <v>3811</v>
+        <v>3810</v>
       </c>
     </row>
     <row r="446" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25481,7 +25481,7 @@
         <v>40056</v>
       </c>
       <c r="B446" s="15" t="s">
-        <v>3820</v>
+        <v>3819</v>
       </c>
       <c r="C446" s="16"/>
       <c r="D446" s="17"/>
@@ -25497,11 +25497,11 @@
       <c r="L446" s="18"/>
       <c r="M446" s="18"/>
       <c r="N446" s="19" t="s">
-        <v>3818</v>
+        <v>3817</v>
       </c>
       <c r="O446" s="19"/>
       <c r="P446" s="20" t="s">
-        <v>3817</v>
+        <v>3816</v>
       </c>
     </row>
     <row r="447" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -25509,7 +25509,7 @@
         <v>40057</v>
       </c>
       <c r="B447" s="15" t="s">
-        <v>3821</v>
+        <v>3820</v>
       </c>
       <c r="C447" s="16"/>
       <c r="D447" s="17"/>
@@ -25525,7 +25525,7 @@
       <c r="L447" s="18"/>
       <c r="M447" s="18"/>
       <c r="N447" s="19" t="s">
-        <v>3822</v>
+        <v>3821</v>
       </c>
       <c r="O447" s="19"/>
       <c r="P447" s="20"/>
@@ -25535,7 +25535,7 @@
         <v>40058</v>
       </c>
       <c r="B448" s="15" t="s">
-        <v>3824</v>
+        <v>3823</v>
       </c>
       <c r="C448" s="16"/>
       <c r="D448" s="17">
@@ -25569,7 +25569,7 @@
         <v>40059</v>
       </c>
       <c r="B449" s="15" t="s">
-        <v>3823</v>
+        <v>3822</v>
       </c>
       <c r="C449" s="16"/>
       <c r="D449" s="17"/>
@@ -25583,7 +25583,7 @@
       <c r="J449" s="17"/>
       <c r="K449" s="17"/>
       <c r="L449" s="18" t="s">
-        <v>3825</v>
+        <v>3824</v>
       </c>
       <c r="M449" s="18"/>
       <c r="N449" s="19"/>
@@ -25595,10 +25595,10 @@
         <v>40060</v>
       </c>
       <c r="B450" s="15" t="s">
+        <v>3826</v>
+      </c>
+      <c r="C450" s="16" t="s">
         <v>3827</v>
-      </c>
-      <c r="C450" s="16" t="s">
-        <v>3828</v>
       </c>
       <c r="D450" s="17"/>
       <c r="E450" s="17"/>
@@ -25609,10 +25609,10 @@
       <c r="J450" s="17"/>
       <c r="K450" s="17"/>
       <c r="L450" s="18" t="s">
-        <v>3829</v>
+        <v>3828</v>
       </c>
       <c r="M450" s="18" t="s">
-        <v>3831</v>
+        <v>3830</v>
       </c>
       <c r="N450" s="19"/>
       <c r="O450" s="19"/>
@@ -25623,10 +25623,10 @@
         <v>40061</v>
       </c>
       <c r="B451" s="15" t="s">
+        <v>3831</v>
+      </c>
+      <c r="C451" s="16" t="s">
         <v>3832</v>
-      </c>
-      <c r="C451" s="16" t="s">
-        <v>3833</v>
       </c>
       <c r="D451" s="17">
         <v>2</v>
@@ -25643,10 +25643,10 @@
       <c r="J451" s="17"/>
       <c r="K451" s="17"/>
       <c r="L451" s="18" t="s">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="M451" s="18" t="s">
-        <v>3836</v>
+        <v>3835</v>
       </c>
       <c r="N451" s="19"/>
       <c r="O451" s="19"/>
@@ -25657,7 +25657,7 @@
         <v>40062</v>
       </c>
       <c r="B452" s="15" t="s">
-        <v>3847</v>
+        <v>3846</v>
       </c>
       <c r="C452" s="16"/>
       <c r="D452" s="17"/>
@@ -25675,10 +25675,10 @@
       <c r="L452" s="18"/>
       <c r="M452" s="18"/>
       <c r="N452" s="19" t="s">
+        <v>3859</v>
+      </c>
+      <c r="O452" s="19" t="s">
         <v>3860</v>
-      </c>
-      <c r="O452" s="19" t="s">
-        <v>3861</v>
       </c>
       <c r="P452" s="20"/>
     </row>
@@ -25687,7 +25687,7 @@
         <v>40063</v>
       </c>
       <c r="B453" s="15" t="s">
-        <v>3862</v>
+        <v>3861</v>
       </c>
       <c r="C453" s="16"/>
       <c r="D453" s="17"/>
@@ -25713,10 +25713,10 @@
         <v>40064</v>
       </c>
       <c r="B454" s="15" t="s">
-        <v>3846</v>
+        <v>3845</v>
       </c>
       <c r="C454" s="16" t="s">
-        <v>3865</v>
+        <v>3864</v>
       </c>
       <c r="D454" s="17"/>
       <c r="E454" s="17"/>
@@ -25741,7 +25741,7 @@
         <v>40065</v>
       </c>
       <c r="B455" s="15" t="s">
-        <v>3866</v>
+        <v>3865</v>
       </c>
       <c r="C455" s="16"/>
       <c r="D455" s="17"/>
@@ -25753,7 +25753,7 @@
       <c r="J455" s="17"/>
       <c r="K455" s="17"/>
       <c r="L455" s="18" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="M455" s="18"/>
       <c r="N455" s="19"/>
@@ -25765,7 +25765,7 @@
         <v>40066</v>
       </c>
       <c r="B456" s="15" t="s">
-        <v>3863</v>
+        <v>3862</v>
       </c>
       <c r="C456" s="16"/>
       <c r="D456" s="17"/>
@@ -25777,10 +25777,10 @@
       <c r="J456" s="17"/>
       <c r="K456" s="17"/>
       <c r="L456" s="18" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="M456" s="18" t="s">
-        <v>3874</v>
+        <v>3873</v>
       </c>
       <c r="N456" s="19"/>
       <c r="O456" s="19"/>
@@ -25791,7 +25791,7 @@
         <v>40067</v>
       </c>
       <c r="B457" s="15" t="s">
-        <v>3864</v>
+        <v>3863</v>
       </c>
       <c r="C457" s="16"/>
       <c r="D457" s="17"/>
@@ -25803,7 +25803,7 @@
       <c r="J457" s="17"/>
       <c r="K457" s="17"/>
       <c r="L457" s="18" t="s">
-        <v>3871</v>
+        <v>3870</v>
       </c>
       <c r="M457" s="18"/>
       <c r="N457" s="19"/>
@@ -25815,7 +25815,7 @@
         <v>40068</v>
       </c>
       <c r="B458" s="15" t="s">
-        <v>3867</v>
+        <v>3866</v>
       </c>
       <c r="C458" s="16"/>
       <c r="D458" s="17"/>
@@ -25827,7 +25827,7 @@
       <c r="J458" s="17"/>
       <c r="K458" s="17"/>
       <c r="L458" s="18" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="M458" s="18"/>
       <c r="N458" s="19"/>
@@ -25839,7 +25839,7 @@
         <v>40069</v>
       </c>
       <c r="B459" s="15" t="s">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="C459" s="16"/>
       <c r="D459" s="17"/>
@@ -25851,7 +25851,7 @@
       <c r="J459" s="17"/>
       <c r="K459" s="17"/>
       <c r="L459" s="18" t="s">
-        <v>3873</v>
+        <v>3872</v>
       </c>
       <c r="M459" s="18"/>
       <c r="N459" s="19"/>
@@ -25863,7 +25863,7 @@
         <v>40070</v>
       </c>
       <c r="B460" s="15" t="s">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="C460" s="16"/>
       <c r="D460" s="17"/>
@@ -25875,11 +25875,11 @@
       <c r="J460" s="17"/>
       <c r="K460" s="17"/>
       <c r="L460" s="18" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="M460" s="18"/>
       <c r="N460" s="19" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="O460" s="19"/>
       <c r="P460" s="20"/>
@@ -25889,7 +25889,7 @@
         <v>40071</v>
       </c>
       <c r="B461" s="15" t="s">
-        <v>3876</v>
+        <v>3875</v>
       </c>
       <c r="C461" s="16"/>
       <c r="D461" s="17"/>
@@ -25901,11 +25901,11 @@
       <c r="J461" s="17"/>
       <c r="K461" s="17"/>
       <c r="L461" s="18" t="s">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="M461" s="18"/>
       <c r="N461" s="19" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="O461" s="19"/>
       <c r="P461" s="20"/>
@@ -25915,7 +25915,7 @@
         <v>40072</v>
       </c>
       <c r="B462" s="15" t="s">
-        <v>3877</v>
+        <v>3876</v>
       </c>
       <c r="C462" s="16"/>
       <c r="D462" s="17"/>
@@ -25927,11 +25927,11 @@
       <c r="J462" s="17"/>
       <c r="K462" s="17"/>
       <c r="L462" s="18" t="s">
-        <v>3872</v>
+        <v>3871</v>
       </c>
       <c r="M462" s="18"/>
       <c r="N462" s="19" t="s">
-        <v>3875</v>
+        <v>3874</v>
       </c>
       <c r="O462" s="19"/>
       <c r="P462" s="20"/>
@@ -25941,7 +25941,7 @@
         <v>40073</v>
       </c>
       <c r="B463" s="15" t="s">
-        <v>3879</v>
+        <v>3878</v>
       </c>
       <c r="C463" s="16"/>
       <c r="D463" s="17"/>
@@ -25957,10 +25957,10 @@
       <c r="J463" s="17"/>
       <c r="K463" s="17"/>
       <c r="L463" s="18" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="M463" s="18" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="N463" s="19"/>
       <c r="O463" s="19"/>
@@ -25971,7 +25971,7 @@
         <v>40074</v>
       </c>
       <c r="B464" s="15" t="s">
-        <v>3883</v>
+        <v>3882</v>
       </c>
       <c r="C464" s="16"/>
       <c r="D464" s="17"/>
@@ -25985,10 +25985,10 @@
       <c r="J464" s="17"/>
       <c r="K464" s="17"/>
       <c r="L464" s="18" t="s">
-        <v>3878</v>
+        <v>3877</v>
       </c>
       <c r="M464" s="18" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="N464" s="19"/>
       <c r="O464" s="19"/>
@@ -25999,7 +25999,7 @@
         <v>40075</v>
       </c>
       <c r="B465" s="15" t="s">
-        <v>3881</v>
+        <v>3880</v>
       </c>
       <c r="C465" s="16"/>
       <c r="D465" s="17"/>
@@ -26011,10 +26011,10 @@
       <c r="J465" s="17"/>
       <c r="K465" s="17"/>
       <c r="L465" s="18" t="s">
-        <v>3880</v>
+        <v>3879</v>
       </c>
       <c r="M465" s="18" t="s">
-        <v>3922</v>
+        <v>3921</v>
       </c>
       <c r="N465" s="19"/>
       <c r="O465" s="19"/>
@@ -26025,7 +26025,7 @@
         <v>40076</v>
       </c>
       <c r="B466" s="15" t="s">
-        <v>3884</v>
+        <v>3883</v>
       </c>
       <c r="C466" s="16"/>
       <c r="D466" s="17"/>
@@ -26039,10 +26039,10 @@
       <c r="J466" s="17"/>
       <c r="K466" s="17"/>
       <c r="L466" s="18" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="M466" s="18" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="N466" s="19"/>
       <c r="O466" s="19"/>
@@ -26053,7 +26053,7 @@
         <v>40077</v>
       </c>
       <c r="B467" s="15" t="s">
-        <v>3885</v>
+        <v>3884</v>
       </c>
       <c r="C467" s="16"/>
       <c r="D467" s="17"/>
@@ -26069,10 +26069,10 @@
       <c r="J467" s="17"/>
       <c r="K467" s="17"/>
       <c r="L467" s="18" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="M467" s="18" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="N467" s="19"/>
       <c r="O467" s="19"/>
@@ -26083,10 +26083,10 @@
         <v>40078</v>
       </c>
       <c r="B468" s="15" t="s">
+        <v>3885</v>
+      </c>
+      <c r="C468" s="16" t="s">
         <v>3886</v>
-      </c>
-      <c r="C468" s="16" t="s">
-        <v>3887</v>
       </c>
       <c r="D468" s="17"/>
       <c r="E468" s="17"/>
@@ -26097,10 +26097,10 @@
       <c r="J468" s="17"/>
       <c r="K468" s="17"/>
       <c r="L468" s="18" t="s">
-        <v>3888</v>
+        <v>3887</v>
       </c>
       <c r="M468" s="18" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="N468" s="19"/>
       <c r="O468" s="19"/>
@@ -26111,7 +26111,7 @@
         <v>40079</v>
       </c>
       <c r="B469" s="15" t="s">
-        <v>3889</v>
+        <v>3888</v>
       </c>
       <c r="C469" s="16"/>
       <c r="D469" s="17"/>
@@ -26123,10 +26123,10 @@
       <c r="J469" s="17"/>
       <c r="K469" s="17"/>
       <c r="L469" s="18" t="s">
-        <v>3890</v>
+        <v>3889</v>
       </c>
       <c r="M469" s="18" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="N469" s="19"/>
       <c r="O469" s="19"/>
@@ -26137,7 +26137,7 @@
         <v>40080</v>
       </c>
       <c r="B470" s="15" t="s">
-        <v>3891</v>
+        <v>3890</v>
       </c>
       <c r="C470" s="16"/>
       <c r="D470" s="17"/>
@@ -26149,13 +26149,13 @@
       <c r="J470" s="17"/>
       <c r="K470" s="17"/>
       <c r="L470" s="18" t="s">
+        <v>3893</v>
+      </c>
+      <c r="M470" s="18" t="s">
+        <v>3923</v>
+      </c>
+      <c r="N470" s="19" t="s">
         <v>3894</v>
-      </c>
-      <c r="M470" s="18" t="s">
-        <v>3924</v>
-      </c>
-      <c r="N470" s="19" t="s">
-        <v>3895</v>
       </c>
       <c r="O470" s="19"/>
       <c r="P470" s="20"/>
@@ -26165,7 +26165,7 @@
         <v>40081</v>
       </c>
       <c r="B471" s="15" t="s">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="C471" s="16"/>
       <c r="D471" s="17"/>
@@ -26177,13 +26177,13 @@
       <c r="J471" s="17"/>
       <c r="K471" s="17"/>
       <c r="L471" s="18" t="s">
+        <v>3893</v>
+      </c>
+      <c r="M471" s="18" t="s">
+        <v>3923</v>
+      </c>
+      <c r="N471" s="19" t="s">
         <v>3894</v>
-      </c>
-      <c r="M471" s="18" t="s">
-        <v>3924</v>
-      </c>
-      <c r="N471" s="19" t="s">
-        <v>3895</v>
       </c>
       <c r="O471" s="19"/>
       <c r="P471" s="20"/>
@@ -26193,7 +26193,7 @@
         <v>40082</v>
       </c>
       <c r="B472" s="15" t="s">
-        <v>3893</v>
+        <v>3892</v>
       </c>
       <c r="C472" s="16"/>
       <c r="D472" s="17"/>
@@ -26205,13 +26205,13 @@
       <c r="J472" s="17"/>
       <c r="K472" s="17"/>
       <c r="L472" s="18" t="s">
+        <v>3893</v>
+      </c>
+      <c r="M472" s="18" t="s">
+        <v>3923</v>
+      </c>
+      <c r="N472" s="19" t="s">
         <v>3894</v>
-      </c>
-      <c r="M472" s="18" t="s">
-        <v>3924</v>
-      </c>
-      <c r="N472" s="19" t="s">
-        <v>3895</v>
       </c>
       <c r="O472" s="19"/>
       <c r="P472" s="20"/>
@@ -26221,7 +26221,7 @@
         <v>40083</v>
       </c>
       <c r="B473" s="15" t="s">
-        <v>3911</v>
+        <v>3910</v>
       </c>
       <c r="C473" s="16"/>
       <c r="D473" s="17"/>
@@ -26233,13 +26233,13 @@
       <c r="J473" s="17"/>
       <c r="K473" s="17"/>
       <c r="L473" s="18" t="s">
-        <v>3894</v>
+        <v>3893</v>
       </c>
       <c r="M473" s="18" t="s">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="N473" s="19" t="s">
-        <v>3912</v>
+        <v>3911</v>
       </c>
       <c r="O473" s="19"/>
       <c r="P473" s="20"/>
@@ -26249,7 +26249,7 @@
         <v>40084</v>
       </c>
       <c r="B474" s="15" t="s">
-        <v>3913</v>
+        <v>3912</v>
       </c>
       <c r="C474" s="16"/>
       <c r="D474" s="17"/>
@@ -26261,13 +26261,13 @@
       <c r="J474" s="17"/>
       <c r="K474" s="17"/>
       <c r="L474" s="18" t="s">
-        <v>3882</v>
+        <v>3881</v>
       </c>
       <c r="M474" s="18" t="s">
-        <v>3923</v>
+        <v>3922</v>
       </c>
       <c r="N474" s="19" t="s">
-        <v>3914</v>
+        <v>3913</v>
       </c>
       <c r="O474" s="19"/>
       <c r="P474" s="20"/>
@@ -26294,10 +26294,10 @@
         <v>889</v>
       </c>
       <c r="M475" s="18" t="s">
-        <v>3917</v>
+        <v>3916</v>
       </c>
       <c r="N475" s="19" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="O475" s="19"/>
       <c r="P475" s="20"/>
@@ -26324,10 +26324,10 @@
         <v>889</v>
       </c>
       <c r="M476" s="18" t="s">
-        <v>3918</v>
+        <v>3917</v>
       </c>
       <c r="N476" s="19" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="O476" s="19"/>
       <c r="P476" s="20"/>
@@ -26353,7 +26353,7 @@
       <c r="J477" s="17"/>
       <c r="K477" s="17"/>
       <c r="L477" s="18" t="s">
-        <v>3694</v>
+        <v>3693</v>
       </c>
       <c r="M477" s="18" t="s">
         <v>956</v>
@@ -26383,7 +26383,7 @@
       <c r="J478" s="17"/>
       <c r="K478" s="17"/>
       <c r="L478" s="18" t="s">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="M478" s="18" t="s">
         <v>959</v>
@@ -26866,7 +26866,7 @@
         <v>1004</v>
       </c>
       <c r="M494" s="18" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
       <c r="N494" s="19"/>
       <c r="O494" s="19"/>
@@ -26921,7 +26921,7 @@
       <c r="J496" s="17"/>
       <c r="K496" s="17"/>
       <c r="L496" s="18" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="M496" s="18"/>
       <c r="N496" s="19"/>
@@ -26953,10 +26953,10 @@
       <c r="J497" s="17"/>
       <c r="K497" s="17"/>
       <c r="L497" s="18" t="s">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="M497" s="18" t="s">
-        <v>3772</v>
+        <v>3771</v>
       </c>
       <c r="N497" s="19"/>
       <c r="O497" s="19"/>
@@ -26982,10 +26982,10 @@
       <c r="K498" s="17"/>
       <c r="L498" s="18"/>
       <c r="M498" s="18" t="s">
-        <v>3842</v>
+        <v>3841</v>
       </c>
       <c r="N498" s="19" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="O498" s="19"/>
       <c r="P498" s="20"/>
@@ -27007,11 +27007,11 @@
       <c r="J499" s="17"/>
       <c r="K499" s="17"/>
       <c r="L499" s="18" t="s">
-        <v>3897</v>
+        <v>3896</v>
       </c>
       <c r="M499" s="18"/>
       <c r="N499" s="19" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="O499" s="19"/>
       <c r="P499" s="20"/>
@@ -27035,7 +27035,7 @@
       <c r="J500" s="17"/>
       <c r="K500" s="17"/>
       <c r="L500" s="18" t="s">
-        <v>3898</v>
+        <v>3897</v>
       </c>
       <c r="M500" s="18" t="s">
         <v>1008</v>
@@ -27063,7 +27063,7 @@
       <c r="J501" s="17"/>
       <c r="K501" s="17"/>
       <c r="L501" s="18" t="s">
-        <v>3899</v>
+        <v>3898</v>
       </c>
       <c r="M501" s="18" t="s">
         <v>1010</v>
@@ -27091,7 +27091,7 @@
       <c r="J502" s="17"/>
       <c r="K502" s="17"/>
       <c r="L502" s="18" t="s">
-        <v>3900</v>
+        <v>3899</v>
       </c>
       <c r="M502" s="18" t="s">
         <v>1012</v>
@@ -27119,7 +27119,7 @@
       <c r="J503" s="17"/>
       <c r="K503" s="17"/>
       <c r="L503" s="18" t="s">
-        <v>3901</v>
+        <v>3900</v>
       </c>
       <c r="M503" s="18" t="s">
         <v>1014</v>
@@ -27147,7 +27147,7 @@
       <c r="J504" s="17"/>
       <c r="K504" s="17"/>
       <c r="L504" s="18" t="s">
-        <v>3902</v>
+        <v>3901</v>
       </c>
       <c r="M504" s="18" t="s">
         <v>1016</v>
@@ -27175,7 +27175,7 @@
       <c r="J505" s="17"/>
       <c r="K505" s="17"/>
       <c r="L505" s="18" t="s">
-        <v>3903</v>
+        <v>3902</v>
       </c>
       <c r="M505" s="18" t="s">
         <v>1018</v>
@@ -27203,7 +27203,7 @@
       <c r="J506" s="17"/>
       <c r="K506" s="17"/>
       <c r="L506" s="18" t="s">
-        <v>3904</v>
+        <v>3903</v>
       </c>
       <c r="M506" s="18" t="s">
         <v>1020</v>
@@ -27231,7 +27231,7 @@
       <c r="J507" s="17"/>
       <c r="K507" s="17"/>
       <c r="L507" s="18" t="s">
-        <v>3905</v>
+        <v>3904</v>
       </c>
       <c r="M507" s="18" t="s">
         <v>1022</v>
@@ -27261,7 +27261,7 @@
       <c r="J508" s="17"/>
       <c r="K508" s="17"/>
       <c r="L508" s="18" t="s">
-        <v>3906</v>
+        <v>3905</v>
       </c>
       <c r="M508" s="18" t="s">
         <v>1024</v>
@@ -27291,7 +27291,7 @@
       <c r="J509" s="17"/>
       <c r="K509" s="17"/>
       <c r="L509" s="18" t="s">
-        <v>3907</v>
+        <v>3906</v>
       </c>
       <c r="M509" s="18" t="s">
         <v>1026</v>
@@ -27323,7 +27323,7 @@
         <v>1024</v>
       </c>
       <c r="N510" s="19" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="O510" s="19"/>
       <c r="P510" s="20"/>
@@ -27349,7 +27349,7 @@
       <c r="J511" s="17"/>
       <c r="K511" s="17"/>
       <c r="L511" s="18" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="M511" s="18" t="s">
         <v>3548</v>
@@ -27381,7 +27381,7 @@
       <c r="J512" s="17"/>
       <c r="K512" s="17"/>
       <c r="L512" s="18" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="M512" s="18" t="s">
         <v>3552</v>
@@ -27415,7 +27415,7 @@
       <c r="J513" s="17"/>
       <c r="K513" s="17"/>
       <c r="L513" s="18" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="M513" s="18" t="s">
         <v>3557</v>
@@ -27447,7 +27447,7 @@
       <c r="J514" s="17"/>
       <c r="K514" s="17"/>
       <c r="L514" s="18" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="M514" s="18" t="s">
         <v>3558</v>
@@ -27475,7 +27475,7 @@
       <c r="J515" s="17"/>
       <c r="K515" s="17"/>
       <c r="L515" s="18" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="M515" s="18" t="s">
         <v>3559</v>
@@ -27505,7 +27505,7 @@
       <c r="J516" s="17"/>
       <c r="K516" s="17"/>
       <c r="L516" s="18" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="M516" s="18" t="s">
         <v>1028</v>
@@ -27535,7 +27535,7 @@
       <c r="J517" s="17"/>
       <c r="K517" s="17"/>
       <c r="L517" s="18" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="M517" s="18" t="s">
         <v>1030</v>
@@ -27565,7 +27565,7 @@
       <c r="J518" s="17"/>
       <c r="K518" s="17"/>
       <c r="L518" s="18" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="M518" s="18" t="s">
         <v>1032</v>
@@ -27595,7 +27595,7 @@
       <c r="J519" s="17"/>
       <c r="K519" s="17"/>
       <c r="L519" s="18" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="M519" s="18" t="s">
         <v>1034</v>
@@ -27625,7 +27625,7 @@
       <c r="J520" s="17"/>
       <c r="K520" s="17"/>
       <c r="L520" s="18" t="s">
-        <v>3908</v>
+        <v>3907</v>
       </c>
       <c r="M520" s="18" t="s">
         <v>1036</v>
@@ -27653,7 +27653,7 @@
       <c r="J521" s="17"/>
       <c r="K521" s="17"/>
       <c r="L521" s="18" t="s">
-        <v>3896</v>
+        <v>3895</v>
       </c>
       <c r="M521" s="18"/>
       <c r="N521" s="19"/>
@@ -27681,7 +27681,7 @@
       <c r="J522" s="17"/>
       <c r="K522" s="17"/>
       <c r="L522" s="18" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="M522" s="18" t="s">
         <v>1039</v>
@@ -27711,7 +27711,7 @@
       <c r="J523" s="17"/>
       <c r="K523" s="17"/>
       <c r="L523" s="18" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="M523" s="18" t="s">
         <v>1041</v>
@@ -27741,7 +27741,7 @@
       <c r="J524" s="17"/>
       <c r="K524" s="17"/>
       <c r="L524" s="18" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="M524" s="18" t="s">
         <v>1043</v>
@@ -27771,7 +27771,7 @@
       <c r="J525" s="17"/>
       <c r="K525" s="17"/>
       <c r="L525" s="18" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="M525" s="18" t="s">
         <v>1045</v>
@@ -27801,7 +27801,7 @@
       <c r="J526" s="17"/>
       <c r="K526" s="17"/>
       <c r="L526" s="18" t="s">
-        <v>3909</v>
+        <v>3908</v>
       </c>
       <c r="M526" s="18" t="s">
         <v>1047</v>
@@ -27815,7 +27815,7 @@
         <v>20390</v>
       </c>
       <c r="B527" s="15" t="s">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="C527" s="16"/>
       <c r="D527" s="17"/>
@@ -27829,10 +27829,10 @@
       </c>
       <c r="K527" s="17"/>
       <c r="L527" s="18" t="s">
+        <v>3930</v>
+      </c>
+      <c r="M527" s="18" t="s">
         <v>3931</v>
-      </c>
-      <c r="M527" s="18" t="s">
-        <v>3932</v>
       </c>
       <c r="N527" s="19"/>
       <c r="O527" s="19"/>
@@ -30423,10 +30423,10 @@
         <v>10458</v>
       </c>
       <c r="B624" s="15" t="s">
-        <v>3684</v>
+        <v>3683</v>
       </c>
       <c r="C624" s="16" t="s">
-        <v>3683</v>
+        <v>3682</v>
       </c>
       <c r="D624" s="17"/>
       <c r="E624" s="17"/>
@@ -30442,10 +30442,10 @@
       </c>
       <c r="N624" s="19"/>
       <c r="O624" s="19" t="s">
-        <v>3859</v>
+        <v>3858</v>
       </c>
       <c r="P624" s="20" t="s">
-        <v>3857</v>
+        <v>3856</v>
       </c>
     </row>
     <row r="625" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -30453,7 +30453,7 @@
         <v>20461</v>
       </c>
       <c r="B625" s="15" t="s">
-        <v>3685</v>
+        <v>3684</v>
       </c>
       <c r="C625" s="16"/>
       <c r="D625" s="17"/>
@@ -30477,7 +30477,7 @@
         <v>20462</v>
       </c>
       <c r="B626" s="15" t="s">
-        <v>3858</v>
+        <v>3857</v>
       </c>
       <c r="C626" s="16"/>
       <c r="D626" s="17"/>
@@ -31546,7 +31546,7 @@
         <v>889</v>
       </c>
       <c r="M666" s="18" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
       <c r="N666" s="19" t="s">
         <v>1323</v>
@@ -33670,10 +33670,10 @@
       </c>
       <c r="N745" s="19"/>
       <c r="O745" s="19" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="P745" s="20" t="s">
-        <v>3854</v>
+        <v>3853</v>
       </c>
     </row>
     <row r="746" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -34018,7 +34018,7 @@
         <v>1517</v>
       </c>
       <c r="O758" s="19" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="P758" s="20" t="s">
         <v>1518</v>
@@ -36077,7 +36077,7 @@
         <v>10649</v>
       </c>
       <c r="B837" s="15" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
       <c r="C837" s="16"/>
       <c r="D837" s="17"/>
@@ -36103,7 +36103,7 @@
         <v>10650</v>
       </c>
       <c r="B838" s="15" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="C838" s="16"/>
       <c r="D838" s="17"/>
@@ -36129,7 +36129,7 @@
         <v>10651</v>
       </c>
       <c r="B839" s="15" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
       <c r="C839" s="16"/>
       <c r="D839" s="17"/>
@@ -36155,7 +36155,7 @@
         <v>10652</v>
       </c>
       <c r="B840" s="15" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
       <c r="C840" s="16"/>
       <c r="D840" s="17"/>
@@ -36181,7 +36181,7 @@
         <v>10653</v>
       </c>
       <c r="B841" s="15" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
       <c r="C841" s="16"/>
       <c r="D841" s="17"/>
@@ -37044,7 +37044,7 @@
         <v>1702</v>
       </c>
       <c r="M873" s="18" t="s">
-        <v>3777</v>
+        <v>3776</v>
       </c>
       <c r="N873" s="19"/>
       <c r="O873" s="19"/>
@@ -37070,7 +37070,7 @@
         <v>1745</v>
       </c>
       <c r="M874" s="18" t="s">
-        <v>3778</v>
+        <v>3777</v>
       </c>
       <c r="N874" s="19"/>
       <c r="O874" s="19"/>
@@ -39284,7 +39284,7 @@
         <v>3465</v>
       </c>
       <c r="O958" s="19" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="P958" s="20" t="s">
         <v>3464</v>
@@ -39321,7 +39321,7 @@
         <v>20770</v>
       </c>
       <c r="B960" s="15" t="s">
-        <v>3928</v>
+        <v>3927</v>
       </c>
       <c r="C960" s="16"/>
       <c r="D960" s="17"/>
@@ -39333,10 +39333,10 @@
       <c r="J960" s="17"/>
       <c r="K960" s="17"/>
       <c r="L960" s="18" t="s">
+        <v>3622</v>
+      </c>
+      <c r="M960" s="18" t="s">
         <v>3623</v>
-      </c>
-      <c r="M960" s="18" t="s">
-        <v>3624</v>
       </c>
       <c r="N960" s="19"/>
       <c r="O960" s="19"/>
@@ -39347,7 +39347,7 @@
         <v>10770</v>
       </c>
       <c r="B961" s="15" t="s">
-        <v>3622</v>
+        <v>3937</v>
       </c>
       <c r="C961" s="16"/>
       <c r="D961" s="17"/>
@@ -39373,7 +39373,7 @@
         <v>10771</v>
       </c>
       <c r="B962" s="15" t="s">
-        <v>3919</v>
+        <v>3918</v>
       </c>
       <c r="C962" s="16"/>
       <c r="D962" s="17"/>
@@ -39399,7 +39399,7 @@
         <v>10772</v>
       </c>
       <c r="B963" s="15" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="C963" s="16"/>
       <c r="D963" s="17"/>
@@ -39503,7 +39503,7 @@
         <v>10776</v>
       </c>
       <c r="B967" s="15" t="s">
-        <v>3921</v>
+        <v>3920</v>
       </c>
       <c r="C967" s="16"/>
       <c r="D967" s="17"/>
@@ -39633,7 +39633,7 @@
         <v>10781</v>
       </c>
       <c r="B972" s="15" t="s">
-        <v>3929</v>
+        <v>3928</v>
       </c>
       <c r="C972" s="16"/>
       <c r="D972" s="17"/>
@@ -39659,7 +39659,7 @@
         <v>10782</v>
       </c>
       <c r="B973" s="15" t="s">
-        <v>3920</v>
+        <v>3919</v>
       </c>
       <c r="C973" s="16"/>
       <c r="D973" s="17"/>
@@ -42183,7 +42183,7 @@
         <v>10876</v>
       </c>
       <c r="B1067" s="15" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
       <c r="C1067" s="16"/>
       <c r="D1067" s="17"/>
@@ -43565,7 +43565,7 @@
       <c r="J1118" s="17"/>
       <c r="K1118" s="17"/>
       <c r="L1118" s="18" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="M1118" s="18" t="s">
         <v>2259</v>
@@ -45968,7 +45968,7 @@
         <v>2289</v>
       </c>
       <c r="M1209" s="18" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="N1209" s="19"/>
       <c r="O1209" s="19"/>
@@ -45979,7 +45979,7 @@
         <v>21015</v>
       </c>
       <c r="B1210" s="15" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
       <c r="C1210" s="16"/>
       <c r="D1210" s="17"/>
@@ -45994,7 +45994,7 @@
         <v>2289</v>
       </c>
       <c r="M1210" s="18" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="N1210" s="19"/>
       <c r="O1210" s="19"/>
@@ -46020,7 +46020,7 @@
         <v>2289</v>
       </c>
       <c r="M1211" s="18" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="N1211" s="19"/>
       <c r="O1211" s="19"/>
@@ -46046,7 +46046,7 @@
         <v>2289</v>
       </c>
       <c r="M1212" s="18" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="N1212" s="19"/>
       <c r="O1212" s="19"/>
@@ -46072,7 +46072,7 @@
         <v>2289</v>
       </c>
       <c r="M1213" s="18" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="N1213" s="19"/>
       <c r="O1213" s="19"/>
@@ -46098,7 +46098,7 @@
         <v>2289</v>
       </c>
       <c r="M1214" s="18" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="N1214" s="19"/>
       <c r="O1214" s="19"/>
@@ -46124,7 +46124,7 @@
         <v>2289</v>
       </c>
       <c r="M1215" s="18" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
       <c r="N1215" s="19"/>
       <c r="O1215" s="19"/>
@@ -48936,7 +48936,7 @@
         <v>2656</v>
       </c>
       <c r="M1322" s="18" t="s">
-        <v>3926</v>
+        <v>3925</v>
       </c>
       <c r="N1322" s="19"/>
       <c r="O1322" s="19"/>
@@ -48988,7 +48988,7 @@
         <v>2656</v>
       </c>
       <c r="M1324" s="18" t="s">
-        <v>3927</v>
+        <v>3926</v>
       </c>
       <c r="N1324" s="19"/>
       <c r="O1324" s="19"/>
@@ -49013,7 +49013,7 @@
       <c r="J1325" s="17"/>
       <c r="K1325" s="17"/>
       <c r="L1325" s="18" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="M1325" s="18" t="s">
         <v>2704</v>
@@ -49039,10 +49039,10 @@
       <c r="J1326" s="17"/>
       <c r="K1326" s="17"/>
       <c r="L1326" s="18" t="s">
-        <v>3933</v>
+        <v>3932</v>
       </c>
       <c r="M1326" s="18" t="s">
-        <v>3925</v>
+        <v>3924</v>
       </c>
       <c r="N1326" s="19"/>
       <c r="O1326" s="19"/>
@@ -51046,10 +51046,10 @@
       </c>
       <c r="N1403" s="19"/>
       <c r="O1403" s="19" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="P1403" s="20" t="s">
-        <v>3855</v>
+        <v>3854</v>
       </c>
     </row>
     <row r="1404" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -51446,10 +51446,10 @@
       </c>
       <c r="N1418" s="19"/>
       <c r="O1418" s="19" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="P1418" s="20" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="1419" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -52758,10 +52758,10 @@
       </c>
       <c r="N1467" s="19"/>
       <c r="O1467" s="19" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="P1467" s="20" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="1468" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -53025,17 +53025,17 @@
       <c r="J1477" s="17"/>
       <c r="K1477" s="17"/>
       <c r="L1477" s="18" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
       <c r="M1477" s="18" t="s">
         <v>3001</v>
       </c>
       <c r="N1477" s="19"/>
       <c r="O1477" s="19" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="P1477" s="20" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="1478" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -53975,7 +53975,7 @@
         <v>3085</v>
       </c>
       <c r="N1512" s="19" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
       <c r="O1512" s="19"/>
       <c r="P1512" s="20"/>
@@ -54384,10 +54384,10 @@
       </c>
       <c r="N1527" s="19"/>
       <c r="O1527" s="19" t="s">
-        <v>3849</v>
+        <v>3848</v>
       </c>
       <c r="P1527" s="20" t="s">
-        <v>3856</v>
+        <v>3855</v>
       </c>
     </row>
     <row r="1528" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -55360,7 +55360,7 @@
         <v>3171</v>
       </c>
       <c r="M1563" s="18" t="s">
-        <v>3690</v>
+        <v>3689</v>
       </c>
       <c r="N1563" s="19"/>
       <c r="O1563" s="19"/>
@@ -55383,7 +55383,7 @@
       <c r="J1564" s="17"/>
       <c r="K1564" s="17"/>
       <c r="L1564" s="18" t="s">
-        <v>3689</v>
+        <v>3688</v>
       </c>
       <c r="M1564" s="18" t="s">
         <v>3516</v>
@@ -57475,7 +57475,7 @@
         <v>11430</v>
       </c>
       <c r="B1644" s="15" t="s">
-        <v>3672</v>
+        <v>3671</v>
       </c>
       <c r="C1644" s="16"/>
       <c r="D1644" s="17"/>
@@ -58794,7 +58794,7 @@
       <c r="K1693" s="17"/>
       <c r="L1693" s="18"/>
       <c r="M1693" s="18" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="N1693" s="19"/>
       <c r="O1693" s="19"/>
@@ -58948,7 +58948,7 @@
         <v>3612</v>
       </c>
       <c r="M1699" s="18" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="N1699" s="19"/>
       <c r="O1699" s="19"/>
@@ -58985,7 +58985,7 @@
         <v>11484</v>
       </c>
       <c r="B1701" s="15" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="C1701" s="16"/>
       <c r="D1701" s="17"/>
@@ -58998,7 +58998,7 @@
       <c r="K1701" s="17"/>
       <c r="L1701" s="18"/>
       <c r="M1701" s="18" t="s">
-        <v>3637</v>
+        <v>3636</v>
       </c>
       <c r="N1701" s="19"/>
       <c r="O1701" s="19"/>
@@ -59009,7 +59009,7 @@
         <v>11485</v>
       </c>
       <c r="B1702" s="15" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
       <c r="C1702" s="16"/>
       <c r="D1702" s="17"/>
@@ -59022,7 +59022,7 @@
       <c r="K1702" s="17"/>
       <c r="L1702" s="18"/>
       <c r="M1702" s="18" t="s">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="N1702" s="19"/>
       <c r="O1702" s="19"/>
@@ -59033,7 +59033,7 @@
         <v>11486</v>
       </c>
       <c r="B1703" s="15" t="s">
-        <v>3682</v>
+        <v>3681</v>
       </c>
       <c r="C1703" s="16"/>
       <c r="D1703" s="17"/>
@@ -59048,7 +59048,7 @@
         <v>2040</v>
       </c>
       <c r="M1703" s="18" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="N1703" s="19"/>
       <c r="O1703" s="19"/>
@@ -59059,7 +59059,7 @@
         <v>11487</v>
       </c>
       <c r="B1704" s="15" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
       <c r="C1704" s="16"/>
       <c r="D1704" s="17"/>
@@ -59072,7 +59072,7 @@
       <c r="K1704" s="17"/>
       <c r="L1704" s="18"/>
       <c r="M1704" s="18" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="N1704" s="19"/>
       <c r="O1704" s="19"/>
@@ -59083,7 +59083,7 @@
         <v>11488</v>
       </c>
       <c r="B1705" s="15" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
       <c r="C1705" s="16"/>
       <c r="D1705" s="17"/>
@@ -59098,7 +59098,7 @@
         <v>3612</v>
       </c>
       <c r="M1705" s="18" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="N1705" s="19"/>
       <c r="O1705" s="19"/>
@@ -59109,7 +59109,7 @@
         <v>11489</v>
       </c>
       <c r="B1706" s="15" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
       <c r="C1706" s="16"/>
       <c r="D1706" s="17"/>
@@ -59122,7 +59122,7 @@
       <c r="K1706" s="17"/>
       <c r="L1706" s="18"/>
       <c r="M1706" s="18" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="N1706" s="19"/>
       <c r="O1706" s="19"/>
@@ -59133,7 +59133,7 @@
         <v>11490</v>
       </c>
       <c r="B1707" s="15" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
       <c r="C1707" s="16"/>
       <c r="D1707" s="17"/>
@@ -59148,7 +59148,7 @@
         <v>2040</v>
       </c>
       <c r="M1707" s="18" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="N1707" s="19"/>
       <c r="O1707" s="19"/>
@@ -59159,7 +59159,7 @@
         <v>11491</v>
       </c>
       <c r="B1708" s="15" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
       <c r="C1708" s="16"/>
       <c r="D1708" s="17"/>
@@ -59171,10 +59171,10 @@
       <c r="J1708" s="17"/>
       <c r="K1708" s="17"/>
       <c r="L1708" s="18" t="s">
-        <v>3649</v>
+        <v>3648</v>
       </c>
       <c r="M1708" s="18" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="N1708" s="19"/>
       <c r="O1708" s="19"/>
@@ -59185,7 +59185,7 @@
         <v>11492</v>
       </c>
       <c r="B1709" s="15" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
       <c r="C1709" s="16"/>
       <c r="D1709" s="17"/>
@@ -59202,7 +59202,7 @@
         <v>2040</v>
       </c>
       <c r="M1709" s="18" t="s">
-        <v>3645</v>
+        <v>3644</v>
       </c>
       <c r="N1709" s="19"/>
       <c r="O1709" s="19"/>
@@ -59213,7 +59213,7 @@
         <v>11493</v>
       </c>
       <c r="B1710" s="15" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="C1710" s="16"/>
       <c r="D1710" s="17"/>
@@ -59228,7 +59228,7 @@
         <v>3612</v>
       </c>
       <c r="M1710" s="18" t="s">
-        <v>3646</v>
+        <v>3645</v>
       </c>
       <c r="N1710" s="19"/>
       <c r="O1710" s="19"/>
@@ -59239,7 +59239,7 @@
         <v>11494</v>
       </c>
       <c r="B1711" s="15" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
       <c r="C1711" s="16"/>
       <c r="D1711" s="17"/>
@@ -59254,7 +59254,7 @@
         <v>3612</v>
       </c>
       <c r="M1711" s="18" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
       <c r="N1711" s="19"/>
       <c r="O1711" s="19"/>
@@ -59265,7 +59265,7 @@
         <v>11495</v>
       </c>
       <c r="B1712" s="15" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="C1712" s="16"/>
       <c r="D1712" s="17"/>
@@ -59280,7 +59280,7 @@
         <v>2040</v>
       </c>
       <c r="M1712" s="18" t="s">
-        <v>3648</v>
+        <v>3647</v>
       </c>
       <c r="N1712" s="19"/>
       <c r="O1712" s="19"/>
@@ -59291,7 +59291,7 @@
         <v>11496</v>
       </c>
       <c r="B1713" s="15" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="C1713" s="16"/>
       <c r="D1713" s="17"/>
@@ -59306,7 +59306,7 @@
         <v>3612</v>
       </c>
       <c r="M1713" s="18" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="N1713" s="19"/>
       <c r="O1713" s="19"/>
@@ -59317,7 +59317,7 @@
         <v>11497</v>
       </c>
       <c r="B1714" s="15" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="C1714" s="16"/>
       <c r="D1714" s="17"/>
@@ -59330,7 +59330,7 @@
       <c r="K1714" s="17"/>
       <c r="L1714" s="18"/>
       <c r="M1714" s="18" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="N1714" s="19"/>
       <c r="O1714" s="19"/>
@@ -59341,7 +59341,7 @@
         <v>11498</v>
       </c>
       <c r="B1715" s="15" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
       <c r="C1715" s="16"/>
       <c r="D1715" s="17"/>
@@ -59356,7 +59356,7 @@
         <v>3612</v>
       </c>
       <c r="M1715" s="18" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="N1715" s="19"/>
       <c r="O1715" s="19"/>
@@ -59367,7 +59367,7 @@
         <v>11499</v>
       </c>
       <c r="B1716" s="15" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
       <c r="C1716" s="16"/>
       <c r="D1716" s="17"/>
@@ -59379,10 +59379,10 @@
       <c r="J1716" s="17"/>
       <c r="K1716" s="17"/>
       <c r="L1716" s="18" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="M1716" s="18" t="s">
-        <v>3673</v>
+        <v>3672</v>
       </c>
       <c r="N1716" s="19"/>
       <c r="O1716" s="19"/>
@@ -59393,7 +59393,7 @@
         <v>11500</v>
       </c>
       <c r="B1717" s="15" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
       <c r="C1717" s="16"/>
       <c r="D1717" s="17"/>
@@ -59407,10 +59407,10 @@
       <c r="J1717" s="17"/>
       <c r="K1717" s="17"/>
       <c r="L1717" s="18" t="s">
+        <v>3676</v>
+      </c>
+      <c r="M1717" s="18" t="s">
         <v>3677</v>
-      </c>
-      <c r="M1717" s="18" t="s">
-        <v>3678</v>
       </c>
       <c r="N1717" s="19"/>
       <c r="O1717" s="19"/>
@@ -59421,7 +59421,7 @@
         <v>11501</v>
       </c>
       <c r="B1718" s="15" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
       <c r="C1718" s="16"/>
       <c r="D1718" s="17"/>
@@ -59433,10 +59433,10 @@
       <c r="J1718" s="17"/>
       <c r="K1718" s="17"/>
       <c r="L1718" s="18" t="s">
-        <v>3681</v>
+        <v>3680</v>
       </c>
       <c r="M1718" s="18" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
       <c r="N1718" s="19"/>
       <c r="O1718" s="19"/>
@@ -59447,7 +59447,7 @@
         <v>11502</v>
       </c>
       <c r="B1719" s="15" t="s">
-        <v>3774</v>
+        <v>3773</v>
       </c>
       <c r="C1719" s="16"/>
       <c r="D1719" s="17"/>
@@ -59459,10 +59459,10 @@
       <c r="J1719" s="17"/>
       <c r="K1719" s="17"/>
       <c r="L1719" s="18" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
       <c r="M1719" s="18" t="s">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="N1719" s="19"/>
       <c r="O1719" s="19"/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABE102B-4876-422A-B9CF-0FA360387E2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAB6BA7-2EE4-4512-A87F-9A06D7997EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12339,10 +12339,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>【绝密消息】你捡到一张纸条，上面写着“第14群群号：973647714”。纸背面还有备注“加过前13个群的就不要加了，顶不住了……”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>(EVT?[10871])&amp;(INT&gt;7)</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -12356,6 +12352,10 @@
   </si>
   <si>
     <t>【绝密消息】你捡到一张纸条，上面写着“第15群群号：975916026”。纸背面还有备注“加过前14个群的就不要加了，顶不住了……”</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>【绝密消息】你捡到一张纸条，上面写着“第16群群号：287169882”。纸背面还有备注“加过前15个群的就不要加了，顶不住了……”</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -12958,7 +12958,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C959" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B966" sqref="B966"/>
+      <selection pane="bottomRight" activeCell="C964" sqref="C964"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -26297,7 +26297,7 @@
         <v>3916</v>
       </c>
       <c r="N475" s="19" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="O475" s="19"/>
       <c r="P475" s="20"/>
@@ -26327,7 +26327,7 @@
         <v>3917</v>
       </c>
       <c r="N476" s="19" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="O476" s="19"/>
       <c r="P476" s="20"/>
@@ -26985,7 +26985,7 @@
         <v>3841</v>
       </c>
       <c r="N498" s="19" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="O498" s="19"/>
       <c r="P498" s="20"/>
@@ -27011,7 +27011,7 @@
       </c>
       <c r="M499" s="18"/>
       <c r="N499" s="19" t="s">
-        <v>3935</v>
+        <v>3934</v>
       </c>
       <c r="O499" s="19"/>
       <c r="P499" s="20"/>
@@ -27323,7 +27323,7 @@
         <v>1024</v>
       </c>
       <c r="N510" s="19" t="s">
-        <v>3936</v>
+        <v>3935</v>
       </c>
       <c r="O510" s="19"/>
       <c r="P510" s="20"/>
@@ -39347,7 +39347,7 @@
         <v>10770</v>
       </c>
       <c r="B961" s="15" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="C961" s="16"/>
       <c r="D961" s="17"/>
@@ -39399,7 +39399,7 @@
         <v>10772</v>
       </c>
       <c r="B963" s="15" t="s">
-        <v>3933</v>
+        <v>3937</v>
       </c>
       <c r="C963" s="16"/>
       <c r="D963" s="17"/>
@@ -43565,7 +43565,7 @@
       <c r="J1118" s="17"/>
       <c r="K1118" s="17"/>
       <c r="L1118" s="18" t="s">
-        <v>3934</v>
+        <v>3933</v>
       </c>
       <c r="M1118" s="18" t="s">
         <v>2259</v>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAB6BA7-2EE4-4512-A87F-9A06D7997EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9743F8-AC02-4BEF-9B4E-0DB1BE0A85C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12351,11 +12351,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>【绝密消息】你捡到一张纸条，上面写着“第15群群号：975916026”。纸背面还有备注“加过前14个群的就不要加了，顶不住了……”</t>
+    <t>【绝密消息】你捡到一张纸条，上面写着“第16群群号：287169882”。纸背面还有备注“加过前15个群的就不要加了，顶不住了……”</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>【绝密消息】你捡到一张纸条，上面写着“第16群群号：287169882”。纸背面还有备注“加过前15个群的就不要加了，顶不住了……”</t>
+    <t>【绝密消息】你捡到一张纸条，上面写着“第17群群号：789031015”。纸背面还有备注“加过前16个群的就不要加了，顶不住了……”</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -12958,7 +12958,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C959" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C964" sqref="C964"/>
+      <selection pane="bottomRight" activeCell="B967" sqref="B967"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -39347,7 +39347,7 @@
         <v>10770</v>
       </c>
       <c r="B961" s="15" t="s">
-        <v>3936</v>
+        <v>3937</v>
       </c>
       <c r="C961" s="16"/>
       <c r="D961" s="17"/>
@@ -39399,7 +39399,7 @@
         <v>10772</v>
       </c>
       <c r="B963" s="15" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="C963" s="16"/>
       <c r="D963" s="17"/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE109988-57C6-4891-97C8-2F305C329E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC0C1F6-912E-4134-8E65-2824B3A48368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12353,15 +12353,15 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>【绝密消息】你捡到一张纸条，上面写着“第18群群号：550990389”。纸背面还有备注“加过前17个群的就不要加了，顶不住了……”</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>【绝密消息】据说，某游戏作者将版权卖给了一个手游公司，公司做成手游后可能会加入广告。但是原版的网页游戏是永远不会加入广告的。</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>(TLT?[1131])&amp;(EVT?[10002,20053,10111])&amp;(EVT?[10007,10008])</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>【绝密消息】你捡到一张纸条，上面写着“快20个群都加满了，不加了不加了，关注策划的贴吧号神户小德或者B站神户艾兰德吧，不要私信了求求了“</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -12961,10 +12961,10 @@
   <dimension ref="A1:P1767"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="F1661" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C953" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="L1670" sqref="L1670"/>
+      <selection pane="bottomRight" activeCell="B965" sqref="B965"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -39353,7 +39353,7 @@
         <v>10770</v>
       </c>
       <c r="B961" s="15" t="s">
-        <v>3936</v>
+        <v>3938</v>
       </c>
       <c r="C961" s="16"/>
       <c r="D961" s="17"/>
@@ -39379,7 +39379,7 @@
         <v>10771</v>
       </c>
       <c r="B962" s="15" t="s">
-        <v>3937</v>
+        <v>3936</v>
       </c>
       <c r="C962" s="16"/>
       <c r="D962" s="17"/>
@@ -58049,7 +58049,7 @@
       <c r="J1665" s="17"/>
       <c r="K1665" s="17"/>
       <c r="L1665" s="18" t="s">
-        <v>3938</v>
+        <v>3937</v>
       </c>
       <c r="M1665" s="18"/>
       <c r="N1665" s="19"/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -1,32 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code\Github\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B705E9A-47F4-4322-BAEA-9870C924D173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="events" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>da15d917-ab5a-4d2b-bc8c-26855b97a543</author>
     <author>9295af04-e230-4580-8faa-171dce54b53a</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -42,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="N2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5236" uniqueCount="3941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5255" uniqueCount="3960">
   <si>
     <t>$id</t>
   </si>
@@ -12373,13 +12372,89 @@
   </si>
   <si>
     <t>【绝密消息】某策划自己重开了500多次，最好成绩是死在心魔劫，心态崩了，一直没成功飞升过。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学家研究出了生物芯片</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学家宣布人工义肢可以接入神经</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑机接口已经成功商用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的肉体被装上了赛博义肢</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被选为了”人类永生计划“参与者</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>你成为了世界首个机械融合的人类</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>80%的人类成为了机械融合的新兴人类</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"蠕虫病毒"或将成为世界安全隐患</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>广泛的机械义肢成为黑客的攻击目标</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的账户被黑了</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的隐私被黑客盗取</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的赛博义肢被黑客控制</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学家宣称人类进入了"赛博元年"</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>你所在的城市频繁出现大规模的车祸</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏绿洲发布</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>你听说有人在游戏世界死亡</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在VR世界中游玩时，你大脑的重要芯片被黑客攻击了，你死了</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家发布计划:要在十年内完成机械义肢的100%覆盖</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>你听说国外出现了一个叫"方程式"的黑客组织</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -12968,20 +13043,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P1767"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G1396" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="G1729" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1403" sqref="B1403"/>
+      <selection pane="bottomRight" activeCell="B1741" sqref="B1741"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.44140625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="81.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="141.44140625" style="8" customWidth="1"/>
     <col min="3" max="3" width="50.5546875" style="8" customWidth="1"/>
     <col min="4" max="5" width="15.6640625" style="8" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="8" customWidth="1"/>
@@ -59486,8 +59561,12 @@
       <c r="P1719" s="20"/>
     </row>
     <row r="1720" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1720" s="15"/>
-      <c r="B1720" s="15"/>
+      <c r="A1720" s="15">
+        <v>11503</v>
+      </c>
+      <c r="B1720" s="15" t="s">
+        <v>3941</v>
+      </c>
       <c r="C1720" s="16"/>
       <c r="D1720" s="17"/>
       <c r="E1720" s="17"/>
@@ -59504,8 +59583,12 @@
       <c r="P1720" s="20"/>
     </row>
     <row r="1721" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1721" s="15"/>
-      <c r="B1721" s="15"/>
+      <c r="A1721" s="15">
+        <v>11504</v>
+      </c>
+      <c r="B1721" s="15" t="s">
+        <v>3942</v>
+      </c>
       <c r="C1721" s="16"/>
       <c r="D1721" s="17"/>
       <c r="E1721" s="17"/>
@@ -59522,8 +59605,12 @@
       <c r="P1721" s="20"/>
     </row>
     <row r="1722" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1722" s="15"/>
-      <c r="B1722" s="15"/>
+      <c r="A1722" s="15">
+        <v>11505</v>
+      </c>
+      <c r="B1722" s="15" t="s">
+        <v>3943</v>
+      </c>
       <c r="C1722" s="16"/>
       <c r="D1722" s="17"/>
       <c r="E1722" s="17"/>
@@ -59540,8 +59627,12 @@
       <c r="P1722" s="20"/>
     </row>
     <row r="1723" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1723" s="15"/>
-      <c r="B1723" s="15"/>
+      <c r="A1723" s="15">
+        <v>11506</v>
+      </c>
+      <c r="B1723" s="15" t="s">
+        <v>3945</v>
+      </c>
       <c r="C1723" s="16"/>
       <c r="D1723" s="17"/>
       <c r="E1723" s="17"/>
@@ -59558,8 +59649,12 @@
       <c r="P1723" s="20"/>
     </row>
     <row r="1724" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1724" s="15"/>
-      <c r="B1724" s="15"/>
+      <c r="A1724" s="15">
+        <v>11507</v>
+      </c>
+      <c r="B1724" s="15" t="s">
+        <v>3944</v>
+      </c>
       <c r="C1724" s="16"/>
       <c r="D1724" s="17"/>
       <c r="E1724" s="17"/>
@@ -59576,8 +59671,12 @@
       <c r="P1724" s="20"/>
     </row>
     <row r="1725" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1725" s="15"/>
-      <c r="B1725" s="15"/>
+      <c r="A1725" s="15">
+        <v>11508</v>
+      </c>
+      <c r="B1725" s="15" t="s">
+        <v>3946</v>
+      </c>
       <c r="C1725" s="16"/>
       <c r="D1725" s="17"/>
       <c r="E1725" s="17"/>
@@ -59594,8 +59693,12 @@
       <c r="P1725" s="20"/>
     </row>
     <row r="1726" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1726" s="15"/>
-      <c r="B1726" s="15"/>
+      <c r="A1726" s="15">
+        <v>11509</v>
+      </c>
+      <c r="B1726" s="15" t="s">
+        <v>3947</v>
+      </c>
       <c r="C1726" s="16"/>
       <c r="D1726" s="17"/>
       <c r="E1726" s="17"/>
@@ -59612,8 +59715,12 @@
       <c r="P1726" s="20"/>
     </row>
     <row r="1727" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1727" s="15"/>
-      <c r="B1727" s="15"/>
+      <c r="A1727" s="15">
+        <v>11510</v>
+      </c>
+      <c r="B1727" s="15" t="s">
+        <v>3948</v>
+      </c>
       <c r="C1727" s="16"/>
       <c r="D1727" s="17"/>
       <c r="E1727" s="17"/>
@@ -59630,8 +59737,12 @@
       <c r="P1727" s="20"/>
     </row>
     <row r="1728" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1728" s="15"/>
-      <c r="B1728" s="15"/>
+      <c r="A1728" s="15">
+        <v>11511</v>
+      </c>
+      <c r="B1728" s="15" t="s">
+        <v>3949</v>
+      </c>
       <c r="C1728" s="16"/>
       <c r="D1728" s="17"/>
       <c r="E1728" s="17"/>
@@ -59648,8 +59759,12 @@
       <c r="P1728" s="20"/>
     </row>
     <row r="1729" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1729" s="15"/>
-      <c r="B1729" s="15"/>
+      <c r="A1729" s="15">
+        <v>11512</v>
+      </c>
+      <c r="B1729" s="15" t="s">
+        <v>3950</v>
+      </c>
       <c r="C1729" s="16"/>
       <c r="D1729" s="17"/>
       <c r="E1729" s="17"/>
@@ -59666,8 +59781,12 @@
       <c r="P1729" s="20"/>
     </row>
     <row r="1730" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1730" s="15"/>
-      <c r="B1730" s="15"/>
+      <c r="A1730" s="15">
+        <v>11513</v>
+      </c>
+      <c r="B1730" s="15" t="s">
+        <v>3951</v>
+      </c>
       <c r="C1730" s="16"/>
       <c r="D1730" s="17"/>
       <c r="E1730" s="17"/>
@@ -59684,8 +59803,12 @@
       <c r="P1730" s="20"/>
     </row>
     <row r="1731" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1731" s="15"/>
-      <c r="B1731" s="15"/>
+      <c r="A1731" s="15">
+        <v>11514</v>
+      </c>
+      <c r="B1731" s="15" t="s">
+        <v>3952</v>
+      </c>
       <c r="C1731" s="16"/>
       <c r="D1731" s="17"/>
       <c r="E1731" s="17"/>
@@ -59702,8 +59825,12 @@
       <c r="P1731" s="20"/>
     </row>
     <row r="1732" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1732" s="15"/>
-      <c r="B1732" s="15"/>
+      <c r="A1732" s="15">
+        <v>11515</v>
+      </c>
+      <c r="B1732" s="15" t="s">
+        <v>3953</v>
+      </c>
       <c r="C1732" s="16"/>
       <c r="D1732" s="17"/>
       <c r="E1732" s="17"/>
@@ -59720,8 +59847,12 @@
       <c r="P1732" s="20"/>
     </row>
     <row r="1733" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1733" s="15"/>
-      <c r="B1733" s="15"/>
+      <c r="A1733" s="15">
+        <v>11516</v>
+      </c>
+      <c r="B1733" s="15" t="s">
+        <v>3954</v>
+      </c>
       <c r="C1733" s="16"/>
       <c r="D1733" s="17"/>
       <c r="E1733" s="17"/>
@@ -59738,8 +59869,12 @@
       <c r="P1733" s="20"/>
     </row>
     <row r="1734" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1734" s="15"/>
-      <c r="B1734" s="15"/>
+      <c r="A1734" s="15">
+        <v>11517</v>
+      </c>
+      <c r="B1734" s="15" t="s">
+        <v>3959</v>
+      </c>
       <c r="C1734" s="16"/>
       <c r="D1734" s="17"/>
       <c r="E1734" s="17"/>
@@ -59756,8 +59891,12 @@
       <c r="P1734" s="20"/>
     </row>
     <row r="1735" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1735" s="15"/>
-      <c r="B1735" s="15"/>
+      <c r="A1735" s="15">
+        <v>11518</v>
+      </c>
+      <c r="B1735" s="15" t="s">
+        <v>3955</v>
+      </c>
       <c r="C1735" s="16"/>
       <c r="D1735" s="17"/>
       <c r="E1735" s="17"/>
@@ -59774,8 +59913,12 @@
       <c r="P1735" s="20"/>
     </row>
     <row r="1736" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1736" s="15"/>
-      <c r="B1736" s="15"/>
+      <c r="A1736" s="15">
+        <v>11519</v>
+      </c>
+      <c r="B1736" s="15" t="s">
+        <v>3956</v>
+      </c>
       <c r="C1736" s="16"/>
       <c r="D1736" s="17"/>
       <c r="E1736" s="17"/>
@@ -59792,15 +59935,21 @@
       <c r="P1736" s="20"/>
     </row>
     <row r="1737" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1737" s="15"/>
-      <c r="B1737" s="15"/>
+      <c r="A1737" s="15">
+        <v>11520</v>
+      </c>
+      <c r="B1737" s="15" t="s">
+        <v>3957</v>
+      </c>
       <c r="C1737" s="16"/>
       <c r="D1737" s="17"/>
       <c r="E1737" s="17"/>
       <c r="F1737" s="17"/>
       <c r="G1737" s="17"/>
       <c r="H1737" s="17"/>
-      <c r="I1737" s="17"/>
+      <c r="I1737" s="17">
+        <v>-1</v>
+      </c>
       <c r="J1737" s="17"/>
       <c r="K1737" s="17"/>
       <c r="L1737" s="18"/>
@@ -59810,8 +59959,12 @@
       <c r="P1737" s="20"/>
     </row>
     <row r="1738" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1738" s="15"/>
-      <c r="B1738" s="15"/>
+      <c r="A1738" s="15">
+        <v>11521</v>
+      </c>
+      <c r="B1738" s="15" t="s">
+        <v>3958</v>
+      </c>
       <c r="C1738" s="16"/>
       <c r="D1738" s="17"/>
       <c r="E1738" s="17"/>
@@ -59828,7 +59981,9 @@
       <c r="P1738" s="20"/>
     </row>
     <row r="1739" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1739" s="15"/>
+      <c r="A1739" s="15">
+        <v>11522</v>
+      </c>
       <c r="B1739" s="15"/>
       <c r="C1739" s="16"/>
       <c r="D1739" s="17"/>
@@ -59846,7 +60001,9 @@
       <c r="P1739" s="20"/>
     </row>
     <row r="1740" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1740" s="15"/>
+      <c r="A1740" s="15">
+        <v>11523</v>
+      </c>
       <c r="B1740" s="15"/>
       <c r="C1740" s="16"/>
       <c r="D1740" s="17"/>
@@ -59864,7 +60021,9 @@
       <c r="P1740" s="20"/>
     </row>
     <row r="1741" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1741" s="15"/>
+      <c r="A1741" s="15">
+        <v>11524</v>
+      </c>
       <c r="B1741" s="15"/>
       <c r="C1741" s="16"/>
       <c r="D1741" s="17"/>
@@ -59882,7 +60041,9 @@
       <c r="P1741" s="20"/>
     </row>
     <row r="1742" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1742" s="15"/>
+      <c r="A1742" s="15">
+        <v>11525</v>
+      </c>
       <c r="B1742" s="15"/>
       <c r="C1742" s="16"/>
       <c r="D1742" s="17"/>
@@ -59900,7 +60061,9 @@
       <c r="P1742" s="20"/>
     </row>
     <row r="1743" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1743" s="15"/>
+      <c r="A1743" s="15">
+        <v>11526</v>
+      </c>
       <c r="B1743" s="15"/>
       <c r="C1743" s="16"/>
       <c r="D1743" s="17"/>
@@ -59918,7 +60081,9 @@
       <c r="P1743" s="20"/>
     </row>
     <row r="1744" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1744" s="15"/>
+      <c r="A1744" s="15">
+        <v>11527</v>
+      </c>
       <c r="B1744" s="15"/>
       <c r="C1744" s="16"/>
       <c r="D1744" s="17"/>
@@ -59936,7 +60101,9 @@
       <c r="P1744" s="20"/>
     </row>
     <row r="1745" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1745" s="15"/>
+      <c r="A1745" s="15">
+        <v>11528</v>
+      </c>
       <c r="B1745" s="15"/>
       <c r="C1745" s="16"/>
       <c r="D1745" s="17"/>
@@ -59954,7 +60121,9 @@
       <c r="P1745" s="20"/>
     </row>
     <row r="1746" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1746" s="15"/>
+      <c r="A1746" s="15">
+        <v>11529</v>
+      </c>
       <c r="B1746" s="15"/>
       <c r="C1746" s="16"/>
       <c r="D1746" s="17"/>
@@ -59972,7 +60141,9 @@
       <c r="P1746" s="20"/>
     </row>
     <row r="1747" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1747" s="15"/>
+      <c r="A1747" s="15">
+        <v>11530</v>
+      </c>
       <c r="B1747" s="15"/>
       <c r="C1747" s="16"/>
       <c r="D1747" s="17"/>
@@ -59990,7 +60161,9 @@
       <c r="P1747" s="20"/>
     </row>
     <row r="1748" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1748" s="15"/>
+      <c r="A1748" s="15">
+        <v>11531</v>
+      </c>
       <c r="B1748" s="15"/>
       <c r="C1748" s="16"/>
       <c r="D1748" s="17"/>
@@ -60008,7 +60181,9 @@
       <c r="P1748" s="20"/>
     </row>
     <row r="1749" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1749" s="15"/>
+      <c r="A1749" s="15">
+        <v>11532</v>
+      </c>
       <c r="B1749" s="15"/>
       <c r="C1749" s="16"/>
       <c r="D1749" s="17"/>
@@ -60026,7 +60201,9 @@
       <c r="P1749" s="20"/>
     </row>
     <row r="1750" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1750" s="15"/>
+      <c r="A1750" s="15">
+        <v>11533</v>
+      </c>
       <c r="B1750" s="15"/>
       <c r="C1750" s="16"/>
       <c r="D1750" s="17"/>
@@ -60044,7 +60221,9 @@
       <c r="P1750" s="20"/>
     </row>
     <row r="1751" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1751" s="15"/>
+      <c r="A1751" s="15">
+        <v>11534</v>
+      </c>
       <c r="B1751" s="15"/>
       <c r="C1751" s="16"/>
       <c r="D1751" s="17"/>
@@ -60062,7 +60241,9 @@
       <c r="P1751" s="20"/>
     </row>
     <row r="1752" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1752" s="15"/>
+      <c r="A1752" s="15">
+        <v>11535</v>
+      </c>
       <c r="B1752" s="15"/>
       <c r="C1752" s="16"/>
       <c r="D1752" s="17"/>
@@ -60080,7 +60261,9 @@
       <c r="P1752" s="20"/>
     </row>
     <row r="1753" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1753" s="15"/>
+      <c r="A1753" s="15">
+        <v>11536</v>
+      </c>
       <c r="B1753" s="15"/>
       <c r="C1753" s="16"/>
       <c r="D1753" s="17"/>
@@ -60098,7 +60281,9 @@
       <c r="P1753" s="20"/>
     </row>
     <row r="1754" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1754" s="15"/>
+      <c r="A1754" s="15">
+        <v>11537</v>
+      </c>
       <c r="B1754" s="15"/>
       <c r="C1754" s="16"/>
       <c r="D1754" s="17"/>
@@ -60116,7 +60301,9 @@
       <c r="P1754" s="20"/>
     </row>
     <row r="1755" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1755" s="15"/>
+      <c r="A1755" s="15">
+        <v>11538</v>
+      </c>
       <c r="B1755" s="15"/>
       <c r="C1755" s="16"/>
       <c r="D1755" s="17"/>
@@ -60134,7 +60321,9 @@
       <c r="P1755" s="20"/>
     </row>
     <row r="1756" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1756" s="15"/>
+      <c r="A1756" s="15">
+        <v>11539</v>
+      </c>
       <c r="B1756" s="15"/>
       <c r="C1756" s="16"/>
       <c r="D1756" s="17"/>
@@ -60152,7 +60341,9 @@
       <c r="P1756" s="20"/>
     </row>
     <row r="1757" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1757" s="15"/>
+      <c r="A1757" s="15">
+        <v>11540</v>
+      </c>
       <c r="B1757" s="15"/>
       <c r="C1757" s="16"/>
       <c r="D1757" s="17"/>

--- a/data/events.xlsx
+++ b/data/events.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B705E9A-47F4-4322-BAEA-9870C924D173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A9C0C9-1939-475F-981F-B3019ECEC54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5236" uniqueCount="3941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5242" uniqueCount="3945">
   <si>
     <t>$id</t>
   </si>
@@ -12373,6 +12373,22 @@
   </si>
   <si>
     <t>【绝密消息】某策划自己重开了500多次，最好成绩是死在心魔劫，心态崩了，一直没成功飞升过。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学家认为彗星由大冰构成。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>一颗回归周期996年的彗星接近地球。</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[21327]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>EVT?[21326]</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -12969,13 +12985,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1767"/>
+  <dimension ref="A1:P1769"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="G1396" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="I1537" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1403" sqref="B1403"/>
+      <selection pane="bottomRight" activeCell="M1543" sqref="M1543"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -54785,10 +54801,10 @@
     </row>
     <row r="1542" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1542" s="15">
-        <v>11328</v>
+        <v>21326</v>
       </c>
       <c r="B1542" s="15" t="s">
-        <v>3139</v>
+        <v>3941</v>
       </c>
       <c r="C1542" s="16"/>
       <c r="D1542" s="17"/>
@@ -54800,10 +54816,10 @@
       <c r="J1542" s="17"/>
       <c r="K1542" s="17"/>
       <c r="L1542" s="18" t="s">
-        <v>3021</v>
+        <v>2037</v>
       </c>
       <c r="M1542" s="18" t="s">
-        <v>3140</v>
+        <v>3944</v>
       </c>
       <c r="N1542" s="19"/>
       <c r="O1542" s="19"/>
@@ -54811,10 +54827,10 @@
     </row>
     <row r="1543" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1543" s="15">
-        <v>11329</v>
+        <v>21327</v>
       </c>
       <c r="B1543" s="15" t="s">
-        <v>3141</v>
+        <v>3942</v>
       </c>
       <c r="C1543" s="16"/>
       <c r="D1543" s="17"/>
@@ -54826,10 +54842,10 @@
       <c r="J1543" s="17"/>
       <c r="K1543" s="17"/>
       <c r="L1543" s="18" t="s">
-        <v>3021</v>
+        <v>3135</v>
       </c>
       <c r="M1543" s="18" t="s">
-        <v>3040</v>
+        <v>3943</v>
       </c>
       <c r="N1543" s="19"/>
       <c r="O1543" s="19"/>
@@ -54837,10 +54853,10 @@
     </row>
     <row r="1544" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1544" s="15">
-        <v>11330</v>
+        <v>11328</v>
       </c>
       <c r="B1544" s="15" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="C1544" s="16"/>
       <c r="D1544" s="17"/>
@@ -54852,10 +54868,10 @@
       <c r="J1544" s="17"/>
       <c r="K1544" s="17"/>
       <c r="L1544" s="18" t="s">
-        <v>2960</v>
+        <v>3021</v>
       </c>
       <c r="M1544" s="18" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="N1544" s="19"/>
       <c r="O1544" s="19"/>
@@ -54863,10 +54879,10 @@
     </row>
     <row r="1545" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1545" s="15">
-        <v>11331</v>
+        <v>11329</v>
       </c>
       <c r="B1545" s="15" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="C1545" s="16"/>
       <c r="D1545" s="17"/>
@@ -54878,10 +54894,10 @@
       <c r="J1545" s="17"/>
       <c r="K1545" s="17"/>
       <c r="L1545" s="18" t="s">
-        <v>3143</v>
+        <v>3021</v>
       </c>
       <c r="M1545" s="18" t="s">
-        <v>3145</v>
+        <v>3040</v>
       </c>
       <c r="N1545" s="19"/>
       <c r="O1545" s="19"/>
@@ -54889,10 +54905,10 @@
     </row>
     <row r="1546" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1546" s="15">
-        <v>11332</v>
+        <v>11330</v>
       </c>
       <c r="B1546" s="15" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="C1546" s="16"/>
       <c r="D1546" s="17"/>
@@ -54904,10 +54920,10 @@
       <c r="J1546" s="17"/>
       <c r="K1546" s="17"/>
       <c r="L1546" s="18" t="s">
-        <v>2965</v>
+        <v>2960</v>
       </c>
       <c r="M1546" s="18" t="s">
-        <v>3145</v>
+        <v>3143</v>
       </c>
       <c r="N1546" s="19"/>
       <c r="O1546" s="19"/>
@@ -54915,10 +54931,10 @@
     </row>
     <row r="1547" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1547" s="15">
-        <v>11333</v>
+        <v>11331</v>
       </c>
       <c r="B1547" s="15" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="C1547" s="16"/>
       <c r="D1547" s="17"/>
@@ -54930,7 +54946,7 @@
       <c r="J1547" s="17"/>
       <c r="K1547" s="17"/>
       <c r="L1547" s="18" t="s">
-        <v>2967</v>
+        <v>3143</v>
       </c>
       <c r="M1547" s="18" t="s">
         <v>3145</v>
@@ -54941,10 +54957,10 @@
     </row>
     <row r="1548" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1548" s="15">
-        <v>11334</v>
+        <v>11332</v>
       </c>
       <c r="B1548" s="15" t="s">
-        <v>3148</v>
+        <v>3146</v>
       </c>
       <c r="C1548" s="16"/>
       <c r="D1548" s="17"/>
@@ -54956,7 +54972,7 @@
       <c r="J1548" s="17"/>
       <c r="K1548" s="17"/>
       <c r="L1548" s="18" t="s">
-        <v>2969</v>
+        <v>2965</v>
       </c>
       <c r="M1548" s="18" t="s">
         <v>3145</v>
@@ -54967,77 +54983,73 @@
     </row>
     <row r="1549" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1549" s="15">
-        <v>11335</v>
+        <v>11333</v>
       </c>
       <c r="B1549" s="15" t="s">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="C1549" s="16"/>
       <c r="D1549" s="17"/>
-      <c r="E1549" s="17">
-        <v>-1</v>
-      </c>
-      <c r="F1549" s="17">
-        <v>1</v>
-      </c>
+      <c r="E1549" s="17"/>
+      <c r="F1549" s="17"/>
       <c r="G1549" s="17"/>
       <c r="H1549" s="17"/>
       <c r="I1549" s="17"/>
       <c r="J1549" s="17"/>
       <c r="K1549" s="17"/>
       <c r="L1549" s="18" t="s">
-        <v>3150</v>
-      </c>
-      <c r="M1549" s="18"/>
+        <v>2967</v>
+      </c>
+      <c r="M1549" s="18" t="s">
+        <v>3145</v>
+      </c>
       <c r="N1549" s="19"/>
       <c r="O1549" s="19"/>
       <c r="P1549" s="20"/>
     </row>
     <row r="1550" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1550" s="15">
-        <v>11336</v>
+        <v>11334</v>
       </c>
       <c r="B1550" s="15" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="C1550" s="16"/>
       <c r="D1550" s="17"/>
-      <c r="E1550" s="17">
-        <v>-1</v>
-      </c>
+      <c r="E1550" s="17"/>
       <c r="F1550" s="17"/>
-      <c r="G1550" s="17">
-        <v>1</v>
-      </c>
+      <c r="G1550" s="17"/>
       <c r="H1550" s="17"/>
       <c r="I1550" s="17"/>
       <c r="J1550" s="17"/>
       <c r="K1550" s="17"/>
       <c r="L1550" s="18" t="s">
-        <v>3150</v>
-      </c>
-      <c r="M1550" s="18"/>
+        <v>2969</v>
+      </c>
+      <c r="M1550" s="18" t="s">
+        <v>3145</v>
+      </c>
       <c r="N1550" s="19"/>
       <c r="O1550" s="19"/>
       <c r="P1550" s="20"/>
     </row>
     <row r="1551" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1551" s="15">
-        <v>11337</v>
+        <v>11335</v>
       </c>
       <c r="B1551" s="15" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="C1551" s="16"/>
       <c r="D1551" s="17"/>
       <c r="E1551" s="17">
         <v>-1</v>
       </c>
-      <c r="F1551" s="17"/>
+      <c r="F1551" s="17">
+        <v>1</v>
+      </c>
       <c r="G1551" s="17"/>
-      <c r="H1551" s="17">
-        <v>1</v>
-      </c>
+      <c r="H1551" s="17"/>
       <c r="I1551" s="17"/>
       <c r="J1551" s="17"/>
       <c r="K1551" s="17"/>
@@ -55051,20 +55063,20 @@
     </row>
     <row r="1552" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1552" s="15">
-        <v>11338</v>
+        <v>11336</v>
       </c>
       <c r="B1552" s="15" t="s">
-        <v>3153</v>
+        <v>3151</v>
       </c>
       <c r="C1552" s="16"/>
-      <c r="D1552" s="17">
-        <v>1</v>
-      </c>
+      <c r="D1552" s="17"/>
       <c r="E1552" s="17">
         <v>-1</v>
       </c>
       <c r="F1552" s="17"/>
-      <c r="G1552" s="17"/>
+      <c r="G1552" s="17">
+        <v>1</v>
+      </c>
       <c r="H1552" s="17"/>
       <c r="I1552" s="17"/>
       <c r="J1552" s="17"/>
@@ -55079,21 +55091,21 @@
     </row>
     <row r="1553" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1553" s="15">
-        <v>11339</v>
+        <v>11337</v>
       </c>
       <c r="B1553" s="15" t="s">
-        <v>3154</v>
+        <v>3152</v>
       </c>
       <c r="C1553" s="16"/>
-      <c r="D1553" s="17">
-        <v>2</v>
-      </c>
+      <c r="D1553" s="17"/>
       <c r="E1553" s="17">
         <v>-1</v>
       </c>
       <c r="F1553" s="17"/>
       <c r="G1553" s="17"/>
-      <c r="H1553" s="17"/>
+      <c r="H1553" s="17">
+        <v>1</v>
+      </c>
       <c r="I1553" s="17"/>
       <c r="J1553" s="17"/>
       <c r="K1553" s="17"/>
@@ -55107,19 +55119,19 @@
     </row>
     <row r="1554" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1554" s="15">
-        <v>11340</v>
+        <v>11338</v>
       </c>
       <c r="B1554" s="15" t="s">
-        <v>3155</v>
+        <v>3153</v>
       </c>
       <c r="C1554" s="16"/>
-      <c r="D1554" s="17"/>
+      <c r="D1554" s="17">
+        <v>1</v>
+      </c>
       <c r="E1554" s="17">
         <v>-1</v>
       </c>
-      <c r="F1554" s="17">
-        <v>2</v>
-      </c>
+      <c r="F1554" s="17"/>
       <c r="G1554" s="17"/>
       <c r="H1554" s="17"/>
       <c r="I1554" s="17"/>
@@ -55135,20 +55147,20 @@
     </row>
     <row r="1555" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1555" s="15">
-        <v>11341</v>
+        <v>11339</v>
       </c>
       <c r="B1555" s="15" t="s">
-        <v>3156</v>
+        <v>3154</v>
       </c>
       <c r="C1555" s="16"/>
-      <c r="D1555" s="17"/>
+      <c r="D1555" s="17">
+        <v>2</v>
+      </c>
       <c r="E1555" s="17">
         <v>-1</v>
       </c>
       <c r="F1555" s="17"/>
-      <c r="G1555" s="17">
-        <v>2</v>
-      </c>
+      <c r="G1555" s="17"/>
       <c r="H1555" s="17"/>
       <c r="I1555" s="17"/>
       <c r="J1555" s="17"/>
@@ -55163,21 +55175,21 @@
     </row>
     <row r="1556" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1556" s="15">
-        <v>11342</v>
+        <v>11340</v>
       </c>
       <c r="B1556" s="15" t="s">
-        <v>3157</v>
+        <v>3155</v>
       </c>
       <c r="C1556" s="16"/>
       <c r="D1556" s="17"/>
       <c r="E1556" s="17">
         <v>-1</v>
       </c>
-      <c r="F1556" s="17"/>
+      <c r="F1556" s="17">
+        <v>2</v>
+      </c>
       <c r="G1556" s="17"/>
-      <c r="H1556" s="17">
-        <v>2</v>
-      </c>
+      <c r="H1556" s="17"/>
       <c r="I1556" s="17"/>
       <c r="J1556" s="17"/>
       <c r="K1556" s="17"/>
@@ -55191,20 +55203,20 @@
     </row>
     <row r="1557" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1557" s="15">
-        <v>11343</v>
+        <v>11341</v>
       </c>
       <c r="B1557" s="15" t="s">
-        <v>3158</v>
+        <v>3156</v>
       </c>
       <c r="C1557" s="16"/>
       <c r="D1557" s="17"/>
       <c r="E1557" s="17">
         <v>-1</v>
       </c>
-      <c r="F1557" s="17">
-        <v>3</v>
-      </c>
-      <c r="G1557" s="17"/>
+      <c r="F1557" s="17"/>
+      <c r="G1557" s="17">
+        <v>2</v>
+      </c>
       <c r="H1557" s="17"/>
       <c r="I1557" s="17"/>
       <c r="J1557" s="17"/>
@@ -55219,21 +55231,21 @@
     </row>
     <row r="1558" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1558" s="15">
-        <v>11344</v>
+        <v>11342</v>
       </c>
       <c r="B1558" s="15" t="s">
-        <v>3159</v>
+        <v>3157</v>
       </c>
       <c r="C1558" s="16"/>
-      <c r="D1558" s="17">
-        <v>3</v>
-      </c>
+      <c r="D1558" s="17"/>
       <c r="E1558" s="17">
         <v>-1</v>
       </c>
       <c r="F1558" s="17"/>
       <c r="G1558" s="17"/>
-      <c r="H1558" s="17"/>
+      <c r="H1558" s="17">
+        <v>2</v>
+      </c>
       <c r="I1558" s="17"/>
       <c r="J1558" s="17"/>
       <c r="K1558" s="17"/>
@@ -55247,20 +55259,20 @@
     </row>
     <row r="1559" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1559" s="15">
-        <v>11345</v>
+        <v>11343</v>
       </c>
       <c r="B1559" s="15" t="s">
-        <v>3160</v>
+        <v>3158</v>
       </c>
       <c r="C1559" s="16"/>
       <c r="D1559" s="17"/>
       <c r="E1559" s="17">
         <v>-1</v>
       </c>
-      <c r="F1559" s="17"/>
-      <c r="G1559" s="17">
+      <c r="F1559" s="17">
         <v>3</v>
       </c>
+      <c r="G1559" s="17"/>
       <c r="H1559" s="17"/>
       <c r="I1559" s="17"/>
       <c r="J1559" s="17"/>
@@ -55275,21 +55287,21 @@
     </row>
     <row r="1560" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1560" s="15">
-        <v>11346</v>
+        <v>11344</v>
       </c>
       <c r="B1560" s="15" t="s">
-        <v>3161</v>
+        <v>3159</v>
       </c>
       <c r="C1560" s="16"/>
-      <c r="D1560" s="17"/>
+      <c r="D1560" s="17">
+        <v>3</v>
+      </c>
       <c r="E1560" s="17">
         <v>-1</v>
       </c>
       <c r="F1560" s="17"/>
       <c r="G1560" s="17"/>
-      <c r="H1560" s="17">
-        <v>3</v>
-      </c>
+      <c r="H1560" s="17"/>
       <c r="I1560" s="17"/>
       <c r="J1560" s="17"/>
       <c r="K1560" s="17"/>
@@ -55303,10 +55315,10 @@
     </row>
     <row r="1561" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1561" s="15">
-        <v>11347</v>
+        <v>11345</v>
       </c>
       <c r="B1561" s="15" t="s">
-        <v>3162</v>
+        <v>3160</v>
       </c>
       <c r="C1561" s="16"/>
       <c r="D1561" s="17"/>
@@ -55314,7 +55326,9 @@
         <v>-1</v>
       </c>
       <c r="F1561" s="17"/>
-      <c r="G1561" s="17"/>
+      <c r="G1561" s="17">
+        <v>3</v>
+      </c>
       <c r="H1561" s="17"/>
       <c r="I1561" s="17"/>
       <c r="J1561" s="17"/>
@@ -55323,18 +55337,16 @@
         <v>3150</v>
       </c>
       <c r="M1561" s="18"/>
-      <c r="N1561" s="19" t="s">
-        <v>3163</v>
-      </c>
+      <c r="N1561" s="19"/>
       <c r="O1561" s="19"/>
       <c r="P1561" s="20"/>
     </row>
     <row r="1562" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1562" s="15">
-        <v>11348</v>
+        <v>11346</v>
       </c>
       <c r="B1562" s="15" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="C1562" s="16"/>
       <c r="D1562" s="17"/>
@@ -55343,7 +55355,9 @@
       </c>
       <c r="F1562" s="17"/>
       <c r="G1562" s="17"/>
-      <c r="H1562" s="17"/>
+      <c r="H1562" s="17">
+        <v>3</v>
+      </c>
       <c r="I1562" s="17"/>
       <c r="J1562" s="17"/>
       <c r="K1562" s="17"/>
@@ -55351,22 +55365,22 @@
         <v>3150</v>
       </c>
       <c r="M1562" s="18"/>
-      <c r="N1562" s="19" t="s">
-        <v>3163</v>
-      </c>
+      <c r="N1562" s="19"/>
       <c r="O1562" s="19"/>
       <c r="P1562" s="20"/>
     </row>
     <row r="1563" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1563" s="15">
-        <v>11349</v>
+        <v>11347</v>
       </c>
       <c r="B1563" s="15" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="C1563" s="16"/>
       <c r="D1563" s="17"/>
-      <c r="E1563" s="17"/>
+      <c r="E1563" s="17">
+        <v>-1</v>
+      </c>
       <c r="F1563" s="17"/>
       <c r="G1563" s="17"/>
       <c r="H1563" s="17"/>
@@ -55374,25 +55388,27 @@
       <c r="J1563" s="17"/>
       <c r="K1563" s="17"/>
       <c r="L1563" s="18" t="s">
-        <v>3166</v>
-      </c>
-      <c r="M1563" s="18" t="s">
-        <v>3683</v>
-      </c>
-      <c r="N1563" s="19"/>
+        <v>3150</v>
+      </c>
+      <c r="M1563" s="18"/>
+      <c r="N1563" s="19" t="s">
+        <v>3163</v>
+      </c>
       <c r="O1563" s="19"/>
       <c r="P1563" s="20"/>
     </row>
     <row r="1564" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1564" s="15">
-        <v>11350</v>
+        <v>11348</v>
       </c>
       <c r="B1564" s="15" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="C1564" s="16"/>
       <c r="D1564" s="17"/>
-      <c r="E1564" s="17"/>
+      <c r="E1564" s="17">
+        <v>-1</v>
+      </c>
       <c r="F1564" s="17"/>
       <c r="G1564" s="17"/>
       <c r="H1564" s="17"/>
@@ -55400,21 +55416,21 @@
       <c r="J1564" s="17"/>
       <c r="K1564" s="17"/>
       <c r="L1564" s="18" t="s">
-        <v>3682</v>
-      </c>
-      <c r="M1564" s="18" t="s">
-        <v>3510</v>
-      </c>
-      <c r="N1564" s="19"/>
+        <v>3150</v>
+      </c>
+      <c r="M1564" s="18"/>
+      <c r="N1564" s="19" t="s">
+        <v>3163</v>
+      </c>
       <c r="O1564" s="19"/>
       <c r="P1564" s="20"/>
     </row>
     <row r="1565" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1565" s="15">
-        <v>11351</v>
+        <v>11349</v>
       </c>
       <c r="B1565" s="15" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="C1565" s="16"/>
       <c r="D1565" s="17"/>
@@ -55426,10 +55442,10 @@
       <c r="J1565" s="17"/>
       <c r="K1565" s="17"/>
       <c r="L1565" s="18" t="s">
-        <v>3042</v>
+        <v>3166</v>
       </c>
       <c r="M1565" s="18" t="s">
-        <v>3516</v>
+        <v>3683</v>
       </c>
       <c r="N1565" s="19"/>
       <c r="O1565" s="19"/>
@@ -55437,10 +55453,10 @@
     </row>
     <row r="1566" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1566" s="15">
-        <v>11352</v>
+        <v>11350</v>
       </c>
       <c r="B1566" s="15" t="s">
-        <v>3169</v>
+        <v>3167</v>
       </c>
       <c r="C1566" s="16"/>
       <c r="D1566" s="17"/>
@@ -55452,10 +55468,10 @@
       <c r="J1566" s="17"/>
       <c r="K1566" s="17"/>
       <c r="L1566" s="18" t="s">
-        <v>3042</v>
+        <v>3682</v>
       </c>
       <c r="M1566" s="18" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
       <c r="N1566" s="19"/>
       <c r="O1566" s="19"/>
@@ -55463,10 +55479,10 @@
     </row>
     <row r="1567" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1567" s="15">
-        <v>11353</v>
+        <v>11351</v>
       </c>
       <c r="B1567" s="15" t="s">
-        <v>3170</v>
+        <v>3168</v>
       </c>
       <c r="C1567" s="16"/>
       <c r="D1567" s="17"/>
@@ -55481,7 +55497,7 @@
         <v>3042</v>
       </c>
       <c r="M1567" s="18" t="s">
-        <v>3512</v>
+        <v>3516</v>
       </c>
       <c r="N1567" s="19"/>
       <c r="O1567" s="19"/>
@@ -55489,19 +55505,17 @@
     </row>
     <row r="1568" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1568" s="15">
-        <v>11354</v>
+        <v>11352</v>
       </c>
       <c r="B1568" s="15" t="s">
-        <v>3171</v>
+        <v>3169</v>
       </c>
       <c r="C1568" s="16"/>
       <c r="D1568" s="17"/>
       <c r="E1568" s="17"/>
       <c r="F1568" s="17"/>
       <c r="G1568" s="17"/>
-      <c r="H1568" s="17">
-        <v>-1</v>
-      </c>
+      <c r="H1568" s="17"/>
       <c r="I1568" s="17"/>
       <c r="J1568" s="17"/>
       <c r="K1568" s="17"/>
@@ -55509,7 +55523,7 @@
         <v>3042</v>
       </c>
       <c r="M1568" s="18" t="s">
-        <v>3513</v>
+        <v>3511</v>
       </c>
       <c r="N1568" s="19"/>
       <c r="O1568" s="19"/>
@@ -55517,19 +55531,17 @@
     </row>
     <row r="1569" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1569" s="15">
-        <v>11355</v>
+        <v>11353</v>
       </c>
       <c r="B1569" s="15" t="s">
-        <v>3172</v>
+        <v>3170</v>
       </c>
       <c r="C1569" s="16"/>
       <c r="D1569" s="17"/>
       <c r="E1569" s="17"/>
       <c r="F1569" s="17"/>
       <c r="G1569" s="17"/>
-      <c r="H1569" s="17">
-        <v>-1</v>
-      </c>
+      <c r="H1569" s="17"/>
       <c r="I1569" s="17"/>
       <c r="J1569" s="17"/>
       <c r="K1569" s="17"/>
@@ -55537,7 +55549,7 @@
         <v>3042</v>
       </c>
       <c r="M1569" s="18" t="s">
-        <v>3514</v>
+        <v>3512</v>
       </c>
       <c r="N1569" s="19"/>
       <c r="O1569" s="19"/>
@@ -55545,17 +55557,19 @@
     </row>
     <row r="1570" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1570" s="15">
-        <v>11356</v>
+        <v>11354</v>
       </c>
       <c r="B1570" s="15" t="s">
-        <v>3173</v>
+        <v>3171</v>
       </c>
       <c r="C1570" s="16"/>
       <c r="D1570" s="17"/>
       <c r="E1570" s="17"/>
       <c r="F1570" s="17"/>
       <c r="G1570" s="17"/>
-      <c r="H1570" s="17"/>
+      <c r="H1570" s="17">
+        <v>-1</v>
+      </c>
       <c r="I1570" s="17"/>
       <c r="J1570" s="17"/>
       <c r="K1570" s="17"/>
@@ -55563,7 +55577,7 @@
         <v>3042</v>
       </c>
       <c r="M1570" s="18" t="s">
-        <v>3515</v>
+        <v>3513</v>
       </c>
       <c r="N1570" s="19"/>
       <c r="O1570" s="19"/>
@@ -55571,17 +55585,19 @@
     </row>
     <row r="1571" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1571" s="15">
-        <v>11357</v>
+        <v>11355</v>
       </c>
       <c r="B1571" s="15" t="s">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="C1571" s="16"/>
       <c r="D1571" s="17"/>
       <c r="E1571" s="17"/>
       <c r="F1571" s="17"/>
       <c r="G1571" s="17"/>
-      <c r="H1571" s="17"/>
+      <c r="H1571" s="17">
+        <v>-1</v>
+      </c>
       <c r="I1571" s="17"/>
       <c r="J1571" s="17"/>
       <c r="K1571" s="17"/>
@@ -55589,7 +55605,7 @@
         <v>3042</v>
       </c>
       <c r="M1571" s="18" t="s">
-        <v>3517</v>
+        <v>3514</v>
       </c>
       <c r="N1571" s="19"/>
       <c r="O1571" s="19"/>
@@ -55597,10 +55613,10 @@
     </row>
     <row r="1572" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1572" s="15">
-        <v>11358</v>
+        <v>11356</v>
       </c>
       <c r="B1572" s="15" t="s">
-        <v>3175</v>
+        <v>3173</v>
       </c>
       <c r="C1572" s="16"/>
       <c r="D1572" s="17"/>
@@ -55615,7 +55631,7 @@
         <v>3042</v>
       </c>
       <c r="M1572" s="18" t="s">
-        <v>3176</v>
+        <v>3515</v>
       </c>
       <c r="N1572" s="19"/>
       <c r="O1572" s="19"/>
@@ -55623,10 +55639,10 @@
     </row>
     <row r="1573" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1573" s="15">
-        <v>11359</v>
+        <v>11357</v>
       </c>
       <c r="B1573" s="15" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="C1573" s="16"/>
       <c r="D1573" s="17"/>
@@ -55641,7 +55657,7 @@
         <v>3042</v>
       </c>
       <c r="M1573" s="18" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
       <c r="N1573" s="19"/>
       <c r="O1573" s="19"/>
@@ -55649,10 +55665,10 @@
     </row>
     <row r="1574" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1574" s="15">
-        <v>11360</v>
+        <v>11358</v>
       </c>
       <c r="B1574" s="15" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="C1574" s="16"/>
       <c r="D1574" s="17"/>
@@ -55667,7 +55683,7 @@
         <v>3042</v>
       </c>
       <c r="M1574" s="18" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="N1574" s="19"/>
       <c r="O1574" s="19"/>
@@ -55675,19 +55691,17 @@
     </row>
     <row r="1575" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1575" s="15">
-        <v>11361</v>
+        <v>11359</v>
       </c>
       <c r="B1575" s="15" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="C1575" s="16"/>
       <c r="D1575" s="17"/>
       <c r="E1575" s="17"/>
       <c r="F1575" s="17"/>
       <c r="G1575" s="17"/>
-      <c r="H1575" s="17">
-        <v>1</v>
-      </c>
+      <c r="H1575" s="17"/>
       <c r="I1575" s="17"/>
       <c r="J1575" s="17"/>
       <c r="K1575" s="17"/>
@@ -55695,7 +55709,7 @@
         <v>3042</v>
       </c>
       <c r="M1575" s="18" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
       <c r="N1575" s="19"/>
       <c r="O1575" s="19"/>
@@ -55703,10 +55717,10 @@
     </row>
     <row r="1576" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1576" s="15">
-        <v>11362</v>
+        <v>11360</v>
       </c>
       <c r="B1576" s="15" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="C1576" s="16"/>
       <c r="D1576" s="17"/>
@@ -55721,7 +55735,7 @@
         <v>3042</v>
       </c>
       <c r="M1576" s="18" t="s">
-        <v>3520</v>
+        <v>3179</v>
       </c>
       <c r="N1576" s="19"/>
       <c r="O1576" s="19"/>
@@ -55729,10 +55743,10 @@
     </row>
     <row r="1577" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1577" s="15">
-        <v>11363</v>
+        <v>11361</v>
       </c>
       <c r="B1577" s="15" t="s">
-        <v>3182</v>
+        <v>3180</v>
       </c>
       <c r="C1577" s="16"/>
       <c r="D1577" s="17"/>
@@ -55749,7 +55763,7 @@
         <v>3042</v>
       </c>
       <c r="M1577" s="18" t="s">
-        <v>3521</v>
+        <v>3519</v>
       </c>
       <c r="N1577" s="19"/>
       <c r="O1577" s="19"/>
@@ -55757,10 +55771,10 @@
     </row>
     <row r="1578" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1578" s="15">
-        <v>11364</v>
+        <v>11362</v>
       </c>
       <c r="B1578" s="15" t="s">
-        <v>3183</v>
+        <v>3181</v>
       </c>
       <c r="C1578" s="16"/>
       <c r="D1578" s="17"/>
@@ -55775,7 +55789,7 @@
         <v>3042</v>
       </c>
       <c r="M1578" s="18" t="s">
-        <v>3184</v>
+        <v>3520</v>
       </c>
       <c r="N1578" s="19"/>
       <c r="O1578" s="19"/>
@@ -55783,17 +55797,19 @@
     </row>
     <row r="1579" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1579" s="15">
-        <v>11365</v>
+        <v>11363</v>
       </c>
       <c r="B1579" s="15" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="C1579" s="16"/>
       <c r="D1579" s="17"/>
       <c r="E1579" s="17"/>
       <c r="F1579" s="17"/>
       <c r="G1579" s="17"/>
-      <c r="H1579" s="17"/>
+      <c r="H1579" s="17">
+        <v>1</v>
+      </c>
       <c r="I1579" s="17"/>
       <c r="J1579" s="17"/>
       <c r="K1579" s="17"/>
@@ -55801,7 +55817,7 @@
         <v>3042</v>
       </c>
       <c r="M1579" s="18" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
       <c r="N1579" s="19"/>
       <c r="O1579" s="19"/>
@@ -55809,10 +55825,10 @@
     </row>
     <row r="1580" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1580" s="15">
-        <v>11366</v>
+        <v>11364</v>
       </c>
       <c r="B1580" s="15" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="C1580" s="16"/>
       <c r="D1580" s="17"/>
@@ -55827,7 +55843,7 @@
         <v>3042</v>
       </c>
       <c r="M1580" s="18" t="s">
-        <v>3523</v>
+        <v>3184</v>
       </c>
       <c r="N1580" s="19"/>
       <c r="O1580" s="19"/>
@@ -55835,10 +55851,10 @@
     </row>
     <row r="1581" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1581" s="15">
-        <v>11367</v>
+        <v>11365</v>
       </c>
       <c r="B1581" s="15" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="C1581" s="16"/>
       <c r="D1581" s="17"/>
@@ -55853,7 +55869,7 @@
         <v>3042</v>
       </c>
       <c r="M1581" s="18" t="s">
-        <v>3187</v>
+        <v>3522</v>
       </c>
       <c r="N1581" s="19"/>
       <c r="O1581" s="19"/>
@@ -55861,10 +55877,10 @@
     </row>
     <row r="1582" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1582" s="15">
-        <v>11368</v>
+        <v>11366</v>
       </c>
       <c r="B1582" s="15" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="C1582" s="16"/>
       <c r="D1582" s="17"/>
@@ -55879,7 +55895,7 @@
         <v>3042</v>
       </c>
       <c r="M1582" s="18" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
       <c r="N1582" s="19"/>
       <c r="O1582" s="19"/>
@@ -55887,10 +55903,10 @@
     </row>
     <row r="1583" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1583" s="15">
-        <v>11369</v>
+        <v>11367</v>
       </c>
       <c r="B1583" s="15" t="s">
-        <v>3190</v>
+        <v>3188</v>
       </c>
       <c r="C1583" s="16"/>
       <c r="D1583" s="17"/>
@@ -55905,7 +55921,7 @@
         <v>3042</v>
       </c>
       <c r="M1583" s="18" t="s">
-        <v>3525</v>
+        <v>3187</v>
       </c>
       <c r="N1583" s="19"/>
       <c r="O1583" s="19"/>
@@ -55913,10 +55929,10 @@
     </row>
     <row r="1584" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1584" s="15">
-        <v>11370</v>
+        <v>11368</v>
       </c>
       <c r="B1584" s="15" t="s">
-        <v>3191</v>
+        <v>3189</v>
       </c>
       <c r="C1584" s="16"/>
       <c r="D1584" s="17"/>
@@ -55931,7 +55947,7 @@
         <v>3042</v>
       </c>
       <c r="M1584" s="18" t="s">
-        <v>3526</v>
+        <v>3524</v>
       </c>
       <c r="N1584" s="19"/>
       <c r="O1584" s="19"/>
@@ -55939,10 +55955,10 @@
     </row>
     <row r="1585" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1585" s="15">
-        <v>11371</v>
+        <v>11369</v>
       </c>
       <c r="B1585" s="15" t="s">
-        <v>3192</v>
+        <v>3190</v>
       </c>
       <c r="C1585" s="16"/>
       <c r="D1585" s="17"/>
@@ -55957,7 +55973,7 @@
         <v>3042</v>
       </c>
       <c r="M1585" s="18" t="s">
-        <v>3527</v>
+        <v>3525</v>
       </c>
       <c r="N1585" s="19"/>
       <c r="O1585" s="19"/>
@@ -55965,27 +55981,25 @@
     </row>
     <row r="1586" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1586" s="15">
-        <v>11372</v>
+        <v>11370</v>
       </c>
       <c r="B1586" s="15" t="s">
-        <v>3193</v>
+        <v>3191</v>
       </c>
       <c r="C1586" s="16"/>
       <c r="D1586" s="17"/>
       <c r="E1586" s="17"/>
       <c r="F1586" s="17"/>
-      <c r="G1586" s="17">
-        <v>1</v>
-      </c>
+      <c r="G1586" s="17"/>
       <c r="H1586" s="17"/>
       <c r="I1586" s="17"/>
       <c r="J1586" s="17"/>
       <c r="K1586" s="17"/>
       <c r="L1586" s="18" t="s">
-        <v>3194</v>
+        <v>3042</v>
       </c>
       <c r="M1586" s="18" t="s">
-        <v>3528</v>
+        <v>3526</v>
       </c>
       <c r="N1586" s="19"/>
       <c r="O1586" s="19"/>
@@ -55993,10 +56007,10 @@
     </row>
     <row r="1587" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1587" s="15">
-        <v>11373</v>
+        <v>11371</v>
       </c>
       <c r="B1587" s="15" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="C1587" s="16"/>
       <c r="D1587" s="17"/>
@@ -56011,7 +56025,7 @@
         <v>3042</v>
       </c>
       <c r="M1587" s="18" t="s">
-        <v>3529</v>
+        <v>3527</v>
       </c>
       <c r="N1587" s="19"/>
       <c r="O1587" s="19"/>
@@ -56019,25 +56033,27 @@
     </row>
     <row r="1588" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1588" s="15">
-        <v>11374</v>
+        <v>11372</v>
       </c>
       <c r="B1588" s="15" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="C1588" s="16"/>
       <c r="D1588" s="17"/>
       <c r="E1588" s="17"/>
       <c r="F1588" s="17"/>
-      <c r="G1588" s="17"/>
+      <c r="G1588" s="17">
+        <v>1</v>
+      </c>
       <c r="H1588" s="17"/>
       <c r="I1588" s="17"/>
       <c r="J1588" s="17"/>
       <c r="K1588" s="17"/>
       <c r="L1588" s="18" t="s">
-        <v>3042</v>
+        <v>3194</v>
       </c>
       <c r="M1588" s="18" t="s">
-        <v>3530</v>
+        <v>3528</v>
       </c>
       <c r="N1588" s="19"/>
       <c r="O1588" s="19"/>
@@ -56045,10 +56061,10 @@
     </row>
     <row r="1589" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1589" s="15">
-        <v>11375</v>
+        <v>11373</v>
       </c>
       <c r="B1589" s="15" t="s">
-        <v>3197</v>
+        <v>3195</v>
       </c>
       <c r="C1589" s="16"/>
       <c r="D1589" s="17"/>
@@ -56060,10 +56076,10 @@
       <c r="J1589" s="17"/>
       <c r="K1589" s="17"/>
       <c r="L1589" s="18" t="s">
-        <v>3198</v>
+        <v>3042</v>
       </c>
       <c r="M1589" s="18" t="s">
-        <v>3531</v>
+        <v>3529</v>
       </c>
       <c r="N1589" s="19"/>
       <c r="O1589" s="19"/>
@@ -56071,10 +56087,10 @@
     </row>
     <row r="1590" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1590" s="15">
-        <v>11376</v>
+        <v>11374</v>
       </c>
       <c r="B1590" s="15" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="C1590" s="16"/>
       <c r="D1590" s="17"/>
@@ -56089,7 +56105,7 @@
         <v>3042</v>
       </c>
       <c r="M1590" s="18" t="s">
-        <v>3532</v>
+        <v>3530</v>
       </c>
       <c r="N1590" s="19"/>
       <c r="O1590" s="19"/>
@@ -56097,10 +56113,10 @@
     </row>
     <row r="1591" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1591" s="15">
-        <v>11377</v>
+        <v>11375</v>
       </c>
       <c r="B1591" s="15" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="C1591" s="16"/>
       <c r="D1591" s="17"/>
@@ -56112,10 +56128,10 @@
       <c r="J1591" s="17"/>
       <c r="K1591" s="17"/>
       <c r="L1591" s="18" t="s">
-        <v>2914</v>
+        <v>3198</v>
       </c>
       <c r="M1591" s="18" t="s">
-        <v>3533</v>
+        <v>3531</v>
       </c>
       <c r="N1591" s="19"/>
       <c r="O1591" s="19"/>
@@ -56123,10 +56139,10 @@
     </row>
     <row r="1592" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1592" s="15">
-        <v>11378</v>
+        <v>11376</v>
       </c>
       <c r="B1592" s="15" t="s">
-        <v>3201</v>
+        <v>3199</v>
       </c>
       <c r="C1592" s="16"/>
       <c r="D1592" s="17"/>
@@ -56138,10 +56154,10 @@
       <c r="J1592" s="17"/>
       <c r="K1592" s="17"/>
       <c r="L1592" s="18" t="s">
-        <v>3202</v>
+        <v>3042</v>
       </c>
       <c r="M1592" s="18" t="s">
-        <v>3534</v>
+        <v>3532</v>
       </c>
       <c r="N1592" s="19"/>
       <c r="O1592" s="19"/>
@@ -56149,10 +56165,10 @@
     </row>
     <row r="1593" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1593" s="15">
-        <v>11379</v>
+        <v>11377</v>
       </c>
       <c r="B1593" s="15" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="C1593" s="16"/>
       <c r="D1593" s="17"/>
@@ -56164,10 +56180,10 @@
       <c r="J1593" s="17"/>
       <c r="K1593" s="17"/>
       <c r="L1593" s="18" t="s">
-        <v>3204</v>
+        <v>2914</v>
       </c>
       <c r="M1593" s="18" t="s">
-        <v>3205</v>
+        <v>3533</v>
       </c>
       <c r="N1593" s="19"/>
       <c r="O1593" s="19"/>
@@ -56175,10 +56191,10 @@
     </row>
     <row r="1594" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1594" s="15">
-        <v>11380</v>
+        <v>11378</v>
       </c>
       <c r="B1594" s="15" t="s">
-        <v>3206</v>
+        <v>3201</v>
       </c>
       <c r="C1594" s="16"/>
       <c r="D1594" s="17"/>
@@ -56190,10 +56206,10 @@
       <c r="J1594" s="17"/>
       <c r="K1594" s="17"/>
       <c r="L1594" s="18" t="s">
-        <v>3207</v>
+        <v>3202</v>
       </c>
       <c r="M1594" s="18" t="s">
-        <v>3208</v>
+        <v>3534</v>
       </c>
       <c r="N1594" s="19"/>
       <c r="O1594" s="19"/>
@@ -56201,10 +56217,10 @@
     </row>
     <row r="1595" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1595" s="15">
-        <v>11381</v>
+        <v>11379</v>
       </c>
       <c r="B1595" s="15" t="s">
-        <v>3209</v>
+        <v>3203</v>
       </c>
       <c r="C1595" s="16"/>
       <c r="D1595" s="17"/>
@@ -56216,10 +56232,10 @@
       <c r="J1595" s="17"/>
       <c r="K1595" s="17"/>
       <c r="L1595" s="18" t="s">
-        <v>3210</v>
+        <v>3204</v>
       </c>
       <c r="M1595" s="18" t="s">
-        <v>3211</v>
+        <v>3205</v>
       </c>
       <c r="N1595" s="19"/>
       <c r="O1595" s="19"/>
@@ -56227,10 +56243,10 @@
     </row>
     <row r="1596" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1596" s="15">
-        <v>11382</v>
+        <v>11380</v>
       </c>
       <c r="B1596" s="15" t="s">
-        <v>3212</v>
+        <v>3206</v>
       </c>
       <c r="C1596" s="16"/>
       <c r="D1596" s="17"/>
@@ -56242,10 +56258,10 @@
       <c r="J1596" s="17"/>
       <c r="K1596" s="17"/>
       <c r="L1596" s="18" t="s">
-        <v>2914</v>
+        <v>3207</v>
       </c>
       <c r="M1596" s="18" t="s">
-        <v>3213</v>
+        <v>3208</v>
       </c>
       <c r="N1596" s="19"/>
       <c r="O1596" s="19"/>
@@ -56253,27 +56269,25 @@
     </row>
     <row r="1597" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1597" s="15">
-        <v>11383</v>
+        <v>11381</v>
       </c>
       <c r="B1597" s="15" t="s">
-        <v>3214</v>
+        <v>3209</v>
       </c>
       <c r="C1597" s="16"/>
       <c r="D1597" s="17"/>
       <c r="E1597" s="17"/>
       <c r="F1597" s="17"/>
-      <c r="G1597" s="17">
-        <v>-1</v>
-      </c>
+      <c r="G1597" s="17"/>
       <c r="H1597" s="17"/>
       <c r="I1597" s="17"/>
       <c r="J1597" s="17"/>
       <c r="K1597" s="17"/>
       <c r="L1597" s="18" t="s">
-        <v>2914</v>
+        <v>3210</v>
       </c>
       <c r="M1597" s="18" t="s">
-        <v>3215</v>
+        <v>3211</v>
       </c>
       <c r="N1597" s="19"/>
       <c r="O1597" s="19"/>
@@ -56281,10 +56295,10 @@
     </row>
     <row r="1598" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1598" s="15">
-        <v>11384</v>
+        <v>11382</v>
       </c>
       <c r="B1598" s="15" t="s">
-        <v>3216</v>
+        <v>3212</v>
       </c>
       <c r="C1598" s="16"/>
       <c r="D1598" s="17"/>
@@ -56299,7 +56313,7 @@
         <v>2914</v>
       </c>
       <c r="M1598" s="18" t="s">
-        <v>3217</v>
+        <v>3213</v>
       </c>
       <c r="N1598" s="19"/>
       <c r="O1598" s="19"/>
@@ -56307,19 +56321,19 @@
     </row>
     <row r="1599" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1599" s="15">
-        <v>11385</v>
+        <v>11383</v>
       </c>
       <c r="B1599" s="15" t="s">
-        <v>3218</v>
+        <v>3214</v>
       </c>
       <c r="C1599" s="16"/>
       <c r="D1599" s="17"/>
       <c r="E1599" s="17"/>
       <c r="F1599" s="17"/>
-      <c r="G1599" s="17"/>
-      <c r="H1599" s="17">
-        <v>1</v>
-      </c>
+      <c r="G1599" s="17">
+        <v>-1</v>
+      </c>
+      <c r="H1599" s="17"/>
       <c r="I1599" s="17"/>
       <c r="J1599" s="17"/>
       <c r="K1599" s="17"/>
@@ -56327,7 +56341,7 @@
         <v>2914</v>
       </c>
       <c r="M1599" s="18" t="s">
-        <v>3219</v>
+        <v>3215</v>
       </c>
       <c r="N1599" s="19"/>
       <c r="O1599" s="19"/>
@@ -56335,10 +56349,10 @@
     </row>
     <row r="1600" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1600" s="15">
-        <v>11386</v>
+        <v>11384</v>
       </c>
       <c r="B1600" s="15" t="s">
-        <v>3220</v>
+        <v>3216</v>
       </c>
       <c r="C1600" s="16"/>
       <c r="D1600" s="17"/>
@@ -56353,7 +56367,7 @@
         <v>2914</v>
       </c>
       <c r="M1600" s="18" t="s">
-        <v>3221</v>
+        <v>3217</v>
       </c>
       <c r="N1600" s="19"/>
       <c r="O1600" s="19"/>
@@ -56361,17 +56375,19 @@
     </row>
     <row r="1601" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1601" s="15">
-        <v>11387</v>
+        <v>11385</v>
       </c>
       <c r="B1601" s="15" t="s">
-        <v>3222</v>
+        <v>3218</v>
       </c>
       <c r="C1601" s="16"/>
       <c r="D1601" s="17"/>
       <c r="E1601" s="17"/>
       <c r="F1601" s="17"/>
       <c r="G1601" s="17"/>
-      <c r="H1601" s="17"/>
+      <c r="H1601" s="17">
+        <v>1</v>
+      </c>
       <c r="I1601" s="17"/>
       <c r="J1601" s="17"/>
       <c r="K1601" s="17"/>
@@ -56379,7 +56395,7 @@
         <v>2914</v>
       </c>
       <c r="M1601" s="18" t="s">
-        <v>3223</v>
+        <v>3219</v>
       </c>
       <c r="N1601" s="19"/>
       <c r="O1601" s="19"/>
@@ -56387,10 +56403,10 @@
     </row>
     <row r="1602" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1602" s="15">
-        <v>11388</v>
+        <v>11386</v>
       </c>
       <c r="B1602" s="15" t="s">
-        <v>3224</v>
+        <v>3220</v>
       </c>
       <c r="C1602" s="16"/>
       <c r="D1602" s="17"/>
@@ -56405,7 +56421,7 @@
         <v>2914</v>
       </c>
       <c r="M1602" s="18" t="s">
-        <v>3225</v>
+        <v>3221</v>
       </c>
       <c r="N1602" s="19"/>
       <c r="O1602" s="19"/>
@@ -56413,10 +56429,10 @@
     </row>
     <row r="1603" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1603" s="15">
-        <v>11389</v>
+        <v>11387</v>
       </c>
       <c r="B1603" s="15" t="s">
-        <v>3226</v>
+        <v>3222</v>
       </c>
       <c r="C1603" s="16"/>
       <c r="D1603" s="17"/>
@@ -56431,7 +56447,7 @@
         <v>2914</v>
       </c>
       <c r="M1603" s="18" t="s">
-        <v>3227</v>
+        <v>3223</v>
       </c>
       <c r="N1603" s="19"/>
       <c r="O1603" s="19"/>
@@ -56439,10 +56455,10 @@
     </row>
     <row r="1604" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1604" s="15">
-        <v>11390</v>
+        <v>11388</v>
       </c>
       <c r="B1604" s="15" t="s">
-        <v>3228</v>
+        <v>3224</v>
       </c>
       <c r="C1604" s="16"/>
       <c r="D1604" s="17"/>
@@ -56457,7 +56473,7 @@
         <v>2914</v>
       </c>
       <c r="M1604" s="18" t="s">
-        <v>3229</v>
+        <v>3225</v>
       </c>
       <c r="N1604" s="19"/>
       <c r="O1604" s="19"/>
@@ -56465,10 +56481,10 @@
     </row>
     <row r="1605" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1605" s="15">
-        <v>11391</v>
+        <v>11389</v>
       </c>
       <c r="B1605" s="15" t="s">
-        <v>3230</v>
+        <v>3226</v>
       </c>
       <c r="C1605" s="16"/>
       <c r="D1605" s="17"/>
@@ -56483,7 +56499,7 @@
         <v>2914</v>
       </c>
       <c r="M1605" s="18" t="s">
-        <v>3231</v>
+        <v>3227</v>
       </c>
       <c r="N1605" s="19"/>
       <c r="O1605" s="19"/>
@@ -56491,19 +56507,17 @@
     </row>
     <row r="1606" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1606" s="15">
-        <v>11392</v>
+        <v>11390</v>
       </c>
       <c r="B1606" s="15" t="s">
-        <v>3232</v>
+        <v>3228</v>
       </c>
       <c r="C1606" s="16"/>
       <c r="D1606" s="17"/>
       <c r="E1606" s="17"/>
       <c r="F1606" s="17"/>
       <c r="G1606" s="17"/>
-      <c r="H1606" s="17">
-        <v>-1</v>
-      </c>
+      <c r="H1606" s="17"/>
       <c r="I1606" s="17"/>
       <c r="J1606" s="17"/>
       <c r="K1606" s="17"/>
@@ -56511,7 +56525,7 @@
         <v>2914</v>
       </c>
       <c r="M1606" s="18" t="s">
-        <v>3233</v>
+        <v>3229</v>
       </c>
       <c r="N1606" s="19"/>
       <c r="O1606" s="19"/>
@@ -56519,10 +56533,10 @@
     </row>
     <row r="1607" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1607" s="15">
-        <v>11393</v>
+        <v>11391</v>
       </c>
       <c r="B1607" s="15" t="s">
-        <v>3234</v>
+        <v>3230</v>
       </c>
       <c r="C1607" s="16"/>
       <c r="D1607" s="17"/>
@@ -56537,7 +56551,7 @@
         <v>2914</v>
       </c>
       <c r="M1607" s="18" t="s">
-        <v>3235</v>
+        <v>3231</v>
       </c>
       <c r="N1607" s="19"/>
       <c r="O1607" s="19"/>
@@ -56545,17 +56559,19 @@
     </row>
     <row r="1608" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1608" s="15">
-        <v>11394</v>
+        <v>11392</v>
       </c>
       <c r="B1608" s="15" t="s">
-        <v>3236</v>
+        <v>3232</v>
       </c>
       <c r="C1608" s="16"/>
       <c r="D1608" s="17"/>
       <c r="E1608" s="17"/>
       <c r="F1608" s="17"/>
       <c r="G1608" s="17"/>
-      <c r="H1608" s="17"/>
+      <c r="H1608" s="17">
+        <v>-1</v>
+      </c>
       <c r="I1608" s="17"/>
       <c r="J1608" s="17"/>
       <c r="K1608" s="17"/>
@@ -56563,7 +56579,7 @@
         <v>2914</v>
       </c>
       <c r="M1608" s="18" t="s">
-        <v>3237</v>
+        <v>3233</v>
       </c>
       <c r="N1608" s="19"/>
       <c r="O1608" s="19"/>
@@ -56571,10 +56587,10 @@
     </row>
     <row r="1609" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1609" s="15">
-        <v>11395</v>
+        <v>11393</v>
       </c>
       <c r="B1609" s="15" t="s">
-        <v>3238</v>
+        <v>3234</v>
       </c>
       <c r="C1609" s="16"/>
       <c r="D1609" s="17"/>
@@ -56589,7 +56605,7 @@
         <v>2914</v>
       </c>
       <c r="M1609" s="18" t="s">
-        <v>3239</v>
+        <v>3235</v>
       </c>
       <c r="N1609" s="19"/>
       <c r="O1609" s="19"/>
@@ -56597,10 +56613,10 @@
     </row>
     <row r="1610" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1610" s="15">
-        <v>11396</v>
+        <v>11394</v>
       </c>
       <c r="B1610" s="15" t="s">
-        <v>3240</v>
+        <v>3236</v>
       </c>
       <c r="C1610" s="16"/>
       <c r="D1610" s="17"/>
@@ -56615,7 +56631,7 @@
         <v>2914</v>
       </c>
       <c r="M1610" s="18" t="s">
-        <v>3241</v>
+        <v>3237</v>
       </c>
       <c r="N1610" s="19"/>
       <c r="O1610" s="19"/>
@@ -56623,10 +56639,10 @@
     </row>
     <row r="1611" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1611" s="15">
-        <v>11397</v>
+        <v>11395</v>
       </c>
       <c r="B1611" s="15" t="s">
-        <v>3242</v>
+        <v>3238</v>
       </c>
       <c r="C1611" s="16"/>
       <c r="D1611" s="17"/>
@@ -56638,10 +56654,10 @@
       <c r="J1611" s="17"/>
       <c r="K1611" s="17"/>
       <c r="L1611" s="18" t="s">
-        <v>3243</v>
+        <v>2914</v>
       </c>
       <c r="M1611" s="18" t="s">
-        <v>3244</v>
+        <v>3239</v>
       </c>
       <c r="N1611" s="19"/>
       <c r="O1611" s="19"/>
@@ -56649,10 +56665,10 @@
     </row>
     <row r="1612" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1612" s="15">
-        <v>11398</v>
+        <v>11396</v>
       </c>
       <c r="B1612" s="15" t="s">
-        <v>3245</v>
+        <v>3240</v>
       </c>
       <c r="C1612" s="16"/>
       <c r="D1612" s="17"/>
@@ -56664,10 +56680,10 @@
       <c r="J1612" s="17"/>
       <c r="K1612" s="17"/>
       <c r="L1612" s="18" t="s">
-        <v>3204</v>
+        <v>2914</v>
       </c>
       <c r="M1612" s="18" t="s">
-        <v>3246</v>
+        <v>3241</v>
       </c>
       <c r="N1612" s="19"/>
       <c r="O1612" s="19"/>
@@ -56675,10 +56691,10 @@
     </row>
     <row r="1613" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1613" s="15">
-        <v>11399</v>
+        <v>11397</v>
       </c>
       <c r="B1613" s="15" t="s">
-        <v>3247</v>
+        <v>3242</v>
       </c>
       <c r="C1613" s="16"/>
       <c r="D1613" s="17"/>
@@ -56690,10 +56706,10 @@
       <c r="J1613" s="17"/>
       <c r="K1613" s="17"/>
       <c r="L1613" s="18" t="s">
-        <v>3202</v>
+        <v>3243</v>
       </c>
       <c r="M1613" s="18" t="s">
-        <v>3248</v>
+        <v>3244</v>
       </c>
       <c r="N1613" s="19"/>
       <c r="O1613" s="19"/>
@@ -56701,10 +56717,10 @@
     </row>
     <row r="1614" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1614" s="15">
-        <v>11400</v>
+        <v>11398</v>
       </c>
       <c r="B1614" s="15" t="s">
-        <v>3249</v>
+        <v>3245</v>
       </c>
       <c r="C1614" s="16"/>
       <c r="D1614" s="17"/>
@@ -56716,10 +56732,10 @@
       <c r="J1614" s="17"/>
       <c r="K1614" s="17"/>
       <c r="L1614" s="18" t="s">
-        <v>3250</v>
+        <v>3204</v>
       </c>
       <c r="M1614" s="18" t="s">
-        <v>3251</v>
+        <v>3246</v>
       </c>
       <c r="N1614" s="19"/>
       <c r="O1614" s="19"/>
@@ -56727,27 +56743,25 @@
     </row>
     <row r="1615" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1615" s="15">
-        <v>11401</v>
+        <v>11399</v>
       </c>
       <c r="B1615" s="15" t="s">
-        <v>3252</v>
+        <v>3247</v>
       </c>
       <c r="C1615" s="16"/>
       <c r="D1615" s="17"/>
       <c r="E1615" s="17"/>
       <c r="F1615" s="17"/>
-      <c r="G1615" s="17">
-        <v>1</v>
-      </c>
+      <c r="G1615" s="17"/>
       <c r="H1615" s="17"/>
       <c r="I1615" s="17"/>
       <c r="J1615" s="17"/>
       <c r="K1615" s="17"/>
       <c r="L1615" s="18" t="s">
-        <v>3250</v>
+        <v>3202</v>
       </c>
       <c r="M1615" s="18" t="s">
-        <v>3253</v>
+        <v>3248</v>
       </c>
       <c r="N1615" s="19"/>
       <c r="O1615" s="19"/>
@@ -56755,10 +56769,10 @@
     </row>
     <row r="1616" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1616" s="15">
-        <v>11402</v>
+        <v>11400</v>
       </c>
       <c r="B1616" s="15" t="s">
-        <v>3254</v>
+        <v>3249</v>
       </c>
       <c r="C1616" s="16"/>
       <c r="D1616" s="17"/>
@@ -56770,10 +56784,10 @@
       <c r="J1616" s="17"/>
       <c r="K1616" s="17"/>
       <c r="L1616" s="18" t="s">
-        <v>2034</v>
+        <v>3250</v>
       </c>
       <c r="M1616" s="18" t="s">
-        <v>3255</v>
+        <v>3251</v>
       </c>
       <c r="N1616" s="19"/>
       <c r="O1616" s="19"/>
@@ -56781,25 +56795,27 @@
     </row>
     <row r="1617" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1617" s="15">
-        <v>11403</v>
+        <v>11401</v>
       </c>
       <c r="B1617" s="15" t="s">
-        <v>3256</v>
+        <v>3252</v>
       </c>
       <c r="C1617" s="16"/>
       <c r="D1617" s="17"/>
       <c r="E1617" s="17"/>
       <c r="F1617" s="17"/>
-      <c r="G1617" s="17"/>
+      <c r="G1617" s="17">
+        <v>1</v>
+      </c>
       <c r="H1617" s="17"/>
       <c r="I1617" s="17"/>
       <c r="J1617" s="17"/>
       <c r="K1617" s="17"/>
       <c r="L1617" s="18" t="s">
-        <v>3257</v>
+        <v>3250</v>
       </c>
       <c r="M1617" s="18" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
       <c r="N1617" s="19"/>
       <c r="O1617" s="19"/>
@@ -56807,10 +56823,10 @@
     </row>
     <row r="1618" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1618" s="15">
-        <v>11404</v>
+        <v>11402</v>
       </c>
       <c r="B1618" s="15" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="C1618" s="16"/>
       <c r="D1618" s="17"/>
@@ -56822,10 +56838,10 @@
       <c r="J1618" s="17"/>
       <c r="K1618" s="17"/>
       <c r="L1618" s="18" t="s">
-        <v>3260</v>
+        <v>2034</v>
       </c>
       <c r="M1618" s="18" t="s">
-        <v>3261</v>
+        <v>3255</v>
       </c>
       <c r="N1618" s="19"/>
       <c r="O1618" s="19"/>
@@ -56833,10 +56849,10 @@
     </row>
     <row r="1619" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1619" s="15">
-        <v>11405</v>
+        <v>11403</v>
       </c>
       <c r="B1619" s="15" t="s">
-        <v>3262</v>
+        <v>3256</v>
       </c>
       <c r="C1619" s="16"/>
       <c r="D1619" s="17"/>
@@ -56848,10 +56864,10 @@
       <c r="J1619" s="17"/>
       <c r="K1619" s="17"/>
       <c r="L1619" s="18" t="s">
-        <v>3263</v>
+        <v>3257</v>
       </c>
       <c r="M1619" s="18" t="s">
-        <v>3264</v>
+        <v>3258</v>
       </c>
       <c r="N1619" s="19"/>
       <c r="O1619" s="19"/>
@@ -56859,10 +56875,10 @@
     </row>
     <row r="1620" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1620" s="15">
-        <v>11406</v>
+        <v>11404</v>
       </c>
       <c r="B1620" s="15" t="s">
-        <v>3265</v>
+        <v>3259</v>
       </c>
       <c r="C1620" s="16"/>
       <c r="D1620" s="17"/>
@@ -56874,10 +56890,10 @@
       <c r="J1620" s="17"/>
       <c r="K1620" s="17"/>
       <c r="L1620" s="18" t="s">
-        <v>3099</v>
+        <v>3260</v>
       </c>
       <c r="M1620" s="18" t="s">
-        <v>3266</v>
+        <v>3261</v>
       </c>
       <c r="N1620" s="19"/>
       <c r="O1620" s="19"/>
@@ -56885,10 +56901,10 @@
     </row>
     <row r="1621" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1621" s="15">
-        <v>11407</v>
+        <v>11405</v>
       </c>
       <c r="B1621" s="15" t="s">
-        <v>3267</v>
+        <v>3262</v>
       </c>
       <c r="C1621" s="16"/>
       <c r="D1621" s="17"/>
@@ -56900,10 +56916,10 @@
       <c r="J1621" s="17"/>
       <c r="K1621" s="17"/>
       <c r="L1621" s="18" t="s">
-        <v>3268</v>
+        <v>3263</v>
       </c>
       <c r="M1621" s="18" t="s">
-        <v>3269</v>
+        <v>3264</v>
       </c>
       <c r="N1621" s="19"/>
       <c r="O1621" s="19"/>
@@ -56911,10 +56927,10 @@
     </row>
     <row r="1622" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1622" s="15">
-        <v>11408</v>
+        <v>11406</v>
       </c>
       <c r="B1622" s="15" t="s">
-        <v>3270</v>
+        <v>3265</v>
       </c>
       <c r="C1622" s="16"/>
       <c r="D1622" s="17"/>
@@ -56926,10 +56942,10 @@
       <c r="J1622" s="17"/>
       <c r="K1622" s="17"/>
       <c r="L1622" s="18" t="s">
-        <v>3271</v>
+        <v>3099</v>
       </c>
       <c r="M1622" s="18" t="s">
-        <v>3272</v>
+        <v>3266</v>
       </c>
       <c r="N1622" s="19"/>
       <c r="O1622" s="19"/>
@@ -56937,10 +56953,10 @@
     </row>
     <row r="1623" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1623" s="15">
-        <v>11409</v>
+        <v>11407</v>
       </c>
       <c r="B1623" s="15" t="s">
-        <v>3273</v>
+        <v>3267</v>
       </c>
       <c r="C1623" s="16"/>
       <c r="D1623" s="17"/>
@@ -56952,10 +56968,10 @@
       <c r="J1623" s="17"/>
       <c r="K1623" s="17"/>
       <c r="L1623" s="18" t="s">
-        <v>3274</v>
+        <v>3268</v>
       </c>
       <c r="M1623" s="18" t="s">
-        <v>3275</v>
+        <v>3269</v>
       </c>
       <c r="N1623" s="19"/>
       <c r="O1623" s="19"/>
@@ -56963,10 +56979,10 @@
     </row>
     <row r="1624" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1624" s="15">
-        <v>11410</v>
+        <v>11408</v>
       </c>
       <c r="B1624" s="15" t="s">
-        <v>3276</v>
+        <v>3270</v>
       </c>
       <c r="C1624" s="16"/>
       <c r="D1624" s="17"/>
@@ -56978,10 +56994,10 @@
       <c r="J1624" s="17"/>
       <c r="K1624" s="17"/>
       <c r="L1624" s="18" t="s">
-        <v>2034</v>
+        <v>3271</v>
       </c>
       <c r="M1624" s="18" t="s">
-        <v>3277</v>
+        <v>3272</v>
       </c>
       <c r="N1624" s="19"/>
       <c r="O1624" s="19"/>
@@ -56989,10 +57005,10 @@
     </row>
     <row r="1625" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1625" s="15">
-        <v>11411</v>
+        <v>11409</v>
       </c>
       <c r="B1625" s="15" t="s">
-        <v>3278</v>
+        <v>3273</v>
       </c>
       <c r="C1625" s="16"/>
       <c r="D1625" s="17"/>
@@ -57004,10 +57020,10 @@
       <c r="J1625" s="17"/>
       <c r="K1625" s="17"/>
       <c r="L1625" s="18" t="s">
-        <v>3257</v>
+        <v>3274</v>
       </c>
       <c r="M1625" s="18" t="s">
-        <v>3279</v>
+        <v>3275</v>
       </c>
       <c r="N1625" s="19"/>
       <c r="O1625" s="19"/>
@@ -57015,10 +57031,10 @@
     </row>
     <row r="1626" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1626" s="15">
-        <v>11412</v>
+        <v>11410</v>
       </c>
       <c r="B1626" s="15" t="s">
-        <v>3280</v>
+        <v>3276</v>
       </c>
       <c r="C1626" s="16"/>
       <c r="D1626" s="17"/>
@@ -57030,10 +57046,10 @@
       <c r="J1626" s="17"/>
       <c r="K1626" s="17"/>
       <c r="L1626" s="18" t="s">
-        <v>2196</v>
+        <v>2034</v>
       </c>
       <c r="M1626" s="18" t="s">
-        <v>3281</v>
+        <v>3277</v>
       </c>
       <c r="N1626" s="19"/>
       <c r="O1626" s="19"/>
@@ -57041,10 +57057,10 @@
     </row>
     <row r="1627" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1627" s="15">
-        <v>11413</v>
+        <v>11411</v>
       </c>
       <c r="B1627" s="15" t="s">
-        <v>3282</v>
+        <v>3278</v>
       </c>
       <c r="C1627" s="16"/>
       <c r="D1627" s="17"/>
@@ -57056,10 +57072,10 @@
       <c r="J1627" s="17"/>
       <c r="K1627" s="17"/>
       <c r="L1627" s="18" t="s">
-        <v>3283</v>
+        <v>3257</v>
       </c>
       <c r="M1627" s="18" t="s">
-        <v>3284</v>
+        <v>3279</v>
       </c>
       <c r="N1627" s="19"/>
       <c r="O1627" s="19"/>
@@ -57067,10 +57083,10 @@
     </row>
     <row r="1628" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1628" s="15">
-        <v>11414</v>
+        <v>11412</v>
       </c>
       <c r="B1628" s="15" t="s">
-        <v>3285</v>
+        <v>3280</v>
       </c>
       <c r="C1628" s="16"/>
       <c r="D1628" s="17"/>
@@ -57082,10 +57098,10 @@
       <c r="J1628" s="17"/>
       <c r="K1628" s="17"/>
       <c r="L1628" s="18" t="s">
-        <v>2037</v>
+        <v>2196</v>
       </c>
       <c r="M1628" s="18" t="s">
-        <v>3286</v>
+        <v>3281</v>
       </c>
       <c r="N1628" s="19"/>
       <c r="O1628" s="19"/>
@@ -57093,10 +57109,10 @@
     </row>
     <row r="1629" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1629" s="15">
-        <v>11415</v>
+        <v>11413</v>
       </c>
       <c r="B1629" s="15" t="s">
-        <v>3287</v>
+        <v>3282</v>
       </c>
       <c r="C1629" s="16"/>
       <c r="D1629" s="17"/>
@@ -57108,10 +57124,10 @@
       <c r="J1629" s="17"/>
       <c r="K1629" s="17"/>
       <c r="L1629" s="18" t="s">
-        <v>2037</v>
+        <v>3283</v>
       </c>
       <c r="M1629" s="18" t="s">
-        <v>3288</v>
+        <v>3284</v>
       </c>
       <c r="N1629" s="19"/>
       <c r="O1629" s="19"/>
@@ -57119,10 +57135,10 @@
     </row>
     <row r="1630" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1630" s="15">
-        <v>11416</v>
+        <v>11414</v>
       </c>
       <c r="B1630" s="15" t="s">
-        <v>3289</v>
+        <v>3285</v>
       </c>
       <c r="C1630" s="16"/>
       <c r="D1630" s="17"/>
@@ -57137,7 +57153,7 @@
         <v>2037</v>
       </c>
       <c r="M1630" s="18" t="s">
-        <v>3290</v>
+        <v>3286</v>
       </c>
       <c r="N1630" s="19"/>
       <c r="O1630" s="19"/>
@@ -57145,10 +57161,10 @@
     </row>
     <row r="1631" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1631" s="15">
-        <v>11417</v>
+        <v>11415</v>
       </c>
       <c r="B1631" s="15" t="s">
-        <v>3291</v>
+        <v>3287</v>
       </c>
       <c r="C1631" s="16"/>
       <c r="D1631" s="17"/>
@@ -57163,7 +57179,7 @@
         <v>2037</v>
       </c>
       <c r="M1631" s="18" t="s">
-        <v>3292</v>
+        <v>3288</v>
       </c>
       <c r="N1631" s="19"/>
       <c r="O1631" s="19"/>
@@ -57171,10 +57187,10 @@
     </row>
     <row r="1632" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1632" s="15">
-        <v>11418</v>
+        <v>11416</v>
       </c>
       <c r="B1632" s="15" t="s">
-        <v>3293</v>
+        <v>3289</v>
       </c>
       <c r="C1632" s="16"/>
       <c r="D1632" s="17"/>
@@ -57189,7 +57205,7 @@
         <v>2037</v>
       </c>
       <c r="M1632" s="18" t="s">
-        <v>3294</v>
+        <v>3290</v>
       </c>
       <c r="N1632" s="19"/>
       <c r="O1632" s="19"/>
@@ -57197,10 +57213,10 @@
     </row>
     <row r="1633" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1633" s="15">
-        <v>11419</v>
+        <v>11417</v>
       </c>
       <c r="B1633" s="15" t="s">
-        <v>3295</v>
+        <v>3291</v>
       </c>
       <c r="C1633" s="16"/>
       <c r="D1633" s="17"/>
@@ -57215,7 +57231,7 @@
         <v>2037</v>
       </c>
       <c r="M1633" s="18" t="s">
-        <v>3296</v>
+        <v>3292</v>
       </c>
       <c r="N1633" s="19"/>
       <c r="O1633" s="19"/>
@@ -57223,10 +57239,10 @@
     </row>
     <row r="1634" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1634" s="15">
-        <v>11420</v>
+        <v>11418</v>
       </c>
       <c r="B1634" s="15" t="s">
-        <v>3297</v>
+        <v>3293</v>
       </c>
       <c r="C1634" s="16"/>
       <c r="D1634" s="17"/>
@@ -57241,7 +57257,7 @@
         <v>2037</v>
       </c>
       <c r="M1634" s="18" t="s">
-        <v>3298</v>
+        <v>3294</v>
       </c>
       <c r="N1634" s="19"/>
       <c r="O1634" s="19"/>
@@ -57249,10 +57265,10 @@
     </row>
     <row r="1635" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1635" s="15">
-        <v>11421</v>
+        <v>11419</v>
       </c>
       <c r="B1635" s="15" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="C1635" s="16"/>
       <c r="D1635" s="17"/>
@@ -57267,7 +57283,7 @@
         <v>2037</v>
       </c>
       <c r="M1635" s="18" t="s">
-        <v>3300</v>
+        <v>3296</v>
       </c>
       <c r="N1635" s="19"/>
       <c r="O1635" s="19"/>
@@ -57275,10 +57291,10 @@
     </row>
     <row r="1636" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1636" s="15">
-        <v>11422</v>
+        <v>11420</v>
       </c>
       <c r="B1636" s="15" t="s">
-        <v>3301</v>
+        <v>3297</v>
       </c>
       <c r="C1636" s="16"/>
       <c r="D1636" s="17"/>
@@ -57293,7 +57309,7 @@
         <v>2037</v>
       </c>
       <c r="M1636" s="18" t="s">
-        <v>3302</v>
+        <v>3298</v>
       </c>
       <c r="N1636" s="19"/>
       <c r="O1636" s="19"/>
@@ -57301,14 +57317,12 @@
     </row>
     <row r="1637" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1637" s="15">
-        <v>11423</v>
+        <v>11421</v>
       </c>
       <c r="B1637" s="15" t="s">
-        <v>3303</v>
-      </c>
-      <c r="C1637" s="16" t="s">
-        <v>3304</v>
-      </c>
+        <v>3299</v>
+      </c>
+      <c r="C1637" s="16"/>
       <c r="D1637" s="17"/>
       <c r="E1637" s="17"/>
       <c r="F1637" s="17"/>
@@ -57321,7 +57335,7 @@
         <v>2037</v>
       </c>
       <c r="M1637" s="18" t="s">
-        <v>3305</v>
+        <v>3300</v>
       </c>
       <c r="N1637" s="19"/>
       <c r="O1637" s="19"/>
@@ -57329,10 +57343,10 @@
     </row>
     <row r="1638" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1638" s="15">
-        <v>11424</v>
+        <v>11422</v>
       </c>
       <c r="B1638" s="15" t="s">
-        <v>3306</v>
+        <v>3301</v>
       </c>
       <c r="C1638" s="16"/>
       <c r="D1638" s="17"/>
@@ -57347,7 +57361,7 @@
         <v>2037</v>
       </c>
       <c r="M1638" s="18" t="s">
-        <v>3307</v>
+        <v>3302</v>
       </c>
       <c r="N1638" s="19"/>
       <c r="O1638" s="19"/>
@@ -57355,12 +57369,14 @@
     </row>
     <row r="1639" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1639" s="15">
-        <v>11425</v>
+        <v>11423</v>
       </c>
       <c r="B1639" s="15" t="s">
-        <v>3308</v>
-      </c>
-      <c r="C1639" s="16"/>
+        <v>3303</v>
+      </c>
+      <c r="C1639" s="16" t="s">
+        <v>3304</v>
+      </c>
       <c r="D1639" s="17"/>
       <c r="E1639" s="17"/>
       <c r="F1639" s="17"/>
@@ -57373,7 +57389,7 @@
         <v>2037</v>
       </c>
       <c r="M1639" s="18" t="s">
-        <v>3307</v>
+        <v>3305</v>
       </c>
       <c r="N1639" s="19"/>
       <c r="O1639" s="19"/>
@@ -57381,14 +57397,12 @@
     </row>
     <row r="1640" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1640" s="15">
-        <v>11426</v>
+        <v>11424</v>
       </c>
       <c r="B1640" s="15" t="s">
-        <v>3309</v>
-      </c>
-      <c r="C1640" s="16" t="s">
-        <v>3310</v>
-      </c>
+        <v>3306</v>
+      </c>
+      <c r="C1640" s="16"/>
       <c r="D1640" s="17"/>
       <c r="E1640" s="17"/>
       <c r="F1640" s="17"/>
@@ -57409,14 +57423,12 @@
     </row>
     <row r="1641" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1641" s="15">
-        <v>11427</v>
+        <v>11425</v>
       </c>
       <c r="B1641" s="15" t="s">
-        <v>3311</v>
-      </c>
-      <c r="C1641" s="16" t="s">
-        <v>3312</v>
-      </c>
+        <v>3308</v>
+      </c>
+      <c r="C1641" s="16"/>
       <c r="D1641" s="17"/>
       <c r="E1641" s="17"/>
       <c r="F1641" s="17"/>
@@ -57429,7 +57441,7 @@
         <v>2037</v>
       </c>
       <c r="M1641" s="18" t="s">
-        <v>3313</v>
+        <v>3307</v>
       </c>
       <c r="N1641" s="19"/>
       <c r="O1641" s="19"/>
@@ -57437,12 +57449,14 @@
     </row>
     <row r="1642" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1642" s="15">
-        <v>11428</v>
+        <v>11426</v>
       </c>
       <c r="B1642" s="15" t="s">
-        <v>3314</v>
-      </c>
-      <c r="C1642" s="16"/>
+        <v>3309</v>
+      </c>
+      <c r="C1642" s="16" t="s">
+        <v>3310</v>
+      </c>
       <c r="D1642" s="17"/>
       <c r="E1642" s="17"/>
       <c r="F1642" s="17"/>
@@ -57455,7 +57469,7 @@
         <v>2037</v>
       </c>
       <c r="M1642" s="18" t="s">
-        <v>3315</v>
+        <v>3307</v>
       </c>
       <c r="N1642" s="19"/>
       <c r="O1642" s="19"/>
@@ -57463,12 +57477,14 @@
     </row>
     <row r="1643" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1643" s="15">
-        <v>11429</v>
+        <v>11427</v>
       </c>
       <c r="B1643" s="15" t="s">
-        <v>3316</v>
-      </c>
-      <c r="C1643" s="16"/>
+        <v>3311</v>
+      </c>
+      <c r="C1643" s="16" t="s">
+        <v>3312</v>
+      </c>
       <c r="D1643" s="17"/>
       <c r="E1643" s="17"/>
       <c r="F1643" s="17"/>
@@ -57481,7 +57497,7 @@
         <v>2037</v>
       </c>
       <c r="M1643" s="18" t="s">
-        <v>3317</v>
+        <v>3313</v>
       </c>
       <c r="N1643" s="19"/>
       <c r="O1643" s="19"/>
@@ -57489,10 +57505,10 @@
     </row>
     <row r="1644" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1644" s="15">
-        <v>11430</v>
+        <v>11428</v>
       </c>
       <c r="B1644" s="15" t="s">
-        <v>3665</v>
+        <v>3314</v>
       </c>
       <c r="C1644" s="16"/>
       <c r="D1644" s="17"/>
@@ -57507,7 +57523,7 @@
         <v>2037</v>
       </c>
       <c r="M1644" s="18" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="N1644" s="19"/>
       <c r="O1644" s="19"/>
@@ -57515,10 +57531,10 @@
     </row>
     <row r="1645" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1645" s="15">
-        <v>11431</v>
+        <v>11429</v>
       </c>
       <c r="B1645" s="15" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="C1645" s="16"/>
       <c r="D1645" s="17"/>
@@ -57533,7 +57549,7 @@
         <v>2037</v>
       </c>
       <c r="M1645" s="18" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="N1645" s="19"/>
       <c r="O1645" s="19"/>
@@ -57541,10 +57557,10 @@
     </row>
     <row r="1646" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1646" s="15">
-        <v>11432</v>
+        <v>11430</v>
       </c>
       <c r="B1646" s="15" t="s">
-        <v>3321</v>
+        <v>3665</v>
       </c>
       <c r="C1646" s="16"/>
       <c r="D1646" s="17"/>
@@ -57559,7 +57575,7 @@
         <v>2037</v>
       </c>
       <c r="M1646" s="18" t="s">
-        <v>3322</v>
+        <v>3318</v>
       </c>
       <c r="N1646" s="19"/>
       <c r="O1646" s="19"/>
@@ -57567,10 +57583,10 @@
     </row>
     <row r="1647" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1647" s="15">
-        <v>11433</v>
+        <v>11431</v>
       </c>
       <c r="B1647" s="15" t="s">
-        <v>3323</v>
+        <v>3319</v>
       </c>
       <c r="C1647" s="16"/>
       <c r="D1647" s="17"/>
@@ -57585,7 +57601,7 @@
         <v>2037</v>
       </c>
       <c r="M1647" s="18" t="s">
-        <v>3324</v>
+        <v>3320</v>
       </c>
       <c r="N1647" s="19"/>
       <c r="O1647" s="19"/>
@@ -57593,10 +57609,10 @@
     </row>
     <row r="1648" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1648" s="15">
-        <v>11434</v>
+        <v>11432</v>
       </c>
       <c r="B1648" s="15" t="s">
-        <v>3325</v>
+        <v>3321</v>
       </c>
       <c r="C1648" s="16"/>
       <c r="D1648" s="17"/>
@@ -57611,7 +57627,7 @@
         <v>2037</v>
       </c>
       <c r="M1648" s="18" t="s">
-        <v>3326</v>
+        <v>3322</v>
       </c>
       <c r="N1648" s="19"/>
       <c r="O1648" s="19"/>
@@ -57619,10 +57635,10 @@
     </row>
     <row r="1649" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1649" s="15">
-        <v>11435</v>
+        <v>11433</v>
       </c>
       <c r="B1649" s="15" t="s">
-        <v>3327</v>
+        <v>3323</v>
       </c>
       <c r="C1649" s="16"/>
       <c r="D1649" s="17"/>
@@ -57637,7 +57653,7 @@
         <v>2037</v>
       </c>
       <c r="M1649" s="18" t="s">
-        <v>3328</v>
+        <v>3324</v>
       </c>
       <c r="N1649" s="19"/>
       <c r="O1649" s="19"/>
@@ -57645,10 +57661,10 @@
     </row>
     <row r="1650" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1650" s="15">
-        <v>11436</v>
+        <v>11434</v>
       </c>
       <c r="B1650" s="15" t="s">
-        <v>3329</v>
+        <v>3325</v>
       </c>
       <c r="C1650" s="16"/>
       <c r="D1650" s="17"/>
@@ -57663,7 +57679,7 @@
         <v>2037</v>
       </c>
       <c r="M1650" s="18" t="s">
-        <v>3330</v>
+        <v>3326</v>
       </c>
       <c r="N1650" s="19"/>
       <c r="O1650" s="19"/>
@@ -57671,10 +57687,10 @@
     </row>
     <row r="1651" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1651" s="15">
-        <v>11437</v>
+        <v>11435</v>
       </c>
       <c r="B1651" s="15" t="s">
-        <v>3331</v>
+        <v>3327</v>
       </c>
       <c r="C1651" s="16"/>
       <c r="D1651" s="17"/>
@@ -57689,7 +57705,7 @@
         <v>2037</v>
       </c>
       <c r="M1651" s="18" t="s">
-        <v>3332</v>
+        <v>3328</v>
       </c>
       <c r="N1651" s="19"/>
       <c r="O1651" s="19"/>
@@ -57697,10 +57713,10 @@
     </row>
     <row r="1652" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1652" s="15">
-        <v>11438</v>
+        <v>11436</v>
       </c>
       <c r="B1652" s="15" t="s">
-        <v>3333</v>
+        <v>3329</v>
       </c>
       <c r="C1652" s="16"/>
       <c r="D1652" s="17"/>
@@ -57715,7 +57731,7 @@
         <v>2037</v>
       </c>
       <c r="M1652" s="18" t="s">
-        <v>3334</v>
+        <v>3330</v>
       </c>
       <c r="N1652" s="19"/>
       <c r="O1652" s="19"/>
@@ -57723,14 +57739,12 @@
     </row>
     <row r="1653" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1653" s="15">
-        <v>11439</v>
+        <v>11437</v>
       </c>
       <c r="B1653" s="15" t="s">
-        <v>3335</v>
-      </c>
-      <c r="C1653" s="16" t="s">
-        <v>3336</v>
-      </c>
+        <v>3331</v>
+      </c>
+      <c r="C1653" s="16"/>
       <c r="D1653" s="17"/>
       <c r="E1653" s="17"/>
       <c r="F1653" s="17"/>
@@ -57743,7 +57757,7 @@
         <v>2037</v>
       </c>
       <c r="M1653" s="18" t="s">
-        <v>3337</v>
+        <v>3332</v>
       </c>
       <c r="N1653" s="19"/>
       <c r="O1653" s="19"/>
@@ -57751,10 +57765,10 @@
     </row>
     <row r="1654" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1654" s="15">
-        <v>11440</v>
+        <v>11438</v>
       </c>
       <c r="B1654" s="15" t="s">
-        <v>3338</v>
+        <v>3333</v>
       </c>
       <c r="C1654" s="16"/>
       <c r="D1654" s="17"/>
@@ -57769,7 +57783,7 @@
         <v>2037</v>
       </c>
       <c r="M1654" s="18" t="s">
-        <v>3339</v>
+        <v>3334</v>
       </c>
       <c r="N1654" s="19"/>
       <c r="O1654" s="19"/>
@@ -57777,12 +57791,14 @@
     </row>
     <row r="1655" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1655" s="15">
-        <v>11441</v>
+        <v>11439</v>
       </c>
       <c r="B1655" s="15" t="s">
-        <v>3340</v>
-      </c>
-      <c r="C1655" s="16"/>
+        <v>3335</v>
+      </c>
+      <c r="C1655" s="16" t="s">
+        <v>3336</v>
+      </c>
       <c r="D1655" s="17"/>
       <c r="E1655" s="17"/>
       <c r="F1655" s="17"/>
@@ -57795,7 +57811,7 @@
         <v>2037</v>
       </c>
       <c r="M1655" s="18" t="s">
-        <v>3341</v>
+        <v>3337</v>
       </c>
       <c r="N1655" s="19"/>
       <c r="O1655" s="19"/>
@@ -57803,10 +57819,10 @@
     </row>
     <row r="1656" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1656" s="15">
-        <v>11442</v>
+        <v>11440</v>
       </c>
       <c r="B1656" s="15" t="s">
-        <v>3342</v>
+        <v>3338</v>
       </c>
       <c r="C1656" s="16"/>
       <c r="D1656" s="17"/>
@@ -57821,7 +57837,7 @@
         <v>2037</v>
       </c>
       <c r="M1656" s="18" t="s">
-        <v>3343</v>
+        <v>3339</v>
       </c>
       <c r="N1656" s="19"/>
       <c r="O1656" s="19"/>
@@ -57829,10 +57845,10 @@
     </row>
     <row r="1657" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1657" s="15">
-        <v>11443</v>
+        <v>11441</v>
       </c>
       <c r="B1657" s="15" t="s">
-        <v>3344</v>
+        <v>3340</v>
       </c>
       <c r="C1657" s="16"/>
       <c r="D1657" s="17"/>
@@ -57847,7 +57863,7 @@
         <v>2037</v>
       </c>
       <c r="M1657" s="18" t="s">
-        <v>3345</v>
+        <v>3341</v>
       </c>
       <c r="N1657" s="19"/>
       <c r="O1657" s="19"/>
@@ -57855,10 +57871,10 @@
     </row>
     <row r="1658" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1658" s="15">
-        <v>11444</v>
+        <v>11442</v>
       </c>
       <c r="B1658" s="15" t="s">
-        <v>3346</v>
+        <v>3342</v>
       </c>
       <c r="C1658" s="16"/>
       <c r="D1658" s="17"/>
@@ -57873,7 +57889,7 @@
         <v>2037</v>
       </c>
       <c r="M1658" s="18" t="s">
-        <v>3347</v>
+        <v>3343</v>
       </c>
       <c r="N1658" s="19"/>
       <c r="O1658" s="19"/>
@@ -57881,10 +57897,10 @@
     </row>
     <row r="1659" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1659" s="15">
-        <v>11445</v>
+        <v>11443</v>
       </c>
       <c r="B1659" s="15" t="s">
-        <v>3348</v>
+        <v>3344</v>
       </c>
       <c r="C1659" s="16"/>
       <c r="D1659" s="17"/>
@@ -57899,7 +57915,7 @@
         <v>2037</v>
       </c>
       <c r="M1659" s="18" t="s">
-        <v>3349</v>
+        <v>3345</v>
       </c>
       <c r="N1659" s="19"/>
       <c r="O1659" s="19"/>
@@ -57907,14 +57923,12 @@
     </row>
     <row r="1660" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1660" s="15">
-        <v>11446</v>
+        <v>11444</v>
       </c>
       <c r="B1660" s="15" t="s">
-        <v>3350</v>
-      </c>
-      <c r="C1660" s="16" t="s">
-        <v>3351</v>
-      </c>
+        <v>3346</v>
+      </c>
+      <c r="C1660" s="16"/>
       <c r="D1660" s="17"/>
       <c r="E1660" s="17"/>
       <c r="F1660" s="17"/>
@@ -57927,7 +57941,7 @@
         <v>2037</v>
       </c>
       <c r="M1660" s="18" t="s">
-        <v>3352</v>
+        <v>3347</v>
       </c>
       <c r="N1660" s="19"/>
       <c r="O1660" s="19"/>
@@ -57935,10 +57949,10 @@
     </row>
     <row r="1661" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1661" s="15">
-        <v>11447</v>
+        <v>11445</v>
       </c>
       <c r="B1661" s="15" t="s">
-        <v>3353</v>
+        <v>3348</v>
       </c>
       <c r="C1661" s="16"/>
       <c r="D1661" s="17"/>
@@ -57953,7 +57967,7 @@
         <v>2037</v>
       </c>
       <c r="M1661" s="18" t="s">
-        <v>3354</v>
+        <v>3349</v>
       </c>
       <c r="N1661" s="19"/>
       <c r="O1661" s="19"/>
@@ -57961,12 +57975,14 @@
     </row>
     <row r="1662" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1662" s="15">
-        <v>11448</v>
+        <v>11446</v>
       </c>
       <c r="B1662" s="15" t="s">
-        <v>3355</v>
-      </c>
-      <c r="C1662" s="16"/>
+        <v>3350</v>
+      </c>
+      <c r="C1662" s="16" t="s">
+        <v>3351</v>
+      </c>
       <c r="D1662" s="17"/>
       <c r="E1662" s="17"/>
       <c r="F1662" s="17"/>
@@ -57979,7 +57995,7 @@
         <v>2037</v>
       </c>
       <c r="M1662" s="18" t="s">
-        <v>3356</v>
+        <v>3352</v>
       </c>
       <c r="N1662" s="19"/>
       <c r="O1662" s="19"/>
@@ -57987,10 +58003,10 @@
     </row>
     <row r="1663" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1663" s="15">
-        <v>11449</v>
+        <v>11447</v>
       </c>
       <c r="B1663" s="15" t="s">
-        <v>3357</v>
+        <v>3353</v>
       </c>
       <c r="C1663" s="16"/>
       <c r="D1663" s="17"/>
@@ -58005,7 +58021,7 @@
         <v>2037</v>
       </c>
       <c r="M1663" s="18" t="s">
-        <v>3358</v>
+        <v>3354</v>
       </c>
       <c r="N1663" s="19"/>
       <c r="O1663" s="19"/>
@@ -58013,14 +58029,12 @@
     </row>
     <row r="1664" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1664" s="15">
-        <v>11450</v>
+        <v>11448</v>
       </c>
       <c r="B1664" s="15" t="s">
-        <v>3359</v>
-      </c>
-      <c r="C1664" s="16" t="s">
-        <v>3360</v>
-      </c>
+        <v>3355</v>
+      </c>
+      <c r="C1664" s="16"/>
       <c r="D1664" s="17"/>
       <c r="E1664" s="17"/>
       <c r="F1664" s="17"/>
@@ -58033,7 +58047,7 @@
         <v>2037</v>
       </c>
       <c r="M1664" s="18" t="s">
-        <v>3361</v>
+        <v>3356</v>
       </c>
       <c r="N1664" s="19"/>
       <c r="O1664" s="19"/>
@@ -58041,40 +58055,40 @@
     </row>
     <row r="1665" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1665" s="15">
-        <v>11451</v>
+        <v>11449</v>
       </c>
       <c r="B1665" s="15" t="s">
-        <v>3362</v>
-      </c>
-      <c r="C1665" s="16" t="s">
-        <v>3363</v>
-      </c>
+        <v>3357</v>
+      </c>
+      <c r="C1665" s="16"/>
       <c r="D1665" s="17"/>
       <c r="E1665" s="17"/>
-      <c r="F1665" s="17">
-        <v>80</v>
-      </c>
+      <c r="F1665" s="17"/>
       <c r="G1665" s="17"/>
       <c r="H1665" s="17"/>
       <c r="I1665" s="17"/>
       <c r="J1665" s="17"/>
       <c r="K1665" s="17"/>
       <c r="L1665" s="18" t="s">
-        <v>3932</v>
-      </c>
-      <c r="M1665" s="18"/>
+        <v>2037</v>
+      </c>
+      <c r="M1665" s="18" t="s">
+        <v>3358</v>
+      </c>
       <c r="N1665" s="19"/>
       <c r="O1665" s="19"/>
       <c r="P1665" s="20"/>
     </row>
     <row r="1666" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1666" s="15">
-        <v>11452</v>
+        <v>11450</v>
       </c>
       <c r="B1666" s="15" t="s">
-        <v>3364</v>
-      </c>
-      <c r="C1666" s="16"/>
+        <v>3359</v>
+      </c>
+      <c r="C1666" s="16" t="s">
+        <v>3360</v>
+      </c>
       <c r="D1666" s="17"/>
       <c r="E1666" s="17"/>
       <c r="F1666" s="17"/>
@@ -58084,10 +58098,10 @@
       <c r="J1666" s="17"/>
       <c r="K1666" s="17"/>
       <c r="L1666" s="18" t="s">
-        <v>3365</v>
+        <v>2037</v>
       </c>
       <c r="M1666" s="18" t="s">
-        <v>3366</v>
+        <v>3361</v>
       </c>
       <c r="N1666" s="19"/>
       <c r="O1666" s="19"/>
@@ -58095,40 +58109,40 @@
     </row>
     <row r="1667" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1667" s="15">
-        <v>11453</v>
+        <v>11451</v>
       </c>
       <c r="B1667" s="15" t="s">
-        <v>3367</v>
-      </c>
-      <c r="C1667" s="16"/>
+        <v>3362</v>
+      </c>
+      <c r="C1667" s="16" t="s">
+        <v>3363</v>
+      </c>
       <c r="D1667" s="17"/>
       <c r="E1667" s="17"/>
-      <c r="F1667" s="17"/>
+      <c r="F1667" s="17">
+        <v>80</v>
+      </c>
       <c r="G1667" s="17"/>
       <c r="H1667" s="17"/>
       <c r="I1667" s="17"/>
       <c r="J1667" s="17"/>
       <c r="K1667" s="17"/>
       <c r="L1667" s="18" t="s">
-        <v>3365</v>
-      </c>
-      <c r="M1667" s="18" t="s">
-        <v>3366</v>
-      </c>
+        <v>3932</v>
+      </c>
+      <c r="M1667" s="18"/>
       <c r="N1667" s="19"/>
       <c r="O1667" s="19"/>
       <c r="P1667" s="20"/>
     </row>
     <row r="1668" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1668" s="15">
-        <v>11454</v>
+        <v>11452</v>
       </c>
       <c r="B1668" s="15" t="s">
-        <v>3368</v>
-      </c>
-      <c r="C1668" s="16" t="s">
-        <v>3369</v>
-      </c>
+        <v>3364</v>
+      </c>
+      <c r="C1668" s="16"/>
       <c r="D1668" s="17"/>
       <c r="E1668" s="17"/>
       <c r="F1668" s="17"/>
@@ -58141,7 +58155,7 @@
         <v>3365</v>
       </c>
       <c r="M1668" s="18" t="s">
-        <v>3370</v>
+        <v>3366</v>
       </c>
       <c r="N1668" s="19"/>
       <c r="O1668" s="19"/>
@@ -58149,14 +58163,12 @@
     </row>
     <row r="1669" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1669" s="15">
-        <v>11455</v>
+        <v>11453</v>
       </c>
       <c r="B1669" s="15" t="s">
-        <v>3371</v>
-      </c>
-      <c r="C1669" s="16" t="s">
-        <v>3372</v>
-      </c>
+        <v>3367</v>
+      </c>
+      <c r="C1669" s="16"/>
       <c r="D1669" s="17"/>
       <c r="E1669" s="17"/>
       <c r="F1669" s="17"/>
@@ -58166,25 +58178,25 @@
       <c r="J1669" s="17"/>
       <c r="K1669" s="17"/>
       <c r="L1669" s="18" t="s">
-        <v>3373</v>
+        <v>3365</v>
       </c>
       <c r="M1669" s="18" t="s">
-        <v>3374</v>
-      </c>
-      <c r="N1669" s="19" t="s">
-        <v>3375</v>
-      </c>
+        <v>3366</v>
+      </c>
+      <c r="N1669" s="19"/>
       <c r="O1669" s="19"/>
       <c r="P1669" s="20"/>
     </row>
     <row r="1670" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1670" s="15">
-        <v>11456</v>
+        <v>11454</v>
       </c>
       <c r="B1670" s="15" t="s">
-        <v>3376</v>
-      </c>
-      <c r="C1670" s="16"/>
+        <v>3368</v>
+      </c>
+      <c r="C1670" s="16" t="s">
+        <v>3369</v>
+      </c>
       <c r="D1670" s="17"/>
       <c r="E1670" s="17"/>
       <c r="F1670" s="17"/>
@@ -58197,7 +58209,7 @@
         <v>3365</v>
       </c>
       <c r="M1670" s="18" t="s">
-        <v>3377</v>
+        <v>3370</v>
       </c>
       <c r="N1670" s="19"/>
       <c r="O1670" s="19"/>
@@ -58205,13 +58217,13 @@
     </row>
     <row r="1671" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1671" s="15">
-        <v>11457</v>
+        <v>11455</v>
       </c>
       <c r="B1671" s="15" t="s">
-        <v>3378</v>
+        <v>3371</v>
       </c>
       <c r="C1671" s="16" t="s">
-        <v>3379</v>
+        <v>3372</v>
       </c>
       <c r="D1671" s="17"/>
       <c r="E1671" s="17"/>
@@ -58222,27 +58234,25 @@
       <c r="J1671" s="17"/>
       <c r="K1671" s="17"/>
       <c r="L1671" s="18" t="s">
-        <v>3365</v>
+        <v>3373</v>
       </c>
       <c r="M1671" s="18" t="s">
-        <v>3380</v>
+        <v>3374</v>
       </c>
       <c r="N1671" s="19" t="s">
-        <v>3381</v>
+        <v>3375</v>
       </c>
       <c r="O1671" s="19"/>
       <c r="P1671" s="20"/>
     </row>
     <row r="1672" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1672" s="15">
-        <v>21457</v>
+        <v>11456</v>
       </c>
       <c r="B1672" s="15" t="s">
-        <v>3382</v>
-      </c>
-      <c r="C1672" s="16" t="s">
-        <v>3383</v>
-      </c>
+        <v>3376</v>
+      </c>
+      <c r="C1672" s="16"/>
       <c r="D1672" s="17"/>
       <c r="E1672" s="17"/>
       <c r="F1672" s="17"/>
@@ -58250,23 +58260,27 @@
       <c r="H1672" s="17"/>
       <c r="I1672" s="17"/>
       <c r="J1672" s="17"/>
-      <c r="K1672" s="17">
-        <v>1</v>
-      </c>
-      <c r="L1672" s="18"/>
-      <c r="M1672" s="18"/>
+      <c r="K1672" s="17"/>
+      <c r="L1672" s="18" t="s">
+        <v>3365</v>
+      </c>
+      <c r="M1672" s="18" t="s">
+        <v>3377</v>
+      </c>
       <c r="N1672" s="19"/>
       <c r="O1672" s="19"/>
       <c r="P1672" s="20"/>
     </row>
     <row r="1673" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1673" s="15">
-        <v>11458</v>
+        <v>11457</v>
       </c>
       <c r="B1673" s="15" t="s">
-        <v>3384</v>
-      </c>
-      <c r="C1673" s="16"/>
+        <v>3378</v>
+      </c>
+      <c r="C1673" s="16" t="s">
+        <v>3379</v>
+      </c>
       <c r="D1673" s="17"/>
       <c r="E1673" s="17"/>
       <c r="F1673" s="17"/>
@@ -58276,21 +58290,27 @@
       <c r="J1673" s="17"/>
       <c r="K1673" s="17"/>
       <c r="L1673" s="18" t="s">
-        <v>3366</v>
-      </c>
-      <c r="M1673" s="18"/>
-      <c r="N1673" s="19"/>
+        <v>3365</v>
+      </c>
+      <c r="M1673" s="18" t="s">
+        <v>3380</v>
+      </c>
+      <c r="N1673" s="19" t="s">
+        <v>3381</v>
+      </c>
       <c r="O1673" s="19"/>
       <c r="P1673" s="20"/>
     </row>
     <row r="1674" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1674" s="15">
-        <v>11459</v>
+        <v>21457</v>
       </c>
       <c r="B1674" s="15" t="s">
-        <v>3385</v>
-      </c>
-      <c r="C1674" s="16"/>
+        <v>3382</v>
+      </c>
+      <c r="C1674" s="16" t="s">
+        <v>3383</v>
+      </c>
       <c r="D1674" s="17"/>
       <c r="E1674" s="17"/>
       <c r="F1674" s="17"/>
@@ -58298,10 +58318,10 @@
       <c r="H1674" s="17"/>
       <c r="I1674" s="17"/>
       <c r="J1674" s="17"/>
-      <c r="K1674" s="17"/>
-      <c r="L1674" s="18" t="s">
-        <v>3366</v>
-      </c>
+      <c r="K1674" s="17">
+        <v>1</v>
+      </c>
+      <c r="L1674" s="18"/>
       <c r="M1674" s="18"/>
       <c r="N1674" s="19"/>
       <c r="O1674" s="19"/>
@@ -58309,10 +58329,10 @@
     </row>
     <row r="1675" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1675" s="15">
-        <v>11460</v>
+        <v>11458</v>
       </c>
       <c r="B1675" s="15" t="s">
-        <v>3386</v>
+        <v>3384</v>
       </c>
       <c r="C1675" s="16"/>
       <c r="D1675" s="17"/>
@@ -58326,19 +58346,17 @@
       <c r="L1675" s="18" t="s">
         <v>3366</v>
       </c>
-      <c r="M1675" s="18" t="s">
-        <v>3387</v>
-      </c>
+      <c r="M1675" s="18"/>
       <c r="N1675" s="19"/>
       <c r="O1675" s="19"/>
       <c r="P1675" s="20"/>
     </row>
     <row r="1676" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1676" s="15">
-        <v>11461</v>
+        <v>11459</v>
       </c>
       <c r="B1676" s="15" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="C1676" s="16"/>
       <c r="D1676" s="17"/>
@@ -58352,19 +58370,17 @@
       <c r="L1676" s="18" t="s">
         <v>3366</v>
       </c>
-      <c r="M1676" s="18" t="s">
-        <v>3389</v>
-      </c>
+      <c r="M1676" s="18"/>
       <c r="N1676" s="19"/>
       <c r="O1676" s="19"/>
       <c r="P1676" s="20"/>
     </row>
     <row r="1677" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1677" s="15">
-        <v>11462</v>
+        <v>11460</v>
       </c>
       <c r="B1677" s="15" t="s">
-        <v>3390</v>
+        <v>3386</v>
       </c>
       <c r="C1677" s="16"/>
       <c r="D1677" s="17"/>
@@ -58379,7 +58395,7 @@
         <v>3366</v>
       </c>
       <c r="M1677" s="18" t="s">
-        <v>3391</v>
+        <v>3387</v>
       </c>
       <c r="N1677" s="19"/>
       <c r="O1677" s="19"/>
@@ -58387,10 +58403,10 @@
     </row>
     <row r="1678" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1678" s="15">
-        <v>11463</v>
+        <v>11461</v>
       </c>
       <c r="B1678" s="15" t="s">
-        <v>3392</v>
+        <v>3388</v>
       </c>
       <c r="C1678" s="16"/>
       <c r="D1678" s="17"/>
@@ -58405,7 +58421,7 @@
         <v>3366</v>
       </c>
       <c r="M1678" s="18" t="s">
-        <v>3602</v>
+        <v>3389</v>
       </c>
       <c r="N1678" s="19"/>
       <c r="O1678" s="19"/>
@@ -58413,10 +58429,10 @@
     </row>
     <row r="1679" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1679" s="15">
-        <v>11464</v>
+        <v>11462</v>
       </c>
       <c r="B1679" s="15" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
       <c r="C1679" s="16"/>
       <c r="D1679" s="17"/>
@@ -58431,7 +58447,7 @@
         <v>3366</v>
       </c>
       <c r="M1679" s="18" t="s">
-        <v>3394</v>
+        <v>3391</v>
       </c>
       <c r="N1679" s="19"/>
       <c r="O1679" s="19"/>
@@ -58439,19 +58455,15 @@
     </row>
     <row r="1680" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1680" s="15">
-        <v>11465</v>
+        <v>11463</v>
       </c>
       <c r="B1680" s="15" t="s">
-        <v>3395</v>
-      </c>
-      <c r="C1680" s="16" t="s">
-        <v>3396</v>
-      </c>
+        <v>3392</v>
+      </c>
+      <c r="C1680" s="16"/>
       <c r="D1680" s="17"/>
       <c r="E1680" s="17"/>
-      <c r="F1680" s="17">
-        <v>88</v>
-      </c>
+      <c r="F1680" s="17"/>
       <c r="G1680" s="17"/>
       <c r="H1680" s="17"/>
       <c r="I1680" s="17"/>
@@ -58461,24 +58473,20 @@
         <v>3366</v>
       </c>
       <c r="M1680" s="18" t="s">
-        <v>3397</v>
-      </c>
-      <c r="N1680" s="19" t="s">
-        <v>3375</v>
-      </c>
+        <v>3602</v>
+      </c>
+      <c r="N1680" s="19"/>
       <c r="O1680" s="19"/>
       <c r="P1680" s="20"/>
     </row>
     <row r="1681" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1681" s="15">
-        <v>11466</v>
+        <v>11464</v>
       </c>
       <c r="B1681" s="15" t="s">
-        <v>3398</v>
-      </c>
-      <c r="C1681" s="16" t="s">
-        <v>3399</v>
-      </c>
+        <v>3393</v>
+      </c>
+      <c r="C1681" s="16"/>
       <c r="D1681" s="17"/>
       <c r="E1681" s="17"/>
       <c r="F1681" s="17"/>
@@ -58491,27 +58499,27 @@
         <v>3366</v>
       </c>
       <c r="M1681" s="18" t="s">
-        <v>3400</v>
-      </c>
-      <c r="N1681" s="19" t="s">
-        <v>2997</v>
-      </c>
+        <v>3394</v>
+      </c>
+      <c r="N1681" s="19"/>
       <c r="O1681" s="19"/>
       <c r="P1681" s="20"/>
     </row>
     <row r="1682" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1682" s="15">
-        <v>11467</v>
+        <v>11465</v>
       </c>
       <c r="B1682" s="15" t="s">
-        <v>3401</v>
+        <v>3395</v>
       </c>
       <c r="C1682" s="16" t="s">
-        <v>3402</v>
+        <v>3396</v>
       </c>
       <c r="D1682" s="17"/>
       <c r="E1682" s="17"/>
-      <c r="F1682" s="17"/>
+      <c r="F1682" s="17">
+        <v>88</v>
+      </c>
       <c r="G1682" s="17"/>
       <c r="H1682" s="17"/>
       <c r="I1682" s="17"/>
@@ -58521,74 +58529,80 @@
         <v>3366</v>
       </c>
       <c r="M1682" s="18" t="s">
-        <v>3403</v>
+        <v>3397</v>
       </c>
       <c r="N1682" s="19" t="s">
-        <v>3404</v>
+        <v>3375</v>
       </c>
       <c r="O1682" s="19"/>
       <c r="P1682" s="20"/>
     </row>
     <row r="1683" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1683" s="15">
-        <v>11468</v>
+        <v>11466</v>
       </c>
       <c r="B1683" s="15" t="s">
-        <v>3471</v>
-      </c>
-      <c r="C1683" s="16"/>
+        <v>3398</v>
+      </c>
+      <c r="C1683" s="16" t="s">
+        <v>3399</v>
+      </c>
       <c r="D1683" s="17"/>
       <c r="E1683" s="17"/>
       <c r="F1683" s="17"/>
       <c r="G1683" s="17"/>
       <c r="H1683" s="17"/>
       <c r="I1683" s="17"/>
-      <c r="J1683" s="17">
-        <v>-5</v>
-      </c>
+      <c r="J1683" s="17"/>
       <c r="K1683" s="17"/>
       <c r="L1683" s="18" t="s">
-        <v>3470</v>
-      </c>
-      <c r="M1683" s="18"/>
-      <c r="N1683" s="19"/>
+        <v>3366</v>
+      </c>
+      <c r="M1683" s="18" t="s">
+        <v>3400</v>
+      </c>
+      <c r="N1683" s="19" t="s">
+        <v>2997</v>
+      </c>
       <c r="O1683" s="19"/>
       <c r="P1683" s="20"/>
     </row>
     <row r="1684" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1684" s="15">
-        <v>11469</v>
+        <v>11467</v>
       </c>
       <c r="B1684" s="15" t="s">
-        <v>3472</v>
-      </c>
-      <c r="C1684" s="16"/>
+        <v>3401</v>
+      </c>
+      <c r="C1684" s="16" t="s">
+        <v>3402</v>
+      </c>
       <c r="D1684" s="17"/>
       <c r="E1684" s="17"/>
       <c r="F1684" s="17"/>
       <c r="G1684" s="17"/>
       <c r="H1684" s="17"/>
       <c r="I1684" s="17"/>
-      <c r="J1684" s="17">
-        <v>-50</v>
-      </c>
+      <c r="J1684" s="17"/>
       <c r="K1684" s="17"/>
       <c r="L1684" s="18" t="s">
-        <v>3473</v>
+        <v>3366</v>
       </c>
       <c r="M1684" s="18" t="s">
-        <v>3474</v>
-      </c>
-      <c r="N1684" s="19"/>
+        <v>3403</v>
+      </c>
+      <c r="N1684" s="19" t="s">
+        <v>3404</v>
+      </c>
       <c r="O1684" s="19"/>
       <c r="P1684" s="20"/>
     </row>
     <row r="1685" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1685" s="15">
-        <v>30001</v>
+        <v>11468</v>
       </c>
       <c r="B1685" s="15" t="s">
-        <v>3461</v>
+        <v>3471</v>
       </c>
       <c r="C1685" s="16"/>
       <c r="D1685" s="17"/>
@@ -58597,54 +58611,52 @@
       <c r="G1685" s="17"/>
       <c r="H1685" s="17"/>
       <c r="I1685" s="17"/>
-      <c r="J1685" s="17"/>
+      <c r="J1685" s="17">
+        <v>-5</v>
+      </c>
       <c r="K1685" s="17"/>
       <c r="L1685" s="18" t="s">
-        <v>3466</v>
+        <v>3470</v>
       </c>
       <c r="M1685" s="18"/>
-      <c r="N1685" s="19" t="s">
-        <v>3462</v>
-      </c>
+      <c r="N1685" s="19"/>
       <c r="O1685" s="19"/>
-      <c r="P1685" s="20" t="s">
-        <v>3463</v>
-      </c>
+      <c r="P1685" s="20"/>
     </row>
     <row r="1686" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1686" s="15">
-        <v>30002</v>
+        <v>11469</v>
       </c>
       <c r="B1686" s="15" t="s">
-        <v>3464</v>
-      </c>
-      <c r="C1686" s="16" t="s">
-        <v>3465</v>
-      </c>
+        <v>3472</v>
+      </c>
+      <c r="C1686" s="16"/>
       <c r="D1686" s="17"/>
       <c r="E1686" s="17"/>
       <c r="F1686" s="17"/>
       <c r="G1686" s="17"/>
       <c r="H1686" s="17"/>
-      <c r="I1686" s="17">
-        <v>-1</v>
-      </c>
-      <c r="J1686" s="17"/>
-      <c r="K1686" s="17">
-        <v>1</v>
-      </c>
-      <c r="L1686" s="18"/>
-      <c r="M1686" s="18"/>
+      <c r="I1686" s="17"/>
+      <c r="J1686" s="17">
+        <v>-50</v>
+      </c>
+      <c r="K1686" s="17"/>
+      <c r="L1686" s="18" t="s">
+        <v>3473</v>
+      </c>
+      <c r="M1686" s="18" t="s">
+        <v>3474</v>
+      </c>
       <c r="N1686" s="19"/>
       <c r="O1686" s="19"/>
       <c r="P1686" s="20"/>
     </row>
     <row r="1687" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1687" s="15">
-        <v>11470</v>
+        <v>30001</v>
       </c>
       <c r="B1687" s="15" t="s">
-        <v>3575</v>
+        <v>3461</v>
       </c>
       <c r="C1687" s="16"/>
       <c r="D1687" s="17"/>
@@ -58655,46 +58667,52 @@
       <c r="I1687" s="17"/>
       <c r="J1687" s="17"/>
       <c r="K1687" s="17"/>
-      <c r="L1687" s="18"/>
-      <c r="M1687" s="18" t="s">
-        <v>3603</v>
-      </c>
-      <c r="N1687" s="19"/>
+      <c r="L1687" s="18" t="s">
+        <v>3466</v>
+      </c>
+      <c r="M1687" s="18"/>
+      <c r="N1687" s="19" t="s">
+        <v>3462</v>
+      </c>
       <c r="O1687" s="19"/>
-      <c r="P1687" s="20"/>
+      <c r="P1687" s="20" t="s">
+        <v>3463</v>
+      </c>
     </row>
     <row r="1688" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1688" s="15">
-        <v>11471</v>
+        <v>30002</v>
       </c>
       <c r="B1688" s="15" t="s">
-        <v>3576</v>
-      </c>
-      <c r="C1688" s="16"/>
+        <v>3464</v>
+      </c>
+      <c r="C1688" s="16" t="s">
+        <v>3465</v>
+      </c>
       <c r="D1688" s="17"/>
       <c r="E1688" s="17"/>
       <c r="F1688" s="17"/>
       <c r="G1688" s="17"/>
       <c r="H1688" s="17"/>
-      <c r="I1688" s="17"/>
+      <c r="I1688" s="17">
+        <v>-1</v>
+      </c>
       <c r="J1688" s="17"/>
-      <c r="K1688" s="17"/>
-      <c r="L1688" s="18" t="s">
-        <v>2037</v>
-      </c>
-      <c r="M1688" s="18" t="s">
-        <v>3578</v>
-      </c>
+      <c r="K1688" s="17">
+        <v>1</v>
+      </c>
+      <c r="L1688" s="18"/>
+      <c r="M1688" s="18"/>
       <c r="N1688" s="19"/>
       <c r="O1688" s="19"/>
       <c r="P1688" s="20"/>
     </row>
     <row r="1689" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1689" s="15">
-        <v>11472</v>
+        <v>11470</v>
       </c>
       <c r="B1689" s="15" t="s">
-        <v>3577</v>
+        <v>3575</v>
       </c>
       <c r="C1689" s="16"/>
       <c r="D1689" s="17"/>
@@ -58705,11 +58723,9 @@
       <c r="I1689" s="17"/>
       <c r="J1689" s="17"/>
       <c r="K1689" s="17"/>
-      <c r="L1689" s="18" t="s">
-        <v>2037</v>
-      </c>
+      <c r="L1689" s="18"/>
       <c r="M1689" s="18" t="s">
-        <v>3579</v>
+        <v>3603</v>
       </c>
       <c r="N1689" s="19"/>
       <c r="O1689" s="19"/>
@@ -58717,10 +58733,10 @@
     </row>
     <row r="1690" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1690" s="15">
-        <v>11473</v>
+        <v>11471</v>
       </c>
       <c r="B1690" s="15" t="s">
-        <v>3588</v>
+        <v>3576</v>
       </c>
       <c r="C1690" s="16"/>
       <c r="D1690" s="17"/>
@@ -58735,7 +58751,7 @@
         <v>2037</v>
       </c>
       <c r="M1690" s="18" t="s">
-        <v>3580</v>
+        <v>3578</v>
       </c>
       <c r="N1690" s="19"/>
       <c r="O1690" s="19"/>
@@ -58743,10 +58759,10 @@
     </row>
     <row r="1691" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1691" s="15">
-        <v>11474</v>
+        <v>11472</v>
       </c>
       <c r="B1691" s="15" t="s">
-        <v>3589</v>
+        <v>3577</v>
       </c>
       <c r="C1691" s="16"/>
       <c r="D1691" s="17"/>
@@ -58757,9 +58773,11 @@
       <c r="I1691" s="17"/>
       <c r="J1691" s="17"/>
       <c r="K1691" s="17"/>
-      <c r="L1691" s="18"/>
+      <c r="L1691" s="18" t="s">
+        <v>2037</v>
+      </c>
       <c r="M1691" s="18" t="s">
-        <v>3581</v>
+        <v>3579</v>
       </c>
       <c r="N1691" s="19"/>
       <c r="O1691" s="19"/>
@@ -58767,27 +58785,25 @@
     </row>
     <row r="1692" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1692" s="15">
-        <v>11475</v>
+        <v>11473</v>
       </c>
       <c r="B1692" s="15" t="s">
-        <v>3593</v>
+        <v>3588</v>
       </c>
       <c r="C1692" s="16"/>
       <c r="D1692" s="17"/>
       <c r="E1692" s="17"/>
-      <c r="F1692" s="17">
-        <v>1</v>
-      </c>
+      <c r="F1692" s="17"/>
       <c r="G1692" s="17"/>
       <c r="H1692" s="17"/>
       <c r="I1692" s="17"/>
       <c r="J1692" s="17"/>
       <c r="K1692" s="17"/>
       <c r="L1692" s="18" t="s">
-        <v>3594</v>
+        <v>2037</v>
       </c>
       <c r="M1692" s="18" t="s">
-        <v>3582</v>
+        <v>3580</v>
       </c>
       <c r="N1692" s="19"/>
       <c r="O1692" s="19"/>
@@ -58795,10 +58811,10 @@
     </row>
     <row r="1693" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1693" s="15">
-        <v>11476</v>
+        <v>11474</v>
       </c>
       <c r="B1693" s="15" t="s">
-        <v>3604</v>
+        <v>3589</v>
       </c>
       <c r="C1693" s="16"/>
       <c r="D1693" s="17"/>
@@ -58811,7 +58827,7 @@
       <c r="K1693" s="17"/>
       <c r="L1693" s="18"/>
       <c r="M1693" s="18" t="s">
-        <v>3651</v>
+        <v>3581</v>
       </c>
       <c r="N1693" s="19"/>
       <c r="O1693" s="19"/>
@@ -58819,25 +58835,27 @@
     </row>
     <row r="1694" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1694" s="15">
-        <v>11477</v>
+        <v>11475</v>
       </c>
       <c r="B1694" s="15" t="s">
-        <v>3605</v>
+        <v>3593</v>
       </c>
       <c r="C1694" s="16"/>
       <c r="D1694" s="17"/>
       <c r="E1694" s="17"/>
-      <c r="F1694" s="17"/>
+      <c r="F1694" s="17">
+        <v>1</v>
+      </c>
       <c r="G1694" s="17"/>
       <c r="H1694" s="17"/>
       <c r="I1694" s="17"/>
       <c r="J1694" s="17"/>
       <c r="K1694" s="17"/>
       <c r="L1694" s="18" t="s">
-        <v>3606</v>
+        <v>3594</v>
       </c>
       <c r="M1694" s="18" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
       <c r="N1694" s="19"/>
       <c r="O1694" s="19"/>
@@ -58845,10 +58863,10 @@
     </row>
     <row r="1695" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1695" s="15">
-        <v>11478</v>
+        <v>11476</v>
       </c>
       <c r="B1695" s="15" t="s">
-        <v>3607</v>
+        <v>3604</v>
       </c>
       <c r="C1695" s="16"/>
       <c r="D1695" s="17"/>
@@ -58859,11 +58877,9 @@
       <c r="I1695" s="17"/>
       <c r="J1695" s="17"/>
       <c r="K1695" s="17"/>
-      <c r="L1695" s="18" t="s">
-        <v>3606</v>
-      </c>
+      <c r="L1695" s="18"/>
       <c r="M1695" s="18" t="s">
-        <v>3584</v>
+        <v>3651</v>
       </c>
       <c r="N1695" s="19"/>
       <c r="O1695" s="19"/>
@@ -58871,10 +58887,10 @@
     </row>
     <row r="1696" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1696" s="15">
-        <v>11479</v>
+        <v>11477</v>
       </c>
       <c r="B1696" s="15" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
       <c r="C1696" s="16"/>
       <c r="D1696" s="17"/>
@@ -58886,10 +58902,10 @@
       <c r="J1696" s="17"/>
       <c r="K1696" s="17"/>
       <c r="L1696" s="18" t="s">
-        <v>2037</v>
+        <v>3606</v>
       </c>
       <c r="M1696" s="18" t="s">
-        <v>3585</v>
+        <v>3583</v>
       </c>
       <c r="N1696" s="19"/>
       <c r="O1696" s="19"/>
@@ -58897,10 +58913,10 @@
     </row>
     <row r="1697" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1697" s="15">
-        <v>11480</v>
+        <v>11478</v>
       </c>
       <c r="B1697" s="15" t="s">
-        <v>3609</v>
+        <v>3607</v>
       </c>
       <c r="C1697" s="16"/>
       <c r="D1697" s="17"/>
@@ -58911,9 +58927,11 @@
       <c r="I1697" s="17"/>
       <c r="J1697" s="17"/>
       <c r="K1697" s="17"/>
-      <c r="L1697" s="18"/>
+      <c r="L1697" s="18" t="s">
+        <v>3606</v>
+      </c>
       <c r="M1697" s="18" t="s">
-        <v>3586</v>
+        <v>3584</v>
       </c>
       <c r="N1697" s="19"/>
       <c r="O1697" s="19"/>
@@ -58921,10 +58939,10 @@
     </row>
     <row r="1698" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1698" s="15">
-        <v>11481</v>
+        <v>11479</v>
       </c>
       <c r="B1698" s="15" t="s">
-        <v>3610</v>
+        <v>3608</v>
       </c>
       <c r="C1698" s="16"/>
       <c r="D1698" s="17"/>
@@ -58939,7 +58957,7 @@
         <v>2037</v>
       </c>
       <c r="M1698" s="18" t="s">
-        <v>3587</v>
+        <v>3585</v>
       </c>
       <c r="N1698" s="19"/>
       <c r="O1698" s="19"/>
@@ -58947,10 +58965,10 @@
     </row>
     <row r="1699" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1699" s="15">
-        <v>11482</v>
+        <v>11480</v>
       </c>
       <c r="B1699" s="15" t="s">
-        <v>3611</v>
+        <v>3609</v>
       </c>
       <c r="C1699" s="16"/>
       <c r="D1699" s="17"/>
@@ -58961,11 +58979,9 @@
       <c r="I1699" s="17"/>
       <c r="J1699" s="17"/>
       <c r="K1699" s="17"/>
-      <c r="L1699" s="18" t="s">
-        <v>3606</v>
-      </c>
+      <c r="L1699" s="18"/>
       <c r="M1699" s="18" t="s">
-        <v>3652</v>
+        <v>3586</v>
       </c>
       <c r="N1699" s="19"/>
       <c r="O1699" s="19"/>
@@ -58973,10 +58989,10 @@
     </row>
     <row r="1700" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1700" s="15">
-        <v>11483</v>
+        <v>11481</v>
       </c>
       <c r="B1700" s="15" t="s">
-        <v>3612</v>
+        <v>3610</v>
       </c>
       <c r="C1700" s="16"/>
       <c r="D1700" s="17"/>
@@ -58988,10 +59004,10 @@
       <c r="J1700" s="17"/>
       <c r="K1700" s="17"/>
       <c r="L1700" s="18" t="s">
-        <v>3613</v>
+        <v>2037</v>
       </c>
       <c r="M1700" s="18" t="s">
-        <v>3615</v>
+        <v>3587</v>
       </c>
       <c r="N1700" s="19"/>
       <c r="O1700" s="19"/>
@@ -58999,10 +59015,10 @@
     </row>
     <row r="1701" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1701" s="15">
-        <v>11484</v>
+        <v>11482</v>
       </c>
       <c r="B1701" s="15" t="s">
-        <v>3619</v>
+        <v>3611</v>
       </c>
       <c r="C1701" s="16"/>
       <c r="D1701" s="17"/>
@@ -59013,9 +59029,11 @@
       <c r="I1701" s="17"/>
       <c r="J1701" s="17"/>
       <c r="K1701" s="17"/>
-      <c r="L1701" s="18"/>
+      <c r="L1701" s="18" t="s">
+        <v>3606</v>
+      </c>
       <c r="M1701" s="18" t="s">
-        <v>3630</v>
+        <v>3652</v>
       </c>
       <c r="N1701" s="19"/>
       <c r="O1701" s="19"/>
@@ -59023,10 +59041,10 @@
     </row>
     <row r="1702" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1702" s="15">
-        <v>11485</v>
+        <v>11483</v>
       </c>
       <c r="B1702" s="15" t="s">
-        <v>3620</v>
+        <v>3612</v>
       </c>
       <c r="C1702" s="16"/>
       <c r="D1702" s="17"/>
@@ -59037,9 +59055,11 @@
       <c r="I1702" s="17"/>
       <c r="J1702" s="17"/>
       <c r="K1702" s="17"/>
-      <c r="L1702" s="18"/>
+      <c r="L1702" s="18" t="s">
+        <v>3613</v>
+      </c>
       <c r="M1702" s="18" t="s">
-        <v>3631</v>
+        <v>3615</v>
       </c>
       <c r="N1702" s="19"/>
       <c r="O1702" s="19"/>
@@ -59047,10 +59067,10 @@
     </row>
     <row r="1703" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1703" s="15">
-        <v>11486</v>
+        <v>11484</v>
       </c>
       <c r="B1703" s="15" t="s">
-        <v>3675</v>
+        <v>3619</v>
       </c>
       <c r="C1703" s="16"/>
       <c r="D1703" s="17"/>
@@ -59061,11 +59081,9 @@
       <c r="I1703" s="17"/>
       <c r="J1703" s="17"/>
       <c r="K1703" s="17"/>
-      <c r="L1703" s="18" t="s">
-        <v>2037</v>
-      </c>
+      <c r="L1703" s="18"/>
       <c r="M1703" s="18" t="s">
-        <v>3632</v>
+        <v>3630</v>
       </c>
       <c r="N1703" s="19"/>
       <c r="O1703" s="19"/>
@@ -59073,10 +59091,10 @@
     </row>
     <row r="1704" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1704" s="15">
-        <v>11487</v>
+        <v>11485</v>
       </c>
       <c r="B1704" s="15" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="C1704" s="16"/>
       <c r="D1704" s="17"/>
@@ -59089,7 +59107,7 @@
       <c r="K1704" s="17"/>
       <c r="L1704" s="18"/>
       <c r="M1704" s="18" t="s">
-        <v>3633</v>
+        <v>3631</v>
       </c>
       <c r="N1704" s="19"/>
       <c r="O1704" s="19"/>
@@ -59097,10 +59115,10 @@
     </row>
     <row r="1705" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1705" s="15">
-        <v>11488</v>
+        <v>11486</v>
       </c>
       <c r="B1705" s="15" t="s">
-        <v>3622</v>
+        <v>3675</v>
       </c>
       <c r="C1705" s="16"/>
       <c r="D1705" s="17"/>
@@ -59112,10 +59130,10 @@
       <c r="J1705" s="17"/>
       <c r="K1705" s="17"/>
       <c r="L1705" s="18" t="s">
-        <v>3606</v>
+        <v>2037</v>
       </c>
       <c r="M1705" s="18" t="s">
-        <v>3634</v>
+        <v>3632</v>
       </c>
       <c r="N1705" s="19"/>
       <c r="O1705" s="19"/>
@@ -59123,10 +59141,10 @@
     </row>
     <row r="1706" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1706" s="15">
-        <v>11489</v>
+        <v>11487</v>
       </c>
       <c r="B1706" s="15" t="s">
-        <v>3623</v>
+        <v>3621</v>
       </c>
       <c r="C1706" s="16"/>
       <c r="D1706" s="17"/>
@@ -59139,7 +59157,7 @@
       <c r="K1706" s="17"/>
       <c r="L1706" s="18"/>
       <c r="M1706" s="18" t="s">
-        <v>3635</v>
+        <v>3633</v>
       </c>
       <c r="N1706" s="19"/>
       <c r="O1706" s="19"/>
@@ -59147,10 +59165,10 @@
     </row>
     <row r="1707" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1707" s="15">
-        <v>11490</v>
+        <v>11488</v>
       </c>
       <c r="B1707" s="15" t="s">
-        <v>3624</v>
+        <v>3622</v>
       </c>
       <c r="C1707" s="16"/>
       <c r="D1707" s="17"/>
@@ -59162,10 +59180,10 @@
       <c r="J1707" s="17"/>
       <c r="K1707" s="17"/>
       <c r="L1707" s="18" t="s">
-        <v>2037</v>
+        <v>3606</v>
       </c>
       <c r="M1707" s="18" t="s">
-        <v>3636</v>
+        <v>3634</v>
       </c>
       <c r="N1707" s="19"/>
       <c r="O1707" s="19"/>
@@ -59173,10 +59191,10 @@
     </row>
     <row r="1708" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1708" s="15">
-        <v>11491</v>
+        <v>11489</v>
       </c>
       <c r="B1708" s="15" t="s">
-        <v>3625</v>
+        <v>3623</v>
       </c>
       <c r="C1708" s="16"/>
       <c r="D1708" s="17"/>
@@ -59187,11 +59205,9 @@
       <c r="I1708" s="17"/>
       <c r="J1708" s="17"/>
       <c r="K1708" s="17"/>
-      <c r="L1708" s="18" t="s">
-        <v>3642</v>
-      </c>
+      <c r="L1708" s="18"/>
       <c r="M1708" s="18" t="s">
-        <v>3637</v>
+        <v>3635</v>
       </c>
       <c r="N1708" s="19"/>
       <c r="O1708" s="19"/>
@@ -59199,18 +59215,16 @@
     </row>
     <row r="1709" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1709" s="15">
-        <v>11492</v>
+        <v>11490</v>
       </c>
       <c r="B1709" s="15" t="s">
-        <v>3629</v>
+        <v>3624</v>
       </c>
       <c r="C1709" s="16"/>
       <c r="D1709" s="17"/>
       <c r="E1709" s="17"/>
       <c r="F1709" s="17"/>
-      <c r="G1709" s="17">
-        <v>2</v>
-      </c>
+      <c r="G1709" s="17"/>
       <c r="H1709" s="17"/>
       <c r="I1709" s="17"/>
       <c r="J1709" s="17"/>
@@ -59219,7 +59233,7 @@
         <v>2037</v>
       </c>
       <c r="M1709" s="18" t="s">
-        <v>3638</v>
+        <v>3636</v>
       </c>
       <c r="N1709" s="19"/>
       <c r="O1709" s="19"/>
@@ -59227,10 +59241,10 @@
     </row>
     <row r="1710" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1710" s="15">
-        <v>11493</v>
+        <v>11491</v>
       </c>
       <c r="B1710" s="15" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
       <c r="C1710" s="16"/>
       <c r="D1710" s="17"/>
@@ -59242,10 +59256,10 @@
       <c r="J1710" s="17"/>
       <c r="K1710" s="17"/>
       <c r="L1710" s="18" t="s">
-        <v>3606</v>
+        <v>3642</v>
       </c>
       <c r="M1710" s="18" t="s">
-        <v>3639</v>
+        <v>3637</v>
       </c>
       <c r="N1710" s="19"/>
       <c r="O1710" s="19"/>
@@ -59253,25 +59267,27 @@
     </row>
     <row r="1711" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1711" s="15">
-        <v>11494</v>
+        <v>11492</v>
       </c>
       <c r="B1711" s="15" t="s">
-        <v>3627</v>
+        <v>3629</v>
       </c>
       <c r="C1711" s="16"/>
       <c r="D1711" s="17"/>
       <c r="E1711" s="17"/>
       <c r="F1711" s="17"/>
-      <c r="G1711" s="17"/>
+      <c r="G1711" s="17">
+        <v>2</v>
+      </c>
       <c r="H1711" s="17"/>
       <c r="I1711" s="17"/>
       <c r="J1711" s="17"/>
       <c r="K1711" s="17"/>
       <c r="L1711" s="18" t="s">
-        <v>3606</v>
+        <v>2037</v>
       </c>
       <c r="M1711" s="18" t="s">
-        <v>3640</v>
+        <v>3638</v>
       </c>
       <c r="N1711" s="19"/>
       <c r="O1711" s="19"/>
@@ -59279,10 +59295,10 @@
     </row>
     <row r="1712" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1712" s="15">
-        <v>11495</v>
+        <v>11493</v>
       </c>
       <c r="B1712" s="15" t="s">
-        <v>3628</v>
+        <v>3626</v>
       </c>
       <c r="C1712" s="16"/>
       <c r="D1712" s="17"/>
@@ -59294,10 +59310,10 @@
       <c r="J1712" s="17"/>
       <c r="K1712" s="17"/>
       <c r="L1712" s="18" t="s">
-        <v>2037</v>
+        <v>3606</v>
       </c>
       <c r="M1712" s="18" t="s">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="N1712" s="19"/>
       <c r="O1712" s="19"/>
@@ -59305,10 +59321,10 @@
     </row>
     <row r="1713" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1713" s="15">
-        <v>11496</v>
+        <v>11494</v>
       </c>
       <c r="B1713" s="15" t="s">
-        <v>3646</v>
+        <v>3627</v>
       </c>
       <c r="C1713" s="16"/>
       <c r="D1713" s="17"/>
@@ -59323,7 +59339,7 @@
         <v>3606</v>
       </c>
       <c r="M1713" s="18" t="s">
-        <v>3647</v>
+        <v>3640</v>
       </c>
       <c r="N1713" s="19"/>
       <c r="O1713" s="19"/>
@@ -59331,10 +59347,10 @@
     </row>
     <row r="1714" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1714" s="15">
-        <v>11497</v>
+        <v>11495</v>
       </c>
       <c r="B1714" s="15" t="s">
-        <v>3648</v>
+        <v>3628</v>
       </c>
       <c r="C1714" s="16"/>
       <c r="D1714" s="17"/>
@@ -59345,9 +59361,11 @@
       <c r="I1714" s="17"/>
       <c r="J1714" s="17"/>
       <c r="K1714" s="17"/>
-      <c r="L1714" s="18"/>
+      <c r="L1714" s="18" t="s">
+        <v>2037</v>
+      </c>
       <c r="M1714" s="18" t="s">
-        <v>3653</v>
+        <v>3641</v>
       </c>
       <c r="N1714" s="19"/>
       <c r="O1714" s="19"/>
@@ -59355,10 +59373,10 @@
     </row>
     <row r="1715" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1715" s="15">
-        <v>11498</v>
+        <v>11496</v>
       </c>
       <c r="B1715" s="15" t="s">
-        <v>3649</v>
+        <v>3646</v>
       </c>
       <c r="C1715" s="16"/>
       <c r="D1715" s="17"/>
@@ -59373,7 +59391,7 @@
         <v>3606</v>
       </c>
       <c r="M1715" s="18" t="s">
-        <v>3650</v>
+        <v>3647</v>
       </c>
       <c r="N1715" s="19"/>
       <c r="O1715" s="19"/>
@@ -59381,10 +59399,10 @@
     </row>
     <row r="1716" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1716" s="15">
-        <v>11499</v>
+        <v>11497</v>
       </c>
       <c r="B1716" s="15" t="s">
-        <v>3667</v>
+        <v>3648</v>
       </c>
       <c r="C1716" s="16"/>
       <c r="D1716" s="17"/>
@@ -59395,11 +59413,9 @@
       <c r="I1716" s="17"/>
       <c r="J1716" s="17"/>
       <c r="K1716" s="17"/>
-      <c r="L1716" s="18" t="s">
-        <v>3669</v>
-      </c>
+      <c r="L1716" s="18"/>
       <c r="M1716" s="18" t="s">
-        <v>3666</v>
+        <v>3653</v>
       </c>
       <c r="N1716" s="19"/>
       <c r="O1716" s="19"/>
@@ -59407,27 +59423,25 @@
     </row>
     <row r="1717" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1717" s="15">
-        <v>11500</v>
+        <v>11498</v>
       </c>
       <c r="B1717" s="15" t="s">
-        <v>3668</v>
+        <v>3649</v>
       </c>
       <c r="C1717" s="16"/>
       <c r="D1717" s="17"/>
       <c r="E1717" s="17"/>
-      <c r="F1717" s="17">
-        <v>-1</v>
-      </c>
+      <c r="F1717" s="17"/>
       <c r="G1717" s="17"/>
       <c r="H1717" s="17"/>
       <c r="I1717" s="17"/>
       <c r="J1717" s="17"/>
       <c r="K1717" s="17"/>
       <c r="L1717" s="18" t="s">
-        <v>3670</v>
+        <v>3606</v>
       </c>
       <c r="M1717" s="18" t="s">
-        <v>3671</v>
+        <v>3650</v>
       </c>
       <c r="N1717" s="19"/>
       <c r="O1717" s="19"/>
@@ -59435,10 +59449,10 @@
     </row>
     <row r="1718" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1718" s="15">
-        <v>11501</v>
+        <v>11499</v>
       </c>
       <c r="B1718" s="15" t="s">
-        <v>3672</v>
+        <v>3667</v>
       </c>
       <c r="C1718" s="16"/>
       <c r="D1718" s="17"/>
@@ -59450,10 +59464,10 @@
       <c r="J1718" s="17"/>
       <c r="K1718" s="17"/>
       <c r="L1718" s="18" t="s">
-        <v>3674</v>
+        <v>3669</v>
       </c>
       <c r="M1718" s="18" t="s">
-        <v>3673</v>
+        <v>3666</v>
       </c>
       <c r="N1718" s="19"/>
       <c r="O1718" s="19"/>
@@ -59461,33 +59475,39 @@
     </row>
     <row r="1719" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1719" s="15">
-        <v>11502</v>
+        <v>11500</v>
       </c>
       <c r="B1719" s="15" t="s">
-        <v>3767</v>
+        <v>3668</v>
       </c>
       <c r="C1719" s="16"/>
       <c r="D1719" s="17"/>
       <c r="E1719" s="17"/>
-      <c r="F1719" s="17"/>
+      <c r="F1719" s="17">
+        <v>-1</v>
+      </c>
       <c r="G1719" s="17"/>
       <c r="H1719" s="17"/>
       <c r="I1719" s="17"/>
       <c r="J1719" s="17"/>
       <c r="K1719" s="17"/>
       <c r="L1719" s="18" t="s">
-        <v>3669</v>
+        <v>3670</v>
       </c>
       <c r="M1719" s="18" t="s">
-        <v>3768</v>
+        <v>3671</v>
       </c>
       <c r="N1719" s="19"/>
       <c r="O1719" s="19"/>
       <c r="P1719" s="20"/>
     </row>
     <row r="1720" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1720" s="15"/>
-      <c r="B1720" s="15"/>
+      <c r="A1720" s="15">
+        <v>11501</v>
+      </c>
+      <c r="B1720" s="15" t="s">
+        <v>3672</v>
+      </c>
       <c r="C1720" s="16"/>
       <c r="D1720" s="17"/>
       <c r="E1720" s="17"/>
@@ -59497,15 +59517,23 @@
       <c r="I1720" s="17"/>
       <c r="J1720" s="17"/>
       <c r="K1720" s="17"/>
-      <c r="L1720" s="18"/>
-      <c r="M1720" s="18"/>
+      <c r="L1720" s="18" t="s">
+        <v>3674</v>
+      </c>
+      <c r="M1720" s="18" t="s">
+        <v>3673</v>
+      </c>
       <c r="N1720" s="19"/>
       <c r="O1720" s="19"/>
       <c r="P1720" s="20"/>
     </row>
     <row r="1721" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1721" s="15"/>
-      <c r="B1721" s="15"/>
+      <c r="A1721" s="15">
+        <v>11502</v>
+      </c>
+      <c r="B1721" s="15" t="s">
+        <v>3767</v>
+      </c>
       <c r="C1721" s="16"/>
       <c r="D1721" s="17"/>
       <c r="E1721" s="17"/>
@@ -59515,8 +59543,12 @@
       <c r="I1721" s="17"/>
       <c r="J1721" s="17"/>
       <c r="K1721" s="17"/>
-      <c r="L1721" s="18"/>
-      <c r="M1721" s="18"/>
+      <c r="L1721" s="18" t="s">
+        <v>3669</v>
+      </c>
+      <c r="M1721" s="18" t="s">
+        <v>3768</v>
+      </c>
       <c r="N1721" s="19"/>
       <c r="O1721" s="19"/>
       <c r="P1721" s="20"/>
@@ -60349,6 +60381,42 @@
       <c r="O1767" s="19"/>
       <c r="P1767" s="20"/>
     </row>
+    <row r="1768" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1768" s="15"/>
+      <c r="B1768" s="15"/>
+      <c r="C1768" s="16"/>
+      <c r="D1768" s="17"/>
+      <c r="E1768" s="17"/>
+      <c r="F1768" s="17"/>
+      <c r="G1768" s="17"/>
+      <c r="H1768" s="17"/>
+      <c r="I1768" s="17"/>
+      <c r="J1768" s="17"/>
+      <c r="K1768" s="17"/>
+      <c r="L1768" s="18"/>
+      <c r="M1768" s="18"/>
+      <c r="N1768" s="19"/>
+      <c r="O1768" s="19"/>
+      <c r="P1768" s="20"/>
+    </row>
+    <row r="1769" spans="1:16" ht="31.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1769" s="15"/>
+      <c r="B1769" s="15"/>
+      <c r="C1769" s="16"/>
+      <c r="D1769" s="17"/>
+      <c r="E1769" s="17"/>
+      <c r="F1769" s="17"/>
+      <c r="G1769" s="17"/>
+      <c r="H1769" s="17"/>
+      <c r="I1769" s="17"/>
+      <c r="J1769" s="17"/>
+      <c r="K1769" s="17"/>
+      <c r="L1769" s="18"/>
+      <c r="M1769" s="18"/>
+      <c r="N1769" s="19"/>
+      <c r="O1769" s="19"/>
+      <c r="P1769" s="20"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
